--- a/QA/testcases/ORSheet.xlsx
+++ b/QA/testcases/ORSheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="14685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="14685"/>
   </bookViews>
   <sheets>
     <sheet name="OR sheet" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="342">
   <si>
     <t>OR Name</t>
   </si>
@@ -1035,19 +1035,19 @@
   </si>
   <si>
     <t>//td[@tabindex='1']/input</t>
+  </si>
+  <si>
+    <t>applications-provider-correspondence-0</t>
+  </si>
+  <si>
+    <t>ACTION_PROVIDER_UPLOAD_DOCS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="38">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1150,158 +1150,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1356,194 +1216,8 @@
         <bgColor rgb="FFDDEBF7"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1551,253 +1225,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1806,7 +1238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1864,58 +1296,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2177,31 +1564,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H1048572"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.1428571428571" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="39.1428571428571" style="1" customWidth="1"/>
-    <col min="2" max="2" width="85.5714285714286" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.4285714285714" style="2" customWidth="1"/>
+    <col min="1" max="1" width="39.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="85.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.2857142857143" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.5714285714286" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.8571428571429" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="15.1428571428571" style="2"/>
+    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="15.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="16.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2227,13 +1614,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2256,7 +1643,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2279,7 +1666,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -2302,7 +1689,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -2325,7 +1712,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2348,7 +1735,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -2371,7 +1758,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -2394,14 +1781,14 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" spans="1:7">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="7"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1" spans="1:7">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -2424,7 +1811,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1" spans="1:7">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -2447,7 +1834,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" spans="1:7">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -2470,7 +1857,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1" spans="1:7">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -2493,7 +1880,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" spans="1:7">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -2516,7 +1903,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1" spans="1:7">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -2539,7 +1926,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -2562,7 +1949,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1" spans="1:7">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -2585,7 +1972,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1" spans="1:7">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -2907,7 +2294,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
@@ -2930,7 +2317,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
@@ -2953,7 +2340,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
@@ -2976,7 +2363,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:8">
       <c r="A36" s="4" t="s">
         <v>80</v>
       </c>
@@ -2987,7 +2374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>81</v>
       </c>
@@ -3010,7 +2397,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,7 +2446,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>89</v>
       </c>
@@ -3082,7 +2469,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
         <v>91</v>
       </c>
@@ -3105,7 +2492,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
         <v>93</v>
       </c>
@@ -3128,7 +2515,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
         <v>95</v>
       </c>
@@ -3151,7 +2538,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
         <v>97</v>
       </c>
@@ -3174,7 +2561,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
         <v>99</v>
       </c>
@@ -3338,7 +2725,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>119</v>
       </c>
@@ -3358,7 +2745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
         <v>121</v>
       </c>
@@ -3378,7 +2765,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
         <v>123</v>
       </c>
@@ -3398,7 +2785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
         <v>125</v>
       </c>
@@ -3441,7 +2828,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
         <v>129</v>
       </c>
@@ -3484,7 +2871,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
         <v>133</v>
       </c>
@@ -3504,7 +2891,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
         <v>135</v>
       </c>
@@ -3524,7 +2911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
         <v>137</v>
       </c>
@@ -3544,7 +2931,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
         <v>139</v>
       </c>
@@ -3564,7 +2951,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
         <v>141</v>
       </c>
@@ -3607,7 +2994,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
         <v>145</v>
       </c>
@@ -3650,7 +3037,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
         <v>149</v>
       </c>
@@ -3670,7 +3057,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
         <v>151</v>
       </c>
@@ -3690,7 +3077,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
         <v>153</v>
       </c>
@@ -3710,7 +3097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
         <v>155</v>
       </c>
@@ -3727,7 +3114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
         <v>156</v>
       </c>
@@ -3747,7 +3134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
         <v>158</v>
       </c>
@@ -3767,7 +3154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
         <v>160</v>
       </c>
@@ -3787,7 +3174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
         <v>162</v>
       </c>
@@ -3807,7 +3194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
         <v>164</v>
       </c>
@@ -3827,7 +3214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
         <v>166</v>
       </c>
@@ -3847,7 +3234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
         <v>168</v>
       </c>
@@ -3867,7 +3254,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
         <v>170</v>
       </c>
@@ -3887,7 +3274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
         <v>172</v>
       </c>
@@ -3907,7 +3294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" ht="30" spans="1:6">
+    <row r="80" spans="1:8" ht="30">
       <c r="A80" s="1" t="s">
         <v>174</v>
       </c>
@@ -4247,7 +3634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
         <v>214</v>
       </c>
@@ -4264,7 +3651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
         <v>216</v>
       </c>
@@ -4281,7 +3668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
         <v>218</v>
       </c>
@@ -4298,7 +3685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
         <v>220</v>
       </c>
@@ -4315,7 +3702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
         <v>222</v>
       </c>
@@ -4332,7 +3719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
         <v>224</v>
       </c>
@@ -4343,7 +3730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
         <v>226</v>
       </c>
@@ -4354,7 +3741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
         <v>228</v>
       </c>
@@ -4365,7 +3752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
         <v>229</v>
       </c>
@@ -4376,7 +3763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
         <v>231</v>
       </c>
@@ -4457,7 +3844,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
         <v>243</v>
       </c>
@@ -4535,44 +3922,41 @@
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>17</v>
+      <c r="A119" s="45" t="s">
+        <v>341</v>
+      </c>
+      <c r="B119" s="44" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B120" s="16" t="s">
-        <v>260</v>
+        <v>257</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
+      </c>
+      <c r="B121" s="16" t="s">
+        <v>260</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>17</v>
@@ -4580,10 +3964,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>17</v>
@@ -4591,32 +3975,32 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
+      </c>
+      <c r="B125" s="16" t="s">
+        <v>268</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>17</v>
@@ -4624,54 +4008,54 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B127" s="16" t="s">
-        <v>274</v>
+        <v>271</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
+      </c>
+      <c r="B128" s="16" t="s">
+        <v>274</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B129" s="16" t="s">
-        <v>278</v>
+        <v>275</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>278</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>17</v>
@@ -4679,10 +4063,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>17</v>
@@ -4690,10 +4074,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>17</v>
@@ -4701,10 +4085,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>17</v>
@@ -4712,10 +4096,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>17</v>
@@ -4723,10 +4107,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>17</v>
@@ -4734,10 +4118,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>17</v>
@@ -4745,10 +4129,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>17</v>
@@ -4756,10 +4140,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>17</v>
@@ -4767,49 +4151,46 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B142" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="4" t="s">
+    <row r="143" spans="1:4">
+      <c r="A143" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B142" s="7"/>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B143" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B143" s="7"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B144" t="s">
-        <v>308</v>
+        <v>304</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>305</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>306</v>
@@ -4820,10 +4201,10 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B145" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
+      </c>
+      <c r="B145" t="s">
+        <v>308</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>306</v>
@@ -4834,10 +4215,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>306</v>
@@ -4848,24 +4229,24 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>312</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>306</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>306</v>
@@ -4876,10 +4257,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>317</v>
+        <v>230</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>306</v>
@@ -4890,10 +4271,10 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>306</v>
@@ -4904,10 +4285,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>306</v>
@@ -4918,24 +4299,24 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B152" s="17" t="s">
-        <v>323</v>
+        <v>320</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>321</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>306</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B153" s="17" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>306</v>
@@ -4946,10 +4327,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B154" s="17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>306</v>
@@ -4960,10 +4341,10 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B155" s="17" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>306</v>
@@ -4974,52 +4355,52 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
+      </c>
+      <c r="B156" s="17" t="s">
+        <v>329</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>306</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="157" customHeight="1" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B157" s="17" t="s">
-        <v>333</v>
+        <v>330</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>306</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="158" customHeight="1" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15" customHeight="1">
       <c r="A158" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>335</v>
+        <v>332</v>
+      </c>
+      <c r="B158" s="17" t="s">
+        <v>333</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>306</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="159" customHeight="1" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15" customHeight="1">
       <c r="A159" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>306</v>
@@ -5028,12 +4409,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" customHeight="1" spans="1:4">
+    <row r="160" spans="1:4" ht="15" customHeight="1">
       <c r="A160" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B160" s="17" t="s">
-        <v>339</v>
+        <v>336</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>337</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>306</v>
@@ -5042,16 +4423,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A175" s="18"/>
-      <c r="B175" s="15"/>
-    </row>
-    <row r="182" spans="3:7">
-      <c r="C182" s="19"/>
-      <c r="D182" s="19"/>
-      <c r="E182" s="19"/>
-      <c r="F182" s="19"/>
-      <c r="G182" s="19"/>
+    <row r="161" spans="1:4" ht="15" customHeight="1">
+      <c r="A161" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B161" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A176" s="18"/>
+      <c r="B176" s="15"/>
     </row>
     <row r="183" spans="3:7">
       <c r="C183" s="19"/>
@@ -5060,14 +4448,20 @@
       <c r="F183" s="19"/>
       <c r="G183" s="19"/>
     </row>
-    <row r="202" spans="1:1">
-      <c r="A202" s="20"/>
-    </row>
-    <row r="205" spans="2:2">
-      <c r="B205" s="21"/>
-    </row>
-    <row r="208" ht="18.75" customHeight="1"/>
-    <row r="209" ht="21" customHeight="1"/>
+    <row r="184" spans="3:7">
+      <c r="C184" s="19"/>
+      <c r="D184" s="19"/>
+      <c r="E184" s="19"/>
+      <c r="F184" s="19"/>
+      <c r="G184" s="19"/>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="20"/>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="B206" s="21"/>
+    </row>
+    <row r="209" ht="18.75" customHeight="1"/>
     <row r="210" ht="21" customHeight="1"/>
     <row r="211" ht="21" customHeight="1"/>
     <row r="212" ht="21" customHeight="1"/>
@@ -5076,145 +4470,143 @@
     <row r="215" ht="21" customHeight="1"/>
     <row r="216" ht="21" customHeight="1"/>
     <row r="217" ht="21" customHeight="1"/>
-    <row r="228" spans="1:2">
-      <c r="A228" s="22"/>
-      <c r="B228" s="23"/>
-    </row>
-    <row r="229" spans="2:2">
-      <c r="B229" s="5"/>
-    </row>
-    <row r="230" spans="2:2">
+    <row r="218" ht="21" customHeight="1"/>
+    <row r="229" spans="1:2">
+      <c r="A229" s="22"/>
+      <c r="B229" s="23"/>
+    </row>
+    <row r="230" spans="1:2">
       <c r="B230" s="5"/>
     </row>
-    <row r="231" spans="2:2">
+    <row r="231" spans="1:2">
       <c r="B231" s="5"/>
     </row>
-    <row r="232" spans="2:2">
+    <row r="232" spans="1:2">
       <c r="B232" s="5"/>
     </row>
-    <row r="233" spans="2:2">
+    <row r="233" spans="1:2">
       <c r="B233" s="5"/>
     </row>
-    <row r="234" spans="2:2">
+    <row r="234" spans="1:2">
       <c r="B234" s="5"/>
     </row>
-    <row r="235" spans="2:2">
+    <row r="235" spans="1:2">
       <c r="B235" s="5"/>
     </row>
-    <row r="236" spans="2:2">
+    <row r="236" spans="1:2">
       <c r="B236" s="5"/>
     </row>
     <row r="237" spans="1:2">
-      <c r="A237" s="22"/>
-      <c r="B237" s="24"/>
-    </row>
-    <row r="238" spans="2:2">
-      <c r="B238" s="5"/>
-    </row>
-    <row r="239" spans="2:2">
+      <c r="B237" s="5"/>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="22"/>
+      <c r="B238" s="24"/>
+    </row>
+    <row r="239" spans="1:2">
       <c r="B239" s="5"/>
     </row>
-    <row r="240" spans="2:2">
+    <row r="240" spans="1:2">
       <c r="B240" s="5"/>
     </row>
-    <row r="241" spans="2:2">
+    <row r="241" spans="1:2">
       <c r="B241" s="5"/>
     </row>
-    <row r="242" spans="2:2">
+    <row r="242" spans="1:2">
       <c r="B242" s="5"/>
     </row>
-    <row r="243" spans="2:2">
+    <row r="243" spans="1:2">
       <c r="B243" s="5"/>
     </row>
-    <row r="244" spans="2:2">
+    <row r="244" spans="1:2">
       <c r="B244" s="5"/>
     </row>
-    <row r="245" spans="2:2">
+    <row r="245" spans="1:2">
       <c r="B245" s="5"/>
     </row>
-    <row r="246" spans="2:2">
+    <row r="246" spans="1:2">
       <c r="B246" s="5"/>
     </row>
-    <row r="247" spans="2:2">
+    <row r="247" spans="1:2">
       <c r="B247" s="5"/>
     </row>
-    <row r="248" spans="2:2">
+    <row r="248" spans="1:2">
       <c r="B248" s="5"/>
     </row>
-    <row r="249" spans="2:2">
+    <row r="249" spans="1:2">
       <c r="B249" s="5"/>
     </row>
-    <row r="250" spans="2:2">
+    <row r="250" spans="1:2">
       <c r="B250" s="5"/>
     </row>
-    <row r="251" spans="2:2">
+    <row r="251" spans="1:2">
       <c r="B251" s="5"/>
     </row>
-    <row r="252" spans="2:2">
+    <row r="252" spans="1:2">
       <c r="B252" s="5"/>
     </row>
-    <row r="253" spans="2:2">
+    <row r="253" spans="1:2">
       <c r="B253" s="5"/>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="20"/>
       <c r="B254" s="5"/>
     </row>
-    <row r="255" spans="2:2">
+    <row r="255" spans="1:2">
+      <c r="A255" s="20"/>
       <c r="B255" s="5"/>
     </row>
-    <row r="256" spans="2:2">
+    <row r="256" spans="1:2">
       <c r="B256" s="5"/>
     </row>
-    <row r="257" spans="2:2">
+    <row r="257" spans="1:2">
       <c r="B257" s="5"/>
     </row>
     <row r="258" spans="1:2">
-      <c r="A258" s="20"/>
       <c r="B258" s="5"/>
     </row>
-    <row r="259" spans="2:2">
+    <row r="259" spans="1:2">
+      <c r="A259" s="20"/>
       <c r="B259" s="5"/>
     </row>
-    <row r="260" spans="2:2">
+    <row r="260" spans="1:2">
       <c r="B260" s="5"/>
     </row>
-    <row r="261" spans="2:2">
+    <row r="261" spans="1:2">
       <c r="B261" s="5"/>
     </row>
-    <row r="262" spans="2:2">
+    <row r="262" spans="1:2">
       <c r="B262" s="5"/>
     </row>
-    <row r="263" spans="2:2">
+    <row r="263" spans="1:2">
       <c r="B263" s="5"/>
     </row>
-    <row r="264" spans="2:2">
+    <row r="264" spans="1:2">
       <c r="B264" s="5"/>
     </row>
-    <row r="265" spans="2:2">
+    <row r="265" spans="1:2">
       <c r="B265" s="5"/>
     </row>
-    <row r="266" spans="2:2">
+    <row r="266" spans="1:2">
       <c r="B266" s="5"/>
     </row>
     <row r="267" spans="1:2">
-      <c r="A267" s="20"/>
       <c r="B267" s="5"/>
     </row>
-    <row r="268" spans="2:2">
+    <row r="268" spans="1:2">
+      <c r="A268" s="20"/>
       <c r="B268" s="5"/>
     </row>
     <row r="269" spans="1:2">
-      <c r="A269" s="20"/>
       <c r="B269" s="5"/>
     </row>
-    <row r="270" spans="2:2">
+    <row r="270" spans="1:2">
+      <c r="A270" s="20"/>
       <c r="B270" s="5"/>
     </row>
-    <row r="271" spans="2:2">
+    <row r="271" spans="1:2">
       <c r="B271" s="5"/>
     </row>
-    <row r="272" spans="2:2">
+    <row r="272" spans="1:2">
       <c r="B272" s="5"/>
     </row>
     <row r="273" spans="2:2">
@@ -5265,106 +4657,105 @@
     <row r="288" spans="2:2">
       <c r="B288" s="5"/>
     </row>
-    <row r="289" spans="2:2">
-      <c r="B289" s="25"/>
-    </row>
-    <row r="290" spans="2:2">
-      <c r="B290" s="5"/>
-    </row>
-    <row r="291" spans="2:2">
+    <row r="289" spans="1:2">
+      <c r="B289" s="5"/>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="B290" s="25"/>
+    </row>
+    <row r="291" spans="1:2">
       <c r="B291" s="5"/>
     </row>
-    <row r="292" spans="2:2">
+    <row r="292" spans="1:2">
       <c r="B292" s="5"/>
     </row>
-    <row r="293" spans="2:2">
+    <row r="293" spans="1:2">
       <c r="B293" s="5"/>
     </row>
     <row r="294" spans="1:2">
-      <c r="A294" s="22"/>
-      <c r="B294" s="24"/>
-    </row>
-    <row r="295" spans="2:2">
-      <c r="B295" s="5"/>
-    </row>
-    <row r="296" spans="2:2">
+      <c r="B294" s="5"/>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="22"/>
+      <c r="B295" s="24"/>
+    </row>
+    <row r="296" spans="1:2">
       <c r="B296" s="5"/>
     </row>
-    <row r="297" spans="2:2">
+    <row r="297" spans="1:2">
       <c r="B297" s="5"/>
     </row>
-    <row r="298" spans="2:2">
+    <row r="298" spans="1:2">
       <c r="B298" s="5"/>
     </row>
-    <row r="299" spans="2:2">
+    <row r="299" spans="1:2">
       <c r="B299" s="5"/>
     </row>
-    <row r="300" spans="2:2">
+    <row r="300" spans="1:2">
       <c r="B300" s="5"/>
     </row>
-    <row r="301" spans="2:2">
+    <row r="301" spans="1:2">
       <c r="B301" s="5"/>
     </row>
-    <row r="302" spans="2:2">
+    <row r="302" spans="1:2">
       <c r="B302" s="5"/>
     </row>
-    <row r="303" spans="2:2">
+    <row r="303" spans="1:2">
       <c r="B303" s="5"/>
     </row>
-    <row r="304" spans="2:2">
+    <row r="304" spans="1:2">
       <c r="B304" s="5"/>
     </row>
-    <row r="305" spans="2:2">
+    <row r="305" spans="1:2">
       <c r="B305" s="5"/>
     </row>
-    <row r="306" spans="2:2">
+    <row r="306" spans="1:2">
       <c r="B306" s="5"/>
     </row>
-    <row r="307" spans="2:2">
+    <row r="307" spans="1:2">
       <c r="B307" s="5"/>
     </row>
-    <row r="308" spans="2:2">
+    <row r="308" spans="1:2">
       <c r="B308" s="5"/>
     </row>
-    <row r="309" spans="2:2">
+    <row r="309" spans="1:2">
       <c r="B309" s="5"/>
     </row>
-    <row r="310" spans="2:2">
+    <row r="310" spans="1:2">
       <c r="B310" s="5"/>
     </row>
-    <row r="311" spans="2:2">
+    <row r="311" spans="1:2">
       <c r="B311" s="5"/>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="26"/>
       <c r="B312" s="5"/>
     </row>
-    <row r="313" spans="2:2">
+    <row r="313" spans="1:2">
+      <c r="A313" s="26"/>
       <c r="B313" s="5"/>
     </row>
-    <row r="314" spans="2:2">
+    <row r="314" spans="1:2">
       <c r="B314" s="5"/>
     </row>
-    <row r="315" spans="2:2">
+    <row r="315" spans="1:2">
       <c r="B315" s="5"/>
     </row>
-    <row r="316" spans="2:2">
+    <row r="316" spans="1:2">
       <c r="B316" s="5"/>
     </row>
-    <row r="317" spans="2:2">
+    <row r="317" spans="1:2">
       <c r="B317" s="5"/>
     </row>
-    <row r="318" spans="2:2">
+    <row r="318" spans="1:2">
       <c r="B318" s="5"/>
     </row>
-    <row r="319" spans="2:2">
+    <row r="319" spans="1:2">
       <c r="B319" s="5"/>
     </row>
-    <row r="320" spans="2:2">
+    <row r="320" spans="1:2">
       <c r="B320" s="5"/>
     </row>
     <row r="321" spans="1:2">
-      <c r="A321" s="20"/>
       <c r="B321" s="5"/>
     </row>
     <row r="322" spans="1:2">
@@ -5379,40 +4770,41 @@
       <c r="A324" s="20"/>
       <c r="B324" s="5"/>
     </row>
-    <row r="325" spans="2:2">
+    <row r="325" spans="1:2">
+      <c r="A325" s="20"/>
       <c r="B325" s="5"/>
     </row>
-    <row r="326" spans="2:2">
+    <row r="326" spans="1:2">
       <c r="B326" s="5"/>
     </row>
-    <row r="327" spans="2:2">
+    <row r="327" spans="1:2">
       <c r="B327" s="5"/>
     </row>
-    <row r="328" spans="2:2">
+    <row r="328" spans="1:2">
       <c r="B328" s="5"/>
     </row>
-    <row r="329" spans="2:2">
+    <row r="329" spans="1:2">
       <c r="B329" s="5"/>
     </row>
-    <row r="330" spans="2:2">
+    <row r="330" spans="1:2">
       <c r="B330" s="5"/>
     </row>
-    <row r="331" spans="2:2">
+    <row r="331" spans="1:2">
       <c r="B331" s="5"/>
     </row>
-    <row r="332" spans="2:2">
+    <row r="332" spans="1:2">
       <c r="B332" s="5"/>
     </row>
-    <row r="333" spans="2:2">
+    <row r="333" spans="1:2">
       <c r="B333" s="5"/>
     </row>
-    <row r="334" spans="2:2">
+    <row r="334" spans="1:2">
       <c r="B334" s="5"/>
     </row>
-    <row r="335" spans="2:2">
+    <row r="335" spans="1:2">
       <c r="B335" s="5"/>
     </row>
-    <row r="336" spans="2:2">
+    <row r="336" spans="1:2">
       <c r="B336" s="5"/>
     </row>
     <row r="337" spans="2:2">
@@ -5430,41 +4822,41 @@
     <row r="341" spans="2:2">
       <c r="B341" s="5"/>
     </row>
-    <row r="383" spans="1:1">
-      <c r="A383" s="20"/>
-    </row>
-    <row r="421" spans="1:1">
-      <c r="A421" s="20"/>
-    </row>
-    <row r="423" spans="1:1">
-      <c r="A423" s="20"/>
-    </row>
-    <row r="424" spans="1:1">
+    <row r="342" spans="2:2">
+      <c r="B342" s="5"/>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" s="20"/>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="20"/>
+    </row>
+    <row r="424" spans="1:4">
       <c r="A424" s="20"/>
     </row>
-    <row r="425" spans="1:1">
+    <row r="425" spans="1:4">
       <c r="A425" s="20"/>
     </row>
-    <row r="426" spans="1:1">
+    <row r="426" spans="1:4">
       <c r="A426" s="20"/>
     </row>
-    <row r="427" spans="1:1">
+    <row r="427" spans="1:4">
       <c r="A427" s="20"/>
     </row>
-    <row r="428" spans="1:1">
+    <row r="428" spans="1:4">
       <c r="A428" s="20"/>
     </row>
-    <row r="429" spans="3:4">
-      <c r="C429" s="21"/>
-      <c r="D429" s="21"/>
-    </row>
-    <row r="430" spans="1:1">
-      <c r="A430" s="20"/>
-    </row>
-    <row r="431" spans="1:1">
+    <row r="429" spans="1:4">
+      <c r="A429" s="20"/>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="C430" s="21"/>
+      <c r="D430" s="21"/>
+    </row>
+    <row r="431" spans="1:4">
       <c r="A431" s="20"/>
     </row>
-    <row r="432" spans="1:1">
+    <row r="432" spans="1:4">
       <c r="A432" s="20"/>
     </row>
     <row r="433" spans="1:1">
@@ -5473,8 +4865,8 @@
     <row r="434" spans="1:1">
       <c r="A434" s="20"/>
     </row>
-    <row r="436" spans="1:1">
-      <c r="A436" s="20"/>
+    <row r="435" spans="1:1">
+      <c r="A435" s="20"/>
     </row>
     <row r="437" spans="1:1">
       <c r="A437" s="20"/>
@@ -5485,8 +4877,8 @@
     <row r="439" spans="1:1">
       <c r="A439" s="20"/>
     </row>
-    <row r="455" spans="1:1">
-      <c r="A455" s="20"/>
+    <row r="440" spans="1:1">
+      <c r="A440" s="20"/>
     </row>
     <row r="456" spans="1:1">
       <c r="A456" s="20"/>
@@ -5497,17 +4889,12 @@
     <row r="458" spans="1:1">
       <c r="A458" s="20"/>
     </row>
-    <row r="473" spans="3:4">
-      <c r="C473" s="21"/>
-      <c r="D473" s="21"/>
+    <row r="459" spans="1:1">
+      <c r="A459" s="20"/>
     </row>
     <row r="474" spans="1:7">
-      <c r="A474" s="20"/>
       <c r="C474" s="21"/>
       <c r="D474" s="21"/>
-      <c r="E474" s="21"/>
-      <c r="F474" s="21"/>
-      <c r="G474" s="21"/>
     </row>
     <row r="475" spans="1:7">
       <c r="A475" s="20"/>
@@ -5525,14 +4912,15 @@
       <c r="F476" s="21"/>
       <c r="G476" s="21"/>
     </row>
-    <row r="477" spans="3:7">
+    <row r="477" spans="1:7">
+      <c r="A477" s="20"/>
       <c r="C477" s="21"/>
       <c r="D477" s="21"/>
       <c r="E477" s="21"/>
       <c r="F477" s="21"/>
       <c r="G477" s="21"/>
     </row>
-    <row r="478" spans="3:7">
+    <row r="478" spans="1:7">
       <c r="C478" s="21"/>
       <c r="D478" s="21"/>
       <c r="E478" s="21"/>
@@ -5540,7 +4928,6 @@
       <c r="G478" s="21"/>
     </row>
     <row r="479" spans="1:7">
-      <c r="A479" s="20"/>
       <c r="C479" s="21"/>
       <c r="D479" s="21"/>
       <c r="E479" s="21"/>
@@ -5579,7 +4966,8 @@
       <c r="F483" s="21"/>
       <c r="G483" s="21"/>
     </row>
-    <row r="484" spans="3:7">
+    <row r="484" spans="1:7">
+      <c r="A484" s="20"/>
       <c r="C484" s="21"/>
       <c r="D484" s="21"/>
       <c r="E484" s="21"/>
@@ -5587,7 +4975,6 @@
       <c r="G484" s="21"/>
     </row>
     <row r="485" spans="1:7">
-      <c r="A485" s="20"/>
       <c r="C485" s="21"/>
       <c r="D485" s="21"/>
       <c r="E485" s="21"/>
@@ -5610,40 +4997,41 @@
       <c r="F487" s="21"/>
       <c r="G487" s="21"/>
     </row>
-    <row r="488" spans="3:7">
+    <row r="488" spans="1:7">
+      <c r="A488" s="20"/>
       <c r="C488" s="21"/>
       <c r="D488" s="21"/>
       <c r="E488" s="21"/>
       <c r="F488" s="21"/>
       <c r="G488" s="21"/>
     </row>
-    <row r="489" spans="3:7">
+    <row r="489" spans="1:7">
       <c r="C489" s="21"/>
       <c r="D489" s="21"/>
       <c r="E489" s="21"/>
       <c r="F489" s="21"/>
       <c r="G489" s="21"/>
     </row>
-    <row r="490" spans="3:7">
+    <row r="490" spans="1:7">
       <c r="C490" s="21"/>
       <c r="D490" s="21"/>
       <c r="E490" s="21"/>
       <c r="F490" s="21"/>
       <c r="G490" s="21"/>
     </row>
-    <row r="491" spans="5:7">
+    <row r="491" spans="1:7">
+      <c r="C491" s="21"/>
+      <c r="D491" s="21"/>
       <c r="E491" s="21"/>
       <c r="F491" s="21"/>
       <c r="G491" s="21"/>
     </row>
-    <row r="501" spans="3:7">
-      <c r="C501" s="21"/>
-      <c r="D501" s="21"/>
-      <c r="E501" s="21"/>
-      <c r="F501" s="21"/>
-      <c r="G501" s="21"/>
-    </row>
-    <row r="502" spans="3:7">
+    <row r="492" spans="1:7">
+      <c r="E492" s="21"/>
+      <c r="F492" s="21"/>
+      <c r="G492" s="21"/>
+    </row>
+    <row r="502" spans="1:7">
       <c r="C502" s="21"/>
       <c r="D502" s="21"/>
       <c r="E502" s="21"/>
@@ -5651,7 +5039,6 @@
       <c r="G502" s="21"/>
     </row>
     <row r="503" spans="1:7">
-      <c r="A503" s="20"/>
       <c r="C503" s="21"/>
       <c r="D503" s="21"/>
       <c r="E503" s="21"/>
@@ -5666,7 +5053,8 @@
       <c r="F504" s="21"/>
       <c r="G504" s="21"/>
     </row>
-    <row r="505" spans="3:7">
+    <row r="505" spans="1:7">
+      <c r="A505" s="20"/>
       <c r="C505" s="21"/>
       <c r="D505" s="21"/>
       <c r="E505" s="21"/>
@@ -5674,7 +5062,6 @@
       <c r="G505" s="21"/>
     </row>
     <row r="506" spans="1:7">
-      <c r="A506" s="20"/>
       <c r="C506" s="21"/>
       <c r="D506" s="21"/>
       <c r="E506" s="21"/>
@@ -5689,173 +5076,178 @@
       <c r="F507" s="21"/>
       <c r="G507" s="21"/>
     </row>
-    <row r="508" spans="3:4">
+    <row r="508" spans="1:7">
+      <c r="A508" s="20"/>
       <c r="C508" s="21"/>
       <c r="D508" s="21"/>
-    </row>
-    <row r="509" spans="3:4">
+      <c r="E508" s="21"/>
+      <c r="F508" s="21"/>
+      <c r="G508" s="21"/>
+    </row>
+    <row r="509" spans="1:7">
       <c r="C509" s="21"/>
       <c r="D509" s="21"/>
     </row>
-    <row r="510" spans="3:4">
+    <row r="510" spans="1:7">
       <c r="C510" s="21"/>
       <c r="D510" s="21"/>
     </row>
-    <row r="511" spans="3:4">
+    <row r="511" spans="1:7">
       <c r="C511" s="21"/>
       <c r="D511" s="21"/>
     </row>
-    <row r="512" spans="3:4">
+    <row r="512" spans="1:7">
       <c r="C512" s="21"/>
       <c r="D512" s="21"/>
     </row>
-    <row r="513" spans="3:4">
+    <row r="513" spans="1:7">
       <c r="C513" s="21"/>
       <c r="D513" s="21"/>
     </row>
-    <row r="514" spans="3:4">
+    <row r="514" spans="1:7">
       <c r="C514" s="21"/>
       <c r="D514" s="21"/>
     </row>
-    <row r="515" spans="3:4">
+    <row r="515" spans="1:7">
       <c r="C515" s="21"/>
       <c r="D515" s="21"/>
     </row>
-    <row r="516" spans="3:4">
+    <row r="516" spans="1:7">
       <c r="C516" s="21"/>
       <c r="D516" s="21"/>
     </row>
-    <row r="517" spans="1:4">
-      <c r="A517" s="20"/>
+    <row r="517" spans="1:7">
       <c r="C517" s="21"/>
       <c r="D517" s="21"/>
     </row>
-    <row r="518" spans="3:7">
+    <row r="518" spans="1:7">
+      <c r="A518" s="20"/>
       <c r="C518" s="21"/>
       <c r="D518" s="21"/>
-      <c r="E518" s="21"/>
-      <c r="F518" s="21"/>
-      <c r="G518" s="21"/>
-    </row>
-    <row r="519" spans="3:7">
+    </row>
+    <row r="519" spans="1:7">
       <c r="C519" s="21"/>
       <c r="D519" s="21"/>
       <c r="E519" s="21"/>
       <c r="F519" s="21"/>
       <c r="G519" s="21"/>
     </row>
-    <row r="520" spans="1:4">
-      <c r="A520" s="20"/>
+    <row r="520" spans="1:7">
       <c r="C520" s="21"/>
       <c r="D520" s="21"/>
-    </row>
-    <row r="531" spans="1:4">
-      <c r="A531" s="20"/>
-      <c r="C531" s="21"/>
-      <c r="D531" s="21"/>
+      <c r="E520" s="21"/>
+      <c r="F520" s="21"/>
+      <c r="G520" s="21"/>
+    </row>
+    <row r="521" spans="1:7">
+      <c r="A521" s="20"/>
+      <c r="C521" s="21"/>
+      <c r="D521" s="21"/>
     </row>
     <row r="532" spans="1:4">
       <c r="A532" s="20"/>
       <c r="C532" s="21"/>
       <c r="D532" s="21"/>
     </row>
-    <row r="533" spans="3:4">
+    <row r="533" spans="1:4">
+      <c r="A533" s="20"/>
       <c r="C533" s="21"/>
       <c r="D533" s="21"/>
     </row>
-    <row r="534" spans="3:4">
+    <row r="534" spans="1:4">
       <c r="C534" s="21"/>
       <c r="D534" s="21"/>
     </row>
-    <row r="535" spans="3:4">
+    <row r="535" spans="1:4">
       <c r="C535" s="21"/>
       <c r="D535" s="21"/>
     </row>
-    <row r="536" spans="1:1">
-      <c r="A536" s="20"/>
-    </row>
-    <row r="537" spans="1:1">
+    <row r="536" spans="1:4">
+      <c r="C536" s="21"/>
+      <c r="D536" s="21"/>
+    </row>
+    <row r="537" spans="1:4">
       <c r="A537" s="20"/>
     </row>
-    <row r="543" spans="2:2">
-      <c r="B543" s="7"/>
-    </row>
-    <row r="544" spans="2:2">
+    <row r="538" spans="1:4">
+      <c r="A538" s="20"/>
+    </row>
+    <row r="544" spans="1:4">
       <c r="B544" s="7"/>
     </row>
-    <row r="545" spans="2:2">
+    <row r="545" spans="1:2">
       <c r="B545" s="7"/>
     </row>
-    <row r="546" spans="2:2">
+    <row r="546" spans="1:2">
       <c r="B546" s="7"/>
     </row>
-    <row r="547" spans="2:2">
+    <row r="547" spans="1:2">
       <c r="B547" s="7"/>
     </row>
-    <row r="548" spans="2:2">
+    <row r="548" spans="1:2">
       <c r="B548" s="7"/>
     </row>
-    <row r="549" spans="2:2">
+    <row r="549" spans="1:2">
       <c r="B549" s="7"/>
     </row>
-    <row r="550" spans="2:2">
+    <row r="550" spans="1:2">
       <c r="B550" s="7"/>
     </row>
-    <row r="552" spans="2:2">
-      <c r="B552" s="7"/>
-    </row>
-    <row r="555" spans="1:1">
-      <c r="A555" s="20"/>
-    </row>
-    <row r="559" spans="1:1">
-      <c r="A559" s="20"/>
-    </row>
-    <row r="560" spans="1:1">
+    <row r="551" spans="1:2">
+      <c r="B551" s="7"/>
+    </row>
+    <row r="553" spans="1:2">
+      <c r="B553" s="7"/>
+    </row>
+    <row r="556" spans="1:2">
+      <c r="A556" s="20"/>
+    </row>
+    <row r="560" spans="1:2">
       <c r="A560" s="20"/>
     </row>
-    <row r="561" spans="1:1">
+    <row r="561" spans="1:2">
       <c r="A561" s="20"/>
     </row>
-    <row r="565" spans="1:2">
-      <c r="A565" s="20"/>
-      <c r="B565" s="21"/>
-    </row>
-    <row r="566" spans="1:1">
+    <row r="562" spans="1:2">
+      <c r="A562" s="20"/>
+    </row>
+    <row r="566" spans="1:2">
       <c r="A566" s="20"/>
-    </row>
-    <row r="568" spans="1:1">
-      <c r="A568" s="20"/>
-    </row>
-    <row r="569" spans="1:1">
+      <c r="B566" s="21"/>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="20"/>
+    </row>
+    <row r="569" spans="1:2">
       <c r="A569" s="20"/>
     </row>
-    <row r="570" spans="1:1">
+    <row r="570" spans="1:2">
       <c r="A570" s="20"/>
     </row>
-    <row r="571" spans="1:1">
+    <row r="571" spans="1:2">
       <c r="A571" s="20"/>
     </row>
-    <row r="579" spans="2:2">
-      <c r="B579" s="27"/>
-    </row>
-    <row r="607" spans="3:4">
-      <c r="C607" s="21"/>
-      <c r="D607" s="21"/>
-    </row>
-    <row r="617" spans="1:1">
-      <c r="A617" s="20"/>
+    <row r="572" spans="1:2">
+      <c r="A572" s="20"/>
+    </row>
+    <row r="580" spans="2:2">
+      <c r="B580" s="27"/>
+    </row>
+    <row r="608" spans="3:4">
+      <c r="C608" s="21"/>
+      <c r="D608" s="21"/>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" s="20"/>
     </row>
-    <row r="716" spans="1:1">
-      <c r="A716" s="20"/>
+    <row r="619" spans="1:1">
+      <c r="A619" s="20"/>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" s="20"/>
     </row>
-    <row r="719" spans="1:1">
-      <c r="A719" s="20"/>
+    <row r="718" spans="1:1">
+      <c r="A718" s="20"/>
     </row>
     <row r="720" spans="1:1">
       <c r="A720" s="20"/>
@@ -5863,11 +5255,11 @@
     <row r="721" spans="1:1">
       <c r="A721" s="20"/>
     </row>
-    <row r="837" spans="1:1">
-      <c r="A837" s="20"/>
-    </row>
-    <row r="841" spans="1:1">
-      <c r="A841" s="20"/>
+    <row r="722" spans="1:1">
+      <c r="A722" s="20"/>
+    </row>
+    <row r="838" spans="1:1">
+      <c r="A838" s="20"/>
     </row>
     <row r="842" spans="1:1">
       <c r="A842" s="20"/>
@@ -5890,33 +5282,33 @@
     <row r="848" spans="1:1">
       <c r="A848" s="20"/>
     </row>
-    <row r="849" spans="1:1">
+    <row r="849" spans="1:4">
       <c r="A849" s="20"/>
     </row>
-    <row r="850" spans="1:1">
+    <row r="850" spans="1:4">
       <c r="A850" s="20"/>
     </row>
-    <row r="851" spans="1:1">
+    <row r="851" spans="1:4">
       <c r="A851" s="20"/>
     </row>
-    <row r="852" spans="2:4">
-      <c r="B852" s="27"/>
-      <c r="C852" s="21"/>
-      <c r="D852" s="21"/>
-    </row>
-    <row r="853" spans="3:4">
+    <row r="852" spans="1:4">
+      <c r="A852" s="20"/>
+    </row>
+    <row r="853" spans="1:4">
+      <c r="B853" s="27"/>
       <c r="C853" s="21"/>
       <c r="D853" s="21"/>
     </row>
-    <row r="854" spans="3:4">
+    <row r="854" spans="1:4">
       <c r="C854" s="21"/>
       <c r="D854" s="21"/>
     </row>
-    <row r="871" spans="2:2">
-      <c r="B871" s="7"/>
-    </row>
-    <row r="983" spans="1:1">
-      <c r="A983" s="20"/>
+    <row r="855" spans="1:4">
+      <c r="C855" s="21"/>
+      <c r="D855" s="21"/>
+    </row>
+    <row r="872" spans="2:2">
+      <c r="B872" s="7"/>
     </row>
     <row r="984" spans="1:1">
       <c r="A984" s="20"/>
@@ -5930,25 +5322,25 @@
     <row r="987" spans="1:1">
       <c r="A987" s="20"/>
     </row>
-    <row r="1054" spans="2:7">
-      <c r="B1054" s="7"/>
-      <c r="C1054" s="7"/>
-      <c r="D1054" s="7"/>
-      <c r="E1054" s="7"/>
-      <c r="F1054" s="7"/>
-      <c r="G1054" s="7"/>
-    </row>
-    <row r="1057" spans="1:1">
-      <c r="A1057" s="20"/>
+    <row r="988" spans="1:1">
+      <c r="A988" s="20"/>
+    </row>
+    <row r="1055" spans="2:7">
+      <c r="B1055" s="7"/>
+      <c r="C1055" s="7"/>
+      <c r="D1055" s="7"/>
+      <c r="E1055" s="7"/>
+      <c r="F1055" s="7"/>
+      <c r="G1055" s="7"/>
     </row>
     <row r="1058" spans="1:1">
       <c r="A1058" s="20"/>
     </row>
-    <row r="1060" spans="1:1">
-      <c r="A1060" s="20"/>
-    </row>
-    <row r="1153" spans="1:1">
-      <c r="A1153" s="20"/>
+    <row r="1059" spans="1:1">
+      <c r="A1059" s="20"/>
+    </row>
+    <row r="1061" spans="1:1">
+      <c r="A1061" s="20"/>
     </row>
     <row r="1154" spans="1:1">
       <c r="A1154" s="20"/>
@@ -5962,52 +5354,52 @@
     <row r="1157" spans="1:1">
       <c r="A1157" s="20"/>
     </row>
-    <row r="1175" spans="1:1">
-      <c r="A1175" s="20"/>
+    <row r="1158" spans="1:1">
+      <c r="A1158" s="20"/>
     </row>
     <row r="1176" spans="1:1">
       <c r="A1176" s="20"/>
     </row>
-    <row r="1184" spans="3:7">
-      <c r="C1184" s="19"/>
-      <c r="D1184" s="19"/>
-      <c r="E1184" s="19"/>
-      <c r="F1184" s="19"/>
-      <c r="G1184" s="19"/>
-    </row>
-    <row r="1228" spans="1:1">
-      <c r="A1228" s="20"/>
-    </row>
-    <row r="1231" spans="1:1">
-      <c r="A1231" s="20"/>
+    <row r="1177" spans="1:1">
+      <c r="A1177" s="20"/>
+    </row>
+    <row r="1185" spans="3:7">
+      <c r="C1185" s="19"/>
+      <c r="D1185" s="19"/>
+      <c r="E1185" s="19"/>
+      <c r="F1185" s="19"/>
+      <c r="G1185" s="19"/>
+    </row>
+    <row r="1229" spans="1:1">
+      <c r="A1229" s="20"/>
     </row>
     <row r="1232" spans="1:1">
       <c r="A1232" s="20"/>
     </row>
-    <row r="1279" spans="1:1">
-      <c r="A1279" s="20"/>
-    </row>
-    <row r="1295" spans="1:1">
-      <c r="A1295" s="20"/>
-    </row>
-    <row r="1324" spans="1:1">
-      <c r="A1324" s="20"/>
-    </row>
-    <row r="1354" spans="1:1">
-      <c r="A1354" s="20"/>
-    </row>
-    <row r="1357" spans="3:7">
-      <c r="C1357" s="19"/>
-      <c r="D1357" s="19"/>
-      <c r="E1357" s="19"/>
-      <c r="F1357" s="19"/>
-      <c r="G1357" s="19"/>
-    </row>
-    <row r="1359" spans="2:2">
-      <c r="B1359" s="28"/>
-    </row>
-    <row r="1388" spans="1:1">
-      <c r="A1388" s="20"/>
+    <row r="1233" spans="1:1">
+      <c r="A1233" s="20"/>
+    </row>
+    <row r="1280" spans="1:1">
+      <c r="A1280" s="20"/>
+    </row>
+    <row r="1296" spans="1:1">
+      <c r="A1296" s="20"/>
+    </row>
+    <row r="1325" spans="1:1">
+      <c r="A1325" s="20"/>
+    </row>
+    <row r="1355" spans="1:7">
+      <c r="A1355" s="20"/>
+    </row>
+    <row r="1358" spans="1:7">
+      <c r="C1358" s="19"/>
+      <c r="D1358" s="19"/>
+      <c r="E1358" s="19"/>
+      <c r="F1358" s="19"/>
+      <c r="G1358" s="19"/>
+    </row>
+    <row r="1360" spans="1:7">
+      <c r="B1360" s="28"/>
     </row>
     <row r="1389" spans="1:1">
       <c r="A1389" s="20"/>
@@ -6021,11 +5413,11 @@
     <row r="1392" spans="1:1">
       <c r="A1392" s="20"/>
     </row>
-    <row r="1396" spans="1:1">
-      <c r="A1396" s="20"/>
-    </row>
-    <row r="1404" spans="1:1">
-      <c r="A1404" s="22"/>
+    <row r="1393" spans="1:1">
+      <c r="A1393" s="20"/>
+    </row>
+    <row r="1397" spans="1:1">
+      <c r="A1397" s="20"/>
     </row>
     <row r="1405" spans="1:1">
       <c r="A1405" s="22"/>
@@ -6039,8 +5431,8 @@
     <row r="1408" spans="1:1">
       <c r="A1408" s="22"/>
     </row>
-    <row r="1413" spans="1:1">
-      <c r="A1413" s="22"/>
+    <row r="1409" spans="1:1">
+      <c r="A1409" s="22"/>
     </row>
     <row r="1414" spans="1:1">
       <c r="A1414" s="22"/>
@@ -6075,8 +5467,8 @@
     <row r="1424" spans="1:1">
       <c r="A1424" s="22"/>
     </row>
-    <row r="1428" spans="1:1">
-      <c r="A1428" s="20"/>
+    <row r="1425" spans="1:1">
+      <c r="A1425" s="22"/>
     </row>
     <row r="1429" spans="1:1">
       <c r="A1429" s="20"/>
@@ -6084,8 +5476,8 @@
     <row r="1430" spans="1:1">
       <c r="A1430" s="20"/>
     </row>
-    <row r="1432" spans="1:1">
-      <c r="A1432" s="20"/>
+    <row r="1431" spans="1:1">
+      <c r="A1431" s="20"/>
     </row>
     <row r="1433" spans="1:1">
       <c r="A1433" s="20"/>
@@ -6132,11 +5524,11 @@
     <row r="1447" spans="1:1">
       <c r="A1447" s="20"/>
     </row>
-    <row r="1451" spans="1:1">
-      <c r="A1451" s="20"/>
-    </row>
-    <row r="1458" spans="1:1">
-      <c r="A1458" s="20"/>
+    <row r="1448" spans="1:1">
+      <c r="A1448" s="20"/>
+    </row>
+    <row r="1452" spans="1:1">
+      <c r="A1452" s="20"/>
     </row>
     <row r="1459" spans="1:1">
       <c r="A1459" s="20"/>
@@ -6168,109 +5560,109 @@
     <row r="1468" spans="1:1">
       <c r="A1468" s="20"/>
     </row>
-    <row r="1470" spans="1:1">
-      <c r="A1470" s="20"/>
-    </row>
-    <row r="1476" spans="2:2">
-      <c r="B1476" s="21"/>
-    </row>
-    <row r="1478" spans="2:2">
-      <c r="B1478" s="21"/>
-    </row>
-    <row r="1480" spans="2:2">
-      <c r="B1480" s="21"/>
-    </row>
-    <row r="1494" spans="2:2">
-      <c r="B1494" s="21"/>
-    </row>
-    <row r="1496" spans="2:2">
-      <c r="B1496" s="21"/>
-    </row>
-    <row r="1499" spans="2:2">
-      <c r="B1499" s="21"/>
+    <row r="1469" spans="1:1">
+      <c r="A1469" s="20"/>
+    </row>
+    <row r="1471" spans="1:1">
+      <c r="A1471" s="20"/>
+    </row>
+    <row r="1477" spans="2:2">
+      <c r="B1477" s="21"/>
+    </row>
+    <row r="1479" spans="2:2">
+      <c r="B1479" s="21"/>
+    </row>
+    <row r="1481" spans="2:2">
+      <c r="B1481" s="21"/>
+    </row>
+    <row r="1495" spans="2:2">
+      <c r="B1495" s="21"/>
+    </row>
+    <row r="1497" spans="2:2">
+      <c r="B1497" s="21"/>
     </row>
     <row r="1500" spans="2:2">
       <c r="B1500" s="21"/>
     </row>
-    <row r="1505" spans="2:2">
-      <c r="B1505" s="21"/>
+    <row r="1501" spans="2:2">
+      <c r="B1501" s="21"/>
     </row>
     <row r="1506" spans="2:2">
       <c r="B1506" s="21"/>
     </row>
-    <row r="1509" spans="2:2">
-      <c r="B1509" s="21"/>
+    <row r="1507" spans="2:2">
+      <c r="B1507" s="21"/>
     </row>
     <row r="1510" spans="2:2">
       <c r="B1510" s="21"/>
     </row>
-    <row r="1621" spans="3:7">
-      <c r="C1621" s="19"/>
-      <c r="D1621" s="19"/>
-      <c r="E1621" s="19"/>
-      <c r="F1621" s="19"/>
-      <c r="G1621" s="19"/>
-    </row>
-    <row r="1622" spans="3:7">
+    <row r="1511" spans="2:2">
+      <c r="B1511" s="21"/>
+    </row>
+    <row r="1622" spans="1:7">
       <c r="C1622" s="19"/>
       <c r="D1622" s="19"/>
       <c r="E1622" s="19"/>
       <c r="F1622" s="19"/>
       <c r="G1622" s="19"/>
     </row>
-    <row r="1623" spans="3:7">
+    <row r="1623" spans="1:7">
       <c r="C1623" s="19"/>
       <c r="D1623" s="19"/>
       <c r="E1623" s="19"/>
       <c r="F1623" s="19"/>
       <c r="G1623" s="19"/>
     </row>
-    <row r="1624" spans="3:7">
+    <row r="1624" spans="1:7">
       <c r="C1624" s="19"/>
       <c r="D1624" s="19"/>
       <c r="E1624" s="19"/>
       <c r="F1624" s="19"/>
       <c r="G1624" s="19"/>
     </row>
-    <row r="1625" spans="3:7">
+    <row r="1625" spans="1:7">
       <c r="C1625" s="19"/>
       <c r="D1625" s="19"/>
       <c r="E1625" s="19"/>
       <c r="F1625" s="19"/>
       <c r="G1625" s="19"/>
     </row>
-    <row r="1626" spans="3:7">
+    <row r="1626" spans="1:7">
       <c r="C1626" s="19"/>
       <c r="D1626" s="19"/>
       <c r="E1626" s="19"/>
       <c r="F1626" s="19"/>
       <c r="G1626" s="19"/>
     </row>
-    <row r="1627" spans="3:7">
+    <row r="1627" spans="1:7">
       <c r="C1627" s="19"/>
       <c r="D1627" s="19"/>
       <c r="E1627" s="19"/>
       <c r="F1627" s="19"/>
       <c r="G1627" s="19"/>
     </row>
-    <row r="1628" spans="3:7">
+    <row r="1628" spans="1:7">
       <c r="C1628" s="19"/>
       <c r="D1628" s="19"/>
       <c r="E1628" s="19"/>
       <c r="F1628" s="19"/>
       <c r="G1628" s="19"/>
     </row>
-    <row r="1629" spans="3:7">
+    <row r="1629" spans="1:7">
       <c r="C1629" s="19"/>
       <c r="D1629" s="19"/>
       <c r="E1629" s="19"/>
       <c r="F1629" s="19"/>
       <c r="G1629" s="19"/>
     </row>
-    <row r="1631" spans="1:1">
-      <c r="A1631" s="20"/>
-    </row>
-    <row r="1632" spans="1:1">
+    <row r="1630" spans="1:7">
+      <c r="C1630" s="19"/>
+      <c r="D1630" s="19"/>
+      <c r="E1630" s="19"/>
+      <c r="F1630" s="19"/>
+      <c r="G1630" s="19"/>
+    </row>
+    <row r="1632" spans="1:7">
       <c r="A1632" s="20"/>
     </row>
     <row r="1633" spans="1:1">
@@ -6285,8 +5677,8 @@
     <row r="1636" spans="1:1">
       <c r="A1636" s="20"/>
     </row>
-    <row r="1725" spans="1:1">
-      <c r="A1725" s="20"/>
+    <row r="1637" spans="1:1">
+      <c r="A1637" s="20"/>
     </row>
     <row r="1726" spans="1:1">
       <c r="A1726" s="20"/>
@@ -6300,26 +5692,26 @@
     <row r="1729" spans="1:1">
       <c r="A1729" s="20"/>
     </row>
-    <row r="1737" spans="1:1">
-      <c r="A1737" s="20"/>
+    <row r="1730" spans="1:1">
+      <c r="A1730" s="20"/>
     </row>
     <row r="1738" spans="1:1">
       <c r="A1738" s="20"/>
     </row>
-    <row r="1740" spans="1:1">
-      <c r="A1740" s="20"/>
-    </row>
-    <row r="1751" spans="1:1">
-      <c r="A1751" s="20"/>
-    </row>
-    <row r="1776" spans="1:1">
-      <c r="A1776" s="20"/>
+    <row r="1739" spans="1:1">
+      <c r="A1739" s="20"/>
+    </row>
+    <row r="1741" spans="1:1">
+      <c r="A1741" s="20"/>
+    </row>
+    <row r="1752" spans="1:1">
+      <c r="A1752" s="20"/>
     </row>
     <row r="1777" spans="1:1">
       <c r="A1777" s="20"/>
     </row>
-    <row r="1788" spans="1:1">
-      <c r="A1788" s="20"/>
+    <row r="1778" spans="1:1">
+      <c r="A1778" s="20"/>
     </row>
     <row r="1789" spans="1:1">
       <c r="A1789" s="20"/>
@@ -6333,43 +5725,43 @@
     <row r="1792" spans="1:1">
       <c r="A1792" s="20"/>
     </row>
-    <row r="1793" spans="1:1">
+    <row r="1793" spans="1:2">
       <c r="A1793" s="20"/>
     </row>
-    <row r="1794" spans="1:1">
+    <row r="1794" spans="1:2">
       <c r="A1794" s="20"/>
     </row>
-    <row r="1795" spans="1:1">
+    <row r="1795" spans="1:2">
       <c r="A1795" s="20"/>
     </row>
-    <row r="1797" spans="2:2">
-      <c r="B1797" s="13"/>
-    </row>
-    <row r="1799" spans="1:1">
-      <c r="A1799" s="20"/>
-    </row>
-    <row r="1800" spans="1:1">
+    <row r="1796" spans="1:2">
+      <c r="A1796" s="20"/>
+    </row>
+    <row r="1798" spans="1:2">
+      <c r="B1798" s="13"/>
+    </row>
+    <row r="1800" spans="1:2">
       <c r="A1800" s="20"/>
     </row>
-    <row r="1802" spans="1:1">
-      <c r="A1802" s="20"/>
-    </row>
-    <row r="1803" spans="1:1">
+    <row r="1801" spans="1:2">
+      <c r="A1801" s="20"/>
+    </row>
+    <row r="1803" spans="1:2">
       <c r="A1803" s="20"/>
     </row>
-    <row r="1804" spans="1:1">
+    <row r="1804" spans="1:2">
       <c r="A1804" s="20"/>
     </row>
-    <row r="1805" spans="1:1">
+    <row r="1805" spans="1:2">
       <c r="A1805" s="20"/>
     </row>
-    <row r="1806" spans="1:1">
+    <row r="1806" spans="1:2">
       <c r="A1806" s="20"/>
     </row>
-    <row r="1807" spans="1:1">
+    <row r="1807" spans="1:2">
       <c r="A1807" s="20"/>
     </row>
-    <row r="1808" spans="1:1">
+    <row r="1808" spans="1:2">
       <c r="A1808" s="20"/>
     </row>
     <row r="1809" spans="1:1">
@@ -6378,20 +5770,20 @@
     <row r="1810" spans="1:1">
       <c r="A1810" s="20"/>
     </row>
-    <row r="1846" spans="1:1">
-      <c r="A1846" s="20"/>
-    </row>
-    <row r="1850" spans="1:1">
-      <c r="A1850" s="20"/>
-    </row>
-    <row r="1853" spans="1:1">
-      <c r="A1853" s="20"/>
-    </row>
-    <row r="1887" spans="1:1">
-      <c r="A1887" s="20"/>
-    </row>
-    <row r="1895" spans="1:1">
-      <c r="A1895" s="20"/>
+    <row r="1811" spans="1:1">
+      <c r="A1811" s="20"/>
+    </row>
+    <row r="1847" spans="1:1">
+      <c r="A1847" s="20"/>
+    </row>
+    <row r="1851" spans="1:1">
+      <c r="A1851" s="20"/>
+    </row>
+    <row r="1854" spans="1:1">
+      <c r="A1854" s="20"/>
+    </row>
+    <row r="1888" spans="1:1">
+      <c r="A1888" s="20"/>
     </row>
     <row r="1896" spans="1:1">
       <c r="A1896" s="20"/>
@@ -6399,14 +5791,14 @@
     <row r="1897" spans="1:1">
       <c r="A1897" s="20"/>
     </row>
-    <row r="1899" spans="1:1">
-      <c r="A1899" s="20"/>
-    </row>
-    <row r="1904" spans="1:1">
-      <c r="A1904" s="20"/>
-    </row>
-    <row r="1913" spans="1:1">
-      <c r="A1913" s="20"/>
+    <row r="1898" spans="1:1">
+      <c r="A1898" s="20"/>
+    </row>
+    <row r="1900" spans="1:1">
+      <c r="A1900" s="20"/>
+    </row>
+    <row r="1905" spans="1:1">
+      <c r="A1905" s="20"/>
     </row>
     <row r="1914" spans="1:1">
       <c r="A1914" s="20"/>
@@ -6429,35 +5821,33 @@
     <row r="1920" spans="1:1">
       <c r="A1920" s="20"/>
     </row>
-    <row r="1927" spans="5:7">
-      <c r="E1927" s="7"/>
-      <c r="F1927" s="7"/>
-      <c r="G1927" s="7"/>
-    </row>
-    <row r="1928" spans="5:7">
+    <row r="1921" spans="1:7">
+      <c r="A1921" s="20"/>
+    </row>
+    <row r="1928" spans="1:7">
       <c r="E1928" s="7"/>
       <c r="F1928" s="7"/>
       <c r="G1928" s="7"/>
     </row>
-    <row r="1929" spans="5:7">
+    <row r="1929" spans="1:7">
       <c r="E1929" s="7"/>
       <c r="F1929" s="7"/>
       <c r="G1929" s="7"/>
     </row>
-    <row r="1930" spans="5:7">
+    <row r="1930" spans="1:7">
       <c r="E1930" s="7"/>
       <c r="F1930" s="7"/>
       <c r="G1930" s="7"/>
     </row>
-    <row r="1931" spans="5:7">
+    <row r="1931" spans="1:7">
       <c r="E1931" s="7"/>
       <c r="F1931" s="7"/>
       <c r="G1931" s="7"/>
     </row>
-    <row r="1939" spans="5:7">
-      <c r="E1939" s="7"/>
-      <c r="F1939" s="7"/>
-      <c r="G1939" s="7"/>
+    <row r="1932" spans="1:7">
+      <c r="E1932" s="7"/>
+      <c r="F1932" s="7"/>
+      <c r="G1932" s="7"/>
     </row>
     <row r="1940" spans="5:7">
       <c r="E1940" s="7"/>
@@ -6474,8 +5864,10 @@
       <c r="F1942" s="7"/>
       <c r="G1942" s="7"/>
     </row>
-    <row r="1959" spans="1:1">
-      <c r="A1959" s="20"/>
+    <row r="1943" spans="5:7">
+      <c r="E1943" s="7"/>
+      <c r="F1943" s="7"/>
+      <c r="G1943" s="7"/>
     </row>
     <row r="1960" spans="1:1">
       <c r="A1960" s="20"/>
@@ -6486,8 +5878,8 @@
     <row r="1962" spans="1:1">
       <c r="A1962" s="20"/>
     </row>
-    <row r="1964" spans="1:1">
-      <c r="A1964" s="20"/>
+    <row r="1963" spans="1:1">
+      <c r="A1963" s="20"/>
     </row>
     <row r="1965" spans="1:1">
       <c r="A1965" s="20"/>
@@ -6501,8 +5893,8 @@
     <row r="1968" spans="1:1">
       <c r="A1968" s="20"/>
     </row>
-    <row r="1971" spans="1:1">
-      <c r="A1971" s="20"/>
+    <row r="1969" spans="1:1">
+      <c r="A1969" s="20"/>
     </row>
     <row r="1972" spans="1:1">
       <c r="A1972" s="20"/>
@@ -6516,8 +5908,8 @@
     <row r="1975" spans="1:1">
       <c r="A1975" s="20"/>
     </row>
-    <row r="1977" spans="1:1">
-      <c r="A1977" s="20"/>
+    <row r="1976" spans="1:1">
+      <c r="A1976" s="20"/>
     </row>
     <row r="1978" spans="1:1">
       <c r="A1978" s="20"/>
@@ -6642,23 +6034,23 @@
     <row r="2018" spans="1:1">
       <c r="A2018" s="20"/>
     </row>
-    <row r="2048" spans="1:1">
-      <c r="A2048" s="20"/>
-    </row>
-    <row r="2051" spans="1:1">
-      <c r="A2051" s="20"/>
-    </row>
-    <row r="2093" spans="1:1">
-      <c r="A2093" s="20"/>
+    <row r="2019" spans="1:1">
+      <c r="A2019" s="20"/>
+    </row>
+    <row r="2049" spans="1:1">
+      <c r="A2049" s="20"/>
+    </row>
+    <row r="2052" spans="1:1">
+      <c r="A2052" s="20"/>
     </row>
     <row r="2094" spans="1:1">
       <c r="A2094" s="20"/>
     </row>
-    <row r="2150" spans="1:1">
-      <c r="A2150" s="20"/>
-    </row>
-    <row r="2156" spans="1:1">
-      <c r="A2156" s="20"/>
+    <row r="2095" spans="1:1">
+      <c r="A2095" s="20"/>
+    </row>
+    <row r="2151" spans="1:1">
+      <c r="A2151" s="20"/>
     </row>
     <row r="2157" spans="1:1">
       <c r="A2157" s="20"/>
@@ -6669,35 +6061,35 @@
     <row r="2159" spans="1:1">
       <c r="A2159" s="20"/>
     </row>
-    <row r="2163" spans="1:1">
-      <c r="A2163" s="20"/>
-    </row>
-    <row r="2164" spans="1:1">
+    <row r="2160" spans="1:1">
+      <c r="A2160" s="20"/>
+    </row>
+    <row r="2164" spans="1:2">
       <c r="A2164" s="20"/>
     </row>
-    <row r="2165" spans="1:1">
+    <row r="2165" spans="1:2">
       <c r="A2165" s="20"/>
     </row>
-    <row r="2167" spans="1:1">
-      <c r="A2167" s="20"/>
-    </row>
-    <row r="2171" spans="2:2">
-      <c r="B2171" s="21"/>
-    </row>
-    <row r="2172" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A2172" s="20"/>
-    </row>
-    <row r="2173" spans="1:1">
+    <row r="2166" spans="1:2">
+      <c r="A2166" s="20"/>
+    </row>
+    <row r="2168" spans="1:2">
+      <c r="A2168" s="20"/>
+    </row>
+    <row r="2172" spans="1:2">
+      <c r="B2172" s="21"/>
+    </row>
+    <row r="2173" spans="1:2" ht="18.75" customHeight="1">
       <c r="A2173" s="20"/>
     </row>
-    <row r="2174" spans="1:1">
+    <row r="2174" spans="1:2">
       <c r="A2174" s="20"/>
     </row>
-    <row r="2175" spans="1:1">
+    <row r="2175" spans="1:2">
       <c r="A2175" s="20"/>
     </row>
-    <row r="2179" spans="1:1">
-      <c r="A2179" s="20"/>
+    <row r="2176" spans="1:2">
+      <c r="A2176" s="20"/>
     </row>
     <row r="2180" spans="1:1">
       <c r="A2180" s="20"/>
@@ -6708,11 +6100,11 @@
     <row r="2182" spans="1:1">
       <c r="A2182" s="20"/>
     </row>
-    <row r="2185" spans="1:1">
-      <c r="A2185" s="20"/>
-    </row>
-    <row r="2187" spans="1:1">
-      <c r="A2187" s="20"/>
+    <row r="2183" spans="1:1">
+      <c r="A2183" s="20"/>
+    </row>
+    <row r="2186" spans="1:1">
+      <c r="A2186" s="20"/>
     </row>
     <row r="2188" spans="1:1">
       <c r="A2188" s="20"/>
@@ -6741,8 +6133,8 @@
     <row r="2196" spans="1:1">
       <c r="A2196" s="20"/>
     </row>
-    <row r="2199" spans="1:1">
-      <c r="A2199" s="20"/>
+    <row r="2197" spans="1:1">
+      <c r="A2197" s="20"/>
     </row>
     <row r="2200" spans="1:1">
       <c r="A2200" s="20"/>
@@ -6816,42 +6208,42 @@
     <row r="2223" spans="1:1">
       <c r="A2223" s="20"/>
     </row>
-    <row r="2236" spans="1:2">
-      <c r="A2236" s="20"/>
-      <c r="B2236" s="21"/>
-    </row>
-    <row r="2237" spans="1:1">
+    <row r="2224" spans="1:1">
+      <c r="A2224" s="20"/>
+    </row>
+    <row r="2237" spans="1:2">
       <c r="A2237" s="20"/>
-    </row>
-    <row r="2238" spans="1:1">
+      <c r="B2237" s="21"/>
+    </row>
+    <row r="2238" spans="1:2">
       <c r="A2238" s="20"/>
     </row>
-    <row r="2239" spans="1:1">
+    <row r="2239" spans="1:2">
       <c r="A2239" s="20"/>
     </row>
-    <row r="2240" spans="1:1">
+    <row r="2240" spans="1:2">
       <c r="A2240" s="20"/>
     </row>
-    <row r="2242" spans="1:1">
-      <c r="A2242" s="20"/>
+    <row r="2241" spans="1:1">
+      <c r="A2241" s="20"/>
     </row>
     <row r="2243" spans="1:1">
       <c r="A2243" s="20"/>
     </row>
-    <row r="2245" spans="1:1">
-      <c r="A2245" s="20"/>
+    <row r="2244" spans="1:1">
+      <c r="A2244" s="20"/>
     </row>
     <row r="2246" spans="1:1">
       <c r="A2246" s="20"/>
     </row>
-    <row r="2253" spans="1:1">
-      <c r="A2253" s="20"/>
+    <row r="2247" spans="1:1">
+      <c r="A2247" s="20"/>
     </row>
     <row r="2254" spans="1:1">
       <c r="A2254" s="20"/>
     </row>
-    <row r="2266" spans="1:1">
-      <c r="A2266" s="20"/>
+    <row r="2255" spans="1:1">
+      <c r="A2255" s="20"/>
     </row>
     <row r="2267" spans="1:1">
       <c r="A2267" s="20"/>
@@ -6868,8 +6260,8 @@
     <row r="2271" spans="1:1">
       <c r="A2271" s="20"/>
     </row>
-    <row r="2273" spans="1:1">
-      <c r="A2273" s="20"/>
+    <row r="2272" spans="1:1">
+      <c r="A2272" s="20"/>
     </row>
     <row r="2274" spans="1:1">
       <c r="A2274" s="20"/>
@@ -6889,11 +6281,11 @@
     <row r="2279" spans="1:1">
       <c r="A2279" s="20"/>
     </row>
-    <row r="2293" spans="1:1">
-      <c r="A2293" s="20"/>
-    </row>
-    <row r="2300" spans="1:1">
-      <c r="A2300" s="20"/>
+    <row r="2280" spans="1:1">
+      <c r="A2280" s="20"/>
+    </row>
+    <row r="2294" spans="1:1">
+      <c r="A2294" s="20"/>
     </row>
     <row r="2301" spans="1:1">
       <c r="A2301" s="20"/>
@@ -6940,11 +6332,11 @@
     <row r="2315" spans="1:1">
       <c r="A2315" s="20"/>
     </row>
-    <row r="2317" spans="1:1">
-      <c r="A2317" s="20"/>
-    </row>
-    <row r="2323" spans="1:1">
-      <c r="A2323" s="20"/>
+    <row r="2316" spans="1:1">
+      <c r="A2316" s="20"/>
+    </row>
+    <row r="2318" spans="1:1">
+      <c r="A2318" s="20"/>
     </row>
     <row r="2324" spans="1:1">
       <c r="A2324" s="20"/>
@@ -6976,8 +6368,8 @@
     <row r="2333" spans="1:1">
       <c r="A2333" s="20"/>
     </row>
-    <row r="2337" spans="1:1">
-      <c r="A2337" s="20"/>
+    <row r="2334" spans="1:1">
+      <c r="A2334" s="20"/>
     </row>
     <row r="2338" spans="1:1">
       <c r="A2338" s="20"/>
@@ -6985,8 +6377,8 @@
     <row r="2339" spans="1:1">
       <c r="A2339" s="20"/>
     </row>
-    <row r="2342" spans="1:1">
-      <c r="A2342" s="20"/>
+    <row r="2340" spans="1:1">
+      <c r="A2340" s="20"/>
     </row>
     <row r="2343" spans="1:1">
       <c r="A2343" s="20"/>
@@ -7012,8 +6404,8 @@
     <row r="2350" spans="1:1">
       <c r="A2350" s="20"/>
     </row>
-    <row r="2353" spans="1:1">
-      <c r="A2353" s="20"/>
+    <row r="2351" spans="1:1">
+      <c r="A2351" s="20"/>
     </row>
     <row r="2354" spans="1:1">
       <c r="A2354" s="20"/>
@@ -7021,14 +6413,14 @@
     <row r="2355" spans="1:1">
       <c r="A2355" s="20"/>
     </row>
-    <row r="2358" spans="1:1">
-      <c r="A2358" s="20"/>
-    </row>
-    <row r="2364" spans="1:1">
-      <c r="A2364" s="20"/>
-    </row>
-    <row r="2367" spans="1:1">
-      <c r="A2367" s="20"/>
+    <row r="2356" spans="1:1">
+      <c r="A2356" s="20"/>
+    </row>
+    <row r="2359" spans="1:1">
+      <c r="A2359" s="20"/>
+    </row>
+    <row r="2365" spans="1:1">
+      <c r="A2365" s="20"/>
     </row>
     <row r="2368" spans="1:1">
       <c r="A2368" s="20"/>
@@ -7057,20 +6449,20 @@
     <row r="2376" spans="1:1">
       <c r="A2376" s="20"/>
     </row>
-    <row r="2378" spans="1:1">
-      <c r="A2378" s="20"/>
-    </row>
-    <row r="2380" spans="1:1">
-      <c r="A2380" s="20"/>
+    <row r="2377" spans="1:1">
+      <c r="A2377" s="20"/>
+    </row>
+    <row r="2379" spans="1:1">
+      <c r="A2379" s="20"/>
     </row>
     <row r="2381" spans="1:1">
       <c r="A2381" s="20"/>
     </row>
-    <row r="2383" spans="1:1">
-      <c r="A2383" s="20"/>
-    </row>
-    <row r="2385" spans="1:1">
-      <c r="A2385" s="20"/>
+    <row r="2382" spans="1:1">
+      <c r="A2382" s="20"/>
+    </row>
+    <row r="2384" spans="1:1">
+      <c r="A2384" s="20"/>
     </row>
     <row r="2386" spans="1:1">
       <c r="A2386" s="20"/>
@@ -7129,27 +6521,27 @@
     <row r="2404" spans="1:1">
       <c r="A2404" s="20"/>
     </row>
-    <row r="2433" spans="2:2">
-      <c r="B2433" s="29"/>
-    </row>
-    <row r="2455" spans="1:1">
-      <c r="A2455" s="20"/>
+    <row r="2405" spans="1:1">
+      <c r="A2405" s="20"/>
+    </row>
+    <row r="2434" spans="2:2">
+      <c r="B2434" s="29"/>
     </row>
     <row r="2456" spans="1:1">
       <c r="A2456" s="20"/>
     </row>
-    <row r="2465" spans="1:2">
-      <c r="A2465" s="20"/>
-      <c r="B2465" s="21"/>
-    </row>
-    <row r="2487" spans="1:1">
-      <c r="A2487" s="20"/>
+    <row r="2457" spans="1:1">
+      <c r="A2457" s="20"/>
+    </row>
+    <row r="2466" spans="1:2">
+      <c r="A2466" s="20"/>
+      <c r="B2466" s="21"/>
     </row>
     <row r="2488" spans="1:1">
       <c r="A2488" s="20"/>
     </row>
-    <row r="2495" spans="1:1">
-      <c r="A2495" s="20"/>
+    <row r="2489" spans="1:1">
+      <c r="A2489" s="20"/>
     </row>
     <row r="2496" spans="1:1">
       <c r="A2496" s="20"/>
@@ -7157,11 +6549,11 @@
     <row r="2497" spans="1:1">
       <c r="A2497" s="20"/>
     </row>
-    <row r="2499" spans="1:1">
-      <c r="A2499" s="20"/>
-    </row>
-    <row r="2501" spans="1:1">
-      <c r="A2501" s="20"/>
+    <row r="2498" spans="1:1">
+      <c r="A2498" s="20"/>
+    </row>
+    <row r="2500" spans="1:1">
+      <c r="A2500" s="20"/>
     </row>
     <row r="2502" spans="1:1">
       <c r="A2502" s="20"/>
@@ -7202,82 +6594,82 @@
     <row r="2514" spans="1:1">
       <c r="A2514" s="20"/>
     </row>
-    <row r="2516" spans="1:1">
-      <c r="A2516" s="20"/>
+    <row r="2515" spans="1:1">
+      <c r="A2515" s="20"/>
     </row>
     <row r="2517" spans="1:1">
       <c r="A2517" s="20"/>
     </row>
-    <row r="2532" spans="1:1">
-      <c r="A2532" s="20"/>
-    </row>
-    <row r="2561" spans="2:2">
-      <c r="B2561" s="30"/>
-    </row>
-    <row r="2563" spans="1:1">
-      <c r="A2563" s="20"/>
-    </row>
-    <row r="2564" spans="1:1">
+    <row r="2518" spans="1:1">
+      <c r="A2518" s="20"/>
+    </row>
+    <row r="2533" spans="1:1">
+      <c r="A2533" s="20"/>
+    </row>
+    <row r="2562" spans="1:2">
+      <c r="B2562" s="30"/>
+    </row>
+    <row r="2564" spans="1:2">
       <c r="A2564" s="20"/>
     </row>
-    <row r="2565" spans="1:1">
+    <row r="2565" spans="1:2">
       <c r="A2565" s="20"/>
     </row>
-    <row r="2569" spans="1:1">
-      <c r="A2569" s="20"/>
-    </row>
-    <row r="2572" spans="1:1">
-      <c r="A2572" s="20"/>
-    </row>
-    <row r="2573" spans="1:1">
+    <row r="2566" spans="1:2">
+      <c r="A2566" s="20"/>
+    </row>
+    <row r="2570" spans="1:2">
+      <c r="A2570" s="20"/>
+    </row>
+    <row r="2573" spans="1:2">
       <c r="A2573" s="20"/>
     </row>
-    <row r="2574" spans="1:1">
+    <row r="2574" spans="1:2">
       <c r="A2574" s="20"/>
     </row>
-    <row r="2575" spans="1:1">
+    <row r="2575" spans="1:2">
       <c r="A2575" s="20"/>
     </row>
-    <row r="2576" spans="1:1">
+    <row r="2576" spans="1:2">
       <c r="A2576" s="20"/>
     </row>
-    <row r="2577" spans="1:1">
+    <row r="2577" spans="1:2">
       <c r="A2577" s="20"/>
     </row>
-    <row r="2578" spans="1:1">
+    <row r="2578" spans="1:2">
       <c r="A2578" s="20"/>
     </row>
-    <row r="2580" spans="1:1">
-      <c r="A2580" s="20"/>
-    </row>
-    <row r="2581" spans="1:1">
+    <row r="2579" spans="1:2">
+      <c r="A2579" s="20"/>
+    </row>
+    <row r="2581" spans="1:2">
       <c r="A2581" s="20"/>
     </row>
-    <row r="2582" spans="1:1">
+    <row r="2582" spans="1:2">
       <c r="A2582" s="20"/>
     </row>
-    <row r="2583" spans="1:1">
+    <row r="2583" spans="1:2">
       <c r="A2583" s="20"/>
     </row>
-    <row r="2584" spans="1:1">
+    <row r="2584" spans="1:2">
       <c r="A2584" s="20"/>
     </row>
-    <row r="2585" spans="1:1">
+    <row r="2585" spans="1:2">
       <c r="A2585" s="20"/>
     </row>
-    <row r="2587" spans="2:2">
-      <c r="B2587" s="28"/>
-    </row>
-    <row r="2589" spans="1:1">
-      <c r="A2589" s="20"/>
-    </row>
-    <row r="2590" spans="1:1">
+    <row r="2586" spans="1:2">
+      <c r="A2586" s="20"/>
+    </row>
+    <row r="2588" spans="1:2">
+      <c r="B2588" s="28"/>
+    </row>
+    <row r="2590" spans="1:2">
       <c r="A2590" s="20"/>
     </row>
-    <row r="2591" spans="1:1">
+    <row r="2591" spans="1:2">
       <c r="A2591" s="20"/>
     </row>
-    <row r="2592" spans="1:1">
+    <row r="2592" spans="1:2">
       <c r="A2592" s="20"/>
     </row>
     <row r="2593" spans="1:1">
@@ -7310,14 +6702,14 @@
     <row r="2602" spans="1:1">
       <c r="A2602" s="20"/>
     </row>
-    <row r="2610" spans="2:2">
-      <c r="B2610" s="31"/>
-    </row>
-    <row r="2617" spans="2:2">
-      <c r="B2617" s="31"/>
-    </row>
-    <row r="2628" spans="1:1">
-      <c r="A2628" s="20"/>
+    <row r="2603" spans="1:1">
+      <c r="A2603" s="20"/>
+    </row>
+    <row r="2611" spans="2:2">
+      <c r="B2611" s="31"/>
+    </row>
+    <row r="2618" spans="2:2">
+      <c r="B2618" s="31"/>
     </row>
     <row r="2629" spans="1:1">
       <c r="A2629" s="20"/>
@@ -7352,14 +6744,14 @@
     <row r="2639" spans="1:1">
       <c r="A2639" s="20"/>
     </row>
-    <row r="2651" spans="2:2">
-      <c r="B2651" s="32"/>
-    </row>
-    <row r="2668" spans="2:2">
-      <c r="B2668" s="5"/>
-    </row>
-    <row r="2851" spans="1:1">
-      <c r="A2851" s="20"/>
+    <row r="2640" spans="1:1">
+      <c r="A2640" s="20"/>
+    </row>
+    <row r="2652" spans="2:2">
+      <c r="B2652" s="32"/>
+    </row>
+    <row r="2669" spans="2:2">
+      <c r="B2669" s="5"/>
     </row>
     <row r="2852" spans="1:1">
       <c r="A2852" s="20"/>
@@ -7370,20 +6762,20 @@
     <row r="2854" spans="1:1">
       <c r="A2854" s="20"/>
     </row>
-    <row r="2856" spans="1:1">
-      <c r="A2856" s="20"/>
+    <row r="2855" spans="1:1">
+      <c r="A2855" s="20"/>
     </row>
     <row r="2857" spans="1:1">
       <c r="A2857" s="20"/>
     </row>
-    <row r="2963" spans="1:1">
-      <c r="A2963" s="20"/>
-    </row>
-    <row r="2965" spans="1:1">
-      <c r="A2965" s="20"/>
-    </row>
-    <row r="2976" spans="1:1">
-      <c r="A2976" s="20"/>
+    <row r="2858" spans="1:1">
+      <c r="A2858" s="20"/>
+    </row>
+    <row r="2964" spans="1:1">
+      <c r="A2964" s="20"/>
+    </row>
+    <row r="2966" spans="1:1">
+      <c r="A2966" s="20"/>
     </row>
     <row r="2977" spans="1:1">
       <c r="A2977" s="20"/>
@@ -7400,8 +6792,8 @@
     <row r="2981" spans="1:1">
       <c r="A2981" s="20"/>
     </row>
-    <row r="2987" spans="1:1">
-      <c r="A2987" s="20"/>
+    <row r="2982" spans="1:1">
+      <c r="A2982" s="20"/>
     </row>
     <row r="2988" spans="1:1">
       <c r="A2988" s="20"/>
@@ -7430,37 +6822,36 @@
     <row r="2996" spans="1:1">
       <c r="A2996" s="20"/>
     </row>
-    <row r="3002" spans="1:1">
-      <c r="A3002" s="20"/>
-    </row>
-    <row r="3014" spans="1:1">
-      <c r="A3014" s="20"/>
-    </row>
-    <row r="3019" spans="1:1">
-      <c r="A3019" s="20"/>
-    </row>
-    <row r="3038" spans="3:3">
-      <c r="C3038" s="21"/>
-    </row>
-    <row r="3076" spans="1:2">
-      <c r="A3076" s="20"/>
-      <c r="B3076" s="21"/>
-    </row>
-    <row r="3139" spans="1:1">
-      <c r="A3139" s="20"/>
-    </row>
-    <row r="3141" spans="1:1">
-      <c r="A3141" s="20"/>
-    </row>
-    <row r="3194" spans="3:3">
-      <c r="C3194" s="21"/>
+    <row r="2997" spans="1:1">
+      <c r="A2997" s="20"/>
+    </row>
+    <row r="3003" spans="1:1">
+      <c r="A3003" s="20"/>
+    </row>
+    <row r="3015" spans="1:1">
+      <c r="A3015" s="20"/>
+    </row>
+    <row r="3020" spans="1:1">
+      <c r="A3020" s="20"/>
+    </row>
+    <row r="3039" spans="3:3">
+      <c r="C3039" s="21"/>
+    </row>
+    <row r="3077" spans="1:2">
+      <c r="A3077" s="20"/>
+      <c r="B3077" s="21"/>
+    </row>
+    <row r="3140" spans="1:1">
+      <c r="A3140" s="20"/>
+    </row>
+    <row r="3142" spans="1:1">
+      <c r="A3142" s="20"/>
     </row>
     <row r="3195" spans="3:3">
       <c r="C3195" s="21"/>
     </row>
-    <row r="3203" spans="1:3">
-      <c r="A3203" s="20"/>
-      <c r="C3203" s="21"/>
+    <row r="3196" spans="3:3">
+      <c r="C3196" s="21"/>
     </row>
     <row r="3204" spans="1:3">
       <c r="A3204" s="20"/>
@@ -7474,75 +6865,76 @@
       <c r="A3206" s="20"/>
       <c r="C3206" s="21"/>
     </row>
-    <row r="3213" spans="3:3">
-      <c r="C3213" s="21"/>
-    </row>
-    <row r="3214" spans="3:3">
+    <row r="3207" spans="1:3">
+      <c r="A3207" s="20"/>
+      <c r="C3207" s="21"/>
+    </row>
+    <row r="3214" spans="1:3">
       <c r="C3214" s="21"/>
     </row>
-    <row r="3219" spans="3:3">
-      <c r="C3219" s="21"/>
-    </row>
-    <row r="3221" spans="1:3">
-      <c r="A3221" s="20"/>
-      <c r="C3221" s="21"/>
-    </row>
-    <row r="3222" spans="3:3">
+    <row r="3215" spans="1:3">
+      <c r="C3215" s="21"/>
+    </row>
+    <row r="3220" spans="1:3">
+      <c r="C3220" s="21"/>
+    </row>
+    <row r="3222" spans="1:3">
+      <c r="A3222" s="20"/>
       <c r="C3222" s="21"/>
     </row>
-    <row r="3223" spans="3:3">
+    <row r="3223" spans="1:3">
       <c r="C3223" s="21"/>
     </row>
-    <row r="3253" spans="1:1">
-      <c r="A3253" s="20"/>
-    </row>
-    <row r="3276" spans="3:3">
-      <c r="C3276" s="7"/>
-    </row>
-    <row r="3343" spans="1:1">
-      <c r="A3343" s="20"/>
-    </row>
-    <row r="3410" spans="3:3">
-      <c r="C3410" s="21"/>
-    </row>
-    <row r="3414" spans="1:1">
-      <c r="A3414" s="20"/>
-    </row>
-    <row r="3415" spans="1:1">
+    <row r="3224" spans="1:3">
+      <c r="C3224" s="21"/>
+    </row>
+    <row r="3254" spans="1:1">
+      <c r="A3254" s="20"/>
+    </row>
+    <row r="3277" spans="3:3">
+      <c r="C3277" s="7"/>
+    </row>
+    <row r="3344" spans="1:1">
+      <c r="A3344" s="20"/>
+    </row>
+    <row r="3411" spans="1:3">
+      <c r="C3411" s="21"/>
+    </row>
+    <row r="3415" spans="1:3">
       <c r="A3415" s="20"/>
     </row>
-    <row r="3416" spans="1:1">
+    <row r="3416" spans="1:3">
       <c r="A3416" s="20"/>
     </row>
-    <row r="3417" spans="1:1">
+    <row r="3417" spans="1:3">
       <c r="A3417" s="20"/>
     </row>
-    <row r="3418" spans="1:1">
+    <row r="3418" spans="1:3">
       <c r="A3418" s="20"/>
     </row>
-    <row r="3419" spans="1:1">
+    <row r="3419" spans="1:3">
       <c r="A3419" s="20"/>
     </row>
-    <row r="3420" spans="1:1">
+    <row r="3420" spans="1:3">
       <c r="A3420" s="20"/>
     </row>
-    <row r="3421" spans="1:1">
+    <row r="3421" spans="1:3">
       <c r="A3421" s="20"/>
     </row>
-    <row r="3422" spans="1:1">
+    <row r="3422" spans="1:3">
       <c r="A3422" s="20"/>
     </row>
-    <row r="3424" spans="1:1">
-      <c r="A3424" s="20"/>
+    <row r="3423" spans="1:3">
+      <c r="A3423" s="20"/>
     </row>
     <row r="3425" spans="1:1">
       <c r="A3425" s="20"/>
     </row>
-    <row r="3428" spans="1:1">
-      <c r="A3428" s="20"/>
-    </row>
-    <row r="3430" spans="1:1">
-      <c r="A3430" s="20"/>
+    <row r="3426" spans="1:1">
+      <c r="A3426" s="20"/>
+    </row>
+    <row r="3429" spans="1:1">
+      <c r="A3429" s="20"/>
     </row>
     <row r="3431" spans="1:1">
       <c r="A3431" s="20"/>
@@ -7553,8 +6945,8 @@
     <row r="3433" spans="1:1">
       <c r="A3433" s="20"/>
     </row>
-    <row r="3435" spans="1:1">
-      <c r="A3435" s="20"/>
+    <row r="3434" spans="1:1">
+      <c r="A3434" s="20"/>
     </row>
     <row r="3436" spans="1:1">
       <c r="A3436" s="20"/>
@@ -7568,89 +6960,87 @@
     <row r="3439" spans="1:1">
       <c r="A3439" s="20"/>
     </row>
-    <row r="3441" spans="1:1">
-      <c r="A3441" s="20"/>
-    </row>
-    <row r="3459" spans="1:1">
-      <c r="A3459" s="20"/>
-    </row>
-    <row r="3596" spans="1:1">
-      <c r="A3596" s="20"/>
-    </row>
-    <row r="3630" spans="3:3">
-      <c r="C3630" s="7"/>
-    </row>
-    <row r="3655" spans="1:1">
-      <c r="A3655" s="20"/>
-    </row>
-    <row r="3709" spans="1:1">
-      <c r="A3709" s="20"/>
+    <row r="3440" spans="1:1">
+      <c r="A3440" s="20"/>
+    </row>
+    <row r="3442" spans="1:1">
+      <c r="A3442" s="20"/>
+    </row>
+    <row r="3460" spans="1:1">
+      <c r="A3460" s="20"/>
+    </row>
+    <row r="3597" spans="1:1">
+      <c r="A3597" s="20"/>
+    </row>
+    <row r="3631" spans="3:3">
+      <c r="C3631" s="7"/>
+    </row>
+    <row r="3656" spans="1:1">
+      <c r="A3656" s="20"/>
     </row>
     <row r="3710" spans="1:1">
       <c r="A3710" s="20"/>
     </row>
-    <row r="3712" spans="1:1">
-      <c r="A3712" s="20"/>
-    </row>
-    <row r="3713" spans="2:2">
-      <c r="B3713" s="21"/>
-    </row>
-    <row r="3717" spans="1:1">
-      <c r="A3717" s="20"/>
-    </row>
-    <row r="3718" spans="1:1">
+    <row r="3711" spans="1:1">
+      <c r="A3711" s="20"/>
+    </row>
+    <row r="3713" spans="1:3">
+      <c r="A3713" s="20"/>
+    </row>
+    <row r="3714" spans="1:3">
+      <c r="B3714" s="21"/>
+    </row>
+    <row r="3718" spans="1:3">
       <c r="A3718" s="20"/>
     </row>
-    <row r="3719" spans="1:1">
+    <row r="3719" spans="1:3">
       <c r="A3719" s="20"/>
     </row>
-    <row r="3726" spans="3:3">
-      <c r="C3726" s="33"/>
-    </row>
-    <row r="3727" spans="2:2">
-      <c r="B3727" s="7"/>
-    </row>
-    <row r="3728" spans="2:2">
+    <row r="3720" spans="1:3">
+      <c r="A3720" s="20"/>
+    </row>
+    <row r="3727" spans="1:3">
+      <c r="C3727" s="33"/>
+    </row>
+    <row r="3728" spans="1:3">
       <c r="B3728" s="7"/>
     </row>
-    <row r="3740" spans="3:3">
-      <c r="C3740" s="33"/>
-    </row>
-    <row r="3741" spans="2:2">
-      <c r="B3741" s="7"/>
-    </row>
-    <row r="3744" spans="2:2">
-      <c r="B3744" s="7"/>
-    </row>
-    <row r="3746" spans="2:3">
-      <c r="B3746" s="7"/>
-      <c r="C3746" s="34"/>
-    </row>
-    <row r="3747" spans="2:3">
+    <row r="3729" spans="2:3">
+      <c r="B3729" s="7"/>
+    </row>
+    <row r="3741" spans="2:3">
+      <c r="C3741" s="33"/>
+    </row>
+    <row r="3742" spans="2:3">
+      <c r="B3742" s="7"/>
+    </row>
+    <row r="3745" spans="1:3">
+      <c r="B3745" s="7"/>
+    </row>
+    <row r="3747" spans="1:3">
       <c r="B3747" s="7"/>
       <c r="C3747" s="34"/>
     </row>
-    <row r="3748" spans="2:2">
-      <c r="B3748" s="21"/>
-    </row>
-    <row r="3749" spans="1:2">
-      <c r="A3749" s="20"/>
-      <c r="B3749" s="7"/>
-    </row>
-    <row r="3750" spans="1:2">
-      <c r="A3750" s="35"/>
-      <c r="B3750" s="36"/>
-    </row>
-    <row r="3751" spans="1:2">
+    <row r="3748" spans="1:3">
+      <c r="B3748" s="7"/>
+      <c r="C3748" s="34"/>
+    </row>
+    <row r="3749" spans="1:3">
+      <c r="B3749" s="21"/>
+    </row>
+    <row r="3750" spans="1:3">
+      <c r="A3750" s="20"/>
+      <c r="B3750" s="7"/>
+    </row>
+    <row r="3751" spans="1:3" ht="15.75">
       <c r="A3751" s="35"/>
       <c r="B3751" s="36"/>
     </row>
-    <row r="3752" spans="2:3">
-      <c r="B3752" s="7"/>
-      <c r="C3752" s="34"/>
+    <row r="3752" spans="1:3" ht="15.75">
+      <c r="A3752" s="35"/>
+      <c r="B3752" s="36"/>
     </row>
     <row r="3753" spans="1:3">
-      <c r="A3753" s="22"/>
       <c r="B3753" s="7"/>
       <c r="C3753" s="34"/>
     </row>
@@ -7669,16 +7059,16 @@
       <c r="B3756" s="7"/>
       <c r="C3756" s="34"/>
     </row>
-    <row r="3767" spans="2:3">
-      <c r="B3767" s="7"/>
-      <c r="C3767" s="34"/>
-    </row>
-    <row r="3768" spans="2:3">
+    <row r="3757" spans="1:3">
+      <c r="A3757" s="22"/>
+      <c r="B3757" s="7"/>
+      <c r="C3757" s="34"/>
+    </row>
+    <row r="3768" spans="1:3">
       <c r="B3768" s="7"/>
       <c r="C3768" s="34"/>
     </row>
     <row r="3769" spans="1:3">
-      <c r="A3769" s="22"/>
       <c r="B3769" s="7"/>
       <c r="C3769" s="34"/>
     </row>
@@ -7732,78 +7122,79 @@
       <c r="B3779" s="7"/>
       <c r="C3779" s="34"/>
     </row>
-    <row r="3780" spans="2:2">
+    <row r="3780" spans="1:3">
+      <c r="A3780" s="22"/>
       <c r="B3780" s="7"/>
-    </row>
-    <row r="3781" spans="2:2">
+      <c r="C3780" s="34"/>
+    </row>
+    <row r="3781" spans="1:3">
       <c r="B3781" s="7"/>
     </row>
-    <row r="3782" spans="2:2">
+    <row r="3782" spans="1:3">
       <c r="B3782" s="7"/>
     </row>
-    <row r="3783" spans="2:3">
+    <row r="3783" spans="1:3">
       <c r="B3783" s="7"/>
-      <c r="C3783" s="34"/>
-    </row>
-    <row r="3789" spans="2:2">
-      <c r="B3789" s="7"/>
-    </row>
-    <row r="3790" spans="2:2">
+    </row>
+    <row r="3784" spans="1:3">
+      <c r="B3784" s="7"/>
+      <c r="C3784" s="34"/>
+    </row>
+    <row r="3790" spans="1:3">
       <c r="B3790" s="7"/>
     </row>
-    <row r="3791" spans="2:2">
+    <row r="3791" spans="1:3">
       <c r="B3791" s="7"/>
     </row>
-    <row r="3792" spans="2:2">
+    <row r="3792" spans="1:3">
       <c r="B3792" s="7"/>
     </row>
     <row r="3793" spans="2:2">
       <c r="B3793" s="7"/>
     </row>
-    <row r="3820" spans="2:2">
-      <c r="B3820" s="7"/>
-    </row>
-    <row r="3824" spans="2:2">
-      <c r="B3824" s="7"/>
-    </row>
-    <row r="3825" spans="2:2">
+    <row r="3794" spans="2:2">
+      <c r="B3794" s="7"/>
+    </row>
+    <row r="3821" spans="2:2">
+      <c r="B3821" s="7"/>
+    </row>
+    <row r="3825" spans="1:2">
       <c r="B3825" s="7"/>
     </row>
-    <row r="3826" spans="2:2">
+    <row r="3826" spans="1:2">
       <c r="B3826" s="7"/>
     </row>
-    <row r="3827" spans="2:2">
+    <row r="3827" spans="1:2">
       <c r="B3827" s="7"/>
     </row>
-    <row r="3828" spans="2:2">
+    <row r="3828" spans="1:2">
       <c r="B3828" s="7"/>
     </row>
-    <row r="3829" spans="2:2">
+    <row r="3829" spans="1:2">
       <c r="B3829" s="7"/>
     </row>
-    <row r="3830" spans="2:2">
+    <row r="3830" spans="1:2">
       <c r="B3830" s="7"/>
     </row>
-    <row r="3831" spans="2:2">
+    <row r="3831" spans="1:2">
       <c r="B3831" s="7"/>
     </row>
-    <row r="3832" spans="2:2">
+    <row r="3832" spans="1:2">
       <c r="B3832" s="7"/>
     </row>
-    <row r="3833" spans="2:2">
+    <row r="3833" spans="1:2">
       <c r="B3833" s="7"/>
     </row>
-    <row r="3834" spans="2:2">
+    <row r="3834" spans="1:2">
       <c r="B3834" s="7"/>
     </row>
-    <row r="3835" spans="2:2">
+    <row r="3835" spans="1:2">
       <c r="B3835" s="7"/>
     </row>
-    <row r="3836" spans="2:2">
+    <row r="3836" spans="1:2">
       <c r="B3836" s="7"/>
     </row>
     <row r="3837" spans="1:2">
-      <c r="A3837" s="20"/>
       <c r="B3837" s="7"/>
     </row>
     <row r="3838" spans="1:2">
@@ -7814,20 +7205,20 @@
       <c r="A3839" s="20"/>
       <c r="B3839" s="7"/>
     </row>
-    <row r="3840" spans="2:2">
+    <row r="3840" spans="1:2">
+      <c r="A3840" s="20"/>
       <c r="B3840" s="7"/>
     </row>
     <row r="3841" spans="1:2">
-      <c r="A3841" s="20"/>
       <c r="B3841" s="7"/>
     </row>
     <row r="3842" spans="1:2">
       <c r="A3842" s="20"/>
-      <c r="B3842" s="10"/>
+      <c r="B3842" s="7"/>
     </row>
     <row r="3843" spans="1:2">
       <c r="A3843" s="20"/>
-      <c r="B3843" s="7"/>
+      <c r="B3843" s="10"/>
     </row>
     <row r="3844" spans="1:2">
       <c r="A3844" s="20"/>
@@ -7837,14 +7228,14 @@
       <c r="A3845" s="20"/>
       <c r="B3845" s="7"/>
     </row>
-    <row r="3846" spans="2:2">
+    <row r="3846" spans="1:2">
+      <c r="A3846" s="20"/>
       <c r="B3846" s="7"/>
     </row>
-    <row r="3847" spans="2:2">
+    <row r="3847" spans="1:2">
       <c r="B3847" s="7"/>
     </row>
     <row r="3848" spans="1:2">
-      <c r="A3848" s="20"/>
       <c r="B3848" s="7"/>
     </row>
     <row r="3849" spans="1:2">
@@ -7863,31 +7254,31 @@
       <c r="A3852" s="20"/>
       <c r="B3852" s="7"/>
     </row>
-    <row r="3853" spans="2:2">
+    <row r="3853" spans="1:2">
+      <c r="A3853" s="20"/>
       <c r="B3853" s="7"/>
     </row>
     <row r="3854" spans="1:2">
-      <c r="A3854" s="20"/>
       <c r="B3854" s="7"/>
     </row>
-    <row r="3855" spans="2:2">
+    <row r="3855" spans="1:2">
+      <c r="A3855" s="20"/>
       <c r="B3855" s="7"/>
     </row>
-    <row r="3856" spans="2:2">
+    <row r="3856" spans="1:2">
       <c r="B3856" s="7"/>
     </row>
-    <row r="3857" spans="2:2">
+    <row r="3857" spans="1:2">
       <c r="B3857" s="7"/>
     </row>
-    <row r="3858" spans="2:2">
+    <row r="3858" spans="1:2">
       <c r="B3858" s="7"/>
     </row>
-    <row r="3868" spans="1:2">
-      <c r="A3868" s="20"/>
-      <c r="B3868" s="7"/>
+    <row r="3859" spans="1:2">
+      <c r="B3859" s="7"/>
     </row>
     <row r="3869" spans="1:2">
-      <c r="A3869" s="22"/>
+      <c r="A3869" s="20"/>
       <c r="B3869" s="7"/>
     </row>
     <row r="3870" spans="1:2">
@@ -7902,38 +7293,38 @@
       <c r="A3872" s="22"/>
       <c r="B3872" s="7"/>
     </row>
-    <row r="3873" spans="1:2">
-      <c r="A3873" s="20"/>
+    <row r="3873" spans="1:3">
+      <c r="A3873" s="22"/>
       <c r="B3873" s="7"/>
     </row>
-    <row r="3874" spans="1:2">
+    <row r="3874" spans="1:3">
       <c r="A3874" s="20"/>
       <c r="B3874" s="7"/>
     </row>
-    <row r="3875" spans="1:2">
+    <row r="3875" spans="1:3">
       <c r="A3875" s="20"/>
       <c r="B3875" s="7"/>
     </row>
-    <row r="3876" spans="2:3">
+    <row r="3876" spans="1:3">
+      <c r="A3876" s="20"/>
       <c r="B3876" s="7"/>
-      <c r="C3876" s="34"/>
-    </row>
-    <row r="3892" spans="1:2">
-      <c r="A3892" s="20"/>
-      <c r="B3892" s="7"/>
+    </row>
+    <row r="3877" spans="1:3">
+      <c r="B3877" s="7"/>
+      <c r="C3877" s="34"/>
     </row>
     <row r="3893" spans="1:2">
       <c r="A3893" s="20"/>
       <c r="B3893" s="7"/>
     </row>
-    <row r="3894" spans="2:2">
+    <row r="3894" spans="1:2">
+      <c r="A3894" s="20"/>
       <c r="B3894" s="7"/>
     </row>
-    <row r="3895" spans="2:2">
+    <row r="3895" spans="1:2">
       <c r="B3895" s="7"/>
     </row>
     <row r="3896" spans="1:2">
-      <c r="A3896" s="22"/>
       <c r="B3896" s="7"/>
     </row>
     <row r="3897" spans="1:2">
@@ -8084,29 +7475,30 @@
       <c r="A3933" s="22"/>
       <c r="B3933" s="7"/>
     </row>
-    <row r="3938" spans="1:2">
-      <c r="A3938" s="22"/>
-      <c r="B3938" s="7"/>
-    </row>
-    <row r="3941" spans="1:2">
-      <c r="A3941" s="20"/>
-      <c r="B3941" s="7"/>
+    <row r="3934" spans="1:2">
+      <c r="A3934" s="22"/>
+      <c r="B3934" s="7"/>
+    </row>
+    <row r="3939" spans="1:2">
+      <c r="A3939" s="22"/>
+      <c r="B3939" s="7"/>
     </row>
     <row r="3942" spans="1:2">
       <c r="A3942" s="20"/>
       <c r="B3942" s="7"/>
     </row>
-    <row r="3943" spans="2:2">
+    <row r="3943" spans="1:2">
+      <c r="A3943" s="20"/>
       <c r="B3943" s="7"/>
     </row>
-    <row r="3946" spans="2:2">
-      <c r="B3946" s="7"/>
-    </row>
-    <row r="3947" spans="2:2">
+    <row r="3944" spans="1:2">
+      <c r="B3944" s="7"/>
+    </row>
+    <row r="3947" spans="1:2">
       <c r="B3947" s="7"/>
     </row>
-    <row r="3964" spans="2:2">
-      <c r="B3964" s="7"/>
+    <row r="3948" spans="1:2">
+      <c r="B3948" s="7"/>
     </row>
     <row r="3965" spans="2:2">
       <c r="B3965" s="7"/>
@@ -8118,41 +7510,41 @@
       <c r="B3967" s="7"/>
     </row>
     <row r="3968" spans="2:2">
-      <c r="B3968" s="5"/>
-    </row>
-    <row r="3969" spans="2:2">
-      <c r="B3969" s="7"/>
-    </row>
-    <row r="3970" spans="2:2">
+      <c r="B3968" s="7"/>
+    </row>
+    <row r="3969" spans="1:3">
+      <c r="B3969" s="5"/>
+    </row>
+    <row r="3970" spans="1:3">
       <c r="B3970" s="7"/>
     </row>
-    <row r="3971" spans="2:3">
+    <row r="3971" spans="1:3">
       <c r="B3971" s="7"/>
-      <c r="C3971" s="7"/>
-    </row>
-    <row r="3972" spans="2:2">
+    </row>
+    <row r="3972" spans="1:3">
       <c r="B3972" s="7"/>
-    </row>
-    <row r="3973" spans="2:2">
+      <c r="C3972" s="7"/>
+    </row>
+    <row r="3973" spans="1:3">
       <c r="B3973" s="7"/>
     </row>
-    <row r="3974" spans="2:2">
+    <row r="3974" spans="1:3">
       <c r="B3974" s="7"/>
     </row>
-    <row r="3975" spans="1:2">
-      <c r="A3975" s="20"/>
+    <row r="3975" spans="1:3">
       <c r="B3975" s="7"/>
     </row>
-    <row r="3976" spans="1:2">
+    <row r="3976" spans="1:3">
       <c r="A3976" s="20"/>
       <c r="B3976" s="7"/>
     </row>
-    <row r="3981" spans="1:2">
-      <c r="A3981" s="20"/>
-      <c r="B3981" s="7"/>
-    </row>
-    <row r="3989" spans="2:2">
-      <c r="B3989" s="7"/>
+    <row r="3977" spans="1:3">
+      <c r="A3977" s="20"/>
+      <c r="B3977" s="7"/>
+    </row>
+    <row r="3982" spans="1:3">
+      <c r="A3982" s="20"/>
+      <c r="B3982" s="7"/>
     </row>
     <row r="3990" spans="2:2">
       <c r="B3990" s="7"/>
@@ -8181,8 +7573,8 @@
     <row r="3998" spans="2:2">
       <c r="B3998" s="7"/>
     </row>
-    <row r="4001" spans="2:2">
-      <c r="B4001" s="7"/>
+    <row r="3999" spans="2:2">
+      <c r="B3999" s="7"/>
     </row>
     <row r="4002" spans="2:2">
       <c r="B4002" s="7"/>
@@ -8202,8 +7594,8 @@
     <row r="4007" spans="2:2">
       <c r="B4007" s="7"/>
     </row>
-    <row r="4014" spans="2:2">
-      <c r="B4014" s="7"/>
+    <row r="4008" spans="2:2">
+      <c r="B4008" s="7"/>
     </row>
     <row r="4015" spans="2:2">
       <c r="B4015" s="7"/>
@@ -8211,80 +7603,80 @@
     <row r="4016" spans="2:2">
       <c r="B4016" s="7"/>
     </row>
-    <row r="4017" spans="2:2">
+    <row r="4017" spans="1:2">
       <c r="B4017" s="7"/>
     </row>
-    <row r="4018" spans="2:2">
+    <row r="4018" spans="1:2">
       <c r="B4018" s="7"/>
     </row>
-    <row r="4019" spans="2:2">
+    <row r="4019" spans="1:2">
       <c r="B4019" s="7"/>
     </row>
-    <row r="4020" spans="2:2">
+    <row r="4020" spans="1:2">
       <c r="B4020" s="7"/>
     </row>
-    <row r="4021" spans="2:2">
+    <row r="4021" spans="1:2">
       <c r="B4021" s="7"/>
     </row>
-    <row r="4022" spans="2:2">
+    <row r="4022" spans="1:2">
       <c r="B4022" s="7"/>
     </row>
     <row r="4023" spans="1:2">
-      <c r="A4023" s="22"/>
       <c r="B4023" s="7"/>
     </row>
     <row r="4024" spans="1:2">
-      <c r="A4024" s="20"/>
+      <c r="A4024" s="22"/>
       <c r="B4024" s="7"/>
     </row>
     <row r="4025" spans="1:2">
       <c r="A4025" s="20"/>
       <c r="B4025" s="7"/>
     </row>
-    <row r="4026" spans="2:2">
+    <row r="4026" spans="1:2">
+      <c r="A4026" s="20"/>
       <c r="B4026" s="7"/>
     </row>
-    <row r="4027" spans="2:2">
+    <row r="4027" spans="1:2">
       <c r="B4027" s="7"/>
     </row>
-    <row r="4028" spans="2:2">
+    <row r="4028" spans="1:2">
       <c r="B4028" s="7"/>
     </row>
-    <row r="4032" spans="2:2">
-      <c r="B4032" s="7"/>
+    <row r="4029" spans="1:2">
+      <c r="B4029" s="7"/>
     </row>
     <row r="4033" spans="1:2">
-      <c r="A4033" s="20"/>
       <c r="B4033" s="7"/>
     </row>
-    <row r="4035" spans="2:2">
-      <c r="B4035" s="7"/>
-    </row>
-    <row r="4036" spans="2:2">
+    <row r="4034" spans="1:2">
+      <c r="A4034" s="20"/>
+      <c r="B4034" s="7"/>
+    </row>
+    <row r="4036" spans="1:2">
       <c r="B4036" s="7"/>
     </row>
-    <row r="4037" spans="2:2">
+    <row r="4037" spans="1:2">
       <c r="B4037" s="7"/>
     </row>
-    <row r="4038" spans="2:2">
+    <row r="4038" spans="1:2">
       <c r="B4038" s="7"/>
     </row>
-    <row r="4041" spans="2:2">
-      <c r="B4041" s="7"/>
-    </row>
-    <row r="4042" spans="2:2">
+    <row r="4039" spans="1:2">
+      <c r="B4039" s="7"/>
+    </row>
+    <row r="4042" spans="1:2">
       <c r="B4042" s="7"/>
     </row>
-    <row r="4044" spans="2:2">
-      <c r="B4044" s="7"/>
-    </row>
-    <row r="4045" spans="2:2">
+    <row r="4043" spans="1:2">
+      <c r="B4043" s="7"/>
+    </row>
+    <row r="4045" spans="1:2">
       <c r="B4045" s="7"/>
     </row>
-    <row r="4047" spans="2:2">
-      <c r="B4047" s="7"/>
-    </row>
-    <row r="4048" spans="2:2">
+    <row r="4046" spans="1:2">
+      <c r="B4046" s="7"/>
+    </row>
+    <row r="4048" spans="1:2">
       <c r="B4048" s="7"/>
     </row>
     <row r="4049" spans="2:2">
@@ -8293,26 +7685,26 @@
     <row r="4050" spans="2:2">
       <c r="B4050" s="7"/>
     </row>
-    <row r="4055" spans="2:2">
-      <c r="B4055" s="7"/>
-    </row>
-    <row r="4059" spans="2:2">
-      <c r="B4059" s="7"/>
+    <row r="4051" spans="2:2">
+      <c r="B4051" s="7"/>
+    </row>
+    <row r="4056" spans="2:2">
+      <c r="B4056" s="7"/>
     </row>
     <row r="4060" spans="2:2">
       <c r="B4060" s="7"/>
     </row>
-    <row r="4062" spans="2:2">
-      <c r="B4062" s="7"/>
-    </row>
-    <row r="4066" spans="2:2">
-      <c r="B4066" s="7"/>
+    <row r="4061" spans="2:2">
+      <c r="B4061" s="7"/>
+    </row>
+    <row r="4063" spans="2:2">
+      <c r="B4063" s="7"/>
     </row>
     <row r="4067" spans="2:2">
       <c r="B4067" s="7"/>
     </row>
-    <row r="4078" spans="2:2">
-      <c r="B4078" s="7"/>
+    <row r="4068" spans="2:2">
+      <c r="B4068" s="7"/>
     </row>
     <row r="4079" spans="2:2">
       <c r="B4079" s="7"/>
@@ -8320,49 +7712,49 @@
     <row r="4080" spans="2:2">
       <c r="B4080" s="7"/>
     </row>
-    <row r="4083" spans="2:2">
-      <c r="B4083" s="7"/>
-    </row>
-    <row r="4084" spans="2:2">
+    <row r="4081" spans="1:3">
+      <c r="B4081" s="7"/>
+    </row>
+    <row r="4084" spans="1:3">
       <c r="B4084" s="7"/>
     </row>
-    <row r="4085" spans="2:2">
+    <row r="4085" spans="1:3">
       <c r="B4085" s="7"/>
     </row>
-    <row r="4086" spans="1:2">
-      <c r="A4086" s="20"/>
+    <row r="4086" spans="1:3">
       <c r="B4086" s="7"/>
     </row>
-    <row r="4087" spans="1:2">
+    <row r="4087" spans="1:3">
       <c r="A4087" s="20"/>
       <c r="B4087" s="7"/>
     </row>
-    <row r="4088" spans="1:2">
+    <row r="4088" spans="1:3">
       <c r="A4088" s="20"/>
       <c r="B4088" s="7"/>
     </row>
-    <row r="4089" spans="2:2">
+    <row r="4089" spans="1:3">
+      <c r="A4089" s="20"/>
       <c r="B4089" s="7"/>
     </row>
-    <row r="4090" spans="2:2">
+    <row r="4090" spans="1:3">
       <c r="B4090" s="7"/>
     </row>
-    <row r="4092" ht="15.75" spans="1:3">
-      <c r="A4092" s="37"/>
-      <c r="B4092" s="7"/>
-      <c r="C4092" s="38"/>
-    </row>
-    <row r="4137" spans="2:2">
-      <c r="B4137" s="7"/>
+    <row r="4091" spans="1:3">
+      <c r="B4091" s="7"/>
+    </row>
+    <row r="4093" spans="1:3" ht="15.75">
+      <c r="A4093" s="37"/>
+      <c r="B4093" s="7"/>
+      <c r="C4093" s="38"/>
     </row>
     <row r="4138" spans="2:2">
       <c r="B4138" s="7"/>
     </row>
-    <row r="4148" spans="2:2">
-      <c r="B4148" s="7"/>
-    </row>
-    <row r="4150" spans="2:2">
-      <c r="B4150" s="7"/>
+    <row r="4139" spans="2:2">
+      <c r="B4139" s="7"/>
+    </row>
+    <row r="4149" spans="2:2">
+      <c r="B4149" s="7"/>
     </row>
     <row r="4151" spans="2:2">
       <c r="B4151" s="7"/>
@@ -8376,8 +7768,8 @@
     <row r="4154" spans="2:2">
       <c r="B4154" s="7"/>
     </row>
-    <row r="4163" spans="2:2">
-      <c r="B4163" s="7"/>
+    <row r="4155" spans="2:2">
+      <c r="B4155" s="7"/>
     </row>
     <row r="4164" spans="2:2">
       <c r="B4164" s="7"/>
@@ -8391,8 +7783,8 @@
     <row r="4167" spans="2:2">
       <c r="B4167" s="7"/>
     </row>
-    <row r="4176" spans="2:2">
-      <c r="B4176" s="7"/>
+    <row r="4168" spans="2:2">
+      <c r="B4168" s="7"/>
     </row>
     <row r="4177" spans="2:2">
       <c r="B4177" s="7"/>
@@ -8433,8 +7825,8 @@
     <row r="4189" spans="2:2">
       <c r="B4189" s="7"/>
     </row>
-    <row r="4194" spans="2:2">
-      <c r="B4194" s="7"/>
+    <row r="4190" spans="2:2">
+      <c r="B4190" s="7"/>
     </row>
     <row r="4195" spans="2:2">
       <c r="B4195" s="7"/>
@@ -8464,7 +7856,7 @@
       <c r="B4203" s="7"/>
     </row>
     <row r="4204" spans="2:2">
-      <c r="B4204" s="28"/>
+      <c r="B4204" s="7"/>
     </row>
     <row r="4205" spans="2:2">
       <c r="B4205" s="28"/>
@@ -8622,124 +8014,124 @@
     <row r="4256" spans="2:2">
       <c r="B4256" s="28"/>
     </row>
-    <row r="4257" spans="2:2">
+    <row r="4257" spans="1:2">
       <c r="B4257" s="28"/>
     </row>
-    <row r="4258" spans="2:2">
+    <row r="4258" spans="1:2">
       <c r="B4258" s="28"/>
     </row>
-    <row r="4259" spans="2:2">
+    <row r="4259" spans="1:2">
       <c r="B4259" s="28"/>
     </row>
-    <row r="4260" spans="2:2">
+    <row r="4260" spans="1:2">
       <c r="B4260" s="28"/>
     </row>
-    <row r="4261" spans="2:2">
-      <c r="B4261" s="7"/>
-    </row>
-    <row r="4262" spans="2:2">
+    <row r="4261" spans="1:2">
+      <c r="B4261" s="28"/>
+    </row>
+    <row r="4262" spans="1:2">
       <c r="B4262" s="7"/>
     </row>
     <row r="4263" spans="1:2">
-      <c r="A4263" s="20"/>
       <c r="B4263" s="7"/>
     </row>
-    <row r="4265" spans="2:2">
-      <c r="B4265" s="7"/>
-    </row>
-    <row r="4266" spans="2:2">
+    <row r="4264" spans="1:2">
+      <c r="A4264" s="20"/>
+      <c r="B4264" s="7"/>
+    </row>
+    <row r="4266" spans="1:2">
       <c r="B4266" s="7"/>
     </row>
-    <row r="4267" spans="2:2">
+    <row r="4267" spans="1:2">
       <c r="B4267" s="7"/>
     </row>
-    <row r="4268" spans="2:2">
+    <row r="4268" spans="1:2">
       <c r="B4268" s="7"/>
     </row>
-    <row r="4269" spans="2:2">
+    <row r="4269" spans="1:2">
       <c r="B4269" s="7"/>
     </row>
-    <row r="4270" spans="2:2">
+    <row r="4270" spans="1:2">
       <c r="B4270" s="7"/>
     </row>
-    <row r="4271" spans="2:2">
+    <row r="4271" spans="1:2">
       <c r="B4271" s="7"/>
     </row>
-    <row r="4272" spans="2:2">
+    <row r="4272" spans="1:2">
       <c r="B4272" s="7"/>
     </row>
-    <row r="4275" spans="2:2">
-      <c r="B4275" s="7"/>
+    <row r="4273" spans="1:2">
+      <c r="B4273" s="7"/>
     </row>
     <row r="4276" spans="1:2">
-      <c r="A4276" s="20"/>
       <c r="B4276" s="7"/>
     </row>
-    <row r="4277" spans="2:2">
-      <c r="B4277" s="33"/>
-    </row>
-    <row r="4278" spans="2:2">
-      <c r="B4278" s="7"/>
-    </row>
-    <row r="4279" spans="2:2">
+    <row r="4277" spans="1:2">
+      <c r="A4277" s="20"/>
+      <c r="B4277" s="7"/>
+    </row>
+    <row r="4278" spans="1:2">
+      <c r="B4278" s="33"/>
+    </row>
+    <row r="4279" spans="1:2">
       <c r="B4279" s="7"/>
     </row>
-    <row r="4280" spans="2:2">
+    <row r="4280" spans="1:2">
       <c r="B4280" s="7"/>
     </row>
-    <row r="4281" spans="2:2">
+    <row r="4281" spans="1:2">
       <c r="B4281" s="7"/>
     </row>
-    <row r="4282" spans="2:2">
+    <row r="4282" spans="1:2">
       <c r="B4282" s="7"/>
     </row>
-    <row r="4283" spans="2:2">
+    <row r="4283" spans="1:2">
       <c r="B4283" s="7"/>
     </row>
-    <row r="4284" spans="2:2">
+    <row r="4284" spans="1:2">
       <c r="B4284" s="7"/>
     </row>
-    <row r="4289" spans="2:2">
-      <c r="B4289" s="7"/>
-    </row>
-    <row r="4290" spans="2:2">
+    <row r="4285" spans="1:2">
+      <c r="B4285" s="7"/>
+    </row>
+    <row r="4290" spans="1:2">
       <c r="B4290" s="7"/>
     </row>
-    <row r="4291" spans="2:2">
+    <row r="4291" spans="1:2">
       <c r="B4291" s="7"/>
     </row>
-    <row r="4293" spans="2:2">
-      <c r="B4293" s="7"/>
-    </row>
-    <row r="4294" spans="2:2">
+    <row r="4292" spans="1:2">
+      <c r="B4292" s="7"/>
+    </row>
+    <row r="4294" spans="1:2">
       <c r="B4294" s="7"/>
     </row>
-    <row r="4298" spans="2:2">
-      <c r="B4298" s="7"/>
-    </row>
-    <row r="4299" spans="1:1">
-      <c r="A4299" s="20"/>
-    </row>
-    <row r="4306" spans="2:2">
-      <c r="B4306" s="7"/>
-    </row>
-    <row r="4313" spans="2:2">
-      <c r="B4313" s="7"/>
+    <row r="4295" spans="1:2">
+      <c r="B4295" s="7"/>
+    </row>
+    <row r="4299" spans="1:2">
+      <c r="B4299" s="7"/>
+    </row>
+    <row r="4300" spans="1:2">
+      <c r="A4300" s="20"/>
+    </row>
+    <row r="4307" spans="2:2">
+      <c r="B4307" s="7"/>
     </row>
     <row r="4314" spans="2:2">
       <c r="B4314" s="7"/>
     </row>
-    <row r="4324" spans="2:2">
-      <c r="B4324" s="7"/>
-    </row>
-    <row r="4327" spans="2:2">
-      <c r="B4327" s="7"/>
+    <row r="4315" spans="2:2">
+      <c r="B4315" s="7"/>
+    </row>
+    <row r="4325" spans="2:2">
+      <c r="B4325" s="7"/>
     </row>
     <row r="4328" spans="2:2">
       <c r="B4328" s="7"/>
     </row>
-    <row r="4331" spans="2:2">
-      <c r="B4331" s="7"/>
+    <row r="4329" spans="2:2">
+      <c r="B4329" s="7"/>
     </row>
     <row r="4332" spans="2:2">
       <c r="B4332" s="7"/>
@@ -8816,8 +8208,8 @@
     <row r="4356" spans="2:2">
       <c r="B4356" s="7"/>
     </row>
-    <row r="4359" spans="2:2">
-      <c r="B4359" s="7"/>
+    <row r="4357" spans="2:2">
+      <c r="B4357" s="7"/>
     </row>
     <row r="4360" spans="2:2">
       <c r="B4360" s="7"/>
@@ -8831,19 +8223,13 @@
     <row r="4363" spans="2:2">
       <c r="B4363" s="7"/>
     </row>
-    <row r="4365" spans="2:2">
-      <c r="B4365" s="7"/>
-    </row>
-    <row r="4373" ht="18" customHeight="1" spans="1:7">
-      <c r="A4373" s="39"/>
-      <c r="B4373" s="40"/>
-      <c r="C4373" s="41"/>
-      <c r="D4373" s="41"/>
-      <c r="E4373" s="41"/>
-      <c r="F4373" s="41"/>
-      <c r="G4373" s="41"/>
-    </row>
-    <row r="4374" spans="1:7">
+    <row r="4364" spans="2:2">
+      <c r="B4364" s="7"/>
+    </row>
+    <row r="4366" spans="2:2">
+      <c r="B4366" s="7"/>
+    </row>
+    <row r="4374" spans="1:7" ht="18" customHeight="1">
       <c r="A4374" s="39"/>
       <c r="B4374" s="40"/>
       <c r="C4374" s="41"/>
@@ -8852,15 +8238,16 @@
       <c r="F4374" s="41"/>
       <c r="G4374" s="41"/>
     </row>
-    <row r="4375" spans="2:7">
-      <c r="B4375" s="7"/>
+    <row r="4375" spans="1:7">
+      <c r="A4375" s="39"/>
+      <c r="B4375" s="40"/>
       <c r="C4375" s="41"/>
       <c r="D4375" s="41"/>
       <c r="E4375" s="41"/>
       <c r="F4375" s="41"/>
       <c r="G4375" s="41"/>
     </row>
-    <row r="4376" spans="2:7">
+    <row r="4376" spans="1:7">
       <c r="B4376" s="7"/>
       <c r="C4376" s="41"/>
       <c r="D4376" s="41"/>
@@ -8868,7 +8255,7 @@
       <c r="F4376" s="41"/>
       <c r="G4376" s="41"/>
     </row>
-    <row r="4377" spans="2:7">
+    <row r="4377" spans="1:7">
       <c r="B4377" s="7"/>
       <c r="C4377" s="41"/>
       <c r="D4377" s="41"/>
@@ -8876,7 +8263,7 @@
       <c r="F4377" s="41"/>
       <c r="G4377" s="41"/>
     </row>
-    <row r="4378" spans="2:7">
+    <row r="4378" spans="1:7">
       <c r="B4378" s="7"/>
       <c r="C4378" s="41"/>
       <c r="D4378" s="41"/>
@@ -8884,7 +8271,7 @@
       <c r="F4378" s="41"/>
       <c r="G4378" s="41"/>
     </row>
-    <row r="4379" spans="2:7">
+    <row r="4379" spans="1:7">
       <c r="B4379" s="7"/>
       <c r="C4379" s="41"/>
       <c r="D4379" s="41"/>
@@ -8892,12 +8279,13 @@
       <c r="F4379" s="41"/>
       <c r="G4379" s="41"/>
     </row>
-    <row r="4410" spans="2:7">
-      <c r="B4410" s="7"/>
-      <c r="D4410" s="41"/>
-      <c r="E4410" s="41"/>
-      <c r="F4410" s="41"/>
-      <c r="G4410" s="41"/>
+    <row r="4380" spans="1:7">
+      <c r="B4380" s="7"/>
+      <c r="C4380" s="41"/>
+      <c r="D4380" s="41"/>
+      <c r="E4380" s="41"/>
+      <c r="F4380" s="41"/>
+      <c r="G4380" s="41"/>
     </row>
     <row r="4411" spans="2:7">
       <c r="B4411" s="7"/>
@@ -8913,72 +8301,72 @@
       <c r="F4412" s="41"/>
       <c r="G4412" s="41"/>
     </row>
-    <row r="4413" spans="2:2">
+    <row r="4413" spans="2:7">
       <c r="B4413" s="7"/>
-    </row>
-    <row r="4414" spans="2:2">
+      <c r="D4413" s="41"/>
+      <c r="E4413" s="41"/>
+      <c r="F4413" s="41"/>
+      <c r="G4413" s="41"/>
+    </row>
+    <row r="4414" spans="2:7">
       <c r="B4414" s="7"/>
     </row>
-    <row r="4416" spans="2:2">
-      <c r="B4416" s="7"/>
-    </row>
-    <row r="4417" ht="15.75" customHeight="1" spans="2:7">
+    <row r="4415" spans="2:7">
+      <c r="B4415" s="7"/>
+    </row>
+    <row r="4417" spans="1:7">
       <c r="B4417" s="7"/>
-      <c r="D4417" s="41"/>
-      <c r="E4417" s="41"/>
-      <c r="F4417" s="41"/>
-      <c r="G4417" s="41"/>
-    </row>
-    <row r="4418" spans="2:7">
+    </row>
+    <row r="4418" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4418" s="7"/>
       <c r="D4418" s="41"/>
       <c r="E4418" s="41"/>
       <c r="F4418" s="41"/>
       <c r="G4418" s="41"/>
     </row>
-    <row r="4419" spans="2:7">
+    <row r="4419" spans="1:7">
       <c r="B4419" s="7"/>
       <c r="D4419" s="41"/>
       <c r="E4419" s="41"/>
       <c r="F4419" s="41"/>
       <c r="G4419" s="41"/>
     </row>
-    <row r="4420" spans="2:7">
+    <row r="4420" spans="1:7">
       <c r="B4420" s="7"/>
       <c r="D4420" s="41"/>
       <c r="E4420" s="41"/>
       <c r="F4420" s="41"/>
       <c r="G4420" s="41"/>
     </row>
-    <row r="4421" spans="2:7">
+    <row r="4421" spans="1:7">
       <c r="B4421" s="7"/>
       <c r="D4421" s="41"/>
       <c r="E4421" s="41"/>
       <c r="F4421" s="41"/>
       <c r="G4421" s="41"/>
     </row>
-    <row r="4422" spans="2:7">
+    <row r="4422" spans="1:7">
       <c r="B4422" s="7"/>
       <c r="D4422" s="41"/>
       <c r="E4422" s="41"/>
       <c r="F4422" s="41"/>
       <c r="G4422" s="41"/>
     </row>
-    <row r="4423" spans="2:7">
+    <row r="4423" spans="1:7">
       <c r="B4423" s="7"/>
       <c r="D4423" s="41"/>
       <c r="E4423" s="41"/>
       <c r="F4423" s="41"/>
       <c r="G4423" s="41"/>
     </row>
-    <row r="4424" spans="2:7">
+    <row r="4424" spans="1:7">
       <c r="B4424" s="7"/>
       <c r="D4424" s="41"/>
       <c r="E4424" s="41"/>
       <c r="F4424" s="41"/>
       <c r="G4424" s="41"/>
     </row>
-    <row r="4425" spans="2:7">
+    <row r="4425" spans="1:7">
       <c r="B4425" s="7"/>
       <c r="D4425" s="41"/>
       <c r="E4425" s="41"/>
@@ -8986,7 +8374,6 @@
       <c r="G4425" s="41"/>
     </row>
     <row r="4426" spans="1:7">
-      <c r="A4426" s="20"/>
       <c r="B4426" s="7"/>
       <c r="D4426" s="41"/>
       <c r="E4426" s="41"/>
@@ -9009,15 +8396,16 @@
       <c r="F4428" s="41"/>
       <c r="G4428" s="41"/>
     </row>
-    <row r="4462" spans="2:2">
-      <c r="B4462" s="7"/>
+    <row r="4429" spans="1:7">
+      <c r="A4429" s="20"/>
+      <c r="B4429" s="7"/>
+      <c r="D4429" s="41"/>
+      <c r="E4429" s="41"/>
+      <c r="F4429" s="41"/>
+      <c r="G4429" s="41"/>
     </row>
     <row r="4463" spans="2:7">
       <c r="B4463" s="7"/>
-      <c r="D4463" s="41"/>
-      <c r="E4463" s="41"/>
-      <c r="F4463" s="41"/>
-      <c r="G4463" s="41"/>
     </row>
     <row r="4464" spans="2:7">
       <c r="B4464" s="7"/>
@@ -9026,126 +8414,126 @@
       <c r="F4464" s="41"/>
       <c r="G4464" s="41"/>
     </row>
-    <row r="4465" spans="2:7">
+    <row r="4465" spans="1:7">
       <c r="B4465" s="7"/>
       <c r="D4465" s="41"/>
       <c r="E4465" s="41"/>
       <c r="F4465" s="41"/>
       <c r="G4465" s="41"/>
     </row>
-    <row r="4466" spans="2:2">
+    <row r="4466" spans="1:7">
       <c r="B4466" s="7"/>
-    </row>
-    <row r="4467" spans="2:2">
+      <c r="D4466" s="41"/>
+      <c r="E4466" s="41"/>
+      <c r="F4466" s="41"/>
+      <c r="G4466" s="41"/>
+    </row>
+    <row r="4467" spans="1:7">
       <c r="B4467" s="7"/>
     </row>
-    <row r="4468" spans="2:2">
+    <row r="4468" spans="1:7">
       <c r="B4468" s="7"/>
     </row>
-    <row r="4469" spans="2:7">
+    <row r="4469" spans="1:7">
       <c r="B4469" s="7"/>
-      <c r="D4469" s="41"/>
-      <c r="E4469" s="41"/>
-      <c r="F4469" s="41"/>
-      <c r="G4469" s="41"/>
-    </row>
-    <row r="4471" ht="15.75" spans="1:2">
-      <c r="A4471" s="37"/>
-      <c r="B4471" s="7"/>
-    </row>
-    <row r="4475" spans="2:2">
-      <c r="B4475" s="7"/>
-    </row>
-    <row r="4476" spans="2:2">
+    </row>
+    <row r="4470" spans="1:7">
+      <c r="B4470" s="7"/>
+      <c r="D4470" s="41"/>
+      <c r="E4470" s="41"/>
+      <c r="F4470" s="41"/>
+      <c r="G4470" s="41"/>
+    </row>
+    <row r="4472" spans="1:7" ht="15.75">
+      <c r="A4472" s="37"/>
+      <c r="B4472" s="7"/>
+    </row>
+    <row r="4476" spans="1:7">
       <c r="B4476" s="7"/>
     </row>
-    <row r="4477" spans="2:2">
+    <row r="4477" spans="1:7">
       <c r="B4477" s="7"/>
     </row>
-    <row r="4482" spans="2:2">
-      <c r="B4482" s="7"/>
-    </row>
-    <row r="4483" spans="2:2">
+    <row r="4478" spans="1:7">
+      <c r="B4478" s="7"/>
+    </row>
+    <row r="4483" spans="1:7">
       <c r="B4483" s="7"/>
     </row>
-    <row r="4484" spans="2:2">
+    <row r="4484" spans="1:7">
       <c r="B4484" s="7"/>
     </row>
-    <row r="4485" ht="15.75" spans="1:2">
-      <c r="A4485" s="37"/>
+    <row r="4485" spans="1:7">
       <c r="B4485" s="7"/>
     </row>
-    <row r="4486" spans="2:7">
+    <row r="4486" spans="1:7" ht="15.75">
+      <c r="A4486" s="37"/>
       <c r="B4486" s="7"/>
-      <c r="D4486" s="41"/>
-      <c r="E4486" s="41"/>
-      <c r="F4486" s="41"/>
-      <c r="G4486" s="41"/>
-    </row>
-    <row r="4487" spans="2:7">
+    </row>
+    <row r="4487" spans="1:7">
       <c r="B4487" s="7"/>
       <c r="D4487" s="41"/>
       <c r="E4487" s="41"/>
       <c r="F4487" s="41"/>
       <c r="G4487" s="41"/>
     </row>
-    <row r="4488" spans="2:7">
+    <row r="4488" spans="1:7">
       <c r="B4488" s="7"/>
       <c r="D4488" s="41"/>
       <c r="E4488" s="41"/>
       <c r="F4488" s="41"/>
       <c r="G4488" s="41"/>
     </row>
-    <row r="4489" spans="2:7">
+    <row r="4489" spans="1:7">
       <c r="B4489" s="7"/>
       <c r="D4489" s="41"/>
       <c r="E4489" s="41"/>
       <c r="F4489" s="41"/>
       <c r="G4489" s="41"/>
     </row>
-    <row r="4490" spans="2:7">
+    <row r="4490" spans="1:7">
       <c r="B4490" s="7"/>
       <c r="D4490" s="41"/>
       <c r="E4490" s="41"/>
       <c r="F4490" s="41"/>
       <c r="G4490" s="41"/>
     </row>
-    <row r="4491" spans="2:7">
+    <row r="4491" spans="1:7">
       <c r="B4491" s="7"/>
       <c r="D4491" s="41"/>
       <c r="E4491" s="41"/>
       <c r="F4491" s="41"/>
       <c r="G4491" s="41"/>
     </row>
-    <row r="4492" spans="2:7">
+    <row r="4492" spans="1:7">
       <c r="B4492" s="7"/>
       <c r="D4492" s="41"/>
       <c r="E4492" s="41"/>
       <c r="F4492" s="41"/>
       <c r="G4492" s="41"/>
     </row>
-    <row r="4493" spans="2:7">
+    <row r="4493" spans="1:7">
       <c r="B4493" s="7"/>
       <c r="D4493" s="41"/>
       <c r="E4493" s="41"/>
       <c r="F4493" s="41"/>
       <c r="G4493" s="41"/>
     </row>
-    <row r="4494" spans="2:7">
+    <row r="4494" spans="1:7">
       <c r="B4494" s="7"/>
       <c r="D4494" s="41"/>
       <c r="E4494" s="41"/>
       <c r="F4494" s="41"/>
       <c r="G4494" s="41"/>
     </row>
-    <row r="4495" spans="2:7">
+    <row r="4495" spans="1:7">
       <c r="B4495" s="7"/>
       <c r="D4495" s="41"/>
       <c r="E4495" s="41"/>
       <c r="F4495" s="41"/>
       <c r="G4495" s="41"/>
     </row>
-    <row r="4496" spans="2:7">
+    <row r="4496" spans="1:7">
       <c r="B4496" s="7"/>
       <c r="D4496" s="41"/>
       <c r="E4496" s="41"/>
@@ -9153,7 +8541,6 @@
       <c r="G4496" s="41"/>
     </row>
     <row r="4497" spans="1:7">
-      <c r="A4497" s="20"/>
       <c r="B4497" s="7"/>
       <c r="D4497" s="41"/>
       <c r="E4497" s="41"/>
@@ -9184,56 +8571,57 @@
       <c r="F4500" s="41"/>
       <c r="G4500" s="41"/>
     </row>
-    <row r="4501" spans="2:7">
+    <row r="4501" spans="1:7">
+      <c r="A4501" s="20"/>
       <c r="B4501" s="7"/>
       <c r="D4501" s="41"/>
       <c r="E4501" s="41"/>
       <c r="F4501" s="41"/>
       <c r="G4501" s="41"/>
     </row>
-    <row r="4502" spans="2:7">
+    <row r="4502" spans="1:7">
       <c r="B4502" s="7"/>
       <c r="D4502" s="41"/>
       <c r="E4502" s="41"/>
       <c r="F4502" s="41"/>
       <c r="G4502" s="41"/>
     </row>
-    <row r="4503" spans="2:7">
+    <row r="4503" spans="1:7">
       <c r="B4503" s="7"/>
       <c r="D4503" s="41"/>
       <c r="E4503" s="41"/>
       <c r="F4503" s="41"/>
       <c r="G4503" s="41"/>
     </row>
-    <row r="4504" spans="2:7">
+    <row r="4504" spans="1:7">
       <c r="B4504" s="7"/>
       <c r="D4504" s="41"/>
       <c r="E4504" s="41"/>
       <c r="F4504" s="41"/>
       <c r="G4504" s="41"/>
     </row>
-    <row r="4505" spans="1:2">
-      <c r="A4505" s="20"/>
+    <row r="4505" spans="1:7">
       <c r="B4505" s="7"/>
-    </row>
-    <row r="4506" spans="2:7">
+      <c r="D4505" s="41"/>
+      <c r="E4505" s="41"/>
+      <c r="F4505" s="41"/>
+      <c r="G4505" s="41"/>
+    </row>
+    <row r="4506" spans="1:7">
+      <c r="A4506" s="20"/>
       <c r="B4506" s="7"/>
-      <c r="D4506" s="41"/>
-      <c r="E4506" s="41"/>
-      <c r="F4506" s="41"/>
-      <c r="G4506" s="41"/>
-    </row>
-    <row r="4507" spans="2:2">
+    </row>
+    <row r="4507" spans="1:7">
       <c r="B4507" s="7"/>
-    </row>
-    <row r="4508" spans="2:7">
+      <c r="D4507" s="41"/>
+      <c r="E4507" s="41"/>
+      <c r="F4507" s="41"/>
+      <c r="G4507" s="41"/>
+    </row>
+    <row r="4508" spans="1:7">
       <c r="B4508" s="7"/>
-      <c r="D4508" s="41"/>
-      <c r="E4508" s="41"/>
-      <c r="F4508" s="41"/>
-      <c r="G4508" s="41"/>
-    </row>
-    <row r="4509" spans="2:7">
+    </row>
+    <row r="4509" spans="1:7">
       <c r="B4509" s="7"/>
       <c r="D4509" s="41"/>
       <c r="E4509" s="41"/>
@@ -9241,7 +8629,6 @@
       <c r="G4509" s="41"/>
     </row>
     <row r="4510" spans="1:7">
-      <c r="A4510" s="20"/>
       <c r="B4510" s="7"/>
       <c r="D4510" s="41"/>
       <c r="E4510" s="41"/>
@@ -9250,47 +8637,47 @@
     </row>
     <row r="4511" spans="1:7">
       <c r="A4511" s="20"/>
-      <c r="B4511" s="21"/>
+      <c r="B4511" s="7"/>
       <c r="D4511" s="41"/>
       <c r="E4511" s="41"/>
       <c r="F4511" s="41"/>
       <c r="G4511" s="41"/>
     </row>
-    <row r="4512" spans="2:7">
-      <c r="B4512" s="7"/>
+    <row r="4512" spans="1:7">
+      <c r="A4512" s="20"/>
+      <c r="B4512" s="21"/>
       <c r="D4512" s="41"/>
       <c r="E4512" s="41"/>
       <c r="F4512" s="41"/>
       <c r="G4512" s="41"/>
     </row>
-    <row r="4513" spans="2:7">
+    <row r="4513" spans="1:7">
       <c r="B4513" s="7"/>
       <c r="D4513" s="41"/>
       <c r="E4513" s="41"/>
       <c r="F4513" s="41"/>
       <c r="G4513" s="41"/>
     </row>
-    <row r="4514" spans="2:7">
+    <row r="4514" spans="1:7">
       <c r="B4514" s="7"/>
       <c r="D4514" s="41"/>
       <c r="E4514" s="41"/>
       <c r="F4514" s="41"/>
       <c r="G4514" s="41"/>
     </row>
-    <row r="4515" spans="2:7">
+    <row r="4515" spans="1:7">
       <c r="B4515" s="7"/>
       <c r="D4515" s="41"/>
       <c r="E4515" s="41"/>
       <c r="F4515" s="41"/>
       <c r="G4515" s="41"/>
     </row>
-    <row r="4517" spans="1:7">
-      <c r="A4517" s="20"/>
-      <c r="B4517" s="7"/>
-      <c r="D4517" s="41"/>
-      <c r="E4517" s="41"/>
-      <c r="F4517" s="41"/>
-      <c r="G4517" s="41"/>
+    <row r="4516" spans="1:7">
+      <c r="B4516" s="7"/>
+      <c r="D4516" s="41"/>
+      <c r="E4516" s="41"/>
+      <c r="F4516" s="41"/>
+      <c r="G4516" s="41"/>
     </row>
     <row r="4518" spans="1:7">
       <c r="A4518" s="20"/>
@@ -9308,16 +8695,16 @@
       <c r="F4519" s="41"/>
       <c r="G4519" s="41"/>
     </row>
-    <row r="4523" ht="20.25" customHeight="1" spans="2:2">
-      <c r="B4523" s="7"/>
-    </row>
-    <row r="4524" spans="1:7">
-      <c r="A4524" s="20"/>
+    <row r="4520" spans="1:7">
+      <c r="A4520" s="20"/>
+      <c r="B4520" s="7"/>
+      <c r="D4520" s="41"/>
+      <c r="E4520" s="41"/>
+      <c r="F4520" s="41"/>
+      <c r="G4520" s="41"/>
+    </row>
+    <row r="4524" spans="1:7" ht="20.25" customHeight="1">
       <c r="B4524" s="7"/>
-      <c r="D4524" s="41"/>
-      <c r="E4524" s="41"/>
-      <c r="F4524" s="41"/>
-      <c r="G4524" s="41"/>
     </row>
     <row r="4525" spans="1:7">
       <c r="A4525" s="20"/>
@@ -9327,38 +8714,43 @@
       <c r="F4525" s="41"/>
       <c r="G4525" s="41"/>
     </row>
-    <row r="4526" spans="2:2">
+    <row r="4526" spans="1:7">
+      <c r="A4526" s="20"/>
       <c r="B4526" s="7"/>
-    </row>
-    <row r="4535" spans="2:2">
-      <c r="B4535" s="28"/>
+      <c r="D4526" s="41"/>
+      <c r="E4526" s="41"/>
+      <c r="F4526" s="41"/>
+      <c r="G4526" s="41"/>
+    </row>
+    <row r="4527" spans="1:7">
+      <c r="B4527" s="7"/>
     </row>
     <row r="4536" spans="2:3">
       <c r="B4536" s="28"/>
-      <c r="C4536" s="7"/>
-    </row>
-    <row r="4537" spans="3:3">
+    </row>
+    <row r="4537" spans="2:3">
+      <c r="B4537" s="28"/>
       <c r="C4537" s="7"/>
     </row>
-    <row r="4538" spans="3:3">
+    <row r="4538" spans="2:3">
       <c r="C4538" s="7"/>
     </row>
-    <row r="4539" spans="2:2">
-      <c r="B4539" s="7"/>
-    </row>
-    <row r="4540" spans="2:2">
+    <row r="4539" spans="2:3">
+      <c r="C4539" s="7"/>
+    </row>
+    <row r="4540" spans="2:3">
       <c r="B4540" s="7"/>
     </row>
-    <row r="4541" spans="2:2">
+    <row r="4541" spans="2:3">
       <c r="B4541" s="7"/>
     </row>
-    <row r="4542" spans="2:2">
+    <row r="4542" spans="2:3">
       <c r="B4542" s="7"/>
     </row>
-    <row r="4543" spans="2:2">
+    <row r="4543" spans="2:3">
       <c r="B4543" s="7"/>
     </row>
-    <row r="4544" spans="2:2">
+    <row r="4544" spans="2:3">
       <c r="B4544" s="7"/>
     </row>
     <row r="4545" spans="2:2">
@@ -9370,23 +8762,23 @@
     <row r="4547" spans="2:2">
       <c r="B4547" s="7"/>
     </row>
-    <row r="4613" spans="2:2">
-      <c r="B4613" s="7"/>
+    <row r="4548" spans="2:2">
+      <c r="B4548" s="7"/>
     </row>
     <row r="4614" spans="2:2">
       <c r="B4614" s="7"/>
     </row>
-    <row r="4616" spans="2:2">
-      <c r="B4616" s="7"/>
+    <row r="4615" spans="2:2">
+      <c r="B4615" s="7"/>
     </row>
     <row r="4617" spans="2:2">
       <c r="B4617" s="7"/>
     </row>
-    <row r="4619" spans="2:2">
-      <c r="B4619" s="7"/>
-    </row>
-    <row r="4645" spans="2:2">
-      <c r="B4645" s="7"/>
+    <row r="4618" spans="2:2">
+      <c r="B4618" s="7"/>
+    </row>
+    <row r="4620" spans="2:2">
+      <c r="B4620" s="7"/>
     </row>
     <row r="4646" spans="2:2">
       <c r="B4646" s="7"/>
@@ -9406,11 +8798,11 @@
     <row r="4651" spans="2:2">
       <c r="B4651" s="7"/>
     </row>
-    <row r="4656" spans="2:2">
-      <c r="B4656" s="7"/>
-    </row>
-    <row r="4659" spans="2:2">
-      <c r="B4659" s="7"/>
+    <row r="4652" spans="2:2">
+      <c r="B4652" s="7"/>
+    </row>
+    <row r="4657" spans="2:2">
+      <c r="B4657" s="7"/>
     </row>
     <row r="4660" spans="2:2">
       <c r="B4660" s="7"/>
@@ -9418,39 +8810,39 @@
     <row r="4661" spans="2:2">
       <c r="B4661" s="7"/>
     </row>
-    <row r="4664" spans="2:2">
-      <c r="B4664" s="7"/>
-    </row>
-    <row r="4673" spans="2:2">
-      <c r="B4673" s="7"/>
-    </row>
-    <row r="4675" spans="2:2">
-      <c r="B4675" s="7"/>
-    </row>
-    <row r="4683" spans="1:2">
-      <c r="A4683" s="20"/>
-      <c r="B4683" s="7"/>
+    <row r="4662" spans="2:2">
+      <c r="B4662" s="7"/>
+    </row>
+    <row r="4665" spans="2:2">
+      <c r="B4665" s="7"/>
+    </row>
+    <row r="4674" spans="1:2">
+      <c r="B4674" s="7"/>
+    </row>
+    <row r="4676" spans="1:2">
+      <c r="B4676" s="7"/>
     </row>
     <row r="4684" spans="1:2">
       <c r="A4684" s="20"/>
       <c r="B4684" s="7"/>
     </row>
-    <row r="4685" spans="2:2">
+    <row r="4685" spans="1:2">
+      <c r="A4685" s="20"/>
       <c r="B4685" s="7"/>
     </row>
     <row r="4686" spans="1:2">
-      <c r="A4686" s="20"/>
       <c r="B4686" s="7"/>
     </row>
     <row r="4687" spans="1:2">
       <c r="A4687" s="20"/>
       <c r="B4687" s="7"/>
     </row>
-    <row r="4688" spans="2:2">
+    <row r="4688" spans="1:2">
+      <c r="A4688" s="20"/>
       <c r="B4688" s="7"/>
     </row>
-    <row r="4705" spans="2:2">
-      <c r="B4705" s="7"/>
+    <row r="4689" spans="2:2">
+      <c r="B4689" s="7"/>
     </row>
     <row r="4706" spans="2:2">
       <c r="B4706" s="7"/>
@@ -9461,8 +8853,8 @@
     <row r="4708" spans="2:2">
       <c r="B4708" s="7"/>
     </row>
-    <row r="4713" spans="2:2">
-      <c r="B4713" s="7"/>
+    <row r="4709" spans="2:2">
+      <c r="B4709" s="7"/>
     </row>
     <row r="4714" spans="2:2">
       <c r="B4714" s="7"/>
@@ -9485,46 +8877,46 @@
     <row r="4720" spans="2:2">
       <c r="B4720" s="7"/>
     </row>
-    <row r="4730" spans="2:2">
-      <c r="B4730" s="7"/>
-    </row>
-    <row r="4731" spans="2:2">
+    <row r="4721" spans="1:2">
+      <c r="B4721" s="7"/>
+    </row>
+    <row r="4731" spans="1:2">
       <c r="B4731" s="7"/>
     </row>
-    <row r="4732" spans="2:2">
+    <row r="4732" spans="1:2">
       <c r="B4732" s="7"/>
     </row>
-    <row r="4735" spans="1:2">
-      <c r="A4735" s="20"/>
-      <c r="B4735" s="7"/>
+    <row r="4733" spans="1:2">
+      <c r="B4733" s="7"/>
     </row>
     <row r="4736" spans="1:2">
       <c r="A4736" s="20"/>
       <c r="B4736" s="7"/>
     </row>
-    <row r="4749" spans="2:7">
-      <c r="B4749" s="7"/>
-      <c r="D4749" s="41"/>
-      <c r="E4749" s="41"/>
-      <c r="F4749" s="41"/>
-      <c r="G4749" s="41"/>
-    </row>
-    <row r="4750" spans="2:7">
+    <row r="4737" spans="1:7">
+      <c r="A4737" s="20"/>
+      <c r="B4737" s="7"/>
+    </row>
+    <row r="4750" spans="1:7">
       <c r="B4750" s="7"/>
       <c r="D4750" s="41"/>
       <c r="E4750" s="41"/>
       <c r="F4750" s="41"/>
       <c r="G4750" s="41"/>
     </row>
-    <row r="4751" spans="2:7">
+    <row r="4751" spans="1:7">
       <c r="B4751" s="7"/>
       <c r="D4751" s="41"/>
       <c r="E4751" s="41"/>
       <c r="F4751" s="41"/>
       <c r="G4751" s="41"/>
     </row>
-    <row r="4752" spans="2:2">
+    <row r="4752" spans="1:7">
       <c r="B4752" s="7"/>
+      <c r="D4752" s="41"/>
+      <c r="E4752" s="41"/>
+      <c r="F4752" s="41"/>
+      <c r="G4752" s="41"/>
     </row>
     <row r="4753" spans="2:2">
       <c r="B4753" s="7"/>
@@ -9532,8 +8924,8 @@
     <row r="4754" spans="2:2">
       <c r="B4754" s="7"/>
     </row>
-    <row r="4815" spans="2:2">
-      <c r="B4815" s="7"/>
+    <row r="4755" spans="2:2">
+      <c r="B4755" s="7"/>
     </row>
     <row r="4816" spans="2:2">
       <c r="B4816" s="7"/>
@@ -9541,8 +8933,8 @@
     <row r="4817" spans="2:2">
       <c r="B4817" s="7"/>
     </row>
-    <row r="4826" spans="2:2">
-      <c r="B4826" s="7"/>
+    <row r="4818" spans="2:2">
+      <c r="B4818" s="7"/>
     </row>
     <row r="4827" spans="2:2">
       <c r="B4827" s="7"/>
@@ -9553,13 +8945,8 @@
     <row r="4829" spans="2:2">
       <c r="B4829" s="7"/>
     </row>
-    <row r="4870" spans="2:7">
-      <c r="B4870" s="28"/>
-      <c r="C4870" s="28"/>
-      <c r="D4870" s="28"/>
-      <c r="E4870" s="28"/>
-      <c r="F4870" s="28"/>
-      <c r="G4870" s="28"/>
+    <row r="4830" spans="2:2">
+      <c r="B4830" s="7"/>
     </row>
     <row r="4871" spans="2:7">
       <c r="B4871" s="28"/>
@@ -9569,8 +8956,13 @@
       <c r="F4871" s="28"/>
       <c r="G4871" s="28"/>
     </row>
-    <row r="4892" spans="2:2">
-      <c r="B4892" s="7"/>
+    <row r="4872" spans="2:7">
+      <c r="B4872" s="28"/>
+      <c r="C4872" s="28"/>
+      <c r="D4872" s="28"/>
+      <c r="E4872" s="28"/>
+      <c r="F4872" s="28"/>
+      <c r="G4872" s="28"/>
     </row>
     <row r="4893" spans="2:2">
       <c r="B4893" s="7"/>
@@ -9584,17 +8976,17 @@
     <row r="4896" spans="2:2">
       <c r="B4896" s="7"/>
     </row>
-    <row r="4899" spans="2:2">
-      <c r="B4899" s="7"/>
+    <row r="4897" spans="2:2">
+      <c r="B4897" s="7"/>
     </row>
     <row r="4900" spans="2:2">
       <c r="B4900" s="7"/>
     </row>
-    <row r="4903" spans="2:2">
-      <c r="B4903" s="42"/>
-    </row>
-    <row r="4918" spans="2:2">
-      <c r="B4918" s="7"/>
+    <row r="4901" spans="2:2">
+      <c r="B4901" s="7"/>
+    </row>
+    <row r="4904" spans="2:2">
+      <c r="B4904" s="42"/>
     </row>
     <row r="4919" spans="2:2">
       <c r="B4919" s="7"/>
@@ -9629,8 +9021,8 @@
     <row r="4929" spans="2:2">
       <c r="B4929" s="7"/>
     </row>
-    <row r="4932" spans="2:2">
-      <c r="B4932" s="7"/>
+    <row r="4930" spans="2:2">
+      <c r="B4930" s="7"/>
     </row>
     <row r="4933" spans="2:2">
       <c r="B4933" s="7"/>
@@ -9641,11 +9033,11 @@
     <row r="4935" spans="2:2">
       <c r="B4935" s="7"/>
     </row>
-    <row r="4937" spans="2:2">
-      <c r="B4937" s="7"/>
-    </row>
-    <row r="4941" spans="2:2">
-      <c r="B4941" s="7"/>
+    <row r="4936" spans="2:2">
+      <c r="B4936" s="7"/>
+    </row>
+    <row r="4938" spans="2:2">
+      <c r="B4938" s="7"/>
     </row>
     <row r="4942" spans="2:2">
       <c r="B4942" s="7"/>
@@ -9653,8 +9045,8 @@
     <row r="4943" spans="2:2">
       <c r="B4943" s="7"/>
     </row>
-    <row r="4954" spans="2:2">
-      <c r="B4954" s="7"/>
+    <row r="4944" spans="2:2">
+      <c r="B4944" s="7"/>
     </row>
     <row r="4955" spans="2:2">
       <c r="B4955" s="7"/>
@@ -9674,54 +9066,54 @@
     <row r="4960" spans="2:2">
       <c r="B4960" s="7"/>
     </row>
-    <row r="4961" spans="2:2">
+    <row r="4961" spans="2:3">
       <c r="B4961" s="7"/>
     </row>
     <row r="4962" spans="2:3">
       <c r="B4962" s="7"/>
-      <c r="C4962" s="7"/>
-    </row>
-    <row r="4966" spans="2:2">
-      <c r="B4966" s="34"/>
-    </row>
-    <row r="4967" spans="2:2">
-      <c r="B4967" s="7"/>
-    </row>
-    <row r="4968" spans="2:2">
+    </row>
+    <row r="4963" spans="2:3">
+      <c r="B4963" s="7"/>
+      <c r="C4963" s="7"/>
+    </row>
+    <row r="4967" spans="2:3">
+      <c r="B4967" s="34"/>
+    </row>
+    <row r="4968" spans="2:3">
       <c r="B4968" s="7"/>
     </row>
-    <row r="4969" spans="2:2">
+    <row r="4969" spans="2:3">
       <c r="B4969" s="7"/>
     </row>
-    <row r="4970" spans="2:2">
+    <row r="4970" spans="2:3">
       <c r="B4970" s="7"/>
     </row>
-    <row r="4971" spans="2:2">
+    <row r="4971" spans="2:3">
       <c r="B4971" s="7"/>
     </row>
-    <row r="4972" spans="2:2">
+    <row r="4972" spans="2:3">
       <c r="B4972" s="7"/>
     </row>
-    <row r="4973" spans="2:2">
+    <row r="4973" spans="2:3">
       <c r="B4973" s="7"/>
     </row>
-    <row r="4974" spans="2:2">
+    <row r="4974" spans="2:3">
       <c r="B4974" s="7"/>
     </row>
-    <row r="4975" spans="2:2">
+    <row r="4975" spans="2:3">
       <c r="B4975" s="7"/>
     </row>
-    <row r="4976" spans="2:2">
+    <row r="4976" spans="2:3">
       <c r="B4976" s="7"/>
     </row>
     <row r="4977" spans="2:2">
       <c r="B4977" s="7"/>
     </row>
     <row r="4978" spans="2:2">
-      <c r="B4978" s="34"/>
+      <c r="B4978" s="7"/>
     </row>
     <row r="4979" spans="2:2">
-      <c r="B4979" s="7"/>
+      <c r="B4979" s="34"/>
     </row>
     <row r="4980" spans="2:2">
       <c r="B4980" s="7"/>
@@ -9759,17 +9151,17 @@
     <row r="4991" spans="2:2">
       <c r="B4991" s="7"/>
     </row>
-    <row r="4993" spans="2:2">
-      <c r="B4993" s="7"/>
+    <row r="4992" spans="2:2">
+      <c r="B4992" s="7"/>
     </row>
     <row r="4994" spans="2:2">
       <c r="B4994" s="7"/>
     </row>
     <row r="4995" spans="2:2">
-      <c r="B4995" s="34"/>
+      <c r="B4995" s="7"/>
     </row>
     <row r="4996" spans="2:2">
-      <c r="B4996" s="7"/>
+      <c r="B4996" s="34"/>
     </row>
     <row r="4997" spans="2:2">
       <c r="B4997" s="7"/>
@@ -9804,13 +9196,12 @@
     <row r="5007" spans="2:2">
       <c r="B5007" s="7"/>
     </row>
-    <row r="5008" spans="2:3">
+    <row r="5008" spans="2:2">
       <c r="B5008" s="7"/>
-      <c r="C5008" s="43"/>
     </row>
     <row r="5009" spans="2:3">
       <c r="B5009" s="7"/>
-      <c r="C5009" s="7"/>
+      <c r="C5009" s="43"/>
     </row>
     <row r="5010" spans="2:3">
       <c r="B5010" s="7"/>
@@ -9820,42 +9211,43 @@
       <c r="B5011" s="7"/>
       <c r="C5011" s="7"/>
     </row>
-    <row r="5013" spans="2:3">
-      <c r="B5013" s="7"/>
-      <c r="C5013" s="7"/>
-    </row>
-    <row r="5014" spans="2:2">
-      <c r="B5014" s="21"/>
+    <row r="5012" spans="2:3">
+      <c r="B5012" s="7"/>
+      <c r="C5012" s="7"/>
+    </row>
+    <row r="5014" spans="2:3">
+      <c r="B5014" s="7"/>
+      <c r="C5014" s="7"/>
     </row>
     <row r="5015" spans="2:3">
       <c r="B5015" s="21"/>
-      <c r="C5015" s="21"/>
-    </row>
-    <row r="5016" spans="2:2">
-      <c r="B5016" s="7"/>
-    </row>
-    <row r="5017" spans="2:2">
+    </row>
+    <row r="5016" spans="2:3">
+      <c r="B5016" s="21"/>
+      <c r="C5016" s="21"/>
+    </row>
+    <row r="5017" spans="2:3">
       <c r="B5017" s="7"/>
     </row>
-    <row r="5018" spans="2:2">
+    <row r="5018" spans="2:3">
       <c r="B5018" s="7"/>
     </row>
-    <row r="5019" spans="2:2">
+    <row r="5019" spans="2:3">
       <c r="B5019" s="7"/>
     </row>
-    <row r="5020" spans="2:2">
+    <row r="5020" spans="2:3">
       <c r="B5020" s="7"/>
     </row>
-    <row r="5021" spans="2:2">
+    <row r="5021" spans="2:3">
       <c r="B5021" s="7"/>
     </row>
-    <row r="5022" spans="2:2">
+    <row r="5022" spans="2:3">
       <c r="B5022" s="7"/>
     </row>
-    <row r="5023" spans="2:2">
+    <row r="5023" spans="2:3">
       <c r="B5023" s="7"/>
     </row>
-    <row r="5024" spans="2:2">
+    <row r="5024" spans="2:3">
       <c r="B5024" s="7"/>
     </row>
     <row r="5025" spans="2:2">
@@ -9942,8 +9334,8 @@
     <row r="5052" spans="2:2">
       <c r="B5052" s="7"/>
     </row>
-    <row r="5058" spans="2:2">
-      <c r="B5058" s="7"/>
+    <row r="5053" spans="2:2">
+      <c r="B5053" s="7"/>
     </row>
     <row r="5059" spans="2:2">
       <c r="B5059" s="7"/>
@@ -9955,10 +9347,10 @@
       <c r="B5061" s="7"/>
     </row>
     <row r="5062" spans="2:2">
-      <c r="B5062" s="28"/>
+      <c r="B5062" s="7"/>
     </row>
     <row r="5063" spans="2:2">
-      <c r="B5063" s="7"/>
+      <c r="B5063" s="28"/>
     </row>
     <row r="5064" spans="2:2">
       <c r="B5064" s="7"/>
@@ -9972,8 +9364,8 @@
     <row r="5067" spans="2:2">
       <c r="B5067" s="7"/>
     </row>
-    <row r="5069" spans="2:2">
-      <c r="B5069" s="7"/>
+    <row r="5068" spans="2:2">
+      <c r="B5068" s="7"/>
     </row>
     <row r="5070" spans="2:2">
       <c r="B5070" s="7"/>
@@ -9984,39 +9376,39 @@
     <row r="5072" spans="2:2">
       <c r="B5072" s="7"/>
     </row>
-    <row r="5073" spans="2:2">
+    <row r="5073" spans="1:2">
       <c r="B5073" s="7"/>
     </row>
-    <row r="5074" spans="2:2">
+    <row r="5074" spans="1:2">
       <c r="B5074" s="7"/>
     </row>
-    <row r="5076" spans="2:2">
-      <c r="B5076" s="7"/>
-    </row>
-    <row r="5077" spans="2:2">
+    <row r="5075" spans="1:2">
+      <c r="B5075" s="7"/>
+    </row>
+    <row r="5077" spans="1:2">
       <c r="B5077" s="7"/>
     </row>
-    <row r="5079" ht="15.75" spans="1:2">
-      <c r="A5079" s="37"/>
-      <c r="B5079" s="7"/>
-    </row>
-    <row r="5080" spans="2:2">
+    <row r="5078" spans="1:2">
+      <c r="B5078" s="7"/>
+    </row>
+    <row r="5080" spans="1:2" ht="15.75">
+      <c r="A5080" s="37"/>
       <c r="B5080" s="7"/>
     </row>
-    <row r="5081" spans="2:2">
+    <row r="5081" spans="1:2">
       <c r="B5081" s="7"/>
     </row>
-    <row r="5082" spans="2:2">
+    <row r="5082" spans="1:2">
       <c r="B5082" s="7"/>
     </row>
-    <row r="5085" spans="2:2">
-      <c r="B5085" s="7"/>
-    </row>
-    <row r="5086" spans="2:2">
+    <row r="5083" spans="1:2">
+      <c r="B5083" s="7"/>
+    </row>
+    <row r="5086" spans="1:2">
       <c r="B5086" s="7"/>
     </row>
-    <row r="5089" spans="2:2">
-      <c r="B5089" s="7"/>
+    <row r="5087" spans="1:2">
+      <c r="B5087" s="7"/>
     </row>
     <row r="5090" spans="2:2">
       <c r="B5090" s="7"/>
@@ -10024,8 +9416,8 @@
     <row r="5091" spans="2:2">
       <c r="B5091" s="7"/>
     </row>
-    <row r="5130" spans="2:2">
-      <c r="B5130" s="7"/>
+    <row r="5092" spans="2:2">
+      <c r="B5092" s="7"/>
     </row>
     <row r="5131" spans="2:2">
       <c r="B5131" s="7"/>
@@ -10045,16 +9437,11 @@
     <row r="5136" spans="2:2">
       <c r="B5136" s="7"/>
     </row>
-    <row r="5137" spans="2:2">
+    <row r="5137" spans="2:7">
       <c r="B5137" s="7"/>
     </row>
     <row r="5138" spans="2:7">
-      <c r="B5138" s="28"/>
-      <c r="C5138" s="28"/>
-      <c r="D5138" s="28"/>
-      <c r="E5138" s="28"/>
-      <c r="F5138" s="28"/>
-      <c r="G5138" s="28"/>
+      <c r="B5138" s="7"/>
     </row>
     <row r="5139" spans="2:7">
       <c r="B5139" s="28"/>
@@ -10128,19 +9515,24 @@
       <c r="F5147" s="28"/>
       <c r="G5147" s="28"/>
     </row>
-    <row r="5148" spans="2:2">
-      <c r="B5148" s="7"/>
-    </row>
-    <row r="5149" spans="2:2">
+    <row r="5148" spans="2:7">
+      <c r="B5148" s="28"/>
+      <c r="C5148" s="28"/>
+      <c r="D5148" s="28"/>
+      <c r="E5148" s="28"/>
+      <c r="F5148" s="28"/>
+      <c r="G5148" s="28"/>
+    </row>
+    <row r="5149" spans="2:7">
       <c r="B5149" s="7"/>
     </row>
-    <row r="5150" spans="2:2">
+    <row r="5150" spans="2:7">
       <c r="B5150" s="7"/>
     </row>
-    <row r="5151" spans="2:2">
+    <row r="5151" spans="2:7">
       <c r="B5151" s="7"/>
     </row>
-    <row r="5152" spans="2:2">
+    <row r="5152" spans="2:7">
       <c r="B5152" s="7"/>
     </row>
     <row r="5153" spans="2:2">
@@ -10158,33 +9550,33 @@
     <row r="5157" spans="2:2">
       <c r="B5157" s="7"/>
     </row>
-    <row r="5164" spans="2:2">
-      <c r="B5164" s="7"/>
-    </row>
-    <row r="5166" spans="2:2">
-      <c r="B5166" s="7"/>
+    <row r="5158" spans="2:2">
+      <c r="B5158" s="7"/>
+    </row>
+    <row r="5165" spans="2:2">
+      <c r="B5165" s="7"/>
     </row>
     <row r="5167" spans="2:2">
       <c r="B5167" s="7"/>
     </row>
-    <row r="5196" spans="3:3">
-      <c r="C5196" s="7"/>
-    </row>
-    <row r="5197" ht="15.75" spans="1:2">
-      <c r="A5197" s="37"/>
-      <c r="B5197" s="7"/>
-    </row>
-    <row r="5198" spans="2:2">
+    <row r="5168" spans="2:2">
+      <c r="B5168" s="7"/>
+    </row>
+    <row r="5197" spans="1:3">
+      <c r="C5197" s="7"/>
+    </row>
+    <row r="5198" spans="1:3" ht="15.75">
+      <c r="A5198" s="37"/>
       <c r="B5198" s="7"/>
     </row>
-    <row r="5201" spans="2:2">
-      <c r="B5201" s="7"/>
+    <row r="5199" spans="1:3">
+      <c r="B5199" s="7"/>
     </row>
     <row r="5202" spans="2:2">
       <c r="B5202" s="7"/>
     </row>
-    <row r="5205" spans="2:2">
-      <c r="B5205" s="7"/>
+    <row r="5203" spans="2:2">
+      <c r="B5203" s="7"/>
     </row>
     <row r="5206" spans="2:2">
       <c r="B5206" s="7"/>
@@ -10195,8 +9587,8 @@
     <row r="5208" spans="2:2">
       <c r="B5208" s="7"/>
     </row>
-    <row r="5212" spans="2:2">
-      <c r="B5212" s="7"/>
+    <row r="5209" spans="2:2">
+      <c r="B5209" s="7"/>
     </row>
     <row r="5213" spans="2:2">
       <c r="B5213" s="7"/>
@@ -10207,32 +9599,32 @@
     <row r="5215" spans="2:2">
       <c r="B5215" s="7"/>
     </row>
-    <row r="5219" spans="2:2">
-      <c r="B5219" s="7"/>
+    <row r="5216" spans="2:2">
+      <c r="B5216" s="7"/>
     </row>
     <row r="5220" spans="1:2">
-      <c r="A5220" s="20"/>
       <c r="B5220" s="7"/>
     </row>
-    <row r="5221" spans="2:2">
+    <row r="5221" spans="1:2">
+      <c r="A5221" s="20"/>
       <c r="B5221" s="7"/>
     </row>
     <row r="5222" spans="1:2">
-      <c r="A5222" s="20"/>
       <c r="B5222" s="7"/>
     </row>
     <row r="5223" spans="1:2">
       <c r="A5223" s="20"/>
       <c r="B5223" s="7"/>
     </row>
-    <row r="5224" ht="15.75" spans="1:2">
-      <c r="A5224" s="37"/>
+    <row r="5224" spans="1:2">
+      <c r="A5224" s="20"/>
       <c r="B5224" s="7"/>
     </row>
-    <row r="5231" spans="2:2">
-      <c r="B5231" s="7"/>
-    </row>
-    <row r="5232" spans="2:2">
+    <row r="5225" spans="1:2" ht="15.75">
+      <c r="A5225" s="37"/>
+      <c r="B5225" s="7"/>
+    </row>
+    <row r="5232" spans="1:2">
       <c r="B5232" s="7"/>
     </row>
     <row r="5233" spans="2:2">
@@ -10244,23 +9636,23 @@
     <row r="5235" spans="2:2">
       <c r="B5235" s="7"/>
     </row>
-    <row r="5237" spans="2:2">
-      <c r="B5237" s="7"/>
-    </row>
-    <row r="5259" spans="2:2">
-      <c r="B5259" s="7"/>
-    </row>
-    <row r="5265" spans="2:2">
-      <c r="B5265" s="7"/>
-    </row>
-    <row r="5267" spans="2:2">
-      <c r="B5267" s="7"/>
+    <row r="5236" spans="2:2">
+      <c r="B5236" s="7"/>
+    </row>
+    <row r="5238" spans="2:2">
+      <c r="B5238" s="7"/>
+    </row>
+    <row r="5260" spans="2:2">
+      <c r="B5260" s="7"/>
+    </row>
+    <row r="5266" spans="2:2">
+      <c r="B5266" s="7"/>
     </row>
     <row r="5268" spans="2:2">
       <c r="B5268" s="7"/>
     </row>
-    <row r="5274" spans="2:2">
-      <c r="B5274" s="7"/>
+    <row r="5269" spans="2:2">
+      <c r="B5269" s="7"/>
     </row>
     <row r="5275" spans="2:2">
       <c r="B5275" s="7"/>
@@ -10272,10 +9664,10 @@
       <c r="B5277" s="7"/>
     </row>
     <row r="5278" spans="2:2">
-      <c r="B5278" s="5"/>
-    </row>
-    <row r="5281" spans="2:2">
-      <c r="B5281" s="7"/>
+      <c r="B5278" s="7"/>
+    </row>
+    <row r="5279" spans="2:2">
+      <c r="B5279" s="5"/>
     </row>
     <row r="5282" spans="2:2">
       <c r="B5282" s="7"/>
@@ -10289,8 +9681,8 @@
     <row r="5285" spans="2:2">
       <c r="B5285" s="7"/>
     </row>
-    <row r="5290" spans="2:2">
-      <c r="B5290" s="7"/>
+    <row r="5286" spans="2:2">
+      <c r="B5286" s="7"/>
     </row>
     <row r="5291" spans="2:2">
       <c r="B5291" s="7"/>
@@ -10328,14 +9720,14 @@
     <row r="5302" spans="2:2">
       <c r="B5302" s="7"/>
     </row>
-    <row r="5312" spans="2:2">
-      <c r="B5312" s="7"/>
+    <row r="5303" spans="2:2">
+      <c r="B5303" s="7"/>
     </row>
     <row r="5313" spans="2:2">
       <c r="B5313" s="7"/>
     </row>
-    <row r="5315" spans="2:2">
-      <c r="B5315" s="7"/>
+    <row r="5314" spans="2:2">
+      <c r="B5314" s="7"/>
     </row>
     <row r="5316" spans="2:2">
       <c r="B5316" s="7"/>
@@ -10343,17 +9735,17 @@
     <row r="5317" spans="2:2">
       <c r="B5317" s="7"/>
     </row>
-    <row r="5325" spans="2:2">
-      <c r="B5325" s="7"/>
-    </row>
-    <row r="5336" spans="2:2">
-      <c r="B5336" s="7"/>
-    </row>
-    <row r="5341" spans="2:2">
-      <c r="B5341" s="7"/>
-    </row>
-    <row r="5352" spans="2:2">
-      <c r="B5352" s="7"/>
+    <row r="5318" spans="2:2">
+      <c r="B5318" s="7"/>
+    </row>
+    <row r="5326" spans="2:2">
+      <c r="B5326" s="7"/>
+    </row>
+    <row r="5337" spans="2:2">
+      <c r="B5337" s="7"/>
+    </row>
+    <row r="5342" spans="2:2">
+      <c r="B5342" s="7"/>
     </row>
     <row r="5353" spans="2:2">
       <c r="B5353" s="7"/>
@@ -10361,8 +9753,8 @@
     <row r="5354" spans="2:2">
       <c r="B5354" s="7"/>
     </row>
-    <row r="5356" spans="2:2">
-      <c r="B5356" s="7"/>
+    <row r="5355" spans="2:2">
+      <c r="B5355" s="7"/>
     </row>
     <row r="5357" spans="2:2">
       <c r="B5357" s="7"/>
@@ -10373,8 +9765,8 @@
     <row r="5359" spans="2:2">
       <c r="B5359" s="7"/>
     </row>
-    <row r="5361" spans="2:2">
-      <c r="B5361" s="7"/>
+    <row r="5360" spans="2:2">
+      <c r="B5360" s="7"/>
     </row>
     <row r="5362" spans="2:2">
       <c r="B5362" s="7"/>
@@ -10388,8 +9780,8 @@
     <row r="5365" spans="2:2">
       <c r="B5365" s="7"/>
     </row>
-    <row r="5368" spans="2:2">
-      <c r="B5368" s="7"/>
+    <row r="5366" spans="2:2">
+      <c r="B5366" s="7"/>
     </row>
     <row r="5369" spans="2:2">
       <c r="B5369" s="7"/>
@@ -10436,46 +9828,46 @@
     <row r="5383" spans="2:2">
       <c r="B5383" s="7"/>
     </row>
-    <row r="5398" spans="2:2">
-      <c r="B5398" s="7"/>
-    </row>
-    <row r="5399" spans="2:2">
+    <row r="5384" spans="2:2">
+      <c r="B5384" s="7"/>
+    </row>
+    <row r="5399" spans="1:3">
       <c r="B5399" s="7"/>
     </row>
-    <row r="5400" spans="2:3">
+    <row r="5400" spans="1:3">
       <c r="B5400" s="7"/>
-      <c r="C5400" s="21"/>
-    </row>
-    <row r="5401" spans="2:2">
+    </row>
+    <row r="5401" spans="1:3">
       <c r="B5401" s="7"/>
-    </row>
-    <row r="5402" spans="2:2">
+      <c r="C5401" s="21"/>
+    </row>
+    <row r="5402" spans="1:3">
       <c r="B5402" s="7"/>
     </row>
-    <row r="5405" spans="2:2">
-      <c r="B5405" s="7"/>
-    </row>
-    <row r="5406" spans="1:2">
-      <c r="A5406" s="20"/>
+    <row r="5403" spans="1:3">
+      <c r="B5403" s="7"/>
+    </row>
+    <row r="5406" spans="1:3">
       <c r="B5406" s="7"/>
     </row>
-    <row r="5407" spans="2:2">
+    <row r="5407" spans="1:3">
+      <c r="A5407" s="20"/>
       <c r="B5407" s="7"/>
     </row>
-    <row r="5442" spans="2:2">
-      <c r="B5442" s="7"/>
-    </row>
-    <row r="5504" spans="2:2">
-      <c r="B5504" s="7"/>
+    <row r="5408" spans="1:3">
+      <c r="B5408" s="7"/>
+    </row>
+    <row r="5443" spans="2:2">
+      <c r="B5443" s="7"/>
     </row>
     <row r="5505" spans="2:2">
       <c r="B5505" s="7"/>
     </row>
-    <row r="5508" spans="2:2">
-      <c r="B5508" s="7"/>
-    </row>
-    <row r="5542" spans="2:2">
-      <c r="B5542" s="7"/>
+    <row r="5506" spans="2:2">
+      <c r="B5506" s="7"/>
+    </row>
+    <row r="5509" spans="2:2">
+      <c r="B5509" s="7"/>
     </row>
     <row r="5543" spans="2:2">
       <c r="B5543" s="7"/>
@@ -10498,11 +9890,10 @@
     <row r="5549" spans="2:2">
       <c r="B5549" s="7"/>
     </row>
-    <row r="5551" spans="2:2">
-      <c r="B5551" s="7"/>
-    </row>
-    <row r="5552" spans="1:2">
-      <c r="A5552" s="20"/>
+    <row r="5550" spans="2:2">
+      <c r="B5550" s="7"/>
+    </row>
+    <row r="5552" spans="2:2">
       <c r="B5552" s="7"/>
     </row>
     <row r="5553" spans="1:2">
@@ -10517,23 +9908,24 @@
       <c r="A5555" s="20"/>
       <c r="B5555" s="7"/>
     </row>
-    <row r="5556" spans="2:2">
+    <row r="5556" spans="1:2">
+      <c r="A5556" s="20"/>
       <c r="B5556" s="7"/>
     </row>
-    <row r="5557" spans="2:2">
+    <row r="5557" spans="1:2">
       <c r="B5557" s="7"/>
     </row>
-    <row r="5558" spans="2:2">
+    <row r="5558" spans="1:2">
       <c r="B5558" s="7"/>
     </row>
-    <row r="5560" spans="2:2">
-      <c r="B5560" s="7"/>
-    </row>
-    <row r="5562" spans="2:2">
-      <c r="B5562" s="7"/>
-    </row>
-    <row r="5569" spans="2:2">
-      <c r="B5569" s="7"/>
+    <row r="5559" spans="1:2">
+      <c r="B5559" s="7"/>
+    </row>
+    <row r="5561" spans="1:2">
+      <c r="B5561" s="7"/>
+    </row>
+    <row r="5563" spans="1:2">
+      <c r="B5563" s="7"/>
     </row>
     <row r="5570" spans="2:2">
       <c r="B5570" s="7"/>
@@ -10544,8 +9936,8 @@
     <row r="5572" spans="2:2">
       <c r="B5572" s="7"/>
     </row>
-    <row r="5591" spans="2:2">
-      <c r="B5591" s="7"/>
+    <row r="5573" spans="2:2">
+      <c r="B5573" s="7"/>
     </row>
     <row r="5592" spans="2:2">
       <c r="B5592" s="7"/>
@@ -10566,10 +9958,10 @@
       <c r="B5597" s="7"/>
     </row>
     <row r="5598" spans="2:2">
-      <c r="B5598" s="15"/>
+      <c r="B5598" s="7"/>
     </row>
     <row r="5599" spans="2:2">
-      <c r="B5599" s="7"/>
+      <c r="B5599" s="15"/>
     </row>
     <row r="5600" spans="2:2">
       <c r="B5600" s="7"/>
@@ -10586,14 +9978,14 @@
     <row r="5604" spans="2:2">
       <c r="B5604" s="7"/>
     </row>
-    <row r="5606" spans="2:2">
-      <c r="B5606" s="7"/>
+    <row r="5605" spans="2:2">
+      <c r="B5605" s="7"/>
     </row>
     <row r="5607" spans="2:2">
       <c r="B5607" s="7"/>
     </row>
-    <row r="5611" spans="2:2">
-      <c r="B5611" s="7"/>
+    <row r="5608" spans="2:2">
+      <c r="B5608" s="7"/>
     </row>
     <row r="5612" spans="2:2">
       <c r="B5612" s="7"/>
@@ -10604,23 +9996,23 @@
     <row r="5614" spans="2:2">
       <c r="B5614" s="7"/>
     </row>
-    <row r="5617" spans="2:2">
-      <c r="B5617" s="7"/>
-    </row>
-    <row r="5621" spans="1:7">
-      <c r="A5621" s="22"/>
-      <c r="B5621" s="15"/>
-      <c r="C5621" s="15"/>
-      <c r="D5621" s="15"/>
-      <c r="E5621" s="15"/>
-      <c r="F5621" s="15"/>
-      <c r="G5621" s="15"/>
-    </row>
-    <row r="5980" spans="2:2">
-      <c r="B5980" s="30"/>
-    </row>
-    <row r="6337" spans="1:1">
-      <c r="A6337" s="20"/>
+    <row r="5615" spans="2:2">
+      <c r="B5615" s="7"/>
+    </row>
+    <row r="5618" spans="1:7">
+      <c r="B5618" s="7"/>
+    </row>
+    <row r="5622" spans="1:7">
+      <c r="A5622" s="22"/>
+      <c r="B5622" s="15"/>
+      <c r="C5622" s="15"/>
+      <c r="D5622" s="15"/>
+      <c r="E5622" s="15"/>
+      <c r="F5622" s="15"/>
+      <c r="G5622" s="15"/>
+    </row>
+    <row r="5981" spans="2:2">
+      <c r="B5981" s="30"/>
     </row>
     <row r="6338" spans="1:1">
       <c r="A6338" s="20"/>
@@ -10724,8 +10116,8 @@
     <row r="6371" spans="1:1">
       <c r="A6371" s="20"/>
     </row>
-    <row r="6376" spans="1:1">
-      <c r="A6376" s="20"/>
+    <row r="6372" spans="1:1">
+      <c r="A6372" s="20"/>
     </row>
     <row r="6377" spans="1:1">
       <c r="A6377" s="20"/>
@@ -10826,27 +10218,26 @@
     <row r="6409" spans="1:1">
       <c r="A6409" s="20"/>
     </row>
-    <row r="1048572" customHeight="1" spans="7:7">
-      <c r="G1048572" s="6"/>
+    <row r="6410" spans="1:1">
+      <c r="A6410" s="20"/>
+    </row>
+    <row r="1048573" spans="7:7" ht="15" customHeight="1">
+      <c r="G1048573" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/QA/testcases/ORSheet.xlsx
+++ b/QA/testcases/ORSheet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="14685"/>
+    <workbookView windowWidth="27465" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="OR sheet" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352">
   <si>
     <t>OR Name</t>
   </si>
@@ -788,6 +788,12 @@
     <t>applications-patient-correspondence-0</t>
   </si>
   <si>
+    <t>ACTION_PROVIDER_UPLOAD_DOCS</t>
+  </si>
+  <si>
+    <t>applications-provider-correspondence-0</t>
+  </si>
+  <si>
     <t>UPLOAD_DOCUMENTS_BUTTON</t>
   </si>
   <si>
@@ -1037,17 +1043,47 @@
     <t>//td[@tabindex='1']/input</t>
   </si>
   <si>
-    <t>applications-provider-correspondence-0</t>
-  </si>
-  <si>
-    <t>ACTION_PROVIDER_UPLOAD_DOCS</t>
+    <t>SAVE_PROGRESS_BUTTON</t>
+  </si>
+  <si>
+    <t>SaveProgress</t>
+  </si>
+  <si>
+    <t>OK_BUTTON</t>
+  </si>
+  <si>
+    <t>//button[text()='Ok']</t>
+  </si>
+  <si>
+    <t>INCOMPLETE_APPLICATION</t>
+  </si>
+  <si>
+    <t>incomplete_app</t>
+  </si>
+  <si>
+    <t>COMPLETE_APPLICATION</t>
+  </si>
+  <si>
+    <t>//a[text()='Complete Application']</t>
+  </si>
+  <si>
+    <t>POLICY_DETAIL_TITLE</t>
+  </si>
+  <si>
+    <t>//span[text()='Policy Details']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1075,6 +1111,17 @@
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1150,18 +1197,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1216,8 +1403,194 @@
         <bgColor rgb="FFDDEBF7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1225,11 +1598,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1238,7 +1853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1257,13 +1872,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1274,35 +1892,80 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1564,31 +2227,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H1048573"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="15.1428571428571" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="39.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="85.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="39.1428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="85.5714285714286" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.4285714285714" style="2" customWidth="1"/>
     <col min="4" max="4" width="16" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="15.140625" style="2"/>
+    <col min="5" max="5" width="11.2857142857143" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.5714285714286" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.8571428571429" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="15.1428571428571" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" customHeight="1">
+    <row r="1" ht="16.5" customHeight="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1614,13 +2277,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1643,7 +2306,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -1666,7 +2329,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1689,7 +2352,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -1712,7 +2375,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1735,7 +2398,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -1758,7 +2421,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -1781,14 +2444,14 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+    <row r="10" ht="15.75" customHeight="1" spans="1:7">
       <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="7"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+    <row r="11" ht="15.75" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1811,7 +2474,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+    <row r="12" ht="15.75" customHeight="1" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1834,7 +2497,7 @@
         <v>43177</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+    <row r="13" ht="15.75" customHeight="1" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>34</v>
       </c>
@@ -1857,7 +2520,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+    <row r="14" ht="15.75" customHeight="1" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -1880,7 +2543,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+    <row r="15" ht="15.75" customHeight="1" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1903,7 +2566,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+    <row r="16" ht="15.75" customHeight="1" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
@@ -1926,7 +2589,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" ht="15.75" customHeight="1" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
@@ -1949,7 +2612,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" ht="15.75" customHeight="1" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,7 +2635,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" ht="15.75" customHeight="1" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
@@ -2294,7 +2957,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
@@ -2317,7 +2980,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
@@ -2340,7 +3003,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
@@ -2363,7 +3026,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
         <v>80</v>
       </c>
@@ -2374,7 +3037,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
         <v>81</v>
       </c>
@@ -2397,7 +3060,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
@@ -2446,7 +3109,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>89</v>
       </c>
@@ -2469,7 +3132,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
         <v>91</v>
       </c>
@@ -2492,7 +3155,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
         <v>93</v>
       </c>
@@ -2515,7 +3178,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
         <v>95</v>
       </c>
@@ -2538,7 +3201,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
         <v>97</v>
       </c>
@@ -2561,7 +3224,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
         <v>99</v>
       </c>
@@ -2725,7 +3388,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
         <v>119</v>
       </c>
@@ -2745,7 +3408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>121</v>
       </c>
@@ -2765,7 +3428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>123</v>
       </c>
@@ -2785,7 +3448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
         <v>125</v>
       </c>
@@ -2828,7 +3491,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
         <v>129</v>
       </c>
@@ -2871,7 +3534,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
         <v>133</v>
       </c>
@@ -2891,7 +3554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>135</v>
       </c>
@@ -2911,7 +3574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
         <v>137</v>
       </c>
@@ -2931,7 +3594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
         <v>139</v>
       </c>
@@ -2951,7 +3614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
         <v>141</v>
       </c>
@@ -2994,7 +3657,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
         <v>145</v>
       </c>
@@ -3037,7 +3700,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
         <v>149</v>
       </c>
@@ -3057,7 +3720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
         <v>151</v>
       </c>
@@ -3077,7 +3740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
         <v>153</v>
       </c>
@@ -3097,7 +3760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
         <v>155</v>
       </c>
@@ -3114,7 +3777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
         <v>156</v>
       </c>
@@ -3134,7 +3797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
         <v>158</v>
       </c>
@@ -3154,7 +3817,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
         <v>160</v>
       </c>
@@ -3174,7 +3837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
         <v>162</v>
       </c>
@@ -3194,7 +3857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
         <v>164</v>
       </c>
@@ -3214,7 +3877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
         <v>166</v>
       </c>
@@ -3234,7 +3897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
         <v>168</v>
       </c>
@@ -3254,7 +3917,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
         <v>170</v>
       </c>
@@ -3274,7 +3937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
         <v>172</v>
       </c>
@@ -3294,7 +3957,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="30">
+    <row r="80" ht="30" spans="1:6">
       <c r="A80" s="1" t="s">
         <v>174</v>
       </c>
@@ -3634,7 +4297,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
         <v>214</v>
       </c>
@@ -3651,7 +4314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
         <v>216</v>
       </c>
@@ -3668,7 +4331,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
         <v>218</v>
       </c>
@@ -3685,7 +4348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
         <v>220</v>
       </c>
@@ -3702,7 +4365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
         <v>222</v>
       </c>
@@ -3719,7 +4382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
         <v>224</v>
       </c>
@@ -3730,7 +4393,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
         <v>226</v>
       </c>
@@ -3741,7 +4404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
         <v>228</v>
       </c>
@@ -3752,7 +4415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
         <v>229</v>
       </c>
@@ -3763,7 +4426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
         <v>231</v>
       </c>
@@ -3844,7 +4507,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:4">
       <c r="A112" s="1" t="s">
         <v>243</v>
       </c>
@@ -3921,20 +4584,20 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="45" t="s">
-        <v>341</v>
-      </c>
-      <c r="B119" s="44" t="s">
-        <v>340</v>
+    <row r="119" spans="1:2">
+      <c r="A119" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>17</v>
@@ -3942,10 +4605,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>12</v>
@@ -3953,10 +4616,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>17</v>
@@ -3964,10 +4627,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>17</v>
@@ -3975,10 +4638,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>17</v>
@@ -3986,10 +4649,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>12</v>
@@ -3997,10 +4660,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>17</v>
@@ -4008,10 +4671,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>17</v>
@@ -4019,10 +4682,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>12</v>
@@ -4030,10 +4693,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>17</v>
@@ -4041,10 +4704,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>12</v>
@@ -4052,10 +4715,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>17</v>
@@ -4063,10 +4726,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>17</v>
@@ -4074,10 +4737,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>17</v>
@@ -4085,10 +4748,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>17</v>
@@ -4096,10 +4759,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>17</v>
@@ -4107,10 +4770,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>17</v>
@@ -4118,10 +4781,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>17</v>
@@ -4129,10 +4792,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>17</v>
@@ -4140,10 +4803,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>17</v>
@@ -4151,10 +4814,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>17</v>
@@ -4162,38 +4825,38 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" s="4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B143" s="7"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>12</v>
@@ -4201,13 +4864,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B145" t="s">
+        <v>310</v>
+      </c>
+      <c r="C145" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>12</v>
@@ -4215,13 +4878,13 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B146" s="16" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>12</v>
@@ -4229,13 +4892,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>12</v>
@@ -4243,13 +4906,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>17</v>
@@ -4257,13 +4920,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>230</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>17</v>
@@ -4271,13 +4934,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>17</v>
@@ -4285,13 +4948,13 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>17</v>
@@ -4299,13 +4962,13 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>17</v>
@@ -4313,13 +4976,13 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B153" s="17" t="s">
-        <v>323</v>
+        <v>324</v>
+      </c>
+      <c r="B153" s="19" t="s">
+        <v>325</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>12</v>
@@ -4327,13 +4990,13 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B154" s="17" t="s">
-        <v>325</v>
+        <v>326</v>
+      </c>
+      <c r="B154" s="19" t="s">
+        <v>327</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>12</v>
@@ -4341,13 +5004,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B155" s="17" t="s">
-        <v>327</v>
+        <v>328</v>
+      </c>
+      <c r="B155" s="19" t="s">
+        <v>329</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>12</v>
@@ -4355,13 +5018,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B156" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
+      </c>
+      <c r="B156" s="19" t="s">
+        <v>331</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>12</v>
@@ -4369,97 +5032,152 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:4" ht="15" customHeight="1">
+    <row r="158" customHeight="1" spans="1:4">
       <c r="A158" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B158" s="17" t="s">
-        <v>333</v>
+        <v>334</v>
+      </c>
+      <c r="B158" s="19" t="s">
+        <v>335</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="15" customHeight="1">
+    <row r="159" customHeight="1" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="15" customHeight="1">
+    <row r="160" customHeight="1" spans="1:4">
       <c r="A160" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="15" customHeight="1">
+    <row r="161" customHeight="1" spans="1:4">
       <c r="A161" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B161" s="17" t="s">
-        <v>339</v>
+        <v>340</v>
+      </c>
+      <c r="B161" s="19" t="s">
+        <v>341</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A176" s="18"/>
+    <row r="162" customHeight="1" spans="1:4">
+      <c r="A162" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B162" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" customHeight="1" spans="1:4">
+      <c r="A163" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="1:4">
+      <c r="A164" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B164" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="1:4">
+      <c r="A165" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="1:4">
+      <c r="A166" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="176" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A176" s="21"/>
       <c r="B176" s="15"/>
     </row>
     <row r="183" spans="3:7">
-      <c r="C183" s="19"/>
-      <c r="D183" s="19"/>
-      <c r="E183" s="19"/>
-      <c r="F183" s="19"/>
-      <c r="G183" s="19"/>
+      <c r="C183" s="22"/>
+      <c r="D183" s="22"/>
+      <c r="E183" s="22"/>
+      <c r="F183" s="22"/>
+      <c r="G183" s="22"/>
     </row>
     <row r="184" spans="3:7">
-      <c r="C184" s="19"/>
-      <c r="D184" s="19"/>
-      <c r="E184" s="19"/>
-      <c r="F184" s="19"/>
-      <c r="G184" s="19"/>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="20"/>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="B206" s="21"/>
+      <c r="C184" s="22"/>
+      <c r="D184" s="22"/>
+      <c r="E184" s="22"/>
+      <c r="F184" s="22"/>
+      <c r="G184" s="22"/>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="23"/>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="24"/>
     </row>
     <row r="209" ht="18.75" customHeight="1"/>
     <row r="210" ht="21" customHeight="1"/>
@@ -4472,141 +5190,141 @@
     <row r="217" ht="21" customHeight="1"/>
     <row r="218" ht="21" customHeight="1"/>
     <row r="229" spans="1:2">
-      <c r="A229" s="22"/>
-      <c r="B229" s="23"/>
-    </row>
-    <row r="230" spans="1:2">
+      <c r="A229" s="25"/>
+      <c r="B229" s="26"/>
+    </row>
+    <row r="230" spans="2:2">
       <c r="B230" s="5"/>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="2:2">
       <c r="B231" s="5"/>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="2:2">
       <c r="B232" s="5"/>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="2:2">
       <c r="B233" s="5"/>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="2:2">
       <c r="B234" s="5"/>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="2:2">
       <c r="B235" s="5"/>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="2:2">
       <c r="B236" s="5"/>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="2:2">
       <c r="B237" s="5"/>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" s="22"/>
-      <c r="B238" s="24"/>
-    </row>
-    <row r="239" spans="1:2">
+      <c r="A238" s="25"/>
+      <c r="B238" s="27"/>
+    </row>
+    <row r="239" spans="2:2">
       <c r="B239" s="5"/>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="2:2">
       <c r="B240" s="5"/>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="2:2">
       <c r="B241" s="5"/>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="2:2">
       <c r="B242" s="5"/>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="2:2">
       <c r="B243" s="5"/>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="2:2">
       <c r="B244" s="5"/>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="2:2">
       <c r="B245" s="5"/>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="2:2">
       <c r="B246" s="5"/>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="2:2">
       <c r="B247" s="5"/>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="2:2">
       <c r="B248" s="5"/>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="2:2">
       <c r="B249" s="5"/>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="2:2">
       <c r="B250" s="5"/>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="2:2">
       <c r="B251" s="5"/>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="2:2">
       <c r="B252" s="5"/>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="2:2">
       <c r="B253" s="5"/>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="2:2">
       <c r="B254" s="5"/>
     </row>
     <row r="255" spans="1:2">
-      <c r="A255" s="20"/>
+      <c r="A255" s="23"/>
       <c r="B255" s="5"/>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="2:2">
       <c r="B256" s="5"/>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="2:2">
       <c r="B257" s="5"/>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="2:2">
       <c r="B258" s="5"/>
     </row>
     <row r="259" spans="1:2">
-      <c r="A259" s="20"/>
+      <c r="A259" s="23"/>
       <c r="B259" s="5"/>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="2:2">
       <c r="B260" s="5"/>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="2:2">
       <c r="B261" s="5"/>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="2:2">
       <c r="B262" s="5"/>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="2:2">
       <c r="B263" s="5"/>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="2:2">
       <c r="B264" s="5"/>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="2:2">
       <c r="B265" s="5"/>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="2:2">
       <c r="B266" s="5"/>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="2:2">
       <c r="B267" s="5"/>
     </row>
     <row r="268" spans="1:2">
-      <c r="A268" s="20"/>
+      <c r="A268" s="23"/>
       <c r="B268" s="5"/>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="2:2">
       <c r="B269" s="5"/>
     </row>
     <row r="270" spans="1:2">
-      <c r="A270" s="20"/>
+      <c r="A270" s="23"/>
       <c r="B270" s="5"/>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="2:2">
       <c r="B271" s="5"/>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="2:2">
       <c r="B272" s="5"/>
     </row>
     <row r="273" spans="2:2">
@@ -4657,154 +5375,154 @@
     <row r="288" spans="2:2">
       <c r="B288" s="5"/>
     </row>
-    <row r="289" spans="1:2">
+    <row r="289" spans="2:2">
       <c r="B289" s="5"/>
     </row>
-    <row r="290" spans="1:2">
-      <c r="B290" s="25"/>
-    </row>
-    <row r="291" spans="1:2">
+    <row r="290" spans="2:2">
+      <c r="B290" s="28"/>
+    </row>
+    <row r="291" spans="2:2">
       <c r="B291" s="5"/>
     </row>
-    <row r="292" spans="1:2">
+    <row r="292" spans="2:2">
       <c r="B292" s="5"/>
     </row>
-    <row r="293" spans="1:2">
+    <row r="293" spans="2:2">
       <c r="B293" s="5"/>
     </row>
-    <row r="294" spans="1:2">
+    <row r="294" spans="2:2">
       <c r="B294" s="5"/>
     </row>
     <row r="295" spans="1:2">
-      <c r="A295" s="22"/>
-      <c r="B295" s="24"/>
-    </row>
-    <row r="296" spans="1:2">
+      <c r="A295" s="25"/>
+      <c r="B295" s="27"/>
+    </row>
+    <row r="296" spans="2:2">
       <c r="B296" s="5"/>
     </row>
-    <row r="297" spans="1:2">
+    <row r="297" spans="2:2">
       <c r="B297" s="5"/>
     </row>
-    <row r="298" spans="1:2">
+    <row r="298" spans="2:2">
       <c r="B298" s="5"/>
     </row>
-    <row r="299" spans="1:2">
+    <row r="299" spans="2:2">
       <c r="B299" s="5"/>
     </row>
-    <row r="300" spans="1:2">
+    <row r="300" spans="2:2">
       <c r="B300" s="5"/>
     </row>
-    <row r="301" spans="1:2">
+    <row r="301" spans="2:2">
       <c r="B301" s="5"/>
     </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="2:2">
       <c r="B302" s="5"/>
     </row>
-    <row r="303" spans="1:2">
+    <row r="303" spans="2:2">
       <c r="B303" s="5"/>
     </row>
-    <row r="304" spans="1:2">
+    <row r="304" spans="2:2">
       <c r="B304" s="5"/>
     </row>
-    <row r="305" spans="1:2">
+    <row r="305" spans="2:2">
       <c r="B305" s="5"/>
     </row>
-    <row r="306" spans="1:2">
+    <row r="306" spans="2:2">
       <c r="B306" s="5"/>
     </row>
-    <row r="307" spans="1:2">
+    <row r="307" spans="2:2">
       <c r="B307" s="5"/>
     </row>
-    <row r="308" spans="1:2">
+    <row r="308" spans="2:2">
       <c r="B308" s="5"/>
     </row>
-    <row r="309" spans="1:2">
+    <row r="309" spans="2:2">
       <c r="B309" s="5"/>
     </row>
-    <row r="310" spans="1:2">
+    <row r="310" spans="2:2">
       <c r="B310" s="5"/>
     </row>
-    <row r="311" spans="1:2">
+    <row r="311" spans="2:2">
       <c r="B311" s="5"/>
     </row>
-    <row r="312" spans="1:2">
+    <row r="312" spans="2:2">
       <c r="B312" s="5"/>
     </row>
     <row r="313" spans="1:2">
-      <c r="A313" s="26"/>
+      <c r="A313" s="29"/>
       <c r="B313" s="5"/>
     </row>
-    <row r="314" spans="1:2">
+    <row r="314" spans="2:2">
       <c r="B314" s="5"/>
     </row>
-    <row r="315" spans="1:2">
+    <row r="315" spans="2:2">
       <c r="B315" s="5"/>
     </row>
-    <row r="316" spans="1:2">
+    <row r="316" spans="2:2">
       <c r="B316" s="5"/>
     </row>
-    <row r="317" spans="1:2">
+    <row r="317" spans="2:2">
       <c r="B317" s="5"/>
     </row>
-    <row r="318" spans="1:2">
+    <row r="318" spans="2:2">
       <c r="B318" s="5"/>
     </row>
-    <row r="319" spans="1:2">
+    <row r="319" spans="2:2">
       <c r="B319" s="5"/>
     </row>
-    <row r="320" spans="1:2">
+    <row r="320" spans="2:2">
       <c r="B320" s="5"/>
     </row>
-    <row r="321" spans="1:2">
+    <row r="321" spans="2:2">
       <c r="B321" s="5"/>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="20"/>
+      <c r="A322" s="23"/>
       <c r="B322" s="5"/>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="20"/>
+      <c r="A323" s="23"/>
       <c r="B323" s="5"/>
     </row>
     <row r="324" spans="1:2">
-      <c r="A324" s="20"/>
+      <c r="A324" s="23"/>
       <c r="B324" s="5"/>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="20"/>
+      <c r="A325" s="23"/>
       <c r="B325" s="5"/>
     </row>
-    <row r="326" spans="1:2">
+    <row r="326" spans="2:2">
       <c r="B326" s="5"/>
     </row>
-    <row r="327" spans="1:2">
+    <row r="327" spans="2:2">
       <c r="B327" s="5"/>
     </row>
-    <row r="328" spans="1:2">
+    <row r="328" spans="2:2">
       <c r="B328" s="5"/>
     </row>
-    <row r="329" spans="1:2">
+    <row r="329" spans="2:2">
       <c r="B329" s="5"/>
     </row>
-    <row r="330" spans="1:2">
+    <row r="330" spans="2:2">
       <c r="B330" s="5"/>
     </row>
-    <row r="331" spans="1:2">
+    <row r="331" spans="2:2">
       <c r="B331" s="5"/>
     </row>
-    <row r="332" spans="1:2">
+    <row r="332" spans="2:2">
       <c r="B332" s="5"/>
     </row>
-    <row r="333" spans="1:2">
+    <row r="333" spans="2:2">
       <c r="B333" s="5"/>
     </row>
-    <row r="334" spans="1:2">
+    <row r="334" spans="2:2">
       <c r="B334" s="5"/>
     </row>
-    <row r="335" spans="1:2">
+    <row r="335" spans="2:2">
       <c r="B335" s="5"/>
     </row>
-    <row r="336" spans="1:2">
+    <row r="336" spans="2:2">
       <c r="B336" s="5"/>
     </row>
     <row r="337" spans="2:2">
@@ -4826,504 +5544,504 @@
       <c r="B342" s="5"/>
     </row>
     <row r="384" spans="1:1">
-      <c r="A384" s="20"/>
-    </row>
-    <row r="422" spans="1:4">
-      <c r="A422" s="20"/>
-    </row>
-    <row r="424" spans="1:4">
-      <c r="A424" s="20"/>
-    </row>
-    <row r="425" spans="1:4">
-      <c r="A425" s="20"/>
-    </row>
-    <row r="426" spans="1:4">
-      <c r="A426" s="20"/>
-    </row>
-    <row r="427" spans="1:4">
-      <c r="A427" s="20"/>
-    </row>
-    <row r="428" spans="1:4">
-      <c r="A428" s="20"/>
-    </row>
-    <row r="429" spans="1:4">
-      <c r="A429" s="20"/>
-    </row>
-    <row r="430" spans="1:4">
-      <c r="C430" s="21"/>
-      <c r="D430" s="21"/>
-    </row>
-    <row r="431" spans="1:4">
-      <c r="A431" s="20"/>
-    </row>
-    <row r="432" spans="1:4">
-      <c r="A432" s="20"/>
+      <c r="A384" s="23"/>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" s="23"/>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="23"/>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="23"/>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="23"/>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="23"/>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" s="23"/>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" s="23"/>
+    </row>
+    <row r="430" spans="3:4">
+      <c r="C430" s="24"/>
+      <c r="D430" s="24"/>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" s="23"/>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="23"/>
     </row>
     <row r="433" spans="1:1">
-      <c r="A433" s="20"/>
+      <c r="A433" s="23"/>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434" s="20"/>
+      <c r="A434" s="23"/>
     </row>
     <row r="435" spans="1:1">
-      <c r="A435" s="20"/>
+      <c r="A435" s="23"/>
     </row>
     <row r="437" spans="1:1">
-      <c r="A437" s="20"/>
+      <c r="A437" s="23"/>
     </row>
     <row r="438" spans="1:1">
-      <c r="A438" s="20"/>
+      <c r="A438" s="23"/>
     </row>
     <row r="439" spans="1:1">
-      <c r="A439" s="20"/>
+      <c r="A439" s="23"/>
     </row>
     <row r="440" spans="1:1">
-      <c r="A440" s="20"/>
+      <c r="A440" s="23"/>
     </row>
     <row r="456" spans="1:1">
-      <c r="A456" s="20"/>
+      <c r="A456" s="23"/>
     </row>
     <row r="457" spans="1:1">
-      <c r="A457" s="20"/>
+      <c r="A457" s="23"/>
     </row>
     <row r="458" spans="1:1">
-      <c r="A458" s="20"/>
+      <c r="A458" s="23"/>
     </row>
     <row r="459" spans="1:1">
-      <c r="A459" s="20"/>
-    </row>
-    <row r="474" spans="1:7">
-      <c r="C474" s="21"/>
-      <c r="D474" s="21"/>
+      <c r="A459" s="23"/>
+    </row>
+    <row r="474" spans="3:4">
+      <c r="C474" s="24"/>
+      <c r="D474" s="24"/>
     </row>
     <row r="475" spans="1:7">
-      <c r="A475" s="20"/>
-      <c r="C475" s="21"/>
-      <c r="D475" s="21"/>
-      <c r="E475" s="21"/>
-      <c r="F475" s="21"/>
-      <c r="G475" s="21"/>
+      <c r="A475" s="23"/>
+      <c r="C475" s="24"/>
+      <c r="D475" s="24"/>
+      <c r="E475" s="24"/>
+      <c r="F475" s="24"/>
+      <c r="G475" s="24"/>
     </row>
     <row r="476" spans="1:7">
-      <c r="A476" s="20"/>
-      <c r="C476" s="21"/>
-      <c r="D476" s="21"/>
-      <c r="E476" s="21"/>
-      <c r="F476" s="21"/>
-      <c r="G476" s="21"/>
+      <c r="A476" s="23"/>
+      <c r="C476" s="24"/>
+      <c r="D476" s="24"/>
+      <c r="E476" s="24"/>
+      <c r="F476" s="24"/>
+      <c r="G476" s="24"/>
     </row>
     <row r="477" spans="1:7">
-      <c r="A477" s="20"/>
-      <c r="C477" s="21"/>
-      <c r="D477" s="21"/>
-      <c r="E477" s="21"/>
-      <c r="F477" s="21"/>
-      <c r="G477" s="21"/>
-    </row>
-    <row r="478" spans="1:7">
-      <c r="C478" s="21"/>
-      <c r="D478" s="21"/>
-      <c r="E478" s="21"/>
-      <c r="F478" s="21"/>
-      <c r="G478" s="21"/>
-    </row>
-    <row r="479" spans="1:7">
-      <c r="C479" s="21"/>
-      <c r="D479" s="21"/>
-      <c r="E479" s="21"/>
-      <c r="F479" s="21"/>
-      <c r="G479" s="21"/>
+      <c r="A477" s="23"/>
+      <c r="C477" s="24"/>
+      <c r="D477" s="24"/>
+      <c r="E477" s="24"/>
+      <c r="F477" s="24"/>
+      <c r="G477" s="24"/>
+    </row>
+    <row r="478" spans="3:7">
+      <c r="C478" s="24"/>
+      <c r="D478" s="24"/>
+      <c r="E478" s="24"/>
+      <c r="F478" s="24"/>
+      <c r="G478" s="24"/>
+    </row>
+    <row r="479" spans="3:7">
+      <c r="C479" s="24"/>
+      <c r="D479" s="24"/>
+      <c r="E479" s="24"/>
+      <c r="F479" s="24"/>
+      <c r="G479" s="24"/>
     </row>
     <row r="480" spans="1:7">
-      <c r="A480" s="20"/>
-      <c r="C480" s="21"/>
-      <c r="D480" s="21"/>
-      <c r="E480" s="21"/>
-      <c r="F480" s="21"/>
-      <c r="G480" s="21"/>
+      <c r="A480" s="23"/>
+      <c r="C480" s="24"/>
+      <c r="D480" s="24"/>
+      <c r="E480" s="24"/>
+      <c r="F480" s="24"/>
+      <c r="G480" s="24"/>
     </row>
     <row r="481" spans="1:7">
-      <c r="A481" s="20"/>
-      <c r="C481" s="21"/>
-      <c r="D481" s="21"/>
-      <c r="E481" s="21"/>
-      <c r="F481" s="21"/>
-      <c r="G481" s="21"/>
+      <c r="A481" s="23"/>
+      <c r="C481" s="24"/>
+      <c r="D481" s="24"/>
+      <c r="E481" s="24"/>
+      <c r="F481" s="24"/>
+      <c r="G481" s="24"/>
     </row>
     <row r="482" spans="1:7">
-      <c r="A482" s="20"/>
-      <c r="C482" s="21"/>
-      <c r="D482" s="21"/>
-      <c r="E482" s="21"/>
-      <c r="F482" s="21"/>
-      <c r="G482" s="21"/>
+      <c r="A482" s="23"/>
+      <c r="C482" s="24"/>
+      <c r="D482" s="24"/>
+      <c r="E482" s="24"/>
+      <c r="F482" s="24"/>
+      <c r="G482" s="24"/>
     </row>
     <row r="483" spans="1:7">
-      <c r="A483" s="20"/>
-      <c r="C483" s="21"/>
-      <c r="D483" s="21"/>
-      <c r="E483" s="21"/>
-      <c r="F483" s="21"/>
-      <c r="G483" s="21"/>
+      <c r="A483" s="23"/>
+      <c r="C483" s="24"/>
+      <c r="D483" s="24"/>
+      <c r="E483" s="24"/>
+      <c r="F483" s="24"/>
+      <c r="G483" s="24"/>
     </row>
     <row r="484" spans="1:7">
-      <c r="A484" s="20"/>
-      <c r="C484" s="21"/>
-      <c r="D484" s="21"/>
-      <c r="E484" s="21"/>
-      <c r="F484" s="21"/>
-      <c r="G484" s="21"/>
-    </row>
-    <row r="485" spans="1:7">
-      <c r="C485" s="21"/>
-      <c r="D485" s="21"/>
-      <c r="E485" s="21"/>
-      <c r="F485" s="21"/>
-      <c r="G485" s="21"/>
+      <c r="A484" s="23"/>
+      <c r="C484" s="24"/>
+      <c r="D484" s="24"/>
+      <c r="E484" s="24"/>
+      <c r="F484" s="24"/>
+      <c r="G484" s="24"/>
+    </row>
+    <row r="485" spans="3:7">
+      <c r="C485" s="24"/>
+      <c r="D485" s="24"/>
+      <c r="E485" s="24"/>
+      <c r="F485" s="24"/>
+      <c r="G485" s="24"/>
     </row>
     <row r="486" spans="1:7">
-      <c r="A486" s="20"/>
-      <c r="C486" s="21"/>
-      <c r="D486" s="21"/>
-      <c r="E486" s="21"/>
-      <c r="F486" s="21"/>
-      <c r="G486" s="21"/>
+      <c r="A486" s="23"/>
+      <c r="C486" s="24"/>
+      <c r="D486" s="24"/>
+      <c r="E486" s="24"/>
+      <c r="F486" s="24"/>
+      <c r="G486" s="24"/>
     </row>
     <row r="487" spans="1:7">
-      <c r="A487" s="20"/>
-      <c r="C487" s="21"/>
-      <c r="D487" s="21"/>
-      <c r="E487" s="21"/>
-      <c r="F487" s="21"/>
-      <c r="G487" s="21"/>
+      <c r="A487" s="23"/>
+      <c r="C487" s="24"/>
+      <c r="D487" s="24"/>
+      <c r="E487" s="24"/>
+      <c r="F487" s="24"/>
+      <c r="G487" s="24"/>
     </row>
     <row r="488" spans="1:7">
-      <c r="A488" s="20"/>
-      <c r="C488" s="21"/>
-      <c r="D488" s="21"/>
-      <c r="E488" s="21"/>
-      <c r="F488" s="21"/>
-      <c r="G488" s="21"/>
-    </row>
-    <row r="489" spans="1:7">
-      <c r="C489" s="21"/>
-      <c r="D489" s="21"/>
-      <c r="E489" s="21"/>
-      <c r="F489" s="21"/>
-      <c r="G489" s="21"/>
-    </row>
-    <row r="490" spans="1:7">
-      <c r="C490" s="21"/>
-      <c r="D490" s="21"/>
-      <c r="E490" s="21"/>
-      <c r="F490" s="21"/>
-      <c r="G490" s="21"/>
-    </row>
-    <row r="491" spans="1:7">
-      <c r="C491" s="21"/>
-      <c r="D491" s="21"/>
-      <c r="E491" s="21"/>
-      <c r="F491" s="21"/>
-      <c r="G491" s="21"/>
-    </row>
-    <row r="492" spans="1:7">
-      <c r="E492" s="21"/>
-      <c r="F492" s="21"/>
-      <c r="G492" s="21"/>
-    </row>
-    <row r="502" spans="1:7">
-      <c r="C502" s="21"/>
-      <c r="D502" s="21"/>
-      <c r="E502" s="21"/>
-      <c r="F502" s="21"/>
-      <c r="G502" s="21"/>
-    </row>
-    <row r="503" spans="1:7">
-      <c r="C503" s="21"/>
-      <c r="D503" s="21"/>
-      <c r="E503" s="21"/>
-      <c r="F503" s="21"/>
-      <c r="G503" s="21"/>
+      <c r="A488" s="23"/>
+      <c r="C488" s="24"/>
+      <c r="D488" s="24"/>
+      <c r="E488" s="24"/>
+      <c r="F488" s="24"/>
+      <c r="G488" s="24"/>
+    </row>
+    <row r="489" spans="3:7">
+      <c r="C489" s="24"/>
+      <c r="D489" s="24"/>
+      <c r="E489" s="24"/>
+      <c r="F489" s="24"/>
+      <c r="G489" s="24"/>
+    </row>
+    <row r="490" spans="3:7">
+      <c r="C490" s="24"/>
+      <c r="D490" s="24"/>
+      <c r="E490" s="24"/>
+      <c r="F490" s="24"/>
+      <c r="G490" s="24"/>
+    </row>
+    <row r="491" spans="3:7">
+      <c r="C491" s="24"/>
+      <c r="D491" s="24"/>
+      <c r="E491" s="24"/>
+      <c r="F491" s="24"/>
+      <c r="G491" s="24"/>
+    </row>
+    <row r="492" spans="5:7">
+      <c r="E492" s="24"/>
+      <c r="F492" s="24"/>
+      <c r="G492" s="24"/>
+    </row>
+    <row r="502" spans="3:7">
+      <c r="C502" s="24"/>
+      <c r="D502" s="24"/>
+      <c r="E502" s="24"/>
+      <c r="F502" s="24"/>
+      <c r="G502" s="24"/>
+    </row>
+    <row r="503" spans="3:7">
+      <c r="C503" s="24"/>
+      <c r="D503" s="24"/>
+      <c r="E503" s="24"/>
+      <c r="F503" s="24"/>
+      <c r="G503" s="24"/>
     </row>
     <row r="504" spans="1:7">
-      <c r="A504" s="20"/>
-      <c r="C504" s="21"/>
-      <c r="D504" s="21"/>
-      <c r="E504" s="21"/>
-      <c r="F504" s="21"/>
-      <c r="G504" s="21"/>
+      <c r="A504" s="23"/>
+      <c r="C504" s="24"/>
+      <c r="D504" s="24"/>
+      <c r="E504" s="24"/>
+      <c r="F504" s="24"/>
+      <c r="G504" s="24"/>
     </row>
     <row r="505" spans="1:7">
-      <c r="A505" s="20"/>
-      <c r="C505" s="21"/>
-      <c r="D505" s="21"/>
-      <c r="E505" s="21"/>
-      <c r="F505" s="21"/>
-      <c r="G505" s="21"/>
-    </row>
-    <row r="506" spans="1:7">
-      <c r="C506" s="21"/>
-      <c r="D506" s="21"/>
-      <c r="E506" s="21"/>
-      <c r="F506" s="21"/>
-      <c r="G506" s="21"/>
+      <c r="A505" s="23"/>
+      <c r="C505" s="24"/>
+      <c r="D505" s="24"/>
+      <c r="E505" s="24"/>
+      <c r="F505" s="24"/>
+      <c r="G505" s="24"/>
+    </row>
+    <row r="506" spans="3:7">
+      <c r="C506" s="24"/>
+      <c r="D506" s="24"/>
+      <c r="E506" s="24"/>
+      <c r="F506" s="24"/>
+      <c r="G506" s="24"/>
     </row>
     <row r="507" spans="1:7">
-      <c r="A507" s="20"/>
-      <c r="C507" s="21"/>
-      <c r="D507" s="21"/>
-      <c r="E507" s="21"/>
-      <c r="F507" s="21"/>
-      <c r="G507" s="21"/>
+      <c r="A507" s="23"/>
+      <c r="C507" s="24"/>
+      <c r="D507" s="24"/>
+      <c r="E507" s="24"/>
+      <c r="F507" s="24"/>
+      <c r="G507" s="24"/>
     </row>
     <row r="508" spans="1:7">
-      <c r="A508" s="20"/>
-      <c r="C508" s="21"/>
-      <c r="D508" s="21"/>
-      <c r="E508" s="21"/>
-      <c r="F508" s="21"/>
-      <c r="G508" s="21"/>
-    </row>
-    <row r="509" spans="1:7">
-      <c r="C509" s="21"/>
-      <c r="D509" s="21"/>
-    </row>
-    <row r="510" spans="1:7">
-      <c r="C510" s="21"/>
-      <c r="D510" s="21"/>
-    </row>
-    <row r="511" spans="1:7">
-      <c r="C511" s="21"/>
-      <c r="D511" s="21"/>
-    </row>
-    <row r="512" spans="1:7">
-      <c r="C512" s="21"/>
-      <c r="D512" s="21"/>
-    </row>
-    <row r="513" spans="1:7">
-      <c r="C513" s="21"/>
-      <c r="D513" s="21"/>
-    </row>
-    <row r="514" spans="1:7">
-      <c r="C514" s="21"/>
-      <c r="D514" s="21"/>
-    </row>
-    <row r="515" spans="1:7">
-      <c r="C515" s="21"/>
-      <c r="D515" s="21"/>
-    </row>
-    <row r="516" spans="1:7">
-      <c r="C516" s="21"/>
-      <c r="D516" s="21"/>
-    </row>
-    <row r="517" spans="1:7">
-      <c r="C517" s="21"/>
-      <c r="D517" s="21"/>
-    </row>
-    <row r="518" spans="1:7">
-      <c r="A518" s="20"/>
-      <c r="C518" s="21"/>
-      <c r="D518" s="21"/>
-    </row>
-    <row r="519" spans="1:7">
-      <c r="C519" s="21"/>
-      <c r="D519" s="21"/>
-      <c r="E519" s="21"/>
-      <c r="F519" s="21"/>
-      <c r="G519" s="21"/>
-    </row>
-    <row r="520" spans="1:7">
-      <c r="C520" s="21"/>
-      <c r="D520" s="21"/>
-      <c r="E520" s="21"/>
-      <c r="F520" s="21"/>
-      <c r="G520" s="21"/>
-    </row>
-    <row r="521" spans="1:7">
-      <c r="A521" s="20"/>
-      <c r="C521" s="21"/>
-      <c r="D521" s="21"/>
+      <c r="A508" s="23"/>
+      <c r="C508" s="24"/>
+      <c r="D508" s="24"/>
+      <c r="E508" s="24"/>
+      <c r="F508" s="24"/>
+      <c r="G508" s="24"/>
+    </row>
+    <row r="509" spans="3:4">
+      <c r="C509" s="24"/>
+      <c r="D509" s="24"/>
+    </row>
+    <row r="510" spans="3:4">
+      <c r="C510" s="24"/>
+      <c r="D510" s="24"/>
+    </row>
+    <row r="511" spans="3:4">
+      <c r="C511" s="24"/>
+      <c r="D511" s="24"/>
+    </row>
+    <row r="512" spans="3:4">
+      <c r="C512" s="24"/>
+      <c r="D512" s="24"/>
+    </row>
+    <row r="513" spans="3:4">
+      <c r="C513" s="24"/>
+      <c r="D513" s="24"/>
+    </row>
+    <row r="514" spans="3:4">
+      <c r="C514" s="24"/>
+      <c r="D514" s="24"/>
+    </row>
+    <row r="515" spans="3:4">
+      <c r="C515" s="24"/>
+      <c r="D515" s="24"/>
+    </row>
+    <row r="516" spans="3:4">
+      <c r="C516" s="24"/>
+      <c r="D516" s="24"/>
+    </row>
+    <row r="517" spans="3:4">
+      <c r="C517" s="24"/>
+      <c r="D517" s="24"/>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="23"/>
+      <c r="C518" s="24"/>
+      <c r="D518" s="24"/>
+    </row>
+    <row r="519" spans="3:7">
+      <c r="C519" s="24"/>
+      <c r="D519" s="24"/>
+      <c r="E519" s="24"/>
+      <c r="F519" s="24"/>
+      <c r="G519" s="24"/>
+    </row>
+    <row r="520" spans="3:7">
+      <c r="C520" s="24"/>
+      <c r="D520" s="24"/>
+      <c r="E520" s="24"/>
+      <c r="F520" s="24"/>
+      <c r="G520" s="24"/>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="23"/>
+      <c r="C521" s="24"/>
+      <c r="D521" s="24"/>
     </row>
     <row r="532" spans="1:4">
-      <c r="A532" s="20"/>
-      <c r="C532" s="21"/>
-      <c r="D532" s="21"/>
+      <c r="A532" s="23"/>
+      <c r="C532" s="24"/>
+      <c r="D532" s="24"/>
     </row>
     <row r="533" spans="1:4">
-      <c r="A533" s="20"/>
-      <c r="C533" s="21"/>
-      <c r="D533" s="21"/>
-    </row>
-    <row r="534" spans="1:4">
-      <c r="C534" s="21"/>
-      <c r="D534" s="21"/>
-    </row>
-    <row r="535" spans="1:4">
-      <c r="C535" s="21"/>
-      <c r="D535" s="21"/>
-    </row>
-    <row r="536" spans="1:4">
-      <c r="C536" s="21"/>
-      <c r="D536" s="21"/>
-    </row>
-    <row r="537" spans="1:4">
-      <c r="A537" s="20"/>
-    </row>
-    <row r="538" spans="1:4">
-      <c r="A538" s="20"/>
-    </row>
-    <row r="544" spans="1:4">
+      <c r="A533" s="23"/>
+      <c r="C533" s="24"/>
+      <c r="D533" s="24"/>
+    </row>
+    <row r="534" spans="3:4">
+      <c r="C534" s="24"/>
+      <c r="D534" s="24"/>
+    </row>
+    <row r="535" spans="3:4">
+      <c r="C535" s="24"/>
+      <c r="D535" s="24"/>
+    </row>
+    <row r="536" spans="3:4">
+      <c r="C536" s="24"/>
+      <c r="D536" s="24"/>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" s="23"/>
+    </row>
+    <row r="538" spans="1:1">
+      <c r="A538" s="23"/>
+    </row>
+    <row r="544" spans="2:2">
       <c r="B544" s="7"/>
     </row>
-    <row r="545" spans="1:2">
+    <row r="545" spans="2:2">
       <c r="B545" s="7"/>
     </row>
-    <row r="546" spans="1:2">
+    <row r="546" spans="2:2">
       <c r="B546" s="7"/>
     </row>
-    <row r="547" spans="1:2">
+    <row r="547" spans="2:2">
       <c r="B547" s="7"/>
     </row>
-    <row r="548" spans="1:2">
+    <row r="548" spans="2:2">
       <c r="B548" s="7"/>
     </row>
-    <row r="549" spans="1:2">
+    <row r="549" spans="2:2">
       <c r="B549" s="7"/>
     </row>
-    <row r="550" spans="1:2">
+    <row r="550" spans="2:2">
       <c r="B550" s="7"/>
     </row>
-    <row r="551" spans="1:2">
+    <row r="551" spans="2:2">
       <c r="B551" s="7"/>
     </row>
-    <row r="553" spans="1:2">
+    <row r="553" spans="2:2">
       <c r="B553" s="7"/>
     </row>
-    <row r="556" spans="1:2">
-      <c r="A556" s="20"/>
-    </row>
-    <row r="560" spans="1:2">
-      <c r="A560" s="20"/>
-    </row>
-    <row r="561" spans="1:2">
-      <c r="A561" s="20"/>
-    </row>
-    <row r="562" spans="1:2">
-      <c r="A562" s="20"/>
+    <row r="556" spans="1:1">
+      <c r="A556" s="23"/>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" s="23"/>
+    </row>
+    <row r="561" spans="1:1">
+      <c r="A561" s="23"/>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" s="23"/>
     </row>
     <row r="566" spans="1:2">
-      <c r="A566" s="20"/>
-      <c r="B566" s="21"/>
-    </row>
-    <row r="567" spans="1:2">
-      <c r="A567" s="20"/>
-    </row>
-    <row r="569" spans="1:2">
-      <c r="A569" s="20"/>
-    </row>
-    <row r="570" spans="1:2">
-      <c r="A570" s="20"/>
-    </row>
-    <row r="571" spans="1:2">
-      <c r="A571" s="20"/>
-    </row>
-    <row r="572" spans="1:2">
-      <c r="A572" s="20"/>
+      <c r="A566" s="23"/>
+      <c r="B566" s="24"/>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" s="23"/>
+    </row>
+    <row r="569" spans="1:1">
+      <c r="A569" s="23"/>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" s="23"/>
+    </row>
+    <row r="571" spans="1:1">
+      <c r="A571" s="23"/>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" s="23"/>
     </row>
     <row r="580" spans="2:2">
-      <c r="B580" s="27"/>
+      <c r="B580" s="30"/>
     </row>
     <row r="608" spans="3:4">
-      <c r="C608" s="21"/>
-      <c r="D608" s="21"/>
+      <c r="C608" s="24"/>
+      <c r="D608" s="24"/>
     </row>
     <row r="618" spans="1:1">
-      <c r="A618" s="20"/>
+      <c r="A618" s="23"/>
     </row>
     <row r="619" spans="1:1">
-      <c r="A619" s="20"/>
+      <c r="A619" s="23"/>
     </row>
     <row r="717" spans="1:1">
-      <c r="A717" s="20"/>
+      <c r="A717" s="23"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="20"/>
+      <c r="A718" s="23"/>
     </row>
     <row r="720" spans="1:1">
-      <c r="A720" s="20"/>
+      <c r="A720" s="23"/>
     </row>
     <row r="721" spans="1:1">
-      <c r="A721" s="20"/>
+      <c r="A721" s="23"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="20"/>
+      <c r="A722" s="23"/>
     </row>
     <row r="838" spans="1:1">
-      <c r="A838" s="20"/>
+      <c r="A838" s="23"/>
     </row>
     <row r="842" spans="1:1">
-      <c r="A842" s="20"/>
+      <c r="A842" s="23"/>
     </row>
     <row r="843" spans="1:1">
-      <c r="A843" s="20"/>
+      <c r="A843" s="23"/>
     </row>
     <row r="844" spans="1:1">
-      <c r="A844" s="20"/>
+      <c r="A844" s="23"/>
     </row>
     <row r="845" spans="1:1">
-      <c r="A845" s="20"/>
+      <c r="A845" s="23"/>
     </row>
     <row r="846" spans="1:1">
-      <c r="A846" s="20"/>
+      <c r="A846" s="23"/>
     </row>
     <row r="847" spans="1:1">
-      <c r="A847" s="20"/>
+      <c r="A847" s="23"/>
     </row>
     <row r="848" spans="1:1">
-      <c r="A848" s="20"/>
-    </row>
-    <row r="849" spans="1:4">
-      <c r="A849" s="20"/>
-    </row>
-    <row r="850" spans="1:4">
-      <c r="A850" s="20"/>
-    </row>
-    <row r="851" spans="1:4">
-      <c r="A851" s="20"/>
-    </row>
-    <row r="852" spans="1:4">
-      <c r="A852" s="20"/>
-    </row>
-    <row r="853" spans="1:4">
-      <c r="B853" s="27"/>
-      <c r="C853" s="21"/>
-      <c r="D853" s="21"/>
-    </row>
-    <row r="854" spans="1:4">
-      <c r="C854" s="21"/>
-      <c r="D854" s="21"/>
-    </row>
-    <row r="855" spans="1:4">
-      <c r="C855" s="21"/>
-      <c r="D855" s="21"/>
+      <c r="A848" s="23"/>
+    </row>
+    <row r="849" spans="1:1">
+      <c r="A849" s="23"/>
+    </row>
+    <row r="850" spans="1:1">
+      <c r="A850" s="23"/>
+    </row>
+    <row r="851" spans="1:1">
+      <c r="A851" s="23"/>
+    </row>
+    <row r="852" spans="1:1">
+      <c r="A852" s="23"/>
+    </row>
+    <row r="853" spans="2:4">
+      <c r="B853" s="30"/>
+      <c r="C853" s="24"/>
+      <c r="D853" s="24"/>
+    </row>
+    <row r="854" spans="3:4">
+      <c r="C854" s="24"/>
+      <c r="D854" s="24"/>
+    </row>
+    <row r="855" spans="3:4">
+      <c r="C855" s="24"/>
+      <c r="D855" s="24"/>
     </row>
     <row r="872" spans="2:2">
       <c r="B872" s="7"/>
     </row>
     <row r="984" spans="1:1">
-      <c r="A984" s="20"/>
+      <c r="A984" s="23"/>
     </row>
     <row r="985" spans="1:1">
-      <c r="A985" s="20"/>
+      <c r="A985" s="23"/>
     </row>
     <row r="986" spans="1:1">
-      <c r="A986" s="20"/>
+      <c r="A986" s="23"/>
     </row>
     <row r="987" spans="1:1">
-      <c r="A987" s="20"/>
+      <c r="A987" s="23"/>
     </row>
     <row r="988" spans="1:1">
-      <c r="A988" s="20"/>
+      <c r="A988" s="23"/>
     </row>
     <row r="1055" spans="2:7">
       <c r="B1055" s="7"/>
@@ -5334,517 +6052,517 @@
       <c r="G1055" s="7"/>
     </row>
     <row r="1058" spans="1:1">
-      <c r="A1058" s="20"/>
+      <c r="A1058" s="23"/>
     </row>
     <row r="1059" spans="1:1">
-      <c r="A1059" s="20"/>
+      <c r="A1059" s="23"/>
     </row>
     <row r="1061" spans="1:1">
-      <c r="A1061" s="20"/>
+      <c r="A1061" s="23"/>
     </row>
     <row r="1154" spans="1:1">
-      <c r="A1154" s="20"/>
+      <c r="A1154" s="23"/>
     </row>
     <row r="1155" spans="1:1">
-      <c r="A1155" s="20"/>
+      <c r="A1155" s="23"/>
     </row>
     <row r="1156" spans="1:1">
-      <c r="A1156" s="20"/>
+      <c r="A1156" s="23"/>
     </row>
     <row r="1157" spans="1:1">
-      <c r="A1157" s="20"/>
+      <c r="A1157" s="23"/>
     </row>
     <row r="1158" spans="1:1">
-      <c r="A1158" s="20"/>
+      <c r="A1158" s="23"/>
     </row>
     <row r="1176" spans="1:1">
-      <c r="A1176" s="20"/>
+      <c r="A1176" s="23"/>
     </row>
     <row r="1177" spans="1:1">
-      <c r="A1177" s="20"/>
+      <c r="A1177" s="23"/>
     </row>
     <row r="1185" spans="3:7">
-      <c r="C1185" s="19"/>
-      <c r="D1185" s="19"/>
-      <c r="E1185" s="19"/>
-      <c r="F1185" s="19"/>
-      <c r="G1185" s="19"/>
+      <c r="C1185" s="22"/>
+      <c r="D1185" s="22"/>
+      <c r="E1185" s="22"/>
+      <c r="F1185" s="22"/>
+      <c r="G1185" s="22"/>
     </row>
     <row r="1229" spans="1:1">
-      <c r="A1229" s="20"/>
+      <c r="A1229" s="23"/>
     </row>
     <row r="1232" spans="1:1">
-      <c r="A1232" s="20"/>
+      <c r="A1232" s="23"/>
     </row>
     <row r="1233" spans="1:1">
-      <c r="A1233" s="20"/>
+      <c r="A1233" s="23"/>
     </row>
     <row r="1280" spans="1:1">
-      <c r="A1280" s="20"/>
+      <c r="A1280" s="23"/>
     </row>
     <row r="1296" spans="1:1">
-      <c r="A1296" s="20"/>
+      <c r="A1296" s="23"/>
     </row>
     <row r="1325" spans="1:1">
-      <c r="A1325" s="20"/>
-    </row>
-    <row r="1355" spans="1:7">
-      <c r="A1355" s="20"/>
-    </row>
-    <row r="1358" spans="1:7">
-      <c r="C1358" s="19"/>
-      <c r="D1358" s="19"/>
-      <c r="E1358" s="19"/>
-      <c r="F1358" s="19"/>
-      <c r="G1358" s="19"/>
-    </row>
-    <row r="1360" spans="1:7">
-      <c r="B1360" s="28"/>
+      <c r="A1325" s="23"/>
+    </row>
+    <row r="1355" spans="1:1">
+      <c r="A1355" s="23"/>
+    </row>
+    <row r="1358" spans="3:7">
+      <c r="C1358" s="22"/>
+      <c r="D1358" s="22"/>
+      <c r="E1358" s="22"/>
+      <c r="F1358" s="22"/>
+      <c r="G1358" s="22"/>
+    </row>
+    <row r="1360" spans="2:2">
+      <c r="B1360" s="31"/>
     </row>
     <row r="1389" spans="1:1">
-      <c r="A1389" s="20"/>
+      <c r="A1389" s="23"/>
     </row>
     <row r="1390" spans="1:1">
-      <c r="A1390" s="20"/>
+      <c r="A1390" s="23"/>
     </row>
     <row r="1391" spans="1:1">
-      <c r="A1391" s="20"/>
+      <c r="A1391" s="23"/>
     </row>
     <row r="1392" spans="1:1">
-      <c r="A1392" s="20"/>
+      <c r="A1392" s="23"/>
     </row>
     <row r="1393" spans="1:1">
-      <c r="A1393" s="20"/>
+      <c r="A1393" s="23"/>
     </row>
     <row r="1397" spans="1:1">
-      <c r="A1397" s="20"/>
+      <c r="A1397" s="23"/>
     </row>
     <row r="1405" spans="1:1">
-      <c r="A1405" s="22"/>
+      <c r="A1405" s="25"/>
     </row>
     <row r="1406" spans="1:1">
-      <c r="A1406" s="22"/>
+      <c r="A1406" s="25"/>
     </row>
     <row r="1407" spans="1:1">
-      <c r="A1407" s="22"/>
+      <c r="A1407" s="25"/>
     </row>
     <row r="1408" spans="1:1">
-      <c r="A1408" s="22"/>
+      <c r="A1408" s="25"/>
     </row>
     <row r="1409" spans="1:1">
-      <c r="A1409" s="22"/>
+      <c r="A1409" s="25"/>
     </row>
     <row r="1414" spans="1:1">
-      <c r="A1414" s="22"/>
+      <c r="A1414" s="25"/>
     </row>
     <row r="1415" spans="1:1">
-      <c r="A1415" s="22"/>
+      <c r="A1415" s="25"/>
     </row>
     <row r="1416" spans="1:1">
-      <c r="A1416" s="22"/>
+      <c r="A1416" s="25"/>
     </row>
     <row r="1417" spans="1:1">
-      <c r="A1417" s="22"/>
+      <c r="A1417" s="25"/>
     </row>
     <row r="1418" spans="1:1">
-      <c r="A1418" s="22"/>
+      <c r="A1418" s="25"/>
     </row>
     <row r="1419" spans="1:1">
-      <c r="A1419" s="22"/>
+      <c r="A1419" s="25"/>
     </row>
     <row r="1420" spans="1:1">
-      <c r="A1420" s="22"/>
+      <c r="A1420" s="25"/>
     </row>
     <row r="1421" spans="1:1">
-      <c r="A1421" s="22"/>
+      <c r="A1421" s="25"/>
     </row>
     <row r="1422" spans="1:1">
-      <c r="A1422" s="22"/>
+      <c r="A1422" s="25"/>
     </row>
     <row r="1423" spans="1:1">
-      <c r="A1423" s="22"/>
+      <c r="A1423" s="25"/>
     </row>
     <row r="1424" spans="1:1">
-      <c r="A1424" s="22"/>
+      <c r="A1424" s="25"/>
     </row>
     <row r="1425" spans="1:1">
-      <c r="A1425" s="22"/>
+      <c r="A1425" s="25"/>
     </row>
     <row r="1429" spans="1:1">
-      <c r="A1429" s="20"/>
+      <c r="A1429" s="23"/>
     </row>
     <row r="1430" spans="1:1">
-      <c r="A1430" s="20"/>
+      <c r="A1430" s="23"/>
     </row>
     <row r="1431" spans="1:1">
-      <c r="A1431" s="20"/>
+      <c r="A1431" s="23"/>
     </row>
     <row r="1433" spans="1:1">
-      <c r="A1433" s="20"/>
+      <c r="A1433" s="23"/>
     </row>
     <row r="1434" spans="1:1">
-      <c r="A1434" s="20"/>
+      <c r="A1434" s="23"/>
     </row>
     <row r="1435" spans="1:1">
-      <c r="A1435" s="20"/>
+      <c r="A1435" s="23"/>
     </row>
     <row r="1436" spans="1:1">
-      <c r="A1436" s="20"/>
+      <c r="A1436" s="23"/>
     </row>
     <row r="1437" spans="1:1">
-      <c r="A1437" s="20"/>
+      <c r="A1437" s="23"/>
     </row>
     <row r="1438" spans="1:1">
-      <c r="A1438" s="20"/>
+      <c r="A1438" s="23"/>
     </row>
     <row r="1439" spans="1:1">
-      <c r="A1439" s="20"/>
+      <c r="A1439" s="23"/>
     </row>
     <row r="1440" spans="1:1">
-      <c r="A1440" s="20"/>
+      <c r="A1440" s="23"/>
     </row>
     <row r="1441" spans="1:1">
-      <c r="A1441" s="20"/>
+      <c r="A1441" s="23"/>
     </row>
     <row r="1442" spans="1:1">
-      <c r="A1442" s="20"/>
+      <c r="A1442" s="23"/>
     </row>
     <row r="1443" spans="1:1">
-      <c r="A1443" s="20"/>
+      <c r="A1443" s="23"/>
     </row>
     <row r="1444" spans="1:1">
-      <c r="A1444" s="20"/>
+      <c r="A1444" s="23"/>
     </row>
     <row r="1445" spans="1:1">
-      <c r="A1445" s="20"/>
+      <c r="A1445" s="23"/>
     </row>
     <row r="1446" spans="1:1">
-      <c r="A1446" s="20"/>
+      <c r="A1446" s="23"/>
     </row>
     <row r="1447" spans="1:1">
-      <c r="A1447" s="20"/>
+      <c r="A1447" s="23"/>
     </row>
     <row r="1448" spans="1:1">
-      <c r="A1448" s="20"/>
+      <c r="A1448" s="23"/>
     </row>
     <row r="1452" spans="1:1">
-      <c r="A1452" s="20"/>
+      <c r="A1452" s="23"/>
     </row>
     <row r="1459" spans="1:1">
-      <c r="A1459" s="20"/>
+      <c r="A1459" s="23"/>
     </row>
     <row r="1460" spans="1:1">
-      <c r="A1460" s="20"/>
+      <c r="A1460" s="23"/>
     </row>
     <row r="1461" spans="1:1">
-      <c r="A1461" s="20"/>
+      <c r="A1461" s="23"/>
     </row>
     <row r="1462" spans="1:1">
-      <c r="A1462" s="20"/>
+      <c r="A1462" s="23"/>
     </row>
     <row r="1463" spans="1:1">
-      <c r="A1463" s="20"/>
+      <c r="A1463" s="23"/>
     </row>
     <row r="1464" spans="1:1">
-      <c r="A1464" s="20"/>
+      <c r="A1464" s="23"/>
     </row>
     <row r="1465" spans="1:1">
-      <c r="A1465" s="20"/>
+      <c r="A1465" s="23"/>
     </row>
     <row r="1466" spans="1:1">
-      <c r="A1466" s="20"/>
+      <c r="A1466" s="23"/>
     </row>
     <row r="1467" spans="1:1">
-      <c r="A1467" s="20"/>
+      <c r="A1467" s="23"/>
     </row>
     <row r="1468" spans="1:1">
-      <c r="A1468" s="20"/>
+      <c r="A1468" s="23"/>
     </row>
     <row r="1469" spans="1:1">
-      <c r="A1469" s="20"/>
+      <c r="A1469" s="23"/>
     </row>
     <row r="1471" spans="1:1">
-      <c r="A1471" s="20"/>
+      <c r="A1471" s="23"/>
     </row>
     <row r="1477" spans="2:2">
-      <c r="B1477" s="21"/>
+      <c r="B1477" s="24"/>
     </row>
     <row r="1479" spans="2:2">
-      <c r="B1479" s="21"/>
+      <c r="B1479" s="24"/>
     </row>
     <row r="1481" spans="2:2">
-      <c r="B1481" s="21"/>
+      <c r="B1481" s="24"/>
     </row>
     <row r="1495" spans="2:2">
-      <c r="B1495" s="21"/>
+      <c r="B1495" s="24"/>
     </row>
     <row r="1497" spans="2:2">
-      <c r="B1497" s="21"/>
+      <c r="B1497" s="24"/>
     </row>
     <row r="1500" spans="2:2">
-      <c r="B1500" s="21"/>
+      <c r="B1500" s="24"/>
     </row>
     <row r="1501" spans="2:2">
-      <c r="B1501" s="21"/>
+      <c r="B1501" s="24"/>
     </row>
     <row r="1506" spans="2:2">
-      <c r="B1506" s="21"/>
+      <c r="B1506" s="24"/>
     </row>
     <row r="1507" spans="2:2">
-      <c r="B1507" s="21"/>
+      <c r="B1507" s="24"/>
     </row>
     <row r="1510" spans="2:2">
-      <c r="B1510" s="21"/>
+      <c r="B1510" s="24"/>
     </row>
     <row r="1511" spans="2:2">
-      <c r="B1511" s="21"/>
-    </row>
-    <row r="1622" spans="1:7">
-      <c r="C1622" s="19"/>
-      <c r="D1622" s="19"/>
-      <c r="E1622" s="19"/>
-      <c r="F1622" s="19"/>
-      <c r="G1622" s="19"/>
-    </row>
-    <row r="1623" spans="1:7">
-      <c r="C1623" s="19"/>
-      <c r="D1623" s="19"/>
-      <c r="E1623" s="19"/>
-      <c r="F1623" s="19"/>
-      <c r="G1623" s="19"/>
-    </row>
-    <row r="1624" spans="1:7">
-      <c r="C1624" s="19"/>
-      <c r="D1624" s="19"/>
-      <c r="E1624" s="19"/>
-      <c r="F1624" s="19"/>
-      <c r="G1624" s="19"/>
-    </row>
-    <row r="1625" spans="1:7">
-      <c r="C1625" s="19"/>
-      <c r="D1625" s="19"/>
-      <c r="E1625" s="19"/>
-      <c r="F1625" s="19"/>
-      <c r="G1625" s="19"/>
-    </row>
-    <row r="1626" spans="1:7">
-      <c r="C1626" s="19"/>
-      <c r="D1626" s="19"/>
-      <c r="E1626" s="19"/>
-      <c r="F1626" s="19"/>
-      <c r="G1626" s="19"/>
-    </row>
-    <row r="1627" spans="1:7">
-      <c r="C1627" s="19"/>
-      <c r="D1627" s="19"/>
-      <c r="E1627" s="19"/>
-      <c r="F1627" s="19"/>
-      <c r="G1627" s="19"/>
-    </row>
-    <row r="1628" spans="1:7">
-      <c r="C1628" s="19"/>
-      <c r="D1628" s="19"/>
-      <c r="E1628" s="19"/>
-      <c r="F1628" s="19"/>
-      <c r="G1628" s="19"/>
-    </row>
-    <row r="1629" spans="1:7">
-      <c r="C1629" s="19"/>
-      <c r="D1629" s="19"/>
-      <c r="E1629" s="19"/>
-      <c r="F1629" s="19"/>
-      <c r="G1629" s="19"/>
-    </row>
-    <row r="1630" spans="1:7">
-      <c r="C1630" s="19"/>
-      <c r="D1630" s="19"/>
-      <c r="E1630" s="19"/>
-      <c r="F1630" s="19"/>
-      <c r="G1630" s="19"/>
-    </row>
-    <row r="1632" spans="1:7">
-      <c r="A1632" s="20"/>
+      <c r="B1511" s="24"/>
+    </row>
+    <row r="1622" spans="3:7">
+      <c r="C1622" s="22"/>
+      <c r="D1622" s="22"/>
+      <c r="E1622" s="22"/>
+      <c r="F1622" s="22"/>
+      <c r="G1622" s="22"/>
+    </row>
+    <row r="1623" spans="3:7">
+      <c r="C1623" s="22"/>
+      <c r="D1623" s="22"/>
+      <c r="E1623" s="22"/>
+      <c r="F1623" s="22"/>
+      <c r="G1623" s="22"/>
+    </row>
+    <row r="1624" spans="3:7">
+      <c r="C1624" s="22"/>
+      <c r="D1624" s="22"/>
+      <c r="E1624" s="22"/>
+      <c r="F1624" s="22"/>
+      <c r="G1624" s="22"/>
+    </row>
+    <row r="1625" spans="3:7">
+      <c r="C1625" s="22"/>
+      <c r="D1625" s="22"/>
+      <c r="E1625" s="22"/>
+      <c r="F1625" s="22"/>
+      <c r="G1625" s="22"/>
+    </row>
+    <row r="1626" spans="3:7">
+      <c r="C1626" s="22"/>
+      <c r="D1626" s="22"/>
+      <c r="E1626" s="22"/>
+      <c r="F1626" s="22"/>
+      <c r="G1626" s="22"/>
+    </row>
+    <row r="1627" spans="3:7">
+      <c r="C1627" s="22"/>
+      <c r="D1627" s="22"/>
+      <c r="E1627" s="22"/>
+      <c r="F1627" s="22"/>
+      <c r="G1627" s="22"/>
+    </row>
+    <row r="1628" spans="3:7">
+      <c r="C1628" s="22"/>
+      <c r="D1628" s="22"/>
+      <c r="E1628" s="22"/>
+      <c r="F1628" s="22"/>
+      <c r="G1628" s="22"/>
+    </row>
+    <row r="1629" spans="3:7">
+      <c r="C1629" s="22"/>
+      <c r="D1629" s="22"/>
+      <c r="E1629" s="22"/>
+      <c r="F1629" s="22"/>
+      <c r="G1629" s="22"/>
+    </row>
+    <row r="1630" spans="3:7">
+      <c r="C1630" s="22"/>
+      <c r="D1630" s="22"/>
+      <c r="E1630" s="22"/>
+      <c r="F1630" s="22"/>
+      <c r="G1630" s="22"/>
+    </row>
+    <row r="1632" spans="1:1">
+      <c r="A1632" s="23"/>
     </row>
     <row r="1633" spans="1:1">
-      <c r="A1633" s="20"/>
+      <c r="A1633" s="23"/>
     </row>
     <row r="1634" spans="1:1">
-      <c r="A1634" s="20"/>
+      <c r="A1634" s="23"/>
     </row>
     <row r="1635" spans="1:1">
-      <c r="A1635" s="20"/>
+      <c r="A1635" s="23"/>
     </row>
     <row r="1636" spans="1:1">
-      <c r="A1636" s="20"/>
+      <c r="A1636" s="23"/>
     </row>
     <row r="1637" spans="1:1">
-      <c r="A1637" s="20"/>
+      <c r="A1637" s="23"/>
     </row>
     <row r="1726" spans="1:1">
-      <c r="A1726" s="20"/>
+      <c r="A1726" s="23"/>
     </row>
     <row r="1727" spans="1:1">
-      <c r="A1727" s="20"/>
+      <c r="A1727" s="23"/>
     </row>
     <row r="1728" spans="1:1">
-      <c r="A1728" s="20"/>
+      <c r="A1728" s="23"/>
     </row>
     <row r="1729" spans="1:1">
-      <c r="A1729" s="20"/>
+      <c r="A1729" s="23"/>
     </row>
     <row r="1730" spans="1:1">
-      <c r="A1730" s="20"/>
+      <c r="A1730" s="23"/>
     </row>
     <row r="1738" spans="1:1">
-      <c r="A1738" s="20"/>
+      <c r="A1738" s="23"/>
     </row>
     <row r="1739" spans="1:1">
-      <c r="A1739" s="20"/>
+      <c r="A1739" s="23"/>
     </row>
     <row r="1741" spans="1:1">
-      <c r="A1741" s="20"/>
+      <c r="A1741" s="23"/>
     </row>
     <row r="1752" spans="1:1">
-      <c r="A1752" s="20"/>
+      <c r="A1752" s="23"/>
     </row>
     <row r="1777" spans="1:1">
-      <c r="A1777" s="20"/>
+      <c r="A1777" s="23"/>
     </row>
     <row r="1778" spans="1:1">
-      <c r="A1778" s="20"/>
+      <c r="A1778" s="23"/>
     </row>
     <row r="1789" spans="1:1">
-      <c r="A1789" s="20"/>
+      <c r="A1789" s="23"/>
     </row>
     <row r="1790" spans="1:1">
-      <c r="A1790" s="20"/>
+      <c r="A1790" s="23"/>
     </row>
     <row r="1791" spans="1:1">
-      <c r="A1791" s="20"/>
+      <c r="A1791" s="23"/>
     </row>
     <row r="1792" spans="1:1">
-      <c r="A1792" s="20"/>
-    </row>
-    <row r="1793" spans="1:2">
-      <c r="A1793" s="20"/>
-    </row>
-    <row r="1794" spans="1:2">
-      <c r="A1794" s="20"/>
-    </row>
-    <row r="1795" spans="1:2">
-      <c r="A1795" s="20"/>
-    </row>
-    <row r="1796" spans="1:2">
-      <c r="A1796" s="20"/>
-    </row>
-    <row r="1798" spans="1:2">
+      <c r="A1792" s="23"/>
+    </row>
+    <row r="1793" spans="1:1">
+      <c r="A1793" s="23"/>
+    </row>
+    <row r="1794" spans="1:1">
+      <c r="A1794" s="23"/>
+    </row>
+    <row r="1795" spans="1:1">
+      <c r="A1795" s="23"/>
+    </row>
+    <row r="1796" spans="1:1">
+      <c r="A1796" s="23"/>
+    </row>
+    <row r="1798" spans="2:2">
       <c r="B1798" s="13"/>
     </row>
-    <row r="1800" spans="1:2">
-      <c r="A1800" s="20"/>
-    </row>
-    <row r="1801" spans="1:2">
-      <c r="A1801" s="20"/>
-    </row>
-    <row r="1803" spans="1:2">
-      <c r="A1803" s="20"/>
-    </row>
-    <row r="1804" spans="1:2">
-      <c r="A1804" s="20"/>
-    </row>
-    <row r="1805" spans="1:2">
-      <c r="A1805" s="20"/>
-    </row>
-    <row r="1806" spans="1:2">
-      <c r="A1806" s="20"/>
-    </row>
-    <row r="1807" spans="1:2">
-      <c r="A1807" s="20"/>
-    </row>
-    <row r="1808" spans="1:2">
-      <c r="A1808" s="20"/>
+    <row r="1800" spans="1:1">
+      <c r="A1800" s="23"/>
+    </row>
+    <row r="1801" spans="1:1">
+      <c r="A1801" s="23"/>
+    </row>
+    <row r="1803" spans="1:1">
+      <c r="A1803" s="23"/>
+    </row>
+    <row r="1804" spans="1:1">
+      <c r="A1804" s="23"/>
+    </row>
+    <row r="1805" spans="1:1">
+      <c r="A1805" s="23"/>
+    </row>
+    <row r="1806" spans="1:1">
+      <c r="A1806" s="23"/>
+    </row>
+    <row r="1807" spans="1:1">
+      <c r="A1807" s="23"/>
+    </row>
+    <row r="1808" spans="1:1">
+      <c r="A1808" s="23"/>
     </row>
     <row r="1809" spans="1:1">
-      <c r="A1809" s="20"/>
+      <c r="A1809" s="23"/>
     </row>
     <row r="1810" spans="1:1">
-      <c r="A1810" s="20"/>
+      <c r="A1810" s="23"/>
     </row>
     <row r="1811" spans="1:1">
-      <c r="A1811" s="20"/>
+      <c r="A1811" s="23"/>
     </row>
     <row r="1847" spans="1:1">
-      <c r="A1847" s="20"/>
+      <c r="A1847" s="23"/>
     </row>
     <row r="1851" spans="1:1">
-      <c r="A1851" s="20"/>
+      <c r="A1851" s="23"/>
     </row>
     <row r="1854" spans="1:1">
-      <c r="A1854" s="20"/>
+      <c r="A1854" s="23"/>
     </row>
     <row r="1888" spans="1:1">
-      <c r="A1888" s="20"/>
+      <c r="A1888" s="23"/>
     </row>
     <row r="1896" spans="1:1">
-      <c r="A1896" s="20"/>
+      <c r="A1896" s="23"/>
     </row>
     <row r="1897" spans="1:1">
-      <c r="A1897" s="20"/>
+      <c r="A1897" s="23"/>
     </row>
     <row r="1898" spans="1:1">
-      <c r="A1898" s="20"/>
+      <c r="A1898" s="23"/>
     </row>
     <row r="1900" spans="1:1">
-      <c r="A1900" s="20"/>
+      <c r="A1900" s="23"/>
     </row>
     <row r="1905" spans="1:1">
-      <c r="A1905" s="20"/>
+      <c r="A1905" s="23"/>
     </row>
     <row r="1914" spans="1:1">
-      <c r="A1914" s="20"/>
+      <c r="A1914" s="23"/>
     </row>
     <row r="1915" spans="1:1">
-      <c r="A1915" s="20"/>
+      <c r="A1915" s="23"/>
     </row>
     <row r="1916" spans="1:1">
-      <c r="A1916" s="20"/>
+      <c r="A1916" s="23"/>
     </row>
     <row r="1917" spans="1:1">
-      <c r="A1917" s="20"/>
+      <c r="A1917" s="23"/>
     </row>
     <row r="1918" spans="1:1">
-      <c r="A1918" s="20"/>
+      <c r="A1918" s="23"/>
     </row>
     <row r="1919" spans="1:1">
-      <c r="A1919" s="20"/>
+      <c r="A1919" s="23"/>
     </row>
     <row r="1920" spans="1:1">
-      <c r="A1920" s="20"/>
-    </row>
-    <row r="1921" spans="1:7">
-      <c r="A1921" s="20"/>
-    </row>
-    <row r="1928" spans="1:7">
+      <c r="A1920" s="23"/>
+    </row>
+    <row r="1921" spans="1:1">
+      <c r="A1921" s="23"/>
+    </row>
+    <row r="1928" spans="5:7">
       <c r="E1928" s="7"/>
       <c r="F1928" s="7"/>
       <c r="G1928" s="7"/>
     </row>
-    <row r="1929" spans="1:7">
+    <row r="1929" spans="5:7">
       <c r="E1929" s="7"/>
       <c r="F1929" s="7"/>
       <c r="G1929" s="7"/>
     </row>
-    <row r="1930" spans="1:7">
+    <row r="1930" spans="5:7">
       <c r="E1930" s="7"/>
       <c r="F1930" s="7"/>
       <c r="G1930" s="7"/>
     </row>
-    <row r="1931" spans="1:7">
+    <row r="1931" spans="5:7">
       <c r="E1931" s="7"/>
       <c r="F1931" s="7"/>
       <c r="G1931" s="7"/>
     </row>
-    <row r="1932" spans="1:7">
+    <row r="1932" spans="5:7">
       <c r="E1932" s="7"/>
       <c r="F1932" s="7"/>
       <c r="G1932" s="7"/>
@@ -5870,1283 +6588,1283 @@
       <c r="G1943" s="7"/>
     </row>
     <row r="1960" spans="1:1">
-      <c r="A1960" s="20"/>
+      <c r="A1960" s="23"/>
     </row>
     <row r="1961" spans="1:1">
-      <c r="A1961" s="20"/>
+      <c r="A1961" s="23"/>
     </row>
     <row r="1962" spans="1:1">
-      <c r="A1962" s="20"/>
+      <c r="A1962" s="23"/>
     </row>
     <row r="1963" spans="1:1">
-      <c r="A1963" s="20"/>
+      <c r="A1963" s="23"/>
     </row>
     <row r="1965" spans="1:1">
-      <c r="A1965" s="20"/>
+      <c r="A1965" s="23"/>
     </row>
     <row r="1966" spans="1:1">
-      <c r="A1966" s="20"/>
+      <c r="A1966" s="23"/>
     </row>
     <row r="1967" spans="1:1">
-      <c r="A1967" s="20"/>
+      <c r="A1967" s="23"/>
     </row>
     <row r="1968" spans="1:1">
-      <c r="A1968" s="20"/>
+      <c r="A1968" s="23"/>
     </row>
     <row r="1969" spans="1:1">
-      <c r="A1969" s="20"/>
+      <c r="A1969" s="23"/>
     </row>
     <row r="1972" spans="1:1">
-      <c r="A1972" s="20"/>
+      <c r="A1972" s="23"/>
     </row>
     <row r="1973" spans="1:1">
-      <c r="A1973" s="20"/>
+      <c r="A1973" s="23"/>
     </row>
     <row r="1974" spans="1:1">
-      <c r="A1974" s="20"/>
+      <c r="A1974" s="23"/>
     </row>
     <row r="1975" spans="1:1">
-      <c r="A1975" s="20"/>
+      <c r="A1975" s="23"/>
     </row>
     <row r="1976" spans="1:1">
-      <c r="A1976" s="20"/>
+      <c r="A1976" s="23"/>
     </row>
     <row r="1978" spans="1:1">
-      <c r="A1978" s="20"/>
+      <c r="A1978" s="23"/>
     </row>
     <row r="1979" spans="1:1">
-      <c r="A1979" s="20"/>
+      <c r="A1979" s="23"/>
     </row>
     <row r="1980" spans="1:1">
-      <c r="A1980" s="20"/>
+      <c r="A1980" s="23"/>
     </row>
     <row r="1981" spans="1:1">
-      <c r="A1981" s="20"/>
+      <c r="A1981" s="23"/>
     </row>
     <row r="1982" spans="1:1">
-      <c r="A1982" s="20"/>
+      <c r="A1982" s="23"/>
     </row>
     <row r="1983" spans="1:1">
-      <c r="A1983" s="20"/>
+      <c r="A1983" s="23"/>
     </row>
     <row r="1984" spans="1:1">
-      <c r="A1984" s="20"/>
+      <c r="A1984" s="23"/>
     </row>
     <row r="1985" spans="1:1">
-      <c r="A1985" s="20"/>
+      <c r="A1985" s="23"/>
     </row>
     <row r="1986" spans="1:1">
-      <c r="A1986" s="20"/>
+      <c r="A1986" s="23"/>
     </row>
     <row r="1987" spans="1:1">
-      <c r="A1987" s="20"/>
+      <c r="A1987" s="23"/>
     </row>
     <row r="1988" spans="1:1">
-      <c r="A1988" s="20"/>
+      <c r="A1988" s="23"/>
     </row>
     <row r="1989" spans="1:1">
-      <c r="A1989" s="20"/>
+      <c r="A1989" s="23"/>
     </row>
     <row r="1990" spans="1:1">
-      <c r="A1990" s="20"/>
+      <c r="A1990" s="23"/>
     </row>
     <row r="1991" spans="1:1">
-      <c r="A1991" s="20"/>
+      <c r="A1991" s="23"/>
     </row>
     <row r="1992" spans="1:1">
-      <c r="A1992" s="20"/>
+      <c r="A1992" s="23"/>
     </row>
     <row r="1993" spans="1:1">
-      <c r="A1993" s="20"/>
+      <c r="A1993" s="23"/>
     </row>
     <row r="1994" spans="1:1">
-      <c r="A1994" s="20"/>
+      <c r="A1994" s="23"/>
     </row>
     <row r="1995" spans="1:1">
-      <c r="A1995" s="20"/>
+      <c r="A1995" s="23"/>
     </row>
     <row r="1996" spans="1:1">
-      <c r="A1996" s="20"/>
+      <c r="A1996" s="23"/>
     </row>
     <row r="1997" spans="1:1">
-      <c r="A1997" s="20"/>
+      <c r="A1997" s="23"/>
     </row>
     <row r="1998" spans="1:1">
-      <c r="A1998" s="20"/>
+      <c r="A1998" s="23"/>
     </row>
     <row r="1999" spans="1:1">
-      <c r="A1999" s="20"/>
+      <c r="A1999" s="23"/>
     </row>
     <row r="2000" spans="1:1">
-      <c r="A2000" s="20"/>
+      <c r="A2000" s="23"/>
     </row>
     <row r="2001" spans="1:1">
-      <c r="A2001" s="20"/>
+      <c r="A2001" s="23"/>
     </row>
     <row r="2002" spans="1:1">
-      <c r="A2002" s="20"/>
+      <c r="A2002" s="23"/>
     </row>
     <row r="2003" spans="1:1">
-      <c r="A2003" s="20"/>
+      <c r="A2003" s="23"/>
     </row>
     <row r="2004" spans="1:1">
-      <c r="A2004" s="20"/>
+      <c r="A2004" s="23"/>
     </row>
     <row r="2005" spans="1:1">
-      <c r="A2005" s="20"/>
+      <c r="A2005" s="23"/>
     </row>
     <row r="2006" spans="1:1">
-      <c r="A2006" s="20"/>
+      <c r="A2006" s="23"/>
     </row>
     <row r="2007" spans="1:1">
-      <c r="A2007" s="20"/>
+      <c r="A2007" s="23"/>
     </row>
     <row r="2008" spans="1:1">
-      <c r="A2008" s="20"/>
+      <c r="A2008" s="23"/>
     </row>
     <row r="2009" spans="1:1">
-      <c r="A2009" s="20"/>
+      <c r="A2009" s="23"/>
     </row>
     <row r="2010" spans="1:1">
-      <c r="A2010" s="20"/>
+      <c r="A2010" s="23"/>
     </row>
     <row r="2011" spans="1:1">
-      <c r="A2011" s="20"/>
+      <c r="A2011" s="23"/>
     </row>
     <row r="2012" spans="1:1">
-      <c r="A2012" s="20"/>
+      <c r="A2012" s="23"/>
     </row>
     <row r="2013" spans="1:1">
-      <c r="A2013" s="20"/>
+      <c r="A2013" s="23"/>
     </row>
     <row r="2014" spans="1:1">
-      <c r="A2014" s="20"/>
+      <c r="A2014" s="23"/>
     </row>
     <row r="2015" spans="1:1">
-      <c r="A2015" s="20"/>
+      <c r="A2015" s="23"/>
     </row>
     <row r="2016" spans="1:1">
-      <c r="A2016" s="20"/>
+      <c r="A2016" s="23"/>
     </row>
     <row r="2017" spans="1:1">
-      <c r="A2017" s="20"/>
+      <c r="A2017" s="23"/>
     </row>
     <row r="2018" spans="1:1">
-      <c r="A2018" s="20"/>
+      <c r="A2018" s="23"/>
     </row>
     <row r="2019" spans="1:1">
-      <c r="A2019" s="20"/>
+      <c r="A2019" s="23"/>
     </row>
     <row r="2049" spans="1:1">
-      <c r="A2049" s="20"/>
+      <c r="A2049" s="23"/>
     </row>
     <row r="2052" spans="1:1">
-      <c r="A2052" s="20"/>
+      <c r="A2052" s="23"/>
     </row>
     <row r="2094" spans="1:1">
-      <c r="A2094" s="20"/>
+      <c r="A2094" s="23"/>
     </row>
     <row r="2095" spans="1:1">
-      <c r="A2095" s="20"/>
+      <c r="A2095" s="23"/>
     </row>
     <row r="2151" spans="1:1">
-      <c r="A2151" s="20"/>
+      <c r="A2151" s="23"/>
     </row>
     <row r="2157" spans="1:1">
-      <c r="A2157" s="20"/>
+      <c r="A2157" s="23"/>
     </row>
     <row r="2158" spans="1:1">
-      <c r="A2158" s="20"/>
+      <c r="A2158" s="23"/>
     </row>
     <row r="2159" spans="1:1">
-      <c r="A2159" s="20"/>
+      <c r="A2159" s="23"/>
     </row>
     <row r="2160" spans="1:1">
-      <c r="A2160" s="20"/>
-    </row>
-    <row r="2164" spans="1:2">
-      <c r="A2164" s="20"/>
-    </row>
-    <row r="2165" spans="1:2">
-      <c r="A2165" s="20"/>
-    </row>
-    <row r="2166" spans="1:2">
-      <c r="A2166" s="20"/>
-    </row>
-    <row r="2168" spans="1:2">
-      <c r="A2168" s="20"/>
-    </row>
-    <row r="2172" spans="1:2">
-      <c r="B2172" s="21"/>
-    </row>
-    <row r="2173" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A2173" s="20"/>
-    </row>
-    <row r="2174" spans="1:2">
-      <c r="A2174" s="20"/>
-    </row>
-    <row r="2175" spans="1:2">
-      <c r="A2175" s="20"/>
-    </row>
-    <row r="2176" spans="1:2">
-      <c r="A2176" s="20"/>
+      <c r="A2160" s="23"/>
+    </row>
+    <row r="2164" spans="1:1">
+      <c r="A2164" s="23"/>
+    </row>
+    <row r="2165" spans="1:1">
+      <c r="A2165" s="23"/>
+    </row>
+    <row r="2166" spans="1:1">
+      <c r="A2166" s="23"/>
+    </row>
+    <row r="2168" spans="1:1">
+      <c r="A2168" s="23"/>
+    </row>
+    <row r="2172" spans="2:2">
+      <c r="B2172" s="24"/>
+    </row>
+    <row r="2173" ht="18.75" customHeight="1" spans="1:1">
+      <c r="A2173" s="23"/>
+    </row>
+    <row r="2174" spans="1:1">
+      <c r="A2174" s="23"/>
+    </row>
+    <row r="2175" spans="1:1">
+      <c r="A2175" s="23"/>
+    </row>
+    <row r="2176" spans="1:1">
+      <c r="A2176" s="23"/>
     </row>
     <row r="2180" spans="1:1">
-      <c r="A2180" s="20"/>
+      <c r="A2180" s="23"/>
     </row>
     <row r="2181" spans="1:1">
-      <c r="A2181" s="20"/>
+      <c r="A2181" s="23"/>
     </row>
     <row r="2182" spans="1:1">
-      <c r="A2182" s="20"/>
+      <c r="A2182" s="23"/>
     </row>
     <row r="2183" spans="1:1">
-      <c r="A2183" s="20"/>
+      <c r="A2183" s="23"/>
     </row>
     <row r="2186" spans="1:1">
-      <c r="A2186" s="20"/>
+      <c r="A2186" s="23"/>
     </row>
     <row r="2188" spans="1:1">
-      <c r="A2188" s="20"/>
+      <c r="A2188" s="23"/>
     </row>
     <row r="2189" spans="1:1">
-      <c r="A2189" s="20"/>
+      <c r="A2189" s="23"/>
     </row>
     <row r="2190" spans="1:1">
-      <c r="A2190" s="20"/>
+      <c r="A2190" s="23"/>
     </row>
     <row r="2191" spans="1:1">
-      <c r="A2191" s="20"/>
+      <c r="A2191" s="23"/>
     </row>
     <row r="2192" spans="1:1">
-      <c r="A2192" s="20"/>
+      <c r="A2192" s="23"/>
     </row>
     <row r="2193" spans="1:1">
-      <c r="A2193" s="20"/>
+      <c r="A2193" s="23"/>
     </row>
     <row r="2194" spans="1:1">
-      <c r="A2194" s="20"/>
+      <c r="A2194" s="23"/>
     </row>
     <row r="2195" spans="1:1">
-      <c r="A2195" s="20"/>
+      <c r="A2195" s="23"/>
     </row>
     <row r="2196" spans="1:1">
-      <c r="A2196" s="20"/>
+      <c r="A2196" s="23"/>
     </row>
     <row r="2197" spans="1:1">
-      <c r="A2197" s="20"/>
+      <c r="A2197" s="23"/>
     </row>
     <row r="2200" spans="1:1">
-      <c r="A2200" s="20"/>
+      <c r="A2200" s="23"/>
     </row>
     <row r="2201" spans="1:1">
-      <c r="A2201" s="20"/>
+      <c r="A2201" s="23"/>
     </row>
     <row r="2202" spans="1:1">
-      <c r="A2202" s="20"/>
+      <c r="A2202" s="23"/>
     </row>
     <row r="2203" spans="1:1">
-      <c r="A2203" s="20"/>
+      <c r="A2203" s="23"/>
     </row>
     <row r="2204" spans="1:1">
-      <c r="A2204" s="20"/>
+      <c r="A2204" s="23"/>
     </row>
     <row r="2205" spans="1:1">
-      <c r="A2205" s="20"/>
+      <c r="A2205" s="23"/>
     </row>
     <row r="2206" spans="1:1">
-      <c r="A2206" s="20"/>
+      <c r="A2206" s="23"/>
     </row>
     <row r="2207" spans="1:1">
-      <c r="A2207" s="20"/>
+      <c r="A2207" s="23"/>
     </row>
     <row r="2208" spans="1:1">
-      <c r="A2208" s="20"/>
+      <c r="A2208" s="23"/>
     </row>
     <row r="2209" spans="1:1">
-      <c r="A2209" s="20"/>
+      <c r="A2209" s="23"/>
     </row>
     <row r="2210" spans="1:1">
-      <c r="A2210" s="20"/>
+      <c r="A2210" s="23"/>
     </row>
     <row r="2211" spans="1:1">
-      <c r="A2211" s="20"/>
+      <c r="A2211" s="23"/>
     </row>
     <row r="2212" spans="1:1">
-      <c r="A2212" s="20"/>
+      <c r="A2212" s="23"/>
     </row>
     <row r="2213" spans="1:1">
-      <c r="A2213" s="20"/>
+      <c r="A2213" s="23"/>
     </row>
     <row r="2214" spans="1:1">
-      <c r="A2214" s="20"/>
+      <c r="A2214" s="23"/>
     </row>
     <row r="2215" spans="1:1">
-      <c r="A2215" s="20"/>
+      <c r="A2215" s="23"/>
     </row>
     <row r="2216" spans="1:1">
-      <c r="A2216" s="20"/>
+      <c r="A2216" s="23"/>
     </row>
     <row r="2217" spans="1:1">
-      <c r="A2217" s="20"/>
+      <c r="A2217" s="23"/>
     </row>
     <row r="2218" spans="1:1">
-      <c r="A2218" s="20"/>
+      <c r="A2218" s="23"/>
     </row>
     <row r="2219" spans="1:1">
-      <c r="A2219" s="20"/>
+      <c r="A2219" s="23"/>
     </row>
     <row r="2220" spans="1:1">
-      <c r="A2220" s="20"/>
+      <c r="A2220" s="23"/>
     </row>
     <row r="2221" spans="1:1">
-      <c r="A2221" s="20"/>
+      <c r="A2221" s="23"/>
     </row>
     <row r="2222" spans="1:1">
-      <c r="A2222" s="20"/>
+      <c r="A2222" s="23"/>
     </row>
     <row r="2223" spans="1:1">
-      <c r="A2223" s="20"/>
+      <c r="A2223" s="23"/>
     </row>
     <row r="2224" spans="1:1">
-      <c r="A2224" s="20"/>
+      <c r="A2224" s="23"/>
     </row>
     <row r="2237" spans="1:2">
-      <c r="A2237" s="20"/>
-      <c r="B2237" s="21"/>
-    </row>
-    <row r="2238" spans="1:2">
-      <c r="A2238" s="20"/>
-    </row>
-    <row r="2239" spans="1:2">
-      <c r="A2239" s="20"/>
-    </row>
-    <row r="2240" spans="1:2">
-      <c r="A2240" s="20"/>
+      <c r="A2237" s="23"/>
+      <c r="B2237" s="24"/>
+    </row>
+    <row r="2238" spans="1:1">
+      <c r="A2238" s="23"/>
+    </row>
+    <row r="2239" spans="1:1">
+      <c r="A2239" s="23"/>
+    </row>
+    <row r="2240" spans="1:1">
+      <c r="A2240" s="23"/>
     </row>
     <row r="2241" spans="1:1">
-      <c r="A2241" s="20"/>
+      <c r="A2241" s="23"/>
     </row>
     <row r="2243" spans="1:1">
-      <c r="A2243" s="20"/>
+      <c r="A2243" s="23"/>
     </row>
     <row r="2244" spans="1:1">
-      <c r="A2244" s="20"/>
+      <c r="A2244" s="23"/>
     </row>
     <row r="2246" spans="1:1">
-      <c r="A2246" s="20"/>
+      <c r="A2246" s="23"/>
     </row>
     <row r="2247" spans="1:1">
-      <c r="A2247" s="20"/>
+      <c r="A2247" s="23"/>
     </row>
     <row r="2254" spans="1:1">
-      <c r="A2254" s="20"/>
+      <c r="A2254" s="23"/>
     </row>
     <row r="2255" spans="1:1">
-      <c r="A2255" s="20"/>
+      <c r="A2255" s="23"/>
     </row>
     <row r="2267" spans="1:1">
-      <c r="A2267" s="20"/>
+      <c r="A2267" s="23"/>
     </row>
     <row r="2268" spans="1:1">
-      <c r="A2268" s="20"/>
+      <c r="A2268" s="23"/>
     </row>
     <row r="2269" spans="1:1">
-      <c r="A2269" s="20"/>
+      <c r="A2269" s="23"/>
     </row>
     <row r="2270" spans="1:1">
-      <c r="A2270" s="20"/>
+      <c r="A2270" s="23"/>
     </row>
     <row r="2271" spans="1:1">
-      <c r="A2271" s="20"/>
+      <c r="A2271" s="23"/>
     </row>
     <row r="2272" spans="1:1">
-      <c r="A2272" s="20"/>
+      <c r="A2272" s="23"/>
     </row>
     <row r="2274" spans="1:1">
-      <c r="A2274" s="20"/>
+      <c r="A2274" s="23"/>
     </row>
     <row r="2275" spans="1:1">
-      <c r="A2275" s="20"/>
+      <c r="A2275" s="23"/>
     </row>
     <row r="2276" spans="1:1">
-      <c r="A2276" s="20"/>
+      <c r="A2276" s="23"/>
     </row>
     <row r="2277" spans="1:1">
-      <c r="A2277" s="20"/>
+      <c r="A2277" s="23"/>
     </row>
     <row r="2278" spans="1:1">
-      <c r="A2278" s="20"/>
+      <c r="A2278" s="23"/>
     </row>
     <row r="2279" spans="1:1">
-      <c r="A2279" s="20"/>
+      <c r="A2279" s="23"/>
     </row>
     <row r="2280" spans="1:1">
-      <c r="A2280" s="20"/>
+      <c r="A2280" s="23"/>
     </row>
     <row r="2294" spans="1:1">
-      <c r="A2294" s="20"/>
+      <c r="A2294" s="23"/>
     </row>
     <row r="2301" spans="1:1">
-      <c r="A2301" s="20"/>
+      <c r="A2301" s="23"/>
     </row>
     <row r="2302" spans="1:1">
-      <c r="A2302" s="20"/>
+      <c r="A2302" s="23"/>
     </row>
     <row r="2303" spans="1:1">
-      <c r="A2303" s="20"/>
+      <c r="A2303" s="23"/>
     </row>
     <row r="2304" spans="1:1">
-      <c r="A2304" s="20"/>
+      <c r="A2304" s="23"/>
     </row>
     <row r="2305" spans="1:1">
-      <c r="A2305" s="20"/>
+      <c r="A2305" s="23"/>
     </row>
     <row r="2306" spans="1:1">
-      <c r="A2306" s="20"/>
+      <c r="A2306" s="23"/>
     </row>
     <row r="2307" spans="1:1">
-      <c r="A2307" s="20"/>
+      <c r="A2307" s="23"/>
     </row>
     <row r="2308" spans="1:1">
-      <c r="A2308" s="20"/>
+      <c r="A2308" s="23"/>
     </row>
     <row r="2309" spans="1:1">
-      <c r="A2309" s="20"/>
+      <c r="A2309" s="23"/>
     </row>
     <row r="2310" spans="1:1">
-      <c r="A2310" s="20"/>
+      <c r="A2310" s="23"/>
     </row>
     <row r="2311" spans="1:1">
-      <c r="A2311" s="20"/>
+      <c r="A2311" s="23"/>
     </row>
     <row r="2312" spans="1:1">
-      <c r="A2312" s="20"/>
+      <c r="A2312" s="23"/>
     </row>
     <row r="2313" spans="1:1">
-      <c r="A2313" s="20"/>
+      <c r="A2313" s="23"/>
     </row>
     <row r="2314" spans="1:1">
-      <c r="A2314" s="20"/>
+      <c r="A2314" s="23"/>
     </row>
     <row r="2315" spans="1:1">
-      <c r="A2315" s="20"/>
+      <c r="A2315" s="23"/>
     </row>
     <row r="2316" spans="1:1">
-      <c r="A2316" s="20"/>
+      <c r="A2316" s="23"/>
     </row>
     <row r="2318" spans="1:1">
-      <c r="A2318" s="20"/>
+      <c r="A2318" s="23"/>
     </row>
     <row r="2324" spans="1:1">
-      <c r="A2324" s="20"/>
+      <c r="A2324" s="23"/>
     </row>
     <row r="2325" spans="1:1">
-      <c r="A2325" s="20"/>
+      <c r="A2325" s="23"/>
     </row>
     <row r="2326" spans="1:1">
-      <c r="A2326" s="20"/>
+      <c r="A2326" s="23"/>
     </row>
     <row r="2327" spans="1:1">
-      <c r="A2327" s="20"/>
+      <c r="A2327" s="23"/>
     </row>
     <row r="2328" spans="1:1">
-      <c r="A2328" s="20"/>
+      <c r="A2328" s="23"/>
     </row>
     <row r="2329" spans="1:1">
-      <c r="A2329" s="20"/>
+      <c r="A2329" s="23"/>
     </row>
     <row r="2330" spans="1:1">
-      <c r="A2330" s="20"/>
+      <c r="A2330" s="23"/>
     </row>
     <row r="2331" spans="1:1">
-      <c r="A2331" s="20"/>
+      <c r="A2331" s="23"/>
     </row>
     <row r="2332" spans="1:1">
-      <c r="A2332" s="20"/>
+      <c r="A2332" s="23"/>
     </row>
     <row r="2333" spans="1:1">
-      <c r="A2333" s="20"/>
+      <c r="A2333" s="23"/>
     </row>
     <row r="2334" spans="1:1">
-      <c r="A2334" s="20"/>
+      <c r="A2334" s="23"/>
     </row>
     <row r="2338" spans="1:1">
-      <c r="A2338" s="20"/>
+      <c r="A2338" s="23"/>
     </row>
     <row r="2339" spans="1:1">
-      <c r="A2339" s="20"/>
+      <c r="A2339" s="23"/>
     </row>
     <row r="2340" spans="1:1">
-      <c r="A2340" s="20"/>
+      <c r="A2340" s="23"/>
     </row>
     <row r="2343" spans="1:1">
-      <c r="A2343" s="20"/>
+      <c r="A2343" s="23"/>
     </row>
     <row r="2344" spans="1:1">
-      <c r="A2344" s="20"/>
+      <c r="A2344" s="23"/>
     </row>
     <row r="2345" spans="1:1">
-      <c r="A2345" s="20"/>
+      <c r="A2345" s="23"/>
     </row>
     <row r="2346" spans="1:1">
-      <c r="A2346" s="20"/>
+      <c r="A2346" s="23"/>
     </row>
     <row r="2347" spans="1:1">
-      <c r="A2347" s="20"/>
+      <c r="A2347" s="23"/>
     </row>
     <row r="2348" spans="1:1">
-      <c r="A2348" s="20"/>
+      <c r="A2348" s="23"/>
     </row>
     <row r="2349" spans="1:1">
-      <c r="A2349" s="20"/>
+      <c r="A2349" s="23"/>
     </row>
     <row r="2350" spans="1:1">
-      <c r="A2350" s="20"/>
+      <c r="A2350" s="23"/>
     </row>
     <row r="2351" spans="1:1">
-      <c r="A2351" s="20"/>
+      <c r="A2351" s="23"/>
     </row>
     <row r="2354" spans="1:1">
-      <c r="A2354" s="20"/>
+      <c r="A2354" s="23"/>
     </row>
     <row r="2355" spans="1:1">
-      <c r="A2355" s="20"/>
+      <c r="A2355" s="23"/>
     </row>
     <row r="2356" spans="1:1">
-      <c r="A2356" s="20"/>
+      <c r="A2356" s="23"/>
     </row>
     <row r="2359" spans="1:1">
-      <c r="A2359" s="20"/>
+      <c r="A2359" s="23"/>
     </row>
     <row r="2365" spans="1:1">
-      <c r="A2365" s="20"/>
+      <c r="A2365" s="23"/>
     </row>
     <row r="2368" spans="1:1">
-      <c r="A2368" s="20"/>
+      <c r="A2368" s="23"/>
     </row>
     <row r="2369" spans="1:1">
-      <c r="A2369" s="20"/>
+      <c r="A2369" s="23"/>
     </row>
     <row r="2370" spans="1:1">
-      <c r="A2370" s="20"/>
+      <c r="A2370" s="23"/>
     </row>
     <row r="2371" spans="1:1">
-      <c r="A2371" s="20"/>
+      <c r="A2371" s="23"/>
     </row>
     <row r="2372" spans="1:1">
-      <c r="A2372" s="20"/>
+      <c r="A2372" s="23"/>
     </row>
     <row r="2373" spans="1:1">
-      <c r="A2373" s="20"/>
+      <c r="A2373" s="23"/>
     </row>
     <row r="2374" spans="1:1">
-      <c r="A2374" s="20"/>
+      <c r="A2374" s="23"/>
     </row>
     <row r="2375" spans="1:1">
-      <c r="A2375" s="20"/>
+      <c r="A2375" s="23"/>
     </row>
     <row r="2376" spans="1:1">
-      <c r="A2376" s="20"/>
+      <c r="A2376" s="23"/>
     </row>
     <row r="2377" spans="1:1">
-      <c r="A2377" s="20"/>
+      <c r="A2377" s="23"/>
     </row>
     <row r="2379" spans="1:1">
-      <c r="A2379" s="20"/>
+      <c r="A2379" s="23"/>
     </row>
     <row r="2381" spans="1:1">
-      <c r="A2381" s="20"/>
+      <c r="A2381" s="23"/>
     </row>
     <row r="2382" spans="1:1">
-      <c r="A2382" s="20"/>
+      <c r="A2382" s="23"/>
     </row>
     <row r="2384" spans="1:1">
-      <c r="A2384" s="20"/>
+      <c r="A2384" s="23"/>
     </row>
     <row r="2386" spans="1:1">
-      <c r="A2386" s="20"/>
+      <c r="A2386" s="23"/>
     </row>
     <row r="2387" spans="1:1">
-      <c r="A2387" s="20"/>
+      <c r="A2387" s="23"/>
     </row>
     <row r="2388" spans="1:1">
-      <c r="A2388" s="20"/>
+      <c r="A2388" s="23"/>
     </row>
     <row r="2389" spans="1:1">
-      <c r="A2389" s="20"/>
+      <c r="A2389" s="23"/>
     </row>
     <row r="2390" spans="1:1">
-      <c r="A2390" s="20"/>
+      <c r="A2390" s="23"/>
     </row>
     <row r="2391" spans="1:1">
-      <c r="A2391" s="20"/>
+      <c r="A2391" s="23"/>
     </row>
     <row r="2392" spans="1:1">
-      <c r="A2392" s="20"/>
+      <c r="A2392" s="23"/>
     </row>
     <row r="2393" spans="1:1">
-      <c r="A2393" s="20"/>
+      <c r="A2393" s="23"/>
     </row>
     <row r="2394" spans="1:1">
-      <c r="A2394" s="20"/>
+      <c r="A2394" s="23"/>
     </row>
     <row r="2395" spans="1:1">
-      <c r="A2395" s="20"/>
+      <c r="A2395" s="23"/>
     </row>
     <row r="2396" spans="1:1">
-      <c r="A2396" s="20"/>
+      <c r="A2396" s="23"/>
     </row>
     <row r="2397" spans="1:1">
-      <c r="A2397" s="20"/>
+      <c r="A2397" s="23"/>
     </row>
     <row r="2398" spans="1:1">
-      <c r="A2398" s="20"/>
+      <c r="A2398" s="23"/>
     </row>
     <row r="2399" spans="1:1">
-      <c r="A2399" s="20"/>
+      <c r="A2399" s="23"/>
     </row>
     <row r="2400" spans="1:1">
-      <c r="A2400" s="20"/>
+      <c r="A2400" s="23"/>
     </row>
     <row r="2401" spans="1:1">
-      <c r="A2401" s="20"/>
+      <c r="A2401" s="23"/>
     </row>
     <row r="2402" spans="1:1">
-      <c r="A2402" s="20"/>
+      <c r="A2402" s="23"/>
     </row>
     <row r="2403" spans="1:1">
-      <c r="A2403" s="20"/>
+      <c r="A2403" s="23"/>
     </row>
     <row r="2404" spans="1:1">
-      <c r="A2404" s="20"/>
+      <c r="A2404" s="23"/>
     </row>
     <row r="2405" spans="1:1">
-      <c r="A2405" s="20"/>
+      <c r="A2405" s="23"/>
     </row>
     <row r="2434" spans="2:2">
-      <c r="B2434" s="29"/>
+      <c r="B2434" s="32"/>
     </row>
     <row r="2456" spans="1:1">
-      <c r="A2456" s="20"/>
+      <c r="A2456" s="23"/>
     </row>
     <row r="2457" spans="1:1">
-      <c r="A2457" s="20"/>
+      <c r="A2457" s="23"/>
     </row>
     <row r="2466" spans="1:2">
-      <c r="A2466" s="20"/>
-      <c r="B2466" s="21"/>
+      <c r="A2466" s="23"/>
+      <c r="B2466" s="24"/>
     </row>
     <row r="2488" spans="1:1">
-      <c r="A2488" s="20"/>
+      <c r="A2488" s="23"/>
     </row>
     <row r="2489" spans="1:1">
-      <c r="A2489" s="20"/>
+      <c r="A2489" s="23"/>
     </row>
     <row r="2496" spans="1:1">
-      <c r="A2496" s="20"/>
+      <c r="A2496" s="23"/>
     </row>
     <row r="2497" spans="1:1">
-      <c r="A2497" s="20"/>
+      <c r="A2497" s="23"/>
     </row>
     <row r="2498" spans="1:1">
-      <c r="A2498" s="20"/>
+      <c r="A2498" s="23"/>
     </row>
     <row r="2500" spans="1:1">
-      <c r="A2500" s="20"/>
+      <c r="A2500" s="23"/>
     </row>
     <row r="2502" spans="1:1">
-      <c r="A2502" s="20"/>
+      <c r="A2502" s="23"/>
     </row>
     <row r="2503" spans="1:1">
-      <c r="A2503" s="20"/>
+      <c r="A2503" s="23"/>
     </row>
     <row r="2504" spans="1:1">
-      <c r="A2504" s="20"/>
+      <c r="A2504" s="23"/>
     </row>
     <row r="2505" spans="1:1">
-      <c r="A2505" s="20"/>
+      <c r="A2505" s="23"/>
     </row>
     <row r="2506" spans="1:1">
-      <c r="A2506" s="20"/>
+      <c r="A2506" s="23"/>
     </row>
     <row r="2507" spans="1:1">
-      <c r="A2507" s="20"/>
+      <c r="A2507" s="23"/>
     </row>
     <row r="2508" spans="1:1">
-      <c r="A2508" s="20"/>
+      <c r="A2508" s="23"/>
     </row>
     <row r="2509" spans="1:1">
-      <c r="A2509" s="20"/>
+      <c r="A2509" s="23"/>
     </row>
     <row r="2510" spans="1:1">
-      <c r="A2510" s="20"/>
+      <c r="A2510" s="23"/>
     </row>
     <row r="2511" spans="1:1">
-      <c r="A2511" s="20"/>
+      <c r="A2511" s="23"/>
     </row>
     <row r="2512" spans="1:1">
-      <c r="A2512" s="20"/>
+      <c r="A2512" s="23"/>
     </row>
     <row r="2513" spans="1:1">
-      <c r="A2513" s="20"/>
+      <c r="A2513" s="23"/>
     </row>
     <row r="2514" spans="1:1">
-      <c r="A2514" s="20"/>
+      <c r="A2514" s="23"/>
     </row>
     <row r="2515" spans="1:1">
-      <c r="A2515" s="20"/>
+      <c r="A2515" s="23"/>
     </row>
     <row r="2517" spans="1:1">
-      <c r="A2517" s="20"/>
+      <c r="A2517" s="23"/>
     </row>
     <row r="2518" spans="1:1">
-      <c r="A2518" s="20"/>
+      <c r="A2518" s="23"/>
     </row>
     <row r="2533" spans="1:1">
-      <c r="A2533" s="20"/>
-    </row>
-    <row r="2562" spans="1:2">
-      <c r="B2562" s="30"/>
-    </row>
-    <row r="2564" spans="1:2">
-      <c r="A2564" s="20"/>
-    </row>
-    <row r="2565" spans="1:2">
-      <c r="A2565" s="20"/>
-    </row>
-    <row r="2566" spans="1:2">
-      <c r="A2566" s="20"/>
-    </row>
-    <row r="2570" spans="1:2">
-      <c r="A2570" s="20"/>
-    </row>
-    <row r="2573" spans="1:2">
-      <c r="A2573" s="20"/>
-    </row>
-    <row r="2574" spans="1:2">
-      <c r="A2574" s="20"/>
-    </row>
-    <row r="2575" spans="1:2">
-      <c r="A2575" s="20"/>
-    </row>
-    <row r="2576" spans="1:2">
-      <c r="A2576" s="20"/>
-    </row>
-    <row r="2577" spans="1:2">
-      <c r="A2577" s="20"/>
-    </row>
-    <row r="2578" spans="1:2">
-      <c r="A2578" s="20"/>
-    </row>
-    <row r="2579" spans="1:2">
-      <c r="A2579" s="20"/>
-    </row>
-    <row r="2581" spans="1:2">
-      <c r="A2581" s="20"/>
-    </row>
-    <row r="2582" spans="1:2">
-      <c r="A2582" s="20"/>
-    </row>
-    <row r="2583" spans="1:2">
-      <c r="A2583" s="20"/>
-    </row>
-    <row r="2584" spans="1:2">
-      <c r="A2584" s="20"/>
-    </row>
-    <row r="2585" spans="1:2">
-      <c r="A2585" s="20"/>
-    </row>
-    <row r="2586" spans="1:2">
-      <c r="A2586" s="20"/>
-    </row>
-    <row r="2588" spans="1:2">
-      <c r="B2588" s="28"/>
-    </row>
-    <row r="2590" spans="1:2">
-      <c r="A2590" s="20"/>
-    </row>
-    <row r="2591" spans="1:2">
-      <c r="A2591" s="20"/>
-    </row>
-    <row r="2592" spans="1:2">
-      <c r="A2592" s="20"/>
+      <c r="A2533" s="23"/>
+    </row>
+    <row r="2562" spans="2:2">
+      <c r="B2562" s="33"/>
+    </row>
+    <row r="2564" spans="1:1">
+      <c r="A2564" s="23"/>
+    </row>
+    <row r="2565" spans="1:1">
+      <c r="A2565" s="23"/>
+    </row>
+    <row r="2566" spans="1:1">
+      <c r="A2566" s="23"/>
+    </row>
+    <row r="2570" spans="1:1">
+      <c r="A2570" s="23"/>
+    </row>
+    <row r="2573" spans="1:1">
+      <c r="A2573" s="23"/>
+    </row>
+    <row r="2574" spans="1:1">
+      <c r="A2574" s="23"/>
+    </row>
+    <row r="2575" spans="1:1">
+      <c r="A2575" s="23"/>
+    </row>
+    <row r="2576" spans="1:1">
+      <c r="A2576" s="23"/>
+    </row>
+    <row r="2577" spans="1:1">
+      <c r="A2577" s="23"/>
+    </row>
+    <row r="2578" spans="1:1">
+      <c r="A2578" s="23"/>
+    </row>
+    <row r="2579" spans="1:1">
+      <c r="A2579" s="23"/>
+    </row>
+    <row r="2581" spans="1:1">
+      <c r="A2581" s="23"/>
+    </row>
+    <row r="2582" spans="1:1">
+      <c r="A2582" s="23"/>
+    </row>
+    <row r="2583" spans="1:1">
+      <c r="A2583" s="23"/>
+    </row>
+    <row r="2584" spans="1:1">
+      <c r="A2584" s="23"/>
+    </row>
+    <row r="2585" spans="1:1">
+      <c r="A2585" s="23"/>
+    </row>
+    <row r="2586" spans="1:1">
+      <c r="A2586" s="23"/>
+    </row>
+    <row r="2588" spans="2:2">
+      <c r="B2588" s="31"/>
+    </row>
+    <row r="2590" spans="1:1">
+      <c r="A2590" s="23"/>
+    </row>
+    <row r="2591" spans="1:1">
+      <c r="A2591" s="23"/>
+    </row>
+    <row r="2592" spans="1:1">
+      <c r="A2592" s="23"/>
     </row>
     <row r="2593" spans="1:1">
-      <c r="A2593" s="20"/>
+      <c r="A2593" s="23"/>
     </row>
     <row r="2594" spans="1:1">
-      <c r="A2594" s="20"/>
+      <c r="A2594" s="23"/>
     </row>
     <row r="2595" spans="1:1">
-      <c r="A2595" s="20"/>
+      <c r="A2595" s="23"/>
     </row>
     <row r="2596" spans="1:1">
-      <c r="A2596" s="20"/>
+      <c r="A2596" s="23"/>
     </row>
     <row r="2597" spans="1:1">
-      <c r="A2597" s="20"/>
+      <c r="A2597" s="23"/>
     </row>
     <row r="2598" spans="1:1">
-      <c r="A2598" s="20"/>
+      <c r="A2598" s="23"/>
     </row>
     <row r="2599" spans="1:1">
-      <c r="A2599" s="20"/>
+      <c r="A2599" s="23"/>
     </row>
     <row r="2600" spans="1:1">
-      <c r="A2600" s="20"/>
+      <c r="A2600" s="23"/>
     </row>
     <row r="2601" spans="1:1">
-      <c r="A2601" s="20"/>
+      <c r="A2601" s="23"/>
     </row>
     <row r="2602" spans="1:1">
-      <c r="A2602" s="20"/>
+      <c r="A2602" s="23"/>
     </row>
     <row r="2603" spans="1:1">
-      <c r="A2603" s="20"/>
+      <c r="A2603" s="23"/>
     </row>
     <row r="2611" spans="2:2">
-      <c r="B2611" s="31"/>
+      <c r="B2611" s="34"/>
     </row>
     <row r="2618" spans="2:2">
-      <c r="B2618" s="31"/>
+      <c r="B2618" s="34"/>
     </row>
     <row r="2629" spans="1:1">
-      <c r="A2629" s="20"/>
+      <c r="A2629" s="23"/>
     </row>
     <row r="2630" spans="1:1">
-      <c r="A2630" s="20"/>
+      <c r="A2630" s="23"/>
     </row>
     <row r="2631" spans="1:1">
-      <c r="A2631" s="20"/>
+      <c r="A2631" s="23"/>
     </row>
     <row r="2632" spans="1:1">
-      <c r="A2632" s="20"/>
+      <c r="A2632" s="23"/>
     </row>
     <row r="2633" spans="1:1">
-      <c r="A2633" s="20"/>
+      <c r="A2633" s="23"/>
     </row>
     <row r="2634" spans="1:1">
-      <c r="A2634" s="20"/>
+      <c r="A2634" s="23"/>
     </row>
     <row r="2635" spans="1:1">
-      <c r="A2635" s="20"/>
+      <c r="A2635" s="23"/>
     </row>
     <row r="2636" spans="1:1">
-      <c r="A2636" s="20"/>
+      <c r="A2636" s="23"/>
     </row>
     <row r="2637" spans="1:1">
-      <c r="A2637" s="20"/>
+      <c r="A2637" s="23"/>
     </row>
     <row r="2638" spans="1:1">
-      <c r="A2638" s="20"/>
+      <c r="A2638" s="23"/>
     </row>
     <row r="2639" spans="1:1">
-      <c r="A2639" s="20"/>
+      <c r="A2639" s="23"/>
     </row>
     <row r="2640" spans="1:1">
-      <c r="A2640" s="20"/>
+      <c r="A2640" s="23"/>
     </row>
     <row r="2652" spans="2:2">
-      <c r="B2652" s="32"/>
+      <c r="B2652" s="35"/>
     </row>
     <row r="2669" spans="2:2">
       <c r="B2669" s="5"/>
     </row>
     <row r="2852" spans="1:1">
-      <c r="A2852" s="20"/>
+      <c r="A2852" s="23"/>
     </row>
     <row r="2853" spans="1:1">
-      <c r="A2853" s="20"/>
+      <c r="A2853" s="23"/>
     </row>
     <row r="2854" spans="1:1">
-      <c r="A2854" s="20"/>
+      <c r="A2854" s="23"/>
     </row>
     <row r="2855" spans="1:1">
-      <c r="A2855" s="20"/>
+      <c r="A2855" s="23"/>
     </row>
     <row r="2857" spans="1:1">
-      <c r="A2857" s="20"/>
+      <c r="A2857" s="23"/>
     </row>
     <row r="2858" spans="1:1">
-      <c r="A2858" s="20"/>
+      <c r="A2858" s="23"/>
     </row>
     <row r="2964" spans="1:1">
-      <c r="A2964" s="20"/>
+      <c r="A2964" s="23"/>
     </row>
     <row r="2966" spans="1:1">
-      <c r="A2966" s="20"/>
+      <c r="A2966" s="23"/>
     </row>
     <row r="2977" spans="1:1">
-      <c r="A2977" s="20"/>
+      <c r="A2977" s="23"/>
     </row>
     <row r="2978" spans="1:1">
-      <c r="A2978" s="20"/>
+      <c r="A2978" s="23"/>
     </row>
     <row r="2979" spans="1:1">
-      <c r="A2979" s="20"/>
+      <c r="A2979" s="23"/>
     </row>
     <row r="2980" spans="1:1">
-      <c r="A2980" s="20"/>
+      <c r="A2980" s="23"/>
     </row>
     <row r="2981" spans="1:1">
-      <c r="A2981" s="20"/>
+      <c r="A2981" s="23"/>
     </row>
     <row r="2982" spans="1:1">
-      <c r="A2982" s="20"/>
+      <c r="A2982" s="23"/>
     </row>
     <row r="2988" spans="1:1">
-      <c r="A2988" s="20"/>
+      <c r="A2988" s="23"/>
     </row>
     <row r="2989" spans="1:1">
-      <c r="A2989" s="20"/>
+      <c r="A2989" s="23"/>
     </row>
     <row r="2990" spans="1:1">
-      <c r="A2990" s="20"/>
+      <c r="A2990" s="23"/>
     </row>
     <row r="2991" spans="1:1">
-      <c r="A2991" s="20"/>
+      <c r="A2991" s="23"/>
     </row>
     <row r="2992" spans="1:1">
-      <c r="A2992" s="20"/>
+      <c r="A2992" s="23"/>
     </row>
     <row r="2993" spans="1:1">
-      <c r="A2993" s="20"/>
+      <c r="A2993" s="23"/>
     </row>
     <row r="2994" spans="1:1">
-      <c r="A2994" s="20"/>
+      <c r="A2994" s="23"/>
     </row>
     <row r="2995" spans="1:1">
-      <c r="A2995" s="20"/>
+      <c r="A2995" s="23"/>
     </row>
     <row r="2996" spans="1:1">
-      <c r="A2996" s="20"/>
+      <c r="A2996" s="23"/>
     </row>
     <row r="2997" spans="1:1">
-      <c r="A2997" s="20"/>
+      <c r="A2997" s="23"/>
     </row>
     <row r="3003" spans="1:1">
-      <c r="A3003" s="20"/>
+      <c r="A3003" s="23"/>
     </row>
     <row r="3015" spans="1:1">
-      <c r="A3015" s="20"/>
+      <c r="A3015" s="23"/>
     </row>
     <row r="3020" spans="1:1">
-      <c r="A3020" s="20"/>
+      <c r="A3020" s="23"/>
     </row>
     <row r="3039" spans="3:3">
-      <c r="C3039" s="21"/>
+      <c r="C3039" s="24"/>
     </row>
     <row r="3077" spans="1:2">
-      <c r="A3077" s="20"/>
-      <c r="B3077" s="21"/>
+      <c r="A3077" s="23"/>
+      <c r="B3077" s="24"/>
     </row>
     <row r="3140" spans="1:1">
-      <c r="A3140" s="20"/>
+      <c r="A3140" s="23"/>
     </row>
     <row r="3142" spans="1:1">
-      <c r="A3142" s="20"/>
+      <c r="A3142" s="23"/>
     </row>
     <row r="3195" spans="3:3">
-      <c r="C3195" s="21"/>
+      <c r="C3195" s="24"/>
     </row>
     <row r="3196" spans="3:3">
-      <c r="C3196" s="21"/>
+      <c r="C3196" s="24"/>
     </row>
     <row r="3204" spans="1:3">
-      <c r="A3204" s="20"/>
-      <c r="C3204" s="21"/>
+      <c r="A3204" s="23"/>
+      <c r="C3204" s="24"/>
     </row>
     <row r="3205" spans="1:3">
-      <c r="A3205" s="20"/>
-      <c r="C3205" s="21"/>
+      <c r="A3205" s="23"/>
+      <c r="C3205" s="24"/>
     </row>
     <row r="3206" spans="1:3">
-      <c r="A3206" s="20"/>
-      <c r="C3206" s="21"/>
+      <c r="A3206" s="23"/>
+      <c r="C3206" s="24"/>
     </row>
     <row r="3207" spans="1:3">
-      <c r="A3207" s="20"/>
-      <c r="C3207" s="21"/>
-    </row>
-    <row r="3214" spans="1:3">
-      <c r="C3214" s="21"/>
-    </row>
-    <row r="3215" spans="1:3">
-      <c r="C3215" s="21"/>
-    </row>
-    <row r="3220" spans="1:3">
-      <c r="C3220" s="21"/>
+      <c r="A3207" s="23"/>
+      <c r="C3207" s="24"/>
+    </row>
+    <row r="3214" spans="3:3">
+      <c r="C3214" s="24"/>
+    </row>
+    <row r="3215" spans="3:3">
+      <c r="C3215" s="24"/>
+    </row>
+    <row r="3220" spans="3:3">
+      <c r="C3220" s="24"/>
     </row>
     <row r="3222" spans="1:3">
-      <c r="A3222" s="20"/>
-      <c r="C3222" s="21"/>
-    </row>
-    <row r="3223" spans="1:3">
-      <c r="C3223" s="21"/>
-    </row>
-    <row r="3224" spans="1:3">
-      <c r="C3224" s="21"/>
+      <c r="A3222" s="23"/>
+      <c r="C3222" s="24"/>
+    </row>
+    <row r="3223" spans="3:3">
+      <c r="C3223" s="24"/>
+    </row>
+    <row r="3224" spans="3:3">
+      <c r="C3224" s="24"/>
     </row>
     <row r="3254" spans="1:1">
-      <c r="A3254" s="20"/>
+      <c r="A3254" s="23"/>
     </row>
     <row r="3277" spans="3:3">
       <c r="C3277" s="7"/>
     </row>
     <row r="3344" spans="1:1">
-      <c r="A3344" s="20"/>
-    </row>
-    <row r="3411" spans="1:3">
-      <c r="C3411" s="21"/>
-    </row>
-    <row r="3415" spans="1:3">
-      <c r="A3415" s="20"/>
-    </row>
-    <row r="3416" spans="1:3">
-      <c r="A3416" s="20"/>
-    </row>
-    <row r="3417" spans="1:3">
-      <c r="A3417" s="20"/>
-    </row>
-    <row r="3418" spans="1:3">
-      <c r="A3418" s="20"/>
-    </row>
-    <row r="3419" spans="1:3">
-      <c r="A3419" s="20"/>
-    </row>
-    <row r="3420" spans="1:3">
-      <c r="A3420" s="20"/>
-    </row>
-    <row r="3421" spans="1:3">
-      <c r="A3421" s="20"/>
-    </row>
-    <row r="3422" spans="1:3">
-      <c r="A3422" s="20"/>
-    </row>
-    <row r="3423" spans="1:3">
-      <c r="A3423" s="20"/>
+      <c r="A3344" s="23"/>
+    </row>
+    <row r="3411" spans="3:3">
+      <c r="C3411" s="24"/>
+    </row>
+    <row r="3415" spans="1:1">
+      <c r="A3415" s="23"/>
+    </row>
+    <row r="3416" spans="1:1">
+      <c r="A3416" s="23"/>
+    </row>
+    <row r="3417" spans="1:1">
+      <c r="A3417" s="23"/>
+    </row>
+    <row r="3418" spans="1:1">
+      <c r="A3418" s="23"/>
+    </row>
+    <row r="3419" spans="1:1">
+      <c r="A3419" s="23"/>
+    </row>
+    <row r="3420" spans="1:1">
+      <c r="A3420" s="23"/>
+    </row>
+    <row r="3421" spans="1:1">
+      <c r="A3421" s="23"/>
+    </row>
+    <row r="3422" spans="1:1">
+      <c r="A3422" s="23"/>
+    </row>
+    <row r="3423" spans="1:1">
+      <c r="A3423" s="23"/>
     </row>
     <row r="3425" spans="1:1">
-      <c r="A3425" s="20"/>
+      <c r="A3425" s="23"/>
     </row>
     <row r="3426" spans="1:1">
-      <c r="A3426" s="20"/>
+      <c r="A3426" s="23"/>
     </row>
     <row r="3429" spans="1:1">
-      <c r="A3429" s="20"/>
+      <c r="A3429" s="23"/>
     </row>
     <row r="3431" spans="1:1">
-      <c r="A3431" s="20"/>
+      <c r="A3431" s="23"/>
     </row>
     <row r="3432" spans="1:1">
-      <c r="A3432" s="20"/>
+      <c r="A3432" s="23"/>
     </row>
     <row r="3433" spans="1:1">
-      <c r="A3433" s="20"/>
+      <c r="A3433" s="23"/>
     </row>
     <row r="3434" spans="1:1">
-      <c r="A3434" s="20"/>
+      <c r="A3434" s="23"/>
     </row>
     <row r="3436" spans="1:1">
-      <c r="A3436" s="20"/>
+      <c r="A3436" s="23"/>
     </row>
     <row r="3437" spans="1:1">
-      <c r="A3437" s="20"/>
+      <c r="A3437" s="23"/>
     </row>
     <row r="3438" spans="1:1">
-      <c r="A3438" s="20"/>
+      <c r="A3438" s="23"/>
     </row>
     <row r="3439" spans="1:1">
-      <c r="A3439" s="20"/>
+      <c r="A3439" s="23"/>
     </row>
     <row r="3440" spans="1:1">
-      <c r="A3440" s="20"/>
+      <c r="A3440" s="23"/>
     </row>
     <row r="3442" spans="1:1">
-      <c r="A3442" s="20"/>
+      <c r="A3442" s="23"/>
     </row>
     <row r="3460" spans="1:1">
-      <c r="A3460" s="20"/>
+      <c r="A3460" s="23"/>
     </row>
     <row r="3597" spans="1:1">
-      <c r="A3597" s="20"/>
+      <c r="A3597" s="23"/>
     </row>
     <row r="3631" spans="3:3">
       <c r="C3631" s="7"/>
     </row>
     <row r="3656" spans="1:1">
-      <c r="A3656" s="20"/>
+      <c r="A3656" s="23"/>
     </row>
     <row r="3710" spans="1:1">
-      <c r="A3710" s="20"/>
+      <c r="A3710" s="23"/>
     </row>
     <row r="3711" spans="1:1">
-      <c r="A3711" s="20"/>
-    </row>
-    <row r="3713" spans="1:3">
-      <c r="A3713" s="20"/>
-    </row>
-    <row r="3714" spans="1:3">
-      <c r="B3714" s="21"/>
-    </row>
-    <row r="3718" spans="1:3">
-      <c r="A3718" s="20"/>
-    </row>
-    <row r="3719" spans="1:3">
-      <c r="A3719" s="20"/>
-    </row>
-    <row r="3720" spans="1:3">
-      <c r="A3720" s="20"/>
-    </row>
-    <row r="3727" spans="1:3">
-      <c r="C3727" s="33"/>
-    </row>
-    <row r="3728" spans="1:3">
+      <c r="A3711" s="23"/>
+    </row>
+    <row r="3713" spans="1:1">
+      <c r="A3713" s="23"/>
+    </row>
+    <row r="3714" spans="2:2">
+      <c r="B3714" s="24"/>
+    </row>
+    <row r="3718" spans="1:1">
+      <c r="A3718" s="23"/>
+    </row>
+    <row r="3719" spans="1:1">
+      <c r="A3719" s="23"/>
+    </row>
+    <row r="3720" spans="1:1">
+      <c r="A3720" s="23"/>
+    </row>
+    <row r="3727" spans="3:3">
+      <c r="C3727" s="36"/>
+    </row>
+    <row r="3728" spans="2:2">
       <c r="B3728" s="7"/>
     </row>
-    <row r="3729" spans="2:3">
+    <row r="3729" spans="2:2">
       <c r="B3729" s="7"/>
     </row>
-    <row r="3741" spans="2:3">
-      <c r="C3741" s="33"/>
-    </row>
-    <row r="3742" spans="2:3">
+    <row r="3741" spans="3:3">
+      <c r="C3741" s="36"/>
+    </row>
+    <row r="3742" spans="2:2">
       <c r="B3742" s="7"/>
     </row>
-    <row r="3745" spans="1:3">
+    <row r="3745" spans="2:2">
       <c r="B3745" s="7"/>
     </row>
-    <row r="3747" spans="1:3">
+    <row r="3747" spans="2:3">
       <c r="B3747" s="7"/>
-      <c r="C3747" s="34"/>
-    </row>
-    <row r="3748" spans="1:3">
+      <c r="C3747" s="37"/>
+    </row>
+    <row r="3748" spans="2:3">
       <c r="B3748" s="7"/>
-      <c r="C3748" s="34"/>
-    </row>
-    <row r="3749" spans="1:3">
-      <c r="B3749" s="21"/>
-    </row>
-    <row r="3750" spans="1:3">
-      <c r="A3750" s="20"/>
+      <c r="C3748" s="37"/>
+    </row>
+    <row r="3749" spans="2:2">
+      <c r="B3749" s="24"/>
+    </row>
+    <row r="3750" spans="1:2">
+      <c r="A3750" s="23"/>
       <c r="B3750" s="7"/>
     </row>
-    <row r="3751" spans="1:3" ht="15.75">
-      <c r="A3751" s="35"/>
-      <c r="B3751" s="36"/>
-    </row>
-    <row r="3752" spans="1:3" ht="15.75">
-      <c r="A3752" s="35"/>
-      <c r="B3752" s="36"/>
-    </row>
-    <row r="3753" spans="1:3">
+    <row r="3751" spans="1:2">
+      <c r="A3751" s="38"/>
+      <c r="B3751" s="39"/>
+    </row>
+    <row r="3752" spans="1:2">
+      <c r="A3752" s="38"/>
+      <c r="B3752" s="39"/>
+    </row>
+    <row r="3753" spans="2:3">
       <c r="B3753" s="7"/>
-      <c r="C3753" s="34"/>
+      <c r="C3753" s="37"/>
     </row>
     <row r="3754" spans="1:3">
-      <c r="A3754" s="22"/>
+      <c r="A3754" s="25"/>
       <c r="B3754" s="7"/>
-      <c r="C3754" s="34"/>
+      <c r="C3754" s="37"/>
     </row>
     <row r="3755" spans="1:3">
-      <c r="A3755" s="22"/>
+      <c r="A3755" s="25"/>
       <c r="B3755" s="7"/>
-      <c r="C3755" s="34"/>
+      <c r="C3755" s="37"/>
     </row>
     <row r="3756" spans="1:3">
-      <c r="A3756" s="22"/>
+      <c r="A3756" s="25"/>
       <c r="B3756" s="7"/>
-      <c r="C3756" s="34"/>
+      <c r="C3756" s="37"/>
     </row>
     <row r="3757" spans="1:3">
-      <c r="A3757" s="22"/>
+      <c r="A3757" s="25"/>
       <c r="B3757" s="7"/>
-      <c r="C3757" s="34"/>
-    </row>
-    <row r="3768" spans="1:3">
+      <c r="C3757" s="37"/>
+    </row>
+    <row r="3768" spans="2:3">
       <c r="B3768" s="7"/>
-      <c r="C3768" s="34"/>
-    </row>
-    <row r="3769" spans="1:3">
+      <c r="C3768" s="37"/>
+    </row>
+    <row r="3769" spans="2:3">
       <c r="B3769" s="7"/>
-      <c r="C3769" s="34"/>
+      <c r="C3769" s="37"/>
     </row>
     <row r="3770" spans="1:3">
-      <c r="A3770" s="22"/>
+      <c r="A3770" s="25"/>
       <c r="B3770" s="7"/>
-      <c r="C3770" s="34"/>
+      <c r="C3770" s="37"/>
     </row>
     <row r="3771" spans="1:3">
-      <c r="A3771" s="22"/>
+      <c r="A3771" s="25"/>
       <c r="B3771" s="7"/>
-      <c r="C3771" s="34"/>
+      <c r="C3771" s="37"/>
     </row>
     <row r="3772" spans="1:3">
-      <c r="A3772" s="22"/>
+      <c r="A3772" s="25"/>
       <c r="B3772" s="7"/>
-      <c r="C3772" s="34"/>
+      <c r="C3772" s="37"/>
     </row>
     <row r="3773" spans="1:3">
-      <c r="A3773" s="22"/>
+      <c r="A3773" s="25"/>
       <c r="B3773" s="7"/>
-      <c r="C3773" s="34"/>
+      <c r="C3773" s="37"/>
     </row>
     <row r="3774" spans="1:3">
-      <c r="A3774" s="22"/>
+      <c r="A3774" s="25"/>
       <c r="B3774" s="7"/>
-      <c r="C3774" s="34"/>
+      <c r="C3774" s="37"/>
     </row>
     <row r="3775" spans="1:3">
-      <c r="A3775" s="22"/>
+      <c r="A3775" s="25"/>
       <c r="B3775" s="7"/>
-      <c r="C3775" s="34"/>
+      <c r="C3775" s="37"/>
     </row>
     <row r="3776" spans="1:3">
-      <c r="A3776" s="22"/>
+      <c r="A3776" s="25"/>
       <c r="B3776" s="7"/>
-      <c r="C3776" s="34"/>
+      <c r="C3776" s="37"/>
     </row>
     <row r="3777" spans="1:3">
-      <c r="A3777" s="22"/>
+      <c r="A3777" s="25"/>
       <c r="B3777" s="7"/>
-      <c r="C3777" s="34"/>
+      <c r="C3777" s="37"/>
     </row>
     <row r="3778" spans="1:3">
-      <c r="A3778" s="22"/>
+      <c r="A3778" s="25"/>
       <c r="B3778" s="7"/>
-      <c r="C3778" s="34"/>
+      <c r="C3778" s="37"/>
     </row>
     <row r="3779" spans="1:3">
-      <c r="A3779" s="22"/>
+      <c r="A3779" s="25"/>
       <c r="B3779" s="7"/>
-      <c r="C3779" s="34"/>
+      <c r="C3779" s="37"/>
     </row>
     <row r="3780" spans="1:3">
-      <c r="A3780" s="22"/>
+      <c r="A3780" s="25"/>
       <c r="B3780" s="7"/>
-      <c r="C3780" s="34"/>
-    </row>
-    <row r="3781" spans="1:3">
+      <c r="C3780" s="37"/>
+    </row>
+    <row r="3781" spans="2:2">
       <c r="B3781" s="7"/>
     </row>
-    <row r="3782" spans="1:3">
+    <row r="3782" spans="2:2">
       <c r="B3782" s="7"/>
     </row>
-    <row r="3783" spans="1:3">
+    <row r="3783" spans="2:2">
       <c r="B3783" s="7"/>
     </row>
-    <row r="3784" spans="1:3">
+    <row r="3784" spans="2:3">
       <c r="B3784" s="7"/>
-      <c r="C3784" s="34"/>
-    </row>
-    <row r="3790" spans="1:3">
+      <c r="C3784" s="37"/>
+    </row>
+    <row r="3790" spans="2:2">
       <c r="B3790" s="7"/>
     </row>
-    <row r="3791" spans="1:3">
+    <row r="3791" spans="2:2">
       <c r="B3791" s="7"/>
     </row>
-    <row r="3792" spans="1:3">
+    <row r="3792" spans="2:2">
       <c r="B3792" s="7"/>
     </row>
     <row r="3793" spans="2:2">
@@ -7158,346 +7876,346 @@
     <row r="3821" spans="2:2">
       <c r="B3821" s="7"/>
     </row>
-    <row r="3825" spans="1:2">
+    <row r="3825" spans="2:2">
       <c r="B3825" s="7"/>
     </row>
-    <row r="3826" spans="1:2">
+    <row r="3826" spans="2:2">
       <c r="B3826" s="7"/>
     </row>
-    <row r="3827" spans="1:2">
+    <row r="3827" spans="2:2">
       <c r="B3827" s="7"/>
     </row>
-    <row r="3828" spans="1:2">
+    <row r="3828" spans="2:2">
       <c r="B3828" s="7"/>
     </row>
-    <row r="3829" spans="1:2">
+    <row r="3829" spans="2:2">
       <c r="B3829" s="7"/>
     </row>
-    <row r="3830" spans="1:2">
+    <row r="3830" spans="2:2">
       <c r="B3830" s="7"/>
     </row>
-    <row r="3831" spans="1:2">
+    <row r="3831" spans="2:2">
       <c r="B3831" s="7"/>
     </row>
-    <row r="3832" spans="1:2">
+    <row r="3832" spans="2:2">
       <c r="B3832" s="7"/>
     </row>
-    <row r="3833" spans="1:2">
+    <row r="3833" spans="2:2">
       <c r="B3833" s="7"/>
     </row>
-    <row r="3834" spans="1:2">
+    <row r="3834" spans="2:2">
       <c r="B3834" s="7"/>
     </row>
-    <row r="3835" spans="1:2">
+    <row r="3835" spans="2:2">
       <c r="B3835" s="7"/>
     </row>
-    <row r="3836" spans="1:2">
+    <row r="3836" spans="2:2">
       <c r="B3836" s="7"/>
     </row>
-    <row r="3837" spans="1:2">
+    <row r="3837" spans="2:2">
       <c r="B3837" s="7"/>
     </row>
     <row r="3838" spans="1:2">
-      <c r="A3838" s="20"/>
+      <c r="A3838" s="23"/>
       <c r="B3838" s="7"/>
     </row>
     <row r="3839" spans="1:2">
-      <c r="A3839" s="20"/>
+      <c r="A3839" s="23"/>
       <c r="B3839" s="7"/>
     </row>
     <row r="3840" spans="1:2">
-      <c r="A3840" s="20"/>
+      <c r="A3840" s="23"/>
       <c r="B3840" s="7"/>
     </row>
-    <row r="3841" spans="1:2">
+    <row r="3841" spans="2:2">
       <c r="B3841" s="7"/>
     </row>
     <row r="3842" spans="1:2">
-      <c r="A3842" s="20"/>
+      <c r="A3842" s="23"/>
       <c r="B3842" s="7"/>
     </row>
     <row r="3843" spans="1:2">
-      <c r="A3843" s="20"/>
+      <c r="A3843" s="23"/>
       <c r="B3843" s="10"/>
     </row>
     <row r="3844" spans="1:2">
-      <c r="A3844" s="20"/>
+      <c r="A3844" s="23"/>
       <c r="B3844" s="7"/>
     </row>
     <row r="3845" spans="1:2">
-      <c r="A3845" s="20"/>
+      <c r="A3845" s="23"/>
       <c r="B3845" s="7"/>
     </row>
     <row r="3846" spans="1:2">
-      <c r="A3846" s="20"/>
+      <c r="A3846" s="23"/>
       <c r="B3846" s="7"/>
     </row>
-    <row r="3847" spans="1:2">
+    <row r="3847" spans="2:2">
       <c r="B3847" s="7"/>
     </row>
-    <row r="3848" spans="1:2">
+    <row r="3848" spans="2:2">
       <c r="B3848" s="7"/>
     </row>
     <row r="3849" spans="1:2">
-      <c r="A3849" s="20"/>
+      <c r="A3849" s="23"/>
       <c r="B3849" s="7"/>
     </row>
     <row r="3850" spans="1:2">
-      <c r="A3850" s="20"/>
+      <c r="A3850" s="23"/>
       <c r="B3850" s="7"/>
     </row>
     <row r="3851" spans="1:2">
-      <c r="A3851" s="20"/>
+      <c r="A3851" s="23"/>
       <c r="B3851" s="7"/>
     </row>
     <row r="3852" spans="1:2">
-      <c r="A3852" s="20"/>
+      <c r="A3852" s="23"/>
       <c r="B3852" s="7"/>
     </row>
     <row r="3853" spans="1:2">
-      <c r="A3853" s="20"/>
+      <c r="A3853" s="23"/>
       <c r="B3853" s="7"/>
     </row>
-    <row r="3854" spans="1:2">
+    <row r="3854" spans="2:2">
       <c r="B3854" s="7"/>
     </row>
     <row r="3855" spans="1:2">
-      <c r="A3855" s="20"/>
+      <c r="A3855" s="23"/>
       <c r="B3855" s="7"/>
     </row>
-    <row r="3856" spans="1:2">
+    <row r="3856" spans="2:2">
       <c r="B3856" s="7"/>
     </row>
-    <row r="3857" spans="1:2">
+    <row r="3857" spans="2:2">
       <c r="B3857" s="7"/>
     </row>
-    <row r="3858" spans="1:2">
+    <row r="3858" spans="2:2">
       <c r="B3858" s="7"/>
     </row>
-    <row r="3859" spans="1:2">
+    <row r="3859" spans="2:2">
       <c r="B3859" s="7"/>
     </row>
     <row r="3869" spans="1:2">
-      <c r="A3869" s="20"/>
+      <c r="A3869" s="23"/>
       <c r="B3869" s="7"/>
     </row>
     <row r="3870" spans="1:2">
-      <c r="A3870" s="22"/>
+      <c r="A3870" s="25"/>
       <c r="B3870" s="7"/>
     </row>
     <row r="3871" spans="1:2">
-      <c r="A3871" s="22"/>
+      <c r="A3871" s="25"/>
       <c r="B3871" s="7"/>
     </row>
     <row r="3872" spans="1:2">
-      <c r="A3872" s="22"/>
+      <c r="A3872" s="25"/>
       <c r="B3872" s="7"/>
     </row>
-    <row r="3873" spans="1:3">
-      <c r="A3873" s="22"/>
+    <row r="3873" spans="1:2">
+      <c r="A3873" s="25"/>
       <c r="B3873" s="7"/>
     </row>
-    <row r="3874" spans="1:3">
-      <c r="A3874" s="20"/>
+    <row r="3874" spans="1:2">
+      <c r="A3874" s="23"/>
       <c r="B3874" s="7"/>
     </row>
-    <row r="3875" spans="1:3">
-      <c r="A3875" s="20"/>
+    <row r="3875" spans="1:2">
+      <c r="A3875" s="23"/>
       <c r="B3875" s="7"/>
     </row>
-    <row r="3876" spans="1:3">
-      <c r="A3876" s="20"/>
+    <row r="3876" spans="1:2">
+      <c r="A3876" s="23"/>
       <c r="B3876" s="7"/>
     </row>
-    <row r="3877" spans="1:3">
+    <row r="3877" spans="2:3">
       <c r="B3877" s="7"/>
-      <c r="C3877" s="34"/>
+      <c r="C3877" s="37"/>
     </row>
     <row r="3893" spans="1:2">
-      <c r="A3893" s="20"/>
+      <c r="A3893" s="23"/>
       <c r="B3893" s="7"/>
     </row>
     <row r="3894" spans="1:2">
-      <c r="A3894" s="20"/>
+      <c r="A3894" s="23"/>
       <c r="B3894" s="7"/>
     </row>
-    <row r="3895" spans="1:2">
+    <row r="3895" spans="2:2">
       <c r="B3895" s="7"/>
     </row>
-    <row r="3896" spans="1:2">
+    <row r="3896" spans="2:2">
       <c r="B3896" s="7"/>
     </row>
     <row r="3897" spans="1:2">
-      <c r="A3897" s="22"/>
+      <c r="A3897" s="25"/>
       <c r="B3897" s="7"/>
     </row>
     <row r="3898" spans="1:2">
-      <c r="A3898" s="22"/>
+      <c r="A3898" s="25"/>
       <c r="B3898" s="7"/>
     </row>
     <row r="3899" spans="1:2">
-      <c r="A3899" s="22"/>
+      <c r="A3899" s="25"/>
       <c r="B3899" s="7"/>
     </row>
     <row r="3900" spans="1:2">
-      <c r="A3900" s="22"/>
+      <c r="A3900" s="25"/>
       <c r="B3900" s="7"/>
     </row>
     <row r="3901" spans="1:2">
-      <c r="A3901" s="22"/>
+      <c r="A3901" s="25"/>
       <c r="B3901" s="7"/>
     </row>
     <row r="3902" spans="1:2">
-      <c r="A3902" s="22"/>
+      <c r="A3902" s="25"/>
       <c r="B3902" s="7"/>
     </row>
     <row r="3903" spans="1:2">
-      <c r="A3903" s="22"/>
+      <c r="A3903" s="25"/>
       <c r="B3903" s="7"/>
     </row>
     <row r="3904" spans="1:2">
-      <c r="A3904" s="22"/>
+      <c r="A3904" s="25"/>
       <c r="B3904" s="7"/>
     </row>
     <row r="3905" spans="1:2">
-      <c r="A3905" s="22"/>
+      <c r="A3905" s="25"/>
       <c r="B3905" s="7"/>
     </row>
     <row r="3906" spans="1:2">
-      <c r="A3906" s="22"/>
+      <c r="A3906" s="25"/>
       <c r="B3906" s="7"/>
     </row>
     <row r="3907" spans="1:2">
-      <c r="A3907" s="22"/>
+      <c r="A3907" s="25"/>
       <c r="B3907" s="7"/>
     </row>
     <row r="3908" spans="1:2">
-      <c r="A3908" s="22"/>
+      <c r="A3908" s="25"/>
       <c r="B3908" s="7"/>
     </row>
     <row r="3909" spans="1:2">
-      <c r="A3909" s="22"/>
+      <c r="A3909" s="25"/>
       <c r="B3909" s="7"/>
     </row>
     <row r="3910" spans="1:2">
-      <c r="A3910" s="22"/>
+      <c r="A3910" s="25"/>
       <c r="B3910" s="7"/>
     </row>
     <row r="3911" spans="1:2">
-      <c r="A3911" s="22"/>
+      <c r="A3911" s="25"/>
       <c r="B3911" s="7"/>
     </row>
     <row r="3912" spans="1:2">
-      <c r="A3912" s="22"/>
+      <c r="A3912" s="25"/>
       <c r="B3912" s="7"/>
     </row>
     <row r="3913" spans="1:2">
-      <c r="A3913" s="22"/>
+      <c r="A3913" s="25"/>
       <c r="B3913" s="7"/>
     </row>
     <row r="3914" spans="1:2">
-      <c r="A3914" s="22"/>
+      <c r="A3914" s="25"/>
       <c r="B3914" s="7"/>
     </row>
     <row r="3915" spans="1:2">
-      <c r="A3915" s="22"/>
+      <c r="A3915" s="25"/>
       <c r="B3915" s="7"/>
     </row>
     <row r="3916" spans="1:2">
-      <c r="A3916" s="22"/>
+      <c r="A3916" s="25"/>
       <c r="B3916" s="7"/>
     </row>
     <row r="3917" spans="1:2">
-      <c r="A3917" s="22"/>
+      <c r="A3917" s="25"/>
       <c r="B3917" s="7"/>
     </row>
     <row r="3918" spans="1:2">
-      <c r="A3918" s="22"/>
+      <c r="A3918" s="25"/>
       <c r="B3918" s="7"/>
     </row>
     <row r="3919" spans="1:2">
-      <c r="A3919" s="22"/>
+      <c r="A3919" s="25"/>
       <c r="B3919" s="7"/>
     </row>
     <row r="3920" spans="1:2">
-      <c r="A3920" s="22"/>
+      <c r="A3920" s="25"/>
       <c r="B3920" s="7"/>
     </row>
     <row r="3921" spans="1:2">
-      <c r="A3921" s="22"/>
+      <c r="A3921" s="25"/>
       <c r="B3921" s="7"/>
     </row>
     <row r="3922" spans="1:2">
-      <c r="A3922" s="22"/>
+      <c r="A3922" s="25"/>
       <c r="B3922" s="7"/>
     </row>
     <row r="3923" spans="1:2">
-      <c r="A3923" s="22"/>
+      <c r="A3923" s="25"/>
       <c r="B3923" s="7"/>
     </row>
     <row r="3924" spans="1:2">
-      <c r="A3924" s="22"/>
+      <c r="A3924" s="25"/>
       <c r="B3924" s="7"/>
     </row>
     <row r="3925" spans="1:2">
-      <c r="A3925" s="22"/>
+      <c r="A3925" s="25"/>
       <c r="B3925" s="7"/>
     </row>
     <row r="3926" spans="1:2">
-      <c r="A3926" s="22"/>
+      <c r="A3926" s="25"/>
       <c r="B3926" s="7"/>
     </row>
     <row r="3927" spans="1:2">
-      <c r="A3927" s="22"/>
+      <c r="A3927" s="25"/>
       <c r="B3927" s="7"/>
     </row>
     <row r="3928" spans="1:2">
-      <c r="A3928" s="22"/>
+      <c r="A3928" s="25"/>
       <c r="B3928" s="7"/>
     </row>
     <row r="3929" spans="1:2">
-      <c r="A3929" s="22"/>
+      <c r="A3929" s="25"/>
       <c r="B3929" s="7"/>
     </row>
     <row r="3930" spans="1:2">
-      <c r="A3930" s="22"/>
+      <c r="A3930" s="25"/>
       <c r="B3930" s="7"/>
     </row>
     <row r="3931" spans="1:2">
-      <c r="A3931" s="22"/>
+      <c r="A3931" s="25"/>
       <c r="B3931" s="7"/>
     </row>
     <row r="3932" spans="1:2">
-      <c r="A3932" s="22"/>
+      <c r="A3932" s="25"/>
       <c r="B3932" s="7"/>
     </row>
     <row r="3933" spans="1:2">
-      <c r="A3933" s="22"/>
+      <c r="A3933" s="25"/>
       <c r="B3933" s="7"/>
     </row>
     <row r="3934" spans="1:2">
-      <c r="A3934" s="22"/>
+      <c r="A3934" s="25"/>
       <c r="B3934" s="7"/>
     </row>
     <row r="3939" spans="1:2">
-      <c r="A3939" s="22"/>
+      <c r="A3939" s="25"/>
       <c r="B3939" s="7"/>
     </row>
     <row r="3942" spans="1:2">
-      <c r="A3942" s="20"/>
+      <c r="A3942" s="23"/>
       <c r="B3942" s="7"/>
     </row>
     <row r="3943" spans="1:2">
-      <c r="A3943" s="20"/>
+      <c r="A3943" s="23"/>
       <c r="B3943" s="7"/>
     </row>
-    <row r="3944" spans="1:2">
+    <row r="3944" spans="2:2">
       <c r="B3944" s="7"/>
     </row>
-    <row r="3947" spans="1:2">
+    <row r="3947" spans="2:2">
       <c r="B3947" s="7"/>
     </row>
-    <row r="3948" spans="1:2">
+    <row r="3948" spans="2:2">
       <c r="B3948" s="7"/>
     </row>
     <row r="3965" spans="2:2">
@@ -7512,38 +8230,38 @@
     <row r="3968" spans="2:2">
       <c r="B3968" s="7"/>
     </row>
-    <row r="3969" spans="1:3">
+    <row r="3969" spans="2:2">
       <c r="B3969" s="5"/>
     </row>
-    <row r="3970" spans="1:3">
+    <row r="3970" spans="2:2">
       <c r="B3970" s="7"/>
     </row>
-    <row r="3971" spans="1:3">
+    <row r="3971" spans="2:2">
       <c r="B3971" s="7"/>
     </row>
-    <row r="3972" spans="1:3">
+    <row r="3972" spans="2:3">
       <c r="B3972" s="7"/>
       <c r="C3972" s="7"/>
     </row>
-    <row r="3973" spans="1:3">
+    <row r="3973" spans="2:2">
       <c r="B3973" s="7"/>
     </row>
-    <row r="3974" spans="1:3">
+    <row r="3974" spans="2:2">
       <c r="B3974" s="7"/>
     </row>
-    <row r="3975" spans="1:3">
+    <row r="3975" spans="2:2">
       <c r="B3975" s="7"/>
     </row>
-    <row r="3976" spans="1:3">
-      <c r="A3976" s="20"/>
+    <row r="3976" spans="1:2">
+      <c r="A3976" s="23"/>
       <c r="B3976" s="7"/>
     </row>
-    <row r="3977" spans="1:3">
-      <c r="A3977" s="20"/>
+    <row r="3977" spans="1:2">
+      <c r="A3977" s="23"/>
       <c r="B3977" s="7"/>
     </row>
-    <row r="3982" spans="1:3">
-      <c r="A3982" s="20"/>
+    <row r="3982" spans="1:2">
+      <c r="A3982" s="23"/>
       <c r="B3982" s="7"/>
     </row>
     <row r="3990" spans="2:2">
@@ -7603,80 +8321,80 @@
     <row r="4016" spans="2:2">
       <c r="B4016" s="7"/>
     </row>
-    <row r="4017" spans="1:2">
+    <row r="4017" spans="2:2">
       <c r="B4017" s="7"/>
     </row>
-    <row r="4018" spans="1:2">
+    <row r="4018" spans="2:2">
       <c r="B4018" s="7"/>
     </row>
-    <row r="4019" spans="1:2">
+    <row r="4019" spans="2:2">
       <c r="B4019" s="7"/>
     </row>
-    <row r="4020" spans="1:2">
+    <row r="4020" spans="2:2">
       <c r="B4020" s="7"/>
     </row>
-    <row r="4021" spans="1:2">
+    <row r="4021" spans="2:2">
       <c r="B4021" s="7"/>
     </row>
-    <row r="4022" spans="1:2">
+    <row r="4022" spans="2:2">
       <c r="B4022" s="7"/>
     </row>
-    <row r="4023" spans="1:2">
+    <row r="4023" spans="2:2">
       <c r="B4023" s="7"/>
     </row>
     <row r="4024" spans="1:2">
-      <c r="A4024" s="22"/>
+      <c r="A4024" s="25"/>
       <c r="B4024" s="7"/>
     </row>
     <row r="4025" spans="1:2">
-      <c r="A4025" s="20"/>
+      <c r="A4025" s="23"/>
       <c r="B4025" s="7"/>
     </row>
     <row r="4026" spans="1:2">
-      <c r="A4026" s="20"/>
+      <c r="A4026" s="23"/>
       <c r="B4026" s="7"/>
     </row>
-    <row r="4027" spans="1:2">
+    <row r="4027" spans="2:2">
       <c r="B4027" s="7"/>
     </row>
-    <row r="4028" spans="1:2">
+    <row r="4028" spans="2:2">
       <c r="B4028" s="7"/>
     </row>
-    <row r="4029" spans="1:2">
+    <row r="4029" spans="2:2">
       <c r="B4029" s="7"/>
     </row>
-    <row r="4033" spans="1:2">
+    <row r="4033" spans="2:2">
       <c r="B4033" s="7"/>
     </row>
     <row r="4034" spans="1:2">
-      <c r="A4034" s="20"/>
+      <c r="A4034" s="23"/>
       <c r="B4034" s="7"/>
     </row>
-    <row r="4036" spans="1:2">
+    <row r="4036" spans="2:2">
       <c r="B4036" s="7"/>
     </row>
-    <row r="4037" spans="1:2">
+    <row r="4037" spans="2:2">
       <c r="B4037" s="7"/>
     </row>
-    <row r="4038" spans="1:2">
+    <row r="4038" spans="2:2">
       <c r="B4038" s="7"/>
     </row>
-    <row r="4039" spans="1:2">
+    <row r="4039" spans="2:2">
       <c r="B4039" s="7"/>
     </row>
-    <row r="4042" spans="1:2">
+    <row r="4042" spans="2:2">
       <c r="B4042" s="7"/>
     </row>
-    <row r="4043" spans="1:2">
+    <row r="4043" spans="2:2">
       <c r="B4043" s="7"/>
     </row>
-    <row r="4045" spans="1:2">
+    <row r="4045" spans="2:2">
       <c r="B4045" s="7"/>
     </row>
-    <row r="4046" spans="1:2">
+    <row r="4046" spans="2:2">
       <c r="B4046" s="7"/>
     </row>
-    <row r="4048" spans="1:2">
+    <row r="4048" spans="2:2">
       <c r="B4048" s="7"/>
     </row>
     <row r="4049" spans="2:2">
@@ -7712,40 +8430,40 @@
     <row r="4080" spans="2:2">
       <c r="B4080" s="7"/>
     </row>
-    <row r="4081" spans="1:3">
+    <row r="4081" spans="2:2">
       <c r="B4081" s="7"/>
     </row>
-    <row r="4084" spans="1:3">
+    <row r="4084" spans="2:2">
       <c r="B4084" s="7"/>
     </row>
-    <row r="4085" spans="1:3">
+    <row r="4085" spans="2:2">
       <c r="B4085" s="7"/>
     </row>
-    <row r="4086" spans="1:3">
+    <row r="4086" spans="2:2">
       <c r="B4086" s="7"/>
     </row>
-    <row r="4087" spans="1:3">
-      <c r="A4087" s="20"/>
+    <row r="4087" spans="1:2">
+      <c r="A4087" s="23"/>
       <c r="B4087" s="7"/>
     </row>
-    <row r="4088" spans="1:3">
-      <c r="A4088" s="20"/>
+    <row r="4088" spans="1:2">
+      <c r="A4088" s="23"/>
       <c r="B4088" s="7"/>
     </row>
-    <row r="4089" spans="1:3">
-      <c r="A4089" s="20"/>
+    <row r="4089" spans="1:2">
+      <c r="A4089" s="23"/>
       <c r="B4089" s="7"/>
     </row>
-    <row r="4090" spans="1:3">
+    <row r="4090" spans="2:2">
       <c r="B4090" s="7"/>
     </row>
-    <row r="4091" spans="1:3">
+    <row r="4091" spans="2:2">
       <c r="B4091" s="7"/>
     </row>
-    <row r="4093" spans="1:3" ht="15.75">
-      <c r="A4093" s="37"/>
+    <row r="4093" ht="15.75" spans="1:3">
+      <c r="A4093" s="40"/>
       <c r="B4093" s="7"/>
-      <c r="C4093" s="38"/>
+      <c r="C4093" s="41"/>
     </row>
     <row r="4138" spans="2:2">
       <c r="B4138" s="7"/>
@@ -7859,261 +8577,261 @@
       <c r="B4204" s="7"/>
     </row>
     <row r="4205" spans="2:2">
-      <c r="B4205" s="28"/>
+      <c r="B4205" s="31"/>
     </row>
     <row r="4206" spans="2:2">
-      <c r="B4206" s="28"/>
+      <c r="B4206" s="31"/>
     </row>
     <row r="4207" spans="2:2">
-      <c r="B4207" s="28"/>
+      <c r="B4207" s="31"/>
     </row>
     <row r="4208" spans="2:2">
-      <c r="B4208" s="28"/>
+      <c r="B4208" s="31"/>
     </row>
     <row r="4209" spans="2:2">
-      <c r="B4209" s="28"/>
+      <c r="B4209" s="31"/>
     </row>
     <row r="4210" spans="2:2">
-      <c r="B4210" s="28"/>
+      <c r="B4210" s="31"/>
     </row>
     <row r="4211" spans="2:2">
-      <c r="B4211" s="28"/>
+      <c r="B4211" s="31"/>
     </row>
     <row r="4212" spans="2:2">
-      <c r="B4212" s="28"/>
+      <c r="B4212" s="31"/>
     </row>
     <row r="4213" spans="2:2">
-      <c r="B4213" s="28"/>
+      <c r="B4213" s="31"/>
     </row>
     <row r="4214" spans="2:2">
-      <c r="B4214" s="28"/>
+      <c r="B4214" s="31"/>
     </row>
     <row r="4215" spans="2:2">
-      <c r="B4215" s="28"/>
+      <c r="B4215" s="31"/>
     </row>
     <row r="4216" spans="2:2">
-      <c r="B4216" s="28"/>
+      <c r="B4216" s="31"/>
     </row>
     <row r="4217" spans="2:2">
-      <c r="B4217" s="28"/>
+      <c r="B4217" s="31"/>
     </row>
     <row r="4218" spans="2:2">
-      <c r="B4218" s="28"/>
+      <c r="B4218" s="31"/>
     </row>
     <row r="4219" spans="2:2">
-      <c r="B4219" s="28"/>
+      <c r="B4219" s="31"/>
     </row>
     <row r="4220" spans="2:2">
-      <c r="B4220" s="28"/>
+      <c r="B4220" s="31"/>
     </row>
     <row r="4221" spans="2:2">
-      <c r="B4221" s="28"/>
+      <c r="B4221" s="31"/>
     </row>
     <row r="4222" spans="2:2">
-      <c r="B4222" s="28"/>
+      <c r="B4222" s="31"/>
     </row>
     <row r="4223" spans="2:2">
-      <c r="B4223" s="28"/>
+      <c r="B4223" s="31"/>
     </row>
     <row r="4224" spans="2:2">
-      <c r="B4224" s="28"/>
+      <c r="B4224" s="31"/>
     </row>
     <row r="4225" spans="2:2">
-      <c r="B4225" s="28"/>
+      <c r="B4225" s="31"/>
     </row>
     <row r="4226" spans="2:2">
-      <c r="B4226" s="28"/>
+      <c r="B4226" s="31"/>
     </row>
     <row r="4227" spans="2:2">
-      <c r="B4227" s="28"/>
+      <c r="B4227" s="31"/>
     </row>
     <row r="4228" spans="2:2">
-      <c r="B4228" s="28"/>
+      <c r="B4228" s="31"/>
     </row>
     <row r="4229" spans="2:2">
-      <c r="B4229" s="28"/>
+      <c r="B4229" s="31"/>
     </row>
     <row r="4230" spans="2:2">
-      <c r="B4230" s="28"/>
+      <c r="B4230" s="31"/>
     </row>
     <row r="4231" spans="2:2">
-      <c r="B4231" s="28"/>
+      <c r="B4231" s="31"/>
     </row>
     <row r="4232" spans="2:2">
-      <c r="B4232" s="28"/>
+      <c r="B4232" s="31"/>
     </row>
     <row r="4233" spans="2:2">
-      <c r="B4233" s="28"/>
+      <c r="B4233" s="31"/>
     </row>
     <row r="4234" spans="2:2">
-      <c r="B4234" s="28"/>
+      <c r="B4234" s="31"/>
     </row>
     <row r="4235" spans="2:2">
-      <c r="B4235" s="28"/>
+      <c r="B4235" s="31"/>
     </row>
     <row r="4236" spans="2:2">
-      <c r="B4236" s="28"/>
+      <c r="B4236" s="31"/>
     </row>
     <row r="4237" spans="2:2">
-      <c r="B4237" s="28"/>
+      <c r="B4237" s="31"/>
     </row>
     <row r="4238" spans="2:2">
-      <c r="B4238" s="28"/>
+      <c r="B4238" s="31"/>
     </row>
     <row r="4239" spans="2:2">
-      <c r="B4239" s="28"/>
+      <c r="B4239" s="31"/>
     </row>
     <row r="4240" spans="2:2">
-      <c r="B4240" s="28"/>
+      <c r="B4240" s="31"/>
     </row>
     <row r="4241" spans="2:2">
-      <c r="B4241" s="28"/>
+      <c r="B4241" s="31"/>
     </row>
     <row r="4242" spans="2:2">
-      <c r="B4242" s="28"/>
+      <c r="B4242" s="31"/>
     </row>
     <row r="4243" spans="2:2">
-      <c r="B4243" s="28"/>
+      <c r="B4243" s="31"/>
     </row>
     <row r="4244" spans="2:2">
-      <c r="B4244" s="28"/>
+      <c r="B4244" s="31"/>
     </row>
     <row r="4245" spans="2:2">
-      <c r="B4245" s="28"/>
+      <c r="B4245" s="31"/>
     </row>
     <row r="4246" spans="2:2">
-      <c r="B4246" s="28"/>
+      <c r="B4246" s="31"/>
     </row>
     <row r="4247" spans="2:2">
-      <c r="B4247" s="28"/>
+      <c r="B4247" s="31"/>
     </row>
     <row r="4248" spans="2:2">
-      <c r="B4248" s="28"/>
+      <c r="B4248" s="31"/>
     </row>
     <row r="4249" spans="2:2">
-      <c r="B4249" s="28"/>
+      <c r="B4249" s="31"/>
     </row>
     <row r="4250" spans="2:2">
-      <c r="B4250" s="28"/>
+      <c r="B4250" s="31"/>
     </row>
     <row r="4251" spans="2:2">
-      <c r="B4251" s="28"/>
+      <c r="B4251" s="31"/>
     </row>
     <row r="4252" spans="2:2">
-      <c r="B4252" s="28"/>
+      <c r="B4252" s="31"/>
     </row>
     <row r="4253" spans="2:2">
-      <c r="B4253" s="28"/>
+      <c r="B4253" s="31"/>
     </row>
     <row r="4254" spans="2:2">
-      <c r="B4254" s="28"/>
+      <c r="B4254" s="31"/>
     </row>
     <row r="4255" spans="2:2">
-      <c r="B4255" s="28"/>
+      <c r="B4255" s="31"/>
     </row>
     <row r="4256" spans="2:2">
-      <c r="B4256" s="28"/>
-    </row>
-    <row r="4257" spans="1:2">
-      <c r="B4257" s="28"/>
-    </row>
-    <row r="4258" spans="1:2">
-      <c r="B4258" s="28"/>
-    </row>
-    <row r="4259" spans="1:2">
-      <c r="B4259" s="28"/>
-    </row>
-    <row r="4260" spans="1:2">
-      <c r="B4260" s="28"/>
-    </row>
-    <row r="4261" spans="1:2">
-      <c r="B4261" s="28"/>
-    </row>
-    <row r="4262" spans="1:2">
+      <c r="B4256" s="31"/>
+    </row>
+    <row r="4257" spans="2:2">
+      <c r="B4257" s="31"/>
+    </row>
+    <row r="4258" spans="2:2">
+      <c r="B4258" s="31"/>
+    </row>
+    <row r="4259" spans="2:2">
+      <c r="B4259" s="31"/>
+    </row>
+    <row r="4260" spans="2:2">
+      <c r="B4260" s="31"/>
+    </row>
+    <row r="4261" spans="2:2">
+      <c r="B4261" s="31"/>
+    </row>
+    <row r="4262" spans="2:2">
       <c r="B4262" s="7"/>
     </row>
-    <row r="4263" spans="1:2">
+    <row r="4263" spans="2:2">
       <c r="B4263" s="7"/>
     </row>
     <row r="4264" spans="1:2">
-      <c r="A4264" s="20"/>
+      <c r="A4264" s="23"/>
       <c r="B4264" s="7"/>
     </row>
-    <row r="4266" spans="1:2">
+    <row r="4266" spans="2:2">
       <c r="B4266" s="7"/>
     </row>
-    <row r="4267" spans="1:2">
+    <row r="4267" spans="2:2">
       <c r="B4267" s="7"/>
     </row>
-    <row r="4268" spans="1:2">
+    <row r="4268" spans="2:2">
       <c r="B4268" s="7"/>
     </row>
-    <row r="4269" spans="1:2">
+    <row r="4269" spans="2:2">
       <c r="B4269" s="7"/>
     </row>
-    <row r="4270" spans="1:2">
+    <row r="4270" spans="2:2">
       <c r="B4270" s="7"/>
     </row>
-    <row r="4271" spans="1:2">
+    <row r="4271" spans="2:2">
       <c r="B4271" s="7"/>
     </row>
-    <row r="4272" spans="1:2">
+    <row r="4272" spans="2:2">
       <c r="B4272" s="7"/>
     </row>
-    <row r="4273" spans="1:2">
+    <row r="4273" spans="2:2">
       <c r="B4273" s="7"/>
     </row>
-    <row r="4276" spans="1:2">
+    <row r="4276" spans="2:2">
       <c r="B4276" s="7"/>
     </row>
     <row r="4277" spans="1:2">
-      <c r="A4277" s="20"/>
+      <c r="A4277" s="23"/>
       <c r="B4277" s="7"/>
     </row>
-    <row r="4278" spans="1:2">
-      <c r="B4278" s="33"/>
-    </row>
-    <row r="4279" spans="1:2">
+    <row r="4278" spans="2:2">
+      <c r="B4278" s="36"/>
+    </row>
+    <row r="4279" spans="2:2">
       <c r="B4279" s="7"/>
     </row>
-    <row r="4280" spans="1:2">
+    <row r="4280" spans="2:2">
       <c r="B4280" s="7"/>
     </row>
-    <row r="4281" spans="1:2">
+    <row r="4281" spans="2:2">
       <c r="B4281" s="7"/>
     </row>
-    <row r="4282" spans="1:2">
+    <row r="4282" spans="2:2">
       <c r="B4282" s="7"/>
     </row>
-    <row r="4283" spans="1:2">
+    <row r="4283" spans="2:2">
       <c r="B4283" s="7"/>
     </row>
-    <row r="4284" spans="1:2">
+    <row r="4284" spans="2:2">
       <c r="B4284" s="7"/>
     </row>
-    <row r="4285" spans="1:2">
+    <row r="4285" spans="2:2">
       <c r="B4285" s="7"/>
     </row>
-    <row r="4290" spans="1:2">
+    <row r="4290" spans="2:2">
       <c r="B4290" s="7"/>
     </row>
-    <row r="4291" spans="1:2">
+    <row r="4291" spans="2:2">
       <c r="B4291" s="7"/>
     </row>
-    <row r="4292" spans="1:2">
+    <row r="4292" spans="2:2">
       <c r="B4292" s="7"/>
     </row>
-    <row r="4294" spans="1:2">
+    <row r="4294" spans="2:2">
       <c r="B4294" s="7"/>
     </row>
-    <row r="4295" spans="1:2">
+    <row r="4295" spans="2:2">
       <c r="B4295" s="7"/>
     </row>
-    <row r="4299" spans="1:2">
+    <row r="4299" spans="2:2">
       <c r="B4299" s="7"/>
     </row>
-    <row r="4300" spans="1:2">
-      <c r="A4300" s="20"/>
+    <row r="4300" spans="1:1">
+      <c r="A4300" s="23"/>
     </row>
     <row r="4307" spans="2:2">
       <c r="B4307" s="7"/>
@@ -8229,528 +8947,528 @@
     <row r="4366" spans="2:2">
       <c r="B4366" s="7"/>
     </row>
-    <row r="4374" spans="1:7" ht="18" customHeight="1">
-      <c r="A4374" s="39"/>
-      <c r="B4374" s="40"/>
-      <c r="C4374" s="41"/>
-      <c r="D4374" s="41"/>
-      <c r="E4374" s="41"/>
-      <c r="F4374" s="41"/>
-      <c r="G4374" s="41"/>
+    <row r="4374" ht="18" customHeight="1" spans="1:7">
+      <c r="A4374" s="42"/>
+      <c r="B4374" s="43"/>
+      <c r="C4374" s="44"/>
+      <c r="D4374" s="44"/>
+      <c r="E4374" s="44"/>
+      <c r="F4374" s="44"/>
+      <c r="G4374" s="44"/>
     </row>
     <row r="4375" spans="1:7">
-      <c r="A4375" s="39"/>
-      <c r="B4375" s="40"/>
-      <c r="C4375" s="41"/>
-      <c r="D4375" s="41"/>
-      <c r="E4375" s="41"/>
-      <c r="F4375" s="41"/>
-      <c r="G4375" s="41"/>
-    </row>
-    <row r="4376" spans="1:7">
+      <c r="A4375" s="42"/>
+      <c r="B4375" s="43"/>
+      <c r="C4375" s="44"/>
+      <c r="D4375" s="44"/>
+      <c r="E4375" s="44"/>
+      <c r="F4375" s="44"/>
+      <c r="G4375" s="44"/>
+    </row>
+    <row r="4376" spans="2:7">
       <c r="B4376" s="7"/>
-      <c r="C4376" s="41"/>
-      <c r="D4376" s="41"/>
-      <c r="E4376" s="41"/>
-      <c r="F4376" s="41"/>
-      <c r="G4376" s="41"/>
-    </row>
-    <row r="4377" spans="1:7">
+      <c r="C4376" s="44"/>
+      <c r="D4376" s="44"/>
+      <c r="E4376" s="44"/>
+      <c r="F4376" s="44"/>
+      <c r="G4376" s="44"/>
+    </row>
+    <row r="4377" spans="2:7">
       <c r="B4377" s="7"/>
-      <c r="C4377" s="41"/>
-      <c r="D4377" s="41"/>
-      <c r="E4377" s="41"/>
-      <c r="F4377" s="41"/>
-      <c r="G4377" s="41"/>
-    </row>
-    <row r="4378" spans="1:7">
+      <c r="C4377" s="44"/>
+      <c r="D4377" s="44"/>
+      <c r="E4377" s="44"/>
+      <c r="F4377" s="44"/>
+      <c r="G4377" s="44"/>
+    </row>
+    <row r="4378" spans="2:7">
       <c r="B4378" s="7"/>
-      <c r="C4378" s="41"/>
-      <c r="D4378" s="41"/>
-      <c r="E4378" s="41"/>
-      <c r="F4378" s="41"/>
-      <c r="G4378" s="41"/>
-    </row>
-    <row r="4379" spans="1:7">
+      <c r="C4378" s="44"/>
+      <c r="D4378" s="44"/>
+      <c r="E4378" s="44"/>
+      <c r="F4378" s="44"/>
+      <c r="G4378" s="44"/>
+    </row>
+    <row r="4379" spans="2:7">
       <c r="B4379" s="7"/>
-      <c r="C4379" s="41"/>
-      <c r="D4379" s="41"/>
-      <c r="E4379" s="41"/>
-      <c r="F4379" s="41"/>
-      <c r="G4379" s="41"/>
-    </row>
-    <row r="4380" spans="1:7">
+      <c r="C4379" s="44"/>
+      <c r="D4379" s="44"/>
+      <c r="E4379" s="44"/>
+      <c r="F4379" s="44"/>
+      <c r="G4379" s="44"/>
+    </row>
+    <row r="4380" spans="2:7">
       <c r="B4380" s="7"/>
-      <c r="C4380" s="41"/>
-      <c r="D4380" s="41"/>
-      <c r="E4380" s="41"/>
-      <c r="F4380" s="41"/>
-      <c r="G4380" s="41"/>
+      <c r="C4380" s="44"/>
+      <c r="D4380" s="44"/>
+      <c r="E4380" s="44"/>
+      <c r="F4380" s="44"/>
+      <c r="G4380" s="44"/>
     </row>
     <row r="4411" spans="2:7">
       <c r="B4411" s="7"/>
-      <c r="D4411" s="41"/>
-      <c r="E4411" s="41"/>
-      <c r="F4411" s="41"/>
-      <c r="G4411" s="41"/>
+      <c r="D4411" s="44"/>
+      <c r="E4411" s="44"/>
+      <c r="F4411" s="44"/>
+      <c r="G4411" s="44"/>
     </row>
     <row r="4412" spans="2:7">
       <c r="B4412" s="7"/>
-      <c r="D4412" s="41"/>
-      <c r="E4412" s="41"/>
-      <c r="F4412" s="41"/>
-      <c r="G4412" s="41"/>
+      <c r="D4412" s="44"/>
+      <c r="E4412" s="44"/>
+      <c r="F4412" s="44"/>
+      <c r="G4412" s="44"/>
     </row>
     <row r="4413" spans="2:7">
       <c r="B4413" s="7"/>
-      <c r="D4413" s="41"/>
-      <c r="E4413" s="41"/>
-      <c r="F4413" s="41"/>
-      <c r="G4413" s="41"/>
-    </row>
-    <row r="4414" spans="2:7">
+      <c r="D4413" s="44"/>
+      <c r="E4413" s="44"/>
+      <c r="F4413" s="44"/>
+      <c r="G4413" s="44"/>
+    </row>
+    <row r="4414" spans="2:2">
       <c r="B4414" s="7"/>
     </row>
-    <row r="4415" spans="2:7">
+    <row r="4415" spans="2:2">
       <c r="B4415" s="7"/>
     </row>
-    <row r="4417" spans="1:7">
+    <row r="4417" spans="2:2">
       <c r="B4417" s="7"/>
     </row>
-    <row r="4418" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4418" ht="15.75" customHeight="1" spans="2:7">
       <c r="B4418" s="7"/>
-      <c r="D4418" s="41"/>
-      <c r="E4418" s="41"/>
-      <c r="F4418" s="41"/>
-      <c r="G4418" s="41"/>
-    </row>
-    <row r="4419" spans="1:7">
+      <c r="D4418" s="44"/>
+      <c r="E4418" s="44"/>
+      <c r="F4418" s="44"/>
+      <c r="G4418" s="44"/>
+    </row>
+    <row r="4419" spans="2:7">
       <c r="B4419" s="7"/>
-      <c r="D4419" s="41"/>
-      <c r="E4419" s="41"/>
-      <c r="F4419" s="41"/>
-      <c r="G4419" s="41"/>
-    </row>
-    <row r="4420" spans="1:7">
+      <c r="D4419" s="44"/>
+      <c r="E4419" s="44"/>
+      <c r="F4419" s="44"/>
+      <c r="G4419" s="44"/>
+    </row>
+    <row r="4420" spans="2:7">
       <c r="B4420" s="7"/>
-      <c r="D4420" s="41"/>
-      <c r="E4420" s="41"/>
-      <c r="F4420" s="41"/>
-      <c r="G4420" s="41"/>
-    </row>
-    <row r="4421" spans="1:7">
+      <c r="D4420" s="44"/>
+      <c r="E4420" s="44"/>
+      <c r="F4420" s="44"/>
+      <c r="G4420" s="44"/>
+    </row>
+    <row r="4421" spans="2:7">
       <c r="B4421" s="7"/>
-      <c r="D4421" s="41"/>
-      <c r="E4421" s="41"/>
-      <c r="F4421" s="41"/>
-      <c r="G4421" s="41"/>
-    </row>
-    <row r="4422" spans="1:7">
+      <c r="D4421" s="44"/>
+      <c r="E4421" s="44"/>
+      <c r="F4421" s="44"/>
+      <c r="G4421" s="44"/>
+    </row>
+    <row r="4422" spans="2:7">
       <c r="B4422" s="7"/>
-      <c r="D4422" s="41"/>
-      <c r="E4422" s="41"/>
-      <c r="F4422" s="41"/>
-      <c r="G4422" s="41"/>
-    </row>
-    <row r="4423" spans="1:7">
+      <c r="D4422" s="44"/>
+      <c r="E4422" s="44"/>
+      <c r="F4422" s="44"/>
+      <c r="G4422" s="44"/>
+    </row>
+    <row r="4423" spans="2:7">
       <c r="B4423" s="7"/>
-      <c r="D4423" s="41"/>
-      <c r="E4423" s="41"/>
-      <c r="F4423" s="41"/>
-      <c r="G4423" s="41"/>
-    </row>
-    <row r="4424" spans="1:7">
+      <c r="D4423" s="44"/>
+      <c r="E4423" s="44"/>
+      <c r="F4423" s="44"/>
+      <c r="G4423" s="44"/>
+    </row>
+    <row r="4424" spans="2:7">
       <c r="B4424" s="7"/>
-      <c r="D4424" s="41"/>
-      <c r="E4424" s="41"/>
-      <c r="F4424" s="41"/>
-      <c r="G4424" s="41"/>
-    </row>
-    <row r="4425" spans="1:7">
+      <c r="D4424" s="44"/>
+      <c r="E4424" s="44"/>
+      <c r="F4424" s="44"/>
+      <c r="G4424" s="44"/>
+    </row>
+    <row r="4425" spans="2:7">
       <c r="B4425" s="7"/>
-      <c r="D4425" s="41"/>
-      <c r="E4425" s="41"/>
-      <c r="F4425" s="41"/>
-      <c r="G4425" s="41"/>
-    </row>
-    <row r="4426" spans="1:7">
+      <c r="D4425" s="44"/>
+      <c r="E4425" s="44"/>
+      <c r="F4425" s="44"/>
+      <c r="G4425" s="44"/>
+    </row>
+    <row r="4426" spans="2:7">
       <c r="B4426" s="7"/>
-      <c r="D4426" s="41"/>
-      <c r="E4426" s="41"/>
-      <c r="F4426" s="41"/>
-      <c r="G4426" s="41"/>
+      <c r="D4426" s="44"/>
+      <c r="E4426" s="44"/>
+      <c r="F4426" s="44"/>
+      <c r="G4426" s="44"/>
     </row>
     <row r="4427" spans="1:7">
-      <c r="A4427" s="20"/>
+      <c r="A4427" s="23"/>
       <c r="B4427" s="7"/>
-      <c r="D4427" s="41"/>
-      <c r="E4427" s="41"/>
-      <c r="F4427" s="41"/>
-      <c r="G4427" s="41"/>
+      <c r="D4427" s="44"/>
+      <c r="E4427" s="44"/>
+      <c r="F4427" s="44"/>
+      <c r="G4427" s="44"/>
     </row>
     <row r="4428" spans="1:7">
-      <c r="A4428" s="20"/>
+      <c r="A4428" s="23"/>
       <c r="B4428" s="7"/>
-      <c r="D4428" s="41"/>
-      <c r="E4428" s="41"/>
-      <c r="F4428" s="41"/>
-      <c r="G4428" s="41"/>
+      <c r="D4428" s="44"/>
+      <c r="E4428" s="44"/>
+      <c r="F4428" s="44"/>
+      <c r="G4428" s="44"/>
     </row>
     <row r="4429" spans="1:7">
-      <c r="A4429" s="20"/>
+      <c r="A4429" s="23"/>
       <c r="B4429" s="7"/>
-      <c r="D4429" s="41"/>
-      <c r="E4429" s="41"/>
-      <c r="F4429" s="41"/>
-      <c r="G4429" s="41"/>
-    </row>
-    <row r="4463" spans="2:7">
+      <c r="D4429" s="44"/>
+      <c r="E4429" s="44"/>
+      <c r="F4429" s="44"/>
+      <c r="G4429" s="44"/>
+    </row>
+    <row r="4463" spans="2:2">
       <c r="B4463" s="7"/>
     </row>
     <row r="4464" spans="2:7">
       <c r="B4464" s="7"/>
-      <c r="D4464" s="41"/>
-      <c r="E4464" s="41"/>
-      <c r="F4464" s="41"/>
-      <c r="G4464" s="41"/>
-    </row>
-    <row r="4465" spans="1:7">
+      <c r="D4464" s="44"/>
+      <c r="E4464" s="44"/>
+      <c r="F4464" s="44"/>
+      <c r="G4464" s="44"/>
+    </row>
+    <row r="4465" spans="2:7">
       <c r="B4465" s="7"/>
-      <c r="D4465" s="41"/>
-      <c r="E4465" s="41"/>
-      <c r="F4465" s="41"/>
-      <c r="G4465" s="41"/>
-    </row>
-    <row r="4466" spans="1:7">
+      <c r="D4465" s="44"/>
+      <c r="E4465" s="44"/>
+      <c r="F4465" s="44"/>
+      <c r="G4465" s="44"/>
+    </row>
+    <row r="4466" spans="2:7">
       <c r="B4466" s="7"/>
-      <c r="D4466" s="41"/>
-      <c r="E4466" s="41"/>
-      <c r="F4466" s="41"/>
-      <c r="G4466" s="41"/>
-    </row>
-    <row r="4467" spans="1:7">
+      <c r="D4466" s="44"/>
+      <c r="E4466" s="44"/>
+      <c r="F4466" s="44"/>
+      <c r="G4466" s="44"/>
+    </row>
+    <row r="4467" spans="2:2">
       <c r="B4467" s="7"/>
     </row>
-    <row r="4468" spans="1:7">
+    <row r="4468" spans="2:2">
       <c r="B4468" s="7"/>
     </row>
-    <row r="4469" spans="1:7">
+    <row r="4469" spans="2:2">
       <c r="B4469" s="7"/>
     </row>
-    <row r="4470" spans="1:7">
+    <row r="4470" spans="2:7">
       <c r="B4470" s="7"/>
-      <c r="D4470" s="41"/>
-      <c r="E4470" s="41"/>
-      <c r="F4470" s="41"/>
-      <c r="G4470" s="41"/>
-    </row>
-    <row r="4472" spans="1:7" ht="15.75">
-      <c r="A4472" s="37"/>
+      <c r="D4470" s="44"/>
+      <c r="E4470" s="44"/>
+      <c r="F4470" s="44"/>
+      <c r="G4470" s="44"/>
+    </row>
+    <row r="4472" ht="15.75" spans="1:2">
+      <c r="A4472" s="40"/>
       <c r="B4472" s="7"/>
     </row>
-    <row r="4476" spans="1:7">
+    <row r="4476" spans="2:2">
       <c r="B4476" s="7"/>
     </row>
-    <row r="4477" spans="1:7">
+    <row r="4477" spans="2:2">
       <c r="B4477" s="7"/>
     </row>
-    <row r="4478" spans="1:7">
+    <row r="4478" spans="2:2">
       <c r="B4478" s="7"/>
     </row>
-    <row r="4483" spans="1:7">
+    <row r="4483" spans="2:2">
       <c r="B4483" s="7"/>
     </row>
-    <row r="4484" spans="1:7">
+    <row r="4484" spans="2:2">
       <c r="B4484" s="7"/>
     </row>
-    <row r="4485" spans="1:7">
+    <row r="4485" spans="2:2">
       <c r="B4485" s="7"/>
     </row>
-    <row r="4486" spans="1:7" ht="15.75">
-      <c r="A4486" s="37"/>
+    <row r="4486" ht="15.75" spans="1:2">
+      <c r="A4486" s="40"/>
       <c r="B4486" s="7"/>
     </row>
-    <row r="4487" spans="1:7">
+    <row r="4487" spans="2:7">
       <c r="B4487" s="7"/>
-      <c r="D4487" s="41"/>
-      <c r="E4487" s="41"/>
-      <c r="F4487" s="41"/>
-      <c r="G4487" s="41"/>
-    </row>
-    <row r="4488" spans="1:7">
+      <c r="D4487" s="44"/>
+      <c r="E4487" s="44"/>
+      <c r="F4487" s="44"/>
+      <c r="G4487" s="44"/>
+    </row>
+    <row r="4488" spans="2:7">
       <c r="B4488" s="7"/>
-      <c r="D4488" s="41"/>
-      <c r="E4488" s="41"/>
-      <c r="F4488" s="41"/>
-      <c r="G4488" s="41"/>
-    </row>
-    <row r="4489" spans="1:7">
+      <c r="D4488" s="44"/>
+      <c r="E4488" s="44"/>
+      <c r="F4488" s="44"/>
+      <c r="G4488" s="44"/>
+    </row>
+    <row r="4489" spans="2:7">
       <c r="B4489" s="7"/>
-      <c r="D4489" s="41"/>
-      <c r="E4489" s="41"/>
-      <c r="F4489" s="41"/>
-      <c r="G4489" s="41"/>
-    </row>
-    <row r="4490" spans="1:7">
+      <c r="D4489" s="44"/>
+      <c r="E4489" s="44"/>
+      <c r="F4489" s="44"/>
+      <c r="G4489" s="44"/>
+    </row>
+    <row r="4490" spans="2:7">
       <c r="B4490" s="7"/>
-      <c r="D4490" s="41"/>
-      <c r="E4490" s="41"/>
-      <c r="F4490" s="41"/>
-      <c r="G4490" s="41"/>
-    </row>
-    <row r="4491" spans="1:7">
+      <c r="D4490" s="44"/>
+      <c r="E4490" s="44"/>
+      <c r="F4490" s="44"/>
+      <c r="G4490" s="44"/>
+    </row>
+    <row r="4491" spans="2:7">
       <c r="B4491" s="7"/>
-      <c r="D4491" s="41"/>
-      <c r="E4491" s="41"/>
-      <c r="F4491" s="41"/>
-      <c r="G4491" s="41"/>
-    </row>
-    <row r="4492" spans="1:7">
+      <c r="D4491" s="44"/>
+      <c r="E4491" s="44"/>
+      <c r="F4491" s="44"/>
+      <c r="G4491" s="44"/>
+    </row>
+    <row r="4492" spans="2:7">
       <c r="B4492" s="7"/>
-      <c r="D4492" s="41"/>
-      <c r="E4492" s="41"/>
-      <c r="F4492" s="41"/>
-      <c r="G4492" s="41"/>
-    </row>
-    <row r="4493" spans="1:7">
+      <c r="D4492" s="44"/>
+      <c r="E4492" s="44"/>
+      <c r="F4492" s="44"/>
+      <c r="G4492" s="44"/>
+    </row>
+    <row r="4493" spans="2:7">
       <c r="B4493" s="7"/>
-      <c r="D4493" s="41"/>
-      <c r="E4493" s="41"/>
-      <c r="F4493" s="41"/>
-      <c r="G4493" s="41"/>
-    </row>
-    <row r="4494" spans="1:7">
+      <c r="D4493" s="44"/>
+      <c r="E4493" s="44"/>
+      <c r="F4493" s="44"/>
+      <c r="G4493" s="44"/>
+    </row>
+    <row r="4494" spans="2:7">
       <c r="B4494" s="7"/>
-      <c r="D4494" s="41"/>
-      <c r="E4494" s="41"/>
-      <c r="F4494" s="41"/>
-      <c r="G4494" s="41"/>
-    </row>
-    <row r="4495" spans="1:7">
+      <c r="D4494" s="44"/>
+      <c r="E4494" s="44"/>
+      <c r="F4494" s="44"/>
+      <c r="G4494" s="44"/>
+    </row>
+    <row r="4495" spans="2:7">
       <c r="B4495" s="7"/>
-      <c r="D4495" s="41"/>
-      <c r="E4495" s="41"/>
-      <c r="F4495" s="41"/>
-      <c r="G4495" s="41"/>
-    </row>
-    <row r="4496" spans="1:7">
+      <c r="D4495" s="44"/>
+      <c r="E4495" s="44"/>
+      <c r="F4495" s="44"/>
+      <c r="G4495" s="44"/>
+    </row>
+    <row r="4496" spans="2:7">
       <c r="B4496" s="7"/>
-      <c r="D4496" s="41"/>
-      <c r="E4496" s="41"/>
-      <c r="F4496" s="41"/>
-      <c r="G4496" s="41"/>
-    </row>
-    <row r="4497" spans="1:7">
+      <c r="D4496" s="44"/>
+      <c r="E4496" s="44"/>
+      <c r="F4496" s="44"/>
+      <c r="G4496" s="44"/>
+    </row>
+    <row r="4497" spans="2:7">
       <c r="B4497" s="7"/>
-      <c r="D4497" s="41"/>
-      <c r="E4497" s="41"/>
-      <c r="F4497" s="41"/>
-      <c r="G4497" s="41"/>
+      <c r="D4497" s="44"/>
+      <c r="E4497" s="44"/>
+      <c r="F4497" s="44"/>
+      <c r="G4497" s="44"/>
     </row>
     <row r="4498" spans="1:7">
-      <c r="A4498" s="20"/>
+      <c r="A4498" s="23"/>
       <c r="B4498" s="7"/>
-      <c r="D4498" s="41"/>
-      <c r="E4498" s="41"/>
-      <c r="F4498" s="41"/>
-      <c r="G4498" s="41"/>
+      <c r="D4498" s="44"/>
+      <c r="E4498" s="44"/>
+      <c r="F4498" s="44"/>
+      <c r="G4498" s="44"/>
     </row>
     <row r="4499" spans="1:7">
-      <c r="A4499" s="20"/>
+      <c r="A4499" s="23"/>
       <c r="B4499" s="7"/>
-      <c r="D4499" s="41"/>
-      <c r="E4499" s="41"/>
-      <c r="F4499" s="41"/>
-      <c r="G4499" s="41"/>
+      <c r="D4499" s="44"/>
+      <c r="E4499" s="44"/>
+      <c r="F4499" s="44"/>
+      <c r="G4499" s="44"/>
     </row>
     <row r="4500" spans="1:7">
-      <c r="A4500" s="20"/>
+      <c r="A4500" s="23"/>
       <c r="B4500" s="7"/>
-      <c r="D4500" s="41"/>
-      <c r="E4500" s="41"/>
-      <c r="F4500" s="41"/>
-      <c r="G4500" s="41"/>
+      <c r="D4500" s="44"/>
+      <c r="E4500" s="44"/>
+      <c r="F4500" s="44"/>
+      <c r="G4500" s="44"/>
     </row>
     <row r="4501" spans="1:7">
-      <c r="A4501" s="20"/>
+      <c r="A4501" s="23"/>
       <c r="B4501" s="7"/>
-      <c r="D4501" s="41"/>
-      <c r="E4501" s="41"/>
-      <c r="F4501" s="41"/>
-      <c r="G4501" s="41"/>
-    </row>
-    <row r="4502" spans="1:7">
+      <c r="D4501" s="44"/>
+      <c r="E4501" s="44"/>
+      <c r="F4501" s="44"/>
+      <c r="G4501" s="44"/>
+    </row>
+    <row r="4502" spans="2:7">
       <c r="B4502" s="7"/>
-      <c r="D4502" s="41"/>
-      <c r="E4502" s="41"/>
-      <c r="F4502" s="41"/>
-      <c r="G4502" s="41"/>
-    </row>
-    <row r="4503" spans="1:7">
+      <c r="D4502" s="44"/>
+      <c r="E4502" s="44"/>
+      <c r="F4502" s="44"/>
+      <c r="G4502" s="44"/>
+    </row>
+    <row r="4503" spans="2:7">
       <c r="B4503" s="7"/>
-      <c r="D4503" s="41"/>
-      <c r="E4503" s="41"/>
-      <c r="F4503" s="41"/>
-      <c r="G4503" s="41"/>
-    </row>
-    <row r="4504" spans="1:7">
+      <c r="D4503" s="44"/>
+      <c r="E4503" s="44"/>
+      <c r="F4503" s="44"/>
+      <c r="G4503" s="44"/>
+    </row>
+    <row r="4504" spans="2:7">
       <c r="B4504" s="7"/>
-      <c r="D4504" s="41"/>
-      <c r="E4504" s="41"/>
-      <c r="F4504" s="41"/>
-      <c r="G4504" s="41"/>
-    </row>
-    <row r="4505" spans="1:7">
+      <c r="D4504" s="44"/>
+      <c r="E4504" s="44"/>
+      <c r="F4504" s="44"/>
+      <c r="G4504" s="44"/>
+    </row>
+    <row r="4505" spans="2:7">
       <c r="B4505" s="7"/>
-      <c r="D4505" s="41"/>
-      <c r="E4505" s="41"/>
-      <c r="F4505" s="41"/>
-      <c r="G4505" s="41"/>
-    </row>
-    <row r="4506" spans="1:7">
-      <c r="A4506" s="20"/>
+      <c r="D4505" s="44"/>
+      <c r="E4505" s="44"/>
+      <c r="F4505" s="44"/>
+      <c r="G4505" s="44"/>
+    </row>
+    <row r="4506" spans="1:2">
+      <c r="A4506" s="23"/>
       <c r="B4506" s="7"/>
     </row>
-    <row r="4507" spans="1:7">
+    <row r="4507" spans="2:7">
       <c r="B4507" s="7"/>
-      <c r="D4507" s="41"/>
-      <c r="E4507" s="41"/>
-      <c r="F4507" s="41"/>
-      <c r="G4507" s="41"/>
-    </row>
-    <row r="4508" spans="1:7">
+      <c r="D4507" s="44"/>
+      <c r="E4507" s="44"/>
+      <c r="F4507" s="44"/>
+      <c r="G4507" s="44"/>
+    </row>
+    <row r="4508" spans="2:2">
       <c r="B4508" s="7"/>
     </row>
-    <row r="4509" spans="1:7">
+    <row r="4509" spans="2:7">
       <c r="B4509" s="7"/>
-      <c r="D4509" s="41"/>
-      <c r="E4509" s="41"/>
-      <c r="F4509" s="41"/>
-      <c r="G4509" s="41"/>
-    </row>
-    <row r="4510" spans="1:7">
+      <c r="D4509" s="44"/>
+      <c r="E4509" s="44"/>
+      <c r="F4509" s="44"/>
+      <c r="G4509" s="44"/>
+    </row>
+    <row r="4510" spans="2:7">
       <c r="B4510" s="7"/>
-      <c r="D4510" s="41"/>
-      <c r="E4510" s="41"/>
-      <c r="F4510" s="41"/>
-      <c r="G4510" s="41"/>
+      <c r="D4510" s="44"/>
+      <c r="E4510" s="44"/>
+      <c r="F4510" s="44"/>
+      <c r="G4510" s="44"/>
     </row>
     <row r="4511" spans="1:7">
-      <c r="A4511" s="20"/>
+      <c r="A4511" s="23"/>
       <c r="B4511" s="7"/>
-      <c r="D4511" s="41"/>
-      <c r="E4511" s="41"/>
-      <c r="F4511" s="41"/>
-      <c r="G4511" s="41"/>
+      <c r="D4511" s="44"/>
+      <c r="E4511" s="44"/>
+      <c r="F4511" s="44"/>
+      <c r="G4511" s="44"/>
     </row>
     <row r="4512" spans="1:7">
-      <c r="A4512" s="20"/>
-      <c r="B4512" s="21"/>
-      <c r="D4512" s="41"/>
-      <c r="E4512" s="41"/>
-      <c r="F4512" s="41"/>
-      <c r="G4512" s="41"/>
-    </row>
-    <row r="4513" spans="1:7">
+      <c r="A4512" s="23"/>
+      <c r="B4512" s="24"/>
+      <c r="D4512" s="44"/>
+      <c r="E4512" s="44"/>
+      <c r="F4512" s="44"/>
+      <c r="G4512" s="44"/>
+    </row>
+    <row r="4513" spans="2:7">
       <c r="B4513" s="7"/>
-      <c r="D4513" s="41"/>
-      <c r="E4513" s="41"/>
-      <c r="F4513" s="41"/>
-      <c r="G4513" s="41"/>
-    </row>
-    <row r="4514" spans="1:7">
+      <c r="D4513" s="44"/>
+      <c r="E4513" s="44"/>
+      <c r="F4513" s="44"/>
+      <c r="G4513" s="44"/>
+    </row>
+    <row r="4514" spans="2:7">
       <c r="B4514" s="7"/>
-      <c r="D4514" s="41"/>
-      <c r="E4514" s="41"/>
-      <c r="F4514" s="41"/>
-      <c r="G4514" s="41"/>
-    </row>
-    <row r="4515" spans="1:7">
+      <c r="D4514" s="44"/>
+      <c r="E4514" s="44"/>
+      <c r="F4514" s="44"/>
+      <c r="G4514" s="44"/>
+    </row>
+    <row r="4515" spans="2:7">
       <c r="B4515" s="7"/>
-      <c r="D4515" s="41"/>
-      <c r="E4515" s="41"/>
-      <c r="F4515" s="41"/>
-      <c r="G4515" s="41"/>
-    </row>
-    <row r="4516" spans="1:7">
+      <c r="D4515" s="44"/>
+      <c r="E4515" s="44"/>
+      <c r="F4515" s="44"/>
+      <c r="G4515" s="44"/>
+    </row>
+    <row r="4516" spans="2:7">
       <c r="B4516" s="7"/>
-      <c r="D4516" s="41"/>
-      <c r="E4516" s="41"/>
-      <c r="F4516" s="41"/>
-      <c r="G4516" s="41"/>
+      <c r="D4516" s="44"/>
+      <c r="E4516" s="44"/>
+      <c r="F4516" s="44"/>
+      <c r="G4516" s="44"/>
     </row>
     <row r="4518" spans="1:7">
-      <c r="A4518" s="20"/>
+      <c r="A4518" s="23"/>
       <c r="B4518" s="7"/>
-      <c r="D4518" s="41"/>
-      <c r="E4518" s="41"/>
-      <c r="F4518" s="41"/>
-      <c r="G4518" s="41"/>
+      <c r="D4518" s="44"/>
+      <c r="E4518" s="44"/>
+      <c r="F4518" s="44"/>
+      <c r="G4518" s="44"/>
     </row>
     <row r="4519" spans="1:7">
-      <c r="A4519" s="20"/>
+      <c r="A4519" s="23"/>
       <c r="B4519" s="7"/>
-      <c r="D4519" s="41"/>
-      <c r="E4519" s="41"/>
-      <c r="F4519" s="41"/>
-      <c r="G4519" s="41"/>
+      <c r="D4519" s="44"/>
+      <c r="E4519" s="44"/>
+      <c r="F4519" s="44"/>
+      <c r="G4519" s="44"/>
     </row>
     <row r="4520" spans="1:7">
-      <c r="A4520" s="20"/>
+      <c r="A4520" s="23"/>
       <c r="B4520" s="7"/>
-      <c r="D4520" s="41"/>
-      <c r="E4520" s="41"/>
-      <c r="F4520" s="41"/>
-      <c r="G4520" s="41"/>
-    </row>
-    <row r="4524" spans="1:7" ht="20.25" customHeight="1">
+      <c r="D4520" s="44"/>
+      <c r="E4520" s="44"/>
+      <c r="F4520" s="44"/>
+      <c r="G4520" s="44"/>
+    </row>
+    <row r="4524" ht="20.25" customHeight="1" spans="2:2">
       <c r="B4524" s="7"/>
     </row>
     <row r="4525" spans="1:7">
-      <c r="A4525" s="20"/>
+      <c r="A4525" s="23"/>
       <c r="B4525" s="7"/>
-      <c r="D4525" s="41"/>
-      <c r="E4525" s="41"/>
-      <c r="F4525" s="41"/>
-      <c r="G4525" s="41"/>
+      <c r="D4525" s="44"/>
+      <c r="E4525" s="44"/>
+      <c r="F4525" s="44"/>
+      <c r="G4525" s="44"/>
     </row>
     <row r="4526" spans="1:7">
-      <c r="A4526" s="20"/>
+      <c r="A4526" s="23"/>
       <c r="B4526" s="7"/>
-      <c r="D4526" s="41"/>
-      <c r="E4526" s="41"/>
-      <c r="F4526" s="41"/>
-      <c r="G4526" s="41"/>
-    </row>
-    <row r="4527" spans="1:7">
+      <c r="D4526" s="44"/>
+      <c r="E4526" s="44"/>
+      <c r="F4526" s="44"/>
+      <c r="G4526" s="44"/>
+    </row>
+    <row r="4527" spans="2:2">
       <c r="B4527" s="7"/>
     </row>
-    <row r="4536" spans="2:3">
-      <c r="B4536" s="28"/>
+    <row r="4536" spans="2:2">
+      <c r="B4536" s="31"/>
     </row>
     <row r="4537" spans="2:3">
-      <c r="B4537" s="28"/>
+      <c r="B4537" s="31"/>
       <c r="C4537" s="7"/>
     </row>
-    <row r="4538" spans="2:3">
+    <row r="4538" spans="3:3">
       <c r="C4538" s="7"/>
     </row>
-    <row r="4539" spans="2:3">
+    <row r="4539" spans="3:3">
       <c r="C4539" s="7"/>
     </row>
-    <row r="4540" spans="2:3">
+    <row r="4540" spans="2:2">
       <c r="B4540" s="7"/>
     </row>
-    <row r="4541" spans="2:3">
+    <row r="4541" spans="2:2">
       <c r="B4541" s="7"/>
     </row>
-    <row r="4542" spans="2:3">
+    <row r="4542" spans="2:2">
       <c r="B4542" s="7"/>
     </row>
-    <row r="4543" spans="2:3">
+    <row r="4543" spans="2:2">
       <c r="B4543" s="7"/>
     </row>
-    <row r="4544" spans="2:3">
+    <row r="4544" spans="2:2">
       <c r="B4544" s="7"/>
     </row>
     <row r="4545" spans="2:2">
@@ -8816,29 +9534,29 @@
     <row r="4665" spans="2:2">
       <c r="B4665" s="7"/>
     </row>
-    <row r="4674" spans="1:2">
+    <row r="4674" spans="2:2">
       <c r="B4674" s="7"/>
     </row>
-    <row r="4676" spans="1:2">
+    <row r="4676" spans="2:2">
       <c r="B4676" s="7"/>
     </row>
     <row r="4684" spans="1:2">
-      <c r="A4684" s="20"/>
+      <c r="A4684" s="23"/>
       <c r="B4684" s="7"/>
     </row>
     <row r="4685" spans="1:2">
-      <c r="A4685" s="20"/>
+      <c r="A4685" s="23"/>
       <c r="B4685" s="7"/>
     </row>
-    <row r="4686" spans="1:2">
+    <row r="4686" spans="2:2">
       <c r="B4686" s="7"/>
     </row>
     <row r="4687" spans="1:2">
-      <c r="A4687" s="20"/>
+      <c r="A4687" s="23"/>
       <c r="B4687" s="7"/>
     </row>
     <row r="4688" spans="1:2">
-      <c r="A4688" s="20"/>
+      <c r="A4688" s="23"/>
       <c r="B4688" s="7"/>
     </row>
     <row r="4689" spans="2:2">
@@ -8877,46 +9595,46 @@
     <row r="4720" spans="2:2">
       <c r="B4720" s="7"/>
     </row>
-    <row r="4721" spans="1:2">
+    <row r="4721" spans="2:2">
       <c r="B4721" s="7"/>
     </row>
-    <row r="4731" spans="1:2">
+    <row r="4731" spans="2:2">
       <c r="B4731" s="7"/>
     </row>
-    <row r="4732" spans="1:2">
+    <row r="4732" spans="2:2">
       <c r="B4732" s="7"/>
     </row>
-    <row r="4733" spans="1:2">
+    <row r="4733" spans="2:2">
       <c r="B4733" s="7"/>
     </row>
     <row r="4736" spans="1:2">
-      <c r="A4736" s="20"/>
+      <c r="A4736" s="23"/>
       <c r="B4736" s="7"/>
     </row>
-    <row r="4737" spans="1:7">
-      <c r="A4737" s="20"/>
+    <row r="4737" spans="1:2">
+      <c r="A4737" s="23"/>
       <c r="B4737" s="7"/>
     </row>
-    <row r="4750" spans="1:7">
+    <row r="4750" spans="2:7">
       <c r="B4750" s="7"/>
-      <c r="D4750" s="41"/>
-      <c r="E4750" s="41"/>
-      <c r="F4750" s="41"/>
-      <c r="G4750" s="41"/>
-    </row>
-    <row r="4751" spans="1:7">
+      <c r="D4750" s="44"/>
+      <c r="E4750" s="44"/>
+      <c r="F4750" s="44"/>
+      <c r="G4750" s="44"/>
+    </row>
+    <row r="4751" spans="2:7">
       <c r="B4751" s="7"/>
-      <c r="D4751" s="41"/>
-      <c r="E4751" s="41"/>
-      <c r="F4751" s="41"/>
-      <c r="G4751" s="41"/>
-    </row>
-    <row r="4752" spans="1:7">
+      <c r="D4751" s="44"/>
+      <c r="E4751" s="44"/>
+      <c r="F4751" s="44"/>
+      <c r="G4751" s="44"/>
+    </row>
+    <row r="4752" spans="2:7">
       <c r="B4752" s="7"/>
-      <c r="D4752" s="41"/>
-      <c r="E4752" s="41"/>
-      <c r="F4752" s="41"/>
-      <c r="G4752" s="41"/>
+      <c r="D4752" s="44"/>
+      <c r="E4752" s="44"/>
+      <c r="F4752" s="44"/>
+      <c r="G4752" s="44"/>
     </row>
     <row r="4753" spans="2:2">
       <c r="B4753" s="7"/>
@@ -8949,20 +9667,20 @@
       <c r="B4830" s="7"/>
     </row>
     <row r="4871" spans="2:7">
-      <c r="B4871" s="28"/>
-      <c r="C4871" s="28"/>
-      <c r="D4871" s="28"/>
-      <c r="E4871" s="28"/>
-      <c r="F4871" s="28"/>
-      <c r="G4871" s="28"/>
+      <c r="B4871" s="31"/>
+      <c r="C4871" s="31"/>
+      <c r="D4871" s="31"/>
+      <c r="E4871" s="31"/>
+      <c r="F4871" s="31"/>
+      <c r="G4871" s="31"/>
     </row>
     <row r="4872" spans="2:7">
-      <c r="B4872" s="28"/>
-      <c r="C4872" s="28"/>
-      <c r="D4872" s="28"/>
-      <c r="E4872" s="28"/>
-      <c r="F4872" s="28"/>
-      <c r="G4872" s="28"/>
+      <c r="B4872" s="31"/>
+      <c r="C4872" s="31"/>
+      <c r="D4872" s="31"/>
+      <c r="E4872" s="31"/>
+      <c r="F4872" s="31"/>
+      <c r="G4872" s="31"/>
     </row>
     <row r="4893" spans="2:2">
       <c r="B4893" s="7"/>
@@ -8986,7 +9704,7 @@
       <c r="B4901" s="7"/>
     </row>
     <row r="4904" spans="2:2">
-      <c r="B4904" s="42"/>
+      <c r="B4904" s="45"/>
     </row>
     <row r="4919" spans="2:2">
       <c r="B4919" s="7"/>
@@ -9066,44 +9784,44 @@
     <row r="4960" spans="2:2">
       <c r="B4960" s="7"/>
     </row>
-    <row r="4961" spans="2:3">
+    <row r="4961" spans="2:2">
       <c r="B4961" s="7"/>
     </row>
-    <row r="4962" spans="2:3">
+    <row r="4962" spans="2:2">
       <c r="B4962" s="7"/>
     </row>
     <row r="4963" spans="2:3">
       <c r="B4963" s="7"/>
       <c r="C4963" s="7"/>
     </row>
-    <row r="4967" spans="2:3">
-      <c r="B4967" s="34"/>
-    </row>
-    <row r="4968" spans="2:3">
+    <row r="4967" spans="2:2">
+      <c r="B4967" s="37"/>
+    </row>
+    <row r="4968" spans="2:2">
       <c r="B4968" s="7"/>
     </row>
-    <row r="4969" spans="2:3">
+    <row r="4969" spans="2:2">
       <c r="B4969" s="7"/>
     </row>
-    <row r="4970" spans="2:3">
+    <row r="4970" spans="2:2">
       <c r="B4970" s="7"/>
     </row>
-    <row r="4971" spans="2:3">
+    <row r="4971" spans="2:2">
       <c r="B4971" s="7"/>
     </row>
-    <row r="4972" spans="2:3">
+    <row r="4972" spans="2:2">
       <c r="B4972" s="7"/>
     </row>
-    <row r="4973" spans="2:3">
+    <row r="4973" spans="2:2">
       <c r="B4973" s="7"/>
     </row>
-    <row r="4974" spans="2:3">
+    <row r="4974" spans="2:2">
       <c r="B4974" s="7"/>
     </row>
-    <row r="4975" spans="2:3">
+    <row r="4975" spans="2:2">
       <c r="B4975" s="7"/>
     </row>
-    <row r="4976" spans="2:3">
+    <row r="4976" spans="2:2">
       <c r="B4976" s="7"/>
     </row>
     <row r="4977" spans="2:2">
@@ -9113,7 +9831,7 @@
       <c r="B4978" s="7"/>
     </row>
     <row r="4979" spans="2:2">
-      <c r="B4979" s="34"/>
+      <c r="B4979" s="37"/>
     </row>
     <row r="4980" spans="2:2">
       <c r="B4980" s="7"/>
@@ -9161,7 +9879,7 @@
       <c r="B4995" s="7"/>
     </row>
     <row r="4996" spans="2:2">
-      <c r="B4996" s="34"/>
+      <c r="B4996" s="37"/>
     </row>
     <row r="4997" spans="2:2">
       <c r="B4997" s="7"/>
@@ -9201,7 +9919,7 @@
     </row>
     <row r="5009" spans="2:3">
       <c r="B5009" s="7"/>
-      <c r="C5009" s="43"/>
+      <c r="C5009" s="46"/>
     </row>
     <row r="5010" spans="2:3">
       <c r="B5010" s="7"/>
@@ -9219,35 +9937,35 @@
       <c r="B5014" s="7"/>
       <c r="C5014" s="7"/>
     </row>
-    <row r="5015" spans="2:3">
-      <c r="B5015" s="21"/>
+    <row r="5015" spans="2:2">
+      <c r="B5015" s="24"/>
     </row>
     <row r="5016" spans="2:3">
-      <c r="B5016" s="21"/>
-      <c r="C5016" s="21"/>
-    </row>
-    <row r="5017" spans="2:3">
+      <c r="B5016" s="24"/>
+      <c r="C5016" s="24"/>
+    </row>
+    <row r="5017" spans="2:2">
       <c r="B5017" s="7"/>
     </row>
-    <row r="5018" spans="2:3">
+    <row r="5018" spans="2:2">
       <c r="B5018" s="7"/>
     </row>
-    <row r="5019" spans="2:3">
+    <row r="5019" spans="2:2">
       <c r="B5019" s="7"/>
     </row>
-    <row r="5020" spans="2:3">
+    <row r="5020" spans="2:2">
       <c r="B5020" s="7"/>
     </row>
-    <row r="5021" spans="2:3">
+    <row r="5021" spans="2:2">
       <c r="B5021" s="7"/>
     </row>
-    <row r="5022" spans="2:3">
+    <row r="5022" spans="2:2">
       <c r="B5022" s="7"/>
     </row>
-    <row r="5023" spans="2:3">
+    <row r="5023" spans="2:2">
       <c r="B5023" s="7"/>
     </row>
-    <row r="5024" spans="2:3">
+    <row r="5024" spans="2:2">
       <c r="B5024" s="7"/>
     </row>
     <row r="5025" spans="2:2">
@@ -9350,7 +10068,7 @@
       <c r="B5062" s="7"/>
     </row>
     <row r="5063" spans="2:2">
-      <c r="B5063" s="28"/>
+      <c r="B5063" s="31"/>
     </row>
     <row r="5064" spans="2:2">
       <c r="B5064" s="7"/>
@@ -9376,38 +10094,38 @@
     <row r="5072" spans="2:2">
       <c r="B5072" s="7"/>
     </row>
-    <row r="5073" spans="1:2">
+    <row r="5073" spans="2:2">
       <c r="B5073" s="7"/>
     </row>
-    <row r="5074" spans="1:2">
+    <row r="5074" spans="2:2">
       <c r="B5074" s="7"/>
     </row>
-    <row r="5075" spans="1:2">
+    <row r="5075" spans="2:2">
       <c r="B5075" s="7"/>
     </row>
-    <row r="5077" spans="1:2">
+    <row r="5077" spans="2:2">
       <c r="B5077" s="7"/>
     </row>
-    <row r="5078" spans="1:2">
+    <row r="5078" spans="2:2">
       <c r="B5078" s="7"/>
     </row>
-    <row r="5080" spans="1:2" ht="15.75">
-      <c r="A5080" s="37"/>
+    <row r="5080" ht="15.75" spans="1:2">
+      <c r="A5080" s="40"/>
       <c r="B5080" s="7"/>
     </row>
-    <row r="5081" spans="1:2">
+    <row r="5081" spans="2:2">
       <c r="B5081" s="7"/>
     </row>
-    <row r="5082" spans="1:2">
+    <row r="5082" spans="2:2">
       <c r="B5082" s="7"/>
     </row>
-    <row r="5083" spans="1:2">
+    <row r="5083" spans="2:2">
       <c r="B5083" s="7"/>
     </row>
-    <row r="5086" spans="1:2">
+    <row r="5086" spans="2:2">
       <c r="B5086" s="7"/>
     </row>
-    <row r="5087" spans="1:2">
+    <row r="5087" spans="2:2">
       <c r="B5087" s="7"/>
     </row>
     <row r="5090" spans="2:2">
@@ -9437,102 +10155,102 @@
     <row r="5136" spans="2:2">
       <c r="B5136" s="7"/>
     </row>
-    <row r="5137" spans="2:7">
+    <row r="5137" spans="2:2">
       <c r="B5137" s="7"/>
     </row>
-    <row r="5138" spans="2:7">
+    <row r="5138" spans="2:2">
       <c r="B5138" s="7"/>
     </row>
     <row r="5139" spans="2:7">
-      <c r="B5139" s="28"/>
-      <c r="C5139" s="28"/>
-      <c r="D5139" s="28"/>
-      <c r="E5139" s="28"/>
-      <c r="F5139" s="28"/>
-      <c r="G5139" s="28"/>
+      <c r="B5139" s="31"/>
+      <c r="C5139" s="31"/>
+      <c r="D5139" s="31"/>
+      <c r="E5139" s="31"/>
+      <c r="F5139" s="31"/>
+      <c r="G5139" s="31"/>
     </row>
     <row r="5140" spans="2:7">
-      <c r="B5140" s="28"/>
-      <c r="C5140" s="28"/>
-      <c r="D5140" s="28"/>
-      <c r="E5140" s="28"/>
-      <c r="F5140" s="28"/>
-      <c r="G5140" s="28"/>
+      <c r="B5140" s="31"/>
+      <c r="C5140" s="31"/>
+      <c r="D5140" s="31"/>
+      <c r="E5140" s="31"/>
+      <c r="F5140" s="31"/>
+      <c r="G5140" s="31"/>
     </row>
     <row r="5141" spans="2:7">
-      <c r="B5141" s="28"/>
-      <c r="C5141" s="28"/>
-      <c r="D5141" s="28"/>
-      <c r="E5141" s="28"/>
-      <c r="F5141" s="28"/>
-      <c r="G5141" s="28"/>
+      <c r="B5141" s="31"/>
+      <c r="C5141" s="31"/>
+      <c r="D5141" s="31"/>
+      <c r="E5141" s="31"/>
+      <c r="F5141" s="31"/>
+      <c r="G5141" s="31"/>
     </row>
     <row r="5142" spans="2:7">
-      <c r="B5142" s="28"/>
-      <c r="C5142" s="28"/>
-      <c r="D5142" s="28"/>
-      <c r="E5142" s="28"/>
-      <c r="F5142" s="28"/>
-      <c r="G5142" s="28"/>
+      <c r="B5142" s="31"/>
+      <c r="C5142" s="31"/>
+      <c r="D5142" s="31"/>
+      <c r="E5142" s="31"/>
+      <c r="F5142" s="31"/>
+      <c r="G5142" s="31"/>
     </row>
     <row r="5143" spans="2:7">
-      <c r="B5143" s="28"/>
-      <c r="C5143" s="28"/>
-      <c r="D5143" s="28"/>
-      <c r="E5143" s="28"/>
-      <c r="F5143" s="28"/>
-      <c r="G5143" s="28"/>
+      <c r="B5143" s="31"/>
+      <c r="C5143" s="31"/>
+      <c r="D5143" s="31"/>
+      <c r="E5143" s="31"/>
+      <c r="F5143" s="31"/>
+      <c r="G5143" s="31"/>
     </row>
     <row r="5144" spans="2:7">
-      <c r="B5144" s="28"/>
-      <c r="C5144" s="28"/>
-      <c r="D5144" s="28"/>
-      <c r="E5144" s="28"/>
-      <c r="F5144" s="28"/>
-      <c r="G5144" s="28"/>
+      <c r="B5144" s="31"/>
+      <c r="C5144" s="31"/>
+      <c r="D5144" s="31"/>
+      <c r="E5144" s="31"/>
+      <c r="F5144" s="31"/>
+      <c r="G5144" s="31"/>
     </row>
     <row r="5145" spans="2:7">
-      <c r="B5145" s="28"/>
-      <c r="C5145" s="28"/>
-      <c r="D5145" s="28"/>
-      <c r="E5145" s="28"/>
-      <c r="F5145" s="28"/>
-      <c r="G5145" s="28"/>
+      <c r="B5145" s="31"/>
+      <c r="C5145" s="31"/>
+      <c r="D5145" s="31"/>
+      <c r="E5145" s="31"/>
+      <c r="F5145" s="31"/>
+      <c r="G5145" s="31"/>
     </row>
     <row r="5146" spans="2:7">
-      <c r="B5146" s="28"/>
-      <c r="C5146" s="28"/>
-      <c r="D5146" s="28"/>
-      <c r="E5146" s="28"/>
-      <c r="F5146" s="28"/>
-      <c r="G5146" s="28"/>
+      <c r="B5146" s="31"/>
+      <c r="C5146" s="31"/>
+      <c r="D5146" s="31"/>
+      <c r="E5146" s="31"/>
+      <c r="F5146" s="31"/>
+      <c r="G5146" s="31"/>
     </row>
     <row r="5147" spans="2:7">
-      <c r="B5147" s="28"/>
-      <c r="C5147" s="28"/>
-      <c r="D5147" s="28"/>
-      <c r="E5147" s="28"/>
-      <c r="F5147" s="28"/>
-      <c r="G5147" s="28"/>
+      <c r="B5147" s="31"/>
+      <c r="C5147" s="31"/>
+      <c r="D5147" s="31"/>
+      <c r="E5147" s="31"/>
+      <c r="F5147" s="31"/>
+      <c r="G5147" s="31"/>
     </row>
     <row r="5148" spans="2:7">
-      <c r="B5148" s="28"/>
-      <c r="C5148" s="28"/>
-      <c r="D5148" s="28"/>
-      <c r="E5148" s="28"/>
-      <c r="F5148" s="28"/>
-      <c r="G5148" s="28"/>
-    </row>
-    <row r="5149" spans="2:7">
+      <c r="B5148" s="31"/>
+      <c r="C5148" s="31"/>
+      <c r="D5148" s="31"/>
+      <c r="E5148" s="31"/>
+      <c r="F5148" s="31"/>
+      <c r="G5148" s="31"/>
+    </row>
+    <row r="5149" spans="2:2">
       <c r="B5149" s="7"/>
     </row>
-    <row r="5150" spans="2:7">
+    <row r="5150" spans="2:2">
       <c r="B5150" s="7"/>
     </row>
-    <row r="5151" spans="2:7">
+    <row r="5151" spans="2:2">
       <c r="B5151" s="7"/>
     </row>
-    <row r="5152" spans="2:7">
+    <row r="5152" spans="2:2">
       <c r="B5152" s="7"/>
     </row>
     <row r="5153" spans="2:2">
@@ -9562,14 +10280,14 @@
     <row r="5168" spans="2:2">
       <c r="B5168" s="7"/>
     </row>
-    <row r="5197" spans="1:3">
+    <row r="5197" spans="3:3">
       <c r="C5197" s="7"/>
     </row>
-    <row r="5198" spans="1:3" ht="15.75">
-      <c r="A5198" s="37"/>
+    <row r="5198" ht="15.75" spans="1:2">
+      <c r="A5198" s="40"/>
       <c r="B5198" s="7"/>
     </row>
-    <row r="5199" spans="1:3">
+    <row r="5199" spans="2:2">
       <c r="B5199" s="7"/>
     </row>
     <row r="5202" spans="2:2">
@@ -9602,29 +10320,29 @@
     <row r="5216" spans="2:2">
       <c r="B5216" s="7"/>
     </row>
-    <row r="5220" spans="1:2">
+    <row r="5220" spans="2:2">
       <c r="B5220" s="7"/>
     </row>
     <row r="5221" spans="1:2">
-      <c r="A5221" s="20"/>
+      <c r="A5221" s="23"/>
       <c r="B5221" s="7"/>
     </row>
-    <row r="5222" spans="1:2">
+    <row r="5222" spans="2:2">
       <c r="B5222" s="7"/>
     </row>
     <row r="5223" spans="1:2">
-      <c r="A5223" s="20"/>
+      <c r="A5223" s="23"/>
       <c r="B5223" s="7"/>
     </row>
     <row r="5224" spans="1:2">
-      <c r="A5224" s="20"/>
+      <c r="A5224" s="23"/>
       <c r="B5224" s="7"/>
     </row>
-    <row r="5225" spans="1:2" ht="15.75">
-      <c r="A5225" s="37"/>
+    <row r="5225" ht="15.75" spans="1:2">
+      <c r="A5225" s="40"/>
       <c r="B5225" s="7"/>
     </row>
-    <row r="5232" spans="1:2">
+    <row r="5232" spans="2:2">
       <c r="B5232" s="7"/>
     </row>
     <row r="5233" spans="2:2">
@@ -9831,30 +10549,30 @@
     <row r="5384" spans="2:2">
       <c r="B5384" s="7"/>
     </row>
-    <row r="5399" spans="1:3">
+    <row r="5399" spans="2:2">
       <c r="B5399" s="7"/>
     </row>
-    <row r="5400" spans="1:3">
+    <row r="5400" spans="2:2">
       <c r="B5400" s="7"/>
     </row>
-    <row r="5401" spans="1:3">
+    <row r="5401" spans="2:3">
       <c r="B5401" s="7"/>
-      <c r="C5401" s="21"/>
-    </row>
-    <row r="5402" spans="1:3">
+      <c r="C5401" s="24"/>
+    </row>
+    <row r="5402" spans="2:2">
       <c r="B5402" s="7"/>
     </row>
-    <row r="5403" spans="1:3">
+    <row r="5403" spans="2:2">
       <c r="B5403" s="7"/>
     </row>
-    <row r="5406" spans="1:3">
+    <row r="5406" spans="2:2">
       <c r="B5406" s="7"/>
     </row>
-    <row r="5407" spans="1:3">
-      <c r="A5407" s="20"/>
+    <row r="5407" spans="1:2">
+      <c r="A5407" s="23"/>
       <c r="B5407" s="7"/>
     </row>
-    <row r="5408" spans="1:3">
+    <row r="5408" spans="2:2">
       <c r="B5408" s="7"/>
     </row>
     <row r="5443" spans="2:2">
@@ -9897,34 +10615,34 @@
       <c r="B5552" s="7"/>
     </row>
     <row r="5553" spans="1:2">
-      <c r="A5553" s="20"/>
+      <c r="A5553" s="23"/>
       <c r="B5553" s="7"/>
     </row>
     <row r="5554" spans="1:2">
-      <c r="A5554" s="20"/>
+      <c r="A5554" s="23"/>
       <c r="B5554" s="7"/>
     </row>
     <row r="5555" spans="1:2">
-      <c r="A5555" s="20"/>
+      <c r="A5555" s="23"/>
       <c r="B5555" s="7"/>
     </row>
     <row r="5556" spans="1:2">
-      <c r="A5556" s="20"/>
+      <c r="A5556" s="23"/>
       <c r="B5556" s="7"/>
     </row>
-    <row r="5557" spans="1:2">
+    <row r="5557" spans="2:2">
       <c r="B5557" s="7"/>
     </row>
-    <row r="5558" spans="1:2">
+    <row r="5558" spans="2:2">
       <c r="B5558" s="7"/>
     </row>
-    <row r="5559" spans="1:2">
+    <row r="5559" spans="2:2">
       <c r="B5559" s="7"/>
     </row>
-    <row r="5561" spans="1:2">
+    <row r="5561" spans="2:2">
       <c r="B5561" s="7"/>
     </row>
-    <row r="5563" spans="1:2">
+    <row r="5563" spans="2:2">
       <c r="B5563" s="7"/>
     </row>
     <row r="5570" spans="2:2">
@@ -9999,11 +10717,11 @@
     <row r="5615" spans="2:2">
       <c r="B5615" s="7"/>
     </row>
-    <row r="5618" spans="1:7">
+    <row r="5618" spans="2:2">
       <c r="B5618" s="7"/>
     </row>
     <row r="5622" spans="1:7">
-      <c r="A5622" s="22"/>
+      <c r="A5622" s="25"/>
       <c r="B5622" s="15"/>
       <c r="C5622" s="15"/>
       <c r="D5622" s="15"/>
@@ -10012,232 +10730,237 @@
       <c r="G5622" s="15"/>
     </row>
     <row r="5981" spans="2:2">
-      <c r="B5981" s="30"/>
+      <c r="B5981" s="33"/>
     </row>
     <row r="6338" spans="1:1">
-      <c r="A6338" s="20"/>
+      <c r="A6338" s="23"/>
     </row>
     <row r="6339" spans="1:1">
-      <c r="A6339" s="20"/>
+      <c r="A6339" s="23"/>
     </row>
     <row r="6340" spans="1:1">
-      <c r="A6340" s="20"/>
+      <c r="A6340" s="23"/>
     </row>
     <row r="6341" spans="1:1">
-      <c r="A6341" s="20"/>
+      <c r="A6341" s="23"/>
     </row>
     <row r="6342" spans="1:1">
-      <c r="A6342" s="20"/>
+      <c r="A6342" s="23"/>
     </row>
     <row r="6343" spans="1:1">
-      <c r="A6343" s="20"/>
+      <c r="A6343" s="23"/>
     </row>
     <row r="6344" spans="1:1">
-      <c r="A6344" s="20"/>
+      <c r="A6344" s="23"/>
     </row>
     <row r="6345" spans="1:1">
-      <c r="A6345" s="20"/>
+      <c r="A6345" s="23"/>
     </row>
     <row r="6346" spans="1:1">
-      <c r="A6346" s="20"/>
+      <c r="A6346" s="23"/>
     </row>
     <row r="6347" spans="1:1">
-      <c r="A6347" s="20"/>
+      <c r="A6347" s="23"/>
     </row>
     <row r="6348" spans="1:1">
-      <c r="A6348" s="20"/>
+      <c r="A6348" s="23"/>
     </row>
     <row r="6349" spans="1:1">
-      <c r="A6349" s="20"/>
+      <c r="A6349" s="23"/>
     </row>
     <row r="6350" spans="1:1">
-      <c r="A6350" s="20"/>
+      <c r="A6350" s="23"/>
     </row>
     <row r="6351" spans="1:1">
-      <c r="A6351" s="20"/>
+      <c r="A6351" s="23"/>
     </row>
     <row r="6352" spans="1:1">
-      <c r="A6352" s="20"/>
+      <c r="A6352" s="23"/>
     </row>
     <row r="6353" spans="1:1">
-      <c r="A6353" s="20"/>
+      <c r="A6353" s="23"/>
     </row>
     <row r="6354" spans="1:1">
-      <c r="A6354" s="20"/>
+      <c r="A6354" s="23"/>
     </row>
     <row r="6355" spans="1:1">
-      <c r="A6355" s="20"/>
+      <c r="A6355" s="23"/>
     </row>
     <row r="6356" spans="1:1">
-      <c r="A6356" s="20"/>
+      <c r="A6356" s="23"/>
     </row>
     <row r="6357" spans="1:1">
-      <c r="A6357" s="20"/>
+      <c r="A6357" s="23"/>
     </row>
     <row r="6358" spans="1:1">
-      <c r="A6358" s="20"/>
+      <c r="A6358" s="23"/>
     </row>
     <row r="6359" spans="1:1">
-      <c r="A6359" s="20"/>
+      <c r="A6359" s="23"/>
     </row>
     <row r="6360" spans="1:1">
-      <c r="A6360" s="20"/>
+      <c r="A6360" s="23"/>
     </row>
     <row r="6361" spans="1:1">
-      <c r="A6361" s="20"/>
+      <c r="A6361" s="23"/>
     </row>
     <row r="6362" spans="1:1">
-      <c r="A6362" s="20"/>
+      <c r="A6362" s="23"/>
     </row>
     <row r="6363" spans="1:1">
-      <c r="A6363" s="20"/>
+      <c r="A6363" s="23"/>
     </row>
     <row r="6364" spans="1:1">
-      <c r="A6364" s="20"/>
+      <c r="A6364" s="23"/>
     </row>
     <row r="6365" spans="1:1">
-      <c r="A6365" s="20"/>
+      <c r="A6365" s="23"/>
     </row>
     <row r="6366" spans="1:1">
-      <c r="A6366" s="20"/>
+      <c r="A6366" s="23"/>
     </row>
     <row r="6367" spans="1:1">
-      <c r="A6367" s="20"/>
+      <c r="A6367" s="23"/>
     </row>
     <row r="6368" spans="1:1">
-      <c r="A6368" s="20"/>
+      <c r="A6368" s="23"/>
     </row>
     <row r="6369" spans="1:1">
-      <c r="A6369" s="20"/>
+      <c r="A6369" s="23"/>
     </row>
     <row r="6370" spans="1:1">
-      <c r="A6370" s="20"/>
+      <c r="A6370" s="23"/>
     </row>
     <row r="6371" spans="1:1">
-      <c r="A6371" s="20"/>
+      <c r="A6371" s="23"/>
     </row>
     <row r="6372" spans="1:1">
-      <c r="A6372" s="20"/>
+      <c r="A6372" s="23"/>
     </row>
     <row r="6377" spans="1:1">
-      <c r="A6377" s="20"/>
+      <c r="A6377" s="23"/>
     </row>
     <row r="6378" spans="1:1">
-      <c r="A6378" s="20"/>
+      <c r="A6378" s="23"/>
     </row>
     <row r="6379" spans="1:1">
-      <c r="A6379" s="20"/>
+      <c r="A6379" s="23"/>
     </row>
     <row r="6380" spans="1:1">
-      <c r="A6380" s="20"/>
+      <c r="A6380" s="23"/>
     </row>
     <row r="6381" spans="1:1">
-      <c r="A6381" s="20"/>
+      <c r="A6381" s="23"/>
     </row>
     <row r="6382" spans="1:1">
-      <c r="A6382" s="20"/>
+      <c r="A6382" s="23"/>
     </row>
     <row r="6383" spans="1:1">
-      <c r="A6383" s="20"/>
+      <c r="A6383" s="23"/>
     </row>
     <row r="6384" spans="1:1">
-      <c r="A6384" s="20"/>
+      <c r="A6384" s="23"/>
     </row>
     <row r="6385" spans="1:1">
-      <c r="A6385" s="20"/>
+      <c r="A6385" s="23"/>
     </row>
     <row r="6386" spans="1:1">
-      <c r="A6386" s="20"/>
+      <c r="A6386" s="23"/>
     </row>
     <row r="6387" spans="1:1">
-      <c r="A6387" s="20"/>
+      <c r="A6387" s="23"/>
     </row>
     <row r="6388" spans="1:1">
-      <c r="A6388" s="20"/>
+      <c r="A6388" s="23"/>
     </row>
     <row r="6389" spans="1:1">
-      <c r="A6389" s="20"/>
+      <c r="A6389" s="23"/>
     </row>
     <row r="6390" spans="1:1">
-      <c r="A6390" s="20"/>
+      <c r="A6390" s="23"/>
     </row>
     <row r="6391" spans="1:1">
-      <c r="A6391" s="20"/>
+      <c r="A6391" s="23"/>
     </row>
     <row r="6392" spans="1:1">
-      <c r="A6392" s="20"/>
+      <c r="A6392" s="23"/>
     </row>
     <row r="6393" spans="1:1">
-      <c r="A6393" s="20"/>
+      <c r="A6393" s="23"/>
     </row>
     <row r="6394" spans="1:1">
-      <c r="A6394" s="20"/>
+      <c r="A6394" s="23"/>
     </row>
     <row r="6395" spans="1:1">
-      <c r="A6395" s="20"/>
+      <c r="A6395" s="23"/>
     </row>
     <row r="6396" spans="1:1">
-      <c r="A6396" s="20"/>
+      <c r="A6396" s="23"/>
     </row>
     <row r="6397" spans="1:1">
-      <c r="A6397" s="20"/>
+      <c r="A6397" s="23"/>
     </row>
     <row r="6398" spans="1:1">
-      <c r="A6398" s="20"/>
+      <c r="A6398" s="23"/>
     </row>
     <row r="6399" spans="1:1">
-      <c r="A6399" s="20"/>
+      <c r="A6399" s="23"/>
     </row>
     <row r="6400" spans="1:1">
-      <c r="A6400" s="20"/>
+      <c r="A6400" s="23"/>
     </row>
     <row r="6401" spans="1:1">
-      <c r="A6401" s="20"/>
+      <c r="A6401" s="23"/>
     </row>
     <row r="6402" spans="1:1">
-      <c r="A6402" s="20"/>
+      <c r="A6402" s="23"/>
     </row>
     <row r="6403" spans="1:1">
-      <c r="A6403" s="20"/>
+      <c r="A6403" s="23"/>
     </row>
     <row r="6404" spans="1:1">
-      <c r="A6404" s="20"/>
+      <c r="A6404" s="23"/>
     </row>
     <row r="6405" spans="1:1">
-      <c r="A6405" s="20"/>
+      <c r="A6405" s="23"/>
     </row>
     <row r="6406" spans="1:1">
-      <c r="A6406" s="20"/>
+      <c r="A6406" s="23"/>
     </row>
     <row r="6407" spans="1:1">
-      <c r="A6407" s="20"/>
+      <c r="A6407" s="23"/>
     </row>
     <row r="6408" spans="1:1">
-      <c r="A6408" s="20"/>
+      <c r="A6408" s="23"/>
     </row>
     <row r="6409" spans="1:1">
-      <c r="A6409" s="20"/>
+      <c r="A6409" s="23"/>
     </row>
     <row r="6410" spans="1:1">
-      <c r="A6410" s="20"/>
-    </row>
-    <row r="1048573" spans="7:7" ht="15" customHeight="1">
+      <c r="A6410" s="23"/>
+    </row>
+    <row r="1048573" customHeight="1" spans="7:7">
       <c r="G1048573" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/QA/testcases/ORSheet.xlsx
+++ b/QA/testcases/ORSheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354">
   <si>
     <t>OR Name</t>
   </si>
@@ -846,6 +846,12 @@
   </si>
   <si>
     <t>applications-patient-expenditure-0</t>
+  </si>
+  <si>
+    <t>PROVIDER_EXPENDITURE</t>
+  </si>
+  <si>
+    <t>applications-provider-expenditure-0</t>
   </si>
   <si>
     <t>CREATE_EXPENDITURE</t>
@@ -1080,10 +1086,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1111,17 +1117,6 @@
       <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1198,36 +1193,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1250,14 +1230,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1266,15 +1238,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1288,7 +1277,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1302,24 +1291,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1334,15 +1323,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1405,7 +1400,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1417,169 +1574,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1596,6 +1591,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1623,41 +1633,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1669,15 +1649,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1696,155 +1667,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1872,16 +1867,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1892,26 +1886,26 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -2233,10 +2227,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1048573"/>
+  <dimension ref="A1:H1048574"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1428571428571" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -4585,10 +4579,10 @@
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="17" t="s">
+      <c r="A119" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="17" t="s">
         <v>258</v>
       </c>
     </row>
@@ -4691,37 +4685,34 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="18" t="s">
         <v>278</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B130" s="2" t="s">
         <v>280</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="16" t="s">
         <v>282</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -4834,43 +4825,40 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>304</v>
       </c>
+      <c r="D142" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="4" t="s">
+      <c r="A143" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B143" s="7"/>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="1" t="s">
+      <c r="B143" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B144" s="16" t="s">
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B144" s="7"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B145" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>12</v>
@@ -4880,11 +4868,11 @@
       <c r="A146" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B146" s="16" t="s">
+      <c r="B146" t="s">
         <v>312</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>12</v>
@@ -4898,7 +4886,7 @@
         <v>314</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>12</v>
@@ -4908,14 +4896,14 @@
       <c r="A148" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B148" s="7" t="s">
+      <c r="B148" s="16" t="s">
         <v>316</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -4923,10 +4911,10 @@
         <v>317</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>230</v>
+        <v>318</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>17</v>
@@ -4934,13 +4922,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>319</v>
+        <v>230</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>17</v>
@@ -4954,7 +4942,7 @@
         <v>321</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>17</v>
@@ -4968,7 +4956,7 @@
         <v>323</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>17</v>
@@ -4978,14 +4966,14 @@
       <c r="A153" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B153" s="19" t="s">
+      <c r="B153" s="7" t="s">
         <v>325</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4996,7 +4984,7 @@
         <v>327</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>12</v>
@@ -5010,7 +4998,7 @@
         <v>329</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>12</v>
@@ -5024,7 +5012,7 @@
         <v>331</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>12</v>
@@ -5034,42 +5022,42 @@
       <c r="A157" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" s="19" t="s">
         <v>333</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="158" customHeight="1" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B158" s="19" t="s">
+      <c r="B158" s="2" t="s">
         <v>335</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="159" customHeight="1" spans="1:4">
       <c r="A159" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="19" t="s">
         <v>337</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:4">
@@ -5080,7 +5068,7 @@
         <v>339</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>17</v>
@@ -5090,11 +5078,11 @@
       <c r="A161" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B161" s="19" t="s">
+      <c r="B161" s="2" t="s">
         <v>341</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>17</v>
@@ -5104,44 +5092,47 @@
       <c r="A162" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B162" s="20" t="s">
+      <c r="B162" s="19" t="s">
         <v>343</v>
       </c>
+      <c r="C162" s="2" t="s">
+        <v>310</v>
+      </c>
       <c r="D162" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" customHeight="1" spans="1:4">
       <c r="A163" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="16" t="s">
         <v>345</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" customHeight="1" spans="1:4">
       <c r="A164" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B164" s="20" t="s">
+      <c r="B164" s="2" t="s">
         <v>347</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="165" customHeight="1" spans="1:4">
       <c r="A165" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="16" t="s">
         <v>349</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" customHeight="1" spans="1:4">
@@ -5155,32 +5146,42 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A176" s="21"/>
-      <c r="B176" s="15"/>
-    </row>
-    <row r="183" spans="3:7">
-      <c r="C183" s="22"/>
-      <c r="D183" s="22"/>
-      <c r="E183" s="22"/>
-      <c r="F183" s="22"/>
-      <c r="G183" s="22"/>
+    <row r="167" customHeight="1" spans="1:4">
+      <c r="A167" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A177" s="20"/>
+      <c r="B177" s="15"/>
     </row>
     <row r="184" spans="3:7">
-      <c r="C184" s="22"/>
-      <c r="D184" s="22"/>
-      <c r="E184" s="22"/>
-      <c r="F184" s="22"/>
-      <c r="G184" s="22"/>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" s="23"/>
-    </row>
-    <row r="206" spans="2:2">
-      <c r="B206" s="24"/>
-    </row>
-    <row r="209" ht="18.75" customHeight="1"/>
-    <row r="210" ht="21" customHeight="1"/>
+      <c r="C184" s="21"/>
+      <c r="D184" s="21"/>
+      <c r="E184" s="21"/>
+      <c r="F184" s="21"/>
+      <c r="G184" s="21"/>
+    </row>
+    <row r="185" spans="3:7">
+      <c r="C185" s="21"/>
+      <c r="D185" s="21"/>
+      <c r="E185" s="21"/>
+      <c r="F185" s="21"/>
+      <c r="G185" s="21"/>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="22"/>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" s="23"/>
+    </row>
+    <row r="210" ht="18.75" customHeight="1"/>
     <row r="211" ht="21" customHeight="1"/>
     <row r="212" ht="21" customHeight="1"/>
     <row r="213" ht="21" customHeight="1"/>
@@ -5189,12 +5190,10 @@
     <row r="216" ht="21" customHeight="1"/>
     <row r="217" ht="21" customHeight="1"/>
     <row r="218" ht="21" customHeight="1"/>
-    <row r="229" spans="1:2">
-      <c r="A229" s="25"/>
-      <c r="B229" s="26"/>
-    </row>
-    <row r="230" spans="2:2">
-      <c r="B230" s="5"/>
+    <row r="219" ht="21" customHeight="1"/>
+    <row r="230" spans="1:2">
+      <c r="A230" s="24"/>
+      <c r="B230" s="25"/>
     </row>
     <row r="231" spans="2:2">
       <c r="B231" s="5"/>
@@ -5217,12 +5216,12 @@
     <row r="237" spans="2:2">
       <c r="B237" s="5"/>
     </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="25"/>
-      <c r="B238" s="27"/>
-    </row>
-    <row r="239" spans="2:2">
-      <c r="B239" s="5"/>
+    <row r="238" spans="2:2">
+      <c r="B238" s="5"/>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="24"/>
+      <c r="B239" s="26"/>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" s="5"/>
@@ -5269,11 +5268,11 @@
     <row r="254" spans="2:2">
       <c r="B254" s="5"/>
     </row>
-    <row r="255" spans="1:2">
-      <c r="A255" s="23"/>
+    <row r="255" spans="2:2">
       <c r="B255" s="5"/>
     </row>
-    <row r="256" spans="2:2">
+    <row r="256" spans="1:2">
+      <c r="A256" s="22"/>
       <c r="B256" s="5"/>
     </row>
     <row r="257" spans="2:2">
@@ -5282,11 +5281,11 @@
     <row r="258" spans="2:2">
       <c r="B258" s="5"/>
     </row>
-    <row r="259" spans="1:2">
-      <c r="A259" s="23"/>
+    <row r="259" spans="2:2">
       <c r="B259" s="5"/>
     </row>
-    <row r="260" spans="2:2">
+    <row r="260" spans="1:2">
+      <c r="A260" s="22"/>
       <c r="B260" s="5"/>
     </row>
     <row r="261" spans="2:2">
@@ -5310,18 +5309,18 @@
     <row r="267" spans="2:2">
       <c r="B267" s="5"/>
     </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="23"/>
+    <row r="268" spans="2:2">
       <c r="B268" s="5"/>
     </row>
-    <row r="269" spans="2:2">
+    <row r="269" spans="1:2">
+      <c r="A269" s="22"/>
       <c r="B269" s="5"/>
     </row>
-    <row r="270" spans="1:2">
-      <c r="A270" s="23"/>
+    <row r="270" spans="2:2">
       <c r="B270" s="5"/>
     </row>
-    <row r="271" spans="2:2">
+    <row r="271" spans="1:2">
+      <c r="A271" s="22"/>
       <c r="B271" s="5"/>
     </row>
     <row r="272" spans="2:2">
@@ -5379,10 +5378,10 @@
       <c r="B289" s="5"/>
     </row>
     <row r="290" spans="2:2">
-      <c r="B290" s="28"/>
+      <c r="B290" s="5"/>
     </row>
     <row r="291" spans="2:2">
-      <c r="B291" s="5"/>
+      <c r="B291" s="27"/>
     </row>
     <row r="292" spans="2:2">
       <c r="B292" s="5"/>
@@ -5393,12 +5392,12 @@
     <row r="294" spans="2:2">
       <c r="B294" s="5"/>
     </row>
-    <row r="295" spans="1:2">
-      <c r="A295" s="25"/>
-      <c r="B295" s="27"/>
-    </row>
-    <row r="296" spans="2:2">
-      <c r="B296" s="5"/>
+    <row r="295" spans="2:2">
+      <c r="B295" s="5"/>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="24"/>
+      <c r="B296" s="26"/>
     </row>
     <row r="297" spans="2:2">
       <c r="B297" s="5"/>
@@ -5448,11 +5447,11 @@
     <row r="312" spans="2:2">
       <c r="B312" s="5"/>
     </row>
-    <row r="313" spans="1:2">
-      <c r="A313" s="29"/>
+    <row r="313" spans="2:2">
       <c r="B313" s="5"/>
     </row>
-    <row r="314" spans="2:2">
+    <row r="314" spans="1:2">
+      <c r="A314" s="28"/>
       <c r="B314" s="5"/>
     </row>
     <row r="315" spans="2:2">
@@ -5476,23 +5475,23 @@
     <row r="321" spans="2:2">
       <c r="B321" s="5"/>
     </row>
-    <row r="322" spans="1:2">
-      <c r="A322" s="23"/>
+    <row r="322" spans="2:2">
       <c r="B322" s="5"/>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="23"/>
+      <c r="A323" s="22"/>
       <c r="B323" s="5"/>
     </row>
     <row r="324" spans="1:2">
-      <c r="A324" s="23"/>
+      <c r="A324" s="22"/>
       <c r="B324" s="5"/>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="23"/>
+      <c r="A325" s="22"/>
       <c r="B325" s="5"/>
     </row>
-    <row r="326" spans="2:2">
+    <row r="326" spans="1:2">
+      <c r="A326" s="22"/>
       <c r="B326" s="5"/>
     </row>
     <row r="327" spans="2:2">
@@ -5543,355 +5542,355 @@
     <row r="342" spans="2:2">
       <c r="B342" s="5"/>
     </row>
-    <row r="384" spans="1:1">
-      <c r="A384" s="23"/>
-    </row>
-    <row r="422" spans="1:1">
-      <c r="A422" s="23"/>
-    </row>
-    <row r="424" spans="1:1">
-      <c r="A424" s="23"/>
+    <row r="343" spans="2:2">
+      <c r="B343" s="5"/>
+    </row>
+    <row r="385" spans="1:1">
+      <c r="A385" s="22"/>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="22"/>
     </row>
     <row r="425" spans="1:1">
-      <c r="A425" s="23"/>
+      <c r="A425" s="22"/>
     </row>
     <row r="426" spans="1:1">
-      <c r="A426" s="23"/>
+      <c r="A426" s="22"/>
     </row>
     <row r="427" spans="1:1">
-      <c r="A427" s="23"/>
+      <c r="A427" s="22"/>
     </row>
     <row r="428" spans="1:1">
-      <c r="A428" s="23"/>
+      <c r="A428" s="22"/>
     </row>
     <row r="429" spans="1:1">
-      <c r="A429" s="23"/>
-    </row>
-    <row r="430" spans="3:4">
-      <c r="C430" s="24"/>
-      <c r="D430" s="24"/>
-    </row>
-    <row r="431" spans="1:1">
-      <c r="A431" s="23"/>
+      <c r="A429" s="22"/>
+    </row>
+    <row r="430" spans="1:1">
+      <c r="A430" s="22"/>
+    </row>
+    <row r="431" spans="3:4">
+      <c r="C431" s="23"/>
+      <c r="D431" s="23"/>
     </row>
     <row r="432" spans="1:1">
-      <c r="A432" s="23"/>
+      <c r="A432" s="22"/>
     </row>
     <row r="433" spans="1:1">
-      <c r="A433" s="23"/>
+      <c r="A433" s="22"/>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434" s="23"/>
+      <c r="A434" s="22"/>
     </row>
     <row r="435" spans="1:1">
-      <c r="A435" s="23"/>
-    </row>
-    <row r="437" spans="1:1">
-      <c r="A437" s="23"/>
+      <c r="A435" s="22"/>
+    </row>
+    <row r="436" spans="1:1">
+      <c r="A436" s="22"/>
     </row>
     <row r="438" spans="1:1">
-      <c r="A438" s="23"/>
+      <c r="A438" s="22"/>
     </row>
     <row r="439" spans="1:1">
-      <c r="A439" s="23"/>
+      <c r="A439" s="22"/>
     </row>
     <row r="440" spans="1:1">
-      <c r="A440" s="23"/>
-    </row>
-    <row r="456" spans="1:1">
-      <c r="A456" s="23"/>
+      <c r="A440" s="22"/>
+    </row>
+    <row r="441" spans="1:1">
+      <c r="A441" s="22"/>
     </row>
     <row r="457" spans="1:1">
-      <c r="A457" s="23"/>
+      <c r="A457" s="22"/>
     </row>
     <row r="458" spans="1:1">
-      <c r="A458" s="23"/>
+      <c r="A458" s="22"/>
     </row>
     <row r="459" spans="1:1">
-      <c r="A459" s="23"/>
-    </row>
-    <row r="474" spans="3:4">
-      <c r="C474" s="24"/>
-      <c r="D474" s="24"/>
-    </row>
-    <row r="475" spans="1:7">
-      <c r="A475" s="23"/>
-      <c r="C475" s="24"/>
-      <c r="D475" s="24"/>
-      <c r="E475" s="24"/>
-      <c r="F475" s="24"/>
-      <c r="G475" s="24"/>
+      <c r="A459" s="22"/>
+    </row>
+    <row r="460" spans="1:1">
+      <c r="A460" s="22"/>
+    </row>
+    <row r="475" spans="3:4">
+      <c r="C475" s="23"/>
+      <c r="D475" s="23"/>
     </row>
     <row r="476" spans="1:7">
-      <c r="A476" s="23"/>
-      <c r="C476" s="24"/>
-      <c r="D476" s="24"/>
-      <c r="E476" s="24"/>
-      <c r="F476" s="24"/>
-      <c r="G476" s="24"/>
+      <c r="A476" s="22"/>
+      <c r="C476" s="23"/>
+      <c r="D476" s="23"/>
+      <c r="E476" s="23"/>
+      <c r="F476" s="23"/>
+      <c r="G476" s="23"/>
     </row>
     <row r="477" spans="1:7">
-      <c r="A477" s="23"/>
-      <c r="C477" s="24"/>
-      <c r="D477" s="24"/>
-      <c r="E477" s="24"/>
-      <c r="F477" s="24"/>
-      <c r="G477" s="24"/>
-    </row>
-    <row r="478" spans="3:7">
-      <c r="C478" s="24"/>
-      <c r="D478" s="24"/>
-      <c r="E478" s="24"/>
-      <c r="F478" s="24"/>
-      <c r="G478" s="24"/>
+      <c r="A477" s="22"/>
+      <c r="C477" s="23"/>
+      <c r="D477" s="23"/>
+      <c r="E477" s="23"/>
+      <c r="F477" s="23"/>
+      <c r="G477" s="23"/>
+    </row>
+    <row r="478" spans="1:7">
+      <c r="A478" s="22"/>
+      <c r="C478" s="23"/>
+      <c r="D478" s="23"/>
+      <c r="E478" s="23"/>
+      <c r="F478" s="23"/>
+      <c r="G478" s="23"/>
     </row>
     <row r="479" spans="3:7">
-      <c r="C479" s="24"/>
-      <c r="D479" s="24"/>
-      <c r="E479" s="24"/>
-      <c r="F479" s="24"/>
-      <c r="G479" s="24"/>
-    </row>
-    <row r="480" spans="1:7">
-      <c r="A480" s="23"/>
-      <c r="C480" s="24"/>
-      <c r="D480" s="24"/>
-      <c r="E480" s="24"/>
-      <c r="F480" s="24"/>
-      <c r="G480" s="24"/>
+      <c r="C479" s="23"/>
+      <c r="D479" s="23"/>
+      <c r="E479" s="23"/>
+      <c r="F479" s="23"/>
+      <c r="G479" s="23"/>
+    </row>
+    <row r="480" spans="3:7">
+      <c r="C480" s="23"/>
+      <c r="D480" s="23"/>
+      <c r="E480" s="23"/>
+      <c r="F480" s="23"/>
+      <c r="G480" s="23"/>
     </row>
     <row r="481" spans="1:7">
-      <c r="A481" s="23"/>
-      <c r="C481" s="24"/>
-      <c r="D481" s="24"/>
-      <c r="E481" s="24"/>
-      <c r="F481" s="24"/>
-      <c r="G481" s="24"/>
+      <c r="A481" s="22"/>
+      <c r="C481" s="23"/>
+      <c r="D481" s="23"/>
+      <c r="E481" s="23"/>
+      <c r="F481" s="23"/>
+      <c r="G481" s="23"/>
     </row>
     <row r="482" spans="1:7">
-      <c r="A482" s="23"/>
-      <c r="C482" s="24"/>
-      <c r="D482" s="24"/>
-      <c r="E482" s="24"/>
-      <c r="F482" s="24"/>
-      <c r="G482" s="24"/>
+      <c r="A482" s="22"/>
+      <c r="C482" s="23"/>
+      <c r="D482" s="23"/>
+      <c r="E482" s="23"/>
+      <c r="F482" s="23"/>
+      <c r="G482" s="23"/>
     </row>
     <row r="483" spans="1:7">
-      <c r="A483" s="23"/>
-      <c r="C483" s="24"/>
-      <c r="D483" s="24"/>
-      <c r="E483" s="24"/>
-      <c r="F483" s="24"/>
-      <c r="G483" s="24"/>
+      <c r="A483" s="22"/>
+      <c r="C483" s="23"/>
+      <c r="D483" s="23"/>
+      <c r="E483" s="23"/>
+      <c r="F483" s="23"/>
+      <c r="G483" s="23"/>
     </row>
     <row r="484" spans="1:7">
-      <c r="A484" s="23"/>
-      <c r="C484" s="24"/>
-      <c r="D484" s="24"/>
-      <c r="E484" s="24"/>
-      <c r="F484" s="24"/>
-      <c r="G484" s="24"/>
-    </row>
-    <row r="485" spans="3:7">
-      <c r="C485" s="24"/>
-      <c r="D485" s="24"/>
-      <c r="E485" s="24"/>
-      <c r="F485" s="24"/>
-      <c r="G485" s="24"/>
-    </row>
-    <row r="486" spans="1:7">
-      <c r="A486" s="23"/>
-      <c r="C486" s="24"/>
-      <c r="D486" s="24"/>
-      <c r="E486" s="24"/>
-      <c r="F486" s="24"/>
-      <c r="G486" s="24"/>
+      <c r="A484" s="22"/>
+      <c r="C484" s="23"/>
+      <c r="D484" s="23"/>
+      <c r="E484" s="23"/>
+      <c r="F484" s="23"/>
+      <c r="G484" s="23"/>
+    </row>
+    <row r="485" spans="1:7">
+      <c r="A485" s="22"/>
+      <c r="C485" s="23"/>
+      <c r="D485" s="23"/>
+      <c r="E485" s="23"/>
+      <c r="F485" s="23"/>
+      <c r="G485" s="23"/>
+    </row>
+    <row r="486" spans="3:7">
+      <c r="C486" s="23"/>
+      <c r="D486" s="23"/>
+      <c r="E486" s="23"/>
+      <c r="F486" s="23"/>
+      <c r="G486" s="23"/>
     </row>
     <row r="487" spans="1:7">
-      <c r="A487" s="23"/>
-      <c r="C487" s="24"/>
-      <c r="D487" s="24"/>
-      <c r="E487" s="24"/>
-      <c r="F487" s="24"/>
-      <c r="G487" s="24"/>
+      <c r="A487" s="22"/>
+      <c r="C487" s="23"/>
+      <c r="D487" s="23"/>
+      <c r="E487" s="23"/>
+      <c r="F487" s="23"/>
+      <c r="G487" s="23"/>
     </row>
     <row r="488" spans="1:7">
-      <c r="A488" s="23"/>
-      <c r="C488" s="24"/>
-      <c r="D488" s="24"/>
-      <c r="E488" s="24"/>
-      <c r="F488" s="24"/>
-      <c r="G488" s="24"/>
-    </row>
-    <row r="489" spans="3:7">
-      <c r="C489" s="24"/>
-      <c r="D489" s="24"/>
-      <c r="E489" s="24"/>
-      <c r="F489" s="24"/>
-      <c r="G489" s="24"/>
+      <c r="A488" s="22"/>
+      <c r="C488" s="23"/>
+      <c r="D488" s="23"/>
+      <c r="E488" s="23"/>
+      <c r="F488" s="23"/>
+      <c r="G488" s="23"/>
+    </row>
+    <row r="489" spans="1:7">
+      <c r="A489" s="22"/>
+      <c r="C489" s="23"/>
+      <c r="D489" s="23"/>
+      <c r="E489" s="23"/>
+      <c r="F489" s="23"/>
+      <c r="G489" s="23"/>
     </row>
     <row r="490" spans="3:7">
-      <c r="C490" s="24"/>
-      <c r="D490" s="24"/>
-      <c r="E490" s="24"/>
-      <c r="F490" s="24"/>
-      <c r="G490" s="24"/>
+      <c r="C490" s="23"/>
+      <c r="D490" s="23"/>
+      <c r="E490" s="23"/>
+      <c r="F490" s="23"/>
+      <c r="G490" s="23"/>
     </row>
     <row r="491" spans="3:7">
-      <c r="C491" s="24"/>
-      <c r="D491" s="24"/>
-      <c r="E491" s="24"/>
-      <c r="F491" s="24"/>
-      <c r="G491" s="24"/>
-    </row>
-    <row r="492" spans="5:7">
-      <c r="E492" s="24"/>
-      <c r="F492" s="24"/>
-      <c r="G492" s="24"/>
-    </row>
-    <row r="502" spans="3:7">
-      <c r="C502" s="24"/>
-      <c r="D502" s="24"/>
-      <c r="E502" s="24"/>
-      <c r="F502" s="24"/>
-      <c r="G502" s="24"/>
+      <c r="C491" s="23"/>
+      <c r="D491" s="23"/>
+      <c r="E491" s="23"/>
+      <c r="F491" s="23"/>
+      <c r="G491" s="23"/>
+    </row>
+    <row r="492" spans="3:7">
+      <c r="C492" s="23"/>
+      <c r="D492" s="23"/>
+      <c r="E492" s="23"/>
+      <c r="F492" s="23"/>
+      <c r="G492" s="23"/>
+    </row>
+    <row r="493" spans="5:7">
+      <c r="E493" s="23"/>
+      <c r="F493" s="23"/>
+      <c r="G493" s="23"/>
     </row>
     <row r="503" spans="3:7">
-      <c r="C503" s="24"/>
-      <c r="D503" s="24"/>
-      <c r="E503" s="24"/>
-      <c r="F503" s="24"/>
-      <c r="G503" s="24"/>
-    </row>
-    <row r="504" spans="1:7">
-      <c r="A504" s="23"/>
-      <c r="C504" s="24"/>
-      <c r="D504" s="24"/>
-      <c r="E504" s="24"/>
-      <c r="F504" s="24"/>
-      <c r="G504" s="24"/>
+      <c r="C503" s="23"/>
+      <c r="D503" s="23"/>
+      <c r="E503" s="23"/>
+      <c r="F503" s="23"/>
+      <c r="G503" s="23"/>
+    </row>
+    <row r="504" spans="3:7">
+      <c r="C504" s="23"/>
+      <c r="D504" s="23"/>
+      <c r="E504" s="23"/>
+      <c r="F504" s="23"/>
+      <c r="G504" s="23"/>
     </row>
     <row r="505" spans="1:7">
-      <c r="A505" s="23"/>
-      <c r="C505" s="24"/>
-      <c r="D505" s="24"/>
-      <c r="E505" s="24"/>
-      <c r="F505" s="24"/>
-      <c r="G505" s="24"/>
-    </row>
-    <row r="506" spans="3:7">
-      <c r="C506" s="24"/>
-      <c r="D506" s="24"/>
-      <c r="E506" s="24"/>
-      <c r="F506" s="24"/>
-      <c r="G506" s="24"/>
-    </row>
-    <row r="507" spans="1:7">
-      <c r="A507" s="23"/>
-      <c r="C507" s="24"/>
-      <c r="D507" s="24"/>
-      <c r="E507" s="24"/>
-      <c r="F507" s="24"/>
-      <c r="G507" s="24"/>
+      <c r="A505" s="22"/>
+      <c r="C505" s="23"/>
+      <c r="D505" s="23"/>
+      <c r="E505" s="23"/>
+      <c r="F505" s="23"/>
+      <c r="G505" s="23"/>
+    </row>
+    <row r="506" spans="1:7">
+      <c r="A506" s="22"/>
+      <c r="C506" s="23"/>
+      <c r="D506" s="23"/>
+      <c r="E506" s="23"/>
+      <c r="F506" s="23"/>
+      <c r="G506" s="23"/>
+    </row>
+    <row r="507" spans="3:7">
+      <c r="C507" s="23"/>
+      <c r="D507" s="23"/>
+      <c r="E507" s="23"/>
+      <c r="F507" s="23"/>
+      <c r="G507" s="23"/>
     </row>
     <row r="508" spans="1:7">
-      <c r="A508" s="23"/>
-      <c r="C508" s="24"/>
-      <c r="D508" s="24"/>
-      <c r="E508" s="24"/>
-      <c r="F508" s="24"/>
-      <c r="G508" s="24"/>
-    </row>
-    <row r="509" spans="3:4">
-      <c r="C509" s="24"/>
-      <c r="D509" s="24"/>
+      <c r="A508" s="22"/>
+      <c r="C508" s="23"/>
+      <c r="D508" s="23"/>
+      <c r="E508" s="23"/>
+      <c r="F508" s="23"/>
+      <c r="G508" s="23"/>
+    </row>
+    <row r="509" spans="1:7">
+      <c r="A509" s="22"/>
+      <c r="C509" s="23"/>
+      <c r="D509" s="23"/>
+      <c r="E509" s="23"/>
+      <c r="F509" s="23"/>
+      <c r="G509" s="23"/>
     </row>
     <row r="510" spans="3:4">
-      <c r="C510" s="24"/>
-      <c r="D510" s="24"/>
+      <c r="C510" s="23"/>
+      <c r="D510" s="23"/>
     </row>
     <row r="511" spans="3:4">
-      <c r="C511" s="24"/>
-      <c r="D511" s="24"/>
+      <c r="C511" s="23"/>
+      <c r="D511" s="23"/>
     </row>
     <row r="512" spans="3:4">
-      <c r="C512" s="24"/>
-      <c r="D512" s="24"/>
+      <c r="C512" s="23"/>
+      <c r="D512" s="23"/>
     </row>
     <row r="513" spans="3:4">
-      <c r="C513" s="24"/>
-      <c r="D513" s="24"/>
+      <c r="C513" s="23"/>
+      <c r="D513" s="23"/>
     </row>
     <row r="514" spans="3:4">
-      <c r="C514" s="24"/>
-      <c r="D514" s="24"/>
+      <c r="C514" s="23"/>
+      <c r="D514" s="23"/>
     </row>
     <row r="515" spans="3:4">
-      <c r="C515" s="24"/>
-      <c r="D515" s="24"/>
+      <c r="C515" s="23"/>
+      <c r="D515" s="23"/>
     </row>
     <row r="516" spans="3:4">
-      <c r="C516" s="24"/>
-      <c r="D516" s="24"/>
+      <c r="C516" s="23"/>
+      <c r="D516" s="23"/>
     </row>
     <row r="517" spans="3:4">
-      <c r="C517" s="24"/>
-      <c r="D517" s="24"/>
-    </row>
-    <row r="518" spans="1:4">
-      <c r="A518" s="23"/>
-      <c r="C518" s="24"/>
-      <c r="D518" s="24"/>
-    </row>
-    <row r="519" spans="3:7">
-      <c r="C519" s="24"/>
-      <c r="D519" s="24"/>
-      <c r="E519" s="24"/>
-      <c r="F519" s="24"/>
-      <c r="G519" s="24"/>
+      <c r="C517" s="23"/>
+      <c r="D517" s="23"/>
+    </row>
+    <row r="518" spans="3:4">
+      <c r="C518" s="23"/>
+      <c r="D518" s="23"/>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="22"/>
+      <c r="C519" s="23"/>
+      <c r="D519" s="23"/>
     </row>
     <row r="520" spans="3:7">
-      <c r="C520" s="24"/>
-      <c r="D520" s="24"/>
-      <c r="E520" s="24"/>
-      <c r="F520" s="24"/>
-      <c r="G520" s="24"/>
-    </row>
-    <row r="521" spans="1:4">
-      <c r="A521" s="23"/>
-      <c r="C521" s="24"/>
-      <c r="D521" s="24"/>
-    </row>
-    <row r="532" spans="1:4">
-      <c r="A532" s="23"/>
-      <c r="C532" s="24"/>
-      <c r="D532" s="24"/>
+      <c r="C520" s="23"/>
+      <c r="D520" s="23"/>
+      <c r="E520" s="23"/>
+      <c r="F520" s="23"/>
+      <c r="G520" s="23"/>
+    </row>
+    <row r="521" spans="3:7">
+      <c r="C521" s="23"/>
+      <c r="D521" s="23"/>
+      <c r="E521" s="23"/>
+      <c r="F521" s="23"/>
+      <c r="G521" s="23"/>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" s="22"/>
+      <c r="C522" s="23"/>
+      <c r="D522" s="23"/>
     </row>
     <row r="533" spans="1:4">
-      <c r="A533" s="23"/>
-      <c r="C533" s="24"/>
-      <c r="D533" s="24"/>
-    </row>
-    <row r="534" spans="3:4">
-      <c r="C534" s="24"/>
-      <c r="D534" s="24"/>
+      <c r="A533" s="22"/>
+      <c r="C533" s="23"/>
+      <c r="D533" s="23"/>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534" s="22"/>
+      <c r="C534" s="23"/>
+      <c r="D534" s="23"/>
     </row>
     <row r="535" spans="3:4">
-      <c r="C535" s="24"/>
-      <c r="D535" s="24"/>
+      <c r="C535" s="23"/>
+      <c r="D535" s="23"/>
     </row>
     <row r="536" spans="3:4">
-      <c r="C536" s="24"/>
-      <c r="D536" s="24"/>
-    </row>
-    <row r="537" spans="1:1">
-      <c r="A537" s="23"/>
+      <c r="C536" s="23"/>
+      <c r="D536" s="23"/>
+    </row>
+    <row r="537" spans="3:4">
+      <c r="C537" s="23"/>
+      <c r="D537" s="23"/>
     </row>
     <row r="538" spans="1:1">
-      <c r="A538" s="23"/>
-    </row>
-    <row r="544" spans="2:2">
-      <c r="B544" s="7"/>
+      <c r="A538" s="22"/>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" s="22"/>
     </row>
     <row r="545" spans="2:2">
       <c r="B545" s="7"/>
@@ -5914,638 +5913,636 @@
     <row r="551" spans="2:2">
       <c r="B551" s="7"/>
     </row>
-    <row r="553" spans="2:2">
-      <c r="B553" s="7"/>
-    </row>
-    <row r="556" spans="1:1">
-      <c r="A556" s="23"/>
-    </row>
-    <row r="560" spans="1:1">
-      <c r="A560" s="23"/>
+    <row r="552" spans="2:2">
+      <c r="B552" s="7"/>
+    </row>
+    <row r="554" spans="2:2">
+      <c r="B554" s="7"/>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" s="22"/>
     </row>
     <row r="561" spans="1:1">
-      <c r="A561" s="23"/>
+      <c r="A561" s="22"/>
     </row>
     <row r="562" spans="1:1">
-      <c r="A562" s="23"/>
-    </row>
-    <row r="566" spans="1:2">
-      <c r="A566" s="23"/>
-      <c r="B566" s="24"/>
-    </row>
-    <row r="567" spans="1:1">
-      <c r="A567" s="23"/>
-    </row>
-    <row r="569" spans="1:1">
-      <c r="A569" s="23"/>
+      <c r="A562" s="22"/>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" s="22"/>
+    </row>
+    <row r="567" spans="1:2">
+      <c r="A567" s="22"/>
+      <c r="B567" s="23"/>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" s="22"/>
     </row>
     <row r="570" spans="1:1">
-      <c r="A570" s="23"/>
+      <c r="A570" s="22"/>
     </row>
     <row r="571" spans="1:1">
-      <c r="A571" s="23"/>
+      <c r="A571" s="22"/>
     </row>
     <row r="572" spans="1:1">
-      <c r="A572" s="23"/>
-    </row>
-    <row r="580" spans="2:2">
-      <c r="B580" s="30"/>
-    </row>
-    <row r="608" spans="3:4">
-      <c r="C608" s="24"/>
-      <c r="D608" s="24"/>
-    </row>
-    <row r="618" spans="1:1">
-      <c r="A618" s="23"/>
+      <c r="A572" s="22"/>
+    </row>
+    <row r="573" spans="1:1">
+      <c r="A573" s="22"/>
+    </row>
+    <row r="581" spans="2:2">
+      <c r="B581" s="29"/>
+    </row>
+    <row r="609" spans="3:4">
+      <c r="C609" s="23"/>
+      <c r="D609" s="23"/>
     </row>
     <row r="619" spans="1:1">
-      <c r="A619" s="23"/>
-    </row>
-    <row r="717" spans="1:1">
-      <c r="A717" s="23"/>
+      <c r="A619" s="22"/>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620" s="22"/>
     </row>
     <row r="718" spans="1:1">
-      <c r="A718" s="23"/>
-    </row>
-    <row r="720" spans="1:1">
-      <c r="A720" s="23"/>
+      <c r="A718" s="22"/>
+    </row>
+    <row r="719" spans="1:1">
+      <c r="A719" s="22"/>
     </row>
     <row r="721" spans="1:1">
-      <c r="A721" s="23"/>
+      <c r="A721" s="22"/>
     </row>
     <row r="722" spans="1:1">
-      <c r="A722" s="23"/>
-    </row>
-    <row r="838" spans="1:1">
-      <c r="A838" s="23"/>
-    </row>
-    <row r="842" spans="1:1">
-      <c r="A842" s="23"/>
+      <c r="A722" s="22"/>
+    </row>
+    <row r="723" spans="1:1">
+      <c r="A723" s="22"/>
+    </row>
+    <row r="839" spans="1:1">
+      <c r="A839" s="22"/>
     </row>
     <row r="843" spans="1:1">
-      <c r="A843" s="23"/>
+      <c r="A843" s="22"/>
     </row>
     <row r="844" spans="1:1">
-      <c r="A844" s="23"/>
+      <c r="A844" s="22"/>
     </row>
     <row r="845" spans="1:1">
-      <c r="A845" s="23"/>
+      <c r="A845" s="22"/>
     </row>
     <row r="846" spans="1:1">
-      <c r="A846" s="23"/>
+      <c r="A846" s="22"/>
     </row>
     <row r="847" spans="1:1">
-      <c r="A847" s="23"/>
+      <c r="A847" s="22"/>
     </row>
     <row r="848" spans="1:1">
-      <c r="A848" s="23"/>
+      <c r="A848" s="22"/>
     </row>
     <row r="849" spans="1:1">
-      <c r="A849" s="23"/>
+      <c r="A849" s="22"/>
     </row>
     <row r="850" spans="1:1">
-      <c r="A850" s="23"/>
+      <c r="A850" s="22"/>
     </row>
     <row r="851" spans="1:1">
-      <c r="A851" s="23"/>
+      <c r="A851" s="22"/>
     </row>
     <row r="852" spans="1:1">
-      <c r="A852" s="23"/>
-    </row>
-    <row r="853" spans="2:4">
-      <c r="B853" s="30"/>
-      <c r="C853" s="24"/>
-      <c r="D853" s="24"/>
-    </row>
-    <row r="854" spans="3:4">
-      <c r="C854" s="24"/>
-      <c r="D854" s="24"/>
+      <c r="A852" s="22"/>
+    </row>
+    <row r="853" spans="1:1">
+      <c r="A853" s="22"/>
+    </row>
+    <row r="854" spans="2:4">
+      <c r="B854" s="29"/>
+      <c r="C854" s="23"/>
+      <c r="D854" s="23"/>
     </row>
     <row r="855" spans="3:4">
-      <c r="C855" s="24"/>
-      <c r="D855" s="24"/>
-    </row>
-    <row r="872" spans="2:2">
-      <c r="B872" s="7"/>
-    </row>
-    <row r="984" spans="1:1">
-      <c r="A984" s="23"/>
+      <c r="C855" s="23"/>
+      <c r="D855" s="23"/>
+    </row>
+    <row r="856" spans="3:4">
+      <c r="C856" s="23"/>
+      <c r="D856" s="23"/>
+    </row>
+    <row r="873" spans="2:2">
+      <c r="B873" s="7"/>
     </row>
     <row r="985" spans="1:1">
-      <c r="A985" s="23"/>
+      <c r="A985" s="22"/>
     </row>
     <row r="986" spans="1:1">
-      <c r="A986" s="23"/>
+      <c r="A986" s="22"/>
     </row>
     <row r="987" spans="1:1">
-      <c r="A987" s="23"/>
+      <c r="A987" s="22"/>
     </row>
     <row r="988" spans="1:1">
-      <c r="A988" s="23"/>
-    </row>
-    <row r="1055" spans="2:7">
-      <c r="B1055" s="7"/>
-      <c r="C1055" s="7"/>
-      <c r="D1055" s="7"/>
-      <c r="E1055" s="7"/>
-      <c r="F1055" s="7"/>
-      <c r="G1055" s="7"/>
-    </row>
-    <row r="1058" spans="1:1">
-      <c r="A1058" s="23"/>
+      <c r="A988" s="22"/>
+    </row>
+    <row r="989" spans="1:1">
+      <c r="A989" s="22"/>
+    </row>
+    <row r="1056" spans="2:7">
+      <c r="B1056" s="7"/>
+      <c r="C1056" s="7"/>
+      <c r="D1056" s="7"/>
+      <c r="E1056" s="7"/>
+      <c r="F1056" s="7"/>
+      <c r="G1056" s="7"/>
     </row>
     <row r="1059" spans="1:1">
-      <c r="A1059" s="23"/>
-    </row>
-    <row r="1061" spans="1:1">
-      <c r="A1061" s="23"/>
-    </row>
-    <row r="1154" spans="1:1">
-      <c r="A1154" s="23"/>
+      <c r="A1059" s="22"/>
+    </row>
+    <row r="1060" spans="1:1">
+      <c r="A1060" s="22"/>
+    </row>
+    <row r="1062" spans="1:1">
+      <c r="A1062" s="22"/>
     </row>
     <row r="1155" spans="1:1">
-      <c r="A1155" s="23"/>
+      <c r="A1155" s="22"/>
     </row>
     <row r="1156" spans="1:1">
-      <c r="A1156" s="23"/>
+      <c r="A1156" s="22"/>
     </row>
     <row r="1157" spans="1:1">
-      <c r="A1157" s="23"/>
+      <c r="A1157" s="22"/>
     </row>
     <row r="1158" spans="1:1">
-      <c r="A1158" s="23"/>
-    </row>
-    <row r="1176" spans="1:1">
-      <c r="A1176" s="23"/>
+      <c r="A1158" s="22"/>
+    </row>
+    <row r="1159" spans="1:1">
+      <c r="A1159" s="22"/>
     </row>
     <row r="1177" spans="1:1">
-      <c r="A1177" s="23"/>
-    </row>
-    <row r="1185" spans="3:7">
-      <c r="C1185" s="22"/>
-      <c r="D1185" s="22"/>
-      <c r="E1185" s="22"/>
-      <c r="F1185" s="22"/>
-      <c r="G1185" s="22"/>
-    </row>
-    <row r="1229" spans="1:1">
-      <c r="A1229" s="23"/>
-    </row>
-    <row r="1232" spans="1:1">
-      <c r="A1232" s="23"/>
+      <c r="A1177" s="22"/>
+    </row>
+    <row r="1178" spans="1:1">
+      <c r="A1178" s="22"/>
+    </row>
+    <row r="1186" spans="3:7">
+      <c r="C1186" s="21"/>
+      <c r="D1186" s="21"/>
+      <c r="E1186" s="21"/>
+      <c r="F1186" s="21"/>
+      <c r="G1186" s="21"/>
+    </row>
+    <row r="1230" spans="1:1">
+      <c r="A1230" s="22"/>
     </row>
     <row r="1233" spans="1:1">
-      <c r="A1233" s="23"/>
-    </row>
-    <row r="1280" spans="1:1">
-      <c r="A1280" s="23"/>
-    </row>
-    <row r="1296" spans="1:1">
-      <c r="A1296" s="23"/>
-    </row>
-    <row r="1325" spans="1:1">
-      <c r="A1325" s="23"/>
-    </row>
-    <row r="1355" spans="1:1">
-      <c r="A1355" s="23"/>
-    </row>
-    <row r="1358" spans="3:7">
-      <c r="C1358" s="22"/>
-      <c r="D1358" s="22"/>
-      <c r="E1358" s="22"/>
-      <c r="F1358" s="22"/>
-      <c r="G1358" s="22"/>
-    </row>
-    <row r="1360" spans="2:2">
-      <c r="B1360" s="31"/>
-    </row>
-    <row r="1389" spans="1:1">
-      <c r="A1389" s="23"/>
+      <c r="A1233" s="22"/>
+    </row>
+    <row r="1234" spans="1:1">
+      <c r="A1234" s="22"/>
+    </row>
+    <row r="1281" spans="1:1">
+      <c r="A1281" s="22"/>
+    </row>
+    <row r="1297" spans="1:1">
+      <c r="A1297" s="22"/>
+    </row>
+    <row r="1326" spans="1:1">
+      <c r="A1326" s="22"/>
+    </row>
+    <row r="1356" spans="1:1">
+      <c r="A1356" s="22"/>
+    </row>
+    <row r="1359" spans="3:7">
+      <c r="C1359" s="21"/>
+      <c r="D1359" s="21"/>
+      <c r="E1359" s="21"/>
+      <c r="F1359" s="21"/>
+      <c r="G1359" s="21"/>
+    </row>
+    <row r="1361" spans="2:2">
+      <c r="B1361" s="30"/>
     </row>
     <row r="1390" spans="1:1">
-      <c r="A1390" s="23"/>
+      <c r="A1390" s="22"/>
     </row>
     <row r="1391" spans="1:1">
-      <c r="A1391" s="23"/>
+      <c r="A1391" s="22"/>
     </row>
     <row r="1392" spans="1:1">
-      <c r="A1392" s="23"/>
+      <c r="A1392" s="22"/>
     </row>
     <row r="1393" spans="1:1">
-      <c r="A1393" s="23"/>
-    </row>
-    <row r="1397" spans="1:1">
-      <c r="A1397" s="23"/>
-    </row>
-    <row r="1405" spans="1:1">
-      <c r="A1405" s="25"/>
+      <c r="A1393" s="22"/>
+    </row>
+    <row r="1394" spans="1:1">
+      <c r="A1394" s="22"/>
+    </row>
+    <row r="1398" spans="1:1">
+      <c r="A1398" s="22"/>
     </row>
     <row r="1406" spans="1:1">
-      <c r="A1406" s="25"/>
+      <c r="A1406" s="24"/>
     </row>
     <row r="1407" spans="1:1">
-      <c r="A1407" s="25"/>
+      <c r="A1407" s="24"/>
     </row>
     <row r="1408" spans="1:1">
-      <c r="A1408" s="25"/>
+      <c r="A1408" s="24"/>
     </row>
     <row r="1409" spans="1:1">
-      <c r="A1409" s="25"/>
-    </row>
-    <row r="1414" spans="1:1">
-      <c r="A1414" s="25"/>
+      <c r="A1409" s="24"/>
+    </row>
+    <row r="1410" spans="1:1">
+      <c r="A1410" s="24"/>
     </row>
     <row r="1415" spans="1:1">
-      <c r="A1415" s="25"/>
+      <c r="A1415" s="24"/>
     </row>
     <row r="1416" spans="1:1">
-      <c r="A1416" s="25"/>
+      <c r="A1416" s="24"/>
     </row>
     <row r="1417" spans="1:1">
-      <c r="A1417" s="25"/>
+      <c r="A1417" s="24"/>
     </row>
     <row r="1418" spans="1:1">
-      <c r="A1418" s="25"/>
+      <c r="A1418" s="24"/>
     </row>
     <row r="1419" spans="1:1">
-      <c r="A1419" s="25"/>
+      <c r="A1419" s="24"/>
     </row>
     <row r="1420" spans="1:1">
-      <c r="A1420" s="25"/>
+      <c r="A1420" s="24"/>
     </row>
     <row r="1421" spans="1:1">
-      <c r="A1421" s="25"/>
+      <c r="A1421" s="24"/>
     </row>
     <row r="1422" spans="1:1">
-      <c r="A1422" s="25"/>
+      <c r="A1422" s="24"/>
     </row>
     <row r="1423" spans="1:1">
-      <c r="A1423" s="25"/>
+      <c r="A1423" s="24"/>
     </row>
     <row r="1424" spans="1:1">
-      <c r="A1424" s="25"/>
+      <c r="A1424" s="24"/>
     </row>
     <row r="1425" spans="1:1">
-      <c r="A1425" s="25"/>
-    </row>
-    <row r="1429" spans="1:1">
-      <c r="A1429" s="23"/>
+      <c r="A1425" s="24"/>
+    </row>
+    <row r="1426" spans="1:1">
+      <c r="A1426" s="24"/>
     </row>
     <row r="1430" spans="1:1">
-      <c r="A1430" s="23"/>
+      <c r="A1430" s="22"/>
     </row>
     <row r="1431" spans="1:1">
-      <c r="A1431" s="23"/>
-    </row>
-    <row r="1433" spans="1:1">
-      <c r="A1433" s="23"/>
+      <c r="A1431" s="22"/>
+    </row>
+    <row r="1432" spans="1:1">
+      <c r="A1432" s="22"/>
     </row>
     <row r="1434" spans="1:1">
-      <c r="A1434" s="23"/>
+      <c r="A1434" s="22"/>
     </row>
     <row r="1435" spans="1:1">
-      <c r="A1435" s="23"/>
+      <c r="A1435" s="22"/>
     </row>
     <row r="1436" spans="1:1">
-      <c r="A1436" s="23"/>
+      <c r="A1436" s="22"/>
     </row>
     <row r="1437" spans="1:1">
-      <c r="A1437" s="23"/>
+      <c r="A1437" s="22"/>
     </row>
     <row r="1438" spans="1:1">
-      <c r="A1438" s="23"/>
+      <c r="A1438" s="22"/>
     </row>
     <row r="1439" spans="1:1">
-      <c r="A1439" s="23"/>
+      <c r="A1439" s="22"/>
     </row>
     <row r="1440" spans="1:1">
-      <c r="A1440" s="23"/>
+      <c r="A1440" s="22"/>
     </row>
     <row r="1441" spans="1:1">
-      <c r="A1441" s="23"/>
+      <c r="A1441" s="22"/>
     </row>
     <row r="1442" spans="1:1">
-      <c r="A1442" s="23"/>
+      <c r="A1442" s="22"/>
     </row>
     <row r="1443" spans="1:1">
-      <c r="A1443" s="23"/>
+      <c r="A1443" s="22"/>
     </row>
     <row r="1444" spans="1:1">
-      <c r="A1444" s="23"/>
+      <c r="A1444" s="22"/>
     </row>
     <row r="1445" spans="1:1">
-      <c r="A1445" s="23"/>
+      <c r="A1445" s="22"/>
     </row>
     <row r="1446" spans="1:1">
-      <c r="A1446" s="23"/>
+      <c r="A1446" s="22"/>
     </row>
     <row r="1447" spans="1:1">
-      <c r="A1447" s="23"/>
+      <c r="A1447" s="22"/>
     </row>
     <row r="1448" spans="1:1">
-      <c r="A1448" s="23"/>
-    </row>
-    <row r="1452" spans="1:1">
-      <c r="A1452" s="23"/>
-    </row>
-    <row r="1459" spans="1:1">
-      <c r="A1459" s="23"/>
+      <c r="A1448" s="22"/>
+    </row>
+    <row r="1449" spans="1:1">
+      <c r="A1449" s="22"/>
+    </row>
+    <row r="1453" spans="1:1">
+      <c r="A1453" s="22"/>
     </row>
     <row r="1460" spans="1:1">
-      <c r="A1460" s="23"/>
+      <c r="A1460" s="22"/>
     </row>
     <row r="1461" spans="1:1">
-      <c r="A1461" s="23"/>
+      <c r="A1461" s="22"/>
     </row>
     <row r="1462" spans="1:1">
-      <c r="A1462" s="23"/>
+      <c r="A1462" s="22"/>
     </row>
     <row r="1463" spans="1:1">
-      <c r="A1463" s="23"/>
+      <c r="A1463" s="22"/>
     </row>
     <row r="1464" spans="1:1">
-      <c r="A1464" s="23"/>
+      <c r="A1464" s="22"/>
     </row>
     <row r="1465" spans="1:1">
-      <c r="A1465" s="23"/>
+      <c r="A1465" s="22"/>
     </row>
     <row r="1466" spans="1:1">
-      <c r="A1466" s="23"/>
+      <c r="A1466" s="22"/>
     </row>
     <row r="1467" spans="1:1">
-      <c r="A1467" s="23"/>
+      <c r="A1467" s="22"/>
     </row>
     <row r="1468" spans="1:1">
-      <c r="A1468" s="23"/>
+      <c r="A1468" s="22"/>
     </row>
     <row r="1469" spans="1:1">
-      <c r="A1469" s="23"/>
-    </row>
-    <row r="1471" spans="1:1">
-      <c r="A1471" s="23"/>
-    </row>
-    <row r="1477" spans="2:2">
-      <c r="B1477" s="24"/>
-    </row>
-    <row r="1479" spans="2:2">
-      <c r="B1479" s="24"/>
-    </row>
-    <row r="1481" spans="2:2">
-      <c r="B1481" s="24"/>
-    </row>
-    <row r="1495" spans="2:2">
-      <c r="B1495" s="24"/>
-    </row>
-    <row r="1497" spans="2:2">
-      <c r="B1497" s="24"/>
-    </row>
-    <row r="1500" spans="2:2">
-      <c r="B1500" s="24"/>
+      <c r="A1469" s="22"/>
+    </row>
+    <row r="1470" spans="1:1">
+      <c r="A1470" s="22"/>
+    </row>
+    <row r="1472" spans="1:1">
+      <c r="A1472" s="22"/>
+    </row>
+    <row r="1478" spans="2:2">
+      <c r="B1478" s="23"/>
+    </row>
+    <row r="1480" spans="2:2">
+      <c r="B1480" s="23"/>
+    </row>
+    <row r="1482" spans="2:2">
+      <c r="B1482" s="23"/>
+    </row>
+    <row r="1496" spans="2:2">
+      <c r="B1496" s="23"/>
+    </row>
+    <row r="1498" spans="2:2">
+      <c r="B1498" s="23"/>
     </row>
     <row r="1501" spans="2:2">
-      <c r="B1501" s="24"/>
-    </row>
-    <row r="1506" spans="2:2">
-      <c r="B1506" s="24"/>
+      <c r="B1501" s="23"/>
+    </row>
+    <row r="1502" spans="2:2">
+      <c r="B1502" s="23"/>
     </row>
     <row r="1507" spans="2:2">
-      <c r="B1507" s="24"/>
-    </row>
-    <row r="1510" spans="2:2">
-      <c r="B1510" s="24"/>
+      <c r="B1507" s="23"/>
+    </row>
+    <row r="1508" spans="2:2">
+      <c r="B1508" s="23"/>
     </row>
     <row r="1511" spans="2:2">
-      <c r="B1511" s="24"/>
-    </row>
-    <row r="1622" spans="3:7">
-      <c r="C1622" s="22"/>
-      <c r="D1622" s="22"/>
-      <c r="E1622" s="22"/>
-      <c r="F1622" s="22"/>
-      <c r="G1622" s="22"/>
+      <c r="B1511" s="23"/>
+    </row>
+    <row r="1512" spans="2:2">
+      <c r="B1512" s="23"/>
     </row>
     <row r="1623" spans="3:7">
-      <c r="C1623" s="22"/>
-      <c r="D1623" s="22"/>
-      <c r="E1623" s="22"/>
-      <c r="F1623" s="22"/>
-      <c r="G1623" s="22"/>
+      <c r="C1623" s="21"/>
+      <c r="D1623" s="21"/>
+      <c r="E1623" s="21"/>
+      <c r="F1623" s="21"/>
+      <c r="G1623" s="21"/>
     </row>
     <row r="1624" spans="3:7">
-      <c r="C1624" s="22"/>
-      <c r="D1624" s="22"/>
-      <c r="E1624" s="22"/>
-      <c r="F1624" s="22"/>
-      <c r="G1624" s="22"/>
+      <c r="C1624" s="21"/>
+      <c r="D1624" s="21"/>
+      <c r="E1624" s="21"/>
+      <c r="F1624" s="21"/>
+      <c r="G1624" s="21"/>
     </row>
     <row r="1625" spans="3:7">
-      <c r="C1625" s="22"/>
-      <c r="D1625" s="22"/>
-      <c r="E1625" s="22"/>
-      <c r="F1625" s="22"/>
-      <c r="G1625" s="22"/>
+      <c r="C1625" s="21"/>
+      <c r="D1625" s="21"/>
+      <c r="E1625" s="21"/>
+      <c r="F1625" s="21"/>
+      <c r="G1625" s="21"/>
     </row>
     <row r="1626" spans="3:7">
-      <c r="C1626" s="22"/>
-      <c r="D1626" s="22"/>
-      <c r="E1626" s="22"/>
-      <c r="F1626" s="22"/>
-      <c r="G1626" s="22"/>
+      <c r="C1626" s="21"/>
+      <c r="D1626" s="21"/>
+      <c r="E1626" s="21"/>
+      <c r="F1626" s="21"/>
+      <c r="G1626" s="21"/>
     </row>
     <row r="1627" spans="3:7">
-      <c r="C1627" s="22"/>
-      <c r="D1627" s="22"/>
-      <c r="E1627" s="22"/>
-      <c r="F1627" s="22"/>
-      <c r="G1627" s="22"/>
+      <c r="C1627" s="21"/>
+      <c r="D1627" s="21"/>
+      <c r="E1627" s="21"/>
+      <c r="F1627" s="21"/>
+      <c r="G1627" s="21"/>
     </row>
     <row r="1628" spans="3:7">
-      <c r="C1628" s="22"/>
-      <c r="D1628" s="22"/>
-      <c r="E1628" s="22"/>
-      <c r="F1628" s="22"/>
-      <c r="G1628" s="22"/>
+      <c r="C1628" s="21"/>
+      <c r="D1628" s="21"/>
+      <c r="E1628" s="21"/>
+      <c r="F1628" s="21"/>
+      <c r="G1628" s="21"/>
     </row>
     <row r="1629" spans="3:7">
-      <c r="C1629" s="22"/>
-      <c r="D1629" s="22"/>
-      <c r="E1629" s="22"/>
-      <c r="F1629" s="22"/>
-      <c r="G1629" s="22"/>
+      <c r="C1629" s="21"/>
+      <c r="D1629" s="21"/>
+      <c r="E1629" s="21"/>
+      <c r="F1629" s="21"/>
+      <c r="G1629" s="21"/>
     </row>
     <row r="1630" spans="3:7">
-      <c r="C1630" s="22"/>
-      <c r="D1630" s="22"/>
-      <c r="E1630" s="22"/>
-      <c r="F1630" s="22"/>
-      <c r="G1630" s="22"/>
-    </row>
-    <row r="1632" spans="1:1">
-      <c r="A1632" s="23"/>
+      <c r="C1630" s="21"/>
+      <c r="D1630" s="21"/>
+      <c r="E1630" s="21"/>
+      <c r="F1630" s="21"/>
+      <c r="G1630" s="21"/>
+    </row>
+    <row r="1631" spans="3:7">
+      <c r="C1631" s="21"/>
+      <c r="D1631" s="21"/>
+      <c r="E1631" s="21"/>
+      <c r="F1631" s="21"/>
+      <c r="G1631" s="21"/>
     </row>
     <row r="1633" spans="1:1">
-      <c r="A1633" s="23"/>
+      <c r="A1633" s="22"/>
     </row>
     <row r="1634" spans="1:1">
-      <c r="A1634" s="23"/>
+      <c r="A1634" s="22"/>
     </row>
     <row r="1635" spans="1:1">
-      <c r="A1635" s="23"/>
+      <c r="A1635" s="22"/>
     </row>
     <row r="1636" spans="1:1">
-      <c r="A1636" s="23"/>
+      <c r="A1636" s="22"/>
     </row>
     <row r="1637" spans="1:1">
-      <c r="A1637" s="23"/>
-    </row>
-    <row r="1726" spans="1:1">
-      <c r="A1726" s="23"/>
+      <c r="A1637" s="22"/>
+    </row>
+    <row r="1638" spans="1:1">
+      <c r="A1638" s="22"/>
     </row>
     <row r="1727" spans="1:1">
-      <c r="A1727" s="23"/>
+      <c r="A1727" s="22"/>
     </row>
     <row r="1728" spans="1:1">
-      <c r="A1728" s="23"/>
+      <c r="A1728" s="22"/>
     </row>
     <row r="1729" spans="1:1">
-      <c r="A1729" s="23"/>
+      <c r="A1729" s="22"/>
     </row>
     <row r="1730" spans="1:1">
-      <c r="A1730" s="23"/>
-    </row>
-    <row r="1738" spans="1:1">
-      <c r="A1738" s="23"/>
+      <c r="A1730" s="22"/>
+    </row>
+    <row r="1731" spans="1:1">
+      <c r="A1731" s="22"/>
     </row>
     <row r="1739" spans="1:1">
-      <c r="A1739" s="23"/>
-    </row>
-    <row r="1741" spans="1:1">
-      <c r="A1741" s="23"/>
-    </row>
-    <row r="1752" spans="1:1">
-      <c r="A1752" s="23"/>
-    </row>
-    <row r="1777" spans="1:1">
-      <c r="A1777" s="23"/>
+      <c r="A1739" s="22"/>
+    </row>
+    <row r="1740" spans="1:1">
+      <c r="A1740" s="22"/>
+    </row>
+    <row r="1742" spans="1:1">
+      <c r="A1742" s="22"/>
+    </row>
+    <row r="1753" spans="1:1">
+      <c r="A1753" s="22"/>
     </row>
     <row r="1778" spans="1:1">
-      <c r="A1778" s="23"/>
-    </row>
-    <row r="1789" spans="1:1">
-      <c r="A1789" s="23"/>
+      <c r="A1778" s="22"/>
+    </row>
+    <row r="1779" spans="1:1">
+      <c r="A1779" s="22"/>
     </row>
     <row r="1790" spans="1:1">
-      <c r="A1790" s="23"/>
+      <c r="A1790" s="22"/>
     </row>
     <row r="1791" spans="1:1">
-      <c r="A1791" s="23"/>
+      <c r="A1791" s="22"/>
     </row>
     <row r="1792" spans="1:1">
-      <c r="A1792" s="23"/>
+      <c r="A1792" s="22"/>
     </row>
     <row r="1793" spans="1:1">
-      <c r="A1793" s="23"/>
+      <c r="A1793" s="22"/>
     </row>
     <row r="1794" spans="1:1">
-      <c r="A1794" s="23"/>
+      <c r="A1794" s="22"/>
     </row>
     <row r="1795" spans="1:1">
-      <c r="A1795" s="23"/>
+      <c r="A1795" s="22"/>
     </row>
     <row r="1796" spans="1:1">
-      <c r="A1796" s="23"/>
-    </row>
-    <row r="1798" spans="2:2">
-      <c r="B1798" s="13"/>
-    </row>
-    <row r="1800" spans="1:1">
-      <c r="A1800" s="23"/>
+      <c r="A1796" s="22"/>
+    </row>
+    <row r="1797" spans="1:1">
+      <c r="A1797" s="22"/>
+    </row>
+    <row r="1799" spans="2:2">
+      <c r="B1799" s="13"/>
     </row>
     <row r="1801" spans="1:1">
-      <c r="A1801" s="23"/>
-    </row>
-    <row r="1803" spans="1:1">
-      <c r="A1803" s="23"/>
+      <c r="A1801" s="22"/>
+    </row>
+    <row r="1802" spans="1:1">
+      <c r="A1802" s="22"/>
     </row>
     <row r="1804" spans="1:1">
-      <c r="A1804" s="23"/>
+      <c r="A1804" s="22"/>
     </row>
     <row r="1805" spans="1:1">
-      <c r="A1805" s="23"/>
+      <c r="A1805" s="22"/>
     </row>
     <row r="1806" spans="1:1">
-      <c r="A1806" s="23"/>
+      <c r="A1806" s="22"/>
     </row>
     <row r="1807" spans="1:1">
-      <c r="A1807" s="23"/>
+      <c r="A1807" s="22"/>
     </row>
     <row r="1808" spans="1:1">
-      <c r="A1808" s="23"/>
+      <c r="A1808" s="22"/>
     </row>
     <row r="1809" spans="1:1">
-      <c r="A1809" s="23"/>
+      <c r="A1809" s="22"/>
     </row>
     <row r="1810" spans="1:1">
-      <c r="A1810" s="23"/>
+      <c r="A1810" s="22"/>
     </row>
     <row r="1811" spans="1:1">
-      <c r="A1811" s="23"/>
-    </row>
-    <row r="1847" spans="1:1">
-      <c r="A1847" s="23"/>
-    </row>
-    <row r="1851" spans="1:1">
-      <c r="A1851" s="23"/>
-    </row>
-    <row r="1854" spans="1:1">
-      <c r="A1854" s="23"/>
-    </row>
-    <row r="1888" spans="1:1">
-      <c r="A1888" s="23"/>
-    </row>
-    <row r="1896" spans="1:1">
-      <c r="A1896" s="23"/>
+      <c r="A1811" s="22"/>
+    </row>
+    <row r="1812" spans="1:1">
+      <c r="A1812" s="22"/>
+    </row>
+    <row r="1848" spans="1:1">
+      <c r="A1848" s="22"/>
+    </row>
+    <row r="1852" spans="1:1">
+      <c r="A1852" s="22"/>
+    </row>
+    <row r="1855" spans="1:1">
+      <c r="A1855" s="22"/>
+    </row>
+    <row r="1889" spans="1:1">
+      <c r="A1889" s="22"/>
     </row>
     <row r="1897" spans="1:1">
-      <c r="A1897" s="23"/>
+      <c r="A1897" s="22"/>
     </row>
     <row r="1898" spans="1:1">
-      <c r="A1898" s="23"/>
-    </row>
-    <row r="1900" spans="1:1">
-      <c r="A1900" s="23"/>
-    </row>
-    <row r="1905" spans="1:1">
-      <c r="A1905" s="23"/>
-    </row>
-    <row r="1914" spans="1:1">
-      <c r="A1914" s="23"/>
+      <c r="A1898" s="22"/>
+    </row>
+    <row r="1899" spans="1:1">
+      <c r="A1899" s="22"/>
+    </row>
+    <row r="1901" spans="1:1">
+      <c r="A1901" s="22"/>
+    </row>
+    <row r="1906" spans="1:1">
+      <c r="A1906" s="22"/>
     </row>
     <row r="1915" spans="1:1">
-      <c r="A1915" s="23"/>
+      <c r="A1915" s="22"/>
     </row>
     <row r="1916" spans="1:1">
-      <c r="A1916" s="23"/>
+      <c r="A1916" s="22"/>
     </row>
     <row r="1917" spans="1:1">
-      <c r="A1917" s="23"/>
+      <c r="A1917" s="22"/>
     </row>
     <row r="1918" spans="1:1">
-      <c r="A1918" s="23"/>
+      <c r="A1918" s="22"/>
     </row>
     <row r="1919" spans="1:1">
-      <c r="A1919" s="23"/>
+      <c r="A1919" s="22"/>
     </row>
     <row r="1920" spans="1:1">
-      <c r="A1920" s="23"/>
+      <c r="A1920" s="22"/>
     </row>
     <row r="1921" spans="1:1">
-      <c r="A1921" s="23"/>
-    </row>
-    <row r="1928" spans="5:7">
-      <c r="E1928" s="7"/>
-      <c r="F1928" s="7"/>
-      <c r="G1928" s="7"/>
+      <c r="A1921" s="22"/>
+    </row>
+    <row r="1922" spans="1:1">
+      <c r="A1922" s="22"/>
     </row>
     <row r="1929" spans="5:7">
       <c r="E1929" s="7"/>
@@ -6567,10 +6564,10 @@
       <c r="F1932" s="7"/>
       <c r="G1932" s="7"/>
     </row>
-    <row r="1940" spans="5:7">
-      <c r="E1940" s="7"/>
-      <c r="F1940" s="7"/>
-      <c r="G1940" s="7"/>
+    <row r="1933" spans="5:7">
+      <c r="E1933" s="7"/>
+      <c r="F1933" s="7"/>
+      <c r="G1933" s="7"/>
     </row>
     <row r="1941" spans="5:7">
       <c r="E1941" s="7"/>
@@ -6587,1266 +6584,1268 @@
       <c r="F1943" s="7"/>
       <c r="G1943" s="7"/>
     </row>
-    <row r="1960" spans="1:1">
-      <c r="A1960" s="23"/>
+    <row r="1944" spans="5:7">
+      <c r="E1944" s="7"/>
+      <c r="F1944" s="7"/>
+      <c r="G1944" s="7"/>
     </row>
     <row r="1961" spans="1:1">
-      <c r="A1961" s="23"/>
+      <c r="A1961" s="22"/>
     </row>
     <row r="1962" spans="1:1">
-      <c r="A1962" s="23"/>
+      <c r="A1962" s="22"/>
     </row>
     <row r="1963" spans="1:1">
-      <c r="A1963" s="23"/>
-    </row>
-    <row r="1965" spans="1:1">
-      <c r="A1965" s="23"/>
+      <c r="A1963" s="22"/>
+    </row>
+    <row r="1964" spans="1:1">
+      <c r="A1964" s="22"/>
     </row>
     <row r="1966" spans="1:1">
-      <c r="A1966" s="23"/>
+      <c r="A1966" s="22"/>
     </row>
     <row r="1967" spans="1:1">
-      <c r="A1967" s="23"/>
+      <c r="A1967" s="22"/>
     </row>
     <row r="1968" spans="1:1">
-      <c r="A1968" s="23"/>
+      <c r="A1968" s="22"/>
     </row>
     <row r="1969" spans="1:1">
-      <c r="A1969" s="23"/>
-    </row>
-    <row r="1972" spans="1:1">
-      <c r="A1972" s="23"/>
+      <c r="A1969" s="22"/>
+    </row>
+    <row r="1970" spans="1:1">
+      <c r="A1970" s="22"/>
     </row>
     <row r="1973" spans="1:1">
-      <c r="A1973" s="23"/>
+      <c r="A1973" s="22"/>
     </row>
     <row r="1974" spans="1:1">
-      <c r="A1974" s="23"/>
+      <c r="A1974" s="22"/>
     </row>
     <row r="1975" spans="1:1">
-      <c r="A1975" s="23"/>
+      <c r="A1975" s="22"/>
     </row>
     <row r="1976" spans="1:1">
-      <c r="A1976" s="23"/>
-    </row>
-    <row r="1978" spans="1:1">
-      <c r="A1978" s="23"/>
+      <c r="A1976" s="22"/>
+    </row>
+    <row r="1977" spans="1:1">
+      <c r="A1977" s="22"/>
     </row>
     <row r="1979" spans="1:1">
-      <c r="A1979" s="23"/>
+      <c r="A1979" s="22"/>
     </row>
     <row r="1980" spans="1:1">
-      <c r="A1980" s="23"/>
+      <c r="A1980" s="22"/>
     </row>
     <row r="1981" spans="1:1">
-      <c r="A1981" s="23"/>
+      <c r="A1981" s="22"/>
     </row>
     <row r="1982" spans="1:1">
-      <c r="A1982" s="23"/>
+      <c r="A1982" s="22"/>
     </row>
     <row r="1983" spans="1:1">
-      <c r="A1983" s="23"/>
+      <c r="A1983" s="22"/>
     </row>
     <row r="1984" spans="1:1">
-      <c r="A1984" s="23"/>
+      <c r="A1984" s="22"/>
     </row>
     <row r="1985" spans="1:1">
-      <c r="A1985" s="23"/>
+      <c r="A1985" s="22"/>
     </row>
     <row r="1986" spans="1:1">
-      <c r="A1986" s="23"/>
+      <c r="A1986" s="22"/>
     </row>
     <row r="1987" spans="1:1">
-      <c r="A1987" s="23"/>
+      <c r="A1987" s="22"/>
     </row>
     <row r="1988" spans="1:1">
-      <c r="A1988" s="23"/>
+      <c r="A1988" s="22"/>
     </row>
     <row r="1989" spans="1:1">
-      <c r="A1989" s="23"/>
+      <c r="A1989" s="22"/>
     </row>
     <row r="1990" spans="1:1">
-      <c r="A1990" s="23"/>
+      <c r="A1990" s="22"/>
     </row>
     <row r="1991" spans="1:1">
-      <c r="A1991" s="23"/>
+      <c r="A1991" s="22"/>
     </row>
     <row r="1992" spans="1:1">
-      <c r="A1992" s="23"/>
+      <c r="A1992" s="22"/>
     </row>
     <row r="1993" spans="1:1">
-      <c r="A1993" s="23"/>
+      <c r="A1993" s="22"/>
     </row>
     <row r="1994" spans="1:1">
-      <c r="A1994" s="23"/>
+      <c r="A1994" s="22"/>
     </row>
     <row r="1995" spans="1:1">
-      <c r="A1995" s="23"/>
+      <c r="A1995" s="22"/>
     </row>
     <row r="1996" spans="1:1">
-      <c r="A1996" s="23"/>
+      <c r="A1996" s="22"/>
     </row>
     <row r="1997" spans="1:1">
-      <c r="A1997" s="23"/>
+      <c r="A1997" s="22"/>
     </row>
     <row r="1998" spans="1:1">
-      <c r="A1998" s="23"/>
+      <c r="A1998" s="22"/>
     </row>
     <row r="1999" spans="1:1">
-      <c r="A1999" s="23"/>
+      <c r="A1999" s="22"/>
     </row>
     <row r="2000" spans="1:1">
-      <c r="A2000" s="23"/>
+      <c r="A2000" s="22"/>
     </row>
     <row r="2001" spans="1:1">
-      <c r="A2001" s="23"/>
+      <c r="A2001" s="22"/>
     </row>
     <row r="2002" spans="1:1">
-      <c r="A2002" s="23"/>
+      <c r="A2002" s="22"/>
     </row>
     <row r="2003" spans="1:1">
-      <c r="A2003" s="23"/>
+      <c r="A2003" s="22"/>
     </row>
     <row r="2004" spans="1:1">
-      <c r="A2004" s="23"/>
+      <c r="A2004" s="22"/>
     </row>
     <row r="2005" spans="1:1">
-      <c r="A2005" s="23"/>
+      <c r="A2005" s="22"/>
     </row>
     <row r="2006" spans="1:1">
-      <c r="A2006" s="23"/>
+      <c r="A2006" s="22"/>
     </row>
     <row r="2007" spans="1:1">
-      <c r="A2007" s="23"/>
+      <c r="A2007" s="22"/>
     </row>
     <row r="2008" spans="1:1">
-      <c r="A2008" s="23"/>
+      <c r="A2008" s="22"/>
     </row>
     <row r="2009" spans="1:1">
-      <c r="A2009" s="23"/>
+      <c r="A2009" s="22"/>
     </row>
     <row r="2010" spans="1:1">
-      <c r="A2010" s="23"/>
+      <c r="A2010" s="22"/>
     </row>
     <row r="2011" spans="1:1">
-      <c r="A2011" s="23"/>
+      <c r="A2011" s="22"/>
     </row>
     <row r="2012" spans="1:1">
-      <c r="A2012" s="23"/>
+      <c r="A2012" s="22"/>
     </row>
     <row r="2013" spans="1:1">
-      <c r="A2013" s="23"/>
+      <c r="A2013" s="22"/>
     </row>
     <row r="2014" spans="1:1">
-      <c r="A2014" s="23"/>
+      <c r="A2014" s="22"/>
     </row>
     <row r="2015" spans="1:1">
-      <c r="A2015" s="23"/>
+      <c r="A2015" s="22"/>
     </row>
     <row r="2016" spans="1:1">
-      <c r="A2016" s="23"/>
+      <c r="A2016" s="22"/>
     </row>
     <row r="2017" spans="1:1">
-      <c r="A2017" s="23"/>
+      <c r="A2017" s="22"/>
     </row>
     <row r="2018" spans="1:1">
-      <c r="A2018" s="23"/>
+      <c r="A2018" s="22"/>
     </row>
     <row r="2019" spans="1:1">
-      <c r="A2019" s="23"/>
-    </row>
-    <row r="2049" spans="1:1">
-      <c r="A2049" s="23"/>
-    </row>
-    <row r="2052" spans="1:1">
-      <c r="A2052" s="23"/>
-    </row>
-    <row r="2094" spans="1:1">
-      <c r="A2094" s="23"/>
+      <c r="A2019" s="22"/>
+    </row>
+    <row r="2020" spans="1:1">
+      <c r="A2020" s="22"/>
+    </row>
+    <row r="2050" spans="1:1">
+      <c r="A2050" s="22"/>
+    </row>
+    <row r="2053" spans="1:1">
+      <c r="A2053" s="22"/>
     </row>
     <row r="2095" spans="1:1">
-      <c r="A2095" s="23"/>
-    </row>
-    <row r="2151" spans="1:1">
-      <c r="A2151" s="23"/>
-    </row>
-    <row r="2157" spans="1:1">
-      <c r="A2157" s="23"/>
+      <c r="A2095" s="22"/>
+    </row>
+    <row r="2096" spans="1:1">
+      <c r="A2096" s="22"/>
+    </row>
+    <row r="2152" spans="1:1">
+      <c r="A2152" s="22"/>
     </row>
     <row r="2158" spans="1:1">
-      <c r="A2158" s="23"/>
+      <c r="A2158" s="22"/>
     </row>
     <row r="2159" spans="1:1">
-      <c r="A2159" s="23"/>
+      <c r="A2159" s="22"/>
     </row>
     <row r="2160" spans="1:1">
-      <c r="A2160" s="23"/>
-    </row>
-    <row r="2164" spans="1:1">
-      <c r="A2164" s="23"/>
+      <c r="A2160" s="22"/>
+    </row>
+    <row r="2161" spans="1:1">
+      <c r="A2161" s="22"/>
     </row>
     <row r="2165" spans="1:1">
-      <c r="A2165" s="23"/>
+      <c r="A2165" s="22"/>
     </row>
     <row r="2166" spans="1:1">
-      <c r="A2166" s="23"/>
-    </row>
-    <row r="2168" spans="1:1">
-      <c r="A2168" s="23"/>
-    </row>
-    <row r="2172" spans="2:2">
-      <c r="B2172" s="24"/>
-    </row>
-    <row r="2173" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A2173" s="23"/>
-    </row>
-    <row r="2174" spans="1:1">
-      <c r="A2174" s="23"/>
+      <c r="A2166" s="22"/>
+    </row>
+    <row r="2167" spans="1:1">
+      <c r="A2167" s="22"/>
+    </row>
+    <row r="2169" spans="1:1">
+      <c r="A2169" s="22"/>
+    </row>
+    <row r="2173" spans="2:2">
+      <c r="B2173" s="23"/>
+    </row>
+    <row r="2174" ht="18.75" customHeight="1" spans="1:1">
+      <c r="A2174" s="22"/>
     </row>
     <row r="2175" spans="1:1">
-      <c r="A2175" s="23"/>
+      <c r="A2175" s="22"/>
     </row>
     <row r="2176" spans="1:1">
-      <c r="A2176" s="23"/>
-    </row>
-    <row r="2180" spans="1:1">
-      <c r="A2180" s="23"/>
+      <c r="A2176" s="22"/>
+    </row>
+    <row r="2177" spans="1:1">
+      <c r="A2177" s="22"/>
     </row>
     <row r="2181" spans="1:1">
-      <c r="A2181" s="23"/>
+      <c r="A2181" s="22"/>
     </row>
     <row r="2182" spans="1:1">
-      <c r="A2182" s="23"/>
+      <c r="A2182" s="22"/>
     </row>
     <row r="2183" spans="1:1">
-      <c r="A2183" s="23"/>
-    </row>
-    <row r="2186" spans="1:1">
-      <c r="A2186" s="23"/>
-    </row>
-    <row r="2188" spans="1:1">
-      <c r="A2188" s="23"/>
+      <c r="A2183" s="22"/>
+    </row>
+    <row r="2184" spans="1:1">
+      <c r="A2184" s="22"/>
+    </row>
+    <row r="2187" spans="1:1">
+      <c r="A2187" s="22"/>
     </row>
     <row r="2189" spans="1:1">
-      <c r="A2189" s="23"/>
+      <c r="A2189" s="22"/>
     </row>
     <row r="2190" spans="1:1">
-      <c r="A2190" s="23"/>
+      <c r="A2190" s="22"/>
     </row>
     <row r="2191" spans="1:1">
-      <c r="A2191" s="23"/>
+      <c r="A2191" s="22"/>
     </row>
     <row r="2192" spans="1:1">
-      <c r="A2192" s="23"/>
+      <c r="A2192" s="22"/>
     </row>
     <row r="2193" spans="1:1">
-      <c r="A2193" s="23"/>
+      <c r="A2193" s="22"/>
     </row>
     <row r="2194" spans="1:1">
-      <c r="A2194" s="23"/>
+      <c r="A2194" s="22"/>
     </row>
     <row r="2195" spans="1:1">
-      <c r="A2195" s="23"/>
+      <c r="A2195" s="22"/>
     </row>
     <row r="2196" spans="1:1">
-      <c r="A2196" s="23"/>
+      <c r="A2196" s="22"/>
     </row>
     <row r="2197" spans="1:1">
-      <c r="A2197" s="23"/>
-    </row>
-    <row r="2200" spans="1:1">
-      <c r="A2200" s="23"/>
+      <c r="A2197" s="22"/>
+    </row>
+    <row r="2198" spans="1:1">
+      <c r="A2198" s="22"/>
     </row>
     <row r="2201" spans="1:1">
-      <c r="A2201" s="23"/>
+      <c r="A2201" s="22"/>
     </row>
     <row r="2202" spans="1:1">
-      <c r="A2202" s="23"/>
+      <c r="A2202" s="22"/>
     </row>
     <row r="2203" spans="1:1">
-      <c r="A2203" s="23"/>
+      <c r="A2203" s="22"/>
     </row>
     <row r="2204" spans="1:1">
-      <c r="A2204" s="23"/>
+      <c r="A2204" s="22"/>
     </row>
     <row r="2205" spans="1:1">
-      <c r="A2205" s="23"/>
+      <c r="A2205" s="22"/>
     </row>
     <row r="2206" spans="1:1">
-      <c r="A2206" s="23"/>
+      <c r="A2206" s="22"/>
     </row>
     <row r="2207" spans="1:1">
-      <c r="A2207" s="23"/>
+      <c r="A2207" s="22"/>
     </row>
     <row r="2208" spans="1:1">
-      <c r="A2208" s="23"/>
+      <c r="A2208" s="22"/>
     </row>
     <row r="2209" spans="1:1">
-      <c r="A2209" s="23"/>
+      <c r="A2209" s="22"/>
     </row>
     <row r="2210" spans="1:1">
-      <c r="A2210" s="23"/>
+      <c r="A2210" s="22"/>
     </row>
     <row r="2211" spans="1:1">
-      <c r="A2211" s="23"/>
+      <c r="A2211" s="22"/>
     </row>
     <row r="2212" spans="1:1">
-      <c r="A2212" s="23"/>
+      <c r="A2212" s="22"/>
     </row>
     <row r="2213" spans="1:1">
-      <c r="A2213" s="23"/>
+      <c r="A2213" s="22"/>
     </row>
     <row r="2214" spans="1:1">
-      <c r="A2214" s="23"/>
+      <c r="A2214" s="22"/>
     </row>
     <row r="2215" spans="1:1">
-      <c r="A2215" s="23"/>
+      <c r="A2215" s="22"/>
     </row>
     <row r="2216" spans="1:1">
-      <c r="A2216" s="23"/>
+      <c r="A2216" s="22"/>
     </row>
     <row r="2217" spans="1:1">
-      <c r="A2217" s="23"/>
+      <c r="A2217" s="22"/>
     </row>
     <row r="2218" spans="1:1">
-      <c r="A2218" s="23"/>
+      <c r="A2218" s="22"/>
     </row>
     <row r="2219" spans="1:1">
-      <c r="A2219" s="23"/>
+      <c r="A2219" s="22"/>
     </row>
     <row r="2220" spans="1:1">
-      <c r="A2220" s="23"/>
+      <c r="A2220" s="22"/>
     </row>
     <row r="2221" spans="1:1">
-      <c r="A2221" s="23"/>
+      <c r="A2221" s="22"/>
     </row>
     <row r="2222" spans="1:1">
-      <c r="A2222" s="23"/>
+      <c r="A2222" s="22"/>
     </row>
     <row r="2223" spans="1:1">
-      <c r="A2223" s="23"/>
+      <c r="A2223" s="22"/>
     </row>
     <row r="2224" spans="1:1">
-      <c r="A2224" s="23"/>
-    </row>
-    <row r="2237" spans="1:2">
-      <c r="A2237" s="23"/>
-      <c r="B2237" s="24"/>
-    </row>
-    <row r="2238" spans="1:1">
-      <c r="A2238" s="23"/>
+      <c r="A2224" s="22"/>
+    </row>
+    <row r="2225" spans="1:1">
+      <c r="A2225" s="22"/>
+    </row>
+    <row r="2238" spans="1:2">
+      <c r="A2238" s="22"/>
+      <c r="B2238" s="23"/>
     </row>
     <row r="2239" spans="1:1">
-      <c r="A2239" s="23"/>
+      <c r="A2239" s="22"/>
     </row>
     <row r="2240" spans="1:1">
-      <c r="A2240" s="23"/>
+      <c r="A2240" s="22"/>
     </row>
     <row r="2241" spans="1:1">
-      <c r="A2241" s="23"/>
-    </row>
-    <row r="2243" spans="1:1">
-      <c r="A2243" s="23"/>
+      <c r="A2241" s="22"/>
+    </row>
+    <row r="2242" spans="1:1">
+      <c r="A2242" s="22"/>
     </row>
     <row r="2244" spans="1:1">
-      <c r="A2244" s="23"/>
-    </row>
-    <row r="2246" spans="1:1">
-      <c r="A2246" s="23"/>
+      <c r="A2244" s="22"/>
+    </row>
+    <row r="2245" spans="1:1">
+      <c r="A2245" s="22"/>
     </row>
     <row r="2247" spans="1:1">
-      <c r="A2247" s="23"/>
-    </row>
-    <row r="2254" spans="1:1">
-      <c r="A2254" s="23"/>
+      <c r="A2247" s="22"/>
+    </row>
+    <row r="2248" spans="1:1">
+      <c r="A2248" s="22"/>
     </row>
     <row r="2255" spans="1:1">
-      <c r="A2255" s="23"/>
-    </row>
-    <row r="2267" spans="1:1">
-      <c r="A2267" s="23"/>
+      <c r="A2255" s="22"/>
+    </row>
+    <row r="2256" spans="1:1">
+      <c r="A2256" s="22"/>
     </row>
     <row r="2268" spans="1:1">
-      <c r="A2268" s="23"/>
+      <c r="A2268" s="22"/>
     </row>
     <row r="2269" spans="1:1">
-      <c r="A2269" s="23"/>
+      <c r="A2269" s="22"/>
     </row>
     <row r="2270" spans="1:1">
-      <c r="A2270" s="23"/>
+      <c r="A2270" s="22"/>
     </row>
     <row r="2271" spans="1:1">
-      <c r="A2271" s="23"/>
+      <c r="A2271" s="22"/>
     </row>
     <row r="2272" spans="1:1">
-      <c r="A2272" s="23"/>
-    </row>
-    <row r="2274" spans="1:1">
-      <c r="A2274" s="23"/>
+      <c r="A2272" s="22"/>
+    </row>
+    <row r="2273" spans="1:1">
+      <c r="A2273" s="22"/>
     </row>
     <row r="2275" spans="1:1">
-      <c r="A2275" s="23"/>
+      <c r="A2275" s="22"/>
     </row>
     <row r="2276" spans="1:1">
-      <c r="A2276" s="23"/>
+      <c r="A2276" s="22"/>
     </row>
     <row r="2277" spans="1:1">
-      <c r="A2277" s="23"/>
+      <c r="A2277" s="22"/>
     </row>
     <row r="2278" spans="1:1">
-      <c r="A2278" s="23"/>
+      <c r="A2278" s="22"/>
     </row>
     <row r="2279" spans="1:1">
-      <c r="A2279" s="23"/>
+      <c r="A2279" s="22"/>
     </row>
     <row r="2280" spans="1:1">
-      <c r="A2280" s="23"/>
-    </row>
-    <row r="2294" spans="1:1">
-      <c r="A2294" s="23"/>
-    </row>
-    <row r="2301" spans="1:1">
-      <c r="A2301" s="23"/>
+      <c r="A2280" s="22"/>
+    </row>
+    <row r="2281" spans="1:1">
+      <c r="A2281" s="22"/>
+    </row>
+    <row r="2295" spans="1:1">
+      <c r="A2295" s="22"/>
     </row>
     <row r="2302" spans="1:1">
-      <c r="A2302" s="23"/>
+      <c r="A2302" s="22"/>
     </row>
     <row r="2303" spans="1:1">
-      <c r="A2303" s="23"/>
+      <c r="A2303" s="22"/>
     </row>
     <row r="2304" spans="1:1">
-      <c r="A2304" s="23"/>
+      <c r="A2304" s="22"/>
     </row>
     <row r="2305" spans="1:1">
-      <c r="A2305" s="23"/>
+      <c r="A2305" s="22"/>
     </row>
     <row r="2306" spans="1:1">
-      <c r="A2306" s="23"/>
+      <c r="A2306" s="22"/>
     </row>
     <row r="2307" spans="1:1">
-      <c r="A2307" s="23"/>
+      <c r="A2307" s="22"/>
     </row>
     <row r="2308" spans="1:1">
-      <c r="A2308" s="23"/>
+      <c r="A2308" s="22"/>
     </row>
     <row r="2309" spans="1:1">
-      <c r="A2309" s="23"/>
+      <c r="A2309" s="22"/>
     </row>
     <row r="2310" spans="1:1">
-      <c r="A2310" s="23"/>
+      <c r="A2310" s="22"/>
     </row>
     <row r="2311" spans="1:1">
-      <c r="A2311" s="23"/>
+      <c r="A2311" s="22"/>
     </row>
     <row r="2312" spans="1:1">
-      <c r="A2312" s="23"/>
+      <c r="A2312" s="22"/>
     </row>
     <row r="2313" spans="1:1">
-      <c r="A2313" s="23"/>
+      <c r="A2313" s="22"/>
     </row>
     <row r="2314" spans="1:1">
-      <c r="A2314" s="23"/>
+      <c r="A2314" s="22"/>
     </row>
     <row r="2315" spans="1:1">
-      <c r="A2315" s="23"/>
+      <c r="A2315" s="22"/>
     </row>
     <row r="2316" spans="1:1">
-      <c r="A2316" s="23"/>
-    </row>
-    <row r="2318" spans="1:1">
-      <c r="A2318" s="23"/>
-    </row>
-    <row r="2324" spans="1:1">
-      <c r="A2324" s="23"/>
+      <c r="A2316" s="22"/>
+    </row>
+    <row r="2317" spans="1:1">
+      <c r="A2317" s="22"/>
+    </row>
+    <row r="2319" spans="1:1">
+      <c r="A2319" s="22"/>
     </row>
     <row r="2325" spans="1:1">
-      <c r="A2325" s="23"/>
+      <c r="A2325" s="22"/>
     </row>
     <row r="2326" spans="1:1">
-      <c r="A2326" s="23"/>
+      <c r="A2326" s="22"/>
     </row>
     <row r="2327" spans="1:1">
-      <c r="A2327" s="23"/>
+      <c r="A2327" s="22"/>
     </row>
     <row r="2328" spans="1:1">
-      <c r="A2328" s="23"/>
+      <c r="A2328" s="22"/>
     </row>
     <row r="2329" spans="1:1">
-      <c r="A2329" s="23"/>
+      <c r="A2329" s="22"/>
     </row>
     <row r="2330" spans="1:1">
-      <c r="A2330" s="23"/>
+      <c r="A2330" s="22"/>
     </row>
     <row r="2331" spans="1:1">
-      <c r="A2331" s="23"/>
+      <c r="A2331" s="22"/>
     </row>
     <row r="2332" spans="1:1">
-      <c r="A2332" s="23"/>
+      <c r="A2332" s="22"/>
     </row>
     <row r="2333" spans="1:1">
-      <c r="A2333" s="23"/>
+      <c r="A2333" s="22"/>
     </row>
     <row r="2334" spans="1:1">
-      <c r="A2334" s="23"/>
-    </row>
-    <row r="2338" spans="1:1">
-      <c r="A2338" s="23"/>
+      <c r="A2334" s="22"/>
+    </row>
+    <row r="2335" spans="1:1">
+      <c r="A2335" s="22"/>
     </row>
     <row r="2339" spans="1:1">
-      <c r="A2339" s="23"/>
+      <c r="A2339" s="22"/>
     </row>
     <row r="2340" spans="1:1">
-      <c r="A2340" s="23"/>
-    </row>
-    <row r="2343" spans="1:1">
-      <c r="A2343" s="23"/>
+      <c r="A2340" s="22"/>
+    </row>
+    <row r="2341" spans="1:1">
+      <c r="A2341" s="22"/>
     </row>
     <row r="2344" spans="1:1">
-      <c r="A2344" s="23"/>
+      <c r="A2344" s="22"/>
     </row>
     <row r="2345" spans="1:1">
-      <c r="A2345" s="23"/>
+      <c r="A2345" s="22"/>
     </row>
     <row r="2346" spans="1:1">
-      <c r="A2346" s="23"/>
+      <c r="A2346" s="22"/>
     </row>
     <row r="2347" spans="1:1">
-      <c r="A2347" s="23"/>
+      <c r="A2347" s="22"/>
     </row>
     <row r="2348" spans="1:1">
-      <c r="A2348" s="23"/>
+      <c r="A2348" s="22"/>
     </row>
     <row r="2349" spans="1:1">
-      <c r="A2349" s="23"/>
+      <c r="A2349" s="22"/>
     </row>
     <row r="2350" spans="1:1">
-      <c r="A2350" s="23"/>
+      <c r="A2350" s="22"/>
     </row>
     <row r="2351" spans="1:1">
-      <c r="A2351" s="23"/>
-    </row>
-    <row r="2354" spans="1:1">
-      <c r="A2354" s="23"/>
+      <c r="A2351" s="22"/>
+    </row>
+    <row r="2352" spans="1:1">
+      <c r="A2352" s="22"/>
     </row>
     <row r="2355" spans="1:1">
-      <c r="A2355" s="23"/>
+      <c r="A2355" s="22"/>
     </row>
     <row r="2356" spans="1:1">
-      <c r="A2356" s="23"/>
-    </row>
-    <row r="2359" spans="1:1">
-      <c r="A2359" s="23"/>
-    </row>
-    <row r="2365" spans="1:1">
-      <c r="A2365" s="23"/>
-    </row>
-    <row r="2368" spans="1:1">
-      <c r="A2368" s="23"/>
+      <c r="A2356" s="22"/>
+    </row>
+    <row r="2357" spans="1:1">
+      <c r="A2357" s="22"/>
+    </row>
+    <row r="2360" spans="1:1">
+      <c r="A2360" s="22"/>
+    </row>
+    <row r="2366" spans="1:1">
+      <c r="A2366" s="22"/>
     </row>
     <row r="2369" spans="1:1">
-      <c r="A2369" s="23"/>
+      <c r="A2369" s="22"/>
     </row>
     <row r="2370" spans="1:1">
-      <c r="A2370" s="23"/>
+      <c r="A2370" s="22"/>
     </row>
     <row r="2371" spans="1:1">
-      <c r="A2371" s="23"/>
+      <c r="A2371" s="22"/>
     </row>
     <row r="2372" spans="1:1">
-      <c r="A2372" s="23"/>
+      <c r="A2372" s="22"/>
     </row>
     <row r="2373" spans="1:1">
-      <c r="A2373" s="23"/>
+      <c r="A2373" s="22"/>
     </row>
     <row r="2374" spans="1:1">
-      <c r="A2374" s="23"/>
+      <c r="A2374" s="22"/>
     </row>
     <row r="2375" spans="1:1">
-      <c r="A2375" s="23"/>
+      <c r="A2375" s="22"/>
     </row>
     <row r="2376" spans="1:1">
-      <c r="A2376" s="23"/>
+      <c r="A2376" s="22"/>
     </row>
     <row r="2377" spans="1:1">
-      <c r="A2377" s="23"/>
-    </row>
-    <row r="2379" spans="1:1">
-      <c r="A2379" s="23"/>
-    </row>
-    <row r="2381" spans="1:1">
-      <c r="A2381" s="23"/>
+      <c r="A2377" s="22"/>
+    </row>
+    <row r="2378" spans="1:1">
+      <c r="A2378" s="22"/>
+    </row>
+    <row r="2380" spans="1:1">
+      <c r="A2380" s="22"/>
     </row>
     <row r="2382" spans="1:1">
-      <c r="A2382" s="23"/>
-    </row>
-    <row r="2384" spans="1:1">
-      <c r="A2384" s="23"/>
-    </row>
-    <row r="2386" spans="1:1">
-      <c r="A2386" s="23"/>
+      <c r="A2382" s="22"/>
+    </row>
+    <row r="2383" spans="1:1">
+      <c r="A2383" s="22"/>
+    </row>
+    <row r="2385" spans="1:1">
+      <c r="A2385" s="22"/>
     </row>
     <row r="2387" spans="1:1">
-      <c r="A2387" s="23"/>
+      <c r="A2387" s="22"/>
     </row>
     <row r="2388" spans="1:1">
-      <c r="A2388" s="23"/>
+      <c r="A2388" s="22"/>
     </row>
     <row r="2389" spans="1:1">
-      <c r="A2389" s="23"/>
+      <c r="A2389" s="22"/>
     </row>
     <row r="2390" spans="1:1">
-      <c r="A2390" s="23"/>
+      <c r="A2390" s="22"/>
     </row>
     <row r="2391" spans="1:1">
-      <c r="A2391" s="23"/>
+      <c r="A2391" s="22"/>
     </row>
     <row r="2392" spans="1:1">
-      <c r="A2392" s="23"/>
+      <c r="A2392" s="22"/>
     </row>
     <row r="2393" spans="1:1">
-      <c r="A2393" s="23"/>
+      <c r="A2393" s="22"/>
     </row>
     <row r="2394" spans="1:1">
-      <c r="A2394" s="23"/>
+      <c r="A2394" s="22"/>
     </row>
     <row r="2395" spans="1:1">
-      <c r="A2395" s="23"/>
+      <c r="A2395" s="22"/>
     </row>
     <row r="2396" spans="1:1">
-      <c r="A2396" s="23"/>
+      <c r="A2396" s="22"/>
     </row>
     <row r="2397" spans="1:1">
-      <c r="A2397" s="23"/>
+      <c r="A2397" s="22"/>
     </row>
     <row r="2398" spans="1:1">
-      <c r="A2398" s="23"/>
+      <c r="A2398" s="22"/>
     </row>
     <row r="2399" spans="1:1">
-      <c r="A2399" s="23"/>
+      <c r="A2399" s="22"/>
     </row>
     <row r="2400" spans="1:1">
-      <c r="A2400" s="23"/>
+      <c r="A2400" s="22"/>
     </row>
     <row r="2401" spans="1:1">
-      <c r="A2401" s="23"/>
+      <c r="A2401" s="22"/>
     </row>
     <row r="2402" spans="1:1">
-      <c r="A2402" s="23"/>
+      <c r="A2402" s="22"/>
     </row>
     <row r="2403" spans="1:1">
-      <c r="A2403" s="23"/>
+      <c r="A2403" s="22"/>
     </row>
     <row r="2404" spans="1:1">
-      <c r="A2404" s="23"/>
+      <c r="A2404" s="22"/>
     </row>
     <row r="2405" spans="1:1">
-      <c r="A2405" s="23"/>
-    </row>
-    <row r="2434" spans="2:2">
-      <c r="B2434" s="32"/>
-    </row>
-    <row r="2456" spans="1:1">
-      <c r="A2456" s="23"/>
+      <c r="A2405" s="22"/>
+    </row>
+    <row r="2406" spans="1:1">
+      <c r="A2406" s="22"/>
+    </row>
+    <row r="2435" spans="2:2">
+      <c r="B2435" s="31"/>
     </row>
     <row r="2457" spans="1:1">
-      <c r="A2457" s="23"/>
-    </row>
-    <row r="2466" spans="1:2">
-      <c r="A2466" s="23"/>
-      <c r="B2466" s="24"/>
-    </row>
-    <row r="2488" spans="1:1">
-      <c r="A2488" s="23"/>
+      <c r="A2457" s="22"/>
+    </row>
+    <row r="2458" spans="1:1">
+      <c r="A2458" s="22"/>
+    </row>
+    <row r="2467" spans="1:2">
+      <c r="A2467" s="22"/>
+      <c r="B2467" s="23"/>
     </row>
     <row r="2489" spans="1:1">
-      <c r="A2489" s="23"/>
-    </row>
-    <row r="2496" spans="1:1">
-      <c r="A2496" s="23"/>
+      <c r="A2489" s="22"/>
+    </row>
+    <row r="2490" spans="1:1">
+      <c r="A2490" s="22"/>
     </row>
     <row r="2497" spans="1:1">
-      <c r="A2497" s="23"/>
+      <c r="A2497" s="22"/>
     </row>
     <row r="2498" spans="1:1">
-      <c r="A2498" s="23"/>
-    </row>
-    <row r="2500" spans="1:1">
-      <c r="A2500" s="23"/>
-    </row>
-    <row r="2502" spans="1:1">
-      <c r="A2502" s="23"/>
+      <c r="A2498" s="22"/>
+    </row>
+    <row r="2499" spans="1:1">
+      <c r="A2499" s="22"/>
+    </row>
+    <row r="2501" spans="1:1">
+      <c r="A2501" s="22"/>
     </row>
     <row r="2503" spans="1:1">
-      <c r="A2503" s="23"/>
+      <c r="A2503" s="22"/>
     </row>
     <row r="2504" spans="1:1">
-      <c r="A2504" s="23"/>
+      <c r="A2504" s="22"/>
     </row>
     <row r="2505" spans="1:1">
-      <c r="A2505" s="23"/>
+      <c r="A2505" s="22"/>
     </row>
     <row r="2506" spans="1:1">
-      <c r="A2506" s="23"/>
+      <c r="A2506" s="22"/>
     </row>
     <row r="2507" spans="1:1">
-      <c r="A2507" s="23"/>
+      <c r="A2507" s="22"/>
     </row>
     <row r="2508" spans="1:1">
-      <c r="A2508" s="23"/>
+      <c r="A2508" s="22"/>
     </row>
     <row r="2509" spans="1:1">
-      <c r="A2509" s="23"/>
+      <c r="A2509" s="22"/>
     </row>
     <row r="2510" spans="1:1">
-      <c r="A2510" s="23"/>
+      <c r="A2510" s="22"/>
     </row>
     <row r="2511" spans="1:1">
-      <c r="A2511" s="23"/>
+      <c r="A2511" s="22"/>
     </row>
     <row r="2512" spans="1:1">
-      <c r="A2512" s="23"/>
+      <c r="A2512" s="22"/>
     </row>
     <row r="2513" spans="1:1">
-      <c r="A2513" s="23"/>
+      <c r="A2513" s="22"/>
     </row>
     <row r="2514" spans="1:1">
-      <c r="A2514" s="23"/>
+      <c r="A2514" s="22"/>
     </row>
     <row r="2515" spans="1:1">
-      <c r="A2515" s="23"/>
-    </row>
-    <row r="2517" spans="1:1">
-      <c r="A2517" s="23"/>
+      <c r="A2515" s="22"/>
+    </row>
+    <row r="2516" spans="1:1">
+      <c r="A2516" s="22"/>
     </row>
     <row r="2518" spans="1:1">
-      <c r="A2518" s="23"/>
-    </row>
-    <row r="2533" spans="1:1">
-      <c r="A2533" s="23"/>
-    </row>
-    <row r="2562" spans="2:2">
-      <c r="B2562" s="33"/>
-    </row>
-    <row r="2564" spans="1:1">
-      <c r="A2564" s="23"/>
+      <c r="A2518" s="22"/>
+    </row>
+    <row r="2519" spans="1:1">
+      <c r="A2519" s="22"/>
+    </row>
+    <row r="2534" spans="1:1">
+      <c r="A2534" s="22"/>
+    </row>
+    <row r="2563" spans="2:2">
+      <c r="B2563" s="32"/>
     </row>
     <row r="2565" spans="1:1">
-      <c r="A2565" s="23"/>
+      <c r="A2565" s="22"/>
     </row>
     <row r="2566" spans="1:1">
-      <c r="A2566" s="23"/>
-    </row>
-    <row r="2570" spans="1:1">
-      <c r="A2570" s="23"/>
-    </row>
-    <row r="2573" spans="1:1">
-      <c r="A2573" s="23"/>
+      <c r="A2566" s="22"/>
+    </row>
+    <row r="2567" spans="1:1">
+      <c r="A2567" s="22"/>
+    </row>
+    <row r="2571" spans="1:1">
+      <c r="A2571" s="22"/>
     </row>
     <row r="2574" spans="1:1">
-      <c r="A2574" s="23"/>
+      <c r="A2574" s="22"/>
     </row>
     <row r="2575" spans="1:1">
-      <c r="A2575" s="23"/>
+      <c r="A2575" s="22"/>
     </row>
     <row r="2576" spans="1:1">
-      <c r="A2576" s="23"/>
+      <c r="A2576" s="22"/>
     </row>
     <row r="2577" spans="1:1">
-      <c r="A2577" s="23"/>
+      <c r="A2577" s="22"/>
     </row>
     <row r="2578" spans="1:1">
-      <c r="A2578" s="23"/>
+      <c r="A2578" s="22"/>
     </row>
     <row r="2579" spans="1:1">
-      <c r="A2579" s="23"/>
-    </row>
-    <row r="2581" spans="1:1">
-      <c r="A2581" s="23"/>
+      <c r="A2579" s="22"/>
+    </row>
+    <row r="2580" spans="1:1">
+      <c r="A2580" s="22"/>
     </row>
     <row r="2582" spans="1:1">
-      <c r="A2582" s="23"/>
+      <c r="A2582" s="22"/>
     </row>
     <row r="2583" spans="1:1">
-      <c r="A2583" s="23"/>
+      <c r="A2583" s="22"/>
     </row>
     <row r="2584" spans="1:1">
-      <c r="A2584" s="23"/>
+      <c r="A2584" s="22"/>
     </row>
     <row r="2585" spans="1:1">
-      <c r="A2585" s="23"/>
+      <c r="A2585" s="22"/>
     </row>
     <row r="2586" spans="1:1">
-      <c r="A2586" s="23"/>
-    </row>
-    <row r="2588" spans="2:2">
-      <c r="B2588" s="31"/>
-    </row>
-    <row r="2590" spans="1:1">
-      <c r="A2590" s="23"/>
+      <c r="A2586" s="22"/>
+    </row>
+    <row r="2587" spans="1:1">
+      <c r="A2587" s="22"/>
+    </row>
+    <row r="2589" spans="2:2">
+      <c r="B2589" s="30"/>
     </row>
     <row r="2591" spans="1:1">
-      <c r="A2591" s="23"/>
+      <c r="A2591" s="22"/>
     </row>
     <row r="2592" spans="1:1">
-      <c r="A2592" s="23"/>
+      <c r="A2592" s="22"/>
     </row>
     <row r="2593" spans="1:1">
-      <c r="A2593" s="23"/>
+      <c r="A2593" s="22"/>
     </row>
     <row r="2594" spans="1:1">
-      <c r="A2594" s="23"/>
+      <c r="A2594" s="22"/>
     </row>
     <row r="2595" spans="1:1">
-      <c r="A2595" s="23"/>
+      <c r="A2595" s="22"/>
     </row>
     <row r="2596" spans="1:1">
-      <c r="A2596" s="23"/>
+      <c r="A2596" s="22"/>
     </row>
     <row r="2597" spans="1:1">
-      <c r="A2597" s="23"/>
+      <c r="A2597" s="22"/>
     </row>
     <row r="2598" spans="1:1">
-      <c r="A2598" s="23"/>
+      <c r="A2598" s="22"/>
     </row>
     <row r="2599" spans="1:1">
-      <c r="A2599" s="23"/>
+      <c r="A2599" s="22"/>
     </row>
     <row r="2600" spans="1:1">
-      <c r="A2600" s="23"/>
+      <c r="A2600" s="22"/>
     </row>
     <row r="2601" spans="1:1">
-      <c r="A2601" s="23"/>
+      <c r="A2601" s="22"/>
     </row>
     <row r="2602" spans="1:1">
-      <c r="A2602" s="23"/>
+      <c r="A2602" s="22"/>
     </row>
     <row r="2603" spans="1:1">
-      <c r="A2603" s="23"/>
-    </row>
-    <row r="2611" spans="2:2">
-      <c r="B2611" s="34"/>
-    </row>
-    <row r="2618" spans="2:2">
-      <c r="B2618" s="34"/>
-    </row>
-    <row r="2629" spans="1:1">
-      <c r="A2629" s="23"/>
+      <c r="A2603" s="22"/>
+    </row>
+    <row r="2604" spans="1:1">
+      <c r="A2604" s="22"/>
+    </row>
+    <row r="2612" spans="2:2">
+      <c r="B2612" s="33"/>
+    </row>
+    <row r="2619" spans="2:2">
+      <c r="B2619" s="33"/>
     </row>
     <row r="2630" spans="1:1">
-      <c r="A2630" s="23"/>
+      <c r="A2630" s="22"/>
     </row>
     <row r="2631" spans="1:1">
-      <c r="A2631" s="23"/>
+      <c r="A2631" s="22"/>
     </row>
     <row r="2632" spans="1:1">
-      <c r="A2632" s="23"/>
+      <c r="A2632" s="22"/>
     </row>
     <row r="2633" spans="1:1">
-      <c r="A2633" s="23"/>
+      <c r="A2633" s="22"/>
     </row>
     <row r="2634" spans="1:1">
-      <c r="A2634" s="23"/>
+      <c r="A2634" s="22"/>
     </row>
     <row r="2635" spans="1:1">
-      <c r="A2635" s="23"/>
+      <c r="A2635" s="22"/>
     </row>
     <row r="2636" spans="1:1">
-      <c r="A2636" s="23"/>
+      <c r="A2636" s="22"/>
     </row>
     <row r="2637" spans="1:1">
-      <c r="A2637" s="23"/>
+      <c r="A2637" s="22"/>
     </row>
     <row r="2638" spans="1:1">
-      <c r="A2638" s="23"/>
+      <c r="A2638" s="22"/>
     </row>
     <row r="2639" spans="1:1">
-      <c r="A2639" s="23"/>
+      <c r="A2639" s="22"/>
     </row>
     <row r="2640" spans="1:1">
-      <c r="A2640" s="23"/>
-    </row>
-    <row r="2652" spans="2:2">
-      <c r="B2652" s="35"/>
-    </row>
-    <row r="2669" spans="2:2">
-      <c r="B2669" s="5"/>
-    </row>
-    <row r="2852" spans="1:1">
-      <c r="A2852" s="23"/>
+      <c r="A2640" s="22"/>
+    </row>
+    <row r="2641" spans="1:1">
+      <c r="A2641" s="22"/>
+    </row>
+    <row r="2653" spans="2:2">
+      <c r="B2653" s="34"/>
+    </row>
+    <row r="2670" spans="2:2">
+      <c r="B2670" s="5"/>
     </row>
     <row r="2853" spans="1:1">
-      <c r="A2853" s="23"/>
+      <c r="A2853" s="22"/>
     </row>
     <row r="2854" spans="1:1">
-      <c r="A2854" s="23"/>
+      <c r="A2854" s="22"/>
     </row>
     <row r="2855" spans="1:1">
-      <c r="A2855" s="23"/>
-    </row>
-    <row r="2857" spans="1:1">
-      <c r="A2857" s="23"/>
+      <c r="A2855" s="22"/>
+    </row>
+    <row r="2856" spans="1:1">
+      <c r="A2856" s="22"/>
     </row>
     <row r="2858" spans="1:1">
-      <c r="A2858" s="23"/>
-    </row>
-    <row r="2964" spans="1:1">
-      <c r="A2964" s="23"/>
-    </row>
-    <row r="2966" spans="1:1">
-      <c r="A2966" s="23"/>
-    </row>
-    <row r="2977" spans="1:1">
-      <c r="A2977" s="23"/>
+      <c r="A2858" s="22"/>
+    </row>
+    <row r="2859" spans="1:1">
+      <c r="A2859" s="22"/>
+    </row>
+    <row r="2965" spans="1:1">
+      <c r="A2965" s="22"/>
+    </row>
+    <row r="2967" spans="1:1">
+      <c r="A2967" s="22"/>
     </row>
     <row r="2978" spans="1:1">
-      <c r="A2978" s="23"/>
+      <c r="A2978" s="22"/>
     </row>
     <row r="2979" spans="1:1">
-      <c r="A2979" s="23"/>
+      <c r="A2979" s="22"/>
     </row>
     <row r="2980" spans="1:1">
-      <c r="A2980" s="23"/>
+      <c r="A2980" s="22"/>
     </row>
     <row r="2981" spans="1:1">
-      <c r="A2981" s="23"/>
+      <c r="A2981" s="22"/>
     </row>
     <row r="2982" spans="1:1">
-      <c r="A2982" s="23"/>
-    </row>
-    <row r="2988" spans="1:1">
-      <c r="A2988" s="23"/>
+      <c r="A2982" s="22"/>
+    </row>
+    <row r="2983" spans="1:1">
+      <c r="A2983" s="22"/>
     </row>
     <row r="2989" spans="1:1">
-      <c r="A2989" s="23"/>
+      <c r="A2989" s="22"/>
     </row>
     <row r="2990" spans="1:1">
-      <c r="A2990" s="23"/>
+      <c r="A2990" s="22"/>
     </row>
     <row r="2991" spans="1:1">
-      <c r="A2991" s="23"/>
+      <c r="A2991" s="22"/>
     </row>
     <row r="2992" spans="1:1">
-      <c r="A2992" s="23"/>
+      <c r="A2992" s="22"/>
     </row>
     <row r="2993" spans="1:1">
-      <c r="A2993" s="23"/>
+      <c r="A2993" s="22"/>
     </row>
     <row r="2994" spans="1:1">
-      <c r="A2994" s="23"/>
+      <c r="A2994" s="22"/>
     </row>
     <row r="2995" spans="1:1">
-      <c r="A2995" s="23"/>
+      <c r="A2995" s="22"/>
     </row>
     <row r="2996" spans="1:1">
-      <c r="A2996" s="23"/>
+      <c r="A2996" s="22"/>
     </row>
     <row r="2997" spans="1:1">
-      <c r="A2997" s="23"/>
-    </row>
-    <row r="3003" spans="1:1">
-      <c r="A3003" s="23"/>
-    </row>
-    <row r="3015" spans="1:1">
-      <c r="A3015" s="23"/>
-    </row>
-    <row r="3020" spans="1:1">
-      <c r="A3020" s="23"/>
-    </row>
-    <row r="3039" spans="3:3">
-      <c r="C3039" s="24"/>
-    </row>
-    <row r="3077" spans="1:2">
-      <c r="A3077" s="23"/>
-      <c r="B3077" s="24"/>
-    </row>
-    <row r="3140" spans="1:1">
-      <c r="A3140" s="23"/>
-    </row>
-    <row r="3142" spans="1:1">
-      <c r="A3142" s="23"/>
-    </row>
-    <row r="3195" spans="3:3">
-      <c r="C3195" s="24"/>
+      <c r="A2997" s="22"/>
+    </row>
+    <row r="2998" spans="1:1">
+      <c r="A2998" s="22"/>
+    </row>
+    <row r="3004" spans="1:1">
+      <c r="A3004" s="22"/>
+    </row>
+    <row r="3016" spans="1:1">
+      <c r="A3016" s="22"/>
+    </row>
+    <row r="3021" spans="1:1">
+      <c r="A3021" s="22"/>
+    </row>
+    <row r="3040" spans="3:3">
+      <c r="C3040" s="23"/>
+    </row>
+    <row r="3078" spans="1:2">
+      <c r="A3078" s="22"/>
+      <c r="B3078" s="23"/>
+    </row>
+    <row r="3141" spans="1:1">
+      <c r="A3141" s="22"/>
+    </row>
+    <row r="3143" spans="1:1">
+      <c r="A3143" s="22"/>
     </row>
     <row r="3196" spans="3:3">
-      <c r="C3196" s="24"/>
-    </row>
-    <row r="3204" spans="1:3">
-      <c r="A3204" s="23"/>
-      <c r="C3204" s="24"/>
+      <c r="C3196" s="23"/>
+    </row>
+    <row r="3197" spans="3:3">
+      <c r="C3197" s="23"/>
     </row>
     <row r="3205" spans="1:3">
-      <c r="A3205" s="23"/>
-      <c r="C3205" s="24"/>
+      <c r="A3205" s="22"/>
+      <c r="C3205" s="23"/>
     </row>
     <row r="3206" spans="1:3">
-      <c r="A3206" s="23"/>
-      <c r="C3206" s="24"/>
+      <c r="A3206" s="22"/>
+      <c r="C3206" s="23"/>
     </row>
     <row r="3207" spans="1:3">
-      <c r="A3207" s="23"/>
-      <c r="C3207" s="24"/>
-    </row>
-    <row r="3214" spans="3:3">
-      <c r="C3214" s="24"/>
+      <c r="A3207" s="22"/>
+      <c r="C3207" s="23"/>
+    </row>
+    <row r="3208" spans="1:3">
+      <c r="A3208" s="22"/>
+      <c r="C3208" s="23"/>
     </row>
     <row r="3215" spans="3:3">
-      <c r="C3215" s="24"/>
-    </row>
-    <row r="3220" spans="3:3">
-      <c r="C3220" s="24"/>
-    </row>
-    <row r="3222" spans="1:3">
-      <c r="A3222" s="23"/>
-      <c r="C3222" s="24"/>
-    </row>
-    <row r="3223" spans="3:3">
-      <c r="C3223" s="24"/>
+      <c r="C3215" s="23"/>
+    </row>
+    <row r="3216" spans="3:3">
+      <c r="C3216" s="23"/>
+    </row>
+    <row r="3221" spans="3:3">
+      <c r="C3221" s="23"/>
+    </row>
+    <row r="3223" spans="1:3">
+      <c r="A3223" s="22"/>
+      <c r="C3223" s="23"/>
     </row>
     <row r="3224" spans="3:3">
-      <c r="C3224" s="24"/>
-    </row>
-    <row r="3254" spans="1:1">
-      <c r="A3254" s="23"/>
-    </row>
-    <row r="3277" spans="3:3">
-      <c r="C3277" s="7"/>
-    </row>
-    <row r="3344" spans="1:1">
-      <c r="A3344" s="23"/>
-    </row>
-    <row r="3411" spans="3:3">
-      <c r="C3411" s="24"/>
-    </row>
-    <row r="3415" spans="1:1">
-      <c r="A3415" s="23"/>
+      <c r="C3224" s="23"/>
+    </row>
+    <row r="3225" spans="3:3">
+      <c r="C3225" s="23"/>
+    </row>
+    <row r="3255" spans="1:1">
+      <c r="A3255" s="22"/>
+    </row>
+    <row r="3278" spans="3:3">
+      <c r="C3278" s="7"/>
+    </row>
+    <row r="3345" spans="1:1">
+      <c r="A3345" s="22"/>
+    </row>
+    <row r="3412" spans="3:3">
+      <c r="C3412" s="23"/>
     </row>
     <row r="3416" spans="1:1">
-      <c r="A3416" s="23"/>
+      <c r="A3416" s="22"/>
     </row>
     <row r="3417" spans="1:1">
-      <c r="A3417" s="23"/>
+      <c r="A3417" s="22"/>
     </row>
     <row r="3418" spans="1:1">
-      <c r="A3418" s="23"/>
+      <c r="A3418" s="22"/>
     </row>
     <row r="3419" spans="1:1">
-      <c r="A3419" s="23"/>
+      <c r="A3419" s="22"/>
     </row>
     <row r="3420" spans="1:1">
-      <c r="A3420" s="23"/>
+      <c r="A3420" s="22"/>
     </row>
     <row r="3421" spans="1:1">
-      <c r="A3421" s="23"/>
+      <c r="A3421" s="22"/>
     </row>
     <row r="3422" spans="1:1">
-      <c r="A3422" s="23"/>
+      <c r="A3422" s="22"/>
     </row>
     <row r="3423" spans="1:1">
-      <c r="A3423" s="23"/>
-    </row>
-    <row r="3425" spans="1:1">
-      <c r="A3425" s="23"/>
+      <c r="A3423" s="22"/>
+    </row>
+    <row r="3424" spans="1:1">
+      <c r="A3424" s="22"/>
     </row>
     <row r="3426" spans="1:1">
-      <c r="A3426" s="23"/>
-    </row>
-    <row r="3429" spans="1:1">
-      <c r="A3429" s="23"/>
-    </row>
-    <row r="3431" spans="1:1">
-      <c r="A3431" s="23"/>
+      <c r="A3426" s="22"/>
+    </row>
+    <row r="3427" spans="1:1">
+      <c r="A3427" s="22"/>
+    </row>
+    <row r="3430" spans="1:1">
+      <c r="A3430" s="22"/>
     </row>
     <row r="3432" spans="1:1">
-      <c r="A3432" s="23"/>
+      <c r="A3432" s="22"/>
     </row>
     <row r="3433" spans="1:1">
-      <c r="A3433" s="23"/>
+      <c r="A3433" s="22"/>
     </row>
     <row r="3434" spans="1:1">
-      <c r="A3434" s="23"/>
-    </row>
-    <row r="3436" spans="1:1">
-      <c r="A3436" s="23"/>
+      <c r="A3434" s="22"/>
+    </row>
+    <row r="3435" spans="1:1">
+      <c r="A3435" s="22"/>
     </row>
     <row r="3437" spans="1:1">
-      <c r="A3437" s="23"/>
+      <c r="A3437" s="22"/>
     </row>
     <row r="3438" spans="1:1">
-      <c r="A3438" s="23"/>
+      <c r="A3438" s="22"/>
     </row>
     <row r="3439" spans="1:1">
-      <c r="A3439" s="23"/>
+      <c r="A3439" s="22"/>
     </row>
     <row r="3440" spans="1:1">
-      <c r="A3440" s="23"/>
-    </row>
-    <row r="3442" spans="1:1">
-      <c r="A3442" s="23"/>
-    </row>
-    <row r="3460" spans="1:1">
-      <c r="A3460" s="23"/>
-    </row>
-    <row r="3597" spans="1:1">
-      <c r="A3597" s="23"/>
-    </row>
-    <row r="3631" spans="3:3">
-      <c r="C3631" s="7"/>
-    </row>
-    <row r="3656" spans="1:1">
-      <c r="A3656" s="23"/>
-    </row>
-    <row r="3710" spans="1:1">
-      <c r="A3710" s="23"/>
+      <c r="A3440" s="22"/>
+    </row>
+    <row r="3441" spans="1:1">
+      <c r="A3441" s="22"/>
+    </row>
+    <row r="3443" spans="1:1">
+      <c r="A3443" s="22"/>
+    </row>
+    <row r="3461" spans="1:1">
+      <c r="A3461" s="22"/>
+    </row>
+    <row r="3598" spans="1:1">
+      <c r="A3598" s="22"/>
+    </row>
+    <row r="3632" spans="3:3">
+      <c r="C3632" s="7"/>
+    </row>
+    <row r="3657" spans="1:1">
+      <c r="A3657" s="22"/>
     </row>
     <row r="3711" spans="1:1">
-      <c r="A3711" s="23"/>
-    </row>
-    <row r="3713" spans="1:1">
-      <c r="A3713" s="23"/>
-    </row>
-    <row r="3714" spans="2:2">
-      <c r="B3714" s="24"/>
-    </row>
-    <row r="3718" spans="1:1">
-      <c r="A3718" s="23"/>
+      <c r="A3711" s="22"/>
+    </row>
+    <row r="3712" spans="1:1">
+      <c r="A3712" s="22"/>
+    </row>
+    <row r="3714" spans="1:1">
+      <c r="A3714" s="22"/>
+    </row>
+    <row r="3715" spans="2:2">
+      <c r="B3715" s="23"/>
     </row>
     <row r="3719" spans="1:1">
-      <c r="A3719" s="23"/>
+      <c r="A3719" s="22"/>
     </row>
     <row r="3720" spans="1:1">
-      <c r="A3720" s="23"/>
-    </row>
-    <row r="3727" spans="3:3">
-      <c r="C3727" s="36"/>
-    </row>
-    <row r="3728" spans="2:2">
-      <c r="B3728" s="7"/>
+      <c r="A3720" s="22"/>
+    </row>
+    <row r="3721" spans="1:1">
+      <c r="A3721" s="22"/>
+    </row>
+    <row r="3728" spans="3:3">
+      <c r="C3728" s="35"/>
     </row>
     <row r="3729" spans="2:2">
       <c r="B3729" s="7"/>
     </row>
-    <row r="3741" spans="3:3">
-      <c r="C3741" s="36"/>
-    </row>
-    <row r="3742" spans="2:2">
-      <c r="B3742" s="7"/>
-    </row>
-    <row r="3745" spans="2:2">
-      <c r="B3745" s="7"/>
-    </row>
-    <row r="3747" spans="2:3">
-      <c r="B3747" s="7"/>
-      <c r="C3747" s="37"/>
+    <row r="3730" spans="2:2">
+      <c r="B3730" s="7"/>
+    </row>
+    <row r="3742" spans="3:3">
+      <c r="C3742" s="35"/>
+    </row>
+    <row r="3743" spans="2:2">
+      <c r="B3743" s="7"/>
+    </row>
+    <row r="3746" spans="2:2">
+      <c r="B3746" s="7"/>
     </row>
     <row r="3748" spans="2:3">
       <c r="B3748" s="7"/>
-      <c r="C3748" s="37"/>
-    </row>
-    <row r="3749" spans="2:2">
-      <c r="B3749" s="24"/>
-    </row>
-    <row r="3750" spans="1:2">
-      <c r="A3750" s="23"/>
-      <c r="B3750" s="7"/>
+      <c r="C3748" s="36"/>
+    </row>
+    <row r="3749" spans="2:3">
+      <c r="B3749" s="7"/>
+      <c r="C3749" s="36"/>
+    </row>
+    <row r="3750" spans="2:2">
+      <c r="B3750" s="23"/>
     </row>
     <row r="3751" spans="1:2">
-      <c r="A3751" s="38"/>
-      <c r="B3751" s="39"/>
+      <c r="A3751" s="22"/>
+      <c r="B3751" s="7"/>
     </row>
     <row r="3752" spans="1:2">
-      <c r="A3752" s="38"/>
-      <c r="B3752" s="39"/>
-    </row>
-    <row r="3753" spans="2:3">
-      <c r="B3753" s="7"/>
-      <c r="C3753" s="37"/>
-    </row>
-    <row r="3754" spans="1:3">
-      <c r="A3754" s="25"/>
+      <c r="A3752" s="37"/>
+      <c r="B3752" s="38"/>
+    </row>
+    <row r="3753" spans="1:2">
+      <c r="A3753" s="37"/>
+      <c r="B3753" s="38"/>
+    </row>
+    <row r="3754" spans="2:3">
       <c r="B3754" s="7"/>
-      <c r="C3754" s="37"/>
+      <c r="C3754" s="36"/>
     </row>
     <row r="3755" spans="1:3">
-      <c r="A3755" s="25"/>
+      <c r="A3755" s="24"/>
       <c r="B3755" s="7"/>
-      <c r="C3755" s="37"/>
+      <c r="C3755" s="36"/>
     </row>
     <row r="3756" spans="1:3">
-      <c r="A3756" s="25"/>
+      <c r="A3756" s="24"/>
       <c r="B3756" s="7"/>
-      <c r="C3756" s="37"/>
+      <c r="C3756" s="36"/>
     </row>
     <row r="3757" spans="1:3">
-      <c r="A3757" s="25"/>
+      <c r="A3757" s="24"/>
       <c r="B3757" s="7"/>
-      <c r="C3757" s="37"/>
-    </row>
-    <row r="3768" spans="2:3">
-      <c r="B3768" s="7"/>
-      <c r="C3768" s="37"/>
+      <c r="C3757" s="36"/>
+    </row>
+    <row r="3758" spans="1:3">
+      <c r="A3758" s="24"/>
+      <c r="B3758" s="7"/>
+      <c r="C3758" s="36"/>
     </row>
     <row r="3769" spans="2:3">
       <c r="B3769" s="7"/>
-      <c r="C3769" s="37"/>
-    </row>
-    <row r="3770" spans="1:3">
-      <c r="A3770" s="25"/>
+      <c r="C3769" s="36"/>
+    </row>
+    <row r="3770" spans="2:3">
       <c r="B3770" s="7"/>
-      <c r="C3770" s="37"/>
+      <c r="C3770" s="36"/>
     </row>
     <row r="3771" spans="1:3">
-      <c r="A3771" s="25"/>
+      <c r="A3771" s="24"/>
       <c r="B3771" s="7"/>
-      <c r="C3771" s="37"/>
+      <c r="C3771" s="36"/>
     </row>
     <row r="3772" spans="1:3">
-      <c r="A3772" s="25"/>
+      <c r="A3772" s="24"/>
       <c r="B3772" s="7"/>
-      <c r="C3772" s="37"/>
+      <c r="C3772" s="36"/>
     </row>
     <row r="3773" spans="1:3">
-      <c r="A3773" s="25"/>
+      <c r="A3773" s="24"/>
       <c r="B3773" s="7"/>
-      <c r="C3773" s="37"/>
+      <c r="C3773" s="36"/>
     </row>
     <row r="3774" spans="1:3">
-      <c r="A3774" s="25"/>
+      <c r="A3774" s="24"/>
       <c r="B3774" s="7"/>
-      <c r="C3774" s="37"/>
+      <c r="C3774" s="36"/>
     </row>
     <row r="3775" spans="1:3">
-      <c r="A3775" s="25"/>
+      <c r="A3775" s="24"/>
       <c r="B3775" s="7"/>
-      <c r="C3775" s="37"/>
+      <c r="C3775" s="36"/>
     </row>
     <row r="3776" spans="1:3">
-      <c r="A3776" s="25"/>
+      <c r="A3776" s="24"/>
       <c r="B3776" s="7"/>
-      <c r="C3776" s="37"/>
+      <c r="C3776" s="36"/>
     </row>
     <row r="3777" spans="1:3">
-      <c r="A3777" s="25"/>
+      <c r="A3777" s="24"/>
       <c r="B3777" s="7"/>
-      <c r="C3777" s="37"/>
+      <c r="C3777" s="36"/>
     </row>
     <row r="3778" spans="1:3">
-      <c r="A3778" s="25"/>
+      <c r="A3778" s="24"/>
       <c r="B3778" s="7"/>
-      <c r="C3778" s="37"/>
+      <c r="C3778" s="36"/>
     </row>
     <row r="3779" spans="1:3">
-      <c r="A3779" s="25"/>
+      <c r="A3779" s="24"/>
       <c r="B3779" s="7"/>
-      <c r="C3779" s="37"/>
+      <c r="C3779" s="36"/>
     </row>
     <row r="3780" spans="1:3">
-      <c r="A3780" s="25"/>
+      <c r="A3780" s="24"/>
       <c r="B3780" s="7"/>
-      <c r="C3780" s="37"/>
-    </row>
-    <row r="3781" spans="2:2">
+      <c r="C3780" s="36"/>
+    </row>
+    <row r="3781" spans="1:3">
+      <c r="A3781" s="24"/>
       <c r="B3781" s="7"/>
+      <c r="C3781" s="36"/>
     </row>
     <row r="3782" spans="2:2">
       <c r="B3782" s="7"/>
@@ -7854,12 +7853,12 @@
     <row r="3783" spans="2:2">
       <c r="B3783" s="7"/>
     </row>
-    <row r="3784" spans="2:3">
+    <row r="3784" spans="2:2">
       <c r="B3784" s="7"/>
-      <c r="C3784" s="37"/>
-    </row>
-    <row r="3790" spans="2:2">
-      <c r="B3790" s="7"/>
+    </row>
+    <row r="3785" spans="2:3">
+      <c r="B3785" s="7"/>
+      <c r="C3785" s="36"/>
     </row>
     <row r="3791" spans="2:2">
       <c r="B3791" s="7"/>
@@ -7873,11 +7872,11 @@
     <row r="3794" spans="2:2">
       <c r="B3794" s="7"/>
     </row>
-    <row r="3821" spans="2:2">
-      <c r="B3821" s="7"/>
-    </row>
-    <row r="3825" spans="2:2">
-      <c r="B3825" s="7"/>
+    <row r="3795" spans="2:2">
+      <c r="B3795" s="7"/>
+    </row>
+    <row r="3822" spans="2:2">
+      <c r="B3822" s="7"/>
     </row>
     <row r="3826" spans="2:2">
       <c r="B3826" s="7"/>
@@ -7915,75 +7914,75 @@
     <row r="3837" spans="2:2">
       <c r="B3837" s="7"/>
     </row>
-    <row r="3838" spans="1:2">
-      <c r="A3838" s="23"/>
+    <row r="3838" spans="2:2">
       <c r="B3838" s="7"/>
     </row>
     <row r="3839" spans="1:2">
-      <c r="A3839" s="23"/>
+      <c r="A3839" s="22"/>
       <c r="B3839" s="7"/>
     </row>
     <row r="3840" spans="1:2">
-      <c r="A3840" s="23"/>
+      <c r="A3840" s="22"/>
       <c r="B3840" s="7"/>
     </row>
-    <row r="3841" spans="2:2">
+    <row r="3841" spans="1:2">
+      <c r="A3841" s="22"/>
       <c r="B3841" s="7"/>
     </row>
-    <row r="3842" spans="1:2">
-      <c r="A3842" s="23"/>
+    <row r="3842" spans="2:2">
       <c r="B3842" s="7"/>
     </row>
     <row r="3843" spans="1:2">
-      <c r="A3843" s="23"/>
-      <c r="B3843" s="10"/>
+      <c r="A3843" s="22"/>
+      <c r="B3843" s="7"/>
     </row>
     <row r="3844" spans="1:2">
-      <c r="A3844" s="23"/>
-      <c r="B3844" s="7"/>
+      <c r="A3844" s="22"/>
+      <c r="B3844" s="10"/>
     </row>
     <row r="3845" spans="1:2">
-      <c r="A3845" s="23"/>
+      <c r="A3845" s="22"/>
       <c r="B3845" s="7"/>
     </row>
     <row r="3846" spans="1:2">
-      <c r="A3846" s="23"/>
+      <c r="A3846" s="22"/>
       <c r="B3846" s="7"/>
     </row>
-    <row r="3847" spans="2:2">
+    <row r="3847" spans="1:2">
+      <c r="A3847" s="22"/>
       <c r="B3847" s="7"/>
     </row>
     <row r="3848" spans="2:2">
       <c r="B3848" s="7"/>
     </row>
-    <row r="3849" spans="1:2">
-      <c r="A3849" s="23"/>
+    <row r="3849" spans="2:2">
       <c r="B3849" s="7"/>
     </row>
     <row r="3850" spans="1:2">
-      <c r="A3850" s="23"/>
+      <c r="A3850" s="22"/>
       <c r="B3850" s="7"/>
     </row>
     <row r="3851" spans="1:2">
-      <c r="A3851" s="23"/>
+      <c r="A3851" s="22"/>
       <c r="B3851" s="7"/>
     </row>
     <row r="3852" spans="1:2">
-      <c r="A3852" s="23"/>
+      <c r="A3852" s="22"/>
       <c r="B3852" s="7"/>
     </row>
     <row r="3853" spans="1:2">
-      <c r="A3853" s="23"/>
+      <c r="A3853" s="22"/>
       <c r="B3853" s="7"/>
     </row>
-    <row r="3854" spans="2:2">
+    <row r="3854" spans="1:2">
+      <c r="A3854" s="22"/>
       <c r="B3854" s="7"/>
     </row>
-    <row r="3855" spans="1:2">
-      <c r="A3855" s="23"/>
+    <row r="3855" spans="2:2">
       <c r="B3855" s="7"/>
     </row>
-    <row r="3856" spans="2:2">
+    <row r="3856" spans="1:2">
+      <c r="A3856" s="22"/>
       <c r="B3856" s="7"/>
     </row>
     <row r="3857" spans="2:2">
@@ -7995,231 +7994,231 @@
     <row r="3859" spans="2:2">
       <c r="B3859" s="7"/>
     </row>
-    <row r="3869" spans="1:2">
-      <c r="A3869" s="23"/>
-      <c r="B3869" s="7"/>
+    <row r="3860" spans="2:2">
+      <c r="B3860" s="7"/>
     </row>
     <row r="3870" spans="1:2">
-      <c r="A3870" s="25"/>
+      <c r="A3870" s="22"/>
       <c r="B3870" s="7"/>
     </row>
     <row r="3871" spans="1:2">
-      <c r="A3871" s="25"/>
+      <c r="A3871" s="24"/>
       <c r="B3871" s="7"/>
     </row>
     <row r="3872" spans="1:2">
-      <c r="A3872" s="25"/>
+      <c r="A3872" s="24"/>
       <c r="B3872" s="7"/>
     </row>
     <row r="3873" spans="1:2">
-      <c r="A3873" s="25"/>
+      <c r="A3873" s="24"/>
       <c r="B3873" s="7"/>
     </row>
     <row r="3874" spans="1:2">
-      <c r="A3874" s="23"/>
+      <c r="A3874" s="24"/>
       <c r="B3874" s="7"/>
     </row>
     <row r="3875" spans="1:2">
-      <c r="A3875" s="23"/>
+      <c r="A3875" s="22"/>
       <c r="B3875" s="7"/>
     </row>
     <row r="3876" spans="1:2">
-      <c r="A3876" s="23"/>
+      <c r="A3876" s="22"/>
       <c r="B3876" s="7"/>
     </row>
-    <row r="3877" spans="2:3">
+    <row r="3877" spans="1:2">
+      <c r="A3877" s="22"/>
       <c r="B3877" s="7"/>
-      <c r="C3877" s="37"/>
-    </row>
-    <row r="3893" spans="1:2">
-      <c r="A3893" s="23"/>
-      <c r="B3893" s="7"/>
+    </row>
+    <row r="3878" spans="2:3">
+      <c r="B3878" s="7"/>
+      <c r="C3878" s="36"/>
     </row>
     <row r="3894" spans="1:2">
-      <c r="A3894" s="23"/>
+      <c r="A3894" s="22"/>
       <c r="B3894" s="7"/>
     </row>
-    <row r="3895" spans="2:2">
+    <row r="3895" spans="1:2">
+      <c r="A3895" s="22"/>
       <c r="B3895" s="7"/>
     </row>
     <row r="3896" spans="2:2">
       <c r="B3896" s="7"/>
     </row>
-    <row r="3897" spans="1:2">
-      <c r="A3897" s="25"/>
+    <row r="3897" spans="2:2">
       <c r="B3897" s="7"/>
     </row>
     <row r="3898" spans="1:2">
-      <c r="A3898" s="25"/>
+      <c r="A3898" s="24"/>
       <c r="B3898" s="7"/>
     </row>
     <row r="3899" spans="1:2">
-      <c r="A3899" s="25"/>
+      <c r="A3899" s="24"/>
       <c r="B3899" s="7"/>
     </row>
     <row r="3900" spans="1:2">
-      <c r="A3900" s="25"/>
+      <c r="A3900" s="24"/>
       <c r="B3900" s="7"/>
     </row>
     <row r="3901" spans="1:2">
-      <c r="A3901" s="25"/>
+      <c r="A3901" s="24"/>
       <c r="B3901" s="7"/>
     </row>
     <row r="3902" spans="1:2">
-      <c r="A3902" s="25"/>
+      <c r="A3902" s="24"/>
       <c r="B3902" s="7"/>
     </row>
     <row r="3903" spans="1:2">
-      <c r="A3903" s="25"/>
+      <c r="A3903" s="24"/>
       <c r="B3903" s="7"/>
     </row>
     <row r="3904" spans="1:2">
-      <c r="A3904" s="25"/>
+      <c r="A3904" s="24"/>
       <c r="B3904" s="7"/>
     </row>
     <row r="3905" spans="1:2">
-      <c r="A3905" s="25"/>
+      <c r="A3905" s="24"/>
       <c r="B3905" s="7"/>
     </row>
     <row r="3906" spans="1:2">
-      <c r="A3906" s="25"/>
+      <c r="A3906" s="24"/>
       <c r="B3906" s="7"/>
     </row>
     <row r="3907" spans="1:2">
-      <c r="A3907" s="25"/>
+      <c r="A3907" s="24"/>
       <c r="B3907" s="7"/>
     </row>
     <row r="3908" spans="1:2">
-      <c r="A3908" s="25"/>
+      <c r="A3908" s="24"/>
       <c r="B3908" s="7"/>
     </row>
     <row r="3909" spans="1:2">
-      <c r="A3909" s="25"/>
+      <c r="A3909" s="24"/>
       <c r="B3909" s="7"/>
     </row>
     <row r="3910" spans="1:2">
-      <c r="A3910" s="25"/>
+      <c r="A3910" s="24"/>
       <c r="B3910" s="7"/>
     </row>
     <row r="3911" spans="1:2">
-      <c r="A3911" s="25"/>
+      <c r="A3911" s="24"/>
       <c r="B3911" s="7"/>
     </row>
     <row r="3912" spans="1:2">
-      <c r="A3912" s="25"/>
+      <c r="A3912" s="24"/>
       <c r="B3912" s="7"/>
     </row>
     <row r="3913" spans="1:2">
-      <c r="A3913" s="25"/>
+      <c r="A3913" s="24"/>
       <c r="B3913" s="7"/>
     </row>
     <row r="3914" spans="1:2">
-      <c r="A3914" s="25"/>
+      <c r="A3914" s="24"/>
       <c r="B3914" s="7"/>
     </row>
     <row r="3915" spans="1:2">
-      <c r="A3915" s="25"/>
+      <c r="A3915" s="24"/>
       <c r="B3915" s="7"/>
     </row>
     <row r="3916" spans="1:2">
-      <c r="A3916" s="25"/>
+      <c r="A3916" s="24"/>
       <c r="B3916" s="7"/>
     </row>
     <row r="3917" spans="1:2">
-      <c r="A3917" s="25"/>
+      <c r="A3917" s="24"/>
       <c r="B3917" s="7"/>
     </row>
     <row r="3918" spans="1:2">
-      <c r="A3918" s="25"/>
+      <c r="A3918" s="24"/>
       <c r="B3918" s="7"/>
     </row>
     <row r="3919" spans="1:2">
-      <c r="A3919" s="25"/>
+      <c r="A3919" s="24"/>
       <c r="B3919" s="7"/>
     </row>
     <row r="3920" spans="1:2">
-      <c r="A3920" s="25"/>
+      <c r="A3920" s="24"/>
       <c r="B3920" s="7"/>
     </row>
     <row r="3921" spans="1:2">
-      <c r="A3921" s="25"/>
+      <c r="A3921" s="24"/>
       <c r="B3921" s="7"/>
     </row>
     <row r="3922" spans="1:2">
-      <c r="A3922" s="25"/>
+      <c r="A3922" s="24"/>
       <c r="B3922" s="7"/>
     </row>
     <row r="3923" spans="1:2">
-      <c r="A3923" s="25"/>
+      <c r="A3923" s="24"/>
       <c r="B3923" s="7"/>
     </row>
     <row r="3924" spans="1:2">
-      <c r="A3924" s="25"/>
+      <c r="A3924" s="24"/>
       <c r="B3924" s="7"/>
     </row>
     <row r="3925" spans="1:2">
-      <c r="A3925" s="25"/>
+      <c r="A3925" s="24"/>
       <c r="B3925" s="7"/>
     </row>
     <row r="3926" spans="1:2">
-      <c r="A3926" s="25"/>
+      <c r="A3926" s="24"/>
       <c r="B3926" s="7"/>
     </row>
     <row r="3927" spans="1:2">
-      <c r="A3927" s="25"/>
+      <c r="A3927" s="24"/>
       <c r="B3927" s="7"/>
     </row>
     <row r="3928" spans="1:2">
-      <c r="A3928" s="25"/>
+      <c r="A3928" s="24"/>
       <c r="B3928" s="7"/>
     </row>
     <row r="3929" spans="1:2">
-      <c r="A3929" s="25"/>
+      <c r="A3929" s="24"/>
       <c r="B3929" s="7"/>
     </row>
     <row r="3930" spans="1:2">
-      <c r="A3930" s="25"/>
+      <c r="A3930" s="24"/>
       <c r="B3930" s="7"/>
     </row>
     <row r="3931" spans="1:2">
-      <c r="A3931" s="25"/>
+      <c r="A3931" s="24"/>
       <c r="B3931" s="7"/>
     </row>
     <row r="3932" spans="1:2">
-      <c r="A3932" s="25"/>
+      <c r="A3932" s="24"/>
       <c r="B3932" s="7"/>
     </row>
     <row r="3933" spans="1:2">
-      <c r="A3933" s="25"/>
+      <c r="A3933" s="24"/>
       <c r="B3933" s="7"/>
     </row>
     <row r="3934" spans="1:2">
-      <c r="A3934" s="25"/>
+      <c r="A3934" s="24"/>
       <c r="B3934" s="7"/>
     </row>
-    <row r="3939" spans="1:2">
-      <c r="A3939" s="25"/>
-      <c r="B3939" s="7"/>
-    </row>
-    <row r="3942" spans="1:2">
-      <c r="A3942" s="23"/>
-      <c r="B3942" s="7"/>
+    <row r="3935" spans="1:2">
+      <c r="A3935" s="24"/>
+      <c r="B3935" s="7"/>
+    </row>
+    <row r="3940" spans="1:2">
+      <c r="A3940" s="24"/>
+      <c r="B3940" s="7"/>
     </row>
     <row r="3943" spans="1:2">
-      <c r="A3943" s="23"/>
+      <c r="A3943" s="22"/>
       <c r="B3943" s="7"/>
     </row>
-    <row r="3944" spans="2:2">
+    <row r="3944" spans="1:2">
+      <c r="A3944" s="22"/>
       <c r="B3944" s="7"/>
     </row>
-    <row r="3947" spans="2:2">
-      <c r="B3947" s="7"/>
+    <row r="3945" spans="2:2">
+      <c r="B3945" s="7"/>
     </row>
     <row r="3948" spans="2:2">
       <c r="B3948" s="7"/>
     </row>
-    <row r="3965" spans="2:2">
-      <c r="B3965" s="7"/>
+    <row r="3949" spans="2:2">
+      <c r="B3949" s="7"/>
     </row>
     <row r="3966" spans="2:2">
       <c r="B3966" s="7"/>
@@ -8231,20 +8230,20 @@
       <c r="B3968" s="7"/>
     </row>
     <row r="3969" spans="2:2">
-      <c r="B3969" s="5"/>
+      <c r="B3969" s="7"/>
     </row>
     <row r="3970" spans="2:2">
-      <c r="B3970" s="7"/>
+      <c r="B3970" s="5"/>
     </row>
     <row r="3971" spans="2:2">
       <c r="B3971" s="7"/>
     </row>
-    <row r="3972" spans="2:3">
+    <row r="3972" spans="2:2">
       <c r="B3972" s="7"/>
-      <c r="C3972" s="7"/>
-    </row>
-    <row r="3973" spans="2:2">
+    </row>
+    <row r="3973" spans="2:3">
       <c r="B3973" s="7"/>
+      <c r="C3973" s="7"/>
     </row>
     <row r="3974" spans="2:2">
       <c r="B3974" s="7"/>
@@ -8252,20 +8251,20 @@
     <row r="3975" spans="2:2">
       <c r="B3975" s="7"/>
     </row>
-    <row r="3976" spans="1:2">
-      <c r="A3976" s="23"/>
+    <row r="3976" spans="2:2">
       <c r="B3976" s="7"/>
     </row>
     <row r="3977" spans="1:2">
-      <c r="A3977" s="23"/>
+      <c r="A3977" s="22"/>
       <c r="B3977" s="7"/>
     </row>
-    <row r="3982" spans="1:2">
-      <c r="A3982" s="23"/>
-      <c r="B3982" s="7"/>
-    </row>
-    <row r="3990" spans="2:2">
-      <c r="B3990" s="7"/>
+    <row r="3978" spans="1:2">
+      <c r="A3978" s="22"/>
+      <c r="B3978" s="7"/>
+    </row>
+    <row r="3983" spans="1:2">
+      <c r="A3983" s="22"/>
+      <c r="B3983" s="7"/>
     </row>
     <row r="3991" spans="2:2">
       <c r="B3991" s="7"/>
@@ -8294,8 +8293,8 @@
     <row r="3999" spans="2:2">
       <c r="B3999" s="7"/>
     </row>
-    <row r="4002" spans="2:2">
-      <c r="B4002" s="7"/>
+    <row r="4000" spans="2:2">
+      <c r="B4000" s="7"/>
     </row>
     <row r="4003" spans="2:2">
       <c r="B4003" s="7"/>
@@ -8315,8 +8314,8 @@
     <row r="4008" spans="2:2">
       <c r="B4008" s="7"/>
     </row>
-    <row r="4015" spans="2:2">
-      <c r="B4015" s="7"/>
+    <row r="4009" spans="2:2">
+      <c r="B4009" s="7"/>
     </row>
     <row r="4016" spans="2:2">
       <c r="B4016" s="7"/>
@@ -8342,19 +8341,19 @@
     <row r="4023" spans="2:2">
       <c r="B4023" s="7"/>
     </row>
-    <row r="4024" spans="1:2">
-      <c r="A4024" s="25"/>
+    <row r="4024" spans="2:2">
       <c r="B4024" s="7"/>
     </row>
     <row r="4025" spans="1:2">
-      <c r="A4025" s="23"/>
+      <c r="A4025" s="24"/>
       <c r="B4025" s="7"/>
     </row>
     <row r="4026" spans="1:2">
-      <c r="A4026" s="23"/>
+      <c r="A4026" s="22"/>
       <c r="B4026" s="7"/>
     </row>
-    <row r="4027" spans="2:2">
+    <row r="4027" spans="1:2">
+      <c r="A4027" s="22"/>
       <c r="B4027" s="7"/>
     </row>
     <row r="4028" spans="2:2">
@@ -8363,15 +8362,15 @@
     <row r="4029" spans="2:2">
       <c r="B4029" s="7"/>
     </row>
-    <row r="4033" spans="2:2">
-      <c r="B4033" s="7"/>
-    </row>
-    <row r="4034" spans="1:2">
-      <c r="A4034" s="23"/>
+    <row r="4030" spans="2:2">
+      <c r="B4030" s="7"/>
+    </row>
+    <row r="4034" spans="2:2">
       <c r="B4034" s="7"/>
     </row>
-    <row r="4036" spans="2:2">
-      <c r="B4036" s="7"/>
+    <row r="4035" spans="1:2">
+      <c r="A4035" s="22"/>
+      <c r="B4035" s="7"/>
     </row>
     <row r="4037" spans="2:2">
       <c r="B4037" s="7"/>
@@ -8382,20 +8381,20 @@
     <row r="4039" spans="2:2">
       <c r="B4039" s="7"/>
     </row>
-    <row r="4042" spans="2:2">
-      <c r="B4042" s="7"/>
+    <row r="4040" spans="2:2">
+      <c r="B4040" s="7"/>
     </row>
     <row r="4043" spans="2:2">
       <c r="B4043" s="7"/>
     </row>
-    <row r="4045" spans="2:2">
-      <c r="B4045" s="7"/>
+    <row r="4044" spans="2:2">
+      <c r="B4044" s="7"/>
     </row>
     <row r="4046" spans="2:2">
       <c r="B4046" s="7"/>
     </row>
-    <row r="4048" spans="2:2">
-      <c r="B4048" s="7"/>
+    <row r="4047" spans="2:2">
+      <c r="B4047" s="7"/>
     </row>
     <row r="4049" spans="2:2">
       <c r="B4049" s="7"/>
@@ -8406,26 +8405,26 @@
     <row r="4051" spans="2:2">
       <c r="B4051" s="7"/>
     </row>
-    <row r="4056" spans="2:2">
-      <c r="B4056" s="7"/>
-    </row>
-    <row r="4060" spans="2:2">
-      <c r="B4060" s="7"/>
+    <row r="4052" spans="2:2">
+      <c r="B4052" s="7"/>
+    </row>
+    <row r="4057" spans="2:2">
+      <c r="B4057" s="7"/>
     </row>
     <row r="4061" spans="2:2">
       <c r="B4061" s="7"/>
     </row>
-    <row r="4063" spans="2:2">
-      <c r="B4063" s="7"/>
-    </row>
-    <row r="4067" spans="2:2">
-      <c r="B4067" s="7"/>
+    <row r="4062" spans="2:2">
+      <c r="B4062" s="7"/>
+    </row>
+    <row r="4064" spans="2:2">
+      <c r="B4064" s="7"/>
     </row>
     <row r="4068" spans="2:2">
       <c r="B4068" s="7"/>
     </row>
-    <row r="4079" spans="2:2">
-      <c r="B4079" s="7"/>
+    <row r="4069" spans="2:2">
+      <c r="B4069" s="7"/>
     </row>
     <row r="4080" spans="2:2">
       <c r="B4080" s="7"/>
@@ -8433,8 +8432,8 @@
     <row r="4081" spans="2:2">
       <c r="B4081" s="7"/>
     </row>
-    <row r="4084" spans="2:2">
-      <c r="B4084" s="7"/>
+    <row r="4082" spans="2:2">
+      <c r="B4082" s="7"/>
     </row>
     <row r="4085" spans="2:2">
       <c r="B4085" s="7"/>
@@ -8442,40 +8441,40 @@
     <row r="4086" spans="2:2">
       <c r="B4086" s="7"/>
     </row>
-    <row r="4087" spans="1:2">
-      <c r="A4087" s="23"/>
+    <row r="4087" spans="2:2">
       <c r="B4087" s="7"/>
     </row>
     <row r="4088" spans="1:2">
-      <c r="A4088" s="23"/>
+      <c r="A4088" s="22"/>
       <c r="B4088" s="7"/>
     </row>
     <row r="4089" spans="1:2">
-      <c r="A4089" s="23"/>
+      <c r="A4089" s="22"/>
       <c r="B4089" s="7"/>
     </row>
-    <row r="4090" spans="2:2">
+    <row r="4090" spans="1:2">
+      <c r="A4090" s="22"/>
       <c r="B4090" s="7"/>
     </row>
     <row r="4091" spans="2:2">
       <c r="B4091" s="7"/>
     </row>
-    <row r="4093" ht="15.75" spans="1:3">
-      <c r="A4093" s="40"/>
-      <c r="B4093" s="7"/>
-      <c r="C4093" s="41"/>
-    </row>
-    <row r="4138" spans="2:2">
-      <c r="B4138" s="7"/>
+    <row r="4092" spans="2:2">
+      <c r="B4092" s="7"/>
+    </row>
+    <row r="4094" ht="15.75" spans="1:3">
+      <c r="A4094" s="39"/>
+      <c r="B4094" s="7"/>
+      <c r="C4094" s="40"/>
     </row>
     <row r="4139" spans="2:2">
       <c r="B4139" s="7"/>
     </row>
-    <row r="4149" spans="2:2">
-      <c r="B4149" s="7"/>
-    </row>
-    <row r="4151" spans="2:2">
-      <c r="B4151" s="7"/>
+    <row r="4140" spans="2:2">
+      <c r="B4140" s="7"/>
+    </row>
+    <row r="4150" spans="2:2">
+      <c r="B4150" s="7"/>
     </row>
     <row r="4152" spans="2:2">
       <c r="B4152" s="7"/>
@@ -8489,8 +8488,8 @@
     <row r="4155" spans="2:2">
       <c r="B4155" s="7"/>
     </row>
-    <row r="4164" spans="2:2">
-      <c r="B4164" s="7"/>
+    <row r="4156" spans="2:2">
+      <c r="B4156" s="7"/>
     </row>
     <row r="4165" spans="2:2">
       <c r="B4165" s="7"/>
@@ -8504,8 +8503,8 @@
     <row r="4168" spans="2:2">
       <c r="B4168" s="7"/>
     </row>
-    <row r="4177" spans="2:2">
-      <c r="B4177" s="7"/>
+    <row r="4169" spans="2:2">
+      <c r="B4169" s="7"/>
     </row>
     <row r="4178" spans="2:2">
       <c r="B4178" s="7"/>
@@ -8546,8 +8545,8 @@
     <row r="4190" spans="2:2">
       <c r="B4190" s="7"/>
     </row>
-    <row r="4195" spans="2:2">
-      <c r="B4195" s="7"/>
+    <row r="4191" spans="2:2">
+      <c r="B4191" s="7"/>
     </row>
     <row r="4196" spans="2:2">
       <c r="B4196" s="7"/>
@@ -8577,188 +8576,188 @@
       <c r="B4204" s="7"/>
     </row>
     <row r="4205" spans="2:2">
-      <c r="B4205" s="31"/>
+      <c r="B4205" s="7"/>
     </row>
     <row r="4206" spans="2:2">
-      <c r="B4206" s="31"/>
+      <c r="B4206" s="30"/>
     </row>
     <row r="4207" spans="2:2">
-      <c r="B4207" s="31"/>
+      <c r="B4207" s="30"/>
     </row>
     <row r="4208" spans="2:2">
-      <c r="B4208" s="31"/>
+      <c r="B4208" s="30"/>
     </row>
     <row r="4209" spans="2:2">
-      <c r="B4209" s="31"/>
+      <c r="B4209" s="30"/>
     </row>
     <row r="4210" spans="2:2">
-      <c r="B4210" s="31"/>
+      <c r="B4210" s="30"/>
     </row>
     <row r="4211" spans="2:2">
-      <c r="B4211" s="31"/>
+      <c r="B4211" s="30"/>
     </row>
     <row r="4212" spans="2:2">
-      <c r="B4212" s="31"/>
+      <c r="B4212" s="30"/>
     </row>
     <row r="4213" spans="2:2">
-      <c r="B4213" s="31"/>
+      <c r="B4213" s="30"/>
     </row>
     <row r="4214" spans="2:2">
-      <c r="B4214" s="31"/>
+      <c r="B4214" s="30"/>
     </row>
     <row r="4215" spans="2:2">
-      <c r="B4215" s="31"/>
+      <c r="B4215" s="30"/>
     </row>
     <row r="4216" spans="2:2">
-      <c r="B4216" s="31"/>
+      <c r="B4216" s="30"/>
     </row>
     <row r="4217" spans="2:2">
-      <c r="B4217" s="31"/>
+      <c r="B4217" s="30"/>
     </row>
     <row r="4218" spans="2:2">
-      <c r="B4218" s="31"/>
+      <c r="B4218" s="30"/>
     </row>
     <row r="4219" spans="2:2">
-      <c r="B4219" s="31"/>
+      <c r="B4219" s="30"/>
     </row>
     <row r="4220" spans="2:2">
-      <c r="B4220" s="31"/>
+      <c r="B4220" s="30"/>
     </row>
     <row r="4221" spans="2:2">
-      <c r="B4221" s="31"/>
+      <c r="B4221" s="30"/>
     </row>
     <row r="4222" spans="2:2">
-      <c r="B4222" s="31"/>
+      <c r="B4222" s="30"/>
     </row>
     <row r="4223" spans="2:2">
-      <c r="B4223" s="31"/>
+      <c r="B4223" s="30"/>
     </row>
     <row r="4224" spans="2:2">
-      <c r="B4224" s="31"/>
+      <c r="B4224" s="30"/>
     </row>
     <row r="4225" spans="2:2">
-      <c r="B4225" s="31"/>
+      <c r="B4225" s="30"/>
     </row>
     <row r="4226" spans="2:2">
-      <c r="B4226" s="31"/>
+      <c r="B4226" s="30"/>
     </row>
     <row r="4227" spans="2:2">
-      <c r="B4227" s="31"/>
+      <c r="B4227" s="30"/>
     </row>
     <row r="4228" spans="2:2">
-      <c r="B4228" s="31"/>
+      <c r="B4228" s="30"/>
     </row>
     <row r="4229" spans="2:2">
-      <c r="B4229" s="31"/>
+      <c r="B4229" s="30"/>
     </row>
     <row r="4230" spans="2:2">
-      <c r="B4230" s="31"/>
+      <c r="B4230" s="30"/>
     </row>
     <row r="4231" spans="2:2">
-      <c r="B4231" s="31"/>
+      <c r="B4231" s="30"/>
     </row>
     <row r="4232" spans="2:2">
-      <c r="B4232" s="31"/>
+      <c r="B4232" s="30"/>
     </row>
     <row r="4233" spans="2:2">
-      <c r="B4233" s="31"/>
+      <c r="B4233" s="30"/>
     </row>
     <row r="4234" spans="2:2">
-      <c r="B4234" s="31"/>
+      <c r="B4234" s="30"/>
     </row>
     <row r="4235" spans="2:2">
-      <c r="B4235" s="31"/>
+      <c r="B4235" s="30"/>
     </row>
     <row r="4236" spans="2:2">
-      <c r="B4236" s="31"/>
+      <c r="B4236" s="30"/>
     </row>
     <row r="4237" spans="2:2">
-      <c r="B4237" s="31"/>
+      <c r="B4237" s="30"/>
     </row>
     <row r="4238" spans="2:2">
-      <c r="B4238" s="31"/>
+      <c r="B4238" s="30"/>
     </row>
     <row r="4239" spans="2:2">
-      <c r="B4239" s="31"/>
+      <c r="B4239" s="30"/>
     </row>
     <row r="4240" spans="2:2">
-      <c r="B4240" s="31"/>
+      <c r="B4240" s="30"/>
     </row>
     <row r="4241" spans="2:2">
-      <c r="B4241" s="31"/>
+      <c r="B4241" s="30"/>
     </row>
     <row r="4242" spans="2:2">
-      <c r="B4242" s="31"/>
+      <c r="B4242" s="30"/>
     </row>
     <row r="4243" spans="2:2">
-      <c r="B4243" s="31"/>
+      <c r="B4243" s="30"/>
     </row>
     <row r="4244" spans="2:2">
-      <c r="B4244" s="31"/>
+      <c r="B4244" s="30"/>
     </row>
     <row r="4245" spans="2:2">
-      <c r="B4245" s="31"/>
+      <c r="B4245" s="30"/>
     </row>
     <row r="4246" spans="2:2">
-      <c r="B4246" s="31"/>
+      <c r="B4246" s="30"/>
     </row>
     <row r="4247" spans="2:2">
-      <c r="B4247" s="31"/>
+      <c r="B4247" s="30"/>
     </row>
     <row r="4248" spans="2:2">
-      <c r="B4248" s="31"/>
+      <c r="B4248" s="30"/>
     </row>
     <row r="4249" spans="2:2">
-      <c r="B4249" s="31"/>
+      <c r="B4249" s="30"/>
     </row>
     <row r="4250" spans="2:2">
-      <c r="B4250" s="31"/>
+      <c r="B4250" s="30"/>
     </row>
     <row r="4251" spans="2:2">
-      <c r="B4251" s="31"/>
+      <c r="B4251" s="30"/>
     </row>
     <row r="4252" spans="2:2">
-      <c r="B4252" s="31"/>
+      <c r="B4252" s="30"/>
     </row>
     <row r="4253" spans="2:2">
-      <c r="B4253" s="31"/>
+      <c r="B4253" s="30"/>
     </row>
     <row r="4254" spans="2:2">
-      <c r="B4254" s="31"/>
+      <c r="B4254" s="30"/>
     </row>
     <row r="4255" spans="2:2">
-      <c r="B4255" s="31"/>
+      <c r="B4255" s="30"/>
     </row>
     <row r="4256" spans="2:2">
-      <c r="B4256" s="31"/>
+      <c r="B4256" s="30"/>
     </row>
     <row r="4257" spans="2:2">
-      <c r="B4257" s="31"/>
+      <c r="B4257" s="30"/>
     </row>
     <row r="4258" spans="2:2">
-      <c r="B4258" s="31"/>
+      <c r="B4258" s="30"/>
     </row>
     <row r="4259" spans="2:2">
-      <c r="B4259" s="31"/>
+      <c r="B4259" s="30"/>
     </row>
     <row r="4260" spans="2:2">
-      <c r="B4260" s="31"/>
+      <c r="B4260" s="30"/>
     </row>
     <row r="4261" spans="2:2">
-      <c r="B4261" s="31"/>
+      <c r="B4261" s="30"/>
     </row>
     <row r="4262" spans="2:2">
-      <c r="B4262" s="7"/>
+      <c r="B4262" s="30"/>
     </row>
     <row r="4263" spans="2:2">
       <c r="B4263" s="7"/>
     </row>
-    <row r="4264" spans="1:2">
-      <c r="A4264" s="23"/>
+    <row r="4264" spans="2:2">
       <c r="B4264" s="7"/>
     </row>
-    <row r="4266" spans="2:2">
-      <c r="B4266" s="7"/>
+    <row r="4265" spans="1:2">
+      <c r="A4265" s="22"/>
+      <c r="B4265" s="7"/>
     </row>
     <row r="4267" spans="2:2">
       <c r="B4267" s="7"/>
@@ -8781,18 +8780,18 @@
     <row r="4273" spans="2:2">
       <c r="B4273" s="7"/>
     </row>
-    <row r="4276" spans="2:2">
-      <c r="B4276" s="7"/>
-    </row>
-    <row r="4277" spans="1:2">
-      <c r="A4277" s="23"/>
+    <row r="4274" spans="2:2">
+      <c r="B4274" s="7"/>
+    </row>
+    <row r="4277" spans="2:2">
       <c r="B4277" s="7"/>
     </row>
-    <row r="4278" spans="2:2">
-      <c r="B4278" s="36"/>
+    <row r="4278" spans="1:2">
+      <c r="A4278" s="22"/>
+      <c r="B4278" s="7"/>
     </row>
     <row r="4279" spans="2:2">
-      <c r="B4279" s="7"/>
+      <c r="B4279" s="35"/>
     </row>
     <row r="4280" spans="2:2">
       <c r="B4280" s="7"/>
@@ -8812,8 +8811,8 @@
     <row r="4285" spans="2:2">
       <c r="B4285" s="7"/>
     </row>
-    <row r="4290" spans="2:2">
-      <c r="B4290" s="7"/>
+    <row r="4286" spans="2:2">
+      <c r="B4286" s="7"/>
     </row>
     <row r="4291" spans="2:2">
       <c r="B4291" s="7"/>
@@ -8821,38 +8820,38 @@
     <row r="4292" spans="2:2">
       <c r="B4292" s="7"/>
     </row>
-    <row r="4294" spans="2:2">
-      <c r="B4294" s="7"/>
+    <row r="4293" spans="2:2">
+      <c r="B4293" s="7"/>
     </row>
     <row r="4295" spans="2:2">
       <c r="B4295" s="7"/>
     </row>
-    <row r="4299" spans="2:2">
-      <c r="B4299" s="7"/>
-    </row>
-    <row r="4300" spans="1:1">
-      <c r="A4300" s="23"/>
-    </row>
-    <row r="4307" spans="2:2">
-      <c r="B4307" s="7"/>
-    </row>
-    <row r="4314" spans="2:2">
-      <c r="B4314" s="7"/>
+    <row r="4296" spans="2:2">
+      <c r="B4296" s="7"/>
+    </row>
+    <row r="4300" spans="2:2">
+      <c r="B4300" s="7"/>
+    </row>
+    <row r="4301" spans="1:1">
+      <c r="A4301" s="22"/>
+    </row>
+    <row r="4308" spans="2:2">
+      <c r="B4308" s="7"/>
     </row>
     <row r="4315" spans="2:2">
       <c r="B4315" s="7"/>
     </row>
-    <row r="4325" spans="2:2">
-      <c r="B4325" s="7"/>
-    </row>
-    <row r="4328" spans="2:2">
-      <c r="B4328" s="7"/>
+    <row r="4316" spans="2:2">
+      <c r="B4316" s="7"/>
+    </row>
+    <row r="4326" spans="2:2">
+      <c r="B4326" s="7"/>
     </row>
     <row r="4329" spans="2:2">
       <c r="B4329" s="7"/>
     </row>
-    <row r="4332" spans="2:2">
-      <c r="B4332" s="7"/>
+    <row r="4330" spans="2:2">
+      <c r="B4330" s="7"/>
     </row>
     <row r="4333" spans="2:2">
       <c r="B4333" s="7"/>
@@ -8929,8 +8928,8 @@
     <row r="4357" spans="2:2">
       <c r="B4357" s="7"/>
     </row>
-    <row r="4360" spans="2:2">
-      <c r="B4360" s="7"/>
+    <row r="4358" spans="2:2">
+      <c r="B4358" s="7"/>
     </row>
     <row r="4361" spans="2:2">
       <c r="B4361" s="7"/>
@@ -8944,210 +8943,210 @@
     <row r="4364" spans="2:2">
       <c r="B4364" s="7"/>
     </row>
-    <row r="4366" spans="2:2">
-      <c r="B4366" s="7"/>
-    </row>
-    <row r="4374" ht="18" customHeight="1" spans="1:7">
-      <c r="A4374" s="42"/>
-      <c r="B4374" s="43"/>
-      <c r="C4374" s="44"/>
-      <c r="D4374" s="44"/>
-      <c r="E4374" s="44"/>
-      <c r="F4374" s="44"/>
-      <c r="G4374" s="44"/>
-    </row>
-    <row r="4375" spans="1:7">
-      <c r="A4375" s="42"/>
-      <c r="B4375" s="43"/>
-      <c r="C4375" s="44"/>
-      <c r="D4375" s="44"/>
-      <c r="E4375" s="44"/>
-      <c r="F4375" s="44"/>
-      <c r="G4375" s="44"/>
-    </row>
-    <row r="4376" spans="2:7">
-      <c r="B4376" s="7"/>
-      <c r="C4376" s="44"/>
-      <c r="D4376" s="44"/>
-      <c r="E4376" s="44"/>
-      <c r="F4376" s="44"/>
-      <c r="G4376" s="44"/>
+    <row r="4365" spans="2:2">
+      <c r="B4365" s="7"/>
+    </row>
+    <row r="4367" spans="2:2">
+      <c r="B4367" s="7"/>
+    </row>
+    <row r="4375" ht="18" customHeight="1" spans="1:7">
+      <c r="A4375" s="41"/>
+      <c r="B4375" s="42"/>
+      <c r="C4375" s="43"/>
+      <c r="D4375" s="43"/>
+      <c r="E4375" s="43"/>
+      <c r="F4375" s="43"/>
+      <c r="G4375" s="43"/>
+    </row>
+    <row r="4376" spans="1:7">
+      <c r="A4376" s="41"/>
+      <c r="B4376" s="42"/>
+      <c r="C4376" s="43"/>
+      <c r="D4376" s="43"/>
+      <c r="E4376" s="43"/>
+      <c r="F4376" s="43"/>
+      <c r="G4376" s="43"/>
     </row>
     <row r="4377" spans="2:7">
       <c r="B4377" s="7"/>
-      <c r="C4377" s="44"/>
-      <c r="D4377" s="44"/>
-      <c r="E4377" s="44"/>
-      <c r="F4377" s="44"/>
-      <c r="G4377" s="44"/>
+      <c r="C4377" s="43"/>
+      <c r="D4377" s="43"/>
+      <c r="E4377" s="43"/>
+      <c r="F4377" s="43"/>
+      <c r="G4377" s="43"/>
     </row>
     <row r="4378" spans="2:7">
       <c r="B4378" s="7"/>
-      <c r="C4378" s="44"/>
-      <c r="D4378" s="44"/>
-      <c r="E4378" s="44"/>
-      <c r="F4378" s="44"/>
-      <c r="G4378" s="44"/>
+      <c r="C4378" s="43"/>
+      <c r="D4378" s="43"/>
+      <c r="E4378" s="43"/>
+      <c r="F4378" s="43"/>
+      <c r="G4378" s="43"/>
     </row>
     <row r="4379" spans="2:7">
       <c r="B4379" s="7"/>
-      <c r="C4379" s="44"/>
-      <c r="D4379" s="44"/>
-      <c r="E4379" s="44"/>
-      <c r="F4379" s="44"/>
-      <c r="G4379" s="44"/>
+      <c r="C4379" s="43"/>
+      <c r="D4379" s="43"/>
+      <c r="E4379" s="43"/>
+      <c r="F4379" s="43"/>
+      <c r="G4379" s="43"/>
     </row>
     <row r="4380" spans="2:7">
       <c r="B4380" s="7"/>
-      <c r="C4380" s="44"/>
-      <c r="D4380" s="44"/>
-      <c r="E4380" s="44"/>
-      <c r="F4380" s="44"/>
-      <c r="G4380" s="44"/>
-    </row>
-    <row r="4411" spans="2:7">
-      <c r="B4411" s="7"/>
-      <c r="D4411" s="44"/>
-      <c r="E4411" s="44"/>
-      <c r="F4411" s="44"/>
-      <c r="G4411" s="44"/>
+      <c r="C4380" s="43"/>
+      <c r="D4380" s="43"/>
+      <c r="E4380" s="43"/>
+      <c r="F4380" s="43"/>
+      <c r="G4380" s="43"/>
+    </row>
+    <row r="4381" spans="2:7">
+      <c r="B4381" s="7"/>
+      <c r="C4381" s="43"/>
+      <c r="D4381" s="43"/>
+      <c r="E4381" s="43"/>
+      <c r="F4381" s="43"/>
+      <c r="G4381" s="43"/>
     </row>
     <row r="4412" spans="2:7">
       <c r="B4412" s="7"/>
-      <c r="D4412" s="44"/>
-      <c r="E4412" s="44"/>
-      <c r="F4412" s="44"/>
-      <c r="G4412" s="44"/>
+      <c r="D4412" s="43"/>
+      <c r="E4412" s="43"/>
+      <c r="F4412" s="43"/>
+      <c r="G4412" s="43"/>
     </row>
     <row r="4413" spans="2:7">
       <c r="B4413" s="7"/>
-      <c r="D4413" s="44"/>
-      <c r="E4413" s="44"/>
-      <c r="F4413" s="44"/>
-      <c r="G4413" s="44"/>
-    </row>
-    <row r="4414" spans="2:2">
+      <c r="D4413" s="43"/>
+      <c r="E4413" s="43"/>
+      <c r="F4413" s="43"/>
+      <c r="G4413" s="43"/>
+    </row>
+    <row r="4414" spans="2:7">
       <c r="B4414" s="7"/>
+      <c r="D4414" s="43"/>
+      <c r="E4414" s="43"/>
+      <c r="F4414" s="43"/>
+      <c r="G4414" s="43"/>
     </row>
     <row r="4415" spans="2:2">
       <c r="B4415" s="7"/>
     </row>
-    <row r="4417" spans="2:2">
-      <c r="B4417" s="7"/>
-    </row>
-    <row r="4418" ht="15.75" customHeight="1" spans="2:7">
+    <row r="4416" spans="2:2">
+      <c r="B4416" s="7"/>
+    </row>
+    <row r="4418" spans="2:2">
       <c r="B4418" s="7"/>
-      <c r="D4418" s="44"/>
-      <c r="E4418" s="44"/>
-      <c r="F4418" s="44"/>
-      <c r="G4418" s="44"/>
-    </row>
-    <row r="4419" spans="2:7">
+    </row>
+    <row r="4419" ht="15.75" customHeight="1" spans="2:7">
       <c r="B4419" s="7"/>
-      <c r="D4419" s="44"/>
-      <c r="E4419" s="44"/>
-      <c r="F4419" s="44"/>
-      <c r="G4419" s="44"/>
+      <c r="D4419" s="43"/>
+      <c r="E4419" s="43"/>
+      <c r="F4419" s="43"/>
+      <c r="G4419" s="43"/>
     </row>
     <row r="4420" spans="2:7">
       <c r="B4420" s="7"/>
-      <c r="D4420" s="44"/>
-      <c r="E4420" s="44"/>
-      <c r="F4420" s="44"/>
-      <c r="G4420" s="44"/>
+      <c r="D4420" s="43"/>
+      <c r="E4420" s="43"/>
+      <c r="F4420" s="43"/>
+      <c r="G4420" s="43"/>
     </row>
     <row r="4421" spans="2:7">
       <c r="B4421" s="7"/>
-      <c r="D4421" s="44"/>
-      <c r="E4421" s="44"/>
-      <c r="F4421" s="44"/>
-      <c r="G4421" s="44"/>
+      <c r="D4421" s="43"/>
+      <c r="E4421" s="43"/>
+      <c r="F4421" s="43"/>
+      <c r="G4421" s="43"/>
     </row>
     <row r="4422" spans="2:7">
       <c r="B4422" s="7"/>
-      <c r="D4422" s="44"/>
-      <c r="E4422" s="44"/>
-      <c r="F4422" s="44"/>
-      <c r="G4422" s="44"/>
+      <c r="D4422" s="43"/>
+      <c r="E4422" s="43"/>
+      <c r="F4422" s="43"/>
+      <c r="G4422" s="43"/>
     </row>
     <row r="4423" spans="2:7">
       <c r="B4423" s="7"/>
-      <c r="D4423" s="44"/>
-      <c r="E4423" s="44"/>
-      <c r="F4423" s="44"/>
-      <c r="G4423" s="44"/>
+      <c r="D4423" s="43"/>
+      <c r="E4423" s="43"/>
+      <c r="F4423" s="43"/>
+      <c r="G4423" s="43"/>
     </row>
     <row r="4424" spans="2:7">
       <c r="B4424" s="7"/>
-      <c r="D4424" s="44"/>
-      <c r="E4424" s="44"/>
-      <c r="F4424" s="44"/>
-      <c r="G4424" s="44"/>
+      <c r="D4424" s="43"/>
+      <c r="E4424" s="43"/>
+      <c r="F4424" s="43"/>
+      <c r="G4424" s="43"/>
     </row>
     <row r="4425" spans="2:7">
       <c r="B4425" s="7"/>
-      <c r="D4425" s="44"/>
-      <c r="E4425" s="44"/>
-      <c r="F4425" s="44"/>
-      <c r="G4425" s="44"/>
+      <c r="D4425" s="43"/>
+      <c r="E4425" s="43"/>
+      <c r="F4425" s="43"/>
+      <c r="G4425" s="43"/>
     </row>
     <row r="4426" spans="2:7">
       <c r="B4426" s="7"/>
-      <c r="D4426" s="44"/>
-      <c r="E4426" s="44"/>
-      <c r="F4426" s="44"/>
-      <c r="G4426" s="44"/>
-    </row>
-    <row r="4427" spans="1:7">
-      <c r="A4427" s="23"/>
+      <c r="D4426" s="43"/>
+      <c r="E4426" s="43"/>
+      <c r="F4426" s="43"/>
+      <c r="G4426" s="43"/>
+    </row>
+    <row r="4427" spans="2:7">
       <c r="B4427" s="7"/>
-      <c r="D4427" s="44"/>
-      <c r="E4427" s="44"/>
-      <c r="F4427" s="44"/>
-      <c r="G4427" s="44"/>
+      <c r="D4427" s="43"/>
+      <c r="E4427" s="43"/>
+      <c r="F4427" s="43"/>
+      <c r="G4427" s="43"/>
     </row>
     <row r="4428" spans="1:7">
-      <c r="A4428" s="23"/>
+      <c r="A4428" s="22"/>
       <c r="B4428" s="7"/>
-      <c r="D4428" s="44"/>
-      <c r="E4428" s="44"/>
-      <c r="F4428" s="44"/>
-      <c r="G4428" s="44"/>
+      <c r="D4428" s="43"/>
+      <c r="E4428" s="43"/>
+      <c r="F4428" s="43"/>
+      <c r="G4428" s="43"/>
     </row>
     <row r="4429" spans="1:7">
-      <c r="A4429" s="23"/>
+      <c r="A4429" s="22"/>
       <c r="B4429" s="7"/>
-      <c r="D4429" s="44"/>
-      <c r="E4429" s="44"/>
-      <c r="F4429" s="44"/>
-      <c r="G4429" s="44"/>
-    </row>
-    <row r="4463" spans="2:2">
-      <c r="B4463" s="7"/>
-    </row>
-    <row r="4464" spans="2:7">
+      <c r="D4429" s="43"/>
+      <c r="E4429" s="43"/>
+      <c r="F4429" s="43"/>
+      <c r="G4429" s="43"/>
+    </row>
+    <row r="4430" spans="1:7">
+      <c r="A4430" s="22"/>
+      <c r="B4430" s="7"/>
+      <c r="D4430" s="43"/>
+      <c r="E4430" s="43"/>
+      <c r="F4430" s="43"/>
+      <c r="G4430" s="43"/>
+    </row>
+    <row r="4464" spans="2:2">
       <c r="B4464" s="7"/>
-      <c r="D4464" s="44"/>
-      <c r="E4464" s="44"/>
-      <c r="F4464" s="44"/>
-      <c r="G4464" s="44"/>
     </row>
     <row r="4465" spans="2:7">
       <c r="B4465" s="7"/>
-      <c r="D4465" s="44"/>
-      <c r="E4465" s="44"/>
-      <c r="F4465" s="44"/>
-      <c r="G4465" s="44"/>
+      <c r="D4465" s="43"/>
+      <c r="E4465" s="43"/>
+      <c r="F4465" s="43"/>
+      <c r="G4465" s="43"/>
     </row>
     <row r="4466" spans="2:7">
       <c r="B4466" s="7"/>
-      <c r="D4466" s="44"/>
-      <c r="E4466" s="44"/>
-      <c r="F4466" s="44"/>
-      <c r="G4466" s="44"/>
-    </row>
-    <row r="4467" spans="2:2">
+      <c r="D4466" s="43"/>
+      <c r="E4466" s="43"/>
+      <c r="F4466" s="43"/>
+      <c r="G4466" s="43"/>
+    </row>
+    <row r="4467" spans="2:7">
       <c r="B4467" s="7"/>
+      <c r="D4467" s="43"/>
+      <c r="E4467" s="43"/>
+      <c r="F4467" s="43"/>
+      <c r="G4467" s="43"/>
     </row>
     <row r="4468" spans="2:2">
       <c r="B4468" s="7"/>
@@ -9155,19 +9154,19 @@
     <row r="4469" spans="2:2">
       <c r="B4469" s="7"/>
     </row>
-    <row r="4470" spans="2:7">
+    <row r="4470" spans="2:2">
       <c r="B4470" s="7"/>
-      <c r="D4470" s="44"/>
-      <c r="E4470" s="44"/>
-      <c r="F4470" s="44"/>
-      <c r="G4470" s="44"/>
-    </row>
-    <row r="4472" ht="15.75" spans="1:2">
-      <c r="A4472" s="40"/>
-      <c r="B4472" s="7"/>
-    </row>
-    <row r="4476" spans="2:2">
-      <c r="B4476" s="7"/>
+    </row>
+    <row r="4471" spans="2:7">
+      <c r="B4471" s="7"/>
+      <c r="D4471" s="43"/>
+      <c r="E4471" s="43"/>
+      <c r="F4471" s="43"/>
+      <c r="G4471" s="43"/>
+    </row>
+    <row r="4473" ht="15.75" spans="1:2">
+      <c r="A4473" s="39"/>
+      <c r="B4473" s="7"/>
     </row>
     <row r="4477" spans="2:2">
       <c r="B4477" s="7"/>
@@ -9175,8 +9174,8 @@
     <row r="4478" spans="2:2">
       <c r="B4478" s="7"/>
     </row>
-    <row r="4483" spans="2:2">
-      <c r="B4483" s="7"/>
+    <row r="4479" spans="2:2">
+      <c r="B4479" s="7"/>
     </row>
     <row r="4484" spans="2:2">
       <c r="B4484" s="7"/>
@@ -9184,280 +9183,280 @@
     <row r="4485" spans="2:2">
       <c r="B4485" s="7"/>
     </row>
-    <row r="4486" ht="15.75" spans="1:2">
-      <c r="A4486" s="40"/>
+    <row r="4486" spans="2:2">
       <c r="B4486" s="7"/>
     </row>
-    <row r="4487" spans="2:7">
+    <row r="4487" ht="15.75" spans="1:2">
+      <c r="A4487" s="39"/>
       <c r="B4487" s="7"/>
-      <c r="D4487" s="44"/>
-      <c r="E4487" s="44"/>
-      <c r="F4487" s="44"/>
-      <c r="G4487" s="44"/>
     </row>
     <row r="4488" spans="2:7">
       <c r="B4488" s="7"/>
-      <c r="D4488" s="44"/>
-      <c r="E4488" s="44"/>
-      <c r="F4488" s="44"/>
-      <c r="G4488" s="44"/>
+      <c r="D4488" s="43"/>
+      <c r="E4488" s="43"/>
+      <c r="F4488" s="43"/>
+      <c r="G4488" s="43"/>
     </row>
     <row r="4489" spans="2:7">
       <c r="B4489" s="7"/>
-      <c r="D4489" s="44"/>
-      <c r="E4489" s="44"/>
-      <c r="F4489" s="44"/>
-      <c r="G4489" s="44"/>
+      <c r="D4489" s="43"/>
+      <c r="E4489" s="43"/>
+      <c r="F4489" s="43"/>
+      <c r="G4489" s="43"/>
     </row>
     <row r="4490" spans="2:7">
       <c r="B4490" s="7"/>
-      <c r="D4490" s="44"/>
-      <c r="E4490" s="44"/>
-      <c r="F4490" s="44"/>
-      <c r="G4490" s="44"/>
+      <c r="D4490" s="43"/>
+      <c r="E4490" s="43"/>
+      <c r="F4490" s="43"/>
+      <c r="G4490" s="43"/>
     </row>
     <row r="4491" spans="2:7">
       <c r="B4491" s="7"/>
-      <c r="D4491" s="44"/>
-      <c r="E4491" s="44"/>
-      <c r="F4491" s="44"/>
-      <c r="G4491" s="44"/>
+      <c r="D4491" s="43"/>
+      <c r="E4491" s="43"/>
+      <c r="F4491" s="43"/>
+      <c r="G4491" s="43"/>
     </row>
     <row r="4492" spans="2:7">
       <c r="B4492" s="7"/>
-      <c r="D4492" s="44"/>
-      <c r="E4492" s="44"/>
-      <c r="F4492" s="44"/>
-      <c r="G4492" s="44"/>
+      <c r="D4492" s="43"/>
+      <c r="E4492" s="43"/>
+      <c r="F4492" s="43"/>
+      <c r="G4492" s="43"/>
     </row>
     <row r="4493" spans="2:7">
       <c r="B4493" s="7"/>
-      <c r="D4493" s="44"/>
-      <c r="E4493" s="44"/>
-      <c r="F4493" s="44"/>
-      <c r="G4493" s="44"/>
+      <c r="D4493" s="43"/>
+      <c r="E4493" s="43"/>
+      <c r="F4493" s="43"/>
+      <c r="G4493" s="43"/>
     </row>
     <row r="4494" spans="2:7">
       <c r="B4494" s="7"/>
-      <c r="D4494" s="44"/>
-      <c r="E4494" s="44"/>
-      <c r="F4494" s="44"/>
-      <c r="G4494" s="44"/>
+      <c r="D4494" s="43"/>
+      <c r="E4494" s="43"/>
+      <c r="F4494" s="43"/>
+      <c r="G4494" s="43"/>
     </row>
     <row r="4495" spans="2:7">
       <c r="B4495" s="7"/>
-      <c r="D4495" s="44"/>
-      <c r="E4495" s="44"/>
-      <c r="F4495" s="44"/>
-      <c r="G4495" s="44"/>
+      <c r="D4495" s="43"/>
+      <c r="E4495" s="43"/>
+      <c r="F4495" s="43"/>
+      <c r="G4495" s="43"/>
     </row>
     <row r="4496" spans="2:7">
       <c r="B4496" s="7"/>
-      <c r="D4496" s="44"/>
-      <c r="E4496" s="44"/>
-      <c r="F4496" s="44"/>
-      <c r="G4496" s="44"/>
+      <c r="D4496" s="43"/>
+      <c r="E4496" s="43"/>
+      <c r="F4496" s="43"/>
+      <c r="G4496" s="43"/>
     </row>
     <row r="4497" spans="2:7">
       <c r="B4497" s="7"/>
-      <c r="D4497" s="44"/>
-      <c r="E4497" s="44"/>
-      <c r="F4497" s="44"/>
-      <c r="G4497" s="44"/>
-    </row>
-    <row r="4498" spans="1:7">
-      <c r="A4498" s="23"/>
+      <c r="D4497" s="43"/>
+      <c r="E4497" s="43"/>
+      <c r="F4497" s="43"/>
+      <c r="G4497" s="43"/>
+    </row>
+    <row r="4498" spans="2:7">
       <c r="B4498" s="7"/>
-      <c r="D4498" s="44"/>
-      <c r="E4498" s="44"/>
-      <c r="F4498" s="44"/>
-      <c r="G4498" s="44"/>
+      <c r="D4498" s="43"/>
+      <c r="E4498" s="43"/>
+      <c r="F4498" s="43"/>
+      <c r="G4498" s="43"/>
     </row>
     <row r="4499" spans="1:7">
-      <c r="A4499" s="23"/>
+      <c r="A4499" s="22"/>
       <c r="B4499" s="7"/>
-      <c r="D4499" s="44"/>
-      <c r="E4499" s="44"/>
-      <c r="F4499" s="44"/>
-      <c r="G4499" s="44"/>
+      <c r="D4499" s="43"/>
+      <c r="E4499" s="43"/>
+      <c r="F4499" s="43"/>
+      <c r="G4499" s="43"/>
     </row>
     <row r="4500" spans="1:7">
-      <c r="A4500" s="23"/>
+      <c r="A4500" s="22"/>
       <c r="B4500" s="7"/>
-      <c r="D4500" s="44"/>
-      <c r="E4500" s="44"/>
-      <c r="F4500" s="44"/>
-      <c r="G4500" s="44"/>
+      <c r="D4500" s="43"/>
+      <c r="E4500" s="43"/>
+      <c r="F4500" s="43"/>
+      <c r="G4500" s="43"/>
     </row>
     <row r="4501" spans="1:7">
-      <c r="A4501" s="23"/>
+      <c r="A4501" s="22"/>
       <c r="B4501" s="7"/>
-      <c r="D4501" s="44"/>
-      <c r="E4501" s="44"/>
-      <c r="F4501" s="44"/>
-      <c r="G4501" s="44"/>
-    </row>
-    <row r="4502" spans="2:7">
+      <c r="D4501" s="43"/>
+      <c r="E4501" s="43"/>
+      <c r="F4501" s="43"/>
+      <c r="G4501" s="43"/>
+    </row>
+    <row r="4502" spans="1:7">
+      <c r="A4502" s="22"/>
       <c r="B4502" s="7"/>
-      <c r="D4502" s="44"/>
-      <c r="E4502" s="44"/>
-      <c r="F4502" s="44"/>
-      <c r="G4502" s="44"/>
+      <c r="D4502" s="43"/>
+      <c r="E4502" s="43"/>
+      <c r="F4502" s="43"/>
+      <c r="G4502" s="43"/>
     </row>
     <row r="4503" spans="2:7">
       <c r="B4503" s="7"/>
-      <c r="D4503" s="44"/>
-      <c r="E4503" s="44"/>
-      <c r="F4503" s="44"/>
-      <c r="G4503" s="44"/>
+      <c r="D4503" s="43"/>
+      <c r="E4503" s="43"/>
+      <c r="F4503" s="43"/>
+      <c r="G4503" s="43"/>
     </row>
     <row r="4504" spans="2:7">
       <c r="B4504" s="7"/>
-      <c r="D4504" s="44"/>
-      <c r="E4504" s="44"/>
-      <c r="F4504" s="44"/>
-      <c r="G4504" s="44"/>
+      <c r="D4504" s="43"/>
+      <c r="E4504" s="43"/>
+      <c r="F4504" s="43"/>
+      <c r="G4504" s="43"/>
     </row>
     <row r="4505" spans="2:7">
       <c r="B4505" s="7"/>
-      <c r="D4505" s="44"/>
-      <c r="E4505" s="44"/>
-      <c r="F4505" s="44"/>
-      <c r="G4505" s="44"/>
-    </row>
-    <row r="4506" spans="1:2">
-      <c r="A4506" s="23"/>
+      <c r="D4505" s="43"/>
+      <c r="E4505" s="43"/>
+      <c r="F4505" s="43"/>
+      <c r="G4505" s="43"/>
+    </row>
+    <row r="4506" spans="2:7">
       <c r="B4506" s="7"/>
-    </row>
-    <row r="4507" spans="2:7">
+      <c r="D4506" s="43"/>
+      <c r="E4506" s="43"/>
+      <c r="F4506" s="43"/>
+      <c r="G4506" s="43"/>
+    </row>
+    <row r="4507" spans="1:2">
+      <c r="A4507" s="22"/>
       <c r="B4507" s="7"/>
-      <c r="D4507" s="44"/>
-      <c r="E4507" s="44"/>
-      <c r="F4507" s="44"/>
-      <c r="G4507" s="44"/>
-    </row>
-    <row r="4508" spans="2:2">
+    </row>
+    <row r="4508" spans="2:7">
       <c r="B4508" s="7"/>
-    </row>
-    <row r="4509" spans="2:7">
+      <c r="D4508" s="43"/>
+      <c r="E4508" s="43"/>
+      <c r="F4508" s="43"/>
+      <c r="G4508" s="43"/>
+    </row>
+    <row r="4509" spans="2:2">
       <c r="B4509" s="7"/>
-      <c r="D4509" s="44"/>
-      <c r="E4509" s="44"/>
-      <c r="F4509" s="44"/>
-      <c r="G4509" s="44"/>
     </row>
     <row r="4510" spans="2:7">
       <c r="B4510" s="7"/>
-      <c r="D4510" s="44"/>
-      <c r="E4510" s="44"/>
-      <c r="F4510" s="44"/>
-      <c r="G4510" s="44"/>
-    </row>
-    <row r="4511" spans="1:7">
-      <c r="A4511" s="23"/>
+      <c r="D4510" s="43"/>
+      <c r="E4510" s="43"/>
+      <c r="F4510" s="43"/>
+      <c r="G4510" s="43"/>
+    </row>
+    <row r="4511" spans="2:7">
       <c r="B4511" s="7"/>
-      <c r="D4511" s="44"/>
-      <c r="E4511" s="44"/>
-      <c r="F4511" s="44"/>
-      <c r="G4511" s="44"/>
+      <c r="D4511" s="43"/>
+      <c r="E4511" s="43"/>
+      <c r="F4511" s="43"/>
+      <c r="G4511" s="43"/>
     </row>
     <row r="4512" spans="1:7">
-      <c r="A4512" s="23"/>
-      <c r="B4512" s="24"/>
-      <c r="D4512" s="44"/>
-      <c r="E4512" s="44"/>
-      <c r="F4512" s="44"/>
-      <c r="G4512" s="44"/>
-    </row>
-    <row r="4513" spans="2:7">
-      <c r="B4513" s="7"/>
-      <c r="D4513" s="44"/>
-      <c r="E4513" s="44"/>
-      <c r="F4513" s="44"/>
-      <c r="G4513" s="44"/>
+      <c r="A4512" s="22"/>
+      <c r="B4512" s="7"/>
+      <c r="D4512" s="43"/>
+      <c r="E4512" s="43"/>
+      <c r="F4512" s="43"/>
+      <c r="G4512" s="43"/>
+    </row>
+    <row r="4513" spans="1:7">
+      <c r="A4513" s="22"/>
+      <c r="B4513" s="23"/>
+      <c r="D4513" s="43"/>
+      <c r="E4513" s="43"/>
+      <c r="F4513" s="43"/>
+      <c r="G4513" s="43"/>
     </row>
     <row r="4514" spans="2:7">
       <c r="B4514" s="7"/>
-      <c r="D4514" s="44"/>
-      <c r="E4514" s="44"/>
-      <c r="F4514" s="44"/>
-      <c r="G4514" s="44"/>
+      <c r="D4514" s="43"/>
+      <c r="E4514" s="43"/>
+      <c r="F4514" s="43"/>
+      <c r="G4514" s="43"/>
     </row>
     <row r="4515" spans="2:7">
       <c r="B4515" s="7"/>
-      <c r="D4515" s="44"/>
-      <c r="E4515" s="44"/>
-      <c r="F4515" s="44"/>
-      <c r="G4515" s="44"/>
+      <c r="D4515" s="43"/>
+      <c r="E4515" s="43"/>
+      <c r="F4515" s="43"/>
+      <c r="G4515" s="43"/>
     </row>
     <row r="4516" spans="2:7">
       <c r="B4516" s="7"/>
-      <c r="D4516" s="44"/>
-      <c r="E4516" s="44"/>
-      <c r="F4516" s="44"/>
-      <c r="G4516" s="44"/>
-    </row>
-    <row r="4518" spans="1:7">
-      <c r="A4518" s="23"/>
-      <c r="B4518" s="7"/>
-      <c r="D4518" s="44"/>
-      <c r="E4518" s="44"/>
-      <c r="F4518" s="44"/>
-      <c r="G4518" s="44"/>
+      <c r="D4516" s="43"/>
+      <c r="E4516" s="43"/>
+      <c r="F4516" s="43"/>
+      <c r="G4516" s="43"/>
+    </row>
+    <row r="4517" spans="2:7">
+      <c r="B4517" s="7"/>
+      <c r="D4517" s="43"/>
+      <c r="E4517" s="43"/>
+      <c r="F4517" s="43"/>
+      <c r="G4517" s="43"/>
     </row>
     <row r="4519" spans="1:7">
-      <c r="A4519" s="23"/>
+      <c r="A4519" s="22"/>
       <c r="B4519" s="7"/>
-      <c r="D4519" s="44"/>
-      <c r="E4519" s="44"/>
-      <c r="F4519" s="44"/>
-      <c r="G4519" s="44"/>
+      <c r="D4519" s="43"/>
+      <c r="E4519" s="43"/>
+      <c r="F4519" s="43"/>
+      <c r="G4519" s="43"/>
     </row>
     <row r="4520" spans="1:7">
-      <c r="A4520" s="23"/>
+      <c r="A4520" s="22"/>
       <c r="B4520" s="7"/>
-      <c r="D4520" s="44"/>
-      <c r="E4520" s="44"/>
-      <c r="F4520" s="44"/>
-      <c r="G4520" s="44"/>
-    </row>
-    <row r="4524" ht="20.25" customHeight="1" spans="2:2">
-      <c r="B4524" s="7"/>
-    </row>
-    <row r="4525" spans="1:7">
-      <c r="A4525" s="23"/>
+      <c r="D4520" s="43"/>
+      <c r="E4520" s="43"/>
+      <c r="F4520" s="43"/>
+      <c r="G4520" s="43"/>
+    </row>
+    <row r="4521" spans="1:7">
+      <c r="A4521" s="22"/>
+      <c r="B4521" s="7"/>
+      <c r="D4521" s="43"/>
+      <c r="E4521" s="43"/>
+      <c r="F4521" s="43"/>
+      <c r="G4521" s="43"/>
+    </row>
+    <row r="4525" ht="20.25" customHeight="1" spans="2:2">
       <c r="B4525" s="7"/>
-      <c r="D4525" s="44"/>
-      <c r="E4525" s="44"/>
-      <c r="F4525" s="44"/>
-      <c r="G4525" s="44"/>
     </row>
     <row r="4526" spans="1:7">
-      <c r="A4526" s="23"/>
+      <c r="A4526" s="22"/>
       <c r="B4526" s="7"/>
-      <c r="D4526" s="44"/>
-      <c r="E4526" s="44"/>
-      <c r="F4526" s="44"/>
-      <c r="G4526" s="44"/>
-    </row>
-    <row r="4527" spans="2:2">
+      <c r="D4526" s="43"/>
+      <c r="E4526" s="43"/>
+      <c r="F4526" s="43"/>
+      <c r="G4526" s="43"/>
+    </row>
+    <row r="4527" spans="1:7">
+      <c r="A4527" s="22"/>
       <c r="B4527" s="7"/>
-    </row>
-    <row r="4536" spans="2:2">
-      <c r="B4536" s="31"/>
-    </row>
-    <row r="4537" spans="2:3">
-      <c r="B4537" s="31"/>
-      <c r="C4537" s="7"/>
-    </row>
-    <row r="4538" spans="3:3">
+      <c r="D4527" s="43"/>
+      <c r="E4527" s="43"/>
+      <c r="F4527" s="43"/>
+      <c r="G4527" s="43"/>
+    </row>
+    <row r="4528" spans="2:2">
+      <c r="B4528" s="7"/>
+    </row>
+    <row r="4537" spans="2:2">
+      <c r="B4537" s="30"/>
+    </row>
+    <row r="4538" spans="2:3">
+      <c r="B4538" s="30"/>
       <c r="C4538" s="7"/>
     </row>
     <row r="4539" spans="3:3">
       <c r="C4539" s="7"/>
     </row>
-    <row r="4540" spans="2:2">
-      <c r="B4540" s="7"/>
+    <row r="4540" spans="3:3">
+      <c r="C4540" s="7"/>
     </row>
     <row r="4541" spans="2:2">
       <c r="B4541" s="7"/>
@@ -9483,23 +9482,23 @@
     <row r="4548" spans="2:2">
       <c r="B4548" s="7"/>
     </row>
-    <row r="4614" spans="2:2">
-      <c r="B4614" s="7"/>
+    <row r="4549" spans="2:2">
+      <c r="B4549" s="7"/>
     </row>
     <row r="4615" spans="2:2">
       <c r="B4615" s="7"/>
     </row>
-    <row r="4617" spans="2:2">
-      <c r="B4617" s="7"/>
+    <row r="4616" spans="2:2">
+      <c r="B4616" s="7"/>
     </row>
     <row r="4618" spans="2:2">
       <c r="B4618" s="7"/>
     </row>
-    <row r="4620" spans="2:2">
-      <c r="B4620" s="7"/>
-    </row>
-    <row r="4646" spans="2:2">
-      <c r="B4646" s="7"/>
+    <row r="4619" spans="2:2">
+      <c r="B4619" s="7"/>
+    </row>
+    <row r="4621" spans="2:2">
+      <c r="B4621" s="7"/>
     </row>
     <row r="4647" spans="2:2">
       <c r="B4647" s="7"/>
@@ -9519,11 +9518,11 @@
     <row r="4652" spans="2:2">
       <c r="B4652" s="7"/>
     </row>
-    <row r="4657" spans="2:2">
-      <c r="B4657" s="7"/>
-    </row>
-    <row r="4660" spans="2:2">
-      <c r="B4660" s="7"/>
+    <row r="4653" spans="2:2">
+      <c r="B4653" s="7"/>
+    </row>
+    <row r="4658" spans="2:2">
+      <c r="B4658" s="7"/>
     </row>
     <row r="4661" spans="2:2">
       <c r="B4661" s="7"/>
@@ -9531,39 +9530,39 @@
     <row r="4662" spans="2:2">
       <c r="B4662" s="7"/>
     </row>
-    <row r="4665" spans="2:2">
-      <c r="B4665" s="7"/>
-    </row>
-    <row r="4674" spans="2:2">
-      <c r="B4674" s="7"/>
-    </row>
-    <row r="4676" spans="2:2">
-      <c r="B4676" s="7"/>
-    </row>
-    <row r="4684" spans="1:2">
-      <c r="A4684" s="23"/>
-      <c r="B4684" s="7"/>
+    <row r="4663" spans="2:2">
+      <c r="B4663" s="7"/>
+    </row>
+    <row r="4666" spans="2:2">
+      <c r="B4666" s="7"/>
+    </row>
+    <row r="4675" spans="2:2">
+      <c r="B4675" s="7"/>
+    </row>
+    <row r="4677" spans="2:2">
+      <c r="B4677" s="7"/>
     </row>
     <row r="4685" spans="1:2">
-      <c r="A4685" s="23"/>
+      <c r="A4685" s="22"/>
       <c r="B4685" s="7"/>
     </row>
-    <row r="4686" spans="2:2">
+    <row r="4686" spans="1:2">
+      <c r="A4686" s="22"/>
       <c r="B4686" s="7"/>
     </row>
-    <row r="4687" spans="1:2">
-      <c r="A4687" s="23"/>
+    <row r="4687" spans="2:2">
       <c r="B4687" s="7"/>
     </row>
     <row r="4688" spans="1:2">
-      <c r="A4688" s="23"/>
+      <c r="A4688" s="22"/>
       <c r="B4688" s="7"/>
     </row>
-    <row r="4689" spans="2:2">
+    <row r="4689" spans="1:2">
+      <c r="A4689" s="22"/>
       <c r="B4689" s="7"/>
     </row>
-    <row r="4706" spans="2:2">
-      <c r="B4706" s="7"/>
+    <row r="4690" spans="2:2">
+      <c r="B4690" s="7"/>
     </row>
     <row r="4707" spans="2:2">
       <c r="B4707" s="7"/>
@@ -9574,8 +9573,8 @@
     <row r="4709" spans="2:2">
       <c r="B4709" s="7"/>
     </row>
-    <row r="4714" spans="2:2">
-      <c r="B4714" s="7"/>
+    <row r="4710" spans="2:2">
+      <c r="B4710" s="7"/>
     </row>
     <row r="4715" spans="2:2">
       <c r="B4715" s="7"/>
@@ -9598,8 +9597,8 @@
     <row r="4721" spans="2:2">
       <c r="B4721" s="7"/>
     </row>
-    <row r="4731" spans="2:2">
-      <c r="B4731" s="7"/>
+    <row r="4722" spans="2:2">
+      <c r="B4722" s="7"/>
     </row>
     <row r="4732" spans="2:2">
       <c r="B4732" s="7"/>
@@ -9607,37 +9606,37 @@
     <row r="4733" spans="2:2">
       <c r="B4733" s="7"/>
     </row>
-    <row r="4736" spans="1:2">
-      <c r="A4736" s="23"/>
-      <c r="B4736" s="7"/>
+    <row r="4734" spans="2:2">
+      <c r="B4734" s="7"/>
     </row>
     <row r="4737" spans="1:2">
-      <c r="A4737" s="23"/>
+      <c r="A4737" s="22"/>
       <c r="B4737" s="7"/>
     </row>
-    <row r="4750" spans="2:7">
-      <c r="B4750" s="7"/>
-      <c r="D4750" s="44"/>
-      <c r="E4750" s="44"/>
-      <c r="F4750" s="44"/>
-      <c r="G4750" s="44"/>
+    <row r="4738" spans="1:2">
+      <c r="A4738" s="22"/>
+      <c r="B4738" s="7"/>
     </row>
     <row r="4751" spans="2:7">
       <c r="B4751" s="7"/>
-      <c r="D4751" s="44"/>
-      <c r="E4751" s="44"/>
-      <c r="F4751" s="44"/>
-      <c r="G4751" s="44"/>
+      <c r="D4751" s="43"/>
+      <c r="E4751" s="43"/>
+      <c r="F4751" s="43"/>
+      <c r="G4751" s="43"/>
     </row>
     <row r="4752" spans="2:7">
       <c r="B4752" s="7"/>
-      <c r="D4752" s="44"/>
-      <c r="E4752" s="44"/>
-      <c r="F4752" s="44"/>
-      <c r="G4752" s="44"/>
-    </row>
-    <row r="4753" spans="2:2">
+      <c r="D4752" s="43"/>
+      <c r="E4752" s="43"/>
+      <c r="F4752" s="43"/>
+      <c r="G4752" s="43"/>
+    </row>
+    <row r="4753" spans="2:7">
       <c r="B4753" s="7"/>
+      <c r="D4753" s="43"/>
+      <c r="E4753" s="43"/>
+      <c r="F4753" s="43"/>
+      <c r="G4753" s="43"/>
     </row>
     <row r="4754" spans="2:2">
       <c r="B4754" s="7"/>
@@ -9645,8 +9644,8 @@
     <row r="4755" spans="2:2">
       <c r="B4755" s="7"/>
     </row>
-    <row r="4816" spans="2:2">
-      <c r="B4816" s="7"/>
+    <row r="4756" spans="2:2">
+      <c r="B4756" s="7"/>
     </row>
     <row r="4817" spans="2:2">
       <c r="B4817" s="7"/>
@@ -9654,8 +9653,8 @@
     <row r="4818" spans="2:2">
       <c r="B4818" s="7"/>
     </row>
-    <row r="4827" spans="2:2">
-      <c r="B4827" s="7"/>
+    <row r="4819" spans="2:2">
+      <c r="B4819" s="7"/>
     </row>
     <row r="4828" spans="2:2">
       <c r="B4828" s="7"/>
@@ -9666,24 +9665,24 @@
     <row r="4830" spans="2:2">
       <c r="B4830" s="7"/>
     </row>
-    <row r="4871" spans="2:7">
-      <c r="B4871" s="31"/>
-      <c r="C4871" s="31"/>
-      <c r="D4871" s="31"/>
-      <c r="E4871" s="31"/>
-      <c r="F4871" s="31"/>
-      <c r="G4871" s="31"/>
+    <row r="4831" spans="2:2">
+      <c r="B4831" s="7"/>
     </row>
     <row r="4872" spans="2:7">
-      <c r="B4872" s="31"/>
-      <c r="C4872" s="31"/>
-      <c r="D4872" s="31"/>
-      <c r="E4872" s="31"/>
-      <c r="F4872" s="31"/>
-      <c r="G4872" s="31"/>
-    </row>
-    <row r="4893" spans="2:2">
-      <c r="B4893" s="7"/>
+      <c r="B4872" s="30"/>
+      <c r="C4872" s="30"/>
+      <c r="D4872" s="30"/>
+      <c r="E4872" s="30"/>
+      <c r="F4872" s="30"/>
+      <c r="G4872" s="30"/>
+    </row>
+    <row r="4873" spans="2:7">
+      <c r="B4873" s="30"/>
+      <c r="C4873" s="30"/>
+      <c r="D4873" s="30"/>
+      <c r="E4873" s="30"/>
+      <c r="F4873" s="30"/>
+      <c r="G4873" s="30"/>
     </row>
     <row r="4894" spans="2:2">
       <c r="B4894" s="7"/>
@@ -9697,17 +9696,17 @@
     <row r="4897" spans="2:2">
       <c r="B4897" s="7"/>
     </row>
-    <row r="4900" spans="2:2">
-      <c r="B4900" s="7"/>
+    <row r="4898" spans="2:2">
+      <c r="B4898" s="7"/>
     </row>
     <row r="4901" spans="2:2">
       <c r="B4901" s="7"/>
     </row>
-    <row r="4904" spans="2:2">
-      <c r="B4904" s="45"/>
-    </row>
-    <row r="4919" spans="2:2">
-      <c r="B4919" s="7"/>
+    <row r="4902" spans="2:2">
+      <c r="B4902" s="7"/>
+    </row>
+    <row r="4905" spans="2:2">
+      <c r="B4905" s="44"/>
     </row>
     <row r="4920" spans="2:2">
       <c r="B4920" s="7"/>
@@ -9742,8 +9741,8 @@
     <row r="4930" spans="2:2">
       <c r="B4930" s="7"/>
     </row>
-    <row r="4933" spans="2:2">
-      <c r="B4933" s="7"/>
+    <row r="4931" spans="2:2">
+      <c r="B4931" s="7"/>
     </row>
     <row r="4934" spans="2:2">
       <c r="B4934" s="7"/>
@@ -9754,11 +9753,11 @@
     <row r="4936" spans="2:2">
       <c r="B4936" s="7"/>
     </row>
-    <row r="4938" spans="2:2">
-      <c r="B4938" s="7"/>
-    </row>
-    <row r="4942" spans="2:2">
-      <c r="B4942" s="7"/>
+    <row r="4937" spans="2:2">
+      <c r="B4937" s="7"/>
+    </row>
+    <row r="4939" spans="2:2">
+      <c r="B4939" s="7"/>
     </row>
     <row r="4943" spans="2:2">
       <c r="B4943" s="7"/>
@@ -9766,8 +9765,8 @@
     <row r="4944" spans="2:2">
       <c r="B4944" s="7"/>
     </row>
-    <row r="4955" spans="2:2">
-      <c r="B4955" s="7"/>
+    <row r="4945" spans="2:2">
+      <c r="B4945" s="7"/>
     </row>
     <row r="4956" spans="2:2">
       <c r="B4956" s="7"/>
@@ -9790,15 +9789,15 @@
     <row r="4962" spans="2:2">
       <c r="B4962" s="7"/>
     </row>
-    <row r="4963" spans="2:3">
+    <row r="4963" spans="2:2">
       <c r="B4963" s="7"/>
-      <c r="C4963" s="7"/>
-    </row>
-    <row r="4967" spans="2:2">
-      <c r="B4967" s="37"/>
+    </row>
+    <row r="4964" spans="2:3">
+      <c r="B4964" s="7"/>
+      <c r="C4964" s="7"/>
     </row>
     <row r="4968" spans="2:2">
-      <c r="B4968" s="7"/>
+      <c r="B4968" s="36"/>
     </row>
     <row r="4969" spans="2:2">
       <c r="B4969" s="7"/>
@@ -9831,10 +9830,10 @@
       <c r="B4978" s="7"/>
     </row>
     <row r="4979" spans="2:2">
-      <c r="B4979" s="37"/>
+      <c r="B4979" s="7"/>
     </row>
     <row r="4980" spans="2:2">
-      <c r="B4980" s="7"/>
+      <c r="B4980" s="36"/>
     </row>
     <row r="4981" spans="2:2">
       <c r="B4981" s="7"/>
@@ -9872,17 +9871,17 @@
     <row r="4992" spans="2:2">
       <c r="B4992" s="7"/>
     </row>
-    <row r="4994" spans="2:2">
-      <c r="B4994" s="7"/>
+    <row r="4993" spans="2:2">
+      <c r="B4993" s="7"/>
     </row>
     <row r="4995" spans="2:2">
       <c r="B4995" s="7"/>
     </row>
     <row r="4996" spans="2:2">
-      <c r="B4996" s="37"/>
+      <c r="B4996" s="7"/>
     </row>
     <row r="4997" spans="2:2">
-      <c r="B4997" s="7"/>
+      <c r="B4997" s="36"/>
     </row>
     <row r="4998" spans="2:2">
       <c r="B4998" s="7"/>
@@ -9917,13 +9916,12 @@
     <row r="5008" spans="2:2">
       <c r="B5008" s="7"/>
     </row>
-    <row r="5009" spans="2:3">
+    <row r="5009" spans="2:2">
       <c r="B5009" s="7"/>
-      <c r="C5009" s="46"/>
     </row>
     <row r="5010" spans="2:3">
       <c r="B5010" s="7"/>
-      <c r="C5010" s="7"/>
+      <c r="C5010" s="45"/>
     </row>
     <row r="5011" spans="2:3">
       <c r="B5011" s="7"/>
@@ -9933,19 +9931,20 @@
       <c r="B5012" s="7"/>
       <c r="C5012" s="7"/>
     </row>
-    <row r="5014" spans="2:3">
-      <c r="B5014" s="7"/>
-      <c r="C5014" s="7"/>
-    </row>
-    <row r="5015" spans="2:2">
-      <c r="B5015" s="24"/>
-    </row>
-    <row r="5016" spans="2:3">
-      <c r="B5016" s="24"/>
-      <c r="C5016" s="24"/>
-    </row>
-    <row r="5017" spans="2:2">
-      <c r="B5017" s="7"/>
+    <row r="5013" spans="2:3">
+      <c r="B5013" s="7"/>
+      <c r="C5013" s="7"/>
+    </row>
+    <row r="5015" spans="2:3">
+      <c r="B5015" s="7"/>
+      <c r="C5015" s="7"/>
+    </row>
+    <row r="5016" spans="2:2">
+      <c r="B5016" s="23"/>
+    </row>
+    <row r="5017" spans="2:3">
+      <c r="B5017" s="23"/>
+      <c r="C5017" s="23"/>
     </row>
     <row r="5018" spans="2:2">
       <c r="B5018" s="7"/>
@@ -10055,8 +10054,8 @@
     <row r="5053" spans="2:2">
       <c r="B5053" s="7"/>
     </row>
-    <row r="5059" spans="2:2">
-      <c r="B5059" s="7"/>
+    <row r="5054" spans="2:2">
+      <c r="B5054" s="7"/>
     </row>
     <row r="5060" spans="2:2">
       <c r="B5060" s="7"/>
@@ -10068,10 +10067,10 @@
       <c r="B5062" s="7"/>
     </row>
     <row r="5063" spans="2:2">
-      <c r="B5063" s="31"/>
+      <c r="B5063" s="7"/>
     </row>
     <row r="5064" spans="2:2">
-      <c r="B5064" s="7"/>
+      <c r="B5064" s="30"/>
     </row>
     <row r="5065" spans="2:2">
       <c r="B5065" s="7"/>
@@ -10085,8 +10084,8 @@
     <row r="5068" spans="2:2">
       <c r="B5068" s="7"/>
     </row>
-    <row r="5070" spans="2:2">
-      <c r="B5070" s="7"/>
+    <row r="5069" spans="2:2">
+      <c r="B5069" s="7"/>
     </row>
     <row r="5071" spans="2:2">
       <c r="B5071" s="7"/>
@@ -10103,17 +10102,17 @@
     <row r="5075" spans="2:2">
       <c r="B5075" s="7"/>
     </row>
-    <row r="5077" spans="2:2">
-      <c r="B5077" s="7"/>
+    <row r="5076" spans="2:2">
+      <c r="B5076" s="7"/>
     </row>
     <row r="5078" spans="2:2">
       <c r="B5078" s="7"/>
     </row>
-    <row r="5080" ht="15.75" spans="1:2">
-      <c r="A5080" s="40"/>
-      <c r="B5080" s="7"/>
-    </row>
-    <row r="5081" spans="2:2">
+    <row r="5079" spans="2:2">
+      <c r="B5079" s="7"/>
+    </row>
+    <row r="5081" ht="15.75" spans="1:2">
+      <c r="A5081" s="39"/>
       <c r="B5081" s="7"/>
     </row>
     <row r="5082" spans="2:2">
@@ -10122,14 +10121,14 @@
     <row r="5083" spans="2:2">
       <c r="B5083" s="7"/>
     </row>
-    <row r="5086" spans="2:2">
-      <c r="B5086" s="7"/>
+    <row r="5084" spans="2:2">
+      <c r="B5084" s="7"/>
     </row>
     <row r="5087" spans="2:2">
       <c r="B5087" s="7"/>
     </row>
-    <row r="5090" spans="2:2">
-      <c r="B5090" s="7"/>
+    <row r="5088" spans="2:2">
+      <c r="B5088" s="7"/>
     </row>
     <row r="5091" spans="2:2">
       <c r="B5091" s="7"/>
@@ -10137,8 +10136,8 @@
     <row r="5092" spans="2:2">
       <c r="B5092" s="7"/>
     </row>
-    <row r="5131" spans="2:2">
-      <c r="B5131" s="7"/>
+    <row r="5093" spans="2:2">
+      <c r="B5093" s="7"/>
     </row>
     <row r="5132" spans="2:2">
       <c r="B5132" s="7"/>
@@ -10161,88 +10160,88 @@
     <row r="5138" spans="2:2">
       <c r="B5138" s="7"/>
     </row>
-    <row r="5139" spans="2:7">
-      <c r="B5139" s="31"/>
-      <c r="C5139" s="31"/>
-      <c r="D5139" s="31"/>
-      <c r="E5139" s="31"/>
-      <c r="F5139" s="31"/>
-      <c r="G5139" s="31"/>
+    <row r="5139" spans="2:2">
+      <c r="B5139" s="7"/>
     </row>
     <row r="5140" spans="2:7">
-      <c r="B5140" s="31"/>
-      <c r="C5140" s="31"/>
-      <c r="D5140" s="31"/>
-      <c r="E5140" s="31"/>
-      <c r="F5140" s="31"/>
-      <c r="G5140" s="31"/>
+      <c r="B5140" s="30"/>
+      <c r="C5140" s="30"/>
+      <c r="D5140" s="30"/>
+      <c r="E5140" s="30"/>
+      <c r="F5140" s="30"/>
+      <c r="G5140" s="30"/>
     </row>
     <row r="5141" spans="2:7">
-      <c r="B5141" s="31"/>
-      <c r="C5141" s="31"/>
-      <c r="D5141" s="31"/>
-      <c r="E5141" s="31"/>
-      <c r="F5141" s="31"/>
-      <c r="G5141" s="31"/>
+      <c r="B5141" s="30"/>
+      <c r="C5141" s="30"/>
+      <c r="D5141" s="30"/>
+      <c r="E5141" s="30"/>
+      <c r="F5141" s="30"/>
+      <c r="G5141" s="30"/>
     </row>
     <row r="5142" spans="2:7">
-      <c r="B5142" s="31"/>
-      <c r="C5142" s="31"/>
-      <c r="D5142" s="31"/>
-      <c r="E5142" s="31"/>
-      <c r="F5142" s="31"/>
-      <c r="G5142" s="31"/>
+      <c r="B5142" s="30"/>
+      <c r="C5142" s="30"/>
+      <c r="D5142" s="30"/>
+      <c r="E5142" s="30"/>
+      <c r="F5142" s="30"/>
+      <c r="G5142" s="30"/>
     </row>
     <row r="5143" spans="2:7">
-      <c r="B5143" s="31"/>
-      <c r="C5143" s="31"/>
-      <c r="D5143" s="31"/>
-      <c r="E5143" s="31"/>
-      <c r="F5143" s="31"/>
-      <c r="G5143" s="31"/>
+      <c r="B5143" s="30"/>
+      <c r="C5143" s="30"/>
+      <c r="D5143" s="30"/>
+      <c r="E5143" s="30"/>
+      <c r="F5143" s="30"/>
+      <c r="G5143" s="30"/>
     </row>
     <row r="5144" spans="2:7">
-      <c r="B5144" s="31"/>
-      <c r="C5144" s="31"/>
-      <c r="D5144" s="31"/>
-      <c r="E5144" s="31"/>
-      <c r="F5144" s="31"/>
-      <c r="G5144" s="31"/>
+      <c r="B5144" s="30"/>
+      <c r="C5144" s="30"/>
+      <c r="D5144" s="30"/>
+      <c r="E5144" s="30"/>
+      <c r="F5144" s="30"/>
+      <c r="G5144" s="30"/>
     </row>
     <row r="5145" spans="2:7">
-      <c r="B5145" s="31"/>
-      <c r="C5145" s="31"/>
-      <c r="D5145" s="31"/>
-      <c r="E5145" s="31"/>
-      <c r="F5145" s="31"/>
-      <c r="G5145" s="31"/>
+      <c r="B5145" s="30"/>
+      <c r="C5145" s="30"/>
+      <c r="D5145" s="30"/>
+      <c r="E5145" s="30"/>
+      <c r="F5145" s="30"/>
+      <c r="G5145" s="30"/>
     </row>
     <row r="5146" spans="2:7">
-      <c r="B5146" s="31"/>
-      <c r="C5146" s="31"/>
-      <c r="D5146" s="31"/>
-      <c r="E5146" s="31"/>
-      <c r="F5146" s="31"/>
-      <c r="G5146" s="31"/>
+      <c r="B5146" s="30"/>
+      <c r="C5146" s="30"/>
+      <c r="D5146" s="30"/>
+      <c r="E5146" s="30"/>
+      <c r="F5146" s="30"/>
+      <c r="G5146" s="30"/>
     </row>
     <row r="5147" spans="2:7">
-      <c r="B5147" s="31"/>
-      <c r="C5147" s="31"/>
-      <c r="D5147" s="31"/>
-      <c r="E5147" s="31"/>
-      <c r="F5147" s="31"/>
-      <c r="G5147" s="31"/>
+      <c r="B5147" s="30"/>
+      <c r="C5147" s="30"/>
+      <c r="D5147" s="30"/>
+      <c r="E5147" s="30"/>
+      <c r="F5147" s="30"/>
+      <c r="G5147" s="30"/>
     </row>
     <row r="5148" spans="2:7">
-      <c r="B5148" s="31"/>
-      <c r="C5148" s="31"/>
-      <c r="D5148" s="31"/>
-      <c r="E5148" s="31"/>
-      <c r="F5148" s="31"/>
-      <c r="G5148" s="31"/>
-    </row>
-    <row r="5149" spans="2:2">
-      <c r="B5149" s="7"/>
+      <c r="B5148" s="30"/>
+      <c r="C5148" s="30"/>
+      <c r="D5148" s="30"/>
+      <c r="E5148" s="30"/>
+      <c r="F5148" s="30"/>
+      <c r="G5148" s="30"/>
+    </row>
+    <row r="5149" spans="2:7">
+      <c r="B5149" s="30"/>
+      <c r="C5149" s="30"/>
+      <c r="D5149" s="30"/>
+      <c r="E5149" s="30"/>
+      <c r="F5149" s="30"/>
+      <c r="G5149" s="30"/>
     </row>
     <row r="5150" spans="2:2">
       <c r="B5150" s="7"/>
@@ -10271,33 +10270,33 @@
     <row r="5158" spans="2:2">
       <c r="B5158" s="7"/>
     </row>
-    <row r="5165" spans="2:2">
-      <c r="B5165" s="7"/>
-    </row>
-    <row r="5167" spans="2:2">
-      <c r="B5167" s="7"/>
+    <row r="5159" spans="2:2">
+      <c r="B5159" s="7"/>
+    </row>
+    <row r="5166" spans="2:2">
+      <c r="B5166" s="7"/>
     </row>
     <row r="5168" spans="2:2">
       <c r="B5168" s="7"/>
     </row>
-    <row r="5197" spans="3:3">
-      <c r="C5197" s="7"/>
-    </row>
-    <row r="5198" ht="15.75" spans="1:2">
-      <c r="A5198" s="40"/>
-      <c r="B5198" s="7"/>
-    </row>
-    <row r="5199" spans="2:2">
+    <row r="5169" spans="2:2">
+      <c r="B5169" s="7"/>
+    </row>
+    <row r="5198" spans="3:3">
+      <c r="C5198" s="7"/>
+    </row>
+    <row r="5199" ht="15.75" spans="1:2">
+      <c r="A5199" s="39"/>
       <c r="B5199" s="7"/>
     </row>
-    <row r="5202" spans="2:2">
-      <c r="B5202" s="7"/>
+    <row r="5200" spans="2:2">
+      <c r="B5200" s="7"/>
     </row>
     <row r="5203" spans="2:2">
       <c r="B5203" s="7"/>
     </row>
-    <row r="5206" spans="2:2">
-      <c r="B5206" s="7"/>
+    <row r="5204" spans="2:2">
+      <c r="B5204" s="7"/>
     </row>
     <row r="5207" spans="2:2">
       <c r="B5207" s="7"/>
@@ -10308,8 +10307,8 @@
     <row r="5209" spans="2:2">
       <c r="B5209" s="7"/>
     </row>
-    <row r="5213" spans="2:2">
-      <c r="B5213" s="7"/>
+    <row r="5210" spans="2:2">
+      <c r="B5210" s="7"/>
     </row>
     <row r="5214" spans="2:2">
       <c r="B5214" s="7"/>
@@ -10320,30 +10319,30 @@
     <row r="5216" spans="2:2">
       <c r="B5216" s="7"/>
     </row>
-    <row r="5220" spans="2:2">
-      <c r="B5220" s="7"/>
-    </row>
-    <row r="5221" spans="1:2">
-      <c r="A5221" s="23"/>
+    <row r="5217" spans="2:2">
+      <c r="B5217" s="7"/>
+    </row>
+    <row r="5221" spans="2:2">
       <c r="B5221" s="7"/>
     </row>
-    <row r="5222" spans="2:2">
+    <row r="5222" spans="1:2">
+      <c r="A5222" s="22"/>
       <c r="B5222" s="7"/>
     </row>
-    <row r="5223" spans="1:2">
-      <c r="A5223" s="23"/>
+    <row r="5223" spans="2:2">
       <c r="B5223" s="7"/>
     </row>
     <row r="5224" spans="1:2">
-      <c r="A5224" s="23"/>
+      <c r="A5224" s="22"/>
       <c r="B5224" s="7"/>
     </row>
-    <row r="5225" ht="15.75" spans="1:2">
-      <c r="A5225" s="40"/>
+    <row r="5225" spans="1:2">
+      <c r="A5225" s="22"/>
       <c r="B5225" s="7"/>
     </row>
-    <row r="5232" spans="2:2">
-      <c r="B5232" s="7"/>
+    <row r="5226" ht="15.75" spans="1:2">
+      <c r="A5226" s="39"/>
+      <c r="B5226" s="7"/>
     </row>
     <row r="5233" spans="2:2">
       <c r="B5233" s="7"/>
@@ -10357,23 +10356,23 @@
     <row r="5236" spans="2:2">
       <c r="B5236" s="7"/>
     </row>
-    <row r="5238" spans="2:2">
-      <c r="B5238" s="7"/>
-    </row>
-    <row r="5260" spans="2:2">
-      <c r="B5260" s="7"/>
-    </row>
-    <row r="5266" spans="2:2">
-      <c r="B5266" s="7"/>
-    </row>
-    <row r="5268" spans="2:2">
-      <c r="B5268" s="7"/>
+    <row r="5237" spans="2:2">
+      <c r="B5237" s="7"/>
+    </row>
+    <row r="5239" spans="2:2">
+      <c r="B5239" s="7"/>
+    </row>
+    <row r="5261" spans="2:2">
+      <c r="B5261" s="7"/>
+    </row>
+    <row r="5267" spans="2:2">
+      <c r="B5267" s="7"/>
     </row>
     <row r="5269" spans="2:2">
       <c r="B5269" s="7"/>
     </row>
-    <row r="5275" spans="2:2">
-      <c r="B5275" s="7"/>
+    <row r="5270" spans="2:2">
+      <c r="B5270" s="7"/>
     </row>
     <row r="5276" spans="2:2">
       <c r="B5276" s="7"/>
@@ -10385,10 +10384,10 @@
       <c r="B5278" s="7"/>
     </row>
     <row r="5279" spans="2:2">
-      <c r="B5279" s="5"/>
-    </row>
-    <row r="5282" spans="2:2">
-      <c r="B5282" s="7"/>
+      <c r="B5279" s="7"/>
+    </row>
+    <row r="5280" spans="2:2">
+      <c r="B5280" s="5"/>
     </row>
     <row r="5283" spans="2:2">
       <c r="B5283" s="7"/>
@@ -10402,8 +10401,8 @@
     <row r="5286" spans="2:2">
       <c r="B5286" s="7"/>
     </row>
-    <row r="5291" spans="2:2">
-      <c r="B5291" s="7"/>
+    <row r="5287" spans="2:2">
+      <c r="B5287" s="7"/>
     </row>
     <row r="5292" spans="2:2">
       <c r="B5292" s="7"/>
@@ -10441,14 +10440,14 @@
     <row r="5303" spans="2:2">
       <c r="B5303" s="7"/>
     </row>
-    <row r="5313" spans="2:2">
-      <c r="B5313" s="7"/>
+    <row r="5304" spans="2:2">
+      <c r="B5304" s="7"/>
     </row>
     <row r="5314" spans="2:2">
       <c r="B5314" s="7"/>
     </row>
-    <row r="5316" spans="2:2">
-      <c r="B5316" s="7"/>
+    <row r="5315" spans="2:2">
+      <c r="B5315" s="7"/>
     </row>
     <row r="5317" spans="2:2">
       <c r="B5317" s="7"/>
@@ -10456,17 +10455,17 @@
     <row r="5318" spans="2:2">
       <c r="B5318" s="7"/>
     </row>
-    <row r="5326" spans="2:2">
-      <c r="B5326" s="7"/>
-    </row>
-    <row r="5337" spans="2:2">
-      <c r="B5337" s="7"/>
-    </row>
-    <row r="5342" spans="2:2">
-      <c r="B5342" s="7"/>
-    </row>
-    <row r="5353" spans="2:2">
-      <c r="B5353" s="7"/>
+    <row r="5319" spans="2:2">
+      <c r="B5319" s="7"/>
+    </row>
+    <row r="5327" spans="2:2">
+      <c r="B5327" s="7"/>
+    </row>
+    <row r="5338" spans="2:2">
+      <c r="B5338" s="7"/>
+    </row>
+    <row r="5343" spans="2:2">
+      <c r="B5343" s="7"/>
     </row>
     <row r="5354" spans="2:2">
       <c r="B5354" s="7"/>
@@ -10474,8 +10473,8 @@
     <row r="5355" spans="2:2">
       <c r="B5355" s="7"/>
     </row>
-    <row r="5357" spans="2:2">
-      <c r="B5357" s="7"/>
+    <row r="5356" spans="2:2">
+      <c r="B5356" s="7"/>
     </row>
     <row r="5358" spans="2:2">
       <c r="B5358" s="7"/>
@@ -10486,8 +10485,8 @@
     <row r="5360" spans="2:2">
       <c r="B5360" s="7"/>
     </row>
-    <row r="5362" spans="2:2">
-      <c r="B5362" s="7"/>
+    <row r="5361" spans="2:2">
+      <c r="B5361" s="7"/>
     </row>
     <row r="5363" spans="2:2">
       <c r="B5363" s="7"/>
@@ -10501,8 +10500,8 @@
     <row r="5366" spans="2:2">
       <c r="B5366" s="7"/>
     </row>
-    <row r="5369" spans="2:2">
-      <c r="B5369" s="7"/>
+    <row r="5367" spans="2:2">
+      <c r="B5367" s="7"/>
     </row>
     <row r="5370" spans="2:2">
       <c r="B5370" s="7"/>
@@ -10549,46 +10548,46 @@
     <row r="5384" spans="2:2">
       <c r="B5384" s="7"/>
     </row>
-    <row r="5399" spans="2:2">
-      <c r="B5399" s="7"/>
+    <row r="5385" spans="2:2">
+      <c r="B5385" s="7"/>
     </row>
     <row r="5400" spans="2:2">
       <c r="B5400" s="7"/>
     </row>
-    <row r="5401" spans="2:3">
+    <row r="5401" spans="2:2">
       <c r="B5401" s="7"/>
-      <c r="C5401" s="24"/>
-    </row>
-    <row r="5402" spans="2:2">
+    </row>
+    <row r="5402" spans="2:3">
       <c r="B5402" s="7"/>
+      <c r="C5402" s="23"/>
     </row>
     <row r="5403" spans="2:2">
       <c r="B5403" s="7"/>
     </row>
-    <row r="5406" spans="2:2">
-      <c r="B5406" s="7"/>
-    </row>
-    <row r="5407" spans="1:2">
-      <c r="A5407" s="23"/>
+    <row r="5404" spans="2:2">
+      <c r="B5404" s="7"/>
+    </row>
+    <row r="5407" spans="2:2">
       <c r="B5407" s="7"/>
     </row>
-    <row r="5408" spans="2:2">
+    <row r="5408" spans="1:2">
+      <c r="A5408" s="22"/>
       <c r="B5408" s="7"/>
     </row>
-    <row r="5443" spans="2:2">
-      <c r="B5443" s="7"/>
-    </row>
-    <row r="5505" spans="2:2">
-      <c r="B5505" s="7"/>
+    <row r="5409" spans="2:2">
+      <c r="B5409" s="7"/>
+    </row>
+    <row r="5444" spans="2:2">
+      <c r="B5444" s="7"/>
     </row>
     <row r="5506" spans="2:2">
       <c r="B5506" s="7"/>
     </row>
-    <row r="5509" spans="2:2">
-      <c r="B5509" s="7"/>
-    </row>
-    <row r="5543" spans="2:2">
-      <c r="B5543" s="7"/>
+    <row r="5507" spans="2:2">
+      <c r="B5507" s="7"/>
+    </row>
+    <row r="5510" spans="2:2">
+      <c r="B5510" s="7"/>
     </row>
     <row r="5544" spans="2:2">
       <c r="B5544" s="7"/>
@@ -10611,26 +10610,26 @@
     <row r="5550" spans="2:2">
       <c r="B5550" s="7"/>
     </row>
-    <row r="5552" spans="2:2">
-      <c r="B5552" s="7"/>
-    </row>
-    <row r="5553" spans="1:2">
-      <c r="A5553" s="23"/>
+    <row r="5551" spans="2:2">
+      <c r="B5551" s="7"/>
+    </row>
+    <row r="5553" spans="2:2">
       <c r="B5553" s="7"/>
     </row>
     <row r="5554" spans="1:2">
-      <c r="A5554" s="23"/>
+      <c r="A5554" s="22"/>
       <c r="B5554" s="7"/>
     </row>
     <row r="5555" spans="1:2">
-      <c r="A5555" s="23"/>
+      <c r="A5555" s="22"/>
       <c r="B5555" s="7"/>
     </row>
     <row r="5556" spans="1:2">
-      <c r="A5556" s="23"/>
+      <c r="A5556" s="22"/>
       <c r="B5556" s="7"/>
     </row>
-    <row r="5557" spans="2:2">
+    <row r="5557" spans="1:2">
+      <c r="A5557" s="22"/>
       <c r="B5557" s="7"/>
     </row>
     <row r="5558" spans="2:2">
@@ -10639,14 +10638,14 @@
     <row r="5559" spans="2:2">
       <c r="B5559" s="7"/>
     </row>
-    <row r="5561" spans="2:2">
-      <c r="B5561" s="7"/>
-    </row>
-    <row r="5563" spans="2:2">
-      <c r="B5563" s="7"/>
-    </row>
-    <row r="5570" spans="2:2">
-      <c r="B5570" s="7"/>
+    <row r="5560" spans="2:2">
+      <c r="B5560" s="7"/>
+    </row>
+    <row r="5562" spans="2:2">
+      <c r="B5562" s="7"/>
+    </row>
+    <row r="5564" spans="2:2">
+      <c r="B5564" s="7"/>
     </row>
     <row r="5571" spans="2:2">
       <c r="B5571" s="7"/>
@@ -10657,8 +10656,8 @@
     <row r="5573" spans="2:2">
       <c r="B5573" s="7"/>
     </row>
-    <row r="5592" spans="2:2">
-      <c r="B5592" s="7"/>
+    <row r="5574" spans="2:2">
+      <c r="B5574" s="7"/>
     </row>
     <row r="5593" spans="2:2">
       <c r="B5593" s="7"/>
@@ -10679,10 +10678,10 @@
       <c r="B5598" s="7"/>
     </row>
     <row r="5599" spans="2:2">
-      <c r="B5599" s="15"/>
+      <c r="B5599" s="7"/>
     </row>
     <row r="5600" spans="2:2">
-      <c r="B5600" s="7"/>
+      <c r="B5600" s="15"/>
     </row>
     <row r="5601" spans="2:2">
       <c r="B5601" s="7"/>
@@ -10699,14 +10698,14 @@
     <row r="5605" spans="2:2">
       <c r="B5605" s="7"/>
     </row>
-    <row r="5607" spans="2:2">
-      <c r="B5607" s="7"/>
+    <row r="5606" spans="2:2">
+      <c r="B5606" s="7"/>
     </row>
     <row r="5608" spans="2:2">
       <c r="B5608" s="7"/>
     </row>
-    <row r="5612" spans="2:2">
-      <c r="B5612" s="7"/>
+    <row r="5609" spans="2:2">
+      <c r="B5609" s="7"/>
     </row>
     <row r="5613" spans="2:2">
       <c r="B5613" s="7"/>
@@ -10717,230 +10716,233 @@
     <row r="5615" spans="2:2">
       <c r="B5615" s="7"/>
     </row>
-    <row r="5618" spans="2:2">
-      <c r="B5618" s="7"/>
-    </row>
-    <row r="5622" spans="1:7">
-      <c r="A5622" s="25"/>
-      <c r="B5622" s="15"/>
-      <c r="C5622" s="15"/>
-      <c r="D5622" s="15"/>
-      <c r="E5622" s="15"/>
-      <c r="F5622" s="15"/>
-      <c r="G5622" s="15"/>
-    </row>
-    <row r="5981" spans="2:2">
-      <c r="B5981" s="33"/>
-    </row>
-    <row r="6338" spans="1:1">
-      <c r="A6338" s="23"/>
+    <row r="5616" spans="2:2">
+      <c r="B5616" s="7"/>
+    </row>
+    <row r="5619" spans="2:2">
+      <c r="B5619" s="7"/>
+    </row>
+    <row r="5623" spans="1:7">
+      <c r="A5623" s="24"/>
+      <c r="B5623" s="15"/>
+      <c r="C5623" s="15"/>
+      <c r="D5623" s="15"/>
+      <c r="E5623" s="15"/>
+      <c r="F5623" s="15"/>
+      <c r="G5623" s="15"/>
+    </row>
+    <row r="5982" spans="2:2">
+      <c r="B5982" s="32"/>
     </row>
     <row r="6339" spans="1:1">
-      <c r="A6339" s="23"/>
+      <c r="A6339" s="22"/>
     </row>
     <row r="6340" spans="1:1">
-      <c r="A6340" s="23"/>
+      <c r="A6340" s="22"/>
     </row>
     <row r="6341" spans="1:1">
-      <c r="A6341" s="23"/>
+      <c r="A6341" s="22"/>
     </row>
     <row r="6342" spans="1:1">
-      <c r="A6342" s="23"/>
+      <c r="A6342" s="22"/>
     </row>
     <row r="6343" spans="1:1">
-      <c r="A6343" s="23"/>
+      <c r="A6343" s="22"/>
     </row>
     <row r="6344" spans="1:1">
-      <c r="A6344" s="23"/>
+      <c r="A6344" s="22"/>
     </row>
     <row r="6345" spans="1:1">
-      <c r="A6345" s="23"/>
+      <c r="A6345" s="22"/>
     </row>
     <row r="6346" spans="1:1">
-      <c r="A6346" s="23"/>
+      <c r="A6346" s="22"/>
     </row>
     <row r="6347" spans="1:1">
-      <c r="A6347" s="23"/>
+      <c r="A6347" s="22"/>
     </row>
     <row r="6348" spans="1:1">
-      <c r="A6348" s="23"/>
+      <c r="A6348" s="22"/>
     </row>
     <row r="6349" spans="1:1">
-      <c r="A6349" s="23"/>
+      <c r="A6349" s="22"/>
     </row>
     <row r="6350" spans="1:1">
-      <c r="A6350" s="23"/>
+      <c r="A6350" s="22"/>
     </row>
     <row r="6351" spans="1:1">
-      <c r="A6351" s="23"/>
+      <c r="A6351" s="22"/>
     </row>
     <row r="6352" spans="1:1">
-      <c r="A6352" s="23"/>
+      <c r="A6352" s="22"/>
     </row>
     <row r="6353" spans="1:1">
-      <c r="A6353" s="23"/>
+      <c r="A6353" s="22"/>
     </row>
     <row r="6354" spans="1:1">
-      <c r="A6354" s="23"/>
+      <c r="A6354" s="22"/>
     </row>
     <row r="6355" spans="1:1">
-      <c r="A6355" s="23"/>
+      <c r="A6355" s="22"/>
     </row>
     <row r="6356" spans="1:1">
-      <c r="A6356" s="23"/>
+      <c r="A6356" s="22"/>
     </row>
     <row r="6357" spans="1:1">
-      <c r="A6357" s="23"/>
+      <c r="A6357" s="22"/>
     </row>
     <row r="6358" spans="1:1">
-      <c r="A6358" s="23"/>
+      <c r="A6358" s="22"/>
     </row>
     <row r="6359" spans="1:1">
-      <c r="A6359" s="23"/>
+      <c r="A6359" s="22"/>
     </row>
     <row r="6360" spans="1:1">
-      <c r="A6360" s="23"/>
+      <c r="A6360" s="22"/>
     </row>
     <row r="6361" spans="1:1">
-      <c r="A6361" s="23"/>
+      <c r="A6361" s="22"/>
     </row>
     <row r="6362" spans="1:1">
-      <c r="A6362" s="23"/>
+      <c r="A6362" s="22"/>
     </row>
     <row r="6363" spans="1:1">
-      <c r="A6363" s="23"/>
+      <c r="A6363" s="22"/>
     </row>
     <row r="6364" spans="1:1">
-      <c r="A6364" s="23"/>
+      <c r="A6364" s="22"/>
     </row>
     <row r="6365" spans="1:1">
-      <c r="A6365" s="23"/>
+      <c r="A6365" s="22"/>
     </row>
     <row r="6366" spans="1:1">
-      <c r="A6366" s="23"/>
+      <c r="A6366" s="22"/>
     </row>
     <row r="6367" spans="1:1">
-      <c r="A6367" s="23"/>
+      <c r="A6367" s="22"/>
     </row>
     <row r="6368" spans="1:1">
-      <c r="A6368" s="23"/>
+      <c r="A6368" s="22"/>
     </row>
     <row r="6369" spans="1:1">
-      <c r="A6369" s="23"/>
+      <c r="A6369" s="22"/>
     </row>
     <row r="6370" spans="1:1">
-      <c r="A6370" s="23"/>
+      <c r="A6370" s="22"/>
     </row>
     <row r="6371" spans="1:1">
-      <c r="A6371" s="23"/>
+      <c r="A6371" s="22"/>
     </row>
     <row r="6372" spans="1:1">
-      <c r="A6372" s="23"/>
-    </row>
-    <row r="6377" spans="1:1">
-      <c r="A6377" s="23"/>
+      <c r="A6372" s="22"/>
+    </row>
+    <row r="6373" spans="1:1">
+      <c r="A6373" s="22"/>
     </row>
     <row r="6378" spans="1:1">
-      <c r="A6378" s="23"/>
+      <c r="A6378" s="22"/>
     </row>
     <row r="6379" spans="1:1">
-      <c r="A6379" s="23"/>
+      <c r="A6379" s="22"/>
     </row>
     <row r="6380" spans="1:1">
-      <c r="A6380" s="23"/>
+      <c r="A6380" s="22"/>
     </row>
     <row r="6381" spans="1:1">
-      <c r="A6381" s="23"/>
+      <c r="A6381" s="22"/>
     </row>
     <row r="6382" spans="1:1">
-      <c r="A6382" s="23"/>
+      <c r="A6382" s="22"/>
     </row>
     <row r="6383" spans="1:1">
-      <c r="A6383" s="23"/>
+      <c r="A6383" s="22"/>
     </row>
     <row r="6384" spans="1:1">
-      <c r="A6384" s="23"/>
+      <c r="A6384" s="22"/>
     </row>
     <row r="6385" spans="1:1">
-      <c r="A6385" s="23"/>
+      <c r="A6385" s="22"/>
     </row>
     <row r="6386" spans="1:1">
-      <c r="A6386" s="23"/>
+      <c r="A6386" s="22"/>
     </row>
     <row r="6387" spans="1:1">
-      <c r="A6387" s="23"/>
+      <c r="A6387" s="22"/>
     </row>
     <row r="6388" spans="1:1">
-      <c r="A6388" s="23"/>
+      <c r="A6388" s="22"/>
     </row>
     <row r="6389" spans="1:1">
-      <c r="A6389" s="23"/>
+      <c r="A6389" s="22"/>
     </row>
     <row r="6390" spans="1:1">
-      <c r="A6390" s="23"/>
+      <c r="A6390" s="22"/>
     </row>
     <row r="6391" spans="1:1">
-      <c r="A6391" s="23"/>
+      <c r="A6391" s="22"/>
     </row>
     <row r="6392" spans="1:1">
-      <c r="A6392" s="23"/>
+      <c r="A6392" s="22"/>
     </row>
     <row r="6393" spans="1:1">
-      <c r="A6393" s="23"/>
+      <c r="A6393" s="22"/>
     </row>
     <row r="6394" spans="1:1">
-      <c r="A6394" s="23"/>
+      <c r="A6394" s="22"/>
     </row>
     <row r="6395" spans="1:1">
-      <c r="A6395" s="23"/>
+      <c r="A6395" s="22"/>
     </row>
     <row r="6396" spans="1:1">
-      <c r="A6396" s="23"/>
+      <c r="A6396" s="22"/>
     </row>
     <row r="6397" spans="1:1">
-      <c r="A6397" s="23"/>
+      <c r="A6397" s="22"/>
     </row>
     <row r="6398" spans="1:1">
-      <c r="A6398" s="23"/>
+      <c r="A6398" s="22"/>
     </row>
     <row r="6399" spans="1:1">
-      <c r="A6399" s="23"/>
+      <c r="A6399" s="22"/>
     </row>
     <row r="6400" spans="1:1">
-      <c r="A6400" s="23"/>
+      <c r="A6400" s="22"/>
     </row>
     <row r="6401" spans="1:1">
-      <c r="A6401" s="23"/>
+      <c r="A6401" s="22"/>
     </row>
     <row r="6402" spans="1:1">
-      <c r="A6402" s="23"/>
+      <c r="A6402" s="22"/>
     </row>
     <row r="6403" spans="1:1">
-      <c r="A6403" s="23"/>
+      <c r="A6403" s="22"/>
     </row>
     <row r="6404" spans="1:1">
-      <c r="A6404" s="23"/>
+      <c r="A6404" s="22"/>
     </row>
     <row r="6405" spans="1:1">
-      <c r="A6405" s="23"/>
+      <c r="A6405" s="22"/>
     </row>
     <row r="6406" spans="1:1">
-      <c r="A6406" s="23"/>
+      <c r="A6406" s="22"/>
     </row>
     <row r="6407" spans="1:1">
-      <c r="A6407" s="23"/>
+      <c r="A6407" s="22"/>
     </row>
     <row r="6408" spans="1:1">
-      <c r="A6408" s="23"/>
+      <c r="A6408" s="22"/>
     </row>
     <row r="6409" spans="1:1">
-      <c r="A6409" s="23"/>
+      <c r="A6409" s="22"/>
     </row>
     <row r="6410" spans="1:1">
-      <c r="A6410" s="23"/>
-    </row>
-    <row r="1048573" customHeight="1" spans="7:7">
-      <c r="G1048573" s="6"/>
+      <c r="A6410" s="22"/>
+    </row>
+    <row r="6411" spans="1:1">
+      <c r="A6411" s="22"/>
+    </row>
+    <row r="1048574" customHeight="1" spans="7:7">
+      <c r="G1048574" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/QA/testcases/ORSheet.xlsx
+++ b/QA/testcases/ORSheet.xlsx
@@ -644,7 +644,7 @@
     <t>AGREE_SUBMIT_BUTTON</t>
   </si>
   <si>
-    <t>//button[text()='Agree to the Terms &amp; Conditions']</t>
+    <t>modalClick</t>
   </si>
   <si>
     <t>Last page</t>
@@ -1114,10 +1114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -1223,9 +1223,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1237,8 +1237,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1252,93 +1321,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1366,8 +1350,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1430,6 +1430,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1437,6 +1443,108 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1454,97 +1562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1556,31 +1574,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1592,13 +1586,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,7 +1610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1629,6 +1629,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1664,39 +1673,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1713,6 +1689,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1721,151 +1706,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1897,8 +1897,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2259,8 +2259,8 @@
   <sheetPr/>
   <dimension ref="A1:H6419"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1428571428571" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -4267,14 +4267,14 @@
       <c r="A95" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="17" t="s">
         <v>209</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>210</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>13</v>
@@ -4634,7 +4634,7 @@
       <c r="A121" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B121" s="17" t="s">
+      <c r="B121" s="18" t="s">
         <v>262</v>
       </c>
     </row>
@@ -4925,7 +4925,7 @@
       <c r="A148" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B148" s="18" t="s">
+      <c r="B148" s="16" t="s">
         <v>316</v>
       </c>
       <c r="D148" s="2" t="s">

--- a/QA/testcases/ORSheet.xlsx
+++ b/QA/testcases/ORSheet.xlsx
@@ -644,7 +644,7 @@
     <t>AGREE_SUBMIT_BUTTON</t>
   </si>
   <si>
-    <t>modalClick</t>
+    <t>//section[@class='paf-section']//button[contains(text(),'Agree to the')]</t>
   </si>
   <si>
     <t>Last page</t>
@@ -1114,10 +1114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -1223,6 +1223,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1237,9 +1251,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1254,9 +1275,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1269,22 +1328,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1298,50 +1349,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1352,16 +1359,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1430,79 +1430,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1520,7 +1454,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1532,43 +1556,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1580,13 +1580,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1633,11 +1633,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1657,17 +1678,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1689,15 +1704,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1707,169 +1713,163 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1896,7 +1896,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2259,8 +2258,8 @@
   <sheetPr/>
   <dimension ref="A1:H6419"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1428571428571" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -4267,14 +4266,14 @@
       <c r="A95" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="16" t="s">
         <v>209</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>210</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>13</v>
@@ -4634,7 +4633,7 @@
       <c r="A121" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B121" s="18" t="s">
+      <c r="B121" s="17" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5071,7 +5070,7 @@
       <c r="A162" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B162" s="19" t="s">
+      <c r="B162" s="18" t="s">
         <v>337</v>
       </c>
       <c r="C162" s="2" t="s">
@@ -5085,7 +5084,7 @@
       <c r="A163" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B163" s="19" t="s">
+      <c r="B163" s="18" t="s">
         <v>339</v>
       </c>
       <c r="C163" s="2" t="s">
@@ -5099,7 +5098,7 @@
       <c r="A164" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B164" s="19" t="s">
+      <c r="B164" s="18" t="s">
         <v>341</v>
       </c>
       <c r="C164" s="2" t="s">
@@ -5113,7 +5112,7 @@
       <c r="A165" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B165" s="19" t="s">
+      <c r="B165" s="18" t="s">
         <v>343</v>
       </c>
       <c r="C165" s="2" t="s">
@@ -5141,7 +5140,7 @@
       <c r="A167" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B167" s="19" t="s">
+      <c r="B167" s="18" t="s">
         <v>347</v>
       </c>
       <c r="C167" s="2" t="s">
@@ -5183,7 +5182,7 @@
       <c r="A170" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B170" s="19" t="s">
+      <c r="B170" s="18" t="s">
         <v>353</v>
       </c>
       <c r="C170" s="2" t="s">
@@ -5249,28 +5248,28 @@
       </c>
     </row>
     <row r="185" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A185" s="20"/>
+      <c r="A185" s="19"/>
       <c r="B185" s="15"/>
     </row>
     <row r="192" spans="3:7">
-      <c r="C192" s="21"/>
-      <c r="D192" s="21"/>
-      <c r="E192" s="21"/>
-      <c r="F192" s="21"/>
-      <c r="G192" s="21"/>
+      <c r="C192" s="20"/>
+      <c r="D192" s="20"/>
+      <c r="E192" s="20"/>
+      <c r="F192" s="20"/>
+      <c r="G192" s="20"/>
     </row>
     <row r="193" spans="3:7">
-      <c r="C193" s="21"/>
-      <c r="D193" s="21"/>
-      <c r="E193" s="21"/>
-      <c r="F193" s="21"/>
-      <c r="G193" s="21"/>
+      <c r="C193" s="20"/>
+      <c r="D193" s="20"/>
+      <c r="E193" s="20"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="20"/>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="22"/>
+      <c r="A212" s="21"/>
     </row>
     <row r="215" spans="2:2">
-      <c r="B215" s="23"/>
+      <c r="B215" s="22"/>
     </row>
     <row r="218" ht="18.75" customHeight="1"/>
     <row r="219" ht="21" customHeight="1"/>
@@ -5283,8 +5282,8 @@
     <row r="226" ht="21" customHeight="1"/>
     <row r="227" ht="21" customHeight="1"/>
     <row r="238" spans="1:2">
-      <c r="A238" s="24"/>
-      <c r="B238" s="25"/>
+      <c r="A238" s="23"/>
+      <c r="B238" s="24"/>
     </row>
     <row r="239" spans="2:2">
       <c r="B239" s="5"/>
@@ -5311,8 +5310,8 @@
       <c r="B246" s="5"/>
     </row>
     <row r="247" spans="1:2">
-      <c r="A247" s="24"/>
-      <c r="B247" s="26"/>
+      <c r="A247" s="23"/>
+      <c r="B247" s="25"/>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" s="5"/>
@@ -5363,7 +5362,7 @@
       <c r="B263" s="5"/>
     </row>
     <row r="264" spans="1:2">
-      <c r="A264" s="22"/>
+      <c r="A264" s="21"/>
       <c r="B264" s="5"/>
     </row>
     <row r="265" spans="2:2">
@@ -5376,7 +5375,7 @@
       <c r="B267" s="5"/>
     </row>
     <row r="268" spans="1:2">
-      <c r="A268" s="22"/>
+      <c r="A268" s="21"/>
       <c r="B268" s="5"/>
     </row>
     <row r="269" spans="2:2">
@@ -5404,14 +5403,14 @@
       <c r="B276" s="5"/>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="22"/>
+      <c r="A277" s="21"/>
       <c r="B277" s="5"/>
     </row>
     <row r="278" spans="2:2">
       <c r="B278" s="5"/>
     </row>
     <row r="279" spans="1:2">
-      <c r="A279" s="22"/>
+      <c r="A279" s="21"/>
       <c r="B279" s="5"/>
     </row>
     <row r="280" spans="2:2">
@@ -5472,7 +5471,7 @@
       <c r="B298" s="5"/>
     </row>
     <row r="299" spans="2:2">
-      <c r="B299" s="27"/>
+      <c r="B299" s="26"/>
     </row>
     <row r="300" spans="2:2">
       <c r="B300" s="5"/>
@@ -5487,8 +5486,8 @@
       <c r="B303" s="5"/>
     </row>
     <row r="304" spans="1:2">
-      <c r="A304" s="24"/>
-      <c r="B304" s="26"/>
+      <c r="A304" s="23"/>
+      <c r="B304" s="25"/>
     </row>
     <row r="305" spans="2:2">
       <c r="B305" s="5"/>
@@ -5542,7 +5541,7 @@
       <c r="B321" s="5"/>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="28"/>
+      <c r="A322" s="27"/>
       <c r="B322" s="5"/>
     </row>
     <row r="323" spans="2:2">
@@ -5570,19 +5569,19 @@
       <c r="B330" s="5"/>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="22"/>
+      <c r="A331" s="21"/>
       <c r="B331" s="5"/>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="22"/>
+      <c r="A332" s="21"/>
       <c r="B332" s="5"/>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="22"/>
+      <c r="A333" s="21"/>
       <c r="B333" s="5"/>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="22"/>
+      <c r="A334" s="21"/>
       <c r="B334" s="5"/>
     </row>
     <row r="335" spans="2:2">
@@ -5637,351 +5636,351 @@
       <c r="B351" s="5"/>
     </row>
     <row r="393" spans="1:1">
-      <c r="A393" s="22"/>
+      <c r="A393" s="21"/>
     </row>
     <row r="431" spans="1:1">
-      <c r="A431" s="22"/>
+      <c r="A431" s="21"/>
     </row>
     <row r="433" spans="1:1">
-      <c r="A433" s="22"/>
+      <c r="A433" s="21"/>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434" s="22"/>
+      <c r="A434" s="21"/>
     </row>
     <row r="435" spans="1:1">
-      <c r="A435" s="22"/>
+      <c r="A435" s="21"/>
     </row>
     <row r="436" spans="1:1">
-      <c r="A436" s="22"/>
+      <c r="A436" s="21"/>
     </row>
     <row r="437" spans="1:1">
-      <c r="A437" s="22"/>
+      <c r="A437" s="21"/>
     </row>
     <row r="438" spans="1:1">
-      <c r="A438" s="22"/>
+      <c r="A438" s="21"/>
     </row>
     <row r="439" spans="3:4">
-      <c r="C439" s="23"/>
-      <c r="D439" s="23"/>
+      <c r="C439" s="22"/>
+      <c r="D439" s="22"/>
     </row>
     <row r="440" spans="1:1">
-      <c r="A440" s="22"/>
+      <c r="A440" s="21"/>
     </row>
     <row r="441" spans="1:1">
-      <c r="A441" s="22"/>
+      <c r="A441" s="21"/>
     </row>
     <row r="442" spans="1:1">
-      <c r="A442" s="22"/>
+      <c r="A442" s="21"/>
     </row>
     <row r="443" spans="1:1">
-      <c r="A443" s="22"/>
+      <c r="A443" s="21"/>
     </row>
     <row r="444" spans="1:1">
-      <c r="A444" s="22"/>
+      <c r="A444" s="21"/>
     </row>
     <row r="446" spans="1:1">
-      <c r="A446" s="22"/>
+      <c r="A446" s="21"/>
     </row>
     <row r="447" spans="1:1">
-      <c r="A447" s="22"/>
+      <c r="A447" s="21"/>
     </row>
     <row r="448" spans="1:1">
-      <c r="A448" s="22"/>
+      <c r="A448" s="21"/>
     </row>
     <row r="449" spans="1:1">
-      <c r="A449" s="22"/>
+      <c r="A449" s="21"/>
     </row>
     <row r="465" spans="1:1">
-      <c r="A465" s="22"/>
+      <c r="A465" s="21"/>
     </row>
     <row r="466" spans="1:1">
-      <c r="A466" s="22"/>
+      <c r="A466" s="21"/>
     </row>
     <row r="467" spans="1:1">
-      <c r="A467" s="22"/>
+      <c r="A467" s="21"/>
     </row>
     <row r="468" spans="1:1">
-      <c r="A468" s="22"/>
+      <c r="A468" s="21"/>
     </row>
     <row r="483" spans="3:4">
-      <c r="C483" s="23"/>
-      <c r="D483" s="23"/>
+      <c r="C483" s="22"/>
+      <c r="D483" s="22"/>
     </row>
     <row r="484" spans="1:7">
-      <c r="A484" s="22"/>
-      <c r="C484" s="23"/>
-      <c r="D484" s="23"/>
-      <c r="E484" s="23"/>
-      <c r="F484" s="23"/>
-      <c r="G484" s="23"/>
+      <c r="A484" s="21"/>
+      <c r="C484" s="22"/>
+      <c r="D484" s="22"/>
+      <c r="E484" s="22"/>
+      <c r="F484" s="22"/>
+      <c r="G484" s="22"/>
     </row>
     <row r="485" spans="1:7">
-      <c r="A485" s="22"/>
-      <c r="C485" s="23"/>
-      <c r="D485" s="23"/>
-      <c r="E485" s="23"/>
-      <c r="F485" s="23"/>
-      <c r="G485" s="23"/>
+      <c r="A485" s="21"/>
+      <c r="C485" s="22"/>
+      <c r="D485" s="22"/>
+      <c r="E485" s="22"/>
+      <c r="F485" s="22"/>
+      <c r="G485" s="22"/>
     </row>
     <row r="486" spans="1:7">
-      <c r="A486" s="22"/>
-      <c r="C486" s="23"/>
-      <c r="D486" s="23"/>
-      <c r="E486" s="23"/>
-      <c r="F486" s="23"/>
-      <c r="G486" s="23"/>
+      <c r="A486" s="21"/>
+      <c r="C486" s="22"/>
+      <c r="D486" s="22"/>
+      <c r="E486" s="22"/>
+      <c r="F486" s="22"/>
+      <c r="G486" s="22"/>
     </row>
     <row r="487" spans="3:7">
-      <c r="C487" s="23"/>
-      <c r="D487" s="23"/>
-      <c r="E487" s="23"/>
-      <c r="F487" s="23"/>
-      <c r="G487" s="23"/>
+      <c r="C487" s="22"/>
+      <c r="D487" s="22"/>
+      <c r="E487" s="22"/>
+      <c r="F487" s="22"/>
+      <c r="G487" s="22"/>
     </row>
     <row r="488" spans="3:7">
-      <c r="C488" s="23"/>
-      <c r="D488" s="23"/>
-      <c r="E488" s="23"/>
-      <c r="F488" s="23"/>
-      <c r="G488" s="23"/>
+      <c r="C488" s="22"/>
+      <c r="D488" s="22"/>
+      <c r="E488" s="22"/>
+      <c r="F488" s="22"/>
+      <c r="G488" s="22"/>
     </row>
     <row r="489" spans="1:7">
-      <c r="A489" s="22"/>
-      <c r="C489" s="23"/>
-      <c r="D489" s="23"/>
-      <c r="E489" s="23"/>
-      <c r="F489" s="23"/>
-      <c r="G489" s="23"/>
+      <c r="A489" s="21"/>
+      <c r="C489" s="22"/>
+      <c r="D489" s="22"/>
+      <c r="E489" s="22"/>
+      <c r="F489" s="22"/>
+      <c r="G489" s="22"/>
     </row>
     <row r="490" spans="1:7">
-      <c r="A490" s="22"/>
-      <c r="C490" s="23"/>
-      <c r="D490" s="23"/>
-      <c r="E490" s="23"/>
-      <c r="F490" s="23"/>
-      <c r="G490" s="23"/>
+      <c r="A490" s="21"/>
+      <c r="C490" s="22"/>
+      <c r="D490" s="22"/>
+      <c r="E490" s="22"/>
+      <c r="F490" s="22"/>
+      <c r="G490" s="22"/>
     </row>
     <row r="491" spans="1:7">
-      <c r="A491" s="22"/>
-      <c r="C491" s="23"/>
-      <c r="D491" s="23"/>
-      <c r="E491" s="23"/>
-      <c r="F491" s="23"/>
-      <c r="G491" s="23"/>
+      <c r="A491" s="21"/>
+      <c r="C491" s="22"/>
+      <c r="D491" s="22"/>
+      <c r="E491" s="22"/>
+      <c r="F491" s="22"/>
+      <c r="G491" s="22"/>
     </row>
     <row r="492" spans="1:7">
-      <c r="A492" s="22"/>
-      <c r="C492" s="23"/>
-      <c r="D492" s="23"/>
-      <c r="E492" s="23"/>
-      <c r="F492" s="23"/>
-      <c r="G492" s="23"/>
+      <c r="A492" s="21"/>
+      <c r="C492" s="22"/>
+      <c r="D492" s="22"/>
+      <c r="E492" s="22"/>
+      <c r="F492" s="22"/>
+      <c r="G492" s="22"/>
     </row>
     <row r="493" spans="1:7">
-      <c r="A493" s="22"/>
-      <c r="C493" s="23"/>
-      <c r="D493" s="23"/>
-      <c r="E493" s="23"/>
-      <c r="F493" s="23"/>
-      <c r="G493" s="23"/>
+      <c r="A493" s="21"/>
+      <c r="C493" s="22"/>
+      <c r="D493" s="22"/>
+      <c r="E493" s="22"/>
+      <c r="F493" s="22"/>
+      <c r="G493" s="22"/>
     </row>
     <row r="494" spans="3:7">
-      <c r="C494" s="23"/>
-      <c r="D494" s="23"/>
-      <c r="E494" s="23"/>
-      <c r="F494" s="23"/>
-      <c r="G494" s="23"/>
+      <c r="C494" s="22"/>
+      <c r="D494" s="22"/>
+      <c r="E494" s="22"/>
+      <c r="F494" s="22"/>
+      <c r="G494" s="22"/>
     </row>
     <row r="495" spans="1:7">
-      <c r="A495" s="22"/>
-      <c r="C495" s="23"/>
-      <c r="D495" s="23"/>
-      <c r="E495" s="23"/>
-      <c r="F495" s="23"/>
-      <c r="G495" s="23"/>
+      <c r="A495" s="21"/>
+      <c r="C495" s="22"/>
+      <c r="D495" s="22"/>
+      <c r="E495" s="22"/>
+      <c r="F495" s="22"/>
+      <c r="G495" s="22"/>
     </row>
     <row r="496" spans="1:7">
-      <c r="A496" s="22"/>
-      <c r="C496" s="23"/>
-      <c r="D496" s="23"/>
-      <c r="E496" s="23"/>
-      <c r="F496" s="23"/>
-      <c r="G496" s="23"/>
+      <c r="A496" s="21"/>
+      <c r="C496" s="22"/>
+      <c r="D496" s="22"/>
+      <c r="E496" s="22"/>
+      <c r="F496" s="22"/>
+      <c r="G496" s="22"/>
     </row>
     <row r="497" spans="1:7">
-      <c r="A497" s="22"/>
-      <c r="C497" s="23"/>
-      <c r="D497" s="23"/>
-      <c r="E497" s="23"/>
-      <c r="F497" s="23"/>
-      <c r="G497" s="23"/>
+      <c r="A497" s="21"/>
+      <c r="C497" s="22"/>
+      <c r="D497" s="22"/>
+      <c r="E497" s="22"/>
+      <c r="F497" s="22"/>
+      <c r="G497" s="22"/>
     </row>
     <row r="498" spans="3:7">
-      <c r="C498" s="23"/>
-      <c r="D498" s="23"/>
-      <c r="E498" s="23"/>
-      <c r="F498" s="23"/>
-      <c r="G498" s="23"/>
+      <c r="C498" s="22"/>
+      <c r="D498" s="22"/>
+      <c r="E498" s="22"/>
+      <c r="F498" s="22"/>
+      <c r="G498" s="22"/>
     </row>
     <row r="499" spans="3:7">
-      <c r="C499" s="23"/>
-      <c r="D499" s="23"/>
-      <c r="E499" s="23"/>
-      <c r="F499" s="23"/>
-      <c r="G499" s="23"/>
+      <c r="C499" s="22"/>
+      <c r="D499" s="22"/>
+      <c r="E499" s="22"/>
+      <c r="F499" s="22"/>
+      <c r="G499" s="22"/>
     </row>
     <row r="500" spans="3:7">
-      <c r="C500" s="23"/>
-      <c r="D500" s="23"/>
-      <c r="E500" s="23"/>
-      <c r="F500" s="23"/>
-      <c r="G500" s="23"/>
+      <c r="C500" s="22"/>
+      <c r="D500" s="22"/>
+      <c r="E500" s="22"/>
+      <c r="F500" s="22"/>
+      <c r="G500" s="22"/>
     </row>
     <row r="501" spans="5:7">
-      <c r="E501" s="23"/>
-      <c r="F501" s="23"/>
-      <c r="G501" s="23"/>
+      <c r="E501" s="22"/>
+      <c r="F501" s="22"/>
+      <c r="G501" s="22"/>
     </row>
     <row r="511" spans="3:7">
-      <c r="C511" s="23"/>
-      <c r="D511" s="23"/>
-      <c r="E511" s="23"/>
-      <c r="F511" s="23"/>
-      <c r="G511" s="23"/>
+      <c r="C511" s="22"/>
+      <c r="D511" s="22"/>
+      <c r="E511" s="22"/>
+      <c r="F511" s="22"/>
+      <c r="G511" s="22"/>
     </row>
     <row r="512" spans="3:7">
-      <c r="C512" s="23"/>
-      <c r="D512" s="23"/>
-      <c r="E512" s="23"/>
-      <c r="F512" s="23"/>
-      <c r="G512" s="23"/>
+      <c r="C512" s="22"/>
+      <c r="D512" s="22"/>
+      <c r="E512" s="22"/>
+      <c r="F512" s="22"/>
+      <c r="G512" s="22"/>
     </row>
     <row r="513" spans="1:7">
-      <c r="A513" s="22"/>
-      <c r="C513" s="23"/>
-      <c r="D513" s="23"/>
-      <c r="E513" s="23"/>
-      <c r="F513" s="23"/>
-      <c r="G513" s="23"/>
+      <c r="A513" s="21"/>
+      <c r="C513" s="22"/>
+      <c r="D513" s="22"/>
+      <c r="E513" s="22"/>
+      <c r="F513" s="22"/>
+      <c r="G513" s="22"/>
     </row>
     <row r="514" spans="1:7">
-      <c r="A514" s="22"/>
-      <c r="C514" s="23"/>
-      <c r="D514" s="23"/>
-      <c r="E514" s="23"/>
-      <c r="F514" s="23"/>
-      <c r="G514" s="23"/>
+      <c r="A514" s="21"/>
+      <c r="C514" s="22"/>
+      <c r="D514" s="22"/>
+      <c r="E514" s="22"/>
+      <c r="F514" s="22"/>
+      <c r="G514" s="22"/>
     </row>
     <row r="515" spans="3:7">
-      <c r="C515" s="23"/>
-      <c r="D515" s="23"/>
-      <c r="E515" s="23"/>
-      <c r="F515" s="23"/>
-      <c r="G515" s="23"/>
+      <c r="C515" s="22"/>
+      <c r="D515" s="22"/>
+      <c r="E515" s="22"/>
+      <c r="F515" s="22"/>
+      <c r="G515" s="22"/>
     </row>
     <row r="516" spans="1:7">
-      <c r="A516" s="22"/>
-      <c r="C516" s="23"/>
-      <c r="D516" s="23"/>
-      <c r="E516" s="23"/>
-      <c r="F516" s="23"/>
-      <c r="G516" s="23"/>
+      <c r="A516" s="21"/>
+      <c r="C516" s="22"/>
+      <c r="D516" s="22"/>
+      <c r="E516" s="22"/>
+      <c r="F516" s="22"/>
+      <c r="G516" s="22"/>
     </row>
     <row r="517" spans="1:7">
-      <c r="A517" s="22"/>
-      <c r="C517" s="23"/>
-      <c r="D517" s="23"/>
-      <c r="E517" s="23"/>
-      <c r="F517" s="23"/>
-      <c r="G517" s="23"/>
+      <c r="A517" s="21"/>
+      <c r="C517" s="22"/>
+      <c r="D517" s="22"/>
+      <c r="E517" s="22"/>
+      <c r="F517" s="22"/>
+      <c r="G517" s="22"/>
     </row>
     <row r="518" spans="3:4">
-      <c r="C518" s="23"/>
-      <c r="D518" s="23"/>
+      <c r="C518" s="22"/>
+      <c r="D518" s="22"/>
     </row>
     <row r="519" spans="3:4">
-      <c r="C519" s="23"/>
-      <c r="D519" s="23"/>
+      <c r="C519" s="22"/>
+      <c r="D519" s="22"/>
     </row>
     <row r="520" spans="3:4">
-      <c r="C520" s="23"/>
-      <c r="D520" s="23"/>
+      <c r="C520" s="22"/>
+      <c r="D520" s="22"/>
     </row>
     <row r="521" spans="3:4">
-      <c r="C521" s="23"/>
-      <c r="D521" s="23"/>
+      <c r="C521" s="22"/>
+      <c r="D521" s="22"/>
     </row>
     <row r="522" spans="3:4">
-      <c r="C522" s="23"/>
-      <c r="D522" s="23"/>
+      <c r="C522" s="22"/>
+      <c r="D522" s="22"/>
     </row>
     <row r="523" spans="3:4">
-      <c r="C523" s="23"/>
-      <c r="D523" s="23"/>
+      <c r="C523" s="22"/>
+      <c r="D523" s="22"/>
     </row>
     <row r="524" spans="3:4">
-      <c r="C524" s="23"/>
-      <c r="D524" s="23"/>
+      <c r="C524" s="22"/>
+      <c r="D524" s="22"/>
     </row>
     <row r="525" spans="3:4">
-      <c r="C525" s="23"/>
-      <c r="D525" s="23"/>
+      <c r="C525" s="22"/>
+      <c r="D525" s="22"/>
     </row>
     <row r="526" spans="3:4">
-      <c r="C526" s="23"/>
-      <c r="D526" s="23"/>
+      <c r="C526" s="22"/>
+      <c r="D526" s="22"/>
     </row>
     <row r="527" spans="1:4">
-      <c r="A527" s="22"/>
-      <c r="C527" s="23"/>
-      <c r="D527" s="23"/>
+      <c r="A527" s="21"/>
+      <c r="C527" s="22"/>
+      <c r="D527" s="22"/>
     </row>
     <row r="528" spans="3:7">
-      <c r="C528" s="23"/>
-      <c r="D528" s="23"/>
-      <c r="E528" s="23"/>
-      <c r="F528" s="23"/>
-      <c r="G528" s="23"/>
+      <c r="C528" s="22"/>
+      <c r="D528" s="22"/>
+      <c r="E528" s="22"/>
+      <c r="F528" s="22"/>
+      <c r="G528" s="22"/>
     </row>
     <row r="529" spans="3:7">
-      <c r="C529" s="23"/>
-      <c r="D529" s="23"/>
-      <c r="E529" s="23"/>
-      <c r="F529" s="23"/>
-      <c r="G529" s="23"/>
+      <c r="C529" s="22"/>
+      <c r="D529" s="22"/>
+      <c r="E529" s="22"/>
+      <c r="F529" s="22"/>
+      <c r="G529" s="22"/>
     </row>
     <row r="530" spans="1:4">
-      <c r="A530" s="22"/>
-      <c r="C530" s="23"/>
-      <c r="D530" s="23"/>
+      <c r="A530" s="21"/>
+      <c r="C530" s="22"/>
+      <c r="D530" s="22"/>
     </row>
     <row r="541" spans="1:4">
-      <c r="A541" s="22"/>
-      <c r="C541" s="23"/>
-      <c r="D541" s="23"/>
+      <c r="A541" s="21"/>
+      <c r="C541" s="22"/>
+      <c r="D541" s="22"/>
     </row>
     <row r="542" spans="1:4">
-      <c r="A542" s="22"/>
-      <c r="C542" s="23"/>
-      <c r="D542" s="23"/>
+      <c r="A542" s="21"/>
+      <c r="C542" s="22"/>
+      <c r="D542" s="22"/>
     </row>
     <row r="543" spans="3:4">
-      <c r="C543" s="23"/>
-      <c r="D543" s="23"/>
+      <c r="C543" s="22"/>
+      <c r="D543" s="22"/>
     </row>
     <row r="544" spans="3:4">
-      <c r="C544" s="23"/>
-      <c r="D544" s="23"/>
+      <c r="C544" s="22"/>
+      <c r="D544" s="22"/>
     </row>
     <row r="545" spans="3:4">
-      <c r="C545" s="23"/>
-      <c r="D545" s="23"/>
+      <c r="C545" s="22"/>
+      <c r="D545" s="22"/>
     </row>
     <row r="546" spans="1:1">
-      <c r="A546" s="22"/>
+      <c r="A546" s="21"/>
     </row>
     <row r="547" spans="1:1">
-      <c r="A547" s="22"/>
+      <c r="A547" s="21"/>
     </row>
     <row r="553" spans="2:2">
       <c r="B553" s="7"/>
@@ -6011,130 +6010,130 @@
       <c r="B562" s="7"/>
     </row>
     <row r="565" spans="1:1">
-      <c r="A565" s="22"/>
+      <c r="A565" s="21"/>
     </row>
     <row r="569" spans="1:1">
-      <c r="A569" s="22"/>
+      <c r="A569" s="21"/>
     </row>
     <row r="570" spans="1:1">
-      <c r="A570" s="22"/>
+      <c r="A570" s="21"/>
     </row>
     <row r="571" spans="1:1">
-      <c r="A571" s="22"/>
+      <c r="A571" s="21"/>
     </row>
     <row r="575" spans="1:2">
-      <c r="A575" s="22"/>
-      <c r="B575" s="23"/>
+      <c r="A575" s="21"/>
+      <c r="B575" s="22"/>
     </row>
     <row r="576" spans="1:1">
-      <c r="A576" s="22"/>
+      <c r="A576" s="21"/>
     </row>
     <row r="578" spans="1:1">
-      <c r="A578" s="22"/>
+      <c r="A578" s="21"/>
     </row>
     <row r="579" spans="1:1">
-      <c r="A579" s="22"/>
+      <c r="A579" s="21"/>
     </row>
     <row r="580" spans="1:1">
-      <c r="A580" s="22"/>
+      <c r="A580" s="21"/>
     </row>
     <row r="581" spans="1:1">
-      <c r="A581" s="22"/>
+      <c r="A581" s="21"/>
     </row>
     <row r="589" spans="2:2">
-      <c r="B589" s="29"/>
+      <c r="B589" s="28"/>
     </row>
     <row r="617" spans="3:4">
-      <c r="C617" s="23"/>
-      <c r="D617" s="23"/>
+      <c r="C617" s="22"/>
+      <c r="D617" s="22"/>
     </row>
     <row r="627" spans="1:1">
-      <c r="A627" s="22"/>
+      <c r="A627" s="21"/>
     </row>
     <row r="628" spans="1:1">
-      <c r="A628" s="22"/>
+      <c r="A628" s="21"/>
     </row>
     <row r="726" spans="1:1">
-      <c r="A726" s="22"/>
+      <c r="A726" s="21"/>
     </row>
     <row r="727" spans="1:1">
-      <c r="A727" s="22"/>
+      <c r="A727" s="21"/>
     </row>
     <row r="729" spans="1:1">
-      <c r="A729" s="22"/>
+      <c r="A729" s="21"/>
     </row>
     <row r="730" spans="1:1">
-      <c r="A730" s="22"/>
+      <c r="A730" s="21"/>
     </row>
     <row r="731" spans="1:1">
-      <c r="A731" s="22"/>
+      <c r="A731" s="21"/>
     </row>
     <row r="847" spans="1:1">
-      <c r="A847" s="22"/>
+      <c r="A847" s="21"/>
     </row>
     <row r="851" spans="1:1">
-      <c r="A851" s="22"/>
+      <c r="A851" s="21"/>
     </row>
     <row r="852" spans="1:1">
-      <c r="A852" s="22"/>
+      <c r="A852" s="21"/>
     </row>
     <row r="853" spans="1:1">
-      <c r="A853" s="22"/>
+      <c r="A853" s="21"/>
     </row>
     <row r="854" spans="1:1">
-      <c r="A854" s="22"/>
+      <c r="A854" s="21"/>
     </row>
     <row r="855" spans="1:1">
-      <c r="A855" s="22"/>
+      <c r="A855" s="21"/>
     </row>
     <row r="856" spans="1:1">
-      <c r="A856" s="22"/>
+      <c r="A856" s="21"/>
     </row>
     <row r="857" spans="1:1">
-      <c r="A857" s="22"/>
+      <c r="A857" s="21"/>
     </row>
     <row r="858" spans="1:1">
-      <c r="A858" s="22"/>
+      <c r="A858" s="21"/>
     </row>
     <row r="859" spans="1:1">
-      <c r="A859" s="22"/>
+      <c r="A859" s="21"/>
     </row>
     <row r="860" spans="1:1">
-      <c r="A860" s="22"/>
+      <c r="A860" s="21"/>
     </row>
     <row r="861" spans="1:1">
-      <c r="A861" s="22"/>
+      <c r="A861" s="21"/>
     </row>
     <row r="862" spans="2:4">
-      <c r="B862" s="29"/>
-      <c r="C862" s="23"/>
-      <c r="D862" s="23"/>
+      <c r="B862" s="28"/>
+      <c r="C862" s="22"/>
+      <c r="D862" s="22"/>
     </row>
     <row r="863" spans="3:4">
-      <c r="C863" s="23"/>
-      <c r="D863" s="23"/>
+      <c r="C863" s="22"/>
+      <c r="D863" s="22"/>
     </row>
     <row r="864" spans="3:4">
-      <c r="C864" s="23"/>
-      <c r="D864" s="23"/>
+      <c r="C864" s="22"/>
+      <c r="D864" s="22"/>
     </row>
     <row r="881" spans="2:2">
       <c r="B881" s="7"/>
     </row>
     <row r="993" spans="1:1">
-      <c r="A993" s="22"/>
+      <c r="A993" s="21"/>
     </row>
     <row r="994" spans="1:1">
-      <c r="A994" s="22"/>
+      <c r="A994" s="21"/>
     </row>
     <row r="995" spans="1:1">
-      <c r="A995" s="22"/>
+      <c r="A995" s="21"/>
     </row>
     <row r="996" spans="1:1">
-      <c r="A996" s="22"/>
+      <c r="A996" s="21"/>
     </row>
     <row r="997" spans="1:1">
-      <c r="A997" s="22"/>
+      <c r="A997" s="21"/>
     </row>
     <row r="1064" spans="2:7">
       <c r="B1064" s="7"/>
@@ -6145,495 +6144,495 @@
       <c r="G1064" s="7"/>
     </row>
     <row r="1067" spans="1:1">
-      <c r="A1067" s="22"/>
+      <c r="A1067" s="21"/>
     </row>
     <row r="1068" spans="1:1">
-      <c r="A1068" s="22"/>
+      <c r="A1068" s="21"/>
     </row>
     <row r="1070" spans="1:1">
-      <c r="A1070" s="22"/>
+      <c r="A1070" s="21"/>
     </row>
     <row r="1163" spans="1:1">
-      <c r="A1163" s="22"/>
+      <c r="A1163" s="21"/>
     </row>
     <row r="1164" spans="1:1">
-      <c r="A1164" s="22"/>
+      <c r="A1164" s="21"/>
     </row>
     <row r="1165" spans="1:1">
-      <c r="A1165" s="22"/>
+      <c r="A1165" s="21"/>
     </row>
     <row r="1166" spans="1:1">
-      <c r="A1166" s="22"/>
+      <c r="A1166" s="21"/>
     </row>
     <row r="1167" spans="1:1">
-      <c r="A1167" s="22"/>
+      <c r="A1167" s="21"/>
     </row>
     <row r="1185" spans="1:1">
-      <c r="A1185" s="22"/>
+      <c r="A1185" s="21"/>
     </row>
     <row r="1186" spans="1:1">
-      <c r="A1186" s="22"/>
+      <c r="A1186" s="21"/>
     </row>
     <row r="1194" spans="3:7">
-      <c r="C1194" s="21"/>
-      <c r="D1194" s="21"/>
-      <c r="E1194" s="21"/>
-      <c r="F1194" s="21"/>
-      <c r="G1194" s="21"/>
+      <c r="C1194" s="20"/>
+      <c r="D1194" s="20"/>
+      <c r="E1194" s="20"/>
+      <c r="F1194" s="20"/>
+      <c r="G1194" s="20"/>
     </row>
     <row r="1238" spans="1:1">
-      <c r="A1238" s="22"/>
+      <c r="A1238" s="21"/>
     </row>
     <row r="1241" spans="1:1">
-      <c r="A1241" s="22"/>
+      <c r="A1241" s="21"/>
     </row>
     <row r="1242" spans="1:1">
-      <c r="A1242" s="22"/>
+      <c r="A1242" s="21"/>
     </row>
     <row r="1289" spans="1:1">
-      <c r="A1289" s="22"/>
+      <c r="A1289" s="21"/>
     </row>
     <row r="1305" spans="1:1">
-      <c r="A1305" s="22"/>
+      <c r="A1305" s="21"/>
     </row>
     <row r="1334" spans="1:1">
-      <c r="A1334" s="22"/>
+      <c r="A1334" s="21"/>
     </row>
     <row r="1364" spans="1:1">
-      <c r="A1364" s="22"/>
+      <c r="A1364" s="21"/>
     </row>
     <row r="1367" spans="3:7">
-      <c r="C1367" s="21"/>
-      <c r="D1367" s="21"/>
-      <c r="E1367" s="21"/>
-      <c r="F1367" s="21"/>
-      <c r="G1367" s="21"/>
+      <c r="C1367" s="20"/>
+      <c r="D1367" s="20"/>
+      <c r="E1367" s="20"/>
+      <c r="F1367" s="20"/>
+      <c r="G1367" s="20"/>
     </row>
     <row r="1369" spans="2:2">
-      <c r="B1369" s="30"/>
+      <c r="B1369" s="29"/>
     </row>
     <row r="1398" spans="1:1">
-      <c r="A1398" s="22"/>
+      <c r="A1398" s="21"/>
     </row>
     <row r="1399" spans="1:1">
-      <c r="A1399" s="22"/>
+      <c r="A1399" s="21"/>
     </row>
     <row r="1400" spans="1:1">
-      <c r="A1400" s="22"/>
+      <c r="A1400" s="21"/>
     </row>
     <row r="1401" spans="1:1">
-      <c r="A1401" s="22"/>
+      <c r="A1401" s="21"/>
     </row>
     <row r="1402" spans="1:1">
-      <c r="A1402" s="22"/>
+      <c r="A1402" s="21"/>
     </row>
     <row r="1406" spans="1:1">
-      <c r="A1406" s="22"/>
+      <c r="A1406" s="21"/>
     </row>
     <row r="1414" spans="1:1">
-      <c r="A1414" s="24"/>
+      <c r="A1414" s="23"/>
     </row>
     <row r="1415" spans="1:1">
-      <c r="A1415" s="24"/>
+      <c r="A1415" s="23"/>
     </row>
     <row r="1416" spans="1:1">
-      <c r="A1416" s="24"/>
+      <c r="A1416" s="23"/>
     </row>
     <row r="1417" spans="1:1">
-      <c r="A1417" s="24"/>
+      <c r="A1417" s="23"/>
     </row>
     <row r="1418" spans="1:1">
-      <c r="A1418" s="24"/>
+      <c r="A1418" s="23"/>
     </row>
     <row r="1423" spans="1:1">
-      <c r="A1423" s="24"/>
+      <c r="A1423" s="23"/>
     </row>
     <row r="1424" spans="1:1">
-      <c r="A1424" s="24"/>
+      <c r="A1424" s="23"/>
     </row>
     <row r="1425" spans="1:1">
-      <c r="A1425" s="24"/>
+      <c r="A1425" s="23"/>
     </row>
     <row r="1426" spans="1:1">
-      <c r="A1426" s="24"/>
+      <c r="A1426" s="23"/>
     </row>
     <row r="1427" spans="1:1">
-      <c r="A1427" s="24"/>
+      <c r="A1427" s="23"/>
     </row>
     <row r="1428" spans="1:1">
-      <c r="A1428" s="24"/>
+      <c r="A1428" s="23"/>
     </row>
     <row r="1429" spans="1:1">
-      <c r="A1429" s="24"/>
+      <c r="A1429" s="23"/>
     </row>
     <row r="1430" spans="1:1">
-      <c r="A1430" s="24"/>
+      <c r="A1430" s="23"/>
     </row>
     <row r="1431" spans="1:1">
-      <c r="A1431" s="24"/>
+      <c r="A1431" s="23"/>
     </row>
     <row r="1432" spans="1:1">
-      <c r="A1432" s="24"/>
+      <c r="A1432" s="23"/>
     </row>
     <row r="1433" spans="1:1">
-      <c r="A1433" s="24"/>
+      <c r="A1433" s="23"/>
     </row>
     <row r="1434" spans="1:1">
-      <c r="A1434" s="24"/>
+      <c r="A1434" s="23"/>
     </row>
     <row r="1438" spans="1:1">
-      <c r="A1438" s="22"/>
+      <c r="A1438" s="21"/>
     </row>
     <row r="1439" spans="1:1">
-      <c r="A1439" s="22"/>
+      <c r="A1439" s="21"/>
     </row>
     <row r="1440" spans="1:1">
-      <c r="A1440" s="22"/>
+      <c r="A1440" s="21"/>
     </row>
     <row r="1442" spans="1:1">
-      <c r="A1442" s="22"/>
+      <c r="A1442" s="21"/>
     </row>
     <row r="1443" spans="1:1">
-      <c r="A1443" s="22"/>
+      <c r="A1443" s="21"/>
     </row>
     <row r="1444" spans="1:1">
-      <c r="A1444" s="22"/>
+      <c r="A1444" s="21"/>
     </row>
     <row r="1445" spans="1:1">
-      <c r="A1445" s="22"/>
+      <c r="A1445" s="21"/>
     </row>
     <row r="1446" spans="1:1">
-      <c r="A1446" s="22"/>
+      <c r="A1446" s="21"/>
     </row>
     <row r="1447" spans="1:1">
-      <c r="A1447" s="22"/>
+      <c r="A1447" s="21"/>
     </row>
     <row r="1448" spans="1:1">
-      <c r="A1448" s="22"/>
+      <c r="A1448" s="21"/>
     </row>
     <row r="1449" spans="1:1">
-      <c r="A1449" s="22"/>
+      <c r="A1449" s="21"/>
     </row>
     <row r="1450" spans="1:1">
-      <c r="A1450" s="22"/>
+      <c r="A1450" s="21"/>
     </row>
     <row r="1451" spans="1:1">
-      <c r="A1451" s="22"/>
+      <c r="A1451" s="21"/>
     </row>
     <row r="1452" spans="1:1">
-      <c r="A1452" s="22"/>
+      <c r="A1452" s="21"/>
     </row>
     <row r="1453" spans="1:1">
-      <c r="A1453" s="22"/>
+      <c r="A1453" s="21"/>
     </row>
     <row r="1454" spans="1:1">
-      <c r="A1454" s="22"/>
+      <c r="A1454" s="21"/>
     </row>
     <row r="1455" spans="1:1">
-      <c r="A1455" s="22"/>
+      <c r="A1455" s="21"/>
     </row>
     <row r="1456" spans="1:1">
-      <c r="A1456" s="22"/>
+      <c r="A1456" s="21"/>
     </row>
     <row r="1457" spans="1:1">
-      <c r="A1457" s="22"/>
+      <c r="A1457" s="21"/>
     </row>
     <row r="1461" spans="1:1">
-      <c r="A1461" s="22"/>
+      <c r="A1461" s="21"/>
     </row>
     <row r="1468" spans="1:1">
-      <c r="A1468" s="22"/>
+      <c r="A1468" s="21"/>
     </row>
     <row r="1469" spans="1:1">
-      <c r="A1469" s="22"/>
+      <c r="A1469" s="21"/>
     </row>
     <row r="1470" spans="1:1">
-      <c r="A1470" s="22"/>
+      <c r="A1470" s="21"/>
     </row>
     <row r="1471" spans="1:1">
-      <c r="A1471" s="22"/>
+      <c r="A1471" s="21"/>
     </row>
     <row r="1472" spans="1:1">
-      <c r="A1472" s="22"/>
+      <c r="A1472" s="21"/>
     </row>
     <row r="1473" spans="1:1">
-      <c r="A1473" s="22"/>
+      <c r="A1473" s="21"/>
     </row>
     <row r="1474" spans="1:1">
-      <c r="A1474" s="22"/>
+      <c r="A1474" s="21"/>
     </row>
     <row r="1475" spans="1:1">
-      <c r="A1475" s="22"/>
+      <c r="A1475" s="21"/>
     </row>
     <row r="1476" spans="1:1">
-      <c r="A1476" s="22"/>
+      <c r="A1476" s="21"/>
     </row>
     <row r="1477" spans="1:1">
-      <c r="A1477" s="22"/>
+      <c r="A1477" s="21"/>
     </row>
     <row r="1478" spans="1:1">
-      <c r="A1478" s="22"/>
+      <c r="A1478" s="21"/>
     </row>
     <row r="1480" spans="1:1">
-      <c r="A1480" s="22"/>
+      <c r="A1480" s="21"/>
     </row>
     <row r="1486" spans="2:2">
-      <c r="B1486" s="23"/>
+      <c r="B1486" s="22"/>
     </row>
     <row r="1488" spans="2:2">
-      <c r="B1488" s="23"/>
+      <c r="B1488" s="22"/>
     </row>
     <row r="1490" spans="2:2">
-      <c r="B1490" s="23"/>
+      <c r="B1490" s="22"/>
     </row>
     <row r="1504" spans="2:2">
-      <c r="B1504" s="23"/>
+      <c r="B1504" s="22"/>
     </row>
     <row r="1506" spans="2:2">
-      <c r="B1506" s="23"/>
+      <c r="B1506" s="22"/>
     </row>
     <row r="1509" spans="2:2">
-      <c r="B1509" s="23"/>
+      <c r="B1509" s="22"/>
     </row>
     <row r="1510" spans="2:2">
-      <c r="B1510" s="23"/>
+      <c r="B1510" s="22"/>
     </row>
     <row r="1515" spans="2:2">
-      <c r="B1515" s="23"/>
+      <c r="B1515" s="22"/>
     </row>
     <row r="1516" spans="2:2">
-      <c r="B1516" s="23"/>
+      <c r="B1516" s="22"/>
     </row>
     <row r="1519" spans="2:2">
-      <c r="B1519" s="23"/>
+      <c r="B1519" s="22"/>
     </row>
     <row r="1520" spans="2:2">
-      <c r="B1520" s="23"/>
+      <c r="B1520" s="22"/>
     </row>
     <row r="1631" spans="3:7">
-      <c r="C1631" s="21"/>
-      <c r="D1631" s="21"/>
-      <c r="E1631" s="21"/>
-      <c r="F1631" s="21"/>
-      <c r="G1631" s="21"/>
+      <c r="C1631" s="20"/>
+      <c r="D1631" s="20"/>
+      <c r="E1631" s="20"/>
+      <c r="F1631" s="20"/>
+      <c r="G1631" s="20"/>
     </row>
     <row r="1632" spans="3:7">
-      <c r="C1632" s="21"/>
-      <c r="D1632" s="21"/>
-      <c r="E1632" s="21"/>
-      <c r="F1632" s="21"/>
-      <c r="G1632" s="21"/>
+      <c r="C1632" s="20"/>
+      <c r="D1632" s="20"/>
+      <c r="E1632" s="20"/>
+      <c r="F1632" s="20"/>
+      <c r="G1632" s="20"/>
     </row>
     <row r="1633" spans="3:7">
-      <c r="C1633" s="21"/>
-      <c r="D1633" s="21"/>
-      <c r="E1633" s="21"/>
-      <c r="F1633" s="21"/>
-      <c r="G1633" s="21"/>
+      <c r="C1633" s="20"/>
+      <c r="D1633" s="20"/>
+      <c r="E1633" s="20"/>
+      <c r="F1633" s="20"/>
+      <c r="G1633" s="20"/>
     </row>
     <row r="1634" spans="3:7">
-      <c r="C1634" s="21"/>
-      <c r="D1634" s="21"/>
-      <c r="E1634" s="21"/>
-      <c r="F1634" s="21"/>
-      <c r="G1634" s="21"/>
+      <c r="C1634" s="20"/>
+      <c r="D1634" s="20"/>
+      <c r="E1634" s="20"/>
+      <c r="F1634" s="20"/>
+      <c r="G1634" s="20"/>
     </row>
     <row r="1635" spans="3:7">
-      <c r="C1635" s="21"/>
-      <c r="D1635" s="21"/>
-      <c r="E1635" s="21"/>
-      <c r="F1635" s="21"/>
-      <c r="G1635" s="21"/>
+      <c r="C1635" s="20"/>
+      <c r="D1635" s="20"/>
+      <c r="E1635" s="20"/>
+      <c r="F1635" s="20"/>
+      <c r="G1635" s="20"/>
     </row>
     <row r="1636" spans="3:7">
-      <c r="C1636" s="21"/>
-      <c r="D1636" s="21"/>
-      <c r="E1636" s="21"/>
-      <c r="F1636" s="21"/>
-      <c r="G1636" s="21"/>
+      <c r="C1636" s="20"/>
+      <c r="D1636" s="20"/>
+      <c r="E1636" s="20"/>
+      <c r="F1636" s="20"/>
+      <c r="G1636" s="20"/>
     </row>
     <row r="1637" spans="3:7">
-      <c r="C1637" s="21"/>
-      <c r="D1637" s="21"/>
-      <c r="E1637" s="21"/>
-      <c r="F1637" s="21"/>
-      <c r="G1637" s="21"/>
+      <c r="C1637" s="20"/>
+      <c r="D1637" s="20"/>
+      <c r="E1637" s="20"/>
+      <c r="F1637" s="20"/>
+      <c r="G1637" s="20"/>
     </row>
     <row r="1638" spans="3:7">
-      <c r="C1638" s="21"/>
-      <c r="D1638" s="21"/>
-      <c r="E1638" s="21"/>
-      <c r="F1638" s="21"/>
-      <c r="G1638" s="21"/>
+      <c r="C1638" s="20"/>
+      <c r="D1638" s="20"/>
+      <c r="E1638" s="20"/>
+      <c r="F1638" s="20"/>
+      <c r="G1638" s="20"/>
     </row>
     <row r="1639" spans="3:7">
-      <c r="C1639" s="21"/>
-      <c r="D1639" s="21"/>
-      <c r="E1639" s="21"/>
-      <c r="F1639" s="21"/>
-      <c r="G1639" s="21"/>
+      <c r="C1639" s="20"/>
+      <c r="D1639" s="20"/>
+      <c r="E1639" s="20"/>
+      <c r="F1639" s="20"/>
+      <c r="G1639" s="20"/>
     </row>
     <row r="1641" spans="1:1">
-      <c r="A1641" s="22"/>
+      <c r="A1641" s="21"/>
     </row>
     <row r="1642" spans="1:1">
-      <c r="A1642" s="22"/>
+      <c r="A1642" s="21"/>
     </row>
     <row r="1643" spans="1:1">
-      <c r="A1643" s="22"/>
+      <c r="A1643" s="21"/>
     </row>
     <row r="1644" spans="1:1">
-      <c r="A1644" s="22"/>
+      <c r="A1644" s="21"/>
     </row>
     <row r="1645" spans="1:1">
-      <c r="A1645" s="22"/>
+      <c r="A1645" s="21"/>
     </row>
     <row r="1646" spans="1:1">
-      <c r="A1646" s="22"/>
+      <c r="A1646" s="21"/>
     </row>
     <row r="1735" spans="1:1">
-      <c r="A1735" s="22"/>
+      <c r="A1735" s="21"/>
     </row>
     <row r="1736" spans="1:1">
-      <c r="A1736" s="22"/>
+      <c r="A1736" s="21"/>
     </row>
     <row r="1737" spans="1:1">
-      <c r="A1737" s="22"/>
+      <c r="A1737" s="21"/>
     </row>
     <row r="1738" spans="1:1">
-      <c r="A1738" s="22"/>
+      <c r="A1738" s="21"/>
     </row>
     <row r="1739" spans="1:1">
-      <c r="A1739" s="22"/>
+      <c r="A1739" s="21"/>
     </row>
     <row r="1747" spans="1:1">
-      <c r="A1747" s="22"/>
+      <c r="A1747" s="21"/>
     </row>
     <row r="1748" spans="1:1">
-      <c r="A1748" s="22"/>
+      <c r="A1748" s="21"/>
     </row>
     <row r="1750" spans="1:1">
-      <c r="A1750" s="22"/>
+      <c r="A1750" s="21"/>
     </row>
     <row r="1761" spans="1:1">
-      <c r="A1761" s="22"/>
+      <c r="A1761" s="21"/>
     </row>
     <row r="1786" spans="1:1">
-      <c r="A1786" s="22"/>
+      <c r="A1786" s="21"/>
     </row>
     <row r="1787" spans="1:1">
-      <c r="A1787" s="22"/>
+      <c r="A1787" s="21"/>
     </row>
     <row r="1798" spans="1:1">
-      <c r="A1798" s="22"/>
+      <c r="A1798" s="21"/>
     </row>
     <row r="1799" spans="1:1">
-      <c r="A1799" s="22"/>
+      <c r="A1799" s="21"/>
     </row>
     <row r="1800" spans="1:1">
-      <c r="A1800" s="22"/>
+      <c r="A1800" s="21"/>
     </row>
     <row r="1801" spans="1:1">
-      <c r="A1801" s="22"/>
+      <c r="A1801" s="21"/>
     </row>
     <row r="1802" spans="1:1">
-      <c r="A1802" s="22"/>
+      <c r="A1802" s="21"/>
     </row>
     <row r="1803" spans="1:1">
-      <c r="A1803" s="22"/>
+      <c r="A1803" s="21"/>
     </row>
     <row r="1804" spans="1:1">
-      <c r="A1804" s="22"/>
+      <c r="A1804" s="21"/>
     </row>
     <row r="1805" spans="1:1">
-      <c r="A1805" s="22"/>
+      <c r="A1805" s="21"/>
     </row>
     <row r="1807" spans="2:2">
       <c r="B1807" s="13"/>
     </row>
     <row r="1809" spans="1:1">
-      <c r="A1809" s="22"/>
+      <c r="A1809" s="21"/>
     </row>
     <row r="1810" spans="1:1">
-      <c r="A1810" s="22"/>
+      <c r="A1810" s="21"/>
     </row>
     <row r="1812" spans="1:1">
-      <c r="A1812" s="22"/>
+      <c r="A1812" s="21"/>
     </row>
     <row r="1813" spans="1:1">
-      <c r="A1813" s="22"/>
+      <c r="A1813" s="21"/>
     </row>
     <row r="1814" spans="1:1">
-      <c r="A1814" s="22"/>
+      <c r="A1814" s="21"/>
     </row>
     <row r="1815" spans="1:1">
-      <c r="A1815" s="22"/>
+      <c r="A1815" s="21"/>
     </row>
     <row r="1816" spans="1:1">
-      <c r="A1816" s="22"/>
+      <c r="A1816" s="21"/>
     </row>
     <row r="1817" spans="1:1">
-      <c r="A1817" s="22"/>
+      <c r="A1817" s="21"/>
     </row>
     <row r="1818" spans="1:1">
-      <c r="A1818" s="22"/>
+      <c r="A1818" s="21"/>
     </row>
     <row r="1819" spans="1:1">
-      <c r="A1819" s="22"/>
+      <c r="A1819" s="21"/>
     </row>
     <row r="1820" spans="1:1">
-      <c r="A1820" s="22"/>
+      <c r="A1820" s="21"/>
     </row>
     <row r="1856" spans="1:1">
-      <c r="A1856" s="22"/>
+      <c r="A1856" s="21"/>
     </row>
     <row r="1860" spans="1:1">
-      <c r="A1860" s="22"/>
+      <c r="A1860" s="21"/>
     </row>
     <row r="1863" spans="1:1">
-      <c r="A1863" s="22"/>
+      <c r="A1863" s="21"/>
     </row>
     <row r="1897" spans="1:1">
-      <c r="A1897" s="22"/>
+      <c r="A1897" s="21"/>
     </row>
     <row r="1905" spans="1:1">
-      <c r="A1905" s="22"/>
+      <c r="A1905" s="21"/>
     </row>
     <row r="1906" spans="1:1">
-      <c r="A1906" s="22"/>
+      <c r="A1906" s="21"/>
     </row>
     <row r="1907" spans="1:1">
-      <c r="A1907" s="22"/>
+      <c r="A1907" s="21"/>
     </row>
     <row r="1909" spans="1:1">
-      <c r="A1909" s="22"/>
+      <c r="A1909" s="21"/>
     </row>
     <row r="1914" spans="1:1">
-      <c r="A1914" s="22"/>
+      <c r="A1914" s="21"/>
     </row>
     <row r="1923" spans="1:1">
-      <c r="A1923" s="22"/>
+      <c r="A1923" s="21"/>
     </row>
     <row r="1924" spans="1:1">
-      <c r="A1924" s="22"/>
+      <c r="A1924" s="21"/>
     </row>
     <row r="1925" spans="1:1">
-      <c r="A1925" s="22"/>
+      <c r="A1925" s="21"/>
     </row>
     <row r="1926" spans="1:1">
-      <c r="A1926" s="22"/>
+      <c r="A1926" s="21"/>
     </row>
     <row r="1927" spans="1:1">
-      <c r="A1927" s="22"/>
+      <c r="A1927" s="21"/>
     </row>
     <row r="1928" spans="1:1">
-      <c r="A1928" s="22"/>
+      <c r="A1928" s="21"/>
     </row>
     <row r="1929" spans="1:1">
-      <c r="A1929" s="22"/>
+      <c r="A1929" s="21"/>
     </row>
     <row r="1930" spans="1:1">
-      <c r="A1930" s="22"/>
+      <c r="A1930" s="21"/>
     </row>
     <row r="1937" spans="5:7">
       <c r="E1937" s="7"/>
@@ -6681,1137 +6680,1137 @@
       <c r="G1952" s="7"/>
     </row>
     <row r="1969" spans="1:1">
-      <c r="A1969" s="22"/>
+      <c r="A1969" s="21"/>
     </row>
     <row r="1970" spans="1:1">
-      <c r="A1970" s="22"/>
+      <c r="A1970" s="21"/>
     </row>
     <row r="1971" spans="1:1">
-      <c r="A1971" s="22"/>
+      <c r="A1971" s="21"/>
     </row>
     <row r="1972" spans="1:1">
-      <c r="A1972" s="22"/>
+      <c r="A1972" s="21"/>
     </row>
     <row r="1974" spans="1:1">
-      <c r="A1974" s="22"/>
+      <c r="A1974" s="21"/>
     </row>
     <row r="1975" spans="1:1">
-      <c r="A1975" s="22"/>
+      <c r="A1975" s="21"/>
     </row>
     <row r="1976" spans="1:1">
-      <c r="A1976" s="22"/>
+      <c r="A1976" s="21"/>
     </row>
     <row r="1977" spans="1:1">
-      <c r="A1977" s="22"/>
+      <c r="A1977" s="21"/>
     </row>
     <row r="1978" spans="1:1">
-      <c r="A1978" s="22"/>
+      <c r="A1978" s="21"/>
     </row>
     <row r="1981" spans="1:1">
-      <c r="A1981" s="22"/>
+      <c r="A1981" s="21"/>
     </row>
     <row r="1982" spans="1:1">
-      <c r="A1982" s="22"/>
+      <c r="A1982" s="21"/>
     </row>
     <row r="1983" spans="1:1">
-      <c r="A1983" s="22"/>
+      <c r="A1983" s="21"/>
     </row>
     <row r="1984" spans="1:1">
-      <c r="A1984" s="22"/>
+      <c r="A1984" s="21"/>
     </row>
     <row r="1985" spans="1:1">
-      <c r="A1985" s="22"/>
+      <c r="A1985" s="21"/>
     </row>
     <row r="1987" spans="1:1">
-      <c r="A1987" s="22"/>
+      <c r="A1987" s="21"/>
     </row>
     <row r="1988" spans="1:1">
-      <c r="A1988" s="22"/>
+      <c r="A1988" s="21"/>
     </row>
     <row r="1989" spans="1:1">
-      <c r="A1989" s="22"/>
+      <c r="A1989" s="21"/>
     </row>
     <row r="1990" spans="1:1">
-      <c r="A1990" s="22"/>
+      <c r="A1990" s="21"/>
     </row>
     <row r="1991" spans="1:1">
-      <c r="A1991" s="22"/>
+      <c r="A1991" s="21"/>
     </row>
     <row r="1992" spans="1:1">
-      <c r="A1992" s="22"/>
+      <c r="A1992" s="21"/>
     </row>
     <row r="1993" spans="1:1">
-      <c r="A1993" s="22"/>
+      <c r="A1993" s="21"/>
     </row>
     <row r="1994" spans="1:1">
-      <c r="A1994" s="22"/>
+      <c r="A1994" s="21"/>
     </row>
     <row r="1995" spans="1:1">
-      <c r="A1995" s="22"/>
+      <c r="A1995" s="21"/>
     </row>
     <row r="1996" spans="1:1">
-      <c r="A1996" s="22"/>
+      <c r="A1996" s="21"/>
     </row>
     <row r="1997" spans="1:1">
-      <c r="A1997" s="22"/>
+      <c r="A1997" s="21"/>
     </row>
     <row r="1998" spans="1:1">
-      <c r="A1998" s="22"/>
+      <c r="A1998" s="21"/>
     </row>
     <row r="1999" spans="1:1">
-      <c r="A1999" s="22"/>
+      <c r="A1999" s="21"/>
     </row>
     <row r="2000" spans="1:1">
-      <c r="A2000" s="22"/>
+      <c r="A2000" s="21"/>
     </row>
     <row r="2001" spans="1:1">
-      <c r="A2001" s="22"/>
+      <c r="A2001" s="21"/>
     </row>
     <row r="2002" spans="1:1">
-      <c r="A2002" s="22"/>
+      <c r="A2002" s="21"/>
     </row>
     <row r="2003" spans="1:1">
-      <c r="A2003" s="22"/>
+      <c r="A2003" s="21"/>
     </row>
     <row r="2004" spans="1:1">
-      <c r="A2004" s="22"/>
+      <c r="A2004" s="21"/>
     </row>
     <row r="2005" spans="1:1">
-      <c r="A2005" s="22"/>
+      <c r="A2005" s="21"/>
     </row>
     <row r="2006" spans="1:1">
-      <c r="A2006" s="22"/>
+      <c r="A2006" s="21"/>
     </row>
     <row r="2007" spans="1:1">
-      <c r="A2007" s="22"/>
+      <c r="A2007" s="21"/>
     </row>
     <row r="2008" spans="1:1">
-      <c r="A2008" s="22"/>
+      <c r="A2008" s="21"/>
     </row>
     <row r="2009" spans="1:1">
-      <c r="A2009" s="22"/>
+      <c r="A2009" s="21"/>
     </row>
     <row r="2010" spans="1:1">
-      <c r="A2010" s="22"/>
+      <c r="A2010" s="21"/>
     </row>
     <row r="2011" spans="1:1">
-      <c r="A2011" s="22"/>
+      <c r="A2011" s="21"/>
     </row>
     <row r="2012" spans="1:1">
-      <c r="A2012" s="22"/>
+      <c r="A2012" s="21"/>
     </row>
     <row r="2013" spans="1:1">
-      <c r="A2013" s="22"/>
+      <c r="A2013" s="21"/>
     </row>
     <row r="2014" spans="1:1">
-      <c r="A2014" s="22"/>
+      <c r="A2014" s="21"/>
     </row>
     <row r="2015" spans="1:1">
-      <c r="A2015" s="22"/>
+      <c r="A2015" s="21"/>
     </row>
     <row r="2016" spans="1:1">
-      <c r="A2016" s="22"/>
+      <c r="A2016" s="21"/>
     </row>
     <row r="2017" spans="1:1">
-      <c r="A2017" s="22"/>
+      <c r="A2017" s="21"/>
     </row>
     <row r="2018" spans="1:1">
-      <c r="A2018" s="22"/>
+      <c r="A2018" s="21"/>
     </row>
     <row r="2019" spans="1:1">
-      <c r="A2019" s="22"/>
+      <c r="A2019" s="21"/>
     </row>
     <row r="2020" spans="1:1">
-      <c r="A2020" s="22"/>
+      <c r="A2020" s="21"/>
     </row>
     <row r="2021" spans="1:1">
-      <c r="A2021" s="22"/>
+      <c r="A2021" s="21"/>
     </row>
     <row r="2022" spans="1:1">
-      <c r="A2022" s="22"/>
+      <c r="A2022" s="21"/>
     </row>
     <row r="2023" spans="1:1">
-      <c r="A2023" s="22"/>
+      <c r="A2023" s="21"/>
     </row>
     <row r="2024" spans="1:1">
-      <c r="A2024" s="22"/>
+      <c r="A2024" s="21"/>
     </row>
     <row r="2025" spans="1:1">
-      <c r="A2025" s="22"/>
+      <c r="A2025" s="21"/>
     </row>
     <row r="2026" spans="1:1">
-      <c r="A2026" s="22"/>
+      <c r="A2026" s="21"/>
     </row>
     <row r="2027" spans="1:1">
-      <c r="A2027" s="22"/>
+      <c r="A2027" s="21"/>
     </row>
     <row r="2028" spans="1:1">
-      <c r="A2028" s="22"/>
+      <c r="A2028" s="21"/>
     </row>
     <row r="2058" spans="1:1">
-      <c r="A2058" s="22"/>
+      <c r="A2058" s="21"/>
     </row>
     <row r="2061" spans="1:1">
-      <c r="A2061" s="22"/>
+      <c r="A2061" s="21"/>
     </row>
     <row r="2103" spans="1:1">
-      <c r="A2103" s="22"/>
+      <c r="A2103" s="21"/>
     </row>
     <row r="2104" spans="1:1">
-      <c r="A2104" s="22"/>
+      <c r="A2104" s="21"/>
     </row>
     <row r="2160" spans="1:1">
-      <c r="A2160" s="22"/>
+      <c r="A2160" s="21"/>
     </row>
     <row r="2166" spans="1:1">
-      <c r="A2166" s="22"/>
+      <c r="A2166" s="21"/>
     </row>
     <row r="2167" spans="1:1">
-      <c r="A2167" s="22"/>
+      <c r="A2167" s="21"/>
     </row>
     <row r="2168" spans="1:1">
-      <c r="A2168" s="22"/>
+      <c r="A2168" s="21"/>
     </row>
     <row r="2169" spans="1:1">
-      <c r="A2169" s="22"/>
+      <c r="A2169" s="21"/>
     </row>
     <row r="2173" spans="1:1">
-      <c r="A2173" s="22"/>
+      <c r="A2173" s="21"/>
     </row>
     <row r="2174" spans="1:1">
-      <c r="A2174" s="22"/>
+      <c r="A2174" s="21"/>
     </row>
     <row r="2175" spans="1:1">
-      <c r="A2175" s="22"/>
+      <c r="A2175" s="21"/>
     </row>
     <row r="2177" spans="1:1">
-      <c r="A2177" s="22"/>
+      <c r="A2177" s="21"/>
     </row>
     <row r="2181" spans="2:2">
-      <c r="B2181" s="23"/>
+      <c r="B2181" s="22"/>
     </row>
     <row r="2182" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A2182" s="22"/>
+      <c r="A2182" s="21"/>
     </row>
     <row r="2183" spans="1:1">
-      <c r="A2183" s="22"/>
+      <c r="A2183" s="21"/>
     </row>
     <row r="2184" spans="1:1">
-      <c r="A2184" s="22"/>
+      <c r="A2184" s="21"/>
     </row>
     <row r="2185" spans="1:1">
-      <c r="A2185" s="22"/>
+      <c r="A2185" s="21"/>
     </row>
     <row r="2189" spans="1:1">
-      <c r="A2189" s="22"/>
+      <c r="A2189" s="21"/>
     </row>
     <row r="2190" spans="1:1">
-      <c r="A2190" s="22"/>
+      <c r="A2190" s="21"/>
     </row>
     <row r="2191" spans="1:1">
-      <c r="A2191" s="22"/>
+      <c r="A2191" s="21"/>
     </row>
     <row r="2192" spans="1:1">
-      <c r="A2192" s="22"/>
+      <c r="A2192" s="21"/>
     </row>
     <row r="2195" spans="1:1">
-      <c r="A2195" s="22"/>
+      <c r="A2195" s="21"/>
     </row>
     <row r="2197" spans="1:1">
-      <c r="A2197" s="22"/>
+      <c r="A2197" s="21"/>
     </row>
     <row r="2198" spans="1:1">
-      <c r="A2198" s="22"/>
+      <c r="A2198" s="21"/>
     </row>
     <row r="2199" spans="1:1">
-      <c r="A2199" s="22"/>
+      <c r="A2199" s="21"/>
     </row>
     <row r="2200" spans="1:1">
-      <c r="A2200" s="22"/>
+      <c r="A2200" s="21"/>
     </row>
     <row r="2201" spans="1:1">
-      <c r="A2201" s="22"/>
+      <c r="A2201" s="21"/>
     </row>
     <row r="2202" spans="1:1">
-      <c r="A2202" s="22"/>
+      <c r="A2202" s="21"/>
     </row>
     <row r="2203" spans="1:1">
-      <c r="A2203" s="22"/>
+      <c r="A2203" s="21"/>
     </row>
     <row r="2204" spans="1:1">
-      <c r="A2204" s="22"/>
+      <c r="A2204" s="21"/>
     </row>
     <row r="2205" spans="1:1">
-      <c r="A2205" s="22"/>
+      <c r="A2205" s="21"/>
     </row>
     <row r="2206" spans="1:1">
-      <c r="A2206" s="22"/>
+      <c r="A2206" s="21"/>
     </row>
     <row r="2209" spans="1:1">
-      <c r="A2209" s="22"/>
+      <c r="A2209" s="21"/>
     </row>
     <row r="2210" spans="1:1">
-      <c r="A2210" s="22"/>
+      <c r="A2210" s="21"/>
     </row>
     <row r="2211" spans="1:1">
-      <c r="A2211" s="22"/>
+      <c r="A2211" s="21"/>
     </row>
     <row r="2212" spans="1:1">
-      <c r="A2212" s="22"/>
+      <c r="A2212" s="21"/>
     </row>
     <row r="2213" spans="1:1">
-      <c r="A2213" s="22"/>
+      <c r="A2213" s="21"/>
     </row>
     <row r="2214" spans="1:1">
-      <c r="A2214" s="22"/>
+      <c r="A2214" s="21"/>
     </row>
     <row r="2215" spans="1:1">
-      <c r="A2215" s="22"/>
+      <c r="A2215" s="21"/>
     </row>
     <row r="2216" spans="1:1">
-      <c r="A2216" s="22"/>
+      <c r="A2216" s="21"/>
     </row>
     <row r="2217" spans="1:1">
-      <c r="A2217" s="22"/>
+      <c r="A2217" s="21"/>
     </row>
     <row r="2218" spans="1:1">
-      <c r="A2218" s="22"/>
+      <c r="A2218" s="21"/>
     </row>
     <row r="2219" spans="1:1">
-      <c r="A2219" s="22"/>
+      <c r="A2219" s="21"/>
     </row>
     <row r="2220" spans="1:1">
-      <c r="A2220" s="22"/>
+      <c r="A2220" s="21"/>
     </row>
     <row r="2221" spans="1:1">
-      <c r="A2221" s="22"/>
+      <c r="A2221" s="21"/>
     </row>
     <row r="2222" spans="1:1">
-      <c r="A2222" s="22"/>
+      <c r="A2222" s="21"/>
     </row>
     <row r="2223" spans="1:1">
-      <c r="A2223" s="22"/>
+      <c r="A2223" s="21"/>
     </row>
     <row r="2224" spans="1:1">
-      <c r="A2224" s="22"/>
+      <c r="A2224" s="21"/>
     </row>
     <row r="2225" spans="1:1">
-      <c r="A2225" s="22"/>
+      <c r="A2225" s="21"/>
     </row>
     <row r="2226" spans="1:1">
-      <c r="A2226" s="22"/>
+      <c r="A2226" s="21"/>
     </row>
     <row r="2227" spans="1:1">
-      <c r="A2227" s="22"/>
+      <c r="A2227" s="21"/>
     </row>
     <row r="2228" spans="1:1">
-      <c r="A2228" s="22"/>
+      <c r="A2228" s="21"/>
     </row>
     <row r="2229" spans="1:1">
-      <c r="A2229" s="22"/>
+      <c r="A2229" s="21"/>
     </row>
     <row r="2230" spans="1:1">
-      <c r="A2230" s="22"/>
+      <c r="A2230" s="21"/>
     </row>
     <row r="2231" spans="1:1">
-      <c r="A2231" s="22"/>
+      <c r="A2231" s="21"/>
     </row>
     <row r="2232" spans="1:1">
-      <c r="A2232" s="22"/>
+      <c r="A2232" s="21"/>
     </row>
     <row r="2233" spans="1:1">
-      <c r="A2233" s="22"/>
+      <c r="A2233" s="21"/>
     </row>
     <row r="2246" spans="1:2">
-      <c r="A2246" s="22"/>
-      <c r="B2246" s="23"/>
+      <c r="A2246" s="21"/>
+      <c r="B2246" s="22"/>
     </row>
     <row r="2247" spans="1:1">
-      <c r="A2247" s="22"/>
+      <c r="A2247" s="21"/>
     </row>
     <row r="2248" spans="1:1">
-      <c r="A2248" s="22"/>
+      <c r="A2248" s="21"/>
     </row>
     <row r="2249" spans="1:1">
-      <c r="A2249" s="22"/>
+      <c r="A2249" s="21"/>
     </row>
     <row r="2250" spans="1:1">
-      <c r="A2250" s="22"/>
+      <c r="A2250" s="21"/>
     </row>
     <row r="2252" spans="1:1">
-      <c r="A2252" s="22"/>
+      <c r="A2252" s="21"/>
     </row>
     <row r="2253" spans="1:1">
-      <c r="A2253" s="22"/>
+      <c r="A2253" s="21"/>
     </row>
     <row r="2255" spans="1:1">
-      <c r="A2255" s="22"/>
+      <c r="A2255" s="21"/>
     </row>
     <row r="2256" spans="1:1">
-      <c r="A2256" s="22"/>
+      <c r="A2256" s="21"/>
     </row>
     <row r="2263" spans="1:1">
-      <c r="A2263" s="22"/>
+      <c r="A2263" s="21"/>
     </row>
     <row r="2264" spans="1:1">
-      <c r="A2264" s="22"/>
+      <c r="A2264" s="21"/>
     </row>
     <row r="2276" spans="1:1">
-      <c r="A2276" s="22"/>
+      <c r="A2276" s="21"/>
     </row>
     <row r="2277" spans="1:1">
-      <c r="A2277" s="22"/>
+      <c r="A2277" s="21"/>
     </row>
     <row r="2278" spans="1:1">
-      <c r="A2278" s="22"/>
+      <c r="A2278" s="21"/>
     </row>
     <row r="2279" spans="1:1">
-      <c r="A2279" s="22"/>
+      <c r="A2279" s="21"/>
     </row>
     <row r="2280" spans="1:1">
-      <c r="A2280" s="22"/>
+      <c r="A2280" s="21"/>
     </row>
     <row r="2281" spans="1:1">
-      <c r="A2281" s="22"/>
+      <c r="A2281" s="21"/>
     </row>
     <row r="2283" spans="1:1">
-      <c r="A2283" s="22"/>
+      <c r="A2283" s="21"/>
     </row>
     <row r="2284" spans="1:1">
-      <c r="A2284" s="22"/>
+      <c r="A2284" s="21"/>
     </row>
     <row r="2285" spans="1:1">
-      <c r="A2285" s="22"/>
+      <c r="A2285" s="21"/>
     </row>
     <row r="2286" spans="1:1">
-      <c r="A2286" s="22"/>
+      <c r="A2286" s="21"/>
     </row>
     <row r="2287" spans="1:1">
-      <c r="A2287" s="22"/>
+      <c r="A2287" s="21"/>
     </row>
     <row r="2288" spans="1:1">
-      <c r="A2288" s="22"/>
+      <c r="A2288" s="21"/>
     </row>
     <row r="2289" spans="1:1">
-      <c r="A2289" s="22"/>
+      <c r="A2289" s="21"/>
     </row>
     <row r="2303" spans="1:1">
-      <c r="A2303" s="22"/>
+      <c r="A2303" s="21"/>
     </row>
     <row r="2310" spans="1:1">
-      <c r="A2310" s="22"/>
+      <c r="A2310" s="21"/>
     </row>
     <row r="2311" spans="1:1">
-      <c r="A2311" s="22"/>
+      <c r="A2311" s="21"/>
     </row>
     <row r="2312" spans="1:1">
-      <c r="A2312" s="22"/>
+      <c r="A2312" s="21"/>
     </row>
     <row r="2313" spans="1:1">
-      <c r="A2313" s="22"/>
+      <c r="A2313" s="21"/>
     </row>
     <row r="2314" spans="1:1">
-      <c r="A2314" s="22"/>
+      <c r="A2314" s="21"/>
     </row>
     <row r="2315" spans="1:1">
-      <c r="A2315" s="22"/>
+      <c r="A2315" s="21"/>
     </row>
     <row r="2316" spans="1:1">
-      <c r="A2316" s="22"/>
+      <c r="A2316" s="21"/>
     </row>
     <row r="2317" spans="1:1">
-      <c r="A2317" s="22"/>
+      <c r="A2317" s="21"/>
     </row>
     <row r="2318" spans="1:1">
-      <c r="A2318" s="22"/>
+      <c r="A2318" s="21"/>
     </row>
     <row r="2319" spans="1:1">
-      <c r="A2319" s="22"/>
+      <c r="A2319" s="21"/>
     </row>
     <row r="2320" spans="1:1">
-      <c r="A2320" s="22"/>
+      <c r="A2320" s="21"/>
     </row>
     <row r="2321" spans="1:1">
-      <c r="A2321" s="22"/>
+      <c r="A2321" s="21"/>
     </row>
     <row r="2322" spans="1:1">
-      <c r="A2322" s="22"/>
+      <c r="A2322" s="21"/>
     </row>
     <row r="2323" spans="1:1">
-      <c r="A2323" s="22"/>
+      <c r="A2323" s="21"/>
     </row>
     <row r="2324" spans="1:1">
-      <c r="A2324" s="22"/>
+      <c r="A2324" s="21"/>
     </row>
     <row r="2325" spans="1:1">
-      <c r="A2325" s="22"/>
+      <c r="A2325" s="21"/>
     </row>
     <row r="2327" spans="1:1">
-      <c r="A2327" s="22"/>
+      <c r="A2327" s="21"/>
     </row>
     <row r="2333" spans="1:1">
-      <c r="A2333" s="22"/>
+      <c r="A2333" s="21"/>
     </row>
     <row r="2334" spans="1:1">
-      <c r="A2334" s="22"/>
+      <c r="A2334" s="21"/>
     </row>
     <row r="2335" spans="1:1">
-      <c r="A2335" s="22"/>
+      <c r="A2335" s="21"/>
     </row>
     <row r="2336" spans="1:1">
-      <c r="A2336" s="22"/>
+      <c r="A2336" s="21"/>
     </row>
     <row r="2337" spans="1:1">
-      <c r="A2337" s="22"/>
+      <c r="A2337" s="21"/>
     </row>
     <row r="2338" spans="1:1">
-      <c r="A2338" s="22"/>
+      <c r="A2338" s="21"/>
     </row>
     <row r="2339" spans="1:1">
-      <c r="A2339" s="22"/>
+      <c r="A2339" s="21"/>
     </row>
     <row r="2340" spans="1:1">
-      <c r="A2340" s="22"/>
+      <c r="A2340" s="21"/>
     </row>
     <row r="2341" spans="1:1">
-      <c r="A2341" s="22"/>
+      <c r="A2341" s="21"/>
     </row>
     <row r="2342" spans="1:1">
-      <c r="A2342" s="22"/>
+      <c r="A2342" s="21"/>
     </row>
     <row r="2343" spans="1:1">
-      <c r="A2343" s="22"/>
+      <c r="A2343" s="21"/>
     </row>
     <row r="2347" spans="1:1">
-      <c r="A2347" s="22"/>
+      <c r="A2347" s="21"/>
     </row>
     <row r="2348" spans="1:1">
-      <c r="A2348" s="22"/>
+      <c r="A2348" s="21"/>
     </row>
     <row r="2349" spans="1:1">
-      <c r="A2349" s="22"/>
+      <c r="A2349" s="21"/>
     </row>
     <row r="2352" spans="1:1">
-      <c r="A2352" s="22"/>
+      <c r="A2352" s="21"/>
     </row>
     <row r="2353" spans="1:1">
-      <c r="A2353" s="22"/>
+      <c r="A2353" s="21"/>
     </row>
     <row r="2354" spans="1:1">
-      <c r="A2354" s="22"/>
+      <c r="A2354" s="21"/>
     </row>
     <row r="2355" spans="1:1">
-      <c r="A2355" s="22"/>
+      <c r="A2355" s="21"/>
     </row>
     <row r="2356" spans="1:1">
-      <c r="A2356" s="22"/>
+      <c r="A2356" s="21"/>
     </row>
     <row r="2357" spans="1:1">
-      <c r="A2357" s="22"/>
+      <c r="A2357" s="21"/>
     </row>
     <row r="2358" spans="1:1">
-      <c r="A2358" s="22"/>
+      <c r="A2358" s="21"/>
     </row>
     <row r="2359" spans="1:1">
-      <c r="A2359" s="22"/>
+      <c r="A2359" s="21"/>
     </row>
     <row r="2360" spans="1:1">
-      <c r="A2360" s="22"/>
+      <c r="A2360" s="21"/>
     </row>
     <row r="2363" spans="1:1">
-      <c r="A2363" s="22"/>
+      <c r="A2363" s="21"/>
     </row>
     <row r="2364" spans="1:1">
-      <c r="A2364" s="22"/>
+      <c r="A2364" s="21"/>
     </row>
     <row r="2365" spans="1:1">
-      <c r="A2365" s="22"/>
+      <c r="A2365" s="21"/>
     </row>
     <row r="2368" spans="1:1">
-      <c r="A2368" s="22"/>
+      <c r="A2368" s="21"/>
     </row>
     <row r="2374" spans="1:1">
-      <c r="A2374" s="22"/>
+      <c r="A2374" s="21"/>
     </row>
     <row r="2377" spans="1:1">
-      <c r="A2377" s="22"/>
+      <c r="A2377" s="21"/>
     </row>
     <row r="2378" spans="1:1">
-      <c r="A2378" s="22"/>
+      <c r="A2378" s="21"/>
     </row>
     <row r="2379" spans="1:1">
-      <c r="A2379" s="22"/>
+      <c r="A2379" s="21"/>
     </row>
     <row r="2380" spans="1:1">
-      <c r="A2380" s="22"/>
+      <c r="A2380" s="21"/>
     </row>
     <row r="2381" spans="1:1">
-      <c r="A2381" s="22"/>
+      <c r="A2381" s="21"/>
     </row>
     <row r="2382" spans="1:1">
-      <c r="A2382" s="22"/>
+      <c r="A2382" s="21"/>
     </row>
     <row r="2383" spans="1:1">
-      <c r="A2383" s="22"/>
+      <c r="A2383" s="21"/>
     </row>
     <row r="2384" spans="1:1">
-      <c r="A2384" s="22"/>
+      <c r="A2384" s="21"/>
     </row>
     <row r="2385" spans="1:1">
-      <c r="A2385" s="22"/>
+      <c r="A2385" s="21"/>
     </row>
     <row r="2386" spans="1:1">
-      <c r="A2386" s="22"/>
+      <c r="A2386" s="21"/>
     </row>
     <row r="2388" spans="1:1">
-      <c r="A2388" s="22"/>
+      <c r="A2388" s="21"/>
     </row>
     <row r="2390" spans="1:1">
-      <c r="A2390" s="22"/>
+      <c r="A2390" s="21"/>
     </row>
     <row r="2391" spans="1:1">
-      <c r="A2391" s="22"/>
+      <c r="A2391" s="21"/>
     </row>
     <row r="2393" spans="1:1">
-      <c r="A2393" s="22"/>
+      <c r="A2393" s="21"/>
     </row>
     <row r="2395" spans="1:1">
-      <c r="A2395" s="22"/>
+      <c r="A2395" s="21"/>
     </row>
     <row r="2396" spans="1:1">
-      <c r="A2396" s="22"/>
+      <c r="A2396" s="21"/>
     </row>
     <row r="2397" spans="1:1">
-      <c r="A2397" s="22"/>
+      <c r="A2397" s="21"/>
     </row>
     <row r="2398" spans="1:1">
-      <c r="A2398" s="22"/>
+      <c r="A2398" s="21"/>
     </row>
     <row r="2399" spans="1:1">
-      <c r="A2399" s="22"/>
+      <c r="A2399" s="21"/>
     </row>
     <row r="2400" spans="1:1">
-      <c r="A2400" s="22"/>
+      <c r="A2400" s="21"/>
     </row>
     <row r="2401" spans="1:1">
-      <c r="A2401" s="22"/>
+      <c r="A2401" s="21"/>
     </row>
     <row r="2402" spans="1:1">
-      <c r="A2402" s="22"/>
+      <c r="A2402" s="21"/>
     </row>
     <row r="2403" spans="1:1">
-      <c r="A2403" s="22"/>
+      <c r="A2403" s="21"/>
     </row>
     <row r="2404" spans="1:1">
-      <c r="A2404" s="22"/>
+      <c r="A2404" s="21"/>
     </row>
     <row r="2405" spans="1:1">
-      <c r="A2405" s="22"/>
+      <c r="A2405" s="21"/>
     </row>
     <row r="2406" spans="1:1">
-      <c r="A2406" s="22"/>
+      <c r="A2406" s="21"/>
     </row>
     <row r="2407" spans="1:1">
-      <c r="A2407" s="22"/>
+      <c r="A2407" s="21"/>
     </row>
     <row r="2408" spans="1:1">
-      <c r="A2408" s="22"/>
+      <c r="A2408" s="21"/>
     </row>
     <row r="2409" spans="1:1">
-      <c r="A2409" s="22"/>
+      <c r="A2409" s="21"/>
     </row>
     <row r="2410" spans="1:1">
-      <c r="A2410" s="22"/>
+      <c r="A2410" s="21"/>
     </row>
     <row r="2411" spans="1:1">
-      <c r="A2411" s="22"/>
+      <c r="A2411" s="21"/>
     </row>
     <row r="2412" spans="1:1">
-      <c r="A2412" s="22"/>
+      <c r="A2412" s="21"/>
     </row>
     <row r="2413" spans="1:1">
-      <c r="A2413" s="22"/>
+      <c r="A2413" s="21"/>
     </row>
     <row r="2414" spans="1:1">
-      <c r="A2414" s="22"/>
+      <c r="A2414" s="21"/>
     </row>
     <row r="2443" spans="2:2">
-      <c r="B2443" s="31"/>
+      <c r="B2443" s="30"/>
     </row>
     <row r="2465" spans="1:1">
-      <c r="A2465" s="22"/>
+      <c r="A2465" s="21"/>
     </row>
     <row r="2466" spans="1:1">
-      <c r="A2466" s="22"/>
+      <c r="A2466" s="21"/>
     </row>
     <row r="2475" spans="1:2">
-      <c r="A2475" s="22"/>
-      <c r="B2475" s="23"/>
+      <c r="A2475" s="21"/>
+      <c r="B2475" s="22"/>
     </row>
     <row r="2497" spans="1:1">
-      <c r="A2497" s="22"/>
+      <c r="A2497" s="21"/>
     </row>
     <row r="2498" spans="1:1">
-      <c r="A2498" s="22"/>
+      <c r="A2498" s="21"/>
     </row>
     <row r="2505" spans="1:1">
-      <c r="A2505" s="22"/>
+      <c r="A2505" s="21"/>
     </row>
     <row r="2506" spans="1:1">
-      <c r="A2506" s="22"/>
+      <c r="A2506" s="21"/>
     </row>
     <row r="2507" spans="1:1">
-      <c r="A2507" s="22"/>
+      <c r="A2507" s="21"/>
     </row>
     <row r="2509" spans="1:1">
-      <c r="A2509" s="22"/>
+      <c r="A2509" s="21"/>
     </row>
     <row r="2511" spans="1:1">
-      <c r="A2511" s="22"/>
+      <c r="A2511" s="21"/>
     </row>
     <row r="2512" spans="1:1">
-      <c r="A2512" s="22"/>
+      <c r="A2512" s="21"/>
     </row>
     <row r="2513" spans="1:1">
-      <c r="A2513" s="22"/>
+      <c r="A2513" s="21"/>
     </row>
     <row r="2514" spans="1:1">
-      <c r="A2514" s="22"/>
+      <c r="A2514" s="21"/>
     </row>
     <row r="2515" spans="1:1">
-      <c r="A2515" s="22"/>
+      <c r="A2515" s="21"/>
     </row>
     <row r="2516" spans="1:1">
-      <c r="A2516" s="22"/>
+      <c r="A2516" s="21"/>
     </row>
     <row r="2517" spans="1:1">
-      <c r="A2517" s="22"/>
+      <c r="A2517" s="21"/>
     </row>
     <row r="2518" spans="1:1">
-      <c r="A2518" s="22"/>
+      <c r="A2518" s="21"/>
     </row>
     <row r="2519" spans="1:1">
-      <c r="A2519" s="22"/>
+      <c r="A2519" s="21"/>
     </row>
     <row r="2520" spans="1:1">
-      <c r="A2520" s="22"/>
+      <c r="A2520" s="21"/>
     </row>
     <row r="2521" spans="1:1">
-      <c r="A2521" s="22"/>
+      <c r="A2521" s="21"/>
     </row>
     <row r="2522" spans="1:1">
-      <c r="A2522" s="22"/>
+      <c r="A2522" s="21"/>
     </row>
     <row r="2523" spans="1:1">
-      <c r="A2523" s="22"/>
+      <c r="A2523" s="21"/>
     </row>
     <row r="2524" spans="1:1">
-      <c r="A2524" s="22"/>
+      <c r="A2524" s="21"/>
     </row>
     <row r="2526" spans="1:1">
-      <c r="A2526" s="22"/>
+      <c r="A2526" s="21"/>
     </row>
     <row r="2527" spans="1:1">
-      <c r="A2527" s="22"/>
+      <c r="A2527" s="21"/>
     </row>
     <row r="2542" spans="1:1">
-      <c r="A2542" s="22"/>
+      <c r="A2542" s="21"/>
     </row>
     <row r="2571" spans="2:2">
-      <c r="B2571" s="32"/>
+      <c r="B2571" s="31"/>
     </row>
     <row r="2573" spans="1:1">
-      <c r="A2573" s="22"/>
+      <c r="A2573" s="21"/>
     </row>
     <row r="2574" spans="1:1">
-      <c r="A2574" s="22"/>
+      <c r="A2574" s="21"/>
     </row>
     <row r="2575" spans="1:1">
-      <c r="A2575" s="22"/>
+      <c r="A2575" s="21"/>
     </row>
     <row r="2579" spans="1:1">
-      <c r="A2579" s="22"/>
+      <c r="A2579" s="21"/>
     </row>
     <row r="2582" spans="1:1">
-      <c r="A2582" s="22"/>
+      <c r="A2582" s="21"/>
     </row>
     <row r="2583" spans="1:1">
-      <c r="A2583" s="22"/>
+      <c r="A2583" s="21"/>
     </row>
     <row r="2584" spans="1:1">
-      <c r="A2584" s="22"/>
+      <c r="A2584" s="21"/>
     </row>
     <row r="2585" spans="1:1">
-      <c r="A2585" s="22"/>
+      <c r="A2585" s="21"/>
     </row>
     <row r="2586" spans="1:1">
-      <c r="A2586" s="22"/>
+      <c r="A2586" s="21"/>
     </row>
     <row r="2587" spans="1:1">
-      <c r="A2587" s="22"/>
+      <c r="A2587" s="21"/>
     </row>
     <row r="2588" spans="1:1">
-      <c r="A2588" s="22"/>
+      <c r="A2588" s="21"/>
     </row>
     <row r="2590" spans="1:1">
-      <c r="A2590" s="22"/>
+      <c r="A2590" s="21"/>
     </row>
     <row r="2591" spans="1:1">
-      <c r="A2591" s="22"/>
+      <c r="A2591" s="21"/>
     </row>
     <row r="2592" spans="1:1">
-      <c r="A2592" s="22"/>
+      <c r="A2592" s="21"/>
     </row>
     <row r="2593" spans="1:1">
-      <c r="A2593" s="22"/>
+      <c r="A2593" s="21"/>
     </row>
     <row r="2594" spans="1:1">
-      <c r="A2594" s="22"/>
+      <c r="A2594" s="21"/>
     </row>
     <row r="2595" spans="1:1">
-      <c r="A2595" s="22"/>
+      <c r="A2595" s="21"/>
     </row>
     <row r="2597" spans="2:2">
-      <c r="B2597" s="30"/>
+      <c r="B2597" s="29"/>
     </row>
     <row r="2599" spans="1:1">
-      <c r="A2599" s="22"/>
+      <c r="A2599" s="21"/>
     </row>
     <row r="2600" spans="1:1">
-      <c r="A2600" s="22"/>
+      <c r="A2600" s="21"/>
     </row>
     <row r="2601" spans="1:1">
-      <c r="A2601" s="22"/>
+      <c r="A2601" s="21"/>
     </row>
     <row r="2602" spans="1:1">
-      <c r="A2602" s="22"/>
+      <c r="A2602" s="21"/>
     </row>
     <row r="2603" spans="1:1">
-      <c r="A2603" s="22"/>
+      <c r="A2603" s="21"/>
     </row>
     <row r="2604" spans="1:1">
-      <c r="A2604" s="22"/>
+      <c r="A2604" s="21"/>
     </row>
     <row r="2605" spans="1:1">
-      <c r="A2605" s="22"/>
+      <c r="A2605" s="21"/>
     </row>
     <row r="2606" spans="1:1">
-      <c r="A2606" s="22"/>
+      <c r="A2606" s="21"/>
     </row>
     <row r="2607" spans="1:1">
-      <c r="A2607" s="22"/>
+      <c r="A2607" s="21"/>
     </row>
     <row r="2608" spans="1:1">
-      <c r="A2608" s="22"/>
+      <c r="A2608" s="21"/>
     </row>
     <row r="2609" spans="1:1">
-      <c r="A2609" s="22"/>
+      <c r="A2609" s="21"/>
     </row>
     <row r="2610" spans="1:1">
-      <c r="A2610" s="22"/>
+      <c r="A2610" s="21"/>
     </row>
     <row r="2611" spans="1:1">
-      <c r="A2611" s="22"/>
+      <c r="A2611" s="21"/>
     </row>
     <row r="2612" spans="1:1">
-      <c r="A2612" s="22"/>
+      <c r="A2612" s="21"/>
     </row>
     <row r="2620" spans="2:2">
-      <c r="B2620" s="33"/>
+      <c r="B2620" s="32"/>
     </row>
     <row r="2627" spans="2:2">
-      <c r="B2627" s="33"/>
+      <c r="B2627" s="32"/>
     </row>
     <row r="2638" spans="1:1">
-      <c r="A2638" s="22"/>
+      <c r="A2638" s="21"/>
     </row>
     <row r="2639" spans="1:1">
-      <c r="A2639" s="22"/>
+      <c r="A2639" s="21"/>
     </row>
     <row r="2640" spans="1:1">
-      <c r="A2640" s="22"/>
+      <c r="A2640" s="21"/>
     </row>
     <row r="2641" spans="1:1">
-      <c r="A2641" s="22"/>
+      <c r="A2641" s="21"/>
     </row>
     <row r="2642" spans="1:1">
-      <c r="A2642" s="22"/>
+      <c r="A2642" s="21"/>
     </row>
     <row r="2643" spans="1:1">
-      <c r="A2643" s="22"/>
+      <c r="A2643" s="21"/>
     </row>
     <row r="2644" spans="1:1">
-      <c r="A2644" s="22"/>
+      <c r="A2644" s="21"/>
     </row>
     <row r="2645" spans="1:1">
-      <c r="A2645" s="22"/>
+      <c r="A2645" s="21"/>
     </row>
     <row r="2646" spans="1:1">
-      <c r="A2646" s="22"/>
+      <c r="A2646" s="21"/>
     </row>
     <row r="2647" spans="1:1">
-      <c r="A2647" s="22"/>
+      <c r="A2647" s="21"/>
     </row>
     <row r="2648" spans="1:1">
-      <c r="A2648" s="22"/>
+      <c r="A2648" s="21"/>
     </row>
     <row r="2649" spans="1:1">
-      <c r="A2649" s="22"/>
+      <c r="A2649" s="21"/>
     </row>
     <row r="2661" spans="2:2">
-      <c r="B2661" s="34"/>
+      <c r="B2661" s="33"/>
     </row>
     <row r="2678" spans="2:2">
       <c r="B2678" s="5"/>
     </row>
     <row r="2861" spans="1:1">
-      <c r="A2861" s="22"/>
+      <c r="A2861" s="21"/>
     </row>
     <row r="2862" spans="1:1">
-      <c r="A2862" s="22"/>
+      <c r="A2862" s="21"/>
     </row>
     <row r="2863" spans="1:1">
-      <c r="A2863" s="22"/>
+      <c r="A2863" s="21"/>
     </row>
     <row r="2864" spans="1:1">
-      <c r="A2864" s="22"/>
+      <c r="A2864" s="21"/>
     </row>
     <row r="2866" spans="1:1">
-      <c r="A2866" s="22"/>
+      <c r="A2866" s="21"/>
     </row>
     <row r="2867" spans="1:1">
-      <c r="A2867" s="22"/>
+      <c r="A2867" s="21"/>
     </row>
     <row r="2973" spans="1:1">
-      <c r="A2973" s="22"/>
+      <c r="A2973" s="21"/>
     </row>
     <row r="2975" spans="1:1">
-      <c r="A2975" s="22"/>
+      <c r="A2975" s="21"/>
     </row>
     <row r="2986" spans="1:1">
-      <c r="A2986" s="22"/>
+      <c r="A2986" s="21"/>
     </row>
     <row r="2987" spans="1:1">
-      <c r="A2987" s="22"/>
+      <c r="A2987" s="21"/>
     </row>
     <row r="2988" spans="1:1">
-      <c r="A2988" s="22"/>
+      <c r="A2988" s="21"/>
     </row>
     <row r="2989" spans="1:1">
-      <c r="A2989" s="22"/>
+      <c r="A2989" s="21"/>
     </row>
     <row r="2990" spans="1:1">
-      <c r="A2990" s="22"/>
+      <c r="A2990" s="21"/>
     </row>
     <row r="2991" spans="1:1">
-      <c r="A2991" s="22"/>
+      <c r="A2991" s="21"/>
     </row>
     <row r="2997" spans="1:1">
-      <c r="A2997" s="22"/>
+      <c r="A2997" s="21"/>
     </row>
     <row r="2998" spans="1:1">
-      <c r="A2998" s="22"/>
+      <c r="A2998" s="21"/>
     </row>
     <row r="2999" spans="1:1">
-      <c r="A2999" s="22"/>
+      <c r="A2999" s="21"/>
     </row>
     <row r="3000" spans="1:1">
-      <c r="A3000" s="22"/>
+      <c r="A3000" s="21"/>
     </row>
     <row r="3001" spans="1:1">
-      <c r="A3001" s="22"/>
+      <c r="A3001" s="21"/>
     </row>
     <row r="3002" spans="1:1">
-      <c r="A3002" s="22"/>
+      <c r="A3002" s="21"/>
     </row>
     <row r="3003" spans="1:1">
-      <c r="A3003" s="22"/>
+      <c r="A3003" s="21"/>
     </row>
     <row r="3004" spans="1:1">
-      <c r="A3004" s="22"/>
+      <c r="A3004" s="21"/>
     </row>
     <row r="3005" spans="1:1">
-      <c r="A3005" s="22"/>
+      <c r="A3005" s="21"/>
     </row>
     <row r="3006" spans="1:1">
-      <c r="A3006" s="22"/>
+      <c r="A3006" s="21"/>
     </row>
     <row r="3012" spans="1:1">
-      <c r="A3012" s="22"/>
+      <c r="A3012" s="21"/>
     </row>
     <row r="3024" spans="1:1">
-      <c r="A3024" s="22"/>
+      <c r="A3024" s="21"/>
     </row>
     <row r="3029" spans="1:1">
-      <c r="A3029" s="22"/>
+      <c r="A3029" s="21"/>
     </row>
     <row r="3048" spans="3:3">
-      <c r="C3048" s="23"/>
+      <c r="C3048" s="22"/>
     </row>
     <row r="3086" spans="1:2">
-      <c r="A3086" s="22"/>
-      <c r="B3086" s="23"/>
+      <c r="A3086" s="21"/>
+      <c r="B3086" s="22"/>
     </row>
     <row r="3149" spans="1:1">
-      <c r="A3149" s="22"/>
+      <c r="A3149" s="21"/>
     </row>
     <row r="3151" spans="1:1">
-      <c r="A3151" s="22"/>
+      <c r="A3151" s="21"/>
     </row>
     <row r="3204" spans="3:3">
-      <c r="C3204" s="23"/>
+      <c r="C3204" s="22"/>
     </row>
     <row r="3205" spans="3:3">
-      <c r="C3205" s="23"/>
+      <c r="C3205" s="22"/>
     </row>
     <row r="3213" spans="1:3">
-      <c r="A3213" s="22"/>
-      <c r="C3213" s="23"/>
+      <c r="A3213" s="21"/>
+      <c r="C3213" s="22"/>
     </row>
     <row r="3214" spans="1:3">
-      <c r="A3214" s="22"/>
-      <c r="C3214" s="23"/>
+      <c r="A3214" s="21"/>
+      <c r="C3214" s="22"/>
     </row>
     <row r="3215" spans="1:3">
-      <c r="A3215" s="22"/>
-      <c r="C3215" s="23"/>
+      <c r="A3215" s="21"/>
+      <c r="C3215" s="22"/>
     </row>
     <row r="3216" spans="1:3">
-      <c r="A3216" s="22"/>
-      <c r="C3216" s="23"/>
+      <c r="A3216" s="21"/>
+      <c r="C3216" s="22"/>
     </row>
     <row r="3223" spans="3:3">
-      <c r="C3223" s="23"/>
+      <c r="C3223" s="22"/>
     </row>
     <row r="3224" spans="3:3">
-      <c r="C3224" s="23"/>
+      <c r="C3224" s="22"/>
     </row>
     <row r="3229" spans="3:3">
-      <c r="C3229" s="23"/>
+      <c r="C3229" s="22"/>
     </row>
     <row r="3231" spans="1:3">
-      <c r="A3231" s="22"/>
-      <c r="C3231" s="23"/>
+      <c r="A3231" s="21"/>
+      <c r="C3231" s="22"/>
     </row>
     <row r="3232" spans="3:3">
-      <c r="C3232" s="23"/>
+      <c r="C3232" s="22"/>
     </row>
     <row r="3233" spans="3:3">
-      <c r="C3233" s="23"/>
+      <c r="C3233" s="22"/>
     </row>
     <row r="3263" spans="1:1">
-      <c r="A3263" s="22"/>
+      <c r="A3263" s="21"/>
     </row>
     <row r="3286" spans="3:3">
       <c r="C3286" s="7"/>
     </row>
     <row r="3353" spans="1:1">
-      <c r="A3353" s="22"/>
+      <c r="A3353" s="21"/>
     </row>
     <row r="3420" spans="3:3">
-      <c r="C3420" s="23"/>
+      <c r="C3420" s="22"/>
     </row>
     <row r="3424" spans="1:1">
-      <c r="A3424" s="22"/>
+      <c r="A3424" s="21"/>
     </row>
     <row r="3425" spans="1:1">
-      <c r="A3425" s="22"/>
+      <c r="A3425" s="21"/>
     </row>
     <row r="3426" spans="1:1">
-      <c r="A3426" s="22"/>
+      <c r="A3426" s="21"/>
     </row>
     <row r="3427" spans="1:1">
-      <c r="A3427" s="22"/>
+      <c r="A3427" s="21"/>
     </row>
     <row r="3428" spans="1:1">
-      <c r="A3428" s="22"/>
+      <c r="A3428" s="21"/>
     </row>
     <row r="3429" spans="1:1">
-      <c r="A3429" s="22"/>
+      <c r="A3429" s="21"/>
     </row>
     <row r="3430" spans="1:1">
-      <c r="A3430" s="22"/>
+      <c r="A3430" s="21"/>
     </row>
     <row r="3431" spans="1:1">
-      <c r="A3431" s="22"/>
+      <c r="A3431" s="21"/>
     </row>
     <row r="3432" spans="1:1">
-      <c r="A3432" s="22"/>
+      <c r="A3432" s="21"/>
     </row>
     <row r="3434" spans="1:1">
-      <c r="A3434" s="22"/>
+      <c r="A3434" s="21"/>
     </row>
     <row r="3435" spans="1:1">
-      <c r="A3435" s="22"/>
+      <c r="A3435" s="21"/>
     </row>
     <row r="3438" spans="1:1">
-      <c r="A3438" s="22"/>
+      <c r="A3438" s="21"/>
     </row>
     <row r="3440" spans="1:1">
-      <c r="A3440" s="22"/>
+      <c r="A3440" s="21"/>
     </row>
     <row r="3441" spans="1:1">
-      <c r="A3441" s="22"/>
+      <c r="A3441" s="21"/>
     </row>
     <row r="3442" spans="1:1">
-      <c r="A3442" s="22"/>
+      <c r="A3442" s="21"/>
     </row>
     <row r="3443" spans="1:1">
-      <c r="A3443" s="22"/>
+      <c r="A3443" s="21"/>
     </row>
     <row r="3445" spans="1:1">
-      <c r="A3445" s="22"/>
+      <c r="A3445" s="21"/>
     </row>
     <row r="3446" spans="1:1">
-      <c r="A3446" s="22"/>
+      <c r="A3446" s="21"/>
     </row>
     <row r="3447" spans="1:1">
-      <c r="A3447" s="22"/>
+      <c r="A3447" s="21"/>
     </row>
     <row r="3448" spans="1:1">
-      <c r="A3448" s="22"/>
+      <c r="A3448" s="21"/>
     </row>
     <row r="3449" spans="1:1">
-      <c r="A3449" s="22"/>
+      <c r="A3449" s="21"/>
     </row>
     <row r="3451" spans="1:1">
-      <c r="A3451" s="22"/>
+      <c r="A3451" s="21"/>
     </row>
     <row r="3469" spans="1:1">
-      <c r="A3469" s="22"/>
+      <c r="A3469" s="21"/>
     </row>
     <row r="3606" spans="1:1">
-      <c r="A3606" s="22"/>
+      <c r="A3606" s="21"/>
     </row>
     <row r="3640" spans="3:3">
       <c r="C3640" s="7"/>
     </row>
     <row r="3665" spans="1:1">
-      <c r="A3665" s="22"/>
+      <c r="A3665" s="21"/>
     </row>
     <row r="3719" spans="1:1">
-      <c r="A3719" s="22"/>
+      <c r="A3719" s="21"/>
     </row>
     <row r="3720" spans="1:1">
-      <c r="A3720" s="22"/>
+      <c r="A3720" s="21"/>
     </row>
     <row r="3722" spans="1:1">
-      <c r="A3722" s="22"/>
+      <c r="A3722" s="21"/>
     </row>
     <row r="3723" spans="2:2">
-      <c r="B3723" s="23"/>
+      <c r="B3723" s="22"/>
     </row>
     <row r="3727" spans="1:1">
-      <c r="A3727" s="22"/>
+      <c r="A3727" s="21"/>
     </row>
     <row r="3728" spans="1:1">
-      <c r="A3728" s="22"/>
+      <c r="A3728" s="21"/>
     </row>
     <row r="3729" spans="1:1">
-      <c r="A3729" s="22"/>
+      <c r="A3729" s="21"/>
     </row>
     <row r="3736" spans="3:3">
-      <c r="C3736" s="35"/>
+      <c r="C3736" s="34"/>
     </row>
     <row r="3737" spans="2:2">
       <c r="B3737" s="7"/>
@@ -7820,7 +7819,7 @@
       <c r="B3738" s="7"/>
     </row>
     <row r="3750" spans="3:3">
-      <c r="C3750" s="35"/>
+      <c r="C3750" s="34"/>
     </row>
     <row r="3751" spans="2:2">
       <c r="B3751" s="7"/>
@@ -7830,113 +7829,113 @@
     </row>
     <row r="3756" spans="2:3">
       <c r="B3756" s="7"/>
-      <c r="C3756" s="36"/>
+      <c r="C3756" s="35"/>
     </row>
     <row r="3757" spans="2:3">
       <c r="B3757" s="7"/>
-      <c r="C3757" s="36"/>
+      <c r="C3757" s="35"/>
     </row>
     <row r="3758" spans="2:2">
-      <c r="B3758" s="23"/>
+      <c r="B3758" s="22"/>
     </row>
     <row r="3759" spans="1:2">
-      <c r="A3759" s="22"/>
+      <c r="A3759" s="21"/>
       <c r="B3759" s="7"/>
     </row>
     <row r="3760" spans="1:2">
-      <c r="A3760" s="37"/>
-      <c r="B3760" s="38"/>
+      <c r="A3760" s="36"/>
+      <c r="B3760" s="37"/>
     </row>
     <row r="3761" spans="1:2">
-      <c r="A3761" s="37"/>
-      <c r="B3761" s="38"/>
+      <c r="A3761" s="36"/>
+      <c r="B3761" s="37"/>
     </row>
     <row r="3762" spans="2:3">
       <c r="B3762" s="7"/>
-      <c r="C3762" s="36"/>
+      <c r="C3762" s="35"/>
     </row>
     <row r="3763" spans="1:3">
-      <c r="A3763" s="24"/>
+      <c r="A3763" s="23"/>
       <c r="B3763" s="7"/>
-      <c r="C3763" s="36"/>
+      <c r="C3763" s="35"/>
     </row>
     <row r="3764" spans="1:3">
-      <c r="A3764" s="24"/>
+      <c r="A3764" s="23"/>
       <c r="B3764" s="7"/>
-      <c r="C3764" s="36"/>
+      <c r="C3764" s="35"/>
     </row>
     <row r="3765" spans="1:3">
-      <c r="A3765" s="24"/>
+      <c r="A3765" s="23"/>
       <c r="B3765" s="7"/>
-      <c r="C3765" s="36"/>
+      <c r="C3765" s="35"/>
     </row>
     <row r="3766" spans="1:3">
-      <c r="A3766" s="24"/>
+      <c r="A3766" s="23"/>
       <c r="B3766" s="7"/>
-      <c r="C3766" s="36"/>
+      <c r="C3766" s="35"/>
     </row>
     <row r="3777" spans="2:3">
       <c r="B3777" s="7"/>
-      <c r="C3777" s="36"/>
+      <c r="C3777" s="35"/>
     </row>
     <row r="3778" spans="2:3">
       <c r="B3778" s="7"/>
-      <c r="C3778" s="36"/>
+      <c r="C3778" s="35"/>
     </row>
     <row r="3779" spans="1:3">
-      <c r="A3779" s="24"/>
+      <c r="A3779" s="23"/>
       <c r="B3779" s="7"/>
-      <c r="C3779" s="36"/>
+      <c r="C3779" s="35"/>
     </row>
     <row r="3780" spans="1:3">
-      <c r="A3780" s="24"/>
+      <c r="A3780" s="23"/>
       <c r="B3780" s="7"/>
-      <c r="C3780" s="36"/>
+      <c r="C3780" s="35"/>
     </row>
     <row r="3781" spans="1:3">
-      <c r="A3781" s="24"/>
+      <c r="A3781" s="23"/>
       <c r="B3781" s="7"/>
-      <c r="C3781" s="36"/>
+      <c r="C3781" s="35"/>
     </row>
     <row r="3782" spans="1:3">
-      <c r="A3782" s="24"/>
+      <c r="A3782" s="23"/>
       <c r="B3782" s="7"/>
-      <c r="C3782" s="36"/>
+      <c r="C3782" s="35"/>
     </row>
     <row r="3783" spans="1:3">
-      <c r="A3783" s="24"/>
+      <c r="A3783" s="23"/>
       <c r="B3783" s="7"/>
-      <c r="C3783" s="36"/>
+      <c r="C3783" s="35"/>
     </row>
     <row r="3784" spans="1:3">
-      <c r="A3784" s="24"/>
+      <c r="A3784" s="23"/>
       <c r="B3784" s="7"/>
-      <c r="C3784" s="36"/>
+      <c r="C3784" s="35"/>
     </row>
     <row r="3785" spans="1:3">
-      <c r="A3785" s="24"/>
+      <c r="A3785" s="23"/>
       <c r="B3785" s="7"/>
-      <c r="C3785" s="36"/>
+      <c r="C3785" s="35"/>
     </row>
     <row r="3786" spans="1:3">
-      <c r="A3786" s="24"/>
+      <c r="A3786" s="23"/>
       <c r="B3786" s="7"/>
-      <c r="C3786" s="36"/>
+      <c r="C3786" s="35"/>
     </row>
     <row r="3787" spans="1:3">
-      <c r="A3787" s="24"/>
+      <c r="A3787" s="23"/>
       <c r="B3787" s="7"/>
-      <c r="C3787" s="36"/>
+      <c r="C3787" s="35"/>
     </row>
     <row r="3788" spans="1:3">
-      <c r="A3788" s="24"/>
+      <c r="A3788" s="23"/>
       <c r="B3788" s="7"/>
-      <c r="C3788" s="36"/>
+      <c r="C3788" s="35"/>
     </row>
     <row r="3789" spans="1:3">
-      <c r="A3789" s="24"/>
+      <c r="A3789" s="23"/>
       <c r="B3789" s="7"/>
-      <c r="C3789" s="36"/>
+      <c r="C3789" s="35"/>
     </row>
     <row r="3790" spans="2:2">
       <c r="B3790" s="7"/>
@@ -7949,7 +7948,7 @@
     </row>
     <row r="3793" spans="2:3">
       <c r="B3793" s="7"/>
-      <c r="C3793" s="36"/>
+      <c r="C3793" s="35"/>
     </row>
     <row r="3799" spans="2:2">
       <c r="B3799" s="7"/>
@@ -8009,38 +8008,38 @@
       <c r="B3846" s="7"/>
     </row>
     <row r="3847" spans="1:2">
-      <c r="A3847" s="22"/>
+      <c r="A3847" s="21"/>
       <c r="B3847" s="7"/>
     </row>
     <row r="3848" spans="1:2">
-      <c r="A3848" s="22"/>
+      <c r="A3848" s="21"/>
       <c r="B3848" s="7"/>
     </row>
     <row r="3849" spans="1:2">
-      <c r="A3849" s="22"/>
+      <c r="A3849" s="21"/>
       <c r="B3849" s="7"/>
     </row>
     <row r="3850" spans="2:2">
       <c r="B3850" s="7"/>
     </row>
     <row r="3851" spans="1:2">
-      <c r="A3851" s="22"/>
+      <c r="A3851" s="21"/>
       <c r="B3851" s="7"/>
     </row>
     <row r="3852" spans="1:2">
-      <c r="A3852" s="22"/>
+      <c r="A3852" s="21"/>
       <c r="B3852" s="10"/>
     </row>
     <row r="3853" spans="1:2">
-      <c r="A3853" s="22"/>
+      <c r="A3853" s="21"/>
       <c r="B3853" s="7"/>
     </row>
     <row r="3854" spans="1:2">
-      <c r="A3854" s="22"/>
+      <c r="A3854" s="21"/>
       <c r="B3854" s="7"/>
     </row>
     <row r="3855" spans="1:2">
-      <c r="A3855" s="22"/>
+      <c r="A3855" s="21"/>
       <c r="B3855" s="7"/>
     </row>
     <row r="3856" spans="2:2">
@@ -8050,30 +8049,30 @@
       <c r="B3857" s="7"/>
     </row>
     <row r="3858" spans="1:2">
-      <c r="A3858" s="22"/>
+      <c r="A3858" s="21"/>
       <c r="B3858" s="7"/>
     </row>
     <row r="3859" spans="1:2">
-      <c r="A3859" s="22"/>
+      <c r="A3859" s="21"/>
       <c r="B3859" s="7"/>
     </row>
     <row r="3860" spans="1:2">
-      <c r="A3860" s="22"/>
+      <c r="A3860" s="21"/>
       <c r="B3860" s="7"/>
     </row>
     <row r="3861" spans="1:2">
-      <c r="A3861" s="22"/>
+      <c r="A3861" s="21"/>
       <c r="B3861" s="7"/>
     </row>
     <row r="3862" spans="1:2">
-      <c r="A3862" s="22"/>
+      <c r="A3862" s="21"/>
       <c r="B3862" s="7"/>
     </row>
     <row r="3863" spans="2:2">
       <c r="B3863" s="7"/>
     </row>
     <row r="3864" spans="1:2">
-      <c r="A3864" s="22"/>
+      <c r="A3864" s="21"/>
       <c r="B3864" s="7"/>
     </row>
     <row r="3865" spans="2:2">
@@ -8089,47 +8088,47 @@
       <c r="B3868" s="7"/>
     </row>
     <row r="3878" spans="1:2">
-      <c r="A3878" s="22"/>
+      <c r="A3878" s="21"/>
       <c r="B3878" s="7"/>
     </row>
     <row r="3879" spans="1:2">
-      <c r="A3879" s="24"/>
+      <c r="A3879" s="23"/>
       <c r="B3879" s="7"/>
     </row>
     <row r="3880" spans="1:2">
-      <c r="A3880" s="24"/>
+      <c r="A3880" s="23"/>
       <c r="B3880" s="7"/>
     </row>
     <row r="3881" spans="1:2">
-      <c r="A3881" s="24"/>
+      <c r="A3881" s="23"/>
       <c r="B3881" s="7"/>
     </row>
     <row r="3882" spans="1:2">
-      <c r="A3882" s="24"/>
+      <c r="A3882" s="23"/>
       <c r="B3882" s="7"/>
     </row>
     <row r="3883" spans="1:2">
-      <c r="A3883" s="22"/>
+      <c r="A3883" s="21"/>
       <c r="B3883" s="7"/>
     </row>
     <row r="3884" spans="1:2">
-      <c r="A3884" s="22"/>
+      <c r="A3884" s="21"/>
       <c r="B3884" s="7"/>
     </row>
     <row r="3885" spans="1:2">
-      <c r="A3885" s="22"/>
+      <c r="A3885" s="21"/>
       <c r="B3885" s="7"/>
     </row>
     <row r="3886" spans="2:3">
       <c r="B3886" s="7"/>
-      <c r="C3886" s="36"/>
+      <c r="C3886" s="35"/>
     </row>
     <row r="3902" spans="1:2">
-      <c r="A3902" s="22"/>
+      <c r="A3902" s="21"/>
       <c r="B3902" s="7"/>
     </row>
     <row r="3903" spans="1:2">
-      <c r="A3903" s="22"/>
+      <c r="A3903" s="21"/>
       <c r="B3903" s="7"/>
     </row>
     <row r="3904" spans="2:2">
@@ -8139,167 +8138,167 @@
       <c r="B3905" s="7"/>
     </row>
     <row r="3906" spans="1:2">
-      <c r="A3906" s="24"/>
+      <c r="A3906" s="23"/>
       <c r="B3906" s="7"/>
     </row>
     <row r="3907" spans="1:2">
-      <c r="A3907" s="24"/>
+      <c r="A3907" s="23"/>
       <c r="B3907" s="7"/>
     </row>
     <row r="3908" spans="1:2">
-      <c r="A3908" s="24"/>
+      <c r="A3908" s="23"/>
       <c r="B3908" s="7"/>
     </row>
     <row r="3909" spans="1:2">
-      <c r="A3909" s="24"/>
+      <c r="A3909" s="23"/>
       <c r="B3909" s="7"/>
     </row>
     <row r="3910" spans="1:2">
-      <c r="A3910" s="24"/>
+      <c r="A3910" s="23"/>
       <c r="B3910" s="7"/>
     </row>
     <row r="3911" spans="1:2">
-      <c r="A3911" s="24"/>
+      <c r="A3911" s="23"/>
       <c r="B3911" s="7"/>
     </row>
     <row r="3912" spans="1:2">
-      <c r="A3912" s="24"/>
+      <c r="A3912" s="23"/>
       <c r="B3912" s="7"/>
     </row>
     <row r="3913" spans="1:2">
-      <c r="A3913" s="24"/>
+      <c r="A3913" s="23"/>
       <c r="B3913" s="7"/>
     </row>
     <row r="3914" spans="1:2">
-      <c r="A3914" s="24"/>
+      <c r="A3914" s="23"/>
       <c r="B3914" s="7"/>
     </row>
     <row r="3915" spans="1:2">
-      <c r="A3915" s="24"/>
+      <c r="A3915" s="23"/>
       <c r="B3915" s="7"/>
     </row>
     <row r="3916" spans="1:2">
-      <c r="A3916" s="24"/>
+      <c r="A3916" s="23"/>
       <c r="B3916" s="7"/>
     </row>
     <row r="3917" spans="1:2">
-      <c r="A3917" s="24"/>
+      <c r="A3917" s="23"/>
       <c r="B3917" s="7"/>
     </row>
     <row r="3918" spans="1:2">
-      <c r="A3918" s="24"/>
+      <c r="A3918" s="23"/>
       <c r="B3918" s="7"/>
     </row>
     <row r="3919" spans="1:2">
-      <c r="A3919" s="24"/>
+      <c r="A3919" s="23"/>
       <c r="B3919" s="7"/>
     </row>
     <row r="3920" spans="1:2">
-      <c r="A3920" s="24"/>
+      <c r="A3920" s="23"/>
       <c r="B3920" s="7"/>
     </row>
     <row r="3921" spans="1:2">
-      <c r="A3921" s="24"/>
+      <c r="A3921" s="23"/>
       <c r="B3921" s="7"/>
     </row>
     <row r="3922" spans="1:2">
-      <c r="A3922" s="24"/>
+      <c r="A3922" s="23"/>
       <c r="B3922" s="7"/>
     </row>
     <row r="3923" spans="1:2">
-      <c r="A3923" s="24"/>
+      <c r="A3923" s="23"/>
       <c r="B3923" s="7"/>
     </row>
     <row r="3924" spans="1:2">
-      <c r="A3924" s="24"/>
+      <c r="A3924" s="23"/>
       <c r="B3924" s="7"/>
     </row>
     <row r="3925" spans="1:2">
-      <c r="A3925" s="24"/>
+      <c r="A3925" s="23"/>
       <c r="B3925" s="7"/>
     </row>
     <row r="3926" spans="1:2">
-      <c r="A3926" s="24"/>
+      <c r="A3926" s="23"/>
       <c r="B3926" s="7"/>
     </row>
     <row r="3927" spans="1:2">
-      <c r="A3927" s="24"/>
+      <c r="A3927" s="23"/>
       <c r="B3927" s="7"/>
     </row>
     <row r="3928" spans="1:2">
-      <c r="A3928" s="24"/>
+      <c r="A3928" s="23"/>
       <c r="B3928" s="7"/>
     </row>
     <row r="3929" spans="1:2">
-      <c r="A3929" s="24"/>
+      <c r="A3929" s="23"/>
       <c r="B3929" s="7"/>
     </row>
     <row r="3930" spans="1:2">
-      <c r="A3930" s="24"/>
+      <c r="A3930" s="23"/>
       <c r="B3930" s="7"/>
     </row>
     <row r="3931" spans="1:2">
-      <c r="A3931" s="24"/>
+      <c r="A3931" s="23"/>
       <c r="B3931" s="7"/>
     </row>
     <row r="3932" spans="1:2">
-      <c r="A3932" s="24"/>
+      <c r="A3932" s="23"/>
       <c r="B3932" s="7"/>
     </row>
     <row r="3933" spans="1:2">
-      <c r="A3933" s="24"/>
+      <c r="A3933" s="23"/>
       <c r="B3933" s="7"/>
     </row>
     <row r="3934" spans="1:2">
-      <c r="A3934" s="24"/>
+      <c r="A3934" s="23"/>
       <c r="B3934" s="7"/>
     </row>
     <row r="3935" spans="1:2">
-      <c r="A3935" s="24"/>
+      <c r="A3935" s="23"/>
       <c r="B3935" s="7"/>
     </row>
     <row r="3936" spans="1:2">
-      <c r="A3936" s="24"/>
+      <c r="A3936" s="23"/>
       <c r="B3936" s="7"/>
     </row>
     <row r="3937" spans="1:2">
-      <c r="A3937" s="24"/>
+      <c r="A3937" s="23"/>
       <c r="B3937" s="7"/>
     </row>
     <row r="3938" spans="1:2">
-      <c r="A3938" s="24"/>
+      <c r="A3938" s="23"/>
       <c r="B3938" s="7"/>
     </row>
     <row r="3939" spans="1:2">
-      <c r="A3939" s="24"/>
+      <c r="A3939" s="23"/>
       <c r="B3939" s="7"/>
     </row>
     <row r="3940" spans="1:2">
-      <c r="A3940" s="24"/>
+      <c r="A3940" s="23"/>
       <c r="B3940" s="7"/>
     </row>
     <row r="3941" spans="1:2">
-      <c r="A3941" s="24"/>
+      <c r="A3941" s="23"/>
       <c r="B3941" s="7"/>
     </row>
     <row r="3942" spans="1:2">
-      <c r="A3942" s="24"/>
+      <c r="A3942" s="23"/>
       <c r="B3942" s="7"/>
     </row>
     <row r="3943" spans="1:2">
-      <c r="A3943" s="24"/>
+      <c r="A3943" s="23"/>
       <c r="B3943" s="7"/>
     </row>
     <row r="3948" spans="1:2">
-      <c r="A3948" s="24"/>
+      <c r="A3948" s="23"/>
       <c r="B3948" s="7"/>
     </row>
     <row r="3951" spans="1:2">
-      <c r="A3951" s="22"/>
+      <c r="A3951" s="21"/>
       <c r="B3951" s="7"/>
     </row>
     <row r="3952" spans="1:2">
-      <c r="A3952" s="22"/>
+      <c r="A3952" s="21"/>
       <c r="B3952" s="7"/>
     </row>
     <row r="3953" spans="2:2">
@@ -8346,15 +8345,15 @@
       <c r="B3984" s="7"/>
     </row>
     <row r="3985" spans="1:2">
-      <c r="A3985" s="22"/>
+      <c r="A3985" s="21"/>
       <c r="B3985" s="7"/>
     </row>
     <row r="3986" spans="1:2">
-      <c r="A3986" s="22"/>
+      <c r="A3986" s="21"/>
       <c r="B3986" s="7"/>
     </row>
     <row r="3991" spans="1:2">
-      <c r="A3991" s="22"/>
+      <c r="A3991" s="21"/>
       <c r="B3991" s="7"/>
     </row>
     <row r="3999" spans="2:2">
@@ -8436,15 +8435,15 @@
       <c r="B4032" s="7"/>
     </row>
     <row r="4033" spans="1:2">
-      <c r="A4033" s="24"/>
+      <c r="A4033" s="23"/>
       <c r="B4033" s="7"/>
     </row>
     <row r="4034" spans="1:2">
-      <c r="A4034" s="22"/>
+      <c r="A4034" s="21"/>
       <c r="B4034" s="7"/>
     </row>
     <row r="4035" spans="1:2">
-      <c r="A4035" s="22"/>
+      <c r="A4035" s="21"/>
       <c r="B4035" s="7"/>
     </row>
     <row r="4036" spans="2:2">
@@ -8460,7 +8459,7 @@
       <c r="B4042" s="7"/>
     </row>
     <row r="4043" spans="1:2">
-      <c r="A4043" s="22"/>
+      <c r="A4043" s="21"/>
       <c r="B4043" s="7"/>
     </row>
     <row r="4045" spans="2:2">
@@ -8536,15 +8535,15 @@
       <c r="B4095" s="7"/>
     </row>
     <row r="4096" spans="1:2">
-      <c r="A4096" s="22"/>
+      <c r="A4096" s="21"/>
       <c r="B4096" s="7"/>
     </row>
     <row r="4097" spans="1:2">
-      <c r="A4097" s="22"/>
+      <c r="A4097" s="21"/>
       <c r="B4097" s="7"/>
     </row>
     <row r="4098" spans="1:2">
-      <c r="A4098" s="22"/>
+      <c r="A4098" s="21"/>
       <c r="B4098" s="7"/>
     </row>
     <row r="4099" spans="2:2">
@@ -8554,9 +8553,9 @@
       <c r="B4100" s="7"/>
     </row>
     <row r="4102" ht="15.75" spans="1:3">
-      <c r="A4102" s="39"/>
+      <c r="A4102" s="38"/>
       <c r="B4102" s="7"/>
-      <c r="C4102" s="40"/>
+      <c r="C4102" s="39"/>
     </row>
     <row r="4147" spans="2:2">
       <c r="B4147" s="7"/>
@@ -8670,175 +8669,175 @@
       <c r="B4213" s="7"/>
     </row>
     <row r="4214" spans="2:2">
-      <c r="B4214" s="30"/>
+      <c r="B4214" s="29"/>
     </row>
     <row r="4215" spans="2:2">
-      <c r="B4215" s="30"/>
+      <c r="B4215" s="29"/>
     </row>
     <row r="4216" spans="2:2">
-      <c r="B4216" s="30"/>
+      <c r="B4216" s="29"/>
     </row>
     <row r="4217" spans="2:2">
-      <c r="B4217" s="30"/>
+      <c r="B4217" s="29"/>
     </row>
     <row r="4218" spans="2:2">
-      <c r="B4218" s="30"/>
+      <c r="B4218" s="29"/>
     </row>
     <row r="4219" spans="2:2">
-      <c r="B4219" s="30"/>
+      <c r="B4219" s="29"/>
     </row>
     <row r="4220" spans="2:2">
-      <c r="B4220" s="30"/>
+      <c r="B4220" s="29"/>
     </row>
     <row r="4221" spans="2:2">
-      <c r="B4221" s="30"/>
+      <c r="B4221" s="29"/>
     </row>
     <row r="4222" spans="2:2">
-      <c r="B4222" s="30"/>
+      <c r="B4222" s="29"/>
     </row>
     <row r="4223" spans="2:2">
-      <c r="B4223" s="30"/>
+      <c r="B4223" s="29"/>
     </row>
     <row r="4224" spans="2:2">
-      <c r="B4224" s="30"/>
+      <c r="B4224" s="29"/>
     </row>
     <row r="4225" spans="2:2">
-      <c r="B4225" s="30"/>
+      <c r="B4225" s="29"/>
     </row>
     <row r="4226" spans="2:2">
-      <c r="B4226" s="30"/>
+      <c r="B4226" s="29"/>
     </row>
     <row r="4227" spans="2:2">
-      <c r="B4227" s="30"/>
+      <c r="B4227" s="29"/>
     </row>
     <row r="4228" spans="2:2">
-      <c r="B4228" s="30"/>
+      <c r="B4228" s="29"/>
     </row>
     <row r="4229" spans="2:2">
-      <c r="B4229" s="30"/>
+      <c r="B4229" s="29"/>
     </row>
     <row r="4230" spans="2:2">
-      <c r="B4230" s="30"/>
+      <c r="B4230" s="29"/>
     </row>
     <row r="4231" spans="2:2">
-      <c r="B4231" s="30"/>
+      <c r="B4231" s="29"/>
     </row>
     <row r="4232" spans="2:2">
-      <c r="B4232" s="30"/>
+      <c r="B4232" s="29"/>
     </row>
     <row r="4233" spans="2:2">
-      <c r="B4233" s="30"/>
+      <c r="B4233" s="29"/>
     </row>
     <row r="4234" spans="2:2">
-      <c r="B4234" s="30"/>
+      <c r="B4234" s="29"/>
     </row>
     <row r="4235" spans="2:2">
-      <c r="B4235" s="30"/>
+      <c r="B4235" s="29"/>
     </row>
     <row r="4236" spans="2:2">
-      <c r="B4236" s="30"/>
+      <c r="B4236" s="29"/>
     </row>
     <row r="4237" spans="2:2">
-      <c r="B4237" s="30"/>
+      <c r="B4237" s="29"/>
     </row>
     <row r="4238" spans="2:2">
-      <c r="B4238" s="30"/>
+      <c r="B4238" s="29"/>
     </row>
     <row r="4239" spans="2:2">
-      <c r="B4239" s="30"/>
+      <c r="B4239" s="29"/>
     </row>
     <row r="4240" spans="2:2">
-      <c r="B4240" s="30"/>
+      <c r="B4240" s="29"/>
     </row>
     <row r="4241" spans="2:2">
-      <c r="B4241" s="30"/>
+      <c r="B4241" s="29"/>
     </row>
     <row r="4242" spans="2:2">
-      <c r="B4242" s="30"/>
+      <c r="B4242" s="29"/>
     </row>
     <row r="4243" spans="2:2">
-      <c r="B4243" s="30"/>
+      <c r="B4243" s="29"/>
     </row>
     <row r="4244" spans="2:2">
-      <c r="B4244" s="30"/>
+      <c r="B4244" s="29"/>
     </row>
     <row r="4245" spans="2:2">
-      <c r="B4245" s="30"/>
+      <c r="B4245" s="29"/>
     </row>
     <row r="4246" spans="2:2">
-      <c r="B4246" s="30"/>
+      <c r="B4246" s="29"/>
     </row>
     <row r="4247" spans="2:2">
-      <c r="B4247" s="30"/>
+      <c r="B4247" s="29"/>
     </row>
     <row r="4248" spans="2:2">
-      <c r="B4248" s="30"/>
+      <c r="B4248" s="29"/>
     </row>
     <row r="4249" spans="2:2">
-      <c r="B4249" s="30"/>
+      <c r="B4249" s="29"/>
     </row>
     <row r="4250" spans="2:2">
-      <c r="B4250" s="30"/>
+      <c r="B4250" s="29"/>
     </row>
     <row r="4251" spans="2:2">
-      <c r="B4251" s="30"/>
+      <c r="B4251" s="29"/>
     </row>
     <row r="4252" spans="2:2">
-      <c r="B4252" s="30"/>
+      <c r="B4252" s="29"/>
     </row>
     <row r="4253" spans="2:2">
-      <c r="B4253" s="30"/>
+      <c r="B4253" s="29"/>
     </row>
     <row r="4254" spans="2:2">
-      <c r="B4254" s="30"/>
+      <c r="B4254" s="29"/>
     </row>
     <row r="4255" spans="2:2">
-      <c r="B4255" s="30"/>
+      <c r="B4255" s="29"/>
     </row>
     <row r="4256" spans="2:2">
-      <c r="B4256" s="30"/>
+      <c r="B4256" s="29"/>
     </row>
     <row r="4257" spans="2:2">
-      <c r="B4257" s="30"/>
+      <c r="B4257" s="29"/>
     </row>
     <row r="4258" spans="2:2">
-      <c r="B4258" s="30"/>
+      <c r="B4258" s="29"/>
     </row>
     <row r="4259" spans="2:2">
-      <c r="B4259" s="30"/>
+      <c r="B4259" s="29"/>
     </row>
     <row r="4260" spans="2:2">
-      <c r="B4260" s="30"/>
+      <c r="B4260" s="29"/>
     </row>
     <row r="4261" spans="2:2">
-      <c r="B4261" s="30"/>
+      <c r="B4261" s="29"/>
     </row>
     <row r="4262" spans="2:2">
-      <c r="B4262" s="30"/>
+      <c r="B4262" s="29"/>
     </row>
     <row r="4263" spans="2:2">
-      <c r="B4263" s="30"/>
+      <c r="B4263" s="29"/>
     </row>
     <row r="4264" spans="2:2">
-      <c r="B4264" s="30"/>
+      <c r="B4264" s="29"/>
     </row>
     <row r="4265" spans="2:2">
-      <c r="B4265" s="30"/>
+      <c r="B4265" s="29"/>
     </row>
     <row r="4266" spans="2:2">
-      <c r="B4266" s="30"/>
+      <c r="B4266" s="29"/>
     </row>
     <row r="4267" spans="2:2">
-      <c r="B4267" s="30"/>
+      <c r="B4267" s="29"/>
     </row>
     <row r="4268" spans="2:2">
-      <c r="B4268" s="30"/>
+      <c r="B4268" s="29"/>
     </row>
     <row r="4269" spans="2:2">
-      <c r="B4269" s="30"/>
+      <c r="B4269" s="29"/>
     </row>
     <row r="4270" spans="2:2">
-      <c r="B4270" s="30"/>
+      <c r="B4270" s="29"/>
     </row>
     <row r="4271" spans="2:2">
       <c r="B4271" s="7"/>
@@ -8847,7 +8846,7 @@
       <c r="B4272" s="7"/>
     </row>
     <row r="4273" spans="1:2">
-      <c r="A4273" s="22"/>
+      <c r="A4273" s="21"/>
       <c r="B4273" s="7"/>
     </row>
     <row r="4275" spans="2:2">
@@ -8878,11 +8877,11 @@
       <c r="B4285" s="7"/>
     </row>
     <row r="4286" spans="1:2">
-      <c r="A4286" s="22"/>
+      <c r="A4286" s="21"/>
       <c r="B4286" s="7"/>
     </row>
     <row r="4287" spans="2:2">
-      <c r="B4287" s="35"/>
+      <c r="B4287" s="34"/>
     </row>
     <row r="4288" spans="2:2">
       <c r="B4288" s="7"/>
@@ -8924,7 +8923,7 @@
       <c r="B4308" s="7"/>
     </row>
     <row r="4309" spans="1:1">
-      <c r="A4309" s="22"/>
+      <c r="A4309" s="21"/>
     </row>
     <row r="4316" spans="2:2">
       <c r="B4316" s="7"/>
@@ -9041,83 +9040,83 @@
       <c r="B4375" s="7"/>
     </row>
     <row r="4383" ht="18" customHeight="1" spans="1:7">
-      <c r="A4383" s="41"/>
-      <c r="B4383" s="42"/>
-      <c r="C4383" s="43"/>
-      <c r="D4383" s="43"/>
-      <c r="E4383" s="43"/>
-      <c r="F4383" s="43"/>
-      <c r="G4383" s="43"/>
+      <c r="A4383" s="40"/>
+      <c r="B4383" s="41"/>
+      <c r="C4383" s="42"/>
+      <c r="D4383" s="42"/>
+      <c r="E4383" s="42"/>
+      <c r="F4383" s="42"/>
+      <c r="G4383" s="42"/>
     </row>
     <row r="4384" spans="1:7">
-      <c r="A4384" s="41"/>
-      <c r="B4384" s="42"/>
-      <c r="C4384" s="43"/>
-      <c r="D4384" s="43"/>
-      <c r="E4384" s="43"/>
-      <c r="F4384" s="43"/>
-      <c r="G4384" s="43"/>
+      <c r="A4384" s="40"/>
+      <c r="B4384" s="41"/>
+      <c r="C4384" s="42"/>
+      <c r="D4384" s="42"/>
+      <c r="E4384" s="42"/>
+      <c r="F4384" s="42"/>
+      <c r="G4384" s="42"/>
     </row>
     <row r="4385" spans="2:7">
       <c r="B4385" s="7"/>
-      <c r="C4385" s="43"/>
-      <c r="D4385" s="43"/>
-      <c r="E4385" s="43"/>
-      <c r="F4385" s="43"/>
-      <c r="G4385" s="43"/>
+      <c r="C4385" s="42"/>
+      <c r="D4385" s="42"/>
+      <c r="E4385" s="42"/>
+      <c r="F4385" s="42"/>
+      <c r="G4385" s="42"/>
     </row>
     <row r="4386" spans="2:7">
       <c r="B4386" s="7"/>
-      <c r="C4386" s="43"/>
-      <c r="D4386" s="43"/>
-      <c r="E4386" s="43"/>
-      <c r="F4386" s="43"/>
-      <c r="G4386" s="43"/>
+      <c r="C4386" s="42"/>
+      <c r="D4386" s="42"/>
+      <c r="E4386" s="42"/>
+      <c r="F4386" s="42"/>
+      <c r="G4386" s="42"/>
     </row>
     <row r="4387" spans="2:7">
       <c r="B4387" s="7"/>
-      <c r="C4387" s="43"/>
-      <c r="D4387" s="43"/>
-      <c r="E4387" s="43"/>
-      <c r="F4387" s="43"/>
-      <c r="G4387" s="43"/>
+      <c r="C4387" s="42"/>
+      <c r="D4387" s="42"/>
+      <c r="E4387" s="42"/>
+      <c r="F4387" s="42"/>
+      <c r="G4387" s="42"/>
     </row>
     <row r="4388" spans="2:7">
       <c r="B4388" s="7"/>
-      <c r="C4388" s="43"/>
-      <c r="D4388" s="43"/>
-      <c r="E4388" s="43"/>
-      <c r="F4388" s="43"/>
-      <c r="G4388" s="43"/>
+      <c r="C4388" s="42"/>
+      <c r="D4388" s="42"/>
+      <c r="E4388" s="42"/>
+      <c r="F4388" s="42"/>
+      <c r="G4388" s="42"/>
     </row>
     <row r="4389" spans="2:7">
       <c r="B4389" s="7"/>
-      <c r="C4389" s="43"/>
-      <c r="D4389" s="43"/>
-      <c r="E4389" s="43"/>
-      <c r="F4389" s="43"/>
-      <c r="G4389" s="43"/>
+      <c r="C4389" s="42"/>
+      <c r="D4389" s="42"/>
+      <c r="E4389" s="42"/>
+      <c r="F4389" s="42"/>
+      <c r="G4389" s="42"/>
     </row>
     <row r="4420" spans="2:7">
       <c r="B4420" s="7"/>
-      <c r="D4420" s="43"/>
-      <c r="E4420" s="43"/>
-      <c r="F4420" s="43"/>
-      <c r="G4420" s="43"/>
+      <c r="D4420" s="42"/>
+      <c r="E4420" s="42"/>
+      <c r="F4420" s="42"/>
+      <c r="G4420" s="42"/>
     </row>
     <row r="4421" spans="2:7">
       <c r="B4421" s="7"/>
-      <c r="D4421" s="43"/>
-      <c r="E4421" s="43"/>
-      <c r="F4421" s="43"/>
-      <c r="G4421" s="43"/>
+      <c r="D4421" s="42"/>
+      <c r="E4421" s="42"/>
+      <c r="F4421" s="42"/>
+      <c r="G4421" s="42"/>
     </row>
     <row r="4422" spans="2:7">
       <c r="B4422" s="7"/>
-      <c r="D4422" s="43"/>
-      <c r="E4422" s="43"/>
-      <c r="F4422" s="43"/>
-      <c r="G4422" s="43"/>
+      <c r="D4422" s="42"/>
+      <c r="E4422" s="42"/>
+      <c r="F4422" s="42"/>
+      <c r="G4422" s="42"/>
     </row>
     <row r="4423" spans="2:2">
       <c r="B4423" s="7"/>
@@ -9130,114 +9129,114 @@
     </row>
     <row r="4427" ht="15.75" customHeight="1" spans="2:7">
       <c r="B4427" s="7"/>
-      <c r="D4427" s="43"/>
-      <c r="E4427" s="43"/>
-      <c r="F4427" s="43"/>
-      <c r="G4427" s="43"/>
+      <c r="D4427" s="42"/>
+      <c r="E4427" s="42"/>
+      <c r="F4427" s="42"/>
+      <c r="G4427" s="42"/>
     </row>
     <row r="4428" spans="2:7">
       <c r="B4428" s="7"/>
-      <c r="D4428" s="43"/>
-      <c r="E4428" s="43"/>
-      <c r="F4428" s="43"/>
-      <c r="G4428" s="43"/>
+      <c r="D4428" s="42"/>
+      <c r="E4428" s="42"/>
+      <c r="F4428" s="42"/>
+      <c r="G4428" s="42"/>
     </row>
     <row r="4429" spans="2:7">
       <c r="B4429" s="7"/>
-      <c r="D4429" s="43"/>
-      <c r="E4429" s="43"/>
-      <c r="F4429" s="43"/>
-      <c r="G4429" s="43"/>
+      <c r="D4429" s="42"/>
+      <c r="E4429" s="42"/>
+      <c r="F4429" s="42"/>
+      <c r="G4429" s="42"/>
     </row>
     <row r="4430" spans="2:7">
       <c r="B4430" s="7"/>
-      <c r="D4430" s="43"/>
-      <c r="E4430" s="43"/>
-      <c r="F4430" s="43"/>
-      <c r="G4430" s="43"/>
+      <c r="D4430" s="42"/>
+      <c r="E4430" s="42"/>
+      <c r="F4430" s="42"/>
+      <c r="G4430" s="42"/>
     </row>
     <row r="4431" spans="2:7">
       <c r="B4431" s="7"/>
-      <c r="D4431" s="43"/>
-      <c r="E4431" s="43"/>
-      <c r="F4431" s="43"/>
-      <c r="G4431" s="43"/>
+      <c r="D4431" s="42"/>
+      <c r="E4431" s="42"/>
+      <c r="F4431" s="42"/>
+      <c r="G4431" s="42"/>
     </row>
     <row r="4432" spans="2:7">
       <c r="B4432" s="7"/>
-      <c r="D4432" s="43"/>
-      <c r="E4432" s="43"/>
-      <c r="F4432" s="43"/>
-      <c r="G4432" s="43"/>
+      <c r="D4432" s="42"/>
+      <c r="E4432" s="42"/>
+      <c r="F4432" s="42"/>
+      <c r="G4432" s="42"/>
     </row>
     <row r="4433" spans="2:7">
       <c r="B4433" s="7"/>
-      <c r="D4433" s="43"/>
-      <c r="E4433" s="43"/>
-      <c r="F4433" s="43"/>
-      <c r="G4433" s="43"/>
+      <c r="D4433" s="42"/>
+      <c r="E4433" s="42"/>
+      <c r="F4433" s="42"/>
+      <c r="G4433" s="42"/>
     </row>
     <row r="4434" spans="2:7">
       <c r="B4434" s="7"/>
-      <c r="D4434" s="43"/>
-      <c r="E4434" s="43"/>
-      <c r="F4434" s="43"/>
-      <c r="G4434" s="43"/>
+      <c r="D4434" s="42"/>
+      <c r="E4434" s="42"/>
+      <c r="F4434" s="42"/>
+      <c r="G4434" s="42"/>
     </row>
     <row r="4435" spans="2:7">
       <c r="B4435" s="7"/>
-      <c r="D4435" s="43"/>
-      <c r="E4435" s="43"/>
-      <c r="F4435" s="43"/>
-      <c r="G4435" s="43"/>
+      <c r="D4435" s="42"/>
+      <c r="E4435" s="42"/>
+      <c r="F4435" s="42"/>
+      <c r="G4435" s="42"/>
     </row>
     <row r="4436" spans="1:7">
-      <c r="A4436" s="22"/>
+      <c r="A4436" s="21"/>
       <c r="B4436" s="7"/>
-      <c r="D4436" s="43"/>
-      <c r="E4436" s="43"/>
-      <c r="F4436" s="43"/>
-      <c r="G4436" s="43"/>
+      <c r="D4436" s="42"/>
+      <c r="E4436" s="42"/>
+      <c r="F4436" s="42"/>
+      <c r="G4436" s="42"/>
     </row>
     <row r="4437" spans="1:7">
-      <c r="A4437" s="22"/>
+      <c r="A4437" s="21"/>
       <c r="B4437" s="7"/>
-      <c r="D4437" s="43"/>
-      <c r="E4437" s="43"/>
-      <c r="F4437" s="43"/>
-      <c r="G4437" s="43"/>
+      <c r="D4437" s="42"/>
+      <c r="E4437" s="42"/>
+      <c r="F4437" s="42"/>
+      <c r="G4437" s="42"/>
     </row>
     <row r="4438" spans="1:7">
-      <c r="A4438" s="22"/>
+      <c r="A4438" s="21"/>
       <c r="B4438" s="7"/>
-      <c r="D4438" s="43"/>
-      <c r="E4438" s="43"/>
-      <c r="F4438" s="43"/>
-      <c r="G4438" s="43"/>
+      <c r="D4438" s="42"/>
+      <c r="E4438" s="42"/>
+      <c r="F4438" s="42"/>
+      <c r="G4438" s="42"/>
     </row>
     <row r="4472" spans="2:2">
       <c r="B4472" s="7"/>
     </row>
     <row r="4473" spans="2:7">
       <c r="B4473" s="7"/>
-      <c r="D4473" s="43"/>
-      <c r="E4473" s="43"/>
-      <c r="F4473" s="43"/>
-      <c r="G4473" s="43"/>
+      <c r="D4473" s="42"/>
+      <c r="E4473" s="42"/>
+      <c r="F4473" s="42"/>
+      <c r="G4473" s="42"/>
     </row>
     <row r="4474" spans="2:7">
       <c r="B4474" s="7"/>
-      <c r="D4474" s="43"/>
-      <c r="E4474" s="43"/>
-      <c r="F4474" s="43"/>
-      <c r="G4474" s="43"/>
+      <c r="D4474" s="42"/>
+      <c r="E4474" s="42"/>
+      <c r="F4474" s="42"/>
+      <c r="G4474" s="42"/>
     </row>
     <row r="4475" spans="2:7">
       <c r="B4475" s="7"/>
-      <c r="D4475" s="43"/>
-      <c r="E4475" s="43"/>
-      <c r="F4475" s="43"/>
-      <c r="G4475" s="43"/>
+      <c r="D4475" s="42"/>
+      <c r="E4475" s="42"/>
+      <c r="F4475" s="42"/>
+      <c r="G4475" s="42"/>
     </row>
     <row r="4476" spans="2:2">
       <c r="B4476" s="7"/>
@@ -9250,13 +9249,13 @@
     </row>
     <row r="4479" spans="2:7">
       <c r="B4479" s="7"/>
-      <c r="D4479" s="43"/>
-      <c r="E4479" s="43"/>
-      <c r="F4479" s="43"/>
-      <c r="G4479" s="43"/>
+      <c r="D4479" s="42"/>
+      <c r="E4479" s="42"/>
+      <c r="F4479" s="42"/>
+      <c r="G4479" s="42"/>
     </row>
     <row r="4481" ht="15.75" spans="1:2">
-      <c r="A4481" s="39"/>
+      <c r="A4481" s="38"/>
       <c r="B4481" s="7"/>
     </row>
     <row r="4485" spans="2:2">
@@ -9278,269 +9277,269 @@
       <c r="B4494" s="7"/>
     </row>
     <row r="4495" ht="15.75" spans="1:2">
-      <c r="A4495" s="39"/>
+      <c r="A4495" s="38"/>
       <c r="B4495" s="7"/>
     </row>
     <row r="4496" spans="2:7">
       <c r="B4496" s="7"/>
-      <c r="D4496" s="43"/>
-      <c r="E4496" s="43"/>
-      <c r="F4496" s="43"/>
-      <c r="G4496" s="43"/>
+      <c r="D4496" s="42"/>
+      <c r="E4496" s="42"/>
+      <c r="F4496" s="42"/>
+      <c r="G4496" s="42"/>
     </row>
     <row r="4497" spans="2:7">
       <c r="B4497" s="7"/>
-      <c r="D4497" s="43"/>
-      <c r="E4497" s="43"/>
-      <c r="F4497" s="43"/>
-      <c r="G4497" s="43"/>
+      <c r="D4497" s="42"/>
+      <c r="E4497" s="42"/>
+      <c r="F4497" s="42"/>
+      <c r="G4497" s="42"/>
     </row>
     <row r="4498" spans="2:7">
       <c r="B4498" s="7"/>
-      <c r="D4498" s="43"/>
-      <c r="E4498" s="43"/>
-      <c r="F4498" s="43"/>
-      <c r="G4498" s="43"/>
+      <c r="D4498" s="42"/>
+      <c r="E4498" s="42"/>
+      <c r="F4498" s="42"/>
+      <c r="G4498" s="42"/>
     </row>
     <row r="4499" spans="2:7">
       <c r="B4499" s="7"/>
-      <c r="D4499" s="43"/>
-      <c r="E4499" s="43"/>
-      <c r="F4499" s="43"/>
-      <c r="G4499" s="43"/>
+      <c r="D4499" s="42"/>
+      <c r="E4499" s="42"/>
+      <c r="F4499" s="42"/>
+      <c r="G4499" s="42"/>
     </row>
     <row r="4500" spans="2:7">
       <c r="B4500" s="7"/>
-      <c r="D4500" s="43"/>
-      <c r="E4500" s="43"/>
-      <c r="F4500" s="43"/>
-      <c r="G4500" s="43"/>
+      <c r="D4500" s="42"/>
+      <c r="E4500" s="42"/>
+      <c r="F4500" s="42"/>
+      <c r="G4500" s="42"/>
     </row>
     <row r="4501" spans="2:7">
       <c r="B4501" s="7"/>
-      <c r="D4501" s="43"/>
-      <c r="E4501" s="43"/>
-      <c r="F4501" s="43"/>
-      <c r="G4501" s="43"/>
+      <c r="D4501" s="42"/>
+      <c r="E4501" s="42"/>
+      <c r="F4501" s="42"/>
+      <c r="G4501" s="42"/>
     </row>
     <row r="4502" spans="2:7">
       <c r="B4502" s="7"/>
-      <c r="D4502" s="43"/>
-      <c r="E4502" s="43"/>
-      <c r="F4502" s="43"/>
-      <c r="G4502" s="43"/>
+      <c r="D4502" s="42"/>
+      <c r="E4502" s="42"/>
+      <c r="F4502" s="42"/>
+      <c r="G4502" s="42"/>
     </row>
     <row r="4503" spans="2:7">
       <c r="B4503" s="7"/>
-      <c r="D4503" s="43"/>
-      <c r="E4503" s="43"/>
-      <c r="F4503" s="43"/>
-      <c r="G4503" s="43"/>
+      <c r="D4503" s="42"/>
+      <c r="E4503" s="42"/>
+      <c r="F4503" s="42"/>
+      <c r="G4503" s="42"/>
     </row>
     <row r="4504" spans="2:7">
       <c r="B4504" s="7"/>
-      <c r="D4504" s="43"/>
-      <c r="E4504" s="43"/>
-      <c r="F4504" s="43"/>
-      <c r="G4504" s="43"/>
+      <c r="D4504" s="42"/>
+      <c r="E4504" s="42"/>
+      <c r="F4504" s="42"/>
+      <c r="G4504" s="42"/>
     </row>
     <row r="4505" spans="2:7">
       <c r="B4505" s="7"/>
-      <c r="D4505" s="43"/>
-      <c r="E4505" s="43"/>
-      <c r="F4505" s="43"/>
-      <c r="G4505" s="43"/>
+      <c r="D4505" s="42"/>
+      <c r="E4505" s="42"/>
+      <c r="F4505" s="42"/>
+      <c r="G4505" s="42"/>
     </row>
     <row r="4506" spans="2:7">
       <c r="B4506" s="7"/>
-      <c r="D4506" s="43"/>
-      <c r="E4506" s="43"/>
-      <c r="F4506" s="43"/>
-      <c r="G4506" s="43"/>
+      <c r="D4506" s="42"/>
+      <c r="E4506" s="42"/>
+      <c r="F4506" s="42"/>
+      <c r="G4506" s="42"/>
     </row>
     <row r="4507" spans="1:7">
-      <c r="A4507" s="22"/>
+      <c r="A4507" s="21"/>
       <c r="B4507" s="7"/>
-      <c r="D4507" s="43"/>
-      <c r="E4507" s="43"/>
-      <c r="F4507" s="43"/>
-      <c r="G4507" s="43"/>
+      <c r="D4507" s="42"/>
+      <c r="E4507" s="42"/>
+      <c r="F4507" s="42"/>
+      <c r="G4507" s="42"/>
     </row>
     <row r="4508" spans="1:7">
-      <c r="A4508" s="22"/>
+      <c r="A4508" s="21"/>
       <c r="B4508" s="7"/>
-      <c r="D4508" s="43"/>
-      <c r="E4508" s="43"/>
-      <c r="F4508" s="43"/>
-      <c r="G4508" s="43"/>
+      <c r="D4508" s="42"/>
+      <c r="E4508" s="42"/>
+      <c r="F4508" s="42"/>
+      <c r="G4508" s="42"/>
     </row>
     <row r="4509" spans="1:7">
-      <c r="A4509" s="22"/>
+      <c r="A4509" s="21"/>
       <c r="B4509" s="7"/>
-      <c r="D4509" s="43"/>
-      <c r="E4509" s="43"/>
-      <c r="F4509" s="43"/>
-      <c r="G4509" s="43"/>
+      <c r="D4509" s="42"/>
+      <c r="E4509" s="42"/>
+      <c r="F4509" s="42"/>
+      <c r="G4509" s="42"/>
     </row>
     <row r="4510" spans="1:7">
-      <c r="A4510" s="22"/>
+      <c r="A4510" s="21"/>
       <c r="B4510" s="7"/>
-      <c r="D4510" s="43"/>
-      <c r="E4510" s="43"/>
-      <c r="F4510" s="43"/>
-      <c r="G4510" s="43"/>
+      <c r="D4510" s="42"/>
+      <c r="E4510" s="42"/>
+      <c r="F4510" s="42"/>
+      <c r="G4510" s="42"/>
     </row>
     <row r="4511" spans="2:7">
       <c r="B4511" s="7"/>
-      <c r="D4511" s="43"/>
-      <c r="E4511" s="43"/>
-      <c r="F4511" s="43"/>
-      <c r="G4511" s="43"/>
+      <c r="D4511" s="42"/>
+      <c r="E4511" s="42"/>
+      <c r="F4511" s="42"/>
+      <c r="G4511" s="42"/>
     </row>
     <row r="4512" spans="2:7">
       <c r="B4512" s="7"/>
-      <c r="D4512" s="43"/>
-      <c r="E4512" s="43"/>
-      <c r="F4512" s="43"/>
-      <c r="G4512" s="43"/>
+      <c r="D4512" s="42"/>
+      <c r="E4512" s="42"/>
+      <c r="F4512" s="42"/>
+      <c r="G4512" s="42"/>
     </row>
     <row r="4513" spans="2:7">
       <c r="B4513" s="7"/>
-      <c r="D4513" s="43"/>
-      <c r="E4513" s="43"/>
-      <c r="F4513" s="43"/>
-      <c r="G4513" s="43"/>
+      <c r="D4513" s="42"/>
+      <c r="E4513" s="42"/>
+      <c r="F4513" s="42"/>
+      <c r="G4513" s="42"/>
     </row>
     <row r="4514" spans="2:7">
       <c r="B4514" s="7"/>
-      <c r="D4514" s="43"/>
-      <c r="E4514" s="43"/>
-      <c r="F4514" s="43"/>
-      <c r="G4514" s="43"/>
+      <c r="D4514" s="42"/>
+      <c r="E4514" s="42"/>
+      <c r="F4514" s="42"/>
+      <c r="G4514" s="42"/>
     </row>
     <row r="4515" spans="1:2">
-      <c r="A4515" s="22"/>
+      <c r="A4515" s="21"/>
       <c r="B4515" s="7"/>
     </row>
     <row r="4516" spans="2:7">
       <c r="B4516" s="7"/>
-      <c r="D4516" s="43"/>
-      <c r="E4516" s="43"/>
-      <c r="F4516" s="43"/>
-      <c r="G4516" s="43"/>
+      <c r="D4516" s="42"/>
+      <c r="E4516" s="42"/>
+      <c r="F4516" s="42"/>
+      <c r="G4516" s="42"/>
     </row>
     <row r="4517" spans="2:2">
       <c r="B4517" s="7"/>
     </row>
     <row r="4518" spans="2:7">
       <c r="B4518" s="7"/>
-      <c r="D4518" s="43"/>
-      <c r="E4518" s="43"/>
-      <c r="F4518" s="43"/>
-      <c r="G4518" s="43"/>
+      <c r="D4518" s="42"/>
+      <c r="E4518" s="42"/>
+      <c r="F4518" s="42"/>
+      <c r="G4518" s="42"/>
     </row>
     <row r="4519" spans="2:7">
       <c r="B4519" s="7"/>
-      <c r="D4519" s="43"/>
-      <c r="E4519" s="43"/>
-      <c r="F4519" s="43"/>
-      <c r="G4519" s="43"/>
+      <c r="D4519" s="42"/>
+      <c r="E4519" s="42"/>
+      <c r="F4519" s="42"/>
+      <c r="G4519" s="42"/>
     </row>
     <row r="4520" spans="1:7">
-      <c r="A4520" s="22"/>
+      <c r="A4520" s="21"/>
       <c r="B4520" s="7"/>
-      <c r="D4520" s="43"/>
-      <c r="E4520" s="43"/>
-      <c r="F4520" s="43"/>
-      <c r="G4520" s="43"/>
+      <c r="D4520" s="42"/>
+      <c r="E4520" s="42"/>
+      <c r="F4520" s="42"/>
+      <c r="G4520" s="42"/>
     </row>
     <row r="4521" spans="1:7">
-      <c r="A4521" s="22"/>
-      <c r="B4521" s="23"/>
-      <c r="D4521" s="43"/>
-      <c r="E4521" s="43"/>
-      <c r="F4521" s="43"/>
-      <c r="G4521" s="43"/>
+      <c r="A4521" s="21"/>
+      <c r="B4521" s="22"/>
+      <c r="D4521" s="42"/>
+      <c r="E4521" s="42"/>
+      <c r="F4521" s="42"/>
+      <c r="G4521" s="42"/>
     </row>
     <row r="4522" spans="2:7">
       <c r="B4522" s="7"/>
-      <c r="D4522" s="43"/>
-      <c r="E4522" s="43"/>
-      <c r="F4522" s="43"/>
-      <c r="G4522" s="43"/>
+      <c r="D4522" s="42"/>
+      <c r="E4522" s="42"/>
+      <c r="F4522" s="42"/>
+      <c r="G4522" s="42"/>
     </row>
     <row r="4523" spans="2:7">
       <c r="B4523" s="7"/>
-      <c r="D4523" s="43"/>
-      <c r="E4523" s="43"/>
-      <c r="F4523" s="43"/>
-      <c r="G4523" s="43"/>
+      <c r="D4523" s="42"/>
+      <c r="E4523" s="42"/>
+      <c r="F4523" s="42"/>
+      <c r="G4523" s="42"/>
     </row>
     <row r="4524" spans="2:7">
       <c r="B4524" s="7"/>
-      <c r="D4524" s="43"/>
-      <c r="E4524" s="43"/>
-      <c r="F4524" s="43"/>
-      <c r="G4524" s="43"/>
+      <c r="D4524" s="42"/>
+      <c r="E4524" s="42"/>
+      <c r="F4524" s="42"/>
+      <c r="G4524" s="42"/>
     </row>
     <row r="4525" spans="2:7">
       <c r="B4525" s="7"/>
-      <c r="D4525" s="43"/>
-      <c r="E4525" s="43"/>
-      <c r="F4525" s="43"/>
-      <c r="G4525" s="43"/>
+      <c r="D4525" s="42"/>
+      <c r="E4525" s="42"/>
+      <c r="F4525" s="42"/>
+      <c r="G4525" s="42"/>
     </row>
     <row r="4527" spans="1:7">
-      <c r="A4527" s="22"/>
+      <c r="A4527" s="21"/>
       <c r="B4527" s="7"/>
-      <c r="D4527" s="43"/>
-      <c r="E4527" s="43"/>
-      <c r="F4527" s="43"/>
-      <c r="G4527" s="43"/>
+      <c r="D4527" s="42"/>
+      <c r="E4527" s="42"/>
+      <c r="F4527" s="42"/>
+      <c r="G4527" s="42"/>
     </row>
     <row r="4528" spans="1:7">
-      <c r="A4528" s="22"/>
+      <c r="A4528" s="21"/>
       <c r="B4528" s="7"/>
-      <c r="D4528" s="43"/>
-      <c r="E4528" s="43"/>
-      <c r="F4528" s="43"/>
-      <c r="G4528" s="43"/>
+      <c r="D4528" s="42"/>
+      <c r="E4528" s="42"/>
+      <c r="F4528" s="42"/>
+      <c r="G4528" s="42"/>
     </row>
     <row r="4529" spans="1:7">
-      <c r="A4529" s="22"/>
+      <c r="A4529" s="21"/>
       <c r="B4529" s="7"/>
-      <c r="D4529" s="43"/>
-      <c r="E4529" s="43"/>
-      <c r="F4529" s="43"/>
-      <c r="G4529" s="43"/>
+      <c r="D4529" s="42"/>
+      <c r="E4529" s="42"/>
+      <c r="F4529" s="42"/>
+      <c r="G4529" s="42"/>
     </row>
     <row r="4533" ht="20.25" customHeight="1" spans="2:2">
       <c r="B4533" s="7"/>
     </row>
     <row r="4534" spans="1:7">
-      <c r="A4534" s="22"/>
+      <c r="A4534" s="21"/>
       <c r="B4534" s="7"/>
-      <c r="D4534" s="43"/>
-      <c r="E4534" s="43"/>
-      <c r="F4534" s="43"/>
-      <c r="G4534" s="43"/>
+      <c r="D4534" s="42"/>
+      <c r="E4534" s="42"/>
+      <c r="F4534" s="42"/>
+      <c r="G4534" s="42"/>
     </row>
     <row r="4535" spans="1:7">
-      <c r="A4535" s="22"/>
+      <c r="A4535" s="21"/>
       <c r="B4535" s="7"/>
-      <c r="D4535" s="43"/>
-      <c r="E4535" s="43"/>
-      <c r="F4535" s="43"/>
-      <c r="G4535" s="43"/>
+      <c r="D4535" s="42"/>
+      <c r="E4535" s="42"/>
+      <c r="F4535" s="42"/>
+      <c r="G4535" s="42"/>
     </row>
     <row r="4536" spans="2:2">
       <c r="B4536" s="7"/>
     </row>
     <row r="4545" spans="2:2">
-      <c r="B4545" s="30"/>
+      <c r="B4545" s="29"/>
     </row>
     <row r="4546" spans="2:3">
-      <c r="B4546" s="30"/>
+      <c r="B4546" s="29"/>
       <c r="C4546" s="7"/>
     </row>
     <row r="4547" spans="3:3">
@@ -9634,22 +9633,22 @@
       <c r="B4685" s="7"/>
     </row>
     <row r="4693" spans="1:2">
-      <c r="A4693" s="22"/>
+      <c r="A4693" s="21"/>
       <c r="B4693" s="7"/>
     </row>
     <row r="4694" spans="1:2">
-      <c r="A4694" s="22"/>
+      <c r="A4694" s="21"/>
       <c r="B4694" s="7"/>
     </row>
     <row r="4695" spans="2:2">
       <c r="B4695" s="7"/>
     </row>
     <row r="4696" spans="1:2">
-      <c r="A4696" s="22"/>
+      <c r="A4696" s="21"/>
       <c r="B4696" s="7"/>
     </row>
     <row r="4697" spans="1:2">
-      <c r="A4697" s="22"/>
+      <c r="A4697" s="21"/>
       <c r="B4697" s="7"/>
     </row>
     <row r="4698" spans="2:2">
@@ -9701,33 +9700,33 @@
       <c r="B4742" s="7"/>
     </row>
     <row r="4745" spans="1:2">
-      <c r="A4745" s="22"/>
+      <c r="A4745" s="21"/>
       <c r="B4745" s="7"/>
     </row>
     <row r="4746" spans="1:2">
-      <c r="A4746" s="22"/>
+      <c r="A4746" s="21"/>
       <c r="B4746" s="7"/>
     </row>
     <row r="4759" spans="2:7">
       <c r="B4759" s="7"/>
-      <c r="D4759" s="43"/>
-      <c r="E4759" s="43"/>
-      <c r="F4759" s="43"/>
-      <c r="G4759" s="43"/>
+      <c r="D4759" s="42"/>
+      <c r="E4759" s="42"/>
+      <c r="F4759" s="42"/>
+      <c r="G4759" s="42"/>
     </row>
     <row r="4760" spans="2:7">
       <c r="B4760" s="7"/>
-      <c r="D4760" s="43"/>
-      <c r="E4760" s="43"/>
-      <c r="F4760" s="43"/>
-      <c r="G4760" s="43"/>
+      <c r="D4760" s="42"/>
+      <c r="E4760" s="42"/>
+      <c r="F4760" s="42"/>
+      <c r="G4760" s="42"/>
     </row>
     <row r="4761" spans="2:7">
       <c r="B4761" s="7"/>
-      <c r="D4761" s="43"/>
-      <c r="E4761" s="43"/>
-      <c r="F4761" s="43"/>
-      <c r="G4761" s="43"/>
+      <c r="D4761" s="42"/>
+      <c r="E4761" s="42"/>
+      <c r="F4761" s="42"/>
+      <c r="G4761" s="42"/>
     </row>
     <row r="4762" spans="2:2">
       <c r="B4762" s="7"/>
@@ -9760,20 +9759,20 @@
       <c r="B4839" s="7"/>
     </row>
     <row r="4880" spans="2:7">
-      <c r="B4880" s="30"/>
-      <c r="C4880" s="30"/>
-      <c r="D4880" s="30"/>
-      <c r="E4880" s="30"/>
-      <c r="F4880" s="30"/>
-      <c r="G4880" s="30"/>
+      <c r="B4880" s="29"/>
+      <c r="C4880" s="29"/>
+      <c r="D4880" s="29"/>
+      <c r="E4880" s="29"/>
+      <c r="F4880" s="29"/>
+      <c r="G4880" s="29"/>
     </row>
     <row r="4881" spans="2:7">
-      <c r="B4881" s="30"/>
-      <c r="C4881" s="30"/>
-      <c r="D4881" s="30"/>
-      <c r="E4881" s="30"/>
-      <c r="F4881" s="30"/>
-      <c r="G4881" s="30"/>
+      <c r="B4881" s="29"/>
+      <c r="C4881" s="29"/>
+      <c r="D4881" s="29"/>
+      <c r="E4881" s="29"/>
+      <c r="F4881" s="29"/>
+      <c r="G4881" s="29"/>
     </row>
     <row r="4902" spans="2:2">
       <c r="B4902" s="7"/>
@@ -9797,7 +9796,7 @@
       <c r="B4910" s="7"/>
     </row>
     <row r="4913" spans="2:2">
-      <c r="B4913" s="44"/>
+      <c r="B4913" s="43"/>
     </row>
     <row r="4928" spans="2:2">
       <c r="B4928" s="7"/>
@@ -9888,7 +9887,7 @@
       <c r="C4972" s="7"/>
     </row>
     <row r="4976" spans="2:2">
-      <c r="B4976" s="36"/>
+      <c r="B4976" s="35"/>
     </row>
     <row r="4977" spans="2:2">
       <c r="B4977" s="7"/>
@@ -9924,7 +9923,7 @@
       <c r="B4987" s="7"/>
     </row>
     <row r="4988" spans="2:2">
-      <c r="B4988" s="36"/>
+      <c r="B4988" s="35"/>
     </row>
     <row r="4989" spans="2:2">
       <c r="B4989" s="7"/>
@@ -9972,7 +9971,7 @@
       <c r="B5004" s="7"/>
     </row>
     <row r="5005" spans="2:2">
-      <c r="B5005" s="36"/>
+      <c r="B5005" s="35"/>
     </row>
     <row r="5006" spans="2:2">
       <c r="B5006" s="7"/>
@@ -10012,7 +10011,7 @@
     </row>
     <row r="5018" spans="2:3">
       <c r="B5018" s="7"/>
-      <c r="C5018" s="45"/>
+      <c r="C5018" s="44"/>
     </row>
     <row r="5019" spans="2:3">
       <c r="B5019" s="7"/>
@@ -10031,11 +10030,11 @@
       <c r="C5023" s="7"/>
     </row>
     <row r="5024" spans="2:2">
-      <c r="B5024" s="23"/>
+      <c r="B5024" s="22"/>
     </row>
     <row r="5025" spans="2:3">
-      <c r="B5025" s="23"/>
-      <c r="C5025" s="23"/>
+      <c r="B5025" s="22"/>
+      <c r="C5025" s="22"/>
     </row>
     <row r="5026" spans="2:2">
       <c r="B5026" s="7"/>
@@ -10161,7 +10160,7 @@
       <c r="B5071" s="7"/>
     </row>
     <row r="5072" spans="2:2">
-      <c r="B5072" s="30"/>
+      <c r="B5072" s="29"/>
     </row>
     <row r="5073" spans="2:2">
       <c r="B5073" s="7"/>
@@ -10203,7 +10202,7 @@
       <c r="B5087" s="7"/>
     </row>
     <row r="5089" ht="15.75" spans="1:2">
-      <c r="A5089" s="39"/>
+      <c r="A5089" s="38"/>
       <c r="B5089" s="7"/>
     </row>
     <row r="5090" spans="2:2">
@@ -10255,84 +10254,84 @@
       <c r="B5147" s="7"/>
     </row>
     <row r="5148" spans="2:7">
-      <c r="B5148" s="30"/>
-      <c r="C5148" s="30"/>
-      <c r="D5148" s="30"/>
-      <c r="E5148" s="30"/>
-      <c r="F5148" s="30"/>
-      <c r="G5148" s="30"/>
+      <c r="B5148" s="29"/>
+      <c r="C5148" s="29"/>
+      <c r="D5148" s="29"/>
+      <c r="E5148" s="29"/>
+      <c r="F5148" s="29"/>
+      <c r="G5148" s="29"/>
     </row>
     <row r="5149" spans="2:7">
-      <c r="B5149" s="30"/>
-      <c r="C5149" s="30"/>
-      <c r="D5149" s="30"/>
-      <c r="E5149" s="30"/>
-      <c r="F5149" s="30"/>
-      <c r="G5149" s="30"/>
+      <c r="B5149" s="29"/>
+      <c r="C5149" s="29"/>
+      <c r="D5149" s="29"/>
+      <c r="E5149" s="29"/>
+      <c r="F5149" s="29"/>
+      <c r="G5149" s="29"/>
     </row>
     <row r="5150" spans="2:7">
-      <c r="B5150" s="30"/>
-      <c r="C5150" s="30"/>
-      <c r="D5150" s="30"/>
-      <c r="E5150" s="30"/>
-      <c r="F5150" s="30"/>
-      <c r="G5150" s="30"/>
+      <c r="B5150" s="29"/>
+      <c r="C5150" s="29"/>
+      <c r="D5150" s="29"/>
+      <c r="E5150" s="29"/>
+      <c r="F5150" s="29"/>
+      <c r="G5150" s="29"/>
     </row>
     <row r="5151" spans="2:7">
-      <c r="B5151" s="30"/>
-      <c r="C5151" s="30"/>
-      <c r="D5151" s="30"/>
-      <c r="E5151" s="30"/>
-      <c r="F5151" s="30"/>
-      <c r="G5151" s="30"/>
+      <c r="B5151" s="29"/>
+      <c r="C5151" s="29"/>
+      <c r="D5151" s="29"/>
+      <c r="E5151" s="29"/>
+      <c r="F5151" s="29"/>
+      <c r="G5151" s="29"/>
     </row>
     <row r="5152" spans="2:7">
-      <c r="B5152" s="30"/>
-      <c r="C5152" s="30"/>
-      <c r="D5152" s="30"/>
-      <c r="E5152" s="30"/>
-      <c r="F5152" s="30"/>
-      <c r="G5152" s="30"/>
+      <c r="B5152" s="29"/>
+      <c r="C5152" s="29"/>
+      <c r="D5152" s="29"/>
+      <c r="E5152" s="29"/>
+      <c r="F5152" s="29"/>
+      <c r="G5152" s="29"/>
     </row>
     <row r="5153" spans="2:7">
-      <c r="B5153" s="30"/>
-      <c r="C5153" s="30"/>
-      <c r="D5153" s="30"/>
-      <c r="E5153" s="30"/>
-      <c r="F5153" s="30"/>
-      <c r="G5153" s="30"/>
+      <c r="B5153" s="29"/>
+      <c r="C5153" s="29"/>
+      <c r="D5153" s="29"/>
+      <c r="E5153" s="29"/>
+      <c r="F5153" s="29"/>
+      <c r="G5153" s="29"/>
     </row>
     <row r="5154" spans="2:7">
-      <c r="B5154" s="30"/>
-      <c r="C5154" s="30"/>
-      <c r="D5154" s="30"/>
-      <c r="E5154" s="30"/>
-      <c r="F5154" s="30"/>
-      <c r="G5154" s="30"/>
+      <c r="B5154" s="29"/>
+      <c r="C5154" s="29"/>
+      <c r="D5154" s="29"/>
+      <c r="E5154" s="29"/>
+      <c r="F5154" s="29"/>
+      <c r="G5154" s="29"/>
     </row>
     <row r="5155" spans="2:7">
-      <c r="B5155" s="30"/>
-      <c r="C5155" s="30"/>
-      <c r="D5155" s="30"/>
-      <c r="E5155" s="30"/>
-      <c r="F5155" s="30"/>
-      <c r="G5155" s="30"/>
+      <c r="B5155" s="29"/>
+      <c r="C5155" s="29"/>
+      <c r="D5155" s="29"/>
+      <c r="E5155" s="29"/>
+      <c r="F5155" s="29"/>
+      <c r="G5155" s="29"/>
     </row>
     <row r="5156" spans="2:7">
-      <c r="B5156" s="30"/>
-      <c r="C5156" s="30"/>
-      <c r="D5156" s="30"/>
-      <c r="E5156" s="30"/>
-      <c r="F5156" s="30"/>
-      <c r="G5156" s="30"/>
+      <c r="B5156" s="29"/>
+      <c r="C5156" s="29"/>
+      <c r="D5156" s="29"/>
+      <c r="E5156" s="29"/>
+      <c r="F5156" s="29"/>
+      <c r="G5156" s="29"/>
     </row>
     <row r="5157" spans="2:7">
-      <c r="B5157" s="30"/>
-      <c r="C5157" s="30"/>
-      <c r="D5157" s="30"/>
-      <c r="E5157" s="30"/>
-      <c r="F5157" s="30"/>
-      <c r="G5157" s="30"/>
+      <c r="B5157" s="29"/>
+      <c r="C5157" s="29"/>
+      <c r="D5157" s="29"/>
+      <c r="E5157" s="29"/>
+      <c r="F5157" s="29"/>
+      <c r="G5157" s="29"/>
     </row>
     <row r="5158" spans="2:2">
       <c r="B5158" s="7"/>
@@ -10377,7 +10376,7 @@
       <c r="C5206" s="7"/>
     </row>
     <row r="5207" ht="15.75" spans="1:2">
-      <c r="A5207" s="39"/>
+      <c r="A5207" s="38"/>
       <c r="B5207" s="7"/>
     </row>
     <row r="5208" spans="2:2">
@@ -10417,22 +10416,22 @@
       <c r="B5229" s="7"/>
     </row>
     <row r="5230" spans="1:2">
-      <c r="A5230" s="22"/>
+      <c r="A5230" s="21"/>
       <c r="B5230" s="7"/>
     </row>
     <row r="5231" spans="2:2">
       <c r="B5231" s="7"/>
     </row>
     <row r="5232" spans="1:2">
-      <c r="A5232" s="22"/>
+      <c r="A5232" s="21"/>
       <c r="B5232" s="7"/>
     </row>
     <row r="5233" spans="1:2">
-      <c r="A5233" s="22"/>
+      <c r="A5233" s="21"/>
       <c r="B5233" s="7"/>
     </row>
     <row r="5234" ht="15.75" spans="1:2">
-      <c r="A5234" s="39"/>
+      <c r="A5234" s="38"/>
       <c r="B5234" s="7"/>
     </row>
     <row r="5241" spans="2:2">
@@ -10650,7 +10649,7 @@
     </row>
     <row r="5410" spans="2:3">
       <c r="B5410" s="7"/>
-      <c r="C5410" s="23"/>
+      <c r="C5410" s="22"/>
     </row>
     <row r="5411" spans="2:2">
       <c r="B5411" s="7"/>
@@ -10662,7 +10661,7 @@
       <c r="B5415" s="7"/>
     </row>
     <row r="5416" spans="1:2">
-      <c r="A5416" s="22"/>
+      <c r="A5416" s="21"/>
       <c r="B5416" s="7"/>
     </row>
     <row r="5417" spans="2:2">
@@ -10708,19 +10707,19 @@
       <c r="B5561" s="7"/>
     </row>
     <row r="5562" spans="1:2">
-      <c r="A5562" s="22"/>
+      <c r="A5562" s="21"/>
       <c r="B5562" s="7"/>
     </row>
     <row r="5563" spans="1:2">
-      <c r="A5563" s="22"/>
+      <c r="A5563" s="21"/>
       <c r="B5563" s="7"/>
     </row>
     <row r="5564" spans="1:2">
-      <c r="A5564" s="22"/>
+      <c r="A5564" s="21"/>
       <c r="B5564" s="7"/>
     </row>
     <row r="5565" spans="1:2">
-      <c r="A5565" s="22"/>
+      <c r="A5565" s="21"/>
       <c r="B5565" s="7"/>
     </row>
     <row r="5566" spans="2:2">
@@ -10814,7 +10813,7 @@
       <c r="B5627" s="7"/>
     </row>
     <row r="5631" spans="1:7">
-      <c r="A5631" s="24"/>
+      <c r="A5631" s="23"/>
       <c r="B5631" s="15"/>
       <c r="C5631" s="15"/>
       <c r="D5631" s="15"/>
@@ -10823,214 +10822,214 @@
       <c r="G5631" s="15"/>
     </row>
     <row r="5990" spans="2:2">
-      <c r="B5990" s="32"/>
+      <c r="B5990" s="31"/>
     </row>
     <row r="6347" spans="1:1">
-      <c r="A6347" s="22"/>
+      <c r="A6347" s="21"/>
     </row>
     <row r="6348" spans="1:1">
-      <c r="A6348" s="22"/>
+      <c r="A6348" s="21"/>
     </row>
     <row r="6349" spans="1:1">
-      <c r="A6349" s="22"/>
+      <c r="A6349" s="21"/>
     </row>
     <row r="6350" spans="1:1">
-      <c r="A6350" s="22"/>
+      <c r="A6350" s="21"/>
     </row>
     <row r="6351" spans="1:1">
-      <c r="A6351" s="22"/>
+      <c r="A6351" s="21"/>
     </row>
     <row r="6352" spans="1:1">
-      <c r="A6352" s="22"/>
+      <c r="A6352" s="21"/>
     </row>
     <row r="6353" spans="1:1">
-      <c r="A6353" s="22"/>
+      <c r="A6353" s="21"/>
     </row>
     <row r="6354" spans="1:1">
-      <c r="A6354" s="22"/>
+      <c r="A6354" s="21"/>
     </row>
     <row r="6355" spans="1:1">
-      <c r="A6355" s="22"/>
+      <c r="A6355" s="21"/>
     </row>
     <row r="6356" spans="1:1">
-      <c r="A6356" s="22"/>
+      <c r="A6356" s="21"/>
     </row>
     <row r="6357" spans="1:1">
-      <c r="A6357" s="22"/>
+      <c r="A6357" s="21"/>
     </row>
     <row r="6358" spans="1:1">
-      <c r="A6358" s="22"/>
+      <c r="A6358" s="21"/>
     </row>
     <row r="6359" spans="1:1">
-      <c r="A6359" s="22"/>
+      <c r="A6359" s="21"/>
     </row>
     <row r="6360" spans="1:1">
-      <c r="A6360" s="22"/>
+      <c r="A6360" s="21"/>
     </row>
     <row r="6361" spans="1:1">
-      <c r="A6361" s="22"/>
+      <c r="A6361" s="21"/>
     </row>
     <row r="6362" spans="1:1">
-      <c r="A6362" s="22"/>
+      <c r="A6362" s="21"/>
     </row>
     <row r="6363" spans="1:1">
-      <c r="A6363" s="22"/>
+      <c r="A6363" s="21"/>
     </row>
     <row r="6364" spans="1:1">
-      <c r="A6364" s="22"/>
+      <c r="A6364" s="21"/>
     </row>
     <row r="6365" spans="1:1">
-      <c r="A6365" s="22"/>
+      <c r="A6365" s="21"/>
     </row>
     <row r="6366" spans="1:1">
-      <c r="A6366" s="22"/>
+      <c r="A6366" s="21"/>
     </row>
     <row r="6367" spans="1:1">
-      <c r="A6367" s="22"/>
+      <c r="A6367" s="21"/>
     </row>
     <row r="6368" spans="1:1">
-      <c r="A6368" s="22"/>
+      <c r="A6368" s="21"/>
     </row>
     <row r="6369" spans="1:1">
-      <c r="A6369" s="22"/>
+      <c r="A6369" s="21"/>
     </row>
     <row r="6370" spans="1:1">
-      <c r="A6370" s="22"/>
+      <c r="A6370" s="21"/>
     </row>
     <row r="6371" spans="1:1">
-      <c r="A6371" s="22"/>
+      <c r="A6371" s="21"/>
     </row>
     <row r="6372" spans="1:1">
-      <c r="A6372" s="22"/>
+      <c r="A6372" s="21"/>
     </row>
     <row r="6373" spans="1:1">
-      <c r="A6373" s="22"/>
+      <c r="A6373" s="21"/>
     </row>
     <row r="6374" spans="1:1">
-      <c r="A6374" s="22"/>
+      <c r="A6374" s="21"/>
     </row>
     <row r="6375" spans="1:1">
-      <c r="A6375" s="22"/>
+      <c r="A6375" s="21"/>
     </row>
     <row r="6376" spans="1:1">
-      <c r="A6376" s="22"/>
+      <c r="A6376" s="21"/>
     </row>
     <row r="6377" spans="1:1">
-      <c r="A6377" s="22"/>
+      <c r="A6377" s="21"/>
     </row>
     <row r="6378" spans="1:1">
-      <c r="A6378" s="22"/>
+      <c r="A6378" s="21"/>
     </row>
     <row r="6379" spans="1:1">
-      <c r="A6379" s="22"/>
+      <c r="A6379" s="21"/>
     </row>
     <row r="6380" spans="1:1">
-      <c r="A6380" s="22"/>
+      <c r="A6380" s="21"/>
     </row>
     <row r="6381" spans="1:1">
-      <c r="A6381" s="22"/>
+      <c r="A6381" s="21"/>
     </row>
     <row r="6386" spans="1:1">
-      <c r="A6386" s="22"/>
+      <c r="A6386" s="21"/>
     </row>
     <row r="6387" spans="1:1">
-      <c r="A6387" s="22"/>
+      <c r="A6387" s="21"/>
     </row>
     <row r="6388" spans="1:1">
-      <c r="A6388" s="22"/>
+      <c r="A6388" s="21"/>
     </row>
     <row r="6389" spans="1:1">
-      <c r="A6389" s="22"/>
+      <c r="A6389" s="21"/>
     </row>
     <row r="6390" spans="1:1">
-      <c r="A6390" s="22"/>
+      <c r="A6390" s="21"/>
     </row>
     <row r="6391" spans="1:1">
-      <c r="A6391" s="22"/>
+      <c r="A6391" s="21"/>
     </row>
     <row r="6392" spans="1:1">
-      <c r="A6392" s="22"/>
+      <c r="A6392" s="21"/>
     </row>
     <row r="6393" spans="1:1">
-      <c r="A6393" s="22"/>
+      <c r="A6393" s="21"/>
     </row>
     <row r="6394" spans="1:1">
-      <c r="A6394" s="22"/>
+      <c r="A6394" s="21"/>
     </row>
     <row r="6395" spans="1:1">
-      <c r="A6395" s="22"/>
+      <c r="A6395" s="21"/>
     </row>
     <row r="6396" spans="1:1">
-      <c r="A6396" s="22"/>
+      <c r="A6396" s="21"/>
     </row>
     <row r="6397" spans="1:1">
-      <c r="A6397" s="22"/>
+      <c r="A6397" s="21"/>
     </row>
     <row r="6398" spans="1:1">
-      <c r="A6398" s="22"/>
+      <c r="A6398" s="21"/>
     </row>
     <row r="6399" spans="1:1">
-      <c r="A6399" s="22"/>
+      <c r="A6399" s="21"/>
     </row>
     <row r="6400" spans="1:1">
-      <c r="A6400" s="22"/>
+      <c r="A6400" s="21"/>
     </row>
     <row r="6401" spans="1:1">
-      <c r="A6401" s="22"/>
+      <c r="A6401" s="21"/>
     </row>
     <row r="6402" spans="1:1">
-      <c r="A6402" s="22"/>
+      <c r="A6402" s="21"/>
     </row>
     <row r="6403" spans="1:1">
-      <c r="A6403" s="22"/>
+      <c r="A6403" s="21"/>
     </row>
     <row r="6404" spans="1:1">
-      <c r="A6404" s="22"/>
+      <c r="A6404" s="21"/>
     </row>
     <row r="6405" spans="1:1">
-      <c r="A6405" s="22"/>
+      <c r="A6405" s="21"/>
     </row>
     <row r="6406" spans="1:1">
-      <c r="A6406" s="22"/>
+      <c r="A6406" s="21"/>
     </row>
     <row r="6407" spans="1:1">
-      <c r="A6407" s="22"/>
+      <c r="A6407" s="21"/>
     </row>
     <row r="6408" spans="1:1">
-      <c r="A6408" s="22"/>
+      <c r="A6408" s="21"/>
     </row>
     <row r="6409" spans="1:1">
-      <c r="A6409" s="22"/>
+      <c r="A6409" s="21"/>
     </row>
     <row r="6410" spans="1:1">
-      <c r="A6410" s="22"/>
+      <c r="A6410" s="21"/>
     </row>
     <row r="6411" spans="1:1">
-      <c r="A6411" s="22"/>
+      <c r="A6411" s="21"/>
     </row>
     <row r="6412" spans="1:1">
-      <c r="A6412" s="22"/>
+      <c r="A6412" s="21"/>
     </row>
     <row r="6413" spans="1:1">
-      <c r="A6413" s="22"/>
+      <c r="A6413" s="21"/>
     </row>
     <row r="6414" spans="1:1">
-      <c r="A6414" s="22"/>
+      <c r="A6414" s="21"/>
     </row>
     <row r="6415" spans="1:1">
-      <c r="A6415" s="22"/>
+      <c r="A6415" s="21"/>
     </row>
     <row r="6416" spans="1:1">
-      <c r="A6416" s="22"/>
+      <c r="A6416" s="21"/>
     </row>
     <row r="6417" spans="1:1">
-      <c r="A6417" s="22"/>
+      <c r="A6417" s="21"/>
     </row>
     <row r="6418" spans="1:1">
-      <c r="A6418" s="22"/>
+      <c r="A6418" s="21"/>
     </row>
     <row r="6419" spans="1:1">
-      <c r="A6419" s="22"/>
+      <c r="A6419" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/QA/testcases/ORSheet.xlsx
+++ b/QA/testcases/ORSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13650"/>
+    <workbookView windowWidth="27465" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="OR sheet" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366">
   <si>
     <t>OR Name</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>//label[contains(text(),'60 days')]/following-sibling::div//label</t>
+  </si>
+  <si>
+    <t>MEDICAID_LEBEL_YES</t>
+  </si>
+  <si>
+    <t>//label[contains(text(),'Medicaid')]/following-sibling::div//label</t>
   </si>
   <si>
     <t>TERRITORY_LEBEL_YES</t>
@@ -1115,8 +1121,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -1225,19 +1231,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1252,9 +1266,55 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1267,17 +1327,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1296,78 +1371,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1430,7 +1436,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1448,55 +1556,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1508,61 +1586,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1574,37 +1604,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1624,41 +1630,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1681,6 +1672,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1688,16 +1703,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1712,160 +1727,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2256,10 +2262,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6419"/>
+  <dimension ref="A1:H6420"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1428571428571" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -2780,34 +2786,20 @@
       <c r="B24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="6">
-        <v>43178</v>
-      </c>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>13</v>
@@ -2938,14 +2930,14 @@
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>13</v>
@@ -2961,14 +2953,14 @@
       <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>13</v>
@@ -3030,14 +3022,14 @@
       <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>13</v>
@@ -3049,49 +3041,49 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="B36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="12" t="s">
+      <c r="G36" s="6">
+        <v>43178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G37" s="6">
-        <v>43179</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="C38" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>12</v>
@@ -3106,18 +3098,18 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="12" t="s">
         <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>13</v>
@@ -3128,22 +3120,19 @@
       <c r="G39" s="6">
         <v>43179</v>
       </c>
-      <c r="H39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>90</v>
-      </c>
       <c r="C40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>13</v>
@@ -3153,6 +3142,9 @@
       </c>
       <c r="G40" s="6">
         <v>43179</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3163,7 +3155,7 @@
         <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>12</v>
@@ -3182,14 +3174,14 @@
       <c r="A42" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="12" t="s">
         <v>94</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>13</v>
@@ -3205,14 +3197,14 @@
       <c r="A43" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>13</v>
@@ -3232,10 +3224,10 @@
         <v>98</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>13</v>
@@ -3251,11 +3243,11 @@
       <c r="A45" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="12" t="s">
         <v>100</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>17</v>
@@ -3270,7 +3262,7 @@
         <v>43179</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
         <v>101</v>
       </c>
@@ -3278,7 +3270,7 @@
         <v>102</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>17</v>
@@ -3290,21 +3282,18 @@
         <v>13</v>
       </c>
       <c r="G46" s="6">
-        <v>43180</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>104</v>
+        <v>43179</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="B47" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>17</v>
@@ -3315,19 +3304,22 @@
       <c r="F47" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G47" s="6">
+        <v>43180</v>
+      </c>
       <c r="H47" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>17</v>
@@ -3339,18 +3331,18 @@
         <v>13</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="C49" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>17</v>
@@ -3362,18 +3354,18 @@
         <v>13</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="C50" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>17</v>
@@ -3385,18 +3377,18 @@
         <v>13</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>17</v>
@@ -3408,41 +3400,44 @@
         <v>13</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="12" t="s">
         <v>122</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>13</v>
@@ -3451,46 +3446,46 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="C54" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3501,7 +3496,7 @@
         <v>130</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>12</v>
@@ -3513,18 +3508,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="12" t="s">
         <v>132</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>13</v>
@@ -3532,22 +3527,19 @@
       <c r="F58" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="14" t="s">
         <v>134</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>13</v>
@@ -3555,19 +3547,22 @@
       <c r="F59" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="H59" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="12" t="s">
         <v>136</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>13</v>
@@ -3575,28 +3570,28 @@
       <c r="F60" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="15" t="s">
         <v>138</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3607,7 +3602,7 @@
         <v>140</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>12</v>
@@ -3623,11 +3618,11 @@
       <c r="A63" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="12" t="s">
         <v>142</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>12</v>
@@ -3647,7 +3642,7 @@
         <v>144</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>12</v>
@@ -3663,14 +3658,14 @@
       <c r="A65" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="16" t="s">
         <v>146</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>13</v>
@@ -3679,7 +3674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
         <v>147</v>
       </c>
@@ -3687,7 +3682,7 @@
         <v>148</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>17</v>
@@ -3698,22 +3693,19 @@
       <c r="F66" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H66" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>13</v>
@@ -3721,19 +3713,22 @@
       <c r="F67" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="H67" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="16" t="s">
         <v>152</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>13</v>
@@ -3741,28 +3736,28 @@
       <c r="F68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H68" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="5" t="s">
         <v>154</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3773,7 +3768,7 @@
         <v>156</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>12</v>
@@ -3789,14 +3784,14 @@
       <c r="A71" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="16" t="s">
         <v>158</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>13</v>
@@ -3809,8 +3804,11 @@
       <c r="A72" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B72" s="11" t="s">
-        <v>47</v>
+      <c r="B72" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>17</v>
@@ -3824,16 +3822,13 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B73" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>113</v>
+      <c r="B73" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>13</v>
@@ -3846,14 +3841,14 @@
       <c r="A74" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="16" t="s">
         <v>163</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>13</v>
@@ -3870,7 +3865,7 @@
         <v>165</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>17</v>
@@ -3890,7 +3885,7 @@
         <v>167</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>17</v>
@@ -3910,7 +3905,7 @@
         <v>169</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>17</v>
@@ -3930,7 +3925,7 @@
         <v>171</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>17</v>
@@ -3950,7 +3945,7 @@
         <v>173</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>17</v>
@@ -3970,7 +3965,7 @@
         <v>175</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>17</v>
@@ -3986,14 +3981,14 @@
       <c r="A81" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="5" t="s">
         <v>177</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>13</v>
@@ -4002,38 +3997,38 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" ht="30" spans="1:6">
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="16" t="s">
         <v>179</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" ht="30" spans="1:6">
+      <c r="A83" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="B83" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>13</v>
@@ -4044,13 +4039,13 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B84" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>12</v>
@@ -4064,13 +4059,13 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>12</v>
@@ -4086,11 +4081,11 @@
       <c r="A86" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B86" s="7">
-        <v>100040</v>
+      <c r="B86" s="16" t="s">
+        <v>186</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>12</v>
@@ -4104,16 +4099,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B87" s="7" t="s">
         <v>187</v>
       </c>
+      <c r="B87" s="7">
+        <v>100040</v>
+      </c>
       <c r="C87" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>13</v>
@@ -4126,14 +4121,14 @@
       <c r="A88" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="7" t="s">
         <v>189</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>116</v>
+        <v>182</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>13</v>
@@ -4146,14 +4141,14 @@
       <c r="A89" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="16" t="s">
         <v>191</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>13</v>
@@ -4164,13 +4159,13 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="C90" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>17</v>
@@ -4184,13 +4179,13 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="C91" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>17</v>
@@ -4204,16 +4199,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="C92" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="D92" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>13</v>
@@ -4224,13 +4219,13 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B93" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="C93" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>12</v>
@@ -4244,16 +4239,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B94" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="C94" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="D94" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>13</v>
@@ -4264,13 +4259,13 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="C95" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>17</v>
@@ -4284,13 +4279,13 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B96" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="C96" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>17</v>
@@ -4310,7 +4305,7 @@
         <v>214</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>17</v>
@@ -4326,14 +4321,14 @@
       <c r="A98" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="7" t="s">
         <v>216</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>13</v>
@@ -4344,9 +4339,12 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B99" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="C99" s="2" t="s">
         <v>219</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -4363,7 +4361,7 @@
       <c r="A100" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="7" t="s">
         <v>221</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -4397,11 +4395,11 @@
       <c r="A102" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="16" t="s">
         <v>225</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>13</v>
@@ -4427,7 +4425,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
         <v>228</v>
       </c>
@@ -4436,6 +4434,12 @@
       </c>
       <c r="D104" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -4454,7 +4458,7 @@
         <v>232</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>17</v>
@@ -4462,10 +4466,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>17</v>
@@ -4475,39 +4479,36 @@
       <c r="A108" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>225</v>
+      <c r="B108" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>238</v>
-      </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4521,7 +4522,7 @@
         <v>17</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4535,24 +4536,24 @@
         <v>17</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="2" t="s">
         <v>246</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
         <v>247</v>
       </c>
@@ -4561,13 +4562,16 @@
       </c>
       <c r="D114" s="2" t="s">
         <v>17</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" s="5" t="s">
         <v>250</v>
       </c>
       <c r="D115" s="2" t="s">
@@ -4578,7 +4582,7 @@
       <c r="A116" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="2" t="s">
         <v>252</v>
       </c>
       <c r="D116" s="2" t="s">
@@ -4589,7 +4593,7 @@
       <c r="A117" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="16" t="s">
         <v>254</v>
       </c>
       <c r="D117" s="2" t="s">
@@ -4622,59 +4626,59 @@
       <c r="A120" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="2" t="s">
         <v>260</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B121" s="17" t="s">
+      <c r="B121" s="16" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="D121" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="17" t="s">
         <v>264</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B123" s="16" t="s">
+      <c r="B123" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="16" t="s">
         <v>268</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="2" t="s">
         <v>270</v>
       </c>
       <c r="D125" s="2" t="s">
@@ -4696,22 +4700,22 @@
       <c r="A127" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="5" t="s">
         <v>274</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="16" t="s">
         <v>276</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -4729,52 +4733,52 @@
       <c r="A130" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B130" s="2" t="s">
         <v>280</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B131" s="16" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="D131" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="16" t="s">
         <v>284</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B133" s="16" t="s">
+      <c r="B133" s="2" t="s">
         <v>286</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="16" t="s">
         <v>288</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4906,7 +4910,7 @@
         <v>312</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4917,52 +4921,49 @@
         <v>314</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B148" s="16" t="s">
+      <c r="B148" s="2" t="s">
         <v>316</v>
       </c>
       <c r="D148" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D149" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="149"/>
     <row r="150"/>
     <row r="151"/>
-    <row r="152" spans="1:2">
-      <c r="A152" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B152" s="7"/>
-    </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B153" s="16" t="s">
+    <row r="152"/>
+    <row r="153" spans="1:2">
+      <c r="A153" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B153" s="7"/>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B154" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>12</v>
@@ -4972,11 +4973,11 @@
       <c r="A155" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B155" s="16" t="s">
+      <c r="B155" t="s">
         <v>324</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>12</v>
@@ -4990,7 +4991,7 @@
         <v>326</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>12</v>
@@ -5000,14 +5001,14 @@
       <c r="A157" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="16" t="s">
         <v>328</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -5015,10 +5016,10 @@
         <v>329</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>234</v>
+        <v>330</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>17</v>
@@ -5026,13 +5027,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>331</v>
+        <v>236</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>17</v>
@@ -5046,7 +5047,7 @@
         <v>333</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>17</v>
@@ -5060,7 +5061,7 @@
         <v>335</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>17</v>
@@ -5070,14 +5071,14 @@
       <c r="A162" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B162" s="18" t="s">
+      <c r="B162" s="7" t="s">
         <v>337</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -5088,7 +5089,7 @@
         <v>339</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>12</v>
@@ -5102,7 +5103,7 @@
         <v>341</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>12</v>
@@ -5116,7 +5117,7 @@
         <v>343</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>12</v>
@@ -5126,42 +5127,42 @@
       <c r="A166" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="18" t="s">
         <v>345</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="167" customHeight="1" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B167" s="18" t="s">
+      <c r="B167" s="2" t="s">
         <v>347</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="168" customHeight="1" spans="1:4">
       <c r="A168" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="18" t="s">
         <v>349</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" customHeight="1" spans="1:4">
@@ -5172,7 +5173,7 @@
         <v>351</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>17</v>
@@ -5182,11 +5183,11 @@
       <c r="A170" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B170" s="18" t="s">
+      <c r="B170" s="2" t="s">
         <v>353</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>17</v>
@@ -5196,44 +5197,47 @@
       <c r="A171" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B171" s="16" t="s">
+      <c r="B171" s="18" t="s">
         <v>355</v>
       </c>
+      <c r="C171" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="D171" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="172" customHeight="1" spans="1:4">
       <c r="A172" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="16" t="s">
         <v>357</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173" customHeight="1" spans="1:4">
       <c r="A173" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B173" s="16" t="s">
+      <c r="B173" s="2" t="s">
         <v>359</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="174" customHeight="1" spans="1:4">
       <c r="A174" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="16" t="s">
         <v>361</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" customHeight="1" spans="1:4">
@@ -5247,16 +5251,20 @@
         <v>17</v>
       </c>
     </row>
-    <row r="185" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A185" s="19"/>
-      <c r="B185" s="15"/>
-    </row>
-    <row r="192" spans="3:7">
-      <c r="C192" s="20"/>
-      <c r="D192" s="20"/>
-      <c r="E192" s="20"/>
-      <c r="F192" s="20"/>
-      <c r="G192" s="20"/>
+    <row r="176" customHeight="1" spans="1:4">
+      <c r="A176" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="186" ht="17.25" customHeight="1" spans="1:2">
+      <c r="A186" s="19"/>
+      <c r="B186" s="15"/>
     </row>
     <row r="193" spans="3:7">
       <c r="C193" s="20"/>
@@ -5265,14 +5273,20 @@
       <c r="F193" s="20"/>
       <c r="G193" s="20"/>
     </row>
-    <row r="212" spans="1:1">
-      <c r="A212" s="21"/>
-    </row>
-    <row r="215" spans="2:2">
-      <c r="B215" s="22"/>
-    </row>
-    <row r="218" ht="18.75" customHeight="1"/>
-    <row r="219" ht="21" customHeight="1"/>
+    <row r="194" spans="3:7">
+      <c r="C194" s="20"/>
+      <c r="D194" s="20"/>
+      <c r="E194" s="20"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="20"/>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="21"/>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="22"/>
+    </row>
+    <row r="219" ht="18.75" customHeight="1"/>
     <row r="220" ht="21" customHeight="1"/>
     <row r="221" ht="21" customHeight="1"/>
     <row r="222" ht="21" customHeight="1"/>
@@ -5281,12 +5295,10 @@
     <row r="225" ht="21" customHeight="1"/>
     <row r="226" ht="21" customHeight="1"/>
     <row r="227" ht="21" customHeight="1"/>
-    <row r="238" spans="1:2">
-      <c r="A238" s="23"/>
-      <c r="B238" s="24"/>
-    </row>
-    <row r="239" spans="2:2">
-      <c r="B239" s="5"/>
+    <row r="228" ht="21" customHeight="1"/>
+    <row r="239" spans="1:2">
+      <c r="A239" s="23"/>
+      <c r="B239" s="24"/>
     </row>
     <row r="240" spans="2:2">
       <c r="B240" s="5"/>
@@ -5309,12 +5321,12 @@
     <row r="246" spans="2:2">
       <c r="B246" s="5"/>
     </row>
-    <row r="247" spans="1:2">
-      <c r="A247" s="23"/>
-      <c r="B247" s="25"/>
-    </row>
-    <row r="248" spans="2:2">
-      <c r="B248" s="5"/>
+    <row r="247" spans="2:2">
+      <c r="B247" s="5"/>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="23"/>
+      <c r="B248" s="25"/>
     </row>
     <row r="249" spans="2:2">
       <c r="B249" s="5"/>
@@ -5361,11 +5373,11 @@
     <row r="263" spans="2:2">
       <c r="B263" s="5"/>
     </row>
-    <row r="264" spans="1:2">
-      <c r="A264" s="21"/>
+    <row r="264" spans="2:2">
       <c r="B264" s="5"/>
     </row>
-    <row r="265" spans="2:2">
+    <row r="265" spans="1:2">
+      <c r="A265" s="21"/>
       <c r="B265" s="5"/>
     </row>
     <row r="266" spans="2:2">
@@ -5374,11 +5386,11 @@
     <row r="267" spans="2:2">
       <c r="B267" s="5"/>
     </row>
-    <row r="268" spans="1:2">
-      <c r="A268" s="21"/>
+    <row r="268" spans="2:2">
       <c r="B268" s="5"/>
     </row>
-    <row r="269" spans="2:2">
+    <row r="269" spans="1:2">
+      <c r="A269" s="21"/>
       <c r="B269" s="5"/>
     </row>
     <row r="270" spans="2:2">
@@ -5402,18 +5414,18 @@
     <row r="276" spans="2:2">
       <c r="B276" s="5"/>
     </row>
-    <row r="277" spans="1:2">
-      <c r="A277" s="21"/>
+    <row r="277" spans="2:2">
       <c r="B277" s="5"/>
     </row>
-    <row r="278" spans="2:2">
+    <row r="278" spans="1:2">
+      <c r="A278" s="21"/>
       <c r="B278" s="5"/>
     </row>
-    <row r="279" spans="1:2">
-      <c r="A279" s="21"/>
+    <row r="279" spans="2:2">
       <c r="B279" s="5"/>
     </row>
-    <row r="280" spans="2:2">
+    <row r="280" spans="1:2">
+      <c r="A280" s="21"/>
       <c r="B280" s="5"/>
     </row>
     <row r="281" spans="2:2">
@@ -5471,10 +5483,10 @@
       <c r="B298" s="5"/>
     </row>
     <row r="299" spans="2:2">
-      <c r="B299" s="26"/>
+      <c r="B299" s="5"/>
     </row>
     <row r="300" spans="2:2">
-      <c r="B300" s="5"/>
+      <c r="B300" s="26"/>
     </row>
     <row r="301" spans="2:2">
       <c r="B301" s="5"/>
@@ -5485,12 +5497,12 @@
     <row r="303" spans="2:2">
       <c r="B303" s="5"/>
     </row>
-    <row r="304" spans="1:2">
-      <c r="A304" s="23"/>
-      <c r="B304" s="25"/>
-    </row>
-    <row r="305" spans="2:2">
-      <c r="B305" s="5"/>
+    <row r="304" spans="2:2">
+      <c r="B304" s="5"/>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="23"/>
+      <c r="B305" s="25"/>
     </row>
     <row r="306" spans="2:2">
       <c r="B306" s="5"/>
@@ -5540,11 +5552,11 @@
     <row r="321" spans="2:2">
       <c r="B321" s="5"/>
     </row>
-    <row r="322" spans="1:2">
-      <c r="A322" s="27"/>
+    <row r="322" spans="2:2">
       <c r="B322" s="5"/>
     </row>
-    <row r="323" spans="2:2">
+    <row r="323" spans="1:2">
+      <c r="A323" s="27"/>
       <c r="B323" s="5"/>
     </row>
     <row r="324" spans="2:2">
@@ -5568,8 +5580,7 @@
     <row r="330" spans="2:2">
       <c r="B330" s="5"/>
     </row>
-    <row r="331" spans="1:2">
-      <c r="A331" s="21"/>
+    <row r="331" spans="2:2">
       <c r="B331" s="5"/>
     </row>
     <row r="332" spans="1:2">
@@ -5584,7 +5595,8 @@
       <c r="A334" s="21"/>
       <c r="B334" s="5"/>
     </row>
-    <row r="335" spans="2:2">
+    <row r="335" spans="1:2">
+      <c r="A335" s="21"/>
       <c r="B335" s="5"/>
     </row>
     <row r="336" spans="2:2">
@@ -5635,14 +5647,14 @@
     <row r="351" spans="2:2">
       <c r="B351" s="5"/>
     </row>
-    <row r="393" spans="1:1">
-      <c r="A393" s="21"/>
-    </row>
-    <row r="431" spans="1:1">
-      <c r="A431" s="21"/>
-    </row>
-    <row r="433" spans="1:1">
-      <c r="A433" s="21"/>
+    <row r="352" spans="2:2">
+      <c r="B352" s="5"/>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" s="21"/>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" s="21"/>
     </row>
     <row r="434" spans="1:1">
       <c r="A434" s="21"/>
@@ -5659,12 +5671,12 @@
     <row r="438" spans="1:1">
       <c r="A438" s="21"/>
     </row>
-    <row r="439" spans="3:4">
-      <c r="C439" s="22"/>
-      <c r="D439" s="22"/>
-    </row>
-    <row r="440" spans="1:1">
-      <c r="A440" s="21"/>
+    <row r="439" spans="1:1">
+      <c r="A439" s="21"/>
+    </row>
+    <row r="440" spans="3:4">
+      <c r="C440" s="22"/>
+      <c r="D440" s="22"/>
     </row>
     <row r="441" spans="1:1">
       <c r="A441" s="21"/>
@@ -5678,8 +5690,8 @@
     <row r="444" spans="1:1">
       <c r="A444" s="21"/>
     </row>
-    <row r="446" spans="1:1">
-      <c r="A446" s="21"/>
+    <row r="445" spans="1:1">
+      <c r="A445" s="21"/>
     </row>
     <row r="447" spans="1:1">
       <c r="A447" s="21"/>
@@ -5690,8 +5702,8 @@
     <row r="449" spans="1:1">
       <c r="A449" s="21"/>
     </row>
-    <row r="465" spans="1:1">
-      <c r="A465" s="21"/>
+    <row r="450" spans="1:1">
+      <c r="A450" s="21"/>
     </row>
     <row r="466" spans="1:1">
       <c r="A466" s="21"/>
@@ -5702,17 +5714,12 @@
     <row r="468" spans="1:1">
       <c r="A468" s="21"/>
     </row>
-    <row r="483" spans="3:4">
-      <c r="C483" s="22"/>
-      <c r="D483" s="22"/>
-    </row>
-    <row r="484" spans="1:7">
-      <c r="A484" s="21"/>
+    <row r="469" spans="1:1">
+      <c r="A469" s="21"/>
+    </row>
+    <row r="484" spans="3:4">
       <c r="C484" s="22"/>
       <c r="D484" s="22"/>
-      <c r="E484" s="22"/>
-      <c r="F484" s="22"/>
-      <c r="G484" s="22"/>
     </row>
     <row r="485" spans="1:7">
       <c r="A485" s="21"/>
@@ -5730,7 +5737,8 @@
       <c r="F486" s="22"/>
       <c r="G486" s="22"/>
     </row>
-    <row r="487" spans="3:7">
+    <row r="487" spans="1:7">
+      <c r="A487" s="21"/>
       <c r="C487" s="22"/>
       <c r="D487" s="22"/>
       <c r="E487" s="22"/>
@@ -5744,8 +5752,7 @@
       <c r="F488" s="22"/>
       <c r="G488" s="22"/>
     </row>
-    <row r="489" spans="1:7">
-      <c r="A489" s="21"/>
+    <row r="489" spans="3:7">
       <c r="C489" s="22"/>
       <c r="D489" s="22"/>
       <c r="E489" s="22"/>
@@ -5784,15 +5791,15 @@
       <c r="F493" s="22"/>
       <c r="G493" s="22"/>
     </row>
-    <row r="494" spans="3:7">
+    <row r="494" spans="1:7">
+      <c r="A494" s="21"/>
       <c r="C494" s="22"/>
       <c r="D494" s="22"/>
       <c r="E494" s="22"/>
       <c r="F494" s="22"/>
       <c r="G494" s="22"/>
     </row>
-    <row r="495" spans="1:7">
-      <c r="A495" s="21"/>
+    <row r="495" spans="3:7">
       <c r="C495" s="22"/>
       <c r="D495" s="22"/>
       <c r="E495" s="22"/>
@@ -5815,7 +5822,8 @@
       <c r="F497" s="22"/>
       <c r="G497" s="22"/>
     </row>
-    <row r="498" spans="3:7">
+    <row r="498" spans="1:7">
+      <c r="A498" s="21"/>
       <c r="C498" s="22"/>
       <c r="D498" s="22"/>
       <c r="E498" s="22"/>
@@ -5836,17 +5844,17 @@
       <c r="F500" s="22"/>
       <c r="G500" s="22"/>
     </row>
-    <row r="501" spans="5:7">
+    <row r="501" spans="3:7">
+      <c r="C501" s="22"/>
+      <c r="D501" s="22"/>
       <c r="E501" s="22"/>
       <c r="F501" s="22"/>
       <c r="G501" s="22"/>
     </row>
-    <row r="511" spans="3:7">
-      <c r="C511" s="22"/>
-      <c r="D511" s="22"/>
-      <c r="E511" s="22"/>
-      <c r="F511" s="22"/>
-      <c r="G511" s="22"/>
+    <row r="502" spans="5:7">
+      <c r="E502" s="22"/>
+      <c r="F502" s="22"/>
+      <c r="G502" s="22"/>
     </row>
     <row r="512" spans="3:7">
       <c r="C512" s="22"/>
@@ -5855,8 +5863,7 @@
       <c r="F512" s="22"/>
       <c r="G512" s="22"/>
     </row>
-    <row r="513" spans="1:7">
-      <c r="A513" s="21"/>
+    <row r="513" spans="3:7">
       <c r="C513" s="22"/>
       <c r="D513" s="22"/>
       <c r="E513" s="22"/>
@@ -5871,15 +5878,15 @@
       <c r="F514" s="22"/>
       <c r="G514" s="22"/>
     </row>
-    <row r="515" spans="3:7">
+    <row r="515" spans="1:7">
+      <c r="A515" s="21"/>
       <c r="C515" s="22"/>
       <c r="D515" s="22"/>
       <c r="E515" s="22"/>
       <c r="F515" s="22"/>
       <c r="G515" s="22"/>
     </row>
-    <row r="516" spans="1:7">
-      <c r="A516" s="21"/>
+    <row r="516" spans="3:7">
       <c r="C516" s="22"/>
       <c r="D516" s="22"/>
       <c r="E516" s="22"/>
@@ -5894,9 +5901,13 @@
       <c r="F517" s="22"/>
       <c r="G517" s="22"/>
     </row>
-    <row r="518" spans="3:4">
+    <row r="518" spans="1:7">
+      <c r="A518" s="21"/>
       <c r="C518" s="22"/>
       <c r="D518" s="22"/>
+      <c r="E518" s="22"/>
+      <c r="F518" s="22"/>
+      <c r="G518" s="22"/>
     </row>
     <row r="519" spans="3:4">
       <c r="C519" s="22"/>
@@ -5930,17 +5941,14 @@
       <c r="C526" s="22"/>
       <c r="D526" s="22"/>
     </row>
-    <row r="527" spans="1:4">
-      <c r="A527" s="21"/>
+    <row r="527" spans="3:4">
       <c r="C527" s="22"/>
       <c r="D527" s="22"/>
     </row>
-    <row r="528" spans="3:7">
+    <row r="528" spans="1:4">
+      <c r="A528" s="21"/>
       <c r="C528" s="22"/>
       <c r="D528" s="22"/>
-      <c r="E528" s="22"/>
-      <c r="F528" s="22"/>
-      <c r="G528" s="22"/>
     </row>
     <row r="529" spans="3:7">
       <c r="C529" s="22"/>
@@ -5949,22 +5957,25 @@
       <c r="F529" s="22"/>
       <c r="G529" s="22"/>
     </row>
-    <row r="530" spans="1:4">
-      <c r="A530" s="21"/>
+    <row r="530" spans="3:7">
       <c r="C530" s="22"/>
       <c r="D530" s="22"/>
-    </row>
-    <row r="541" spans="1:4">
-      <c r="A541" s="21"/>
-      <c r="C541" s="22"/>
-      <c r="D541" s="22"/>
+      <c r="E530" s="22"/>
+      <c r="F530" s="22"/>
+      <c r="G530" s="22"/>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" s="21"/>
+      <c r="C531" s="22"/>
+      <c r="D531" s="22"/>
     </row>
     <row r="542" spans="1:4">
       <c r="A542" s="21"/>
       <c r="C542" s="22"/>
       <c r="D542" s="22"/>
     </row>
-    <row r="543" spans="3:4">
+    <row r="543" spans="1:4">
+      <c r="A543" s="21"/>
       <c r="C543" s="22"/>
       <c r="D543" s="22"/>
     </row>
@@ -5976,14 +5987,15 @@
       <c r="C545" s="22"/>
       <c r="D545" s="22"/>
     </row>
-    <row r="546" spans="1:1">
-      <c r="A546" s="21"/>
+    <row r="546" spans="3:4">
+      <c r="C546" s="22"/>
+      <c r="D546" s="22"/>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" s="21"/>
     </row>
-    <row r="553" spans="2:2">
-      <c r="B553" s="7"/>
+    <row r="548" spans="1:1">
+      <c r="A548" s="21"/>
     </row>
     <row r="554" spans="2:2">
       <c r="B554" s="7"/>
@@ -6006,14 +6018,14 @@
     <row r="560" spans="2:2">
       <c r="B560" s="7"/>
     </row>
-    <row r="562" spans="2:2">
-      <c r="B562" s="7"/>
-    </row>
-    <row r="565" spans="1:1">
-      <c r="A565" s="21"/>
-    </row>
-    <row r="569" spans="1:1">
-      <c r="A569" s="21"/>
+    <row r="561" spans="2:2">
+      <c r="B561" s="7"/>
+    </row>
+    <row r="563" spans="2:2">
+      <c r="B563" s="7"/>
+    </row>
+    <row r="566" spans="1:1">
+      <c r="A566" s="21"/>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" s="21"/>
@@ -6021,15 +6033,15 @@
     <row r="571" spans="1:1">
       <c r="A571" s="21"/>
     </row>
-    <row r="575" spans="1:2">
-      <c r="A575" s="21"/>
-      <c r="B575" s="22"/>
-    </row>
-    <row r="576" spans="1:1">
+    <row r="572" spans="1:1">
+      <c r="A572" s="21"/>
+    </row>
+    <row r="576" spans="1:2">
       <c r="A576" s="21"/>
-    </row>
-    <row r="578" spans="1:1">
-      <c r="A578" s="21"/>
+      <c r="B576" s="22"/>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577" s="21"/>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" s="21"/>
@@ -6040,27 +6052,27 @@
     <row r="581" spans="1:1">
       <c r="A581" s="21"/>
     </row>
-    <row r="589" spans="2:2">
-      <c r="B589" s="28"/>
-    </row>
-    <row r="617" spans="3:4">
-      <c r="C617" s="22"/>
-      <c r="D617" s="22"/>
-    </row>
-    <row r="627" spans="1:1">
-      <c r="A627" s="21"/>
+    <row r="582" spans="1:1">
+      <c r="A582" s="21"/>
+    </row>
+    <row r="590" spans="2:2">
+      <c r="B590" s="28"/>
+    </row>
+    <row r="618" spans="3:4">
+      <c r="C618" s="22"/>
+      <c r="D618" s="22"/>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" s="21"/>
     </row>
-    <row r="726" spans="1:1">
-      <c r="A726" s="21"/>
+    <row r="629" spans="1:1">
+      <c r="A629" s="21"/>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" s="21"/>
     </row>
-    <row r="729" spans="1:1">
-      <c r="A729" s="21"/>
+    <row r="728" spans="1:1">
+      <c r="A728" s="21"/>
     </row>
     <row r="730" spans="1:1">
       <c r="A730" s="21"/>
@@ -6068,11 +6080,11 @@
     <row r="731" spans="1:1">
       <c r="A731" s="21"/>
     </row>
-    <row r="847" spans="1:1">
-      <c r="A847" s="21"/>
-    </row>
-    <row r="851" spans="1:1">
-      <c r="A851" s="21"/>
+    <row r="732" spans="1:1">
+      <c r="A732" s="21"/>
+    </row>
+    <row r="848" spans="1:1">
+      <c r="A848" s="21"/>
     </row>
     <row r="852" spans="1:1">
       <c r="A852" s="21"/>
@@ -6104,12 +6116,11 @@
     <row r="861" spans="1:1">
       <c r="A861" s="21"/>
     </row>
-    <row r="862" spans="2:4">
-      <c r="B862" s="28"/>
-      <c r="C862" s="22"/>
-      <c r="D862" s="22"/>
-    </row>
-    <row r="863" spans="3:4">
+    <row r="862" spans="1:1">
+      <c r="A862" s="21"/>
+    </row>
+    <row r="863" spans="2:4">
+      <c r="B863" s="28"/>
       <c r="C863" s="22"/>
       <c r="D863" s="22"/>
     </row>
@@ -6117,11 +6128,12 @@
       <c r="C864" s="22"/>
       <c r="D864" s="22"/>
     </row>
-    <row r="881" spans="2:2">
-      <c r="B881" s="7"/>
-    </row>
-    <row r="993" spans="1:1">
-      <c r="A993" s="21"/>
+    <row r="865" spans="3:4">
+      <c r="C865" s="22"/>
+      <c r="D865" s="22"/>
+    </row>
+    <row r="882" spans="2:2">
+      <c r="B882" s="7"/>
     </row>
     <row r="994" spans="1:1">
       <c r="A994" s="21"/>
@@ -6135,25 +6147,25 @@
     <row r="997" spans="1:1">
       <c r="A997" s="21"/>
     </row>
-    <row r="1064" spans="2:7">
-      <c r="B1064" s="7"/>
-      <c r="C1064" s="7"/>
-      <c r="D1064" s="7"/>
-      <c r="E1064" s="7"/>
-      <c r="F1064" s="7"/>
-      <c r="G1064" s="7"/>
-    </row>
-    <row r="1067" spans="1:1">
-      <c r="A1067" s="21"/>
+    <row r="998" spans="1:1">
+      <c r="A998" s="21"/>
+    </row>
+    <row r="1065" spans="2:7">
+      <c r="B1065" s="7"/>
+      <c r="C1065" s="7"/>
+      <c r="D1065" s="7"/>
+      <c r="E1065" s="7"/>
+      <c r="F1065" s="7"/>
+      <c r="G1065" s="7"/>
     </row>
     <row r="1068" spans="1:1">
       <c r="A1068" s="21"/>
     </row>
-    <row r="1070" spans="1:1">
-      <c r="A1070" s="21"/>
-    </row>
-    <row r="1163" spans="1:1">
-      <c r="A1163" s="21"/>
+    <row r="1069" spans="1:1">
+      <c r="A1069" s="21"/>
+    </row>
+    <row r="1071" spans="1:1">
+      <c r="A1071" s="21"/>
     </row>
     <row r="1164" spans="1:1">
       <c r="A1164" s="21"/>
@@ -6167,52 +6179,52 @@
     <row r="1167" spans="1:1">
       <c r="A1167" s="21"/>
     </row>
-    <row r="1185" spans="1:1">
-      <c r="A1185" s="21"/>
+    <row r="1168" spans="1:1">
+      <c r="A1168" s="21"/>
     </row>
     <row r="1186" spans="1:1">
       <c r="A1186" s="21"/>
     </row>
-    <row r="1194" spans="3:7">
-      <c r="C1194" s="20"/>
-      <c r="D1194" s="20"/>
-      <c r="E1194" s="20"/>
-      <c r="F1194" s="20"/>
-      <c r="G1194" s="20"/>
-    </row>
-    <row r="1238" spans="1:1">
-      <c r="A1238" s="21"/>
-    </row>
-    <row r="1241" spans="1:1">
-      <c r="A1241" s="21"/>
+    <row r="1187" spans="1:1">
+      <c r="A1187" s="21"/>
+    </row>
+    <row r="1195" spans="3:7">
+      <c r="C1195" s="20"/>
+      <c r="D1195" s="20"/>
+      <c r="E1195" s="20"/>
+      <c r="F1195" s="20"/>
+      <c r="G1195" s="20"/>
+    </row>
+    <row r="1239" spans="1:1">
+      <c r="A1239" s="21"/>
     </row>
     <row r="1242" spans="1:1">
       <c r="A1242" s="21"/>
     </row>
-    <row r="1289" spans="1:1">
-      <c r="A1289" s="21"/>
-    </row>
-    <row r="1305" spans="1:1">
-      <c r="A1305" s="21"/>
-    </row>
-    <row r="1334" spans="1:1">
-      <c r="A1334" s="21"/>
-    </row>
-    <row r="1364" spans="1:1">
-      <c r="A1364" s="21"/>
-    </row>
-    <row r="1367" spans="3:7">
-      <c r="C1367" s="20"/>
-      <c r="D1367" s="20"/>
-      <c r="E1367" s="20"/>
-      <c r="F1367" s="20"/>
-      <c r="G1367" s="20"/>
-    </row>
-    <row r="1369" spans="2:2">
-      <c r="B1369" s="29"/>
-    </row>
-    <row r="1398" spans="1:1">
-      <c r="A1398" s="21"/>
+    <row r="1243" spans="1:1">
+      <c r="A1243" s="21"/>
+    </row>
+    <row r="1290" spans="1:1">
+      <c r="A1290" s="21"/>
+    </row>
+    <row r="1306" spans="1:1">
+      <c r="A1306" s="21"/>
+    </row>
+    <row r="1335" spans="1:1">
+      <c r="A1335" s="21"/>
+    </row>
+    <row r="1365" spans="1:1">
+      <c r="A1365" s="21"/>
+    </row>
+    <row r="1368" spans="3:7">
+      <c r="C1368" s="20"/>
+      <c r="D1368" s="20"/>
+      <c r="E1368" s="20"/>
+      <c r="F1368" s="20"/>
+      <c r="G1368" s="20"/>
+    </row>
+    <row r="1370" spans="2:2">
+      <c r="B1370" s="29"/>
     </row>
     <row r="1399" spans="1:1">
       <c r="A1399" s="21"/>
@@ -6226,11 +6238,11 @@
     <row r="1402" spans="1:1">
       <c r="A1402" s="21"/>
     </row>
-    <row r="1406" spans="1:1">
-      <c r="A1406" s="21"/>
-    </row>
-    <row r="1414" spans="1:1">
-      <c r="A1414" s="23"/>
+    <row r="1403" spans="1:1">
+      <c r="A1403" s="21"/>
+    </row>
+    <row r="1407" spans="1:1">
+      <c r="A1407" s="21"/>
     </row>
     <row r="1415" spans="1:1">
       <c r="A1415" s="23"/>
@@ -6244,8 +6256,8 @@
     <row r="1418" spans="1:1">
       <c r="A1418" s="23"/>
     </row>
-    <row r="1423" spans="1:1">
-      <c r="A1423" s="23"/>
+    <row r="1419" spans="1:1">
+      <c r="A1419" s="23"/>
     </row>
     <row r="1424" spans="1:1">
       <c r="A1424" s="23"/>
@@ -6280,8 +6292,8 @@
     <row r="1434" spans="1:1">
       <c r="A1434" s="23"/>
     </row>
-    <row r="1438" spans="1:1">
-      <c r="A1438" s="21"/>
+    <row r="1435" spans="1:1">
+      <c r="A1435" s="23"/>
     </row>
     <row r="1439" spans="1:1">
       <c r="A1439" s="21"/>
@@ -6289,8 +6301,8 @@
     <row r="1440" spans="1:1">
       <c r="A1440" s="21"/>
     </row>
-    <row r="1442" spans="1:1">
-      <c r="A1442" s="21"/>
+    <row r="1441" spans="1:1">
+      <c r="A1441" s="21"/>
     </row>
     <row r="1443" spans="1:1">
       <c r="A1443" s="21"/>
@@ -6337,11 +6349,11 @@
     <row r="1457" spans="1:1">
       <c r="A1457" s="21"/>
     </row>
-    <row r="1461" spans="1:1">
-      <c r="A1461" s="21"/>
-    </row>
-    <row r="1468" spans="1:1">
-      <c r="A1468" s="21"/>
+    <row r="1458" spans="1:1">
+      <c r="A1458" s="21"/>
+    </row>
+    <row r="1462" spans="1:1">
+      <c r="A1462" s="21"/>
     </row>
     <row r="1469" spans="1:1">
       <c r="A1469" s="21"/>
@@ -6373,48 +6385,44 @@
     <row r="1478" spans="1:1">
       <c r="A1478" s="21"/>
     </row>
-    <row r="1480" spans="1:1">
-      <c r="A1480" s="21"/>
-    </row>
-    <row r="1486" spans="2:2">
-      <c r="B1486" s="22"/>
-    </row>
-    <row r="1488" spans="2:2">
-      <c r="B1488" s="22"/>
-    </row>
-    <row r="1490" spans="2:2">
-      <c r="B1490" s="22"/>
-    </row>
-    <row r="1504" spans="2:2">
-      <c r="B1504" s="22"/>
-    </row>
-    <row r="1506" spans="2:2">
-      <c r="B1506" s="22"/>
-    </row>
-    <row r="1509" spans="2:2">
-      <c r="B1509" s="22"/>
+    <row r="1479" spans="1:1">
+      <c r="A1479" s="21"/>
+    </row>
+    <row r="1481" spans="1:1">
+      <c r="A1481" s="21"/>
+    </row>
+    <row r="1487" spans="2:2">
+      <c r="B1487" s="22"/>
+    </row>
+    <row r="1489" spans="2:2">
+      <c r="B1489" s="22"/>
+    </row>
+    <row r="1491" spans="2:2">
+      <c r="B1491" s="22"/>
+    </row>
+    <row r="1505" spans="2:2">
+      <c r="B1505" s="22"/>
+    </row>
+    <row r="1507" spans="2:2">
+      <c r="B1507" s="22"/>
     </row>
     <row r="1510" spans="2:2">
       <c r="B1510" s="22"/>
     </row>
-    <row r="1515" spans="2:2">
-      <c r="B1515" s="22"/>
+    <row r="1511" spans="2:2">
+      <c r="B1511" s="22"/>
     </row>
     <row r="1516" spans="2:2">
       <c r="B1516" s="22"/>
     </row>
-    <row r="1519" spans="2:2">
-      <c r="B1519" s="22"/>
+    <row r="1517" spans="2:2">
+      <c r="B1517" s="22"/>
     </row>
     <row r="1520" spans="2:2">
       <c r="B1520" s="22"/>
     </row>
-    <row r="1631" spans="3:7">
-      <c r="C1631" s="20"/>
-      <c r="D1631" s="20"/>
-      <c r="E1631" s="20"/>
-      <c r="F1631" s="20"/>
-      <c r="G1631" s="20"/>
+    <row r="1521" spans="2:2">
+      <c r="B1521" s="22"/>
     </row>
     <row r="1632" spans="3:7">
       <c r="C1632" s="20"/>
@@ -6472,8 +6480,12 @@
       <c r="F1639" s="20"/>
       <c r="G1639" s="20"/>
     </row>
-    <row r="1641" spans="1:1">
-      <c r="A1641" s="21"/>
+    <row r="1640" spans="3:7">
+      <c r="C1640" s="20"/>
+      <c r="D1640" s="20"/>
+      <c r="E1640" s="20"/>
+      <c r="F1640" s="20"/>
+      <c r="G1640" s="20"/>
     </row>
     <row r="1642" spans="1:1">
       <c r="A1642" s="21"/>
@@ -6490,8 +6502,8 @@
     <row r="1646" spans="1:1">
       <c r="A1646" s="21"/>
     </row>
-    <row r="1735" spans="1:1">
-      <c r="A1735" s="21"/>
+    <row r="1647" spans="1:1">
+      <c r="A1647" s="21"/>
     </row>
     <row r="1736" spans="1:1">
       <c r="A1736" s="21"/>
@@ -6505,26 +6517,26 @@
     <row r="1739" spans="1:1">
       <c r="A1739" s="21"/>
     </row>
-    <row r="1747" spans="1:1">
-      <c r="A1747" s="21"/>
+    <row r="1740" spans="1:1">
+      <c r="A1740" s="21"/>
     </row>
     <row r="1748" spans="1:1">
       <c r="A1748" s="21"/>
     </row>
-    <row r="1750" spans="1:1">
-      <c r="A1750" s="21"/>
-    </row>
-    <row r="1761" spans="1:1">
-      <c r="A1761" s="21"/>
-    </row>
-    <row r="1786" spans="1:1">
-      <c r="A1786" s="21"/>
+    <row r="1749" spans="1:1">
+      <c r="A1749" s="21"/>
+    </row>
+    <row r="1751" spans="1:1">
+      <c r="A1751" s="21"/>
+    </row>
+    <row r="1762" spans="1:1">
+      <c r="A1762" s="21"/>
     </row>
     <row r="1787" spans="1:1">
       <c r="A1787" s="21"/>
     </row>
-    <row r="1798" spans="1:1">
-      <c r="A1798" s="21"/>
+    <row r="1788" spans="1:1">
+      <c r="A1788" s="21"/>
     </row>
     <row r="1799" spans="1:1">
       <c r="A1799" s="21"/>
@@ -6547,17 +6559,17 @@
     <row r="1805" spans="1:1">
       <c r="A1805" s="21"/>
     </row>
-    <row r="1807" spans="2:2">
-      <c r="B1807" s="13"/>
-    </row>
-    <row r="1809" spans="1:1">
-      <c r="A1809" s="21"/>
+    <row r="1806" spans="1:1">
+      <c r="A1806" s="21"/>
+    </row>
+    <row r="1808" spans="2:2">
+      <c r="B1808" s="13"/>
     </row>
     <row r="1810" spans="1:1">
       <c r="A1810" s="21"/>
     </row>
-    <row r="1812" spans="1:1">
-      <c r="A1812" s="21"/>
+    <row r="1811" spans="1:1">
+      <c r="A1811" s="21"/>
     </row>
     <row r="1813" spans="1:1">
       <c r="A1813" s="21"/>
@@ -6583,20 +6595,20 @@
     <row r="1820" spans="1:1">
       <c r="A1820" s="21"/>
     </row>
-    <row r="1856" spans="1:1">
-      <c r="A1856" s="21"/>
-    </row>
-    <row r="1860" spans="1:1">
-      <c r="A1860" s="21"/>
-    </row>
-    <row r="1863" spans="1:1">
-      <c r="A1863" s="21"/>
-    </row>
-    <row r="1897" spans="1:1">
-      <c r="A1897" s="21"/>
-    </row>
-    <row r="1905" spans="1:1">
-      <c r="A1905" s="21"/>
+    <row r="1821" spans="1:1">
+      <c r="A1821" s="21"/>
+    </row>
+    <row r="1857" spans="1:1">
+      <c r="A1857" s="21"/>
+    </row>
+    <row r="1861" spans="1:1">
+      <c r="A1861" s="21"/>
+    </row>
+    <row r="1864" spans="1:1">
+      <c r="A1864" s="21"/>
+    </row>
+    <row r="1898" spans="1:1">
+      <c r="A1898" s="21"/>
     </row>
     <row r="1906" spans="1:1">
       <c r="A1906" s="21"/>
@@ -6604,14 +6616,14 @@
     <row r="1907" spans="1:1">
       <c r="A1907" s="21"/>
     </row>
-    <row r="1909" spans="1:1">
-      <c r="A1909" s="21"/>
-    </row>
-    <row r="1914" spans="1:1">
-      <c r="A1914" s="21"/>
-    </row>
-    <row r="1923" spans="1:1">
-      <c r="A1923" s="21"/>
+    <row r="1908" spans="1:1">
+      <c r="A1908" s="21"/>
+    </row>
+    <row r="1910" spans="1:1">
+      <c r="A1910" s="21"/>
+    </row>
+    <row r="1915" spans="1:1">
+      <c r="A1915" s="21"/>
     </row>
     <row r="1924" spans="1:1">
       <c r="A1924" s="21"/>
@@ -6634,10 +6646,8 @@
     <row r="1930" spans="1:1">
       <c r="A1930" s="21"/>
     </row>
-    <row r="1937" spans="5:7">
-      <c r="E1937" s="7"/>
-      <c r="F1937" s="7"/>
-      <c r="G1937" s="7"/>
+    <row r="1931" spans="1:1">
+      <c r="A1931" s="21"/>
     </row>
     <row r="1938" spans="5:7">
       <c r="E1938" s="7"/>
@@ -6659,10 +6669,10 @@
       <c r="F1941" s="7"/>
       <c r="G1941" s="7"/>
     </row>
-    <row r="1949" spans="5:7">
-      <c r="E1949" s="7"/>
-      <c r="F1949" s="7"/>
-      <c r="G1949" s="7"/>
+    <row r="1942" spans="5:7">
+      <c r="E1942" s="7"/>
+      <c r="F1942" s="7"/>
+      <c r="G1942" s="7"/>
     </row>
     <row r="1950" spans="5:7">
       <c r="E1950" s="7"/>
@@ -6679,8 +6689,10 @@
       <c r="F1952" s="7"/>
       <c r="G1952" s="7"/>
     </row>
-    <row r="1969" spans="1:1">
-      <c r="A1969" s="21"/>
+    <row r="1953" spans="5:7">
+      <c r="E1953" s="7"/>
+      <c r="F1953" s="7"/>
+      <c r="G1953" s="7"/>
     </row>
     <row r="1970" spans="1:1">
       <c r="A1970" s="21"/>
@@ -6691,8 +6703,8 @@
     <row r="1972" spans="1:1">
       <c r="A1972" s="21"/>
     </row>
-    <row r="1974" spans="1:1">
-      <c r="A1974" s="21"/>
+    <row r="1973" spans="1:1">
+      <c r="A1973" s="21"/>
     </row>
     <row r="1975" spans="1:1">
       <c r="A1975" s="21"/>
@@ -6706,8 +6718,8 @@
     <row r="1978" spans="1:1">
       <c r="A1978" s="21"/>
     </row>
-    <row r="1981" spans="1:1">
-      <c r="A1981" s="21"/>
+    <row r="1979" spans="1:1">
+      <c r="A1979" s="21"/>
     </row>
     <row r="1982" spans="1:1">
       <c r="A1982" s="21"/>
@@ -6721,8 +6733,8 @@
     <row r="1985" spans="1:1">
       <c r="A1985" s="21"/>
     </row>
-    <row r="1987" spans="1:1">
-      <c r="A1987" s="21"/>
+    <row r="1986" spans="1:1">
+      <c r="A1986" s="21"/>
     </row>
     <row r="1988" spans="1:1">
       <c r="A1988" s="21"/>
@@ -6847,23 +6859,23 @@
     <row r="2028" spans="1:1">
       <c r="A2028" s="21"/>
     </row>
-    <row r="2058" spans="1:1">
-      <c r="A2058" s="21"/>
-    </row>
-    <row r="2061" spans="1:1">
-      <c r="A2061" s="21"/>
-    </row>
-    <row r="2103" spans="1:1">
-      <c r="A2103" s="21"/>
+    <row r="2029" spans="1:1">
+      <c r="A2029" s="21"/>
+    </row>
+    <row r="2059" spans="1:1">
+      <c r="A2059" s="21"/>
+    </row>
+    <row r="2062" spans="1:1">
+      <c r="A2062" s="21"/>
     </row>
     <row r="2104" spans="1:1">
       <c r="A2104" s="21"/>
     </row>
-    <row r="2160" spans="1:1">
-      <c r="A2160" s="21"/>
-    </row>
-    <row r="2166" spans="1:1">
-      <c r="A2166" s="21"/>
+    <row r="2105" spans="1:1">
+      <c r="A2105" s="21"/>
+    </row>
+    <row r="2161" spans="1:1">
+      <c r="A2161" s="21"/>
     </row>
     <row r="2167" spans="1:1">
       <c r="A2167" s="21"/>
@@ -6874,8 +6886,8 @@
     <row r="2169" spans="1:1">
       <c r="A2169" s="21"/>
     </row>
-    <row r="2173" spans="1:1">
-      <c r="A2173" s="21"/>
+    <row r="2170" spans="1:1">
+      <c r="A2170" s="21"/>
     </row>
     <row r="2174" spans="1:1">
       <c r="A2174" s="21"/>
@@ -6883,16 +6895,16 @@
     <row r="2175" spans="1:1">
       <c r="A2175" s="21"/>
     </row>
-    <row r="2177" spans="1:1">
-      <c r="A2177" s="21"/>
-    </row>
-    <row r="2181" spans="2:2">
-      <c r="B2181" s="22"/>
-    </row>
-    <row r="2182" ht="18.75" customHeight="1" spans="1:1">
-      <c r="A2182" s="21"/>
-    </row>
-    <row r="2183" spans="1:1">
+    <row r="2176" spans="1:1">
+      <c r="A2176" s="21"/>
+    </row>
+    <row r="2178" spans="1:1">
+      <c r="A2178" s="21"/>
+    </row>
+    <row r="2182" spans="2:2">
+      <c r="B2182" s="22"/>
+    </row>
+    <row r="2183" ht="18.75" customHeight="1" spans="1:1">
       <c r="A2183" s="21"/>
     </row>
     <row r="2184" spans="1:1">
@@ -6901,8 +6913,8 @@
     <row r="2185" spans="1:1">
       <c r="A2185" s="21"/>
     </row>
-    <row r="2189" spans="1:1">
-      <c r="A2189" s="21"/>
+    <row r="2186" spans="1:1">
+      <c r="A2186" s="21"/>
     </row>
     <row r="2190" spans="1:1">
       <c r="A2190" s="21"/>
@@ -6913,11 +6925,11 @@
     <row r="2192" spans="1:1">
       <c r="A2192" s="21"/>
     </row>
-    <row r="2195" spans="1:1">
-      <c r="A2195" s="21"/>
-    </row>
-    <row r="2197" spans="1:1">
-      <c r="A2197" s="21"/>
+    <row r="2193" spans="1:1">
+      <c r="A2193" s="21"/>
+    </row>
+    <row r="2196" spans="1:1">
+      <c r="A2196" s="21"/>
     </row>
     <row r="2198" spans="1:1">
       <c r="A2198" s="21"/>
@@ -6946,8 +6958,8 @@
     <row r="2206" spans="1:1">
       <c r="A2206" s="21"/>
     </row>
-    <row r="2209" spans="1:1">
-      <c r="A2209" s="21"/>
+    <row r="2207" spans="1:1">
+      <c r="A2207" s="21"/>
     </row>
     <row r="2210" spans="1:1">
       <c r="A2210" s="21"/>
@@ -7021,12 +7033,12 @@
     <row r="2233" spans="1:1">
       <c r="A2233" s="21"/>
     </row>
-    <row r="2246" spans="1:2">
-      <c r="A2246" s="21"/>
-      <c r="B2246" s="22"/>
-    </row>
-    <row r="2247" spans="1:1">
+    <row r="2234" spans="1:1">
+      <c r="A2234" s="21"/>
+    </row>
+    <row r="2247" spans="1:2">
       <c r="A2247" s="21"/>
+      <c r="B2247" s="22"/>
     </row>
     <row r="2248" spans="1:1">
       <c r="A2248" s="21"/>
@@ -7037,26 +7049,26 @@
     <row r="2250" spans="1:1">
       <c r="A2250" s="21"/>
     </row>
-    <row r="2252" spans="1:1">
-      <c r="A2252" s="21"/>
+    <row r="2251" spans="1:1">
+      <c r="A2251" s="21"/>
     </row>
     <row r="2253" spans="1:1">
       <c r="A2253" s="21"/>
     </row>
-    <row r="2255" spans="1:1">
-      <c r="A2255" s="21"/>
+    <row r="2254" spans="1:1">
+      <c r="A2254" s="21"/>
     </row>
     <row r="2256" spans="1:1">
       <c r="A2256" s="21"/>
     </row>
-    <row r="2263" spans="1:1">
-      <c r="A2263" s="21"/>
+    <row r="2257" spans="1:1">
+      <c r="A2257" s="21"/>
     </row>
     <row r="2264" spans="1:1">
       <c r="A2264" s="21"/>
     </row>
-    <row r="2276" spans="1:1">
-      <c r="A2276" s="21"/>
+    <row r="2265" spans="1:1">
+      <c r="A2265" s="21"/>
     </row>
     <row r="2277" spans="1:1">
       <c r="A2277" s="21"/>
@@ -7073,8 +7085,8 @@
     <row r="2281" spans="1:1">
       <c r="A2281" s="21"/>
     </row>
-    <row r="2283" spans="1:1">
-      <c r="A2283" s="21"/>
+    <row r="2282" spans="1:1">
+      <c r="A2282" s="21"/>
     </row>
     <row r="2284" spans="1:1">
       <c r="A2284" s="21"/>
@@ -7094,11 +7106,11 @@
     <row r="2289" spans="1:1">
       <c r="A2289" s="21"/>
     </row>
-    <row r="2303" spans="1:1">
-      <c r="A2303" s="21"/>
-    </row>
-    <row r="2310" spans="1:1">
-      <c r="A2310" s="21"/>
+    <row r="2290" spans="1:1">
+      <c r="A2290" s="21"/>
+    </row>
+    <row r="2304" spans="1:1">
+      <c r="A2304" s="21"/>
     </row>
     <row r="2311" spans="1:1">
       <c r="A2311" s="21"/>
@@ -7145,11 +7157,11 @@
     <row r="2325" spans="1:1">
       <c r="A2325" s="21"/>
     </row>
-    <row r="2327" spans="1:1">
-      <c r="A2327" s="21"/>
-    </row>
-    <row r="2333" spans="1:1">
-      <c r="A2333" s="21"/>
+    <row r="2326" spans="1:1">
+      <c r="A2326" s="21"/>
+    </row>
+    <row r="2328" spans="1:1">
+      <c r="A2328" s="21"/>
     </row>
     <row r="2334" spans="1:1">
       <c r="A2334" s="21"/>
@@ -7181,8 +7193,8 @@
     <row r="2343" spans="1:1">
       <c r="A2343" s="21"/>
     </row>
-    <row r="2347" spans="1:1">
-      <c r="A2347" s="21"/>
+    <row r="2344" spans="1:1">
+      <c r="A2344" s="21"/>
     </row>
     <row r="2348" spans="1:1">
       <c r="A2348" s="21"/>
@@ -7190,8 +7202,8 @@
     <row r="2349" spans="1:1">
       <c r="A2349" s="21"/>
     </row>
-    <row r="2352" spans="1:1">
-      <c r="A2352" s="21"/>
+    <row r="2350" spans="1:1">
+      <c r="A2350" s="21"/>
     </row>
     <row r="2353" spans="1:1">
       <c r="A2353" s="21"/>
@@ -7217,8 +7229,8 @@
     <row r="2360" spans="1:1">
       <c r="A2360" s="21"/>
     </row>
-    <row r="2363" spans="1:1">
-      <c r="A2363" s="21"/>
+    <row r="2361" spans="1:1">
+      <c r="A2361" s="21"/>
     </row>
     <row r="2364" spans="1:1">
       <c r="A2364" s="21"/>
@@ -7226,14 +7238,14 @@
     <row r="2365" spans="1:1">
       <c r="A2365" s="21"/>
     </row>
-    <row r="2368" spans="1:1">
-      <c r="A2368" s="21"/>
-    </row>
-    <row r="2374" spans="1:1">
-      <c r="A2374" s="21"/>
-    </row>
-    <row r="2377" spans="1:1">
-      <c r="A2377" s="21"/>
+    <row r="2366" spans="1:1">
+      <c r="A2366" s="21"/>
+    </row>
+    <row r="2369" spans="1:1">
+      <c r="A2369" s="21"/>
+    </row>
+    <row r="2375" spans="1:1">
+      <c r="A2375" s="21"/>
     </row>
     <row r="2378" spans="1:1">
       <c r="A2378" s="21"/>
@@ -7262,20 +7274,20 @@
     <row r="2386" spans="1:1">
       <c r="A2386" s="21"/>
     </row>
-    <row r="2388" spans="1:1">
-      <c r="A2388" s="21"/>
-    </row>
-    <row r="2390" spans="1:1">
-      <c r="A2390" s="21"/>
+    <row r="2387" spans="1:1">
+      <c r="A2387" s="21"/>
+    </row>
+    <row r="2389" spans="1:1">
+      <c r="A2389" s="21"/>
     </row>
     <row r="2391" spans="1:1">
       <c r="A2391" s="21"/>
     </row>
-    <row r="2393" spans="1:1">
-      <c r="A2393" s="21"/>
-    </row>
-    <row r="2395" spans="1:1">
-      <c r="A2395" s="21"/>
+    <row r="2392" spans="1:1">
+      <c r="A2392" s="21"/>
+    </row>
+    <row r="2394" spans="1:1">
+      <c r="A2394" s="21"/>
     </row>
     <row r="2396" spans="1:1">
       <c r="A2396" s="21"/>
@@ -7334,27 +7346,27 @@
     <row r="2414" spans="1:1">
       <c r="A2414" s="21"/>
     </row>
-    <row r="2443" spans="2:2">
-      <c r="B2443" s="30"/>
-    </row>
-    <row r="2465" spans="1:1">
-      <c r="A2465" s="21"/>
+    <row r="2415" spans="1:1">
+      <c r="A2415" s="21"/>
+    </row>
+    <row r="2444" spans="2:2">
+      <c r="B2444" s="30"/>
     </row>
     <row r="2466" spans="1:1">
       <c r="A2466" s="21"/>
     </row>
-    <row r="2475" spans="1:2">
-      <c r="A2475" s="21"/>
-      <c r="B2475" s="22"/>
-    </row>
-    <row r="2497" spans="1:1">
-      <c r="A2497" s="21"/>
+    <row r="2467" spans="1:1">
+      <c r="A2467" s="21"/>
+    </row>
+    <row r="2476" spans="1:2">
+      <c r="A2476" s="21"/>
+      <c r="B2476" s="22"/>
     </row>
     <row r="2498" spans="1:1">
       <c r="A2498" s="21"/>
     </row>
-    <row r="2505" spans="1:1">
-      <c r="A2505" s="21"/>
+    <row r="2499" spans="1:1">
+      <c r="A2499" s="21"/>
     </row>
     <row r="2506" spans="1:1">
       <c r="A2506" s="21"/>
@@ -7362,11 +7374,11 @@
     <row r="2507" spans="1:1">
       <c r="A2507" s="21"/>
     </row>
-    <row r="2509" spans="1:1">
-      <c r="A2509" s="21"/>
-    </row>
-    <row r="2511" spans="1:1">
-      <c r="A2511" s="21"/>
+    <row r="2508" spans="1:1">
+      <c r="A2508" s="21"/>
+    </row>
+    <row r="2510" spans="1:1">
+      <c r="A2510" s="21"/>
     </row>
     <row r="2512" spans="1:1">
       <c r="A2512" s="21"/>
@@ -7407,20 +7419,20 @@
     <row r="2524" spans="1:1">
       <c r="A2524" s="21"/>
     </row>
-    <row r="2526" spans="1:1">
-      <c r="A2526" s="21"/>
+    <row r="2525" spans="1:1">
+      <c r="A2525" s="21"/>
     </row>
     <row r="2527" spans="1:1">
       <c r="A2527" s="21"/>
     </row>
-    <row r="2542" spans="1:1">
-      <c r="A2542" s="21"/>
-    </row>
-    <row r="2571" spans="2:2">
-      <c r="B2571" s="31"/>
-    </row>
-    <row r="2573" spans="1:1">
-      <c r="A2573" s="21"/>
+    <row r="2528" spans="1:1">
+      <c r="A2528" s="21"/>
+    </row>
+    <row r="2543" spans="1:1">
+      <c r="A2543" s="21"/>
+    </row>
+    <row r="2572" spans="2:2">
+      <c r="B2572" s="31"/>
     </row>
     <row r="2574" spans="1:1">
       <c r="A2574" s="21"/>
@@ -7428,11 +7440,11 @@
     <row r="2575" spans="1:1">
       <c r="A2575" s="21"/>
     </row>
-    <row r="2579" spans="1:1">
-      <c r="A2579" s="21"/>
-    </row>
-    <row r="2582" spans="1:1">
-      <c r="A2582" s="21"/>
+    <row r="2576" spans="1:1">
+      <c r="A2576" s="21"/>
+    </row>
+    <row r="2580" spans="1:1">
+      <c r="A2580" s="21"/>
     </row>
     <row r="2583" spans="1:1">
       <c r="A2583" s="21"/>
@@ -7452,8 +7464,8 @@
     <row r="2588" spans="1:1">
       <c r="A2588" s="21"/>
     </row>
-    <row r="2590" spans="1:1">
-      <c r="A2590" s="21"/>
+    <row r="2589" spans="1:1">
+      <c r="A2589" s="21"/>
     </row>
     <row r="2591" spans="1:1">
       <c r="A2591" s="21"/>
@@ -7470,11 +7482,11 @@
     <row r="2595" spans="1:1">
       <c r="A2595" s="21"/>
     </row>
-    <row r="2597" spans="2:2">
-      <c r="B2597" s="29"/>
-    </row>
-    <row r="2599" spans="1:1">
-      <c r="A2599" s="21"/>
+    <row r="2596" spans="1:1">
+      <c r="A2596" s="21"/>
+    </row>
+    <row r="2598" spans="2:2">
+      <c r="B2598" s="29"/>
     </row>
     <row r="2600" spans="1:1">
       <c r="A2600" s="21"/>
@@ -7515,14 +7527,14 @@
     <row r="2612" spans="1:1">
       <c r="A2612" s="21"/>
     </row>
-    <row r="2620" spans="2:2">
-      <c r="B2620" s="32"/>
-    </row>
-    <row r="2627" spans="2:2">
-      <c r="B2627" s="32"/>
-    </row>
-    <row r="2638" spans="1:1">
-      <c r="A2638" s="21"/>
+    <row r="2613" spans="1:1">
+      <c r="A2613" s="21"/>
+    </row>
+    <row r="2621" spans="2:2">
+      <c r="B2621" s="32"/>
+    </row>
+    <row r="2628" spans="2:2">
+      <c r="B2628" s="32"/>
     </row>
     <row r="2639" spans="1:1">
       <c r="A2639" s="21"/>
@@ -7557,14 +7569,14 @@
     <row r="2649" spans="1:1">
       <c r="A2649" s="21"/>
     </row>
-    <row r="2661" spans="2:2">
-      <c r="B2661" s="33"/>
-    </row>
-    <row r="2678" spans="2:2">
-      <c r="B2678" s="5"/>
-    </row>
-    <row r="2861" spans="1:1">
-      <c r="A2861" s="21"/>
+    <row r="2650" spans="1:1">
+      <c r="A2650" s="21"/>
+    </row>
+    <row r="2662" spans="2:2">
+      <c r="B2662" s="33"/>
+    </row>
+    <row r="2679" spans="2:2">
+      <c r="B2679" s="5"/>
     </row>
     <row r="2862" spans="1:1">
       <c r="A2862" s="21"/>
@@ -7575,20 +7587,20 @@
     <row r="2864" spans="1:1">
       <c r="A2864" s="21"/>
     </row>
-    <row r="2866" spans="1:1">
-      <c r="A2866" s="21"/>
+    <row r="2865" spans="1:1">
+      <c r="A2865" s="21"/>
     </row>
     <row r="2867" spans="1:1">
       <c r="A2867" s="21"/>
     </row>
-    <row r="2973" spans="1:1">
-      <c r="A2973" s="21"/>
-    </row>
-    <row r="2975" spans="1:1">
-      <c r="A2975" s="21"/>
-    </row>
-    <row r="2986" spans="1:1">
-      <c r="A2986" s="21"/>
+    <row r="2868" spans="1:1">
+      <c r="A2868" s="21"/>
+    </row>
+    <row r="2974" spans="1:1">
+      <c r="A2974" s="21"/>
+    </row>
+    <row r="2976" spans="1:1">
+      <c r="A2976" s="21"/>
     </row>
     <row r="2987" spans="1:1">
       <c r="A2987" s="21"/>
@@ -7605,8 +7617,8 @@
     <row r="2991" spans="1:1">
       <c r="A2991" s="21"/>
     </row>
-    <row r="2997" spans="1:1">
-      <c r="A2997" s="21"/>
+    <row r="2992" spans="1:1">
+      <c r="A2992" s="21"/>
     </row>
     <row r="2998" spans="1:1">
       <c r="A2998" s="21"/>
@@ -7635,37 +7647,36 @@
     <row r="3006" spans="1:1">
       <c r="A3006" s="21"/>
     </row>
-    <row r="3012" spans="1:1">
-      <c r="A3012" s="21"/>
-    </row>
-    <row r="3024" spans="1:1">
-      <c r="A3024" s="21"/>
-    </row>
-    <row r="3029" spans="1:1">
-      <c r="A3029" s="21"/>
-    </row>
-    <row r="3048" spans="3:3">
-      <c r="C3048" s="22"/>
-    </row>
-    <row r="3086" spans="1:2">
-      <c r="A3086" s="21"/>
-      <c r="B3086" s="22"/>
-    </row>
-    <row r="3149" spans="1:1">
-      <c r="A3149" s="21"/>
-    </row>
-    <row r="3151" spans="1:1">
-      <c r="A3151" s="21"/>
-    </row>
-    <row r="3204" spans="3:3">
-      <c r="C3204" s="22"/>
+    <row r="3007" spans="1:1">
+      <c r="A3007" s="21"/>
+    </row>
+    <row r="3013" spans="1:1">
+      <c r="A3013" s="21"/>
+    </row>
+    <row r="3025" spans="1:1">
+      <c r="A3025" s="21"/>
+    </row>
+    <row r="3030" spans="1:1">
+      <c r="A3030" s="21"/>
+    </row>
+    <row r="3049" spans="3:3">
+      <c r="C3049" s="22"/>
+    </row>
+    <row r="3087" spans="1:2">
+      <c r="A3087" s="21"/>
+      <c r="B3087" s="22"/>
+    </row>
+    <row r="3150" spans="1:1">
+      <c r="A3150" s="21"/>
+    </row>
+    <row r="3152" spans="1:1">
+      <c r="A3152" s="21"/>
     </row>
     <row r="3205" spans="3:3">
       <c r="C3205" s="22"/>
     </row>
-    <row r="3213" spans="1:3">
-      <c r="A3213" s="21"/>
-      <c r="C3213" s="22"/>
+    <row r="3206" spans="3:3">
+      <c r="C3206" s="22"/>
     </row>
     <row r="3214" spans="1:3">
       <c r="A3214" s="21"/>
@@ -7679,39 +7690,40 @@
       <c r="A3216" s="21"/>
       <c r="C3216" s="22"/>
     </row>
-    <row r="3223" spans="3:3">
-      <c r="C3223" s="22"/>
+    <row r="3217" spans="1:3">
+      <c r="A3217" s="21"/>
+      <c r="C3217" s="22"/>
     </row>
     <row r="3224" spans="3:3">
       <c r="C3224" s="22"/>
     </row>
-    <row r="3229" spans="3:3">
-      <c r="C3229" s="22"/>
-    </row>
-    <row r="3231" spans="1:3">
-      <c r="A3231" s="21"/>
-      <c r="C3231" s="22"/>
-    </row>
-    <row r="3232" spans="3:3">
+    <row r="3225" spans="3:3">
+      <c r="C3225" s="22"/>
+    </row>
+    <row r="3230" spans="3:3">
+      <c r="C3230" s="22"/>
+    </row>
+    <row r="3232" spans="1:3">
+      <c r="A3232" s="21"/>
       <c r="C3232" s="22"/>
     </row>
     <row r="3233" spans="3:3">
       <c r="C3233" s="22"/>
     </row>
-    <row r="3263" spans="1:1">
-      <c r="A3263" s="21"/>
-    </row>
-    <row r="3286" spans="3:3">
-      <c r="C3286" s="7"/>
-    </row>
-    <row r="3353" spans="1:1">
-      <c r="A3353" s="21"/>
-    </row>
-    <row r="3420" spans="3:3">
-      <c r="C3420" s="22"/>
-    </row>
-    <row r="3424" spans="1:1">
-      <c r="A3424" s="21"/>
+    <row r="3234" spans="3:3">
+      <c r="C3234" s="22"/>
+    </row>
+    <row r="3264" spans="1:1">
+      <c r="A3264" s="21"/>
+    </row>
+    <row r="3287" spans="3:3">
+      <c r="C3287" s="7"/>
+    </row>
+    <row r="3354" spans="1:1">
+      <c r="A3354" s="21"/>
+    </row>
+    <row r="3421" spans="3:3">
+      <c r="C3421" s="22"/>
     </row>
     <row r="3425" spans="1:1">
       <c r="A3425" s="21"/>
@@ -7737,17 +7749,17 @@
     <row r="3432" spans="1:1">
       <c r="A3432" s="21"/>
     </row>
-    <row r="3434" spans="1:1">
-      <c r="A3434" s="21"/>
+    <row r="3433" spans="1:1">
+      <c r="A3433" s="21"/>
     </row>
     <row r="3435" spans="1:1">
       <c r="A3435" s="21"/>
     </row>
-    <row r="3438" spans="1:1">
-      <c r="A3438" s="21"/>
-    </row>
-    <row r="3440" spans="1:1">
-      <c r="A3440" s="21"/>
+    <row r="3436" spans="1:1">
+      <c r="A3436" s="21"/>
+    </row>
+    <row r="3439" spans="1:1">
+      <c r="A3439" s="21"/>
     </row>
     <row r="3441" spans="1:1">
       <c r="A3441" s="21"/>
@@ -7758,8 +7770,8 @@
     <row r="3443" spans="1:1">
       <c r="A3443" s="21"/>
     </row>
-    <row r="3445" spans="1:1">
-      <c r="A3445" s="21"/>
+    <row r="3444" spans="1:1">
+      <c r="A3444" s="21"/>
     </row>
     <row r="3446" spans="1:1">
       <c r="A3446" s="21"/>
@@ -7773,35 +7785,35 @@
     <row r="3449" spans="1:1">
       <c r="A3449" s="21"/>
     </row>
-    <row r="3451" spans="1:1">
-      <c r="A3451" s="21"/>
-    </row>
-    <row r="3469" spans="1:1">
-      <c r="A3469" s="21"/>
-    </row>
-    <row r="3606" spans="1:1">
-      <c r="A3606" s="21"/>
-    </row>
-    <row r="3640" spans="3:3">
-      <c r="C3640" s="7"/>
-    </row>
-    <row r="3665" spans="1:1">
-      <c r="A3665" s="21"/>
-    </row>
-    <row r="3719" spans="1:1">
-      <c r="A3719" s="21"/>
+    <row r="3450" spans="1:1">
+      <c r="A3450" s="21"/>
+    </row>
+    <row r="3452" spans="1:1">
+      <c r="A3452" s="21"/>
+    </row>
+    <row r="3470" spans="1:1">
+      <c r="A3470" s="21"/>
+    </row>
+    <row r="3607" spans="1:1">
+      <c r="A3607" s="21"/>
+    </row>
+    <row r="3641" spans="3:3">
+      <c r="C3641" s="7"/>
+    </row>
+    <row r="3666" spans="1:1">
+      <c r="A3666" s="21"/>
     </row>
     <row r="3720" spans="1:1">
       <c r="A3720" s="21"/>
     </row>
-    <row r="3722" spans="1:1">
-      <c r="A3722" s="21"/>
-    </row>
-    <row r="3723" spans="2:2">
-      <c r="B3723" s="22"/>
-    </row>
-    <row r="3727" spans="1:1">
-      <c r="A3727" s="21"/>
+    <row r="3721" spans="1:1">
+      <c r="A3721" s="21"/>
+    </row>
+    <row r="3723" spans="1:1">
+      <c r="A3723" s="21"/>
+    </row>
+    <row r="3724" spans="2:2">
+      <c r="B3724" s="22"/>
     </row>
     <row r="3728" spans="1:1">
       <c r="A3728" s="21"/>
@@ -7809,53 +7821,51 @@
     <row r="3729" spans="1:1">
       <c r="A3729" s="21"/>
     </row>
-    <row r="3736" spans="3:3">
-      <c r="C3736" s="34"/>
-    </row>
-    <row r="3737" spans="2:2">
-      <c r="B3737" s="7"/>
+    <row r="3730" spans="1:1">
+      <c r="A3730" s="21"/>
+    </row>
+    <row r="3737" spans="3:3">
+      <c r="C3737" s="34"/>
     </row>
     <row r="3738" spans="2:2">
       <c r="B3738" s="7"/>
     </row>
-    <row r="3750" spans="3:3">
-      <c r="C3750" s="34"/>
-    </row>
-    <row r="3751" spans="2:2">
-      <c r="B3751" s="7"/>
-    </row>
-    <row r="3754" spans="2:2">
-      <c r="B3754" s="7"/>
-    </row>
-    <row r="3756" spans="2:3">
-      <c r="B3756" s="7"/>
-      <c r="C3756" s="35"/>
+    <row r="3739" spans="2:2">
+      <c r="B3739" s="7"/>
+    </row>
+    <row r="3751" spans="3:3">
+      <c r="C3751" s="34"/>
+    </row>
+    <row r="3752" spans="2:2">
+      <c r="B3752" s="7"/>
+    </row>
+    <row r="3755" spans="2:2">
+      <c r="B3755" s="7"/>
     </row>
     <row r="3757" spans="2:3">
       <c r="B3757" s="7"/>
       <c r="C3757" s="35"/>
     </row>
-    <row r="3758" spans="2:2">
-      <c r="B3758" s="22"/>
-    </row>
-    <row r="3759" spans="1:2">
-      <c r="A3759" s="21"/>
-      <c r="B3759" s="7"/>
+    <row r="3758" spans="2:3">
+      <c r="B3758" s="7"/>
+      <c r="C3758" s="35"/>
+    </row>
+    <row r="3759" spans="2:2">
+      <c r="B3759" s="22"/>
     </row>
     <row r="3760" spans="1:2">
-      <c r="A3760" s="36"/>
-      <c r="B3760" s="37"/>
+      <c r="A3760" s="21"/>
+      <c r="B3760" s="7"/>
     </row>
     <row r="3761" spans="1:2">
       <c r="A3761" s="36"/>
       <c r="B3761" s="37"/>
     </row>
-    <row r="3762" spans="2:3">
-      <c r="B3762" s="7"/>
-      <c r="C3762" s="35"/>
-    </row>
-    <row r="3763" spans="1:3">
-      <c r="A3763" s="23"/>
+    <row r="3762" spans="1:2">
+      <c r="A3762" s="36"/>
+      <c r="B3762" s="37"/>
+    </row>
+    <row r="3763" spans="2:3">
       <c r="B3763" s="7"/>
       <c r="C3763" s="35"/>
     </row>
@@ -7874,16 +7884,16 @@
       <c r="B3766" s="7"/>
       <c r="C3766" s="35"/>
     </row>
-    <row r="3777" spans="2:3">
-      <c r="B3777" s="7"/>
-      <c r="C3777" s="35"/>
+    <row r="3767" spans="1:3">
+      <c r="A3767" s="23"/>
+      <c r="B3767" s="7"/>
+      <c r="C3767" s="35"/>
     </row>
     <row r="3778" spans="2:3">
       <c r="B3778" s="7"/>
       <c r="C3778" s="35"/>
     </row>
-    <row r="3779" spans="1:3">
-      <c r="A3779" s="23"/>
+    <row r="3779" spans="2:3">
       <c r="B3779" s="7"/>
       <c r="C3779" s="35"/>
     </row>
@@ -7937,8 +7947,10 @@
       <c r="B3789" s="7"/>
       <c r="C3789" s="35"/>
     </row>
-    <row r="3790" spans="2:2">
+    <row r="3790" spans="1:3">
+      <c r="A3790" s="23"/>
       <c r="B3790" s="7"/>
+      <c r="C3790" s="35"/>
     </row>
     <row r="3791" spans="2:2">
       <c r="B3791" s="7"/>
@@ -7946,12 +7958,12 @@
     <row r="3792" spans="2:2">
       <c r="B3792" s="7"/>
     </row>
-    <row r="3793" spans="2:3">
+    <row r="3793" spans="2:2">
       <c r="B3793" s="7"/>
-      <c r="C3793" s="35"/>
-    </row>
-    <row r="3799" spans="2:2">
-      <c r="B3799" s="7"/>
+    </row>
+    <row r="3794" spans="2:3">
+      <c r="B3794" s="7"/>
+      <c r="C3794" s="35"/>
     </row>
     <row r="3800" spans="2:2">
       <c r="B3800" s="7"/>
@@ -7965,11 +7977,11 @@
     <row r="3803" spans="2:2">
       <c r="B3803" s="7"/>
     </row>
-    <row r="3830" spans="2:2">
-      <c r="B3830" s="7"/>
-    </row>
-    <row r="3834" spans="2:2">
-      <c r="B3834" s="7"/>
+    <row r="3804" spans="2:2">
+      <c r="B3804" s="7"/>
+    </row>
+    <row r="3831" spans="2:2">
+      <c r="B3831" s="7"/>
     </row>
     <row r="3835" spans="2:2">
       <c r="B3835" s="7"/>
@@ -8007,8 +8019,7 @@
     <row r="3846" spans="2:2">
       <c r="B3846" s="7"/>
     </row>
-    <row r="3847" spans="1:2">
-      <c r="A3847" s="21"/>
+    <row r="3847" spans="2:2">
       <c r="B3847" s="7"/>
     </row>
     <row r="3848" spans="1:2">
@@ -8019,20 +8030,20 @@
       <c r="A3849" s="21"/>
       <c r="B3849" s="7"/>
     </row>
-    <row r="3850" spans="2:2">
+    <row r="3850" spans="1:2">
+      <c r="A3850" s="21"/>
       <c r="B3850" s="7"/>
     </row>
-    <row r="3851" spans="1:2">
-      <c r="A3851" s="21"/>
+    <row r="3851" spans="2:2">
       <c r="B3851" s="7"/>
     </row>
     <row r="3852" spans="1:2">
       <c r="A3852" s="21"/>
-      <c r="B3852" s="10"/>
+      <c r="B3852" s="7"/>
     </row>
     <row r="3853" spans="1:2">
       <c r="A3853" s="21"/>
-      <c r="B3853" s="7"/>
+      <c r="B3853" s="10"/>
     </row>
     <row r="3854" spans="1:2">
       <c r="A3854" s="21"/>
@@ -8042,14 +8053,14 @@
       <c r="A3855" s="21"/>
       <c r="B3855" s="7"/>
     </row>
-    <row r="3856" spans="2:2">
+    <row r="3856" spans="1:2">
+      <c r="A3856" s="21"/>
       <c r="B3856" s="7"/>
     </row>
     <row r="3857" spans="2:2">
       <c r="B3857" s="7"/>
     </row>
-    <row r="3858" spans="1:2">
-      <c r="A3858" s="21"/>
+    <row r="3858" spans="2:2">
       <c r="B3858" s="7"/>
     </row>
     <row r="3859" spans="1:2">
@@ -8068,14 +8079,15 @@
       <c r="A3862" s="21"/>
       <c r="B3862" s="7"/>
     </row>
-    <row r="3863" spans="2:2">
+    <row r="3863" spans="1:2">
+      <c r="A3863" s="21"/>
       <c r="B3863" s="7"/>
     </row>
-    <row r="3864" spans="1:2">
-      <c r="A3864" s="21"/>
+    <row r="3864" spans="2:2">
       <c r="B3864" s="7"/>
     </row>
-    <row r="3865" spans="2:2">
+    <row r="3865" spans="1:2">
+      <c r="A3865" s="21"/>
       <c r="B3865" s="7"/>
     </row>
     <row r="3866" spans="2:2">
@@ -8087,12 +8099,11 @@
     <row r="3868" spans="2:2">
       <c r="B3868" s="7"/>
     </row>
-    <row r="3878" spans="1:2">
-      <c r="A3878" s="21"/>
-      <c r="B3878" s="7"/>
+    <row r="3869" spans="2:2">
+      <c r="B3869" s="7"/>
     </row>
     <row r="3879" spans="1:2">
-      <c r="A3879" s="23"/>
+      <c r="A3879" s="21"/>
       <c r="B3879" s="7"/>
     </row>
     <row r="3880" spans="1:2">
@@ -8108,7 +8119,7 @@
       <c r="B3882" s="7"/>
     </row>
     <row r="3883" spans="1:2">
-      <c r="A3883" s="21"/>
+      <c r="A3883" s="23"/>
       <c r="B3883" s="7"/>
     </row>
     <row r="3884" spans="1:2">
@@ -8119,26 +8130,26 @@
       <c r="A3885" s="21"/>
       <c r="B3885" s="7"/>
     </row>
-    <row r="3886" spans="2:3">
+    <row r="3886" spans="1:2">
+      <c r="A3886" s="21"/>
       <c r="B3886" s="7"/>
-      <c r="C3886" s="35"/>
-    </row>
-    <row r="3902" spans="1:2">
-      <c r="A3902" s="21"/>
-      <c r="B3902" s="7"/>
+    </row>
+    <row r="3887" spans="2:3">
+      <c r="B3887" s="7"/>
+      <c r="C3887" s="35"/>
     </row>
     <row r="3903" spans="1:2">
       <c r="A3903" s="21"/>
       <c r="B3903" s="7"/>
     </row>
-    <row r="3904" spans="2:2">
+    <row r="3904" spans="1:2">
+      <c r="A3904" s="21"/>
       <c r="B3904" s="7"/>
     </row>
     <row r="3905" spans="2:2">
       <c r="B3905" s="7"/>
     </row>
-    <row r="3906" spans="1:2">
-      <c r="A3906" s="23"/>
+    <row r="3906" spans="2:2">
       <c r="B3906" s="7"/>
     </row>
     <row r="3907" spans="1:2">
@@ -8289,29 +8300,30 @@
       <c r="A3943" s="23"/>
       <c r="B3943" s="7"/>
     </row>
-    <row r="3948" spans="1:2">
-      <c r="A3948" s="23"/>
-      <c r="B3948" s="7"/>
-    </row>
-    <row r="3951" spans="1:2">
-      <c r="A3951" s="21"/>
-      <c r="B3951" s="7"/>
+    <row r="3944" spans="1:2">
+      <c r="A3944" s="23"/>
+      <c r="B3944" s="7"/>
+    </row>
+    <row r="3949" spans="1:2">
+      <c r="A3949" s="23"/>
+      <c r="B3949" s="7"/>
     </row>
     <row r="3952" spans="1:2">
       <c r="A3952" s="21"/>
       <c r="B3952" s="7"/>
     </row>
-    <row r="3953" spans="2:2">
+    <row r="3953" spans="1:2">
+      <c r="A3953" s="21"/>
       <c r="B3953" s="7"/>
     </row>
-    <row r="3956" spans="2:2">
-      <c r="B3956" s="7"/>
+    <row r="3954" spans="2:2">
+      <c r="B3954" s="7"/>
     </row>
     <row r="3957" spans="2:2">
       <c r="B3957" s="7"/>
     </row>
-    <row r="3974" spans="2:2">
-      <c r="B3974" s="7"/>
+    <row r="3958" spans="2:2">
+      <c r="B3958" s="7"/>
     </row>
     <row r="3975" spans="2:2">
       <c r="B3975" s="7"/>
@@ -8323,20 +8335,20 @@
       <c r="B3977" s="7"/>
     </row>
     <row r="3978" spans="2:2">
-      <c r="B3978" s="5"/>
+      <c r="B3978" s="7"/>
     </row>
     <row r="3979" spans="2:2">
-      <c r="B3979" s="7"/>
+      <c r="B3979" s="5"/>
     </row>
     <row r="3980" spans="2:2">
       <c r="B3980" s="7"/>
     </row>
-    <row r="3981" spans="2:3">
+    <row r="3981" spans="2:2">
       <c r="B3981" s="7"/>
-      <c r="C3981" s="7"/>
-    </row>
-    <row r="3982" spans="2:2">
+    </row>
+    <row r="3982" spans="2:3">
       <c r="B3982" s="7"/>
+      <c r="C3982" s="7"/>
     </row>
     <row r="3983" spans="2:2">
       <c r="B3983" s="7"/>
@@ -8344,20 +8356,20 @@
     <row r="3984" spans="2:2">
       <c r="B3984" s="7"/>
     </row>
-    <row r="3985" spans="1:2">
-      <c r="A3985" s="21"/>
+    <row r="3985" spans="2:2">
       <c r="B3985" s="7"/>
     </row>
     <row r="3986" spans="1:2">
       <c r="A3986" s="21"/>
       <c r="B3986" s="7"/>
     </row>
-    <row r="3991" spans="1:2">
-      <c r="A3991" s="21"/>
-      <c r="B3991" s="7"/>
-    </row>
-    <row r="3999" spans="2:2">
-      <c r="B3999" s="7"/>
+    <row r="3987" spans="1:2">
+      <c r="A3987" s="21"/>
+      <c r="B3987" s="7"/>
+    </row>
+    <row r="3992" spans="1:2">
+      <c r="A3992" s="21"/>
+      <c r="B3992" s="7"/>
     </row>
     <row r="4000" spans="2:2">
       <c r="B4000" s="7"/>
@@ -8386,8 +8398,8 @@
     <row r="4008" spans="2:2">
       <c r="B4008" s="7"/>
     </row>
-    <row r="4011" spans="2:2">
-      <c r="B4011" s="7"/>
+    <row r="4009" spans="2:2">
+      <c r="B4009" s="7"/>
     </row>
     <row r="4012" spans="2:2">
       <c r="B4012" s="7"/>
@@ -8407,8 +8419,8 @@
     <row r="4017" spans="2:2">
       <c r="B4017" s="7"/>
     </row>
-    <row r="4024" spans="2:2">
-      <c r="B4024" s="7"/>
+    <row r="4018" spans="2:2">
+      <c r="B4018" s="7"/>
     </row>
     <row r="4025" spans="2:2">
       <c r="B4025" s="7"/>
@@ -8434,19 +8446,19 @@
     <row r="4032" spans="2:2">
       <c r="B4032" s="7"/>
     </row>
-    <row r="4033" spans="1:2">
-      <c r="A4033" s="23"/>
+    <row r="4033" spans="2:2">
       <c r="B4033" s="7"/>
     </row>
     <row r="4034" spans="1:2">
-      <c r="A4034" s="21"/>
+      <c r="A4034" s="23"/>
       <c r="B4034" s="7"/>
     </row>
     <row r="4035" spans="1:2">
       <c r="A4035" s="21"/>
       <c r="B4035" s="7"/>
     </row>
-    <row r="4036" spans="2:2">
+    <row r="4036" spans="1:2">
+      <c r="A4036" s="21"/>
       <c r="B4036" s="7"/>
     </row>
     <row r="4037" spans="2:2">
@@ -8455,15 +8467,15 @@
     <row r="4038" spans="2:2">
       <c r="B4038" s="7"/>
     </row>
-    <row r="4042" spans="2:2">
-      <c r="B4042" s="7"/>
-    </row>
-    <row r="4043" spans="1:2">
-      <c r="A4043" s="21"/>
+    <row r="4039" spans="2:2">
+      <c r="B4039" s="7"/>
+    </row>
+    <row r="4043" spans="2:2">
       <c r="B4043" s="7"/>
     </row>
-    <row r="4045" spans="2:2">
-      <c r="B4045" s="7"/>
+    <row r="4044" spans="1:2">
+      <c r="A4044" s="21"/>
+      <c r="B4044" s="7"/>
     </row>
     <row r="4046" spans="2:2">
       <c r="B4046" s="7"/>
@@ -8474,20 +8486,20 @@
     <row r="4048" spans="2:2">
       <c r="B4048" s="7"/>
     </row>
-    <row r="4051" spans="2:2">
-      <c r="B4051" s="7"/>
+    <row r="4049" spans="2:2">
+      <c r="B4049" s="7"/>
     </row>
     <row r="4052" spans="2:2">
       <c r="B4052" s="7"/>
     </row>
-    <row r="4054" spans="2:2">
-      <c r="B4054" s="7"/>
+    <row r="4053" spans="2:2">
+      <c r="B4053" s="7"/>
     </row>
     <row r="4055" spans="2:2">
       <c r="B4055" s="7"/>
     </row>
-    <row r="4057" spans="2:2">
-      <c r="B4057" s="7"/>
+    <row r="4056" spans="2:2">
+      <c r="B4056" s="7"/>
     </row>
     <row r="4058" spans="2:2">
       <c r="B4058" s="7"/>
@@ -8498,26 +8510,26 @@
     <row r="4060" spans="2:2">
       <c r="B4060" s="7"/>
     </row>
-    <row r="4065" spans="2:2">
-      <c r="B4065" s="7"/>
-    </row>
-    <row r="4069" spans="2:2">
-      <c r="B4069" s="7"/>
+    <row r="4061" spans="2:2">
+      <c r="B4061" s="7"/>
+    </row>
+    <row r="4066" spans="2:2">
+      <c r="B4066" s="7"/>
     </row>
     <row r="4070" spans="2:2">
       <c r="B4070" s="7"/>
     </row>
-    <row r="4072" spans="2:2">
-      <c r="B4072" s="7"/>
-    </row>
-    <row r="4076" spans="2:2">
-      <c r="B4076" s="7"/>
+    <row r="4071" spans="2:2">
+      <c r="B4071" s="7"/>
+    </row>
+    <row r="4073" spans="2:2">
+      <c r="B4073" s="7"/>
     </row>
     <row r="4077" spans="2:2">
       <c r="B4077" s="7"/>
     </row>
-    <row r="4088" spans="2:2">
-      <c r="B4088" s="7"/>
+    <row r="4078" spans="2:2">
+      <c r="B4078" s="7"/>
     </row>
     <row r="4089" spans="2:2">
       <c r="B4089" s="7"/>
@@ -8525,8 +8537,8 @@
     <row r="4090" spans="2:2">
       <c r="B4090" s="7"/>
     </row>
-    <row r="4093" spans="2:2">
-      <c r="B4093" s="7"/>
+    <row r="4091" spans="2:2">
+      <c r="B4091" s="7"/>
     </row>
     <row r="4094" spans="2:2">
       <c r="B4094" s="7"/>
@@ -8534,8 +8546,7 @@
     <row r="4095" spans="2:2">
       <c r="B4095" s="7"/>
     </row>
-    <row r="4096" spans="1:2">
-      <c r="A4096" s="21"/>
+    <row r="4096" spans="2:2">
       <c r="B4096" s="7"/>
     </row>
     <row r="4097" spans="1:2">
@@ -8546,28 +8557,29 @@
       <c r="A4098" s="21"/>
       <c r="B4098" s="7"/>
     </row>
-    <row r="4099" spans="2:2">
+    <row r="4099" spans="1:2">
+      <c r="A4099" s="21"/>
       <c r="B4099" s="7"/>
     </row>
     <row r="4100" spans="2:2">
       <c r="B4100" s="7"/>
     </row>
-    <row r="4102" ht="15.75" spans="1:3">
-      <c r="A4102" s="38"/>
-      <c r="B4102" s="7"/>
-      <c r="C4102" s="39"/>
-    </row>
-    <row r="4147" spans="2:2">
-      <c r="B4147" s="7"/>
+    <row r="4101" spans="2:2">
+      <c r="B4101" s="7"/>
+    </row>
+    <row r="4103" ht="15.75" spans="1:3">
+      <c r="A4103" s="38"/>
+      <c r="B4103" s="7"/>
+      <c r="C4103" s="39"/>
     </row>
     <row r="4148" spans="2:2">
       <c r="B4148" s="7"/>
     </row>
-    <row r="4158" spans="2:2">
-      <c r="B4158" s="7"/>
-    </row>
-    <row r="4160" spans="2:2">
-      <c r="B4160" s="7"/>
+    <row r="4149" spans="2:2">
+      <c r="B4149" s="7"/>
+    </row>
+    <row r="4159" spans="2:2">
+      <c r="B4159" s="7"/>
     </row>
     <row r="4161" spans="2:2">
       <c r="B4161" s="7"/>
@@ -8581,8 +8593,8 @@
     <row r="4164" spans="2:2">
       <c r="B4164" s="7"/>
     </row>
-    <row r="4173" spans="2:2">
-      <c r="B4173" s="7"/>
+    <row r="4165" spans="2:2">
+      <c r="B4165" s="7"/>
     </row>
     <row r="4174" spans="2:2">
       <c r="B4174" s="7"/>
@@ -8596,8 +8608,8 @@
     <row r="4177" spans="2:2">
       <c r="B4177" s="7"/>
     </row>
-    <row r="4186" spans="2:2">
-      <c r="B4186" s="7"/>
+    <row r="4178" spans="2:2">
+      <c r="B4178" s="7"/>
     </row>
     <row r="4187" spans="2:2">
       <c r="B4187" s="7"/>
@@ -8638,8 +8650,8 @@
     <row r="4199" spans="2:2">
       <c r="B4199" s="7"/>
     </row>
-    <row r="4204" spans="2:2">
-      <c r="B4204" s="7"/>
+    <row r="4200" spans="2:2">
+      <c r="B4200" s="7"/>
     </row>
     <row r="4205" spans="2:2">
       <c r="B4205" s="7"/>
@@ -8669,7 +8681,7 @@
       <c r="B4213" s="7"/>
     </row>
     <row r="4214" spans="2:2">
-      <c r="B4214" s="29"/>
+      <c r="B4214" s="7"/>
     </row>
     <row r="4215" spans="2:2">
       <c r="B4215" s="29"/>
@@ -8840,17 +8852,17 @@
       <c r="B4270" s="29"/>
     </row>
     <row r="4271" spans="2:2">
-      <c r="B4271" s="7"/>
+      <c r="B4271" s="29"/>
     </row>
     <row r="4272" spans="2:2">
       <c r="B4272" s="7"/>
     </row>
-    <row r="4273" spans="1:2">
-      <c r="A4273" s="21"/>
+    <row r="4273" spans="2:2">
       <c r="B4273" s="7"/>
     </row>
-    <row r="4275" spans="2:2">
-      <c r="B4275" s="7"/>
+    <row r="4274" spans="1:2">
+      <c r="A4274" s="21"/>
+      <c r="B4274" s="7"/>
     </row>
     <row r="4276" spans="2:2">
       <c r="B4276" s="7"/>
@@ -8873,18 +8885,18 @@
     <row r="4282" spans="2:2">
       <c r="B4282" s="7"/>
     </row>
-    <row r="4285" spans="2:2">
-      <c r="B4285" s="7"/>
-    </row>
-    <row r="4286" spans="1:2">
-      <c r="A4286" s="21"/>
+    <row r="4283" spans="2:2">
+      <c r="B4283" s="7"/>
+    </row>
+    <row r="4286" spans="2:2">
       <c r="B4286" s="7"/>
     </row>
-    <row r="4287" spans="2:2">
-      <c r="B4287" s="34"/>
+    <row r="4287" spans="1:2">
+      <c r="A4287" s="21"/>
+      <c r="B4287" s="7"/>
     </row>
     <row r="4288" spans="2:2">
-      <c r="B4288" s="7"/>
+      <c r="B4288" s="34"/>
     </row>
     <row r="4289" spans="2:2">
       <c r="B4289" s="7"/>
@@ -8904,8 +8916,8 @@
     <row r="4294" spans="2:2">
       <c r="B4294" s="7"/>
     </row>
-    <row r="4299" spans="2:2">
-      <c r="B4299" s="7"/>
+    <row r="4295" spans="2:2">
+      <c r="B4295" s="7"/>
     </row>
     <row r="4300" spans="2:2">
       <c r="B4300" s="7"/>
@@ -8913,38 +8925,38 @@
     <row r="4301" spans="2:2">
       <c r="B4301" s="7"/>
     </row>
-    <row r="4303" spans="2:2">
-      <c r="B4303" s="7"/>
+    <row r="4302" spans="2:2">
+      <c r="B4302" s="7"/>
     </row>
     <row r="4304" spans="2:2">
       <c r="B4304" s="7"/>
     </row>
-    <row r="4308" spans="2:2">
-      <c r="B4308" s="7"/>
-    </row>
-    <row r="4309" spans="1:1">
-      <c r="A4309" s="21"/>
-    </row>
-    <row r="4316" spans="2:2">
-      <c r="B4316" s="7"/>
-    </row>
-    <row r="4323" spans="2:2">
-      <c r="B4323" s="7"/>
+    <row r="4305" spans="2:2">
+      <c r="B4305" s="7"/>
+    </row>
+    <row r="4309" spans="2:2">
+      <c r="B4309" s="7"/>
+    </row>
+    <row r="4310" spans="1:1">
+      <c r="A4310" s="21"/>
+    </row>
+    <row r="4317" spans="2:2">
+      <c r="B4317" s="7"/>
     </row>
     <row r="4324" spans="2:2">
       <c r="B4324" s="7"/>
     </row>
-    <row r="4334" spans="2:2">
-      <c r="B4334" s="7"/>
-    </row>
-    <row r="4337" spans="2:2">
-      <c r="B4337" s="7"/>
+    <row r="4325" spans="2:2">
+      <c r="B4325" s="7"/>
+    </row>
+    <row r="4335" spans="2:2">
+      <c r="B4335" s="7"/>
     </row>
     <row r="4338" spans="2:2">
       <c r="B4338" s="7"/>
     </row>
-    <row r="4341" spans="2:2">
-      <c r="B4341" s="7"/>
+    <row r="4339" spans="2:2">
+      <c r="B4339" s="7"/>
     </row>
     <row r="4342" spans="2:2">
       <c r="B4342" s="7"/>
@@ -9021,8 +9033,8 @@
     <row r="4366" spans="2:2">
       <c r="B4366" s="7"/>
     </row>
-    <row r="4369" spans="2:2">
-      <c r="B4369" s="7"/>
+    <row r="4367" spans="2:2">
+      <c r="B4367" s="7"/>
     </row>
     <row r="4370" spans="2:2">
       <c r="B4370" s="7"/>
@@ -9036,19 +9048,13 @@
     <row r="4373" spans="2:2">
       <c r="B4373" s="7"/>
     </row>
-    <row r="4375" spans="2:2">
-      <c r="B4375" s="7"/>
-    </row>
-    <row r="4383" ht="18" customHeight="1" spans="1:7">
-      <c r="A4383" s="40"/>
-      <c r="B4383" s="41"/>
-      <c r="C4383" s="42"/>
-      <c r="D4383" s="42"/>
-      <c r="E4383" s="42"/>
-      <c r="F4383" s="42"/>
-      <c r="G4383" s="42"/>
-    </row>
-    <row r="4384" spans="1:7">
+    <row r="4374" spans="2:2">
+      <c r="B4374" s="7"/>
+    </row>
+    <row r="4376" spans="2:2">
+      <c r="B4376" s="7"/>
+    </row>
+    <row r="4384" ht="18" customHeight="1" spans="1:7">
       <c r="A4384" s="40"/>
       <c r="B4384" s="41"/>
       <c r="C4384" s="42"/>
@@ -9057,8 +9063,9 @@
       <c r="F4384" s="42"/>
       <c r="G4384" s="42"/>
     </row>
-    <row r="4385" spans="2:7">
-      <c r="B4385" s="7"/>
+    <row r="4385" spans="1:7">
+      <c r="A4385" s="40"/>
+      <c r="B4385" s="41"/>
       <c r="C4385" s="42"/>
       <c r="D4385" s="42"/>
       <c r="E4385" s="42"/>
@@ -9097,12 +9104,13 @@
       <c r="F4389" s="42"/>
       <c r="G4389" s="42"/>
     </row>
-    <row r="4420" spans="2:7">
-      <c r="B4420" s="7"/>
-      <c r="D4420" s="42"/>
-      <c r="E4420" s="42"/>
-      <c r="F4420" s="42"/>
-      <c r="G4420" s="42"/>
+    <row r="4390" spans="2:7">
+      <c r="B4390" s="7"/>
+      <c r="C4390" s="42"/>
+      <c r="D4390" s="42"/>
+      <c r="E4390" s="42"/>
+      <c r="F4390" s="42"/>
+      <c r="G4390" s="42"/>
     </row>
     <row r="4421" spans="2:7">
       <c r="B4421" s="7"/>
@@ -9118,23 +9126,23 @@
       <c r="F4422" s="42"/>
       <c r="G4422" s="42"/>
     </row>
-    <row r="4423" spans="2:2">
+    <row r="4423" spans="2:7">
       <c r="B4423" s="7"/>
+      <c r="D4423" s="42"/>
+      <c r="E4423" s="42"/>
+      <c r="F4423" s="42"/>
+      <c r="G4423" s="42"/>
     </row>
     <row r="4424" spans="2:2">
       <c r="B4424" s="7"/>
     </row>
-    <row r="4426" spans="2:2">
-      <c r="B4426" s="7"/>
-    </row>
-    <row r="4427" ht="15.75" customHeight="1" spans="2:7">
+    <row r="4425" spans="2:2">
+      <c r="B4425" s="7"/>
+    </row>
+    <row r="4427" spans="2:2">
       <c r="B4427" s="7"/>
-      <c r="D4427" s="42"/>
-      <c r="E4427" s="42"/>
-      <c r="F4427" s="42"/>
-      <c r="G4427" s="42"/>
-    </row>
-    <row r="4428" spans="2:7">
+    </row>
+    <row r="4428" ht="15.75" customHeight="1" spans="2:7">
       <c r="B4428" s="7"/>
       <c r="D4428" s="42"/>
       <c r="E4428" s="42"/>
@@ -9190,8 +9198,7 @@
       <c r="F4435" s="42"/>
       <c r="G4435" s="42"/>
     </row>
-    <row r="4436" spans="1:7">
-      <c r="A4436" s="21"/>
+    <row r="4436" spans="2:7">
       <c r="B4436" s="7"/>
       <c r="D4436" s="42"/>
       <c r="E4436" s="42"/>
@@ -9214,15 +9221,16 @@
       <c r="F4438" s="42"/>
       <c r="G4438" s="42"/>
     </row>
-    <row r="4472" spans="2:2">
-      <c r="B4472" s="7"/>
-    </row>
-    <row r="4473" spans="2:7">
+    <row r="4439" spans="1:7">
+      <c r="A4439" s="21"/>
+      <c r="B4439" s="7"/>
+      <c r="D4439" s="42"/>
+      <c r="E4439" s="42"/>
+      <c r="F4439" s="42"/>
+      <c r="G4439" s="42"/>
+    </row>
+    <row r="4473" spans="2:2">
       <c r="B4473" s="7"/>
-      <c r="D4473" s="42"/>
-      <c r="E4473" s="42"/>
-      <c r="F4473" s="42"/>
-      <c r="G4473" s="42"/>
     </row>
     <row r="4474" spans="2:7">
       <c r="B4474" s="7"/>
@@ -9238,8 +9246,12 @@
       <c r="F4475" s="42"/>
       <c r="G4475" s="42"/>
     </row>
-    <row r="4476" spans="2:2">
+    <row r="4476" spans="2:7">
       <c r="B4476" s="7"/>
+      <c r="D4476" s="42"/>
+      <c r="E4476" s="42"/>
+      <c r="F4476" s="42"/>
+      <c r="G4476" s="42"/>
     </row>
     <row r="4477" spans="2:2">
       <c r="B4477" s="7"/>
@@ -9247,19 +9259,19 @@
     <row r="4478" spans="2:2">
       <c r="B4478" s="7"/>
     </row>
-    <row r="4479" spans="2:7">
+    <row r="4479" spans="2:2">
       <c r="B4479" s="7"/>
-      <c r="D4479" s="42"/>
-      <c r="E4479" s="42"/>
-      <c r="F4479" s="42"/>
-      <c r="G4479" s="42"/>
-    </row>
-    <row r="4481" ht="15.75" spans="1:2">
-      <c r="A4481" s="38"/>
-      <c r="B4481" s="7"/>
-    </row>
-    <row r="4485" spans="2:2">
-      <c r="B4485" s="7"/>
+    </row>
+    <row r="4480" spans="2:7">
+      <c r="B4480" s="7"/>
+      <c r="D4480" s="42"/>
+      <c r="E4480" s="42"/>
+      <c r="F4480" s="42"/>
+      <c r="G4480" s="42"/>
+    </row>
+    <row r="4482" ht="15.75" spans="1:2">
+      <c r="A4482" s="38"/>
+      <c r="B4482" s="7"/>
     </row>
     <row r="4486" spans="2:2">
       <c r="B4486" s="7"/>
@@ -9267,8 +9279,8 @@
     <row r="4487" spans="2:2">
       <c r="B4487" s="7"/>
     </row>
-    <row r="4492" spans="2:2">
-      <c r="B4492" s="7"/>
+    <row r="4488" spans="2:2">
+      <c r="B4488" s="7"/>
     </row>
     <row r="4493" spans="2:2">
       <c r="B4493" s="7"/>
@@ -9276,16 +9288,12 @@
     <row r="4494" spans="2:2">
       <c r="B4494" s="7"/>
     </row>
-    <row r="4495" ht="15.75" spans="1:2">
-      <c r="A4495" s="38"/>
+    <row r="4495" spans="2:2">
       <c r="B4495" s="7"/>
     </row>
-    <row r="4496" spans="2:7">
+    <row r="4496" ht="15.75" spans="1:2">
+      <c r="A4496" s="38"/>
       <c r="B4496" s="7"/>
-      <c r="D4496" s="42"/>
-      <c r="E4496" s="42"/>
-      <c r="F4496" s="42"/>
-      <c r="G4496" s="42"/>
     </row>
     <row r="4497" spans="2:7">
       <c r="B4497" s="7"/>
@@ -9357,8 +9365,7 @@
       <c r="F4506" s="42"/>
       <c r="G4506" s="42"/>
     </row>
-    <row r="4507" spans="1:7">
-      <c r="A4507" s="21"/>
+    <row r="4507" spans="2:7">
       <c r="B4507" s="7"/>
       <c r="D4507" s="42"/>
       <c r="E4507" s="42"/>
@@ -9389,7 +9396,8 @@
       <c r="F4510" s="42"/>
       <c r="G4510" s="42"/>
     </row>
-    <row r="4511" spans="2:7">
+    <row r="4511" spans="1:7">
+      <c r="A4511" s="21"/>
       <c r="B4511" s="7"/>
       <c r="D4511" s="42"/>
       <c r="E4511" s="42"/>
@@ -9417,26 +9425,26 @@
       <c r="F4514" s="42"/>
       <c r="G4514" s="42"/>
     </row>
-    <row r="4515" spans="1:2">
-      <c r="A4515" s="21"/>
+    <row r="4515" spans="2:7">
       <c r="B4515" s="7"/>
-    </row>
-    <row r="4516" spans="2:7">
+      <c r="D4515" s="42"/>
+      <c r="E4515" s="42"/>
+      <c r="F4515" s="42"/>
+      <c r="G4515" s="42"/>
+    </row>
+    <row r="4516" spans="1:2">
+      <c r="A4516" s="21"/>
       <c r="B4516" s="7"/>
-      <c r="D4516" s="42"/>
-      <c r="E4516" s="42"/>
-      <c r="F4516" s="42"/>
-      <c r="G4516" s="42"/>
-    </row>
-    <row r="4517" spans="2:2">
+    </row>
+    <row r="4517" spans="2:7">
       <c r="B4517" s="7"/>
-    </row>
-    <row r="4518" spans="2:7">
+      <c r="D4517" s="42"/>
+      <c r="E4517" s="42"/>
+      <c r="F4517" s="42"/>
+      <c r="G4517" s="42"/>
+    </row>
+    <row r="4518" spans="2:2">
       <c r="B4518" s="7"/>
-      <c r="D4518" s="42"/>
-      <c r="E4518" s="42"/>
-      <c r="F4518" s="42"/>
-      <c r="G4518" s="42"/>
     </row>
     <row r="4519" spans="2:7">
       <c r="B4519" s="7"/>
@@ -9445,8 +9453,7 @@
       <c r="F4519" s="42"/>
       <c r="G4519" s="42"/>
     </row>
-    <row r="4520" spans="1:7">
-      <c r="A4520" s="21"/>
+    <row r="4520" spans="2:7">
       <c r="B4520" s="7"/>
       <c r="D4520" s="42"/>
       <c r="E4520" s="42"/>
@@ -9455,14 +9462,15 @@
     </row>
     <row r="4521" spans="1:7">
       <c r="A4521" s="21"/>
-      <c r="B4521" s="22"/>
+      <c r="B4521" s="7"/>
       <c r="D4521" s="42"/>
       <c r="E4521" s="42"/>
       <c r="F4521" s="42"/>
       <c r="G4521" s="42"/>
     </row>
-    <row r="4522" spans="2:7">
-      <c r="B4522" s="7"/>
+    <row r="4522" spans="1:7">
+      <c r="A4522" s="21"/>
+      <c r="B4522" s="22"/>
       <c r="D4522" s="42"/>
       <c r="E4522" s="42"/>
       <c r="F4522" s="42"/>
@@ -9489,13 +9497,12 @@
       <c r="F4525" s="42"/>
       <c r="G4525" s="42"/>
     </row>
-    <row r="4527" spans="1:7">
-      <c r="A4527" s="21"/>
-      <c r="B4527" s="7"/>
-      <c r="D4527" s="42"/>
-      <c r="E4527" s="42"/>
-      <c r="F4527" s="42"/>
-      <c r="G4527" s="42"/>
+    <row r="4526" spans="2:7">
+      <c r="B4526" s="7"/>
+      <c r="D4526" s="42"/>
+      <c r="E4526" s="42"/>
+      <c r="F4526" s="42"/>
+      <c r="G4526" s="42"/>
     </row>
     <row r="4528" spans="1:7">
       <c r="A4528" s="21"/>
@@ -9513,16 +9520,16 @@
       <c r="F4529" s="42"/>
       <c r="G4529" s="42"/>
     </row>
-    <row r="4533" ht="20.25" customHeight="1" spans="2:2">
-      <c r="B4533" s="7"/>
-    </row>
-    <row r="4534" spans="1:7">
-      <c r="A4534" s="21"/>
+    <row r="4530" spans="1:7">
+      <c r="A4530" s="21"/>
+      <c r="B4530" s="7"/>
+      <c r="D4530" s="42"/>
+      <c r="E4530" s="42"/>
+      <c r="F4530" s="42"/>
+      <c r="G4530" s="42"/>
+    </row>
+    <row r="4534" ht="20.25" customHeight="1" spans="2:2">
       <c r="B4534" s="7"/>
-      <c r="D4534" s="42"/>
-      <c r="E4534" s="42"/>
-      <c r="F4534" s="42"/>
-      <c r="G4534" s="42"/>
     </row>
     <row r="4535" spans="1:7">
       <c r="A4535" s="21"/>
@@ -9532,24 +9539,29 @@
       <c r="F4535" s="42"/>
       <c r="G4535" s="42"/>
     </row>
-    <row r="4536" spans="2:2">
+    <row r="4536" spans="1:7">
+      <c r="A4536" s="21"/>
       <c r="B4536" s="7"/>
-    </row>
-    <row r="4545" spans="2:2">
-      <c r="B4545" s="29"/>
-    </row>
-    <row r="4546" spans="2:3">
+      <c r="D4536" s="42"/>
+      <c r="E4536" s="42"/>
+      <c r="F4536" s="42"/>
+      <c r="G4536" s="42"/>
+    </row>
+    <row r="4537" spans="2:2">
+      <c r="B4537" s="7"/>
+    </row>
+    <row r="4546" spans="2:2">
       <c r="B4546" s="29"/>
-      <c r="C4546" s="7"/>
-    </row>
-    <row r="4547" spans="3:3">
+    </row>
+    <row r="4547" spans="2:3">
+      <c r="B4547" s="29"/>
       <c r="C4547" s="7"/>
     </row>
     <row r="4548" spans="3:3">
       <c r="C4548" s="7"/>
     </row>
-    <row r="4549" spans="2:2">
-      <c r="B4549" s="7"/>
+    <row r="4549" spans="3:3">
+      <c r="C4549" s="7"/>
     </row>
     <row r="4550" spans="2:2">
       <c r="B4550" s="7"/>
@@ -9575,23 +9587,23 @@
     <row r="4557" spans="2:2">
       <c r="B4557" s="7"/>
     </row>
-    <row r="4623" spans="2:2">
-      <c r="B4623" s="7"/>
+    <row r="4558" spans="2:2">
+      <c r="B4558" s="7"/>
     </row>
     <row r="4624" spans="2:2">
       <c r="B4624" s="7"/>
     </row>
-    <row r="4626" spans="2:2">
-      <c r="B4626" s="7"/>
+    <row r="4625" spans="2:2">
+      <c r="B4625" s="7"/>
     </row>
     <row r="4627" spans="2:2">
       <c r="B4627" s="7"/>
     </row>
-    <row r="4629" spans="2:2">
-      <c r="B4629" s="7"/>
-    </row>
-    <row r="4655" spans="2:2">
-      <c r="B4655" s="7"/>
+    <row r="4628" spans="2:2">
+      <c r="B4628" s="7"/>
+    </row>
+    <row r="4630" spans="2:2">
+      <c r="B4630" s="7"/>
     </row>
     <row r="4656" spans="2:2">
       <c r="B4656" s="7"/>
@@ -9611,11 +9623,11 @@
     <row r="4661" spans="2:2">
       <c r="B4661" s="7"/>
     </row>
-    <row r="4666" spans="2:2">
-      <c r="B4666" s="7"/>
-    </row>
-    <row r="4669" spans="2:2">
-      <c r="B4669" s="7"/>
+    <row r="4662" spans="2:2">
+      <c r="B4662" s="7"/>
+    </row>
+    <row r="4667" spans="2:2">
+      <c r="B4667" s="7"/>
     </row>
     <row r="4670" spans="2:2">
       <c r="B4670" s="7"/>
@@ -9623,39 +9635,39 @@
     <row r="4671" spans="2:2">
       <c r="B4671" s="7"/>
     </row>
-    <row r="4674" spans="2:2">
-      <c r="B4674" s="7"/>
-    </row>
-    <row r="4683" spans="2:2">
-      <c r="B4683" s="7"/>
-    </row>
-    <row r="4685" spans="2:2">
-      <c r="B4685" s="7"/>
-    </row>
-    <row r="4693" spans="1:2">
-      <c r="A4693" s="21"/>
-      <c r="B4693" s="7"/>
+    <row r="4672" spans="2:2">
+      <c r="B4672" s="7"/>
+    </row>
+    <row r="4675" spans="2:2">
+      <c r="B4675" s="7"/>
+    </row>
+    <row r="4684" spans="2:2">
+      <c r="B4684" s="7"/>
+    </row>
+    <row r="4686" spans="2:2">
+      <c r="B4686" s="7"/>
     </row>
     <row r="4694" spans="1:2">
       <c r="A4694" s="21"/>
       <c r="B4694" s="7"/>
     </row>
-    <row r="4695" spans="2:2">
+    <row r="4695" spans="1:2">
+      <c r="A4695" s="21"/>
       <c r="B4695" s="7"/>
     </row>
-    <row r="4696" spans="1:2">
-      <c r="A4696" s="21"/>
+    <row r="4696" spans="2:2">
       <c r="B4696" s="7"/>
     </row>
     <row r="4697" spans="1:2">
       <c r="A4697" s="21"/>
       <c r="B4697" s="7"/>
     </row>
-    <row r="4698" spans="2:2">
+    <row r="4698" spans="1:2">
+      <c r="A4698" s="21"/>
       <c r="B4698" s="7"/>
     </row>
-    <row r="4715" spans="2:2">
-      <c r="B4715" s="7"/>
+    <row r="4699" spans="2:2">
+      <c r="B4699" s="7"/>
     </row>
     <row r="4716" spans="2:2">
       <c r="B4716" s="7"/>
@@ -9666,8 +9678,8 @@
     <row r="4718" spans="2:2">
       <c r="B4718" s="7"/>
     </row>
-    <row r="4723" spans="2:2">
-      <c r="B4723" s="7"/>
+    <row r="4719" spans="2:2">
+      <c r="B4719" s="7"/>
     </row>
     <row r="4724" spans="2:2">
       <c r="B4724" s="7"/>
@@ -9690,8 +9702,8 @@
     <row r="4730" spans="2:2">
       <c r="B4730" s="7"/>
     </row>
-    <row r="4740" spans="2:2">
-      <c r="B4740" s="7"/>
+    <row r="4731" spans="2:2">
+      <c r="B4731" s="7"/>
     </row>
     <row r="4741" spans="2:2">
       <c r="B4741" s="7"/>
@@ -9699,20 +9711,16 @@
     <row r="4742" spans="2:2">
       <c r="B4742" s="7"/>
     </row>
-    <row r="4745" spans="1:2">
-      <c r="A4745" s="21"/>
-      <c r="B4745" s="7"/>
+    <row r="4743" spans="2:2">
+      <c r="B4743" s="7"/>
     </row>
     <row r="4746" spans="1:2">
       <c r="A4746" s="21"/>
       <c r="B4746" s="7"/>
     </row>
-    <row r="4759" spans="2:7">
-      <c r="B4759" s="7"/>
-      <c r="D4759" s="42"/>
-      <c r="E4759" s="42"/>
-      <c r="F4759" s="42"/>
-      <c r="G4759" s="42"/>
+    <row r="4747" spans="1:2">
+      <c r="A4747" s="21"/>
+      <c r="B4747" s="7"/>
     </row>
     <row r="4760" spans="2:7">
       <c r="B4760" s="7"/>
@@ -9728,8 +9736,12 @@
       <c r="F4761" s="42"/>
       <c r="G4761" s="42"/>
     </row>
-    <row r="4762" spans="2:2">
+    <row r="4762" spans="2:7">
       <c r="B4762" s="7"/>
+      <c r="D4762" s="42"/>
+      <c r="E4762" s="42"/>
+      <c r="F4762" s="42"/>
+      <c r="G4762" s="42"/>
     </row>
     <row r="4763" spans="2:2">
       <c r="B4763" s="7"/>
@@ -9737,8 +9749,8 @@
     <row r="4764" spans="2:2">
       <c r="B4764" s="7"/>
     </row>
-    <row r="4825" spans="2:2">
-      <c r="B4825" s="7"/>
+    <row r="4765" spans="2:2">
+      <c r="B4765" s="7"/>
     </row>
     <row r="4826" spans="2:2">
       <c r="B4826" s="7"/>
@@ -9746,8 +9758,8 @@
     <row r="4827" spans="2:2">
       <c r="B4827" s="7"/>
     </row>
-    <row r="4836" spans="2:2">
-      <c r="B4836" s="7"/>
+    <row r="4828" spans="2:2">
+      <c r="B4828" s="7"/>
     </row>
     <row r="4837" spans="2:2">
       <c r="B4837" s="7"/>
@@ -9758,13 +9770,8 @@
     <row r="4839" spans="2:2">
       <c r="B4839" s="7"/>
     </row>
-    <row r="4880" spans="2:7">
-      <c r="B4880" s="29"/>
-      <c r="C4880" s="29"/>
-      <c r="D4880" s="29"/>
-      <c r="E4880" s="29"/>
-      <c r="F4880" s="29"/>
-      <c r="G4880" s="29"/>
+    <row r="4840" spans="2:2">
+      <c r="B4840" s="7"/>
     </row>
     <row r="4881" spans="2:7">
       <c r="B4881" s="29"/>
@@ -9774,8 +9781,13 @@
       <c r="F4881" s="29"/>
       <c r="G4881" s="29"/>
     </row>
-    <row r="4902" spans="2:2">
-      <c r="B4902" s="7"/>
+    <row r="4882" spans="2:7">
+      <c r="B4882" s="29"/>
+      <c r="C4882" s="29"/>
+      <c r="D4882" s="29"/>
+      <c r="E4882" s="29"/>
+      <c r="F4882" s="29"/>
+      <c r="G4882" s="29"/>
     </row>
     <row r="4903" spans="2:2">
       <c r="B4903" s="7"/>
@@ -9789,17 +9801,17 @@
     <row r="4906" spans="2:2">
       <c r="B4906" s="7"/>
     </row>
-    <row r="4909" spans="2:2">
-      <c r="B4909" s="7"/>
+    <row r="4907" spans="2:2">
+      <c r="B4907" s="7"/>
     </row>
     <row r="4910" spans="2:2">
       <c r="B4910" s="7"/>
     </row>
-    <row r="4913" spans="2:2">
-      <c r="B4913" s="43"/>
-    </row>
-    <row r="4928" spans="2:2">
-      <c r="B4928" s="7"/>
+    <row r="4911" spans="2:2">
+      <c r="B4911" s="7"/>
+    </row>
+    <row r="4914" spans="2:2">
+      <c r="B4914" s="43"/>
     </row>
     <row r="4929" spans="2:2">
       <c r="B4929" s="7"/>
@@ -9834,8 +9846,8 @@
     <row r="4939" spans="2:2">
       <c r="B4939" s="7"/>
     </row>
-    <row r="4942" spans="2:2">
-      <c r="B4942" s="7"/>
+    <row r="4940" spans="2:2">
+      <c r="B4940" s="7"/>
     </row>
     <row r="4943" spans="2:2">
       <c r="B4943" s="7"/>
@@ -9846,11 +9858,11 @@
     <row r="4945" spans="2:2">
       <c r="B4945" s="7"/>
     </row>
-    <row r="4947" spans="2:2">
-      <c r="B4947" s="7"/>
-    </row>
-    <row r="4951" spans="2:2">
-      <c r="B4951" s="7"/>
+    <row r="4946" spans="2:2">
+      <c r="B4946" s="7"/>
+    </row>
+    <row r="4948" spans="2:2">
+      <c r="B4948" s="7"/>
     </row>
     <row r="4952" spans="2:2">
       <c r="B4952" s="7"/>
@@ -9858,8 +9870,8 @@
     <row r="4953" spans="2:2">
       <c r="B4953" s="7"/>
     </row>
-    <row r="4964" spans="2:2">
-      <c r="B4964" s="7"/>
+    <row r="4954" spans="2:2">
+      <c r="B4954" s="7"/>
     </row>
     <row r="4965" spans="2:2">
       <c r="B4965" s="7"/>
@@ -9882,15 +9894,15 @@
     <row r="4971" spans="2:2">
       <c r="B4971" s="7"/>
     </row>
-    <row r="4972" spans="2:3">
+    <row r="4972" spans="2:2">
       <c r="B4972" s="7"/>
-      <c r="C4972" s="7"/>
-    </row>
-    <row r="4976" spans="2:2">
-      <c r="B4976" s="35"/>
+    </row>
+    <row r="4973" spans="2:3">
+      <c r="B4973" s="7"/>
+      <c r="C4973" s="7"/>
     </row>
     <row r="4977" spans="2:2">
-      <c r="B4977" s="7"/>
+      <c r="B4977" s="35"/>
     </row>
     <row r="4978" spans="2:2">
       <c r="B4978" s="7"/>
@@ -9923,10 +9935,10 @@
       <c r="B4987" s="7"/>
     </row>
     <row r="4988" spans="2:2">
-      <c r="B4988" s="35"/>
+      <c r="B4988" s="7"/>
     </row>
     <row r="4989" spans="2:2">
-      <c r="B4989" s="7"/>
+      <c r="B4989" s="35"/>
     </row>
     <row r="4990" spans="2:2">
       <c r="B4990" s="7"/>
@@ -9964,17 +9976,17 @@
     <row r="5001" spans="2:2">
       <c r="B5001" s="7"/>
     </row>
-    <row r="5003" spans="2:2">
-      <c r="B5003" s="7"/>
+    <row r="5002" spans="2:2">
+      <c r="B5002" s="7"/>
     </row>
     <row r="5004" spans="2:2">
       <c r="B5004" s="7"/>
     </row>
     <row r="5005" spans="2:2">
-      <c r="B5005" s="35"/>
+      <c r="B5005" s="7"/>
     </row>
     <row r="5006" spans="2:2">
-      <c r="B5006" s="7"/>
+      <c r="B5006" s="35"/>
     </row>
     <row r="5007" spans="2:2">
       <c r="B5007" s="7"/>
@@ -10009,13 +10021,12 @@
     <row r="5017" spans="2:2">
       <c r="B5017" s="7"/>
     </row>
-    <row r="5018" spans="2:3">
+    <row r="5018" spans="2:2">
       <c r="B5018" s="7"/>
-      <c r="C5018" s="44"/>
     </row>
     <row r="5019" spans="2:3">
       <c r="B5019" s="7"/>
-      <c r="C5019" s="7"/>
+      <c r="C5019" s="44"/>
     </row>
     <row r="5020" spans="2:3">
       <c r="B5020" s="7"/>
@@ -10025,19 +10036,20 @@
       <c r="B5021" s="7"/>
       <c r="C5021" s="7"/>
     </row>
-    <row r="5023" spans="2:3">
-      <c r="B5023" s="7"/>
-      <c r="C5023" s="7"/>
-    </row>
-    <row r="5024" spans="2:2">
-      <c r="B5024" s="22"/>
-    </row>
-    <row r="5025" spans="2:3">
+    <row r="5022" spans="2:3">
+      <c r="B5022" s="7"/>
+      <c r="C5022" s="7"/>
+    </row>
+    <row r="5024" spans="2:3">
+      <c r="B5024" s="7"/>
+      <c r="C5024" s="7"/>
+    </row>
+    <row r="5025" spans="2:2">
       <c r="B5025" s="22"/>
-      <c r="C5025" s="22"/>
-    </row>
-    <row r="5026" spans="2:2">
-      <c r="B5026" s="7"/>
+    </row>
+    <row r="5026" spans="2:3">
+      <c r="B5026" s="22"/>
+      <c r="C5026" s="22"/>
     </row>
     <row r="5027" spans="2:2">
       <c r="B5027" s="7"/>
@@ -10147,8 +10159,8 @@
     <row r="5062" spans="2:2">
       <c r="B5062" s="7"/>
     </row>
-    <row r="5068" spans="2:2">
-      <c r="B5068" s="7"/>
+    <row r="5063" spans="2:2">
+      <c r="B5063" s="7"/>
     </row>
     <row r="5069" spans="2:2">
       <c r="B5069" s="7"/>
@@ -10160,10 +10172,10 @@
       <c r="B5071" s="7"/>
     </row>
     <row r="5072" spans="2:2">
-      <c r="B5072" s="29"/>
+      <c r="B5072" s="7"/>
     </row>
     <row r="5073" spans="2:2">
-      <c r="B5073" s="7"/>
+      <c r="B5073" s="29"/>
     </row>
     <row r="5074" spans="2:2">
       <c r="B5074" s="7"/>
@@ -10177,8 +10189,8 @@
     <row r="5077" spans="2:2">
       <c r="B5077" s="7"/>
     </row>
-    <row r="5079" spans="2:2">
-      <c r="B5079" s="7"/>
+    <row r="5078" spans="2:2">
+      <c r="B5078" s="7"/>
     </row>
     <row r="5080" spans="2:2">
       <c r="B5080" s="7"/>
@@ -10195,17 +10207,17 @@
     <row r="5084" spans="2:2">
       <c r="B5084" s="7"/>
     </row>
-    <row r="5086" spans="2:2">
-      <c r="B5086" s="7"/>
+    <row r="5085" spans="2:2">
+      <c r="B5085" s="7"/>
     </row>
     <row r="5087" spans="2:2">
       <c r="B5087" s="7"/>
     </row>
-    <row r="5089" ht="15.75" spans="1:2">
-      <c r="A5089" s="38"/>
-      <c r="B5089" s="7"/>
-    </row>
-    <row r="5090" spans="2:2">
+    <row r="5088" spans="2:2">
+      <c r="B5088" s="7"/>
+    </row>
+    <row r="5090" ht="15.75" spans="1:2">
+      <c r="A5090" s="38"/>
       <c r="B5090" s="7"/>
     </row>
     <row r="5091" spans="2:2">
@@ -10214,14 +10226,14 @@
     <row r="5092" spans="2:2">
       <c r="B5092" s="7"/>
     </row>
-    <row r="5095" spans="2:2">
-      <c r="B5095" s="7"/>
+    <row r="5093" spans="2:2">
+      <c r="B5093" s="7"/>
     </row>
     <row r="5096" spans="2:2">
       <c r="B5096" s="7"/>
     </row>
-    <row r="5099" spans="2:2">
-      <c r="B5099" s="7"/>
+    <row r="5097" spans="2:2">
+      <c r="B5097" s="7"/>
     </row>
     <row r="5100" spans="2:2">
       <c r="B5100" s="7"/>
@@ -10229,8 +10241,8 @@
     <row r="5101" spans="2:2">
       <c r="B5101" s="7"/>
     </row>
-    <row r="5140" spans="2:2">
-      <c r="B5140" s="7"/>
+    <row r="5102" spans="2:2">
+      <c r="B5102" s="7"/>
     </row>
     <row r="5141" spans="2:2">
       <c r="B5141" s="7"/>
@@ -10253,13 +10265,8 @@
     <row r="5147" spans="2:2">
       <c r="B5147" s="7"/>
     </row>
-    <row r="5148" spans="2:7">
-      <c r="B5148" s="29"/>
-      <c r="C5148" s="29"/>
-      <c r="D5148" s="29"/>
-      <c r="E5148" s="29"/>
-      <c r="F5148" s="29"/>
-      <c r="G5148" s="29"/>
+    <row r="5148" spans="2:2">
+      <c r="B5148" s="7"/>
     </row>
     <row r="5149" spans="2:7">
       <c r="B5149" s="29"/>
@@ -10333,8 +10340,13 @@
       <c r="F5157" s="29"/>
       <c r="G5157" s="29"/>
     </row>
-    <row r="5158" spans="2:2">
-      <c r="B5158" s="7"/>
+    <row r="5158" spans="2:7">
+      <c r="B5158" s="29"/>
+      <c r="C5158" s="29"/>
+      <c r="D5158" s="29"/>
+      <c r="E5158" s="29"/>
+      <c r="F5158" s="29"/>
+      <c r="G5158" s="29"/>
     </row>
     <row r="5159" spans="2:2">
       <c r="B5159" s="7"/>
@@ -10363,33 +10375,33 @@
     <row r="5167" spans="2:2">
       <c r="B5167" s="7"/>
     </row>
-    <row r="5174" spans="2:2">
-      <c r="B5174" s="7"/>
-    </row>
-    <row r="5176" spans="2:2">
-      <c r="B5176" s="7"/>
+    <row r="5168" spans="2:2">
+      <c r="B5168" s="7"/>
+    </row>
+    <row r="5175" spans="2:2">
+      <c r="B5175" s="7"/>
     </row>
     <row r="5177" spans="2:2">
       <c r="B5177" s="7"/>
     </row>
-    <row r="5206" spans="3:3">
-      <c r="C5206" s="7"/>
-    </row>
-    <row r="5207" ht="15.75" spans="1:2">
-      <c r="A5207" s="38"/>
-      <c r="B5207" s="7"/>
-    </row>
-    <row r="5208" spans="2:2">
+    <row r="5178" spans="2:2">
+      <c r="B5178" s="7"/>
+    </row>
+    <row r="5207" spans="3:3">
+      <c r="C5207" s="7"/>
+    </row>
+    <row r="5208" ht="15.75" spans="1:2">
+      <c r="A5208" s="38"/>
       <c r="B5208" s="7"/>
     </row>
-    <row r="5211" spans="2:2">
-      <c r="B5211" s="7"/>
+    <row r="5209" spans="2:2">
+      <c r="B5209" s="7"/>
     </row>
     <row r="5212" spans="2:2">
       <c r="B5212" s="7"/>
     </row>
-    <row r="5215" spans="2:2">
-      <c r="B5215" s="7"/>
+    <row r="5213" spans="2:2">
+      <c r="B5213" s="7"/>
     </row>
     <row r="5216" spans="2:2">
       <c r="B5216" s="7"/>
@@ -10400,8 +10412,8 @@
     <row r="5218" spans="2:2">
       <c r="B5218" s="7"/>
     </row>
-    <row r="5222" spans="2:2">
-      <c r="B5222" s="7"/>
+    <row r="5219" spans="2:2">
+      <c r="B5219" s="7"/>
     </row>
     <row r="5223" spans="2:2">
       <c r="B5223" s="7"/>
@@ -10412,30 +10424,30 @@
     <row r="5225" spans="2:2">
       <c r="B5225" s="7"/>
     </row>
-    <row r="5229" spans="2:2">
-      <c r="B5229" s="7"/>
-    </row>
-    <row r="5230" spans="1:2">
-      <c r="A5230" s="21"/>
+    <row r="5226" spans="2:2">
+      <c r="B5226" s="7"/>
+    </row>
+    <row r="5230" spans="2:2">
       <c r="B5230" s="7"/>
     </row>
-    <row r="5231" spans="2:2">
+    <row r="5231" spans="1:2">
+      <c r="A5231" s="21"/>
       <c r="B5231" s="7"/>
     </row>
-    <row r="5232" spans="1:2">
-      <c r="A5232" s="21"/>
+    <row r="5232" spans="2:2">
       <c r="B5232" s="7"/>
     </row>
     <row r="5233" spans="1:2">
       <c r="A5233" s="21"/>
       <c r="B5233" s="7"/>
     </row>
-    <row r="5234" ht="15.75" spans="1:2">
-      <c r="A5234" s="38"/>
+    <row r="5234" spans="1:2">
+      <c r="A5234" s="21"/>
       <c r="B5234" s="7"/>
     </row>
-    <row r="5241" spans="2:2">
-      <c r="B5241" s="7"/>
+    <row r="5235" ht="15.75" spans="1:2">
+      <c r="A5235" s="38"/>
+      <c r="B5235" s="7"/>
     </row>
     <row r="5242" spans="2:2">
       <c r="B5242" s="7"/>
@@ -10449,23 +10461,23 @@
     <row r="5245" spans="2:2">
       <c r="B5245" s="7"/>
     </row>
-    <row r="5247" spans="2:2">
-      <c r="B5247" s="7"/>
-    </row>
-    <row r="5269" spans="2:2">
-      <c r="B5269" s="7"/>
-    </row>
-    <row r="5275" spans="2:2">
-      <c r="B5275" s="7"/>
-    </row>
-    <row r="5277" spans="2:2">
-      <c r="B5277" s="7"/>
+    <row r="5246" spans="2:2">
+      <c r="B5246" s="7"/>
+    </row>
+    <row r="5248" spans="2:2">
+      <c r="B5248" s="7"/>
+    </row>
+    <row r="5270" spans="2:2">
+      <c r="B5270" s="7"/>
+    </row>
+    <row r="5276" spans="2:2">
+      <c r="B5276" s="7"/>
     </row>
     <row r="5278" spans="2:2">
       <c r="B5278" s="7"/>
     </row>
-    <row r="5284" spans="2:2">
-      <c r="B5284" s="7"/>
+    <row r="5279" spans="2:2">
+      <c r="B5279" s="7"/>
     </row>
     <row r="5285" spans="2:2">
       <c r="B5285" s="7"/>
@@ -10477,10 +10489,10 @@
       <c r="B5287" s="7"/>
     </row>
     <row r="5288" spans="2:2">
-      <c r="B5288" s="5"/>
-    </row>
-    <row r="5291" spans="2:2">
-      <c r="B5291" s="7"/>
+      <c r="B5288" s="7"/>
+    </row>
+    <row r="5289" spans="2:2">
+      <c r="B5289" s="5"/>
     </row>
     <row r="5292" spans="2:2">
       <c r="B5292" s="7"/>
@@ -10494,8 +10506,8 @@
     <row r="5295" spans="2:2">
       <c r="B5295" s="7"/>
     </row>
-    <row r="5300" spans="2:2">
-      <c r="B5300" s="7"/>
+    <row r="5296" spans="2:2">
+      <c r="B5296" s="7"/>
     </row>
     <row r="5301" spans="2:2">
       <c r="B5301" s="7"/>
@@ -10533,14 +10545,14 @@
     <row r="5312" spans="2:2">
       <c r="B5312" s="7"/>
     </row>
-    <row r="5322" spans="2:2">
-      <c r="B5322" s="7"/>
+    <row r="5313" spans="2:2">
+      <c r="B5313" s="7"/>
     </row>
     <row r="5323" spans="2:2">
       <c r="B5323" s="7"/>
     </row>
-    <row r="5325" spans="2:2">
-      <c r="B5325" s="7"/>
+    <row r="5324" spans="2:2">
+      <c r="B5324" s="7"/>
     </row>
     <row r="5326" spans="2:2">
       <c r="B5326" s="7"/>
@@ -10548,17 +10560,17 @@
     <row r="5327" spans="2:2">
       <c r="B5327" s="7"/>
     </row>
-    <row r="5335" spans="2:2">
-      <c r="B5335" s="7"/>
-    </row>
-    <row r="5346" spans="2:2">
-      <c r="B5346" s="7"/>
-    </row>
-    <row r="5351" spans="2:2">
-      <c r="B5351" s="7"/>
-    </row>
-    <row r="5362" spans="2:2">
-      <c r="B5362" s="7"/>
+    <row r="5328" spans="2:2">
+      <c r="B5328" s="7"/>
+    </row>
+    <row r="5336" spans="2:2">
+      <c r="B5336" s="7"/>
+    </row>
+    <row r="5347" spans="2:2">
+      <c r="B5347" s="7"/>
+    </row>
+    <row r="5352" spans="2:2">
+      <c r="B5352" s="7"/>
     </row>
     <row r="5363" spans="2:2">
       <c r="B5363" s="7"/>
@@ -10566,8 +10578,8 @@
     <row r="5364" spans="2:2">
       <c r="B5364" s="7"/>
     </row>
-    <row r="5366" spans="2:2">
-      <c r="B5366" s="7"/>
+    <row r="5365" spans="2:2">
+      <c r="B5365" s="7"/>
     </row>
     <row r="5367" spans="2:2">
       <c r="B5367" s="7"/>
@@ -10578,8 +10590,8 @@
     <row r="5369" spans="2:2">
       <c r="B5369" s="7"/>
     </row>
-    <row r="5371" spans="2:2">
-      <c r="B5371" s="7"/>
+    <row r="5370" spans="2:2">
+      <c r="B5370" s="7"/>
     </row>
     <row r="5372" spans="2:2">
       <c r="B5372" s="7"/>
@@ -10593,8 +10605,8 @@
     <row r="5375" spans="2:2">
       <c r="B5375" s="7"/>
     </row>
-    <row r="5378" spans="2:2">
-      <c r="B5378" s="7"/>
+    <row r="5376" spans="2:2">
+      <c r="B5376" s="7"/>
     </row>
     <row r="5379" spans="2:2">
       <c r="B5379" s="7"/>
@@ -10641,46 +10653,46 @@
     <row r="5393" spans="2:2">
       <c r="B5393" s="7"/>
     </row>
-    <row r="5408" spans="2:2">
-      <c r="B5408" s="7"/>
+    <row r="5394" spans="2:2">
+      <c r="B5394" s="7"/>
     </row>
     <row r="5409" spans="2:2">
       <c r="B5409" s="7"/>
     </row>
-    <row r="5410" spans="2:3">
+    <row r="5410" spans="2:2">
       <c r="B5410" s="7"/>
-      <c r="C5410" s="22"/>
-    </row>
-    <row r="5411" spans="2:2">
+    </row>
+    <row r="5411" spans="2:3">
       <c r="B5411" s="7"/>
+      <c r="C5411" s="22"/>
     </row>
     <row r="5412" spans="2:2">
       <c r="B5412" s="7"/>
     </row>
-    <row r="5415" spans="2:2">
-      <c r="B5415" s="7"/>
-    </row>
-    <row r="5416" spans="1:2">
-      <c r="A5416" s="21"/>
+    <row r="5413" spans="2:2">
+      <c r="B5413" s="7"/>
+    </row>
+    <row r="5416" spans="2:2">
       <c r="B5416" s="7"/>
     </row>
-    <row r="5417" spans="2:2">
+    <row r="5417" spans="1:2">
+      <c r="A5417" s="21"/>
       <c r="B5417" s="7"/>
     </row>
-    <row r="5452" spans="2:2">
-      <c r="B5452" s="7"/>
-    </row>
-    <row r="5514" spans="2:2">
-      <c r="B5514" s="7"/>
+    <row r="5418" spans="2:2">
+      <c r="B5418" s="7"/>
+    </row>
+    <row r="5453" spans="2:2">
+      <c r="B5453" s="7"/>
     </row>
     <row r="5515" spans="2:2">
       <c r="B5515" s="7"/>
     </row>
-    <row r="5518" spans="2:2">
-      <c r="B5518" s="7"/>
-    </row>
-    <row r="5552" spans="2:2">
-      <c r="B5552" s="7"/>
+    <row r="5516" spans="2:2">
+      <c r="B5516" s="7"/>
+    </row>
+    <row r="5519" spans="2:2">
+      <c r="B5519" s="7"/>
     </row>
     <row r="5553" spans="2:2">
       <c r="B5553" s="7"/>
@@ -10703,11 +10715,10 @@
     <row r="5559" spans="2:2">
       <c r="B5559" s="7"/>
     </row>
-    <row r="5561" spans="2:2">
-      <c r="B5561" s="7"/>
-    </row>
-    <row r="5562" spans="1:2">
-      <c r="A5562" s="21"/>
+    <row r="5560" spans="2:2">
+      <c r="B5560" s="7"/>
+    </row>
+    <row r="5562" spans="2:2">
       <c r="B5562" s="7"/>
     </row>
     <row r="5563" spans="1:2">
@@ -10722,7 +10733,8 @@
       <c r="A5565" s="21"/>
       <c r="B5565" s="7"/>
     </row>
-    <row r="5566" spans="2:2">
+    <row r="5566" spans="1:2">
+      <c r="A5566" s="21"/>
       <c r="B5566" s="7"/>
     </row>
     <row r="5567" spans="2:2">
@@ -10731,14 +10743,14 @@
     <row r="5568" spans="2:2">
       <c r="B5568" s="7"/>
     </row>
-    <row r="5570" spans="2:2">
-      <c r="B5570" s="7"/>
-    </row>
-    <row r="5572" spans="2:2">
-      <c r="B5572" s="7"/>
-    </row>
-    <row r="5579" spans="2:2">
-      <c r="B5579" s="7"/>
+    <row r="5569" spans="2:2">
+      <c r="B5569" s="7"/>
+    </row>
+    <row r="5571" spans="2:2">
+      <c r="B5571" s="7"/>
+    </row>
+    <row r="5573" spans="2:2">
+      <c r="B5573" s="7"/>
     </row>
     <row r="5580" spans="2:2">
       <c r="B5580" s="7"/>
@@ -10749,8 +10761,8 @@
     <row r="5582" spans="2:2">
       <c r="B5582" s="7"/>
     </row>
-    <row r="5601" spans="2:2">
-      <c r="B5601" s="7"/>
+    <row r="5583" spans="2:2">
+      <c r="B5583" s="7"/>
     </row>
     <row r="5602" spans="2:2">
       <c r="B5602" s="7"/>
@@ -10771,10 +10783,10 @@
       <c r="B5607" s="7"/>
     </row>
     <row r="5608" spans="2:2">
-      <c r="B5608" s="15"/>
+      <c r="B5608" s="7"/>
     </row>
     <row r="5609" spans="2:2">
-      <c r="B5609" s="7"/>
+      <c r="B5609" s="15"/>
     </row>
     <row r="5610" spans="2:2">
       <c r="B5610" s="7"/>
@@ -10791,14 +10803,14 @@
     <row r="5614" spans="2:2">
       <c r="B5614" s="7"/>
     </row>
-    <row r="5616" spans="2:2">
-      <c r="B5616" s="7"/>
+    <row r="5615" spans="2:2">
+      <c r="B5615" s="7"/>
     </row>
     <row r="5617" spans="2:2">
       <c r="B5617" s="7"/>
     </row>
-    <row r="5621" spans="2:2">
-      <c r="B5621" s="7"/>
+    <row r="5618" spans="2:2">
+      <c r="B5618" s="7"/>
     </row>
     <row r="5622" spans="2:2">
       <c r="B5622" s="7"/>
@@ -10809,23 +10821,23 @@
     <row r="5624" spans="2:2">
       <c r="B5624" s="7"/>
     </row>
-    <row r="5627" spans="2:2">
-      <c r="B5627" s="7"/>
-    </row>
-    <row r="5631" spans="1:7">
-      <c r="A5631" s="23"/>
-      <c r="B5631" s="15"/>
-      <c r="C5631" s="15"/>
-      <c r="D5631" s="15"/>
-      <c r="E5631" s="15"/>
-      <c r="F5631" s="15"/>
-      <c r="G5631" s="15"/>
-    </row>
-    <row r="5990" spans="2:2">
-      <c r="B5990" s="31"/>
-    </row>
-    <row r="6347" spans="1:1">
-      <c r="A6347" s="21"/>
+    <row r="5625" spans="2:2">
+      <c r="B5625" s="7"/>
+    </row>
+    <row r="5628" spans="2:2">
+      <c r="B5628" s="7"/>
+    </row>
+    <row r="5632" spans="1:7">
+      <c r="A5632" s="23"/>
+      <c r="B5632" s="15"/>
+      <c r="C5632" s="15"/>
+      <c r="D5632" s="15"/>
+      <c r="E5632" s="15"/>
+      <c r="F5632" s="15"/>
+      <c r="G5632" s="15"/>
+    </row>
+    <row r="5991" spans="2:2">
+      <c r="B5991" s="31"/>
     </row>
     <row r="6348" spans="1:1">
       <c r="A6348" s="21"/>
@@ -10929,8 +10941,8 @@
     <row r="6381" spans="1:1">
       <c r="A6381" s="21"/>
     </row>
-    <row r="6386" spans="1:1">
-      <c r="A6386" s="21"/>
+    <row r="6382" spans="1:1">
+      <c r="A6382" s="21"/>
     </row>
     <row r="6387" spans="1:1">
       <c r="A6387" s="21"/>
@@ -11030,6 +11042,9 @@
     </row>
     <row r="6419" spans="1:1">
       <c r="A6419" s="21"/>
+    </row>
+    <row r="6420" spans="1:1">
+      <c r="A6420" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/QA/testcases/ORSheet.xlsx
+++ b/QA/testcases/ORSheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365">
   <si>
     <t>OR Name</t>
   </si>
@@ -254,7 +254,7 @@
     <t>PATIENT_PH_NO_TYPE</t>
   </si>
   <si>
-    <t>phoneType</t>
+    <t>//select[@data-label='ptype']</t>
   </si>
   <si>
     <t>REGISTRATION_SUCCESS</t>
@@ -465,9 +465,6 @@
   </si>
   <si>
     <t>APP_PLANTYPE</t>
-  </si>
-  <si>
-    <t>//select[@data-label='ptype']</t>
   </si>
   <si>
     <t>APP_INS_NUMBER</t>
@@ -1120,10 +1117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -1229,15 +1226,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1245,13 +1248,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1265,8 +1261,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1282,52 +1334,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1340,19 +1347,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1371,9 +1369,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1436,7 +1433,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1448,13 +1463,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1472,7 +1487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1484,7 +1499,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1496,13 +1529,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1514,13 +1565,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1532,25 +1589,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1562,61 +1601,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1627,6 +1624,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1641,15 +1662,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1678,17 +1690,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1716,162 +1724,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2265,7 +2262,7 @@
   <dimension ref="A1:H6420"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1428571428571" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -3029,7 +3026,7 @@
         <v>31</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>13</v>
@@ -3699,7 +3696,7 @@
         <v>149</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>115</v>
@@ -3719,10 +3716,10 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>151</v>
-      </c>
-      <c r="B68" s="16" t="s">
-        <v>152</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>115</v>
@@ -3739,10 +3736,10 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>154</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>115</v>
@@ -3762,10 +3759,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>156</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>115</v>
@@ -3782,10 +3779,10 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="16" t="s">
         <v>157</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>158</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>115</v>
@@ -3802,10 +3799,10 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>159</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>115</v>
@@ -3822,7 +3819,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>47</v>
@@ -3839,10 +3836,10 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" s="16" t="s">
         <v>162</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>163</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>115</v>
@@ -3859,10 +3856,10 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>115</v>
@@ -3879,10 +3876,10 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>115</v>
@@ -3899,10 +3896,10 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>115</v>
@@ -3919,10 +3916,10 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>115</v>
@@ -3939,10 +3936,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>173</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>115</v>
@@ -3959,10 +3956,10 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>175</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>115</v>
@@ -3979,10 +3976,10 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>176</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>177</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>115</v>
@@ -3999,10 +3996,10 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B82" s="16" t="s">
         <v>178</v>
-      </c>
-      <c r="B82" s="16" t="s">
-        <v>179</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>118</v>
@@ -4019,13 +4016,13 @@
     </row>
     <row r="83" ht="30" spans="1:6">
       <c r="A83" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="C83" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>17</v>
@@ -4039,13 +4036,13 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B84" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>12</v>
@@ -4059,13 +4056,13 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>92</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>12</v>
@@ -4079,13 +4076,13 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B86" s="16" t="s">
-        <v>186</v>
-      </c>
       <c r="C86" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>12</v>
@@ -4099,13 +4096,13 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B87" s="7">
         <v>100040</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>12</v>
@@ -4119,13 +4116,13 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B88" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>17</v>
@@ -4139,10 +4136,10 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B89" s="16" t="s">
         <v>190</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>191</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>118</v>
@@ -4159,13 +4156,13 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="C90" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>17</v>
@@ -4179,13 +4176,13 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B91" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="C91" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>17</v>
@@ -4199,13 +4196,13 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="C92" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>17</v>
@@ -4219,13 +4216,13 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B93" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="C93" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>12</v>
@@ -4239,13 +4236,13 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B94" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="C94" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>12</v>
@@ -4259,13 +4256,13 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="C95" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>17</v>
@@ -4279,13 +4276,13 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B96" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="C96" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>17</v>
@@ -4299,13 +4296,13 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B97" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="C97" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>17</v>
@@ -4319,13 +4316,13 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B98" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>17</v>
@@ -4339,13 +4336,13 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B99" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="C99" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>12</v>
@@ -4359,10 +4356,10 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>12</v>
@@ -4376,10 +4373,10 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B101" s="16" t="s">
         <v>222</v>
-      </c>
-      <c r="B101" s="16" t="s">
-        <v>223</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>12</v>
@@ -4393,10 +4390,10 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B102" s="16" t="s">
         <v>224</v>
-      </c>
-      <c r="B102" s="16" t="s">
-        <v>225</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>12</v>
@@ -4410,10 +4407,10 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B103" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>17</v>
@@ -4427,10 +4424,10 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B104" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="B104" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>17</v>
@@ -4444,10 +4441,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B105" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>17</v>
@@ -4455,10 +4452,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B106" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>17</v>
@@ -4466,10 +4463,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>17</v>
@@ -4477,10 +4474,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>17</v>
@@ -4488,10 +4485,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>17</v>
@@ -4499,80 +4496,80 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B114" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B115" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>17</v>
@@ -4580,10 +4577,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>17</v>
@@ -4591,10 +4588,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B117" s="16" t="s">
         <v>253</v>
-      </c>
-      <c r="B117" s="16" t="s">
-        <v>254</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>17</v>
@@ -4602,10 +4599,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>17</v>
@@ -4613,10 +4610,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>17</v>
@@ -4624,10 +4621,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>17</v>
@@ -4635,10 +4632,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B121" s="16" t="s">
         <v>261</v>
-      </c>
-      <c r="B121" s="16" t="s">
-        <v>262</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>12</v>
@@ -4646,18 +4643,18 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B122" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>17</v>
@@ -4665,10 +4662,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B124" s="16" t="s">
         <v>267</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>268</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>12</v>
@@ -4676,10 +4673,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>17</v>
@@ -4687,10 +4684,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B126" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>272</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>17</v>
@@ -4698,10 +4695,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>274</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>17</v>
@@ -4709,10 +4706,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B128" s="16" t="s">
         <v>275</v>
-      </c>
-      <c r="B128" s="16" t="s">
-        <v>276</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>12</v>
@@ -4720,10 +4717,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>17</v>
@@ -4731,10 +4728,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>17</v>
@@ -4742,10 +4739,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B131" s="16" t="s">
         <v>281</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>282</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>12</v>
@@ -4753,18 +4750,18 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B132" s="16" t="s">
         <v>283</v>
-      </c>
-      <c r="B132" s="16" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>17</v>
@@ -4772,10 +4769,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B134" s="16" t="s">
         <v>287</v>
-      </c>
-      <c r="B134" s="16" t="s">
-        <v>288</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>12</v>
@@ -4783,10 +4780,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>17</v>
@@ -4794,10 +4791,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>17</v>
@@ -4805,10 +4802,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>17</v>
@@ -4816,10 +4813,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>17</v>
@@ -4827,10 +4824,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>17</v>
@@ -4838,10 +4835,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>17</v>
@@ -4849,10 +4846,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>17</v>
@@ -4860,10 +4857,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>17</v>
@@ -4871,10 +4868,10 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>17</v>
@@ -4882,10 +4879,10 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>17</v>
@@ -4893,10 +4890,10 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>17</v>
@@ -4904,10 +4901,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>17</v>
@@ -4915,10 +4912,10 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>12</v>
@@ -4926,10 +4923,10 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>17</v>
@@ -4937,10 +4934,10 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B149" s="16" t="s">
         <v>317</v>
-      </c>
-      <c r="B149" s="16" t="s">
-        <v>318</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>12</v>
@@ -4951,19 +4948,19 @@
     <row r="152"/>
     <row r="153" spans="1:2">
       <c r="A153" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B153" s="7"/>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B154" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="B154" s="16" t="s">
+      <c r="C154" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>12</v>
@@ -4971,13 +4968,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B155" t="s">
         <v>323</v>
       </c>
-      <c r="B155" t="s">
-        <v>324</v>
-      </c>
       <c r="C155" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>12</v>
@@ -4985,13 +4982,13 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B156" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="B156" s="16" t="s">
-        <v>326</v>
-      </c>
       <c r="C156" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>12</v>
@@ -4999,13 +4996,13 @@
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B157" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="B157" s="16" t="s">
-        <v>328</v>
-      </c>
       <c r="C157" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>12</v>
@@ -5013,13 +5010,13 @@
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B158" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B158" s="7" t="s">
-        <v>330</v>
-      </c>
       <c r="C158" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>17</v>
@@ -5027,13 +5024,13 @@
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>17</v>
@@ -5041,13 +5038,13 @@
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B160" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B160" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="C160" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>17</v>
@@ -5055,13 +5052,13 @@
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B161" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="B161" s="7" t="s">
-        <v>335</v>
-      </c>
       <c r="C161" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>17</v>
@@ -5069,13 +5066,13 @@
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B162" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B162" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="C162" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>17</v>
@@ -5083,13 +5080,13 @@
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B163" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="B163" s="18" t="s">
-        <v>339</v>
-      </c>
       <c r="C163" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>12</v>
@@ -5097,13 +5094,13 @@
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B164" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="B164" s="18" t="s">
-        <v>341</v>
-      </c>
       <c r="C164" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>12</v>
@@ -5111,13 +5108,13 @@
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B165" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="B165" s="18" t="s">
-        <v>343</v>
-      </c>
       <c r="C165" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>12</v>
@@ -5125,13 +5122,13 @@
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B166" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="B166" s="18" t="s">
-        <v>345</v>
-      </c>
       <c r="C166" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>12</v>
@@ -5139,13 +5136,13 @@
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B167" s="2" t="s">
-        <v>347</v>
-      </c>
       <c r="C167" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>17</v>
@@ -5153,13 +5150,13 @@
     </row>
     <row r="168" customHeight="1" spans="1:4">
       <c r="A168" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B168" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="B168" s="18" t="s">
-        <v>349</v>
-      </c>
       <c r="C168" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>12</v>
@@ -5167,13 +5164,13 @@
     </row>
     <row r="169" customHeight="1" spans="1:4">
       <c r="A169" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B169" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="C169" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>17</v>
@@ -5181,13 +5178,13 @@
     </row>
     <row r="170" customHeight="1" spans="1:4">
       <c r="A170" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B170" s="2" t="s">
-        <v>353</v>
-      </c>
       <c r="C170" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>17</v>
@@ -5195,13 +5192,13 @@
     </row>
     <row r="171" customHeight="1" spans="1:4">
       <c r="A171" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B171" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="B171" s="18" t="s">
-        <v>355</v>
-      </c>
       <c r="C171" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>17</v>
@@ -5209,10 +5206,10 @@
     </row>
     <row r="172" customHeight="1" spans="1:4">
       <c r="A172" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B172" s="16" t="s">
         <v>356</v>
-      </c>
-      <c r="B172" s="16" t="s">
-        <v>357</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>12</v>
@@ -5220,10 +5217,10 @@
     </row>
     <row r="173" customHeight="1" spans="1:4">
       <c r="A173" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>17</v>
@@ -5231,10 +5228,10 @@
     </row>
     <row r="174" customHeight="1" spans="1:4">
       <c r="A174" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B174" s="16" t="s">
         <v>360</v>
-      </c>
-      <c r="B174" s="16" t="s">
-        <v>361</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>12</v>
@@ -5242,10 +5239,10 @@
     </row>
     <row r="175" customHeight="1" spans="1:4">
       <c r="A175" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>17</v>
@@ -5253,10 +5250,10 @@
     </row>
     <row r="176" customHeight="1" spans="1:4">
       <c r="A176" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>17</v>

--- a/QA/testcases/ORSheet.xlsx
+++ b/QA/testcases/ORSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7740"/>
+    <workbookView windowWidth="27465" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="OR sheet" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525">
   <si>
     <t>OR Name</t>
   </si>
@@ -1013,7 +1013,7 @@
     <t>SSN_TEXT_FIELD</t>
   </si>
   <si>
-    <t>//label[@class = 'col-md-6 control-label']/following-sibling::div/input</t>
+    <t>SSN</t>
   </si>
   <si>
     <t>Provider landing</t>
@@ -1028,13 +1028,13 @@
     <t>FIRST_NAME_FIELD</t>
   </si>
   <si>
-    <t>//label[text()='First Name']/following-sibling::div/input</t>
+    <t>First Name</t>
   </si>
   <si>
     <t>LAST_NAME_FIELD</t>
   </si>
   <si>
-    <t>//label[text()='Last Name']/following-sibling::div/input</t>
+    <t>Last Name</t>
   </si>
   <si>
     <t>DOB_FIELD</t>
@@ -1518,9 +1518,6 @@
   </si>
   <si>
     <t>SSN_FIELD</t>
-  </si>
-  <si>
-    <t>SSN</t>
   </si>
   <si>
     <t>AGREE_TERMS_CONDITIONS</t>
@@ -1726,24 +1723,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1755,10 +1751,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1771,15 +1768,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1794,8 +1797,39 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1810,14 +1844,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1825,9 +1852,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1839,38 +1866,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1933,55 +1930,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1993,19 +1954,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2023,7 +1972,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2035,25 +2026,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2065,19 +2086,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2089,31 +2098,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2127,11 +2124,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2161,6 +2182,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2175,21 +2211,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2200,175 +2221,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="31" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2763,8 +2760,8 @@
   <sheetPr/>
   <dimension ref="A1:H6403"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B155" sqref="B155"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163:B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1428571428571" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -5546,7 +5543,7 @@
         <v>333</v>
       </c>
       <c r="D161" s="20" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E161" s="20"/>
       <c r="F161" s="20"/>
@@ -5575,7 +5572,7 @@
       <c r="A163" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="B163" s="19" t="s">
+      <c r="B163" s="13" t="s">
         <v>337</v>
       </c>
       <c r="C163" s="20" t="s">
@@ -5593,7 +5590,7 @@
       <c r="A164" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="B164" s="19" t="s">
+      <c r="B164" s="13" t="s">
         <v>339</v>
       </c>
       <c r="C164" s="20" t="s">
@@ -7034,7 +7031,7 @@
         <v>500</v>
       </c>
       <c r="B244" s="19" t="s">
-        <v>501</v>
+        <v>332</v>
       </c>
       <c r="C244" s="20" t="s">
         <v>490</v>
@@ -7049,10 +7046,10 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="B245" s="19" t="s">
         <v>502</v>
-      </c>
-      <c r="B245" s="19" t="s">
-        <v>503</v>
       </c>
       <c r="C245" s="20" t="s">
         <v>490</v>
@@ -7067,13 +7064,13 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="B246" s="20" t="s">
         <v>504</v>
       </c>
-      <c r="B246" s="20" t="s">
+      <c r="C246" s="20" t="s">
         <v>505</v>
-      </c>
-      <c r="C246" s="20" t="s">
-        <v>506</v>
       </c>
       <c r="D246" s="20" t="s">
         <v>17</v>
@@ -7085,13 +7082,13 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="19" t="s">
+        <v>506</v>
+      </c>
+      <c r="B247" s="20" t="s">
         <v>507</v>
       </c>
-      <c r="B247" s="20" t="s">
-        <v>508</v>
-      </c>
       <c r="C247" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D247" s="20" t="s">
         <v>17</v>
@@ -7103,13 +7100,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="19" t="s">
+        <v>508</v>
+      </c>
+      <c r="B248" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="B248" s="20" t="s">
-        <v>510</v>
-      </c>
       <c r="C248" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D248" s="20" t="s">
         <v>17</v>
@@ -7121,13 +7118,13 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="19" t="s">
+        <v>510</v>
+      </c>
+      <c r="B249" s="20" t="s">
         <v>511</v>
       </c>
-      <c r="B249" s="20" t="s">
-        <v>512</v>
-      </c>
       <c r="C249" s="20" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D249" s="20" t="s">
         <v>17</v>
@@ -7139,13 +7136,13 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="B250" s="20" t="s">
         <v>513</v>
       </c>
-      <c r="B250" s="20" t="s">
+      <c r="C250" s="20" t="s">
         <v>514</v>
-      </c>
-      <c r="C250" s="20" t="s">
-        <v>515</v>
       </c>
       <c r="D250" s="20" t="s">
         <v>17</v>
@@ -7157,10 +7154,10 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="23" t="s">
+        <v>515</v>
+      </c>
+      <c r="B251" s="24" t="s">
         <v>516</v>
-      </c>
-      <c r="B251" s="24" t="s">
-        <v>517</v>
       </c>
       <c r="C251" s="20" t="s">
         <v>17</v>
@@ -7175,10 +7172,10 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="B252" s="24" t="s">
         <v>518</v>
-      </c>
-      <c r="B252" s="24" t="s">
-        <v>519</v>
       </c>
       <c r="C252" s="20" t="s">
         <v>17</v>
@@ -7193,10 +7190,10 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="B253" s="24" t="s">
         <v>520</v>
-      </c>
-      <c r="B253" s="24" t="s">
-        <v>521</v>
       </c>
       <c r="C253" s="20" t="s">
         <v>17</v>
@@ -7211,10 +7208,10 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="B254" s="24" t="s">
         <v>522</v>
-      </c>
-      <c r="B254" s="24" t="s">
-        <v>523</v>
       </c>
       <c r="C254" s="20"/>
       <c r="D254" s="20"/>
@@ -7225,10 +7222,10 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="23" t="s">
+        <v>523</v>
+      </c>
+      <c r="B255" s="24" t="s">
         <v>524</v>
-      </c>
-      <c r="B255" s="24" t="s">
-        <v>525</v>
       </c>
       <c r="C255" s="20"/>
       <c r="D255" s="20"/>

--- a/QA/testcases/ORSheet.xlsx
+++ b/QA/testcases/ORSheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535">
   <si>
     <t>OR Name</t>
   </si>
@@ -1079,16 +1079,19 @@
     <t>SEARCH_BUTTON_LINK</t>
   </si>
   <si>
+    <t>//span[text()='Search']</t>
+  </si>
+  <si>
+    <t>DOB_DATEPICKER</t>
+  </si>
+  <si>
+    <t>//div[@class='rdtPicker']//table//tr//td[text()='1']</t>
+  </si>
+  <si>
+    <t>SEARCH_PATIENT_NEW</t>
+  </si>
+  <si>
     <t>//button[text()='Search']</t>
-  </si>
-  <si>
-    <t>DOB_DATEPICKER</t>
-  </si>
-  <si>
-    <t>//div[@class='rdtPicker']//table//tr//td[text()='1']</t>
-  </si>
-  <si>
-    <t>SEARCH_PATIENT_NEW</t>
   </si>
   <si>
     <t>CONTACT_ADDRESS_LINE1</t>
@@ -1624,9 +1627,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="41">
@@ -1752,19 +1755,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1772,9 +1768,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1787,60 +1783,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1855,6 +1798,82 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1863,7 +1882,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1872,22 +1891,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1957,13 +1960,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1975,19 +2014,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1999,43 +2038,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2053,19 +2062,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2083,7 +2098,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2095,19 +2122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2119,25 +2134,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2153,11 +2156,57 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2177,63 +2226,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2248,151 +2240,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2787,8 +2790,8 @@
   <sheetPr/>
   <dimension ref="A1:H6405"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1428571428571" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -5763,7 +5766,7 @@
         <v>357</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C171" s="20" t="s">
         <v>340</v>
@@ -5778,10 +5781,10 @@
     </row>
     <row r="172" customHeight="1" spans="1:8">
       <c r="A172" s="19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B172" s="21" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C172" s="20" t="s">
         <v>340</v>
@@ -5796,10 +5799,10 @@
     </row>
     <row r="173" customHeight="1" spans="1:8">
       <c r="A173" s="19" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C173" s="20" t="s">
         <v>340</v>
@@ -5814,10 +5817,10 @@
     </row>
     <row r="174" customHeight="1" spans="1:8">
       <c r="A174" s="19" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B174" s="21" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C174" s="20" t="s">
         <v>340</v>
@@ -5832,10 +5835,10 @@
     </row>
     <row r="175" customHeight="1" spans="1:8">
       <c r="A175" s="19" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C175" s="20" t="s">
         <v>340</v>
@@ -5850,10 +5853,10 @@
     </row>
     <row r="176" customHeight="1" spans="1:8">
       <c r="A176" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B176" s="20" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C176" s="20" t="s">
         <v>340</v>
@@ -5868,10 +5871,10 @@
     </row>
     <row r="177" customHeight="1" spans="1:8">
       <c r="A177" s="19" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C177" s="20" t="s">
         <v>340</v>
@@ -5886,10 +5889,10 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="19" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B178" s="20" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C178" s="20" t="s">
         <v>340</v>
@@ -5904,10 +5907,10 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B179" s="20" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C179" s="20" t="s">
         <v>340</v>
@@ -5922,10 +5925,10 @@
     </row>
     <row r="180" customHeight="1" spans="1:8">
       <c r="A180" s="19" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B180" s="21" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C180" s="20" t="s">
         <v>340</v>
@@ -5940,7 +5943,7 @@
     </row>
     <row r="181" customHeight="1" spans="1:8">
       <c r="A181" s="19" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B181" s="20" t="s">
         <v>271</v>
@@ -5958,10 +5961,10 @@
     </row>
     <row r="182" customHeight="1" spans="1:8">
       <c r="A182" s="19" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B182" s="20" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C182" s="20" t="s">
         <v>340</v>
@@ -5976,10 +5979,10 @@
     </row>
     <row r="183" customHeight="1" spans="1:8">
       <c r="A183" s="19" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B183" s="20" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C183" s="20" t="s">
         <v>340</v>
@@ -5994,10 +5997,10 @@
     </row>
     <row r="184" customHeight="1" spans="1:8">
       <c r="A184" s="19" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B184" s="20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C184" s="20" t="s">
         <v>340</v>
@@ -6012,10 +6015,10 @@
     </row>
     <row r="185" customHeight="1" spans="1:8">
       <c r="A185" s="19" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B185" s="20" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C185" s="20" t="s">
         <v>340</v>
@@ -6030,10 +6033,10 @@
     </row>
     <row r="186" customHeight="1" spans="1:8">
       <c r="A186" s="19" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B186" s="20" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C186" s="20" t="s">
         <v>340</v>
@@ -6048,10 +6051,10 @@
     </row>
     <row r="187" customHeight="1" spans="1:8">
       <c r="A187" s="19" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B187" s="20" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C187" s="20" t="s">
         <v>340</v>
@@ -6066,10 +6069,10 @@
     </row>
     <row r="188" customHeight="1" spans="1:8">
       <c r="A188" s="19" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B188" s="21" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C188" s="20" t="s">
         <v>340</v>
@@ -6084,10 +6087,10 @@
     </row>
     <row r="189" customHeight="1" spans="1:8">
       <c r="A189" s="19" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B189" s="20" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C189" s="20" t="s">
         <v>340</v>
@@ -6102,10 +6105,10 @@
     </row>
     <row r="190" customHeight="1" spans="1:8">
       <c r="A190" s="19" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B190" s="20" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C190" s="20" t="s">
         <v>340</v>
@@ -6120,10 +6123,10 @@
     </row>
     <row r="191" customHeight="1" spans="1:8">
       <c r="A191" s="19" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B191" s="20" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C191" s="20" t="s">
         <v>340</v>
@@ -6138,13 +6141,13 @@
     </row>
     <row r="192" customHeight="1" spans="1:8">
       <c r="A192" s="19" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B192" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D192" s="20" t="s">
         <v>17</v>
@@ -6156,13 +6159,13 @@
     </row>
     <row r="193" customHeight="1" spans="1:8">
       <c r="A193" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="B193" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="C193" s="20" t="s">
         <v>398</v>
-      </c>
-      <c r="B193" s="20" t="s">
-        <v>399</v>
-      </c>
-      <c r="C193" s="20" t="s">
-        <v>397</v>
       </c>
       <c r="D193" s="20" t="s">
         <v>17</v>
@@ -6174,13 +6177,13 @@
     </row>
     <row r="194" customHeight="1" spans="1:8">
       <c r="A194" s="19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B194" s="20" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D194" s="20" t="s">
         <v>17</v>
@@ -6192,13 +6195,13 @@
     </row>
     <row r="195" customHeight="1" spans="1:8">
       <c r="A195" s="19" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B195" s="20" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D195" s="20" t="s">
         <v>17</v>
@@ -6210,13 +6213,13 @@
     </row>
     <row r="196" customHeight="1" spans="1:8">
       <c r="A196" s="19" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B196" s="20" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D196" s="20" t="s">
         <v>17</v>
@@ -6228,13 +6231,13 @@
     </row>
     <row r="197" customHeight="1" spans="1:8">
       <c r="A197" s="19" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B197" s="20" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D197" s="20" t="s">
         <v>17</v>
@@ -6246,13 +6249,13 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="19" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B198" s="20" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D198" s="20" t="s">
         <v>17</v>
@@ -6264,13 +6267,13 @@
     </row>
     <row r="199" customHeight="1" spans="1:8">
       <c r="A199" s="19" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B199" s="20" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C199" s="19" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D199" s="20" t="s">
         <v>17</v>
@@ -6282,13 +6285,13 @@
     </row>
     <row r="200" customHeight="1" spans="1:8">
       <c r="A200" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="B200" s="20" t="s">
+        <v>415</v>
+      </c>
+      <c r="C200" s="19" t="s">
         <v>413</v>
-      </c>
-      <c r="B200" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="C200" s="19" t="s">
-        <v>412</v>
       </c>
       <c r="D200" s="20" t="s">
         <v>17</v>
@@ -6300,13 +6303,13 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="19" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B201" s="20" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C201" s="19" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D201" s="20" t="s">
         <v>17</v>
@@ -6318,13 +6321,13 @@
     </row>
     <row r="202" customHeight="1" spans="1:8">
       <c r="A202" s="19" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C202" s="19" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D202" s="20" t="s">
         <v>17</v>
@@ -6336,13 +6339,13 @@
     </row>
     <row r="203" customHeight="1" spans="1:8">
       <c r="A203" s="19" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B203" s="20" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C203" s="19" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D203" s="20" t="s">
         <v>17</v>
@@ -6354,13 +6357,13 @@
     </row>
     <row r="204" ht="18.75" customHeight="1" spans="1:8">
       <c r="A204" s="19" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B204" s="20" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C204" s="19" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D204" s="20" t="s">
         <v>17</v>
@@ -6372,13 +6375,13 @@
     </row>
     <row r="205" ht="21" customHeight="1" spans="1:8">
       <c r="A205" s="19" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B205" s="20" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C205" s="19" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D205" s="20" t="s">
         <v>17</v>
@@ -6390,13 +6393,13 @@
     </row>
     <row r="206" ht="21" customHeight="1" spans="1:8">
       <c r="A206" s="19" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B206" s="20" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C206" s="20" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D206" s="20" t="s">
         <v>17</v>
@@ -6408,13 +6411,13 @@
     </row>
     <row r="207" ht="21" customHeight="1" spans="1:8">
       <c r="A207" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="B207" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="C207" s="20" t="s">
         <v>428</v>
-      </c>
-      <c r="B207" s="20" t="s">
-        <v>429</v>
-      </c>
-      <c r="C207" s="20" t="s">
-        <v>427</v>
       </c>
       <c r="D207" s="20" t="s">
         <v>17</v>
@@ -6426,13 +6429,13 @@
     </row>
     <row r="208" ht="21" customHeight="1" spans="1:8">
       <c r="A208" s="19" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B208" s="20" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D208" s="20" t="s">
         <v>17</v>
@@ -6444,13 +6447,13 @@
     </row>
     <row r="209" ht="21" customHeight="1" spans="1:8">
       <c r="A209" s="19" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B209" s="20" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C209" s="20" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D209" s="20" t="s">
         <v>17</v>
@@ -6462,13 +6465,13 @@
     </row>
     <row r="210" ht="21" customHeight="1" spans="1:8">
       <c r="A210" s="19" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D210" s="20" t="s">
         <v>17</v>
@@ -6480,13 +6483,13 @@
     </row>
     <row r="211" ht="21" customHeight="1" spans="1:8">
       <c r="A211" s="19" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B211" s="20" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C211" s="20" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D211" s="20" t="s">
         <v>17</v>
@@ -6498,13 +6501,13 @@
     </row>
     <row r="212" ht="21" customHeight="1" spans="1:8">
       <c r="A212" s="19" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B212" s="22" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C212" s="20" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D212" s="20" t="s">
         <v>17</v>
@@ -6516,13 +6519,13 @@
     </row>
     <row r="213" ht="21" customHeight="1" spans="1:8">
       <c r="A213" s="19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B213" s="20" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D213" s="20" t="s">
         <v>17</v>
@@ -6534,13 +6537,13 @@
     </row>
     <row r="214" customHeight="1" spans="1:8">
       <c r="A214" s="19" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B214" s="22" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C214" s="20" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D214" s="20" t="s">
         <v>17</v>
@@ -6552,13 +6555,13 @@
     </row>
     <row r="215" customHeight="1" spans="1:8">
       <c r="A215" s="19" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B215" s="20" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D215" s="20" t="s">
         <v>17</v>
@@ -6570,13 +6573,13 @@
     </row>
     <row r="216" customHeight="1" spans="1:8">
       <c r="A216" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="B216" s="20" t="s">
+        <v>449</v>
+      </c>
+      <c r="C216" s="20" t="s">
         <v>447</v>
-      </c>
-      <c r="B216" s="20" t="s">
-        <v>448</v>
-      </c>
-      <c r="C216" s="20" t="s">
-        <v>446</v>
       </c>
       <c r="D216" s="20" t="s">
         <v>17</v>
@@ -6588,13 +6591,13 @@
     </row>
     <row r="217" customHeight="1" spans="1:8">
       <c r="A217" s="19" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B217" s="20" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D217" s="20" t="s">
         <v>17</v>
@@ -6606,13 +6609,13 @@
     </row>
     <row r="218" customHeight="1" spans="1:8">
       <c r="A218" s="19" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B218" s="20" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C218" s="20" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D218" s="20" t="s">
         <v>17</v>
@@ -6624,13 +6627,13 @@
     </row>
     <row r="219" customHeight="1" spans="1:8">
       <c r="A219" s="19" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B219" s="20" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C219" s="20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D219" s="20" t="s">
         <v>17</v>
@@ -6642,13 +6645,13 @@
     </row>
     <row r="220" customHeight="1" spans="1:8">
       <c r="A220" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="B220" s="20" t="s">
+        <v>458</v>
+      </c>
+      <c r="C220" s="20" t="s">
         <v>456</v>
-      </c>
-      <c r="B220" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="C220" s="20" t="s">
-        <v>455</v>
       </c>
       <c r="D220" s="20" t="s">
         <v>17</v>
@@ -6660,13 +6663,13 @@
     </row>
     <row r="221" customHeight="1" spans="1:8">
       <c r="A221" s="19" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B221" s="20" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C221" s="20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D221" s="20" t="s">
         <v>17</v>
@@ -6678,13 +6681,13 @@
     </row>
     <row r="222" customHeight="1" spans="1:8">
       <c r="A222" s="19" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B222" s="20" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C222" s="20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D222" s="20" t="s">
         <v>17</v>
@@ -6696,13 +6699,13 @@
     </row>
     <row r="223" customHeight="1" spans="1:8">
       <c r="A223" s="19" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B223" s="20" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C223" s="20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D223" s="20" t="s">
         <v>17</v>
@@ -6714,13 +6717,13 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="19" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B224" s="20" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D224" s="20" t="s">
         <v>17</v>
@@ -6732,13 +6735,13 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="19" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B225" s="20" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D225" s="20" t="s">
         <v>17</v>
@@ -6750,13 +6753,13 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="19" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B226" s="20" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C226" s="20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D226" s="20" t="s">
         <v>17</v>
@@ -6768,13 +6771,13 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="19" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B227" s="20" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D227" s="20" t="s">
         <v>17</v>
@@ -6786,13 +6789,13 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="19" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B228" s="20" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D228" s="20" t="s">
         <v>17</v>
@@ -6804,13 +6807,13 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" s="19" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B229" s="20" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D229" s="20" t="s">
         <v>17</v>
@@ -6822,13 +6825,13 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" s="19" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B230" s="20" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C230" s="20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D230" s="20" t="s">
         <v>17</v>
@@ -6840,13 +6843,13 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" s="19" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B231" s="20" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D231" s="20" t="s">
         <v>17</v>
@@ -6858,13 +6861,13 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" s="19" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B232" s="20" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C232" s="20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D232" s="20" t="s">
         <v>17</v>
@@ -6876,13 +6879,13 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="19" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B233" s="20" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D233" s="20" t="s">
         <v>17</v>
@@ -6894,13 +6897,13 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="19" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B234" s="20" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C234" s="20" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D234" s="20" t="s">
         <v>17</v>
@@ -6912,13 +6915,13 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="19" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B235" s="20" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D235" s="20" t="s">
         <v>17</v>
@@ -6930,13 +6933,13 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="B236" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="C236" s="20" t="s">
         <v>489</v>
-      </c>
-      <c r="B236" s="20" t="s">
-        <v>490</v>
-      </c>
-      <c r="C236" s="20" t="s">
-        <v>488</v>
       </c>
       <c r="D236" s="20" t="s">
         <v>17</v>
@@ -6948,13 +6951,13 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="19" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B237" s="20" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D237" s="20" t="s">
         <v>17</v>
@@ -6966,13 +6969,13 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="19" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B238" s="20" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C238" s="20" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D238" s="20" t="s">
         <v>17</v>
@@ -6984,13 +6987,13 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="19" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B239" s="20" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C239" s="20" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D239" s="20" t="s">
         <v>17</v>
@@ -7002,13 +7005,13 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="19" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B240" s="20" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C240" s="20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D240" s="20" t="s">
         <v>17</v>
@@ -7020,13 +7023,13 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="19" t="s">
+        <v>501</v>
+      </c>
+      <c r="B241" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="C241" s="20" t="s">
         <v>500</v>
-      </c>
-      <c r="B241" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="C241" s="20" t="s">
-        <v>499</v>
       </c>
       <c r="D241" s="20" t="s">
         <v>17</v>
@@ -7038,13 +7041,13 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="19" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B242" s="20" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C242" s="20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D242" s="20" t="s">
         <v>17</v>
@@ -7056,13 +7059,13 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" s="19" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B243" s="20" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D243" s="20" t="s">
         <v>17</v>
@@ -7074,13 +7077,13 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="19" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B244" s="20" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C244" s="20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D244" s="20" t="s">
         <v>17</v>
@@ -7092,13 +7095,13 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="19" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B245" s="20" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D245" s="20" t="s">
         <v>17</v>
@@ -7110,13 +7113,13 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="19" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B246" s="19" t="s">
         <v>343</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D246" s="20" t="s">
         <v>12</v>
@@ -7128,13 +7131,13 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="19" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B247" s="19" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C247" s="20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D247" s="20" t="s">
         <v>17</v>
@@ -7146,13 +7149,13 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="19" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B248" s="20" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C248" s="20" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D248" s="20" t="s">
         <v>17</v>
@@ -7164,13 +7167,13 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="B249" s="20" t="s">
+        <v>517</v>
+      </c>
+      <c r="C249" s="20" t="s">
         <v>515</v>
-      </c>
-      <c r="B249" s="20" t="s">
-        <v>516</v>
-      </c>
-      <c r="C249" s="20" t="s">
-        <v>514</v>
       </c>
       <c r="D249" s="20" t="s">
         <v>17</v>
@@ -7182,13 +7185,13 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="19" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B250" s="20" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D250" s="20" t="s">
         <v>17</v>
@@ -7200,13 +7203,13 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="19" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D251" s="20" t="s">
         <v>17</v>
@@ -7218,13 +7221,13 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="23" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B252" s="20" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C252" s="20" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D252" s="20" t="s">
         <v>17</v>
@@ -7236,10 +7239,10 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="23" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B253" s="24" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C253" s="20" t="s">
         <v>17</v>
@@ -7254,10 +7257,10 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="23" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B254" s="24" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C254" s="20" t="s">
         <v>17</v>
@@ -7272,10 +7275,10 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="23" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B255" s="24" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C255" s="20" t="s">
         <v>17</v>
@@ -7290,10 +7293,10 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="23" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B256" s="24" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C256" s="20"/>
       <c r="D256" s="20"/>
@@ -7304,10 +7307,10 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="23" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B257" s="24" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C257" s="20"/>
       <c r="D257" s="20"/>

--- a/QA/testcases/ORSheet.xlsx
+++ b/QA/testcases/ORSheet.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534">
   <si>
     <t>OR Name</t>
   </si>
@@ -1040,6 +1040,12 @@
     <t>Provider landing</t>
   </si>
   <si>
+    <t>SEARCH_PATIENT_NEW</t>
+  </si>
+  <si>
+    <t>//button[text()='Search']</t>
+  </si>
+  <si>
     <t>Create Patient - Provider</t>
   </si>
   <si>
@@ -1079,19 +1085,10 @@
     <t>SEARCH_BUTTON_LINK</t>
   </si>
   <si>
-    <t>//span[text()='Search']</t>
-  </si>
-  <si>
     <t>DOB_DATEPICKER</t>
   </si>
   <si>
     <t>//div[@class='rdtPicker']//table//tr//td[text()='1']</t>
-  </si>
-  <si>
-    <t>SEARCH_PATIENT_NEW</t>
-  </si>
-  <si>
-    <t>//button[text()='Search']</t>
   </si>
   <si>
     <t>CONTACT_ADDRESS_LINE1</t>
@@ -1627,9 +1624,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="41">
@@ -1664,12 +1661,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
     </font>
@@ -1752,6 +1749,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1759,8 +1764,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1774,39 +1796,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1834,9 +1832,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1850,9 +1877,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1861,43 +1895,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1960,7 +1957,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1972,7 +1975,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1984,37 +2041,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2026,121 +2131,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2156,17 +2153,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2183,6 +2173,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2207,6 +2206,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2240,159 +2248,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2428,9 +2425,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2790,8 +2787,8 @@
   <sheetPr/>
   <dimension ref="A1:H6405"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="B169" sqref="B169"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1428571428571" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
@@ -5609,1725 +5606,1725 @@
       <c r="A162" s="18" t="s">
         <v>341</v>
       </c>
-      <c r="B162" s="19"/>
-      <c r="C162" s="20"/>
-      <c r="D162" s="20"/>
-      <c r="E162" s="20"/>
-      <c r="F162" s="20"/>
-      <c r="G162" s="20"/>
-      <c r="H162" s="20"/>
+      <c r="B162" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="C162" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D162" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E162" s="19"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="19"/>
     </row>
     <row r="163" customHeight="1" spans="1:8">
-      <c r="A163" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="B163" s="19" t="s">
+      <c r="A163" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="C163" s="20" t="s">
+      <c r="B163" s="18"/>
+      <c r="C163" s="19"/>
+      <c r="D163" s="19"/>
+      <c r="E163" s="19"/>
+      <c r="F163" s="19"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="19"/>
+    </row>
+    <row r="164" customHeight="1" spans="1:8">
+      <c r="A164" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="B164" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="C164" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D163" s="20" t="s">
+      <c r="D164" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E163" s="20"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
-      <c r="H163" s="20"/>
-    </row>
-    <row r="164" customHeight="1" spans="1:8">
-      <c r="A164" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="B164" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="C164" s="20" t="s">
+      <c r="E164" s="19"/>
+      <c r="F164" s="19"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="19"/>
+    </row>
+    <row r="165" customHeight="1" spans="1:8">
+      <c r="A165" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="B165" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="C165" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D164" s="20" t="s">
+      <c r="D165" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E164" s="20"/>
-      <c r="F164" s="20"/>
-      <c r="G164" s="20"/>
-      <c r="H164" s="20"/>
-    </row>
-    <row r="165" customHeight="1" spans="1:8">
-      <c r="A165" s="19" t="s">
-        <v>346</v>
-      </c>
-      <c r="B165" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="C165" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="D165" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E165" s="20"/>
-      <c r="F165" s="20"/>
-      <c r="G165" s="20"/>
-      <c r="H165" s="20"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="19"/>
     </row>
     <row r="166" customHeight="1" spans="1:8">
-      <c r="A166" s="19" t="s">
+      <c r="A166" s="18" t="s">
         <v>348</v>
       </c>
       <c r="B166" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="C166" s="20" t="s">
+      <c r="C166" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D166" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E166" s="20"/>
-      <c r="F166" s="20"/>
-      <c r="G166" s="20"/>
-      <c r="H166" s="20"/>
+      <c r="D166" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E166" s="19"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
     </row>
     <row r="167" customHeight="1" spans="1:8">
-      <c r="A167" s="19" t="s">
+      <c r="A167" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="B167" s="19" t="s">
+      <c r="B167" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="C167" s="20" t="s">
+      <c r="C167" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D167" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E167" s="20"/>
-      <c r="F167" s="20"/>
-      <c r="G167" s="20"/>
-      <c r="H167" s="20"/>
+      <c r="D167" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="19"/>
+      <c r="F167" s="19"/>
+      <c r="G167" s="19"/>
+      <c r="H167" s="19"/>
     </row>
     <row r="168" customHeight="1" spans="1:8">
-      <c r="A168" s="19" t="s">
+      <c r="A168" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="B168" s="19" t="s">
+      <c r="B168" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C168" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D168" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E168" s="19"/>
+      <c r="F168" s="19"/>
+      <c r="G168" s="19"/>
+      <c r="H168" s="19"/>
+    </row>
+    <row r="169" customHeight="1" spans="1:8">
+      <c r="A169" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="B169" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="C168" s="20" t="s">
+      <c r="C169" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D168" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E168" s="20"/>
-      <c r="F168" s="20"/>
-      <c r="G168" s="20"/>
-      <c r="H168" s="20"/>
-    </row>
-    <row r="169" customHeight="1" spans="1:8">
-      <c r="A169" s="19" t="s">
-        <v>353</v>
-      </c>
-      <c r="B169" s="19" t="s">
-        <v>354</v>
-      </c>
-      <c r="C169" s="20" t="s">
+      <c r="D169" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E169" s="19"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="19"/>
+    </row>
+    <row r="170" customHeight="1" spans="1:8">
+      <c r="A170" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="B170" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="C170" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D169" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E169" s="20"/>
-      <c r="F169" s="20"/>
-      <c r="G169" s="20"/>
-      <c r="H169" s="20"/>
-    </row>
-    <row r="170" customHeight="1" spans="1:8">
-      <c r="A170" s="19" t="s">
-        <v>355</v>
-      </c>
-      <c r="B170" s="19" t="s">
+      <c r="D170" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E170" s="19"/>
+      <c r="F170" s="19"/>
+      <c r="G170" s="19"/>
+      <c r="H170" s="19"/>
+    </row>
+    <row r="171" ht="17.25" customHeight="1" spans="1:8">
+      <c r="A171" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="C170" s="20" t="s">
+      <c r="B171" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="C171" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D170" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E170" s="20"/>
-      <c r="F170" s="20"/>
-      <c r="G170" s="20"/>
-      <c r="H170" s="20"/>
-    </row>
-    <row r="171" ht="17.25" customHeight="1" spans="1:8">
-      <c r="A171" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="B171" s="19" t="s">
+      <c r="D171" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E171" s="19"/>
+      <c r="F171" s="19"/>
+      <c r="G171" s="19"/>
+      <c r="H171" s="19"/>
+    </row>
+    <row r="172" customHeight="1" spans="1:8">
+      <c r="A172" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="C171" s="20" t="s">
+      <c r="B172" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="C172" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D171" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E171" s="20"/>
-      <c r="F171" s="20"/>
-      <c r="G171" s="20"/>
-      <c r="H171" s="20"/>
-    </row>
-    <row r="172" customHeight="1" spans="1:8">
-      <c r="A172" s="19" t="s">
-        <v>359</v>
-      </c>
-      <c r="B172" s="21" t="s">
+      <c r="D172" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172" s="19"/>
+      <c r="F172" s="19"/>
+      <c r="G172" s="19"/>
+      <c r="H172" s="19"/>
+    </row>
+    <row r="173" customHeight="1" spans="1:8">
+      <c r="A173" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="C172" s="20" t="s">
+      <c r="B173" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="C173" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D172" s="20" t="s">
+      <c r="D173" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E172" s="20"/>
-      <c r="F172" s="20"/>
-      <c r="G172" s="20"/>
-      <c r="H172" s="20"/>
-    </row>
-    <row r="173" customHeight="1" spans="1:8">
-      <c r="A173" s="19" t="s">
-        <v>361</v>
-      </c>
-      <c r="B173" s="21" t="s">
+      <c r="E173" s="19"/>
+      <c r="F173" s="19"/>
+      <c r="G173" s="19"/>
+      <c r="H173" s="19"/>
+    </row>
+    <row r="174" customHeight="1" spans="1:8">
+      <c r="A174" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="C173" s="20" t="s">
+      <c r="B174" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="C174" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D173" s="20" t="s">
+      <c r="D174" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E173" s="20"/>
-      <c r="F173" s="20"/>
-      <c r="G173" s="20"/>
-      <c r="H173" s="20"/>
-    </row>
-    <row r="174" customHeight="1" spans="1:8">
-      <c r="A174" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="B174" s="21" t="s">
+      <c r="E174" s="19"/>
+      <c r="F174" s="19"/>
+      <c r="G174" s="19"/>
+      <c r="H174" s="19"/>
+    </row>
+    <row r="175" customHeight="1" spans="1:8">
+      <c r="A175" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="C174" s="20" t="s">
+      <c r="B175" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="C175" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D174" s="20" t="s">
+      <c r="D175" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E174" s="20"/>
-      <c r="F174" s="20"/>
-      <c r="G174" s="20"/>
-      <c r="H174" s="20"/>
-    </row>
-    <row r="175" customHeight="1" spans="1:8">
-      <c r="A175" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="B175" s="21" t="s">
+      <c r="E175" s="19"/>
+      <c r="F175" s="19"/>
+      <c r="G175" s="19"/>
+      <c r="H175" s="19"/>
+    </row>
+    <row r="176" customHeight="1" spans="1:8">
+      <c r="A176" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="C175" s="20" t="s">
+      <c r="B176" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="C176" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D175" s="20" t="s">
+      <c r="D176" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E176" s="19"/>
+      <c r="F176" s="19"/>
+      <c r="G176" s="19"/>
+      <c r="H176" s="19"/>
+    </row>
+    <row r="177" customHeight="1" spans="1:8">
+      <c r="A177" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="B177" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="C177" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D177" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E175" s="20"/>
-      <c r="F175" s="20"/>
-      <c r="G175" s="20"/>
-      <c r="H175" s="20"/>
-    </row>
-    <row r="176" customHeight="1" spans="1:8">
-      <c r="A176" s="19" t="s">
-        <v>367</v>
-      </c>
-      <c r="B176" s="20" t="s">
-        <v>368</v>
-      </c>
-      <c r="C176" s="20" t="s">
+      <c r="E177" s="19"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="19"/>
+      <c r="H177" s="19"/>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="B178" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="C178" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D176" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E176" s="20"/>
-      <c r="F176" s="20"/>
-      <c r="G176" s="20"/>
-      <c r="H176" s="20"/>
-    </row>
-    <row r="177" customHeight="1" spans="1:8">
-      <c r="A177" s="19" t="s">
-        <v>369</v>
-      </c>
-      <c r="B177" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="C177" s="20" t="s">
+      <c r="D178" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="19"/>
+      <c r="F178" s="19"/>
+      <c r="G178" s="19"/>
+      <c r="H178" s="19"/>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="B179" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="C179" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D177" s="20" t="s">
+      <c r="D179" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E179" s="19"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="19"/>
+    </row>
+    <row r="180" customHeight="1" spans="1:8">
+      <c r="A180" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="B180" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="C180" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D180" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E180" s="19"/>
+      <c r="F180" s="19"/>
+      <c r="G180" s="19"/>
+      <c r="H180" s="19"/>
+    </row>
+    <row r="181" customHeight="1" spans="1:8">
+      <c r="A181" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="B181" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C181" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D181" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E181" s="19"/>
+      <c r="F181" s="19"/>
+      <c r="G181" s="19"/>
+      <c r="H181" s="19"/>
+    </row>
+    <row r="182" customHeight="1" spans="1:8">
+      <c r="A182" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="B182" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="C182" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D182" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E182" s="19"/>
+      <c r="F182" s="19"/>
+      <c r="G182" s="19"/>
+      <c r="H182" s="19"/>
+    </row>
+    <row r="183" customHeight="1" spans="1:8">
+      <c r="A183" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B183" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C183" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D183" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E183" s="19"/>
+      <c r="F183" s="19"/>
+      <c r="G183" s="19"/>
+      <c r="H183" s="19"/>
+    </row>
+    <row r="184" customHeight="1" spans="1:8">
+      <c r="A184" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="B184" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="C184" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D184" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E184" s="19"/>
+      <c r="F184" s="19"/>
+      <c r="G184" s="19"/>
+      <c r="H184" s="19"/>
+    </row>
+    <row r="185" customHeight="1" spans="1:8">
+      <c r="A185" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="B185" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="C185" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D185" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E185" s="19"/>
+      <c r="F185" s="19"/>
+      <c r="G185" s="19"/>
+      <c r="H185" s="19"/>
+    </row>
+    <row r="186" customHeight="1" spans="1:8">
+      <c r="A186" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="B186" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="C186" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D186" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E186" s="19"/>
+      <c r="F186" s="19"/>
+      <c r="G186" s="19"/>
+      <c r="H186" s="19"/>
+    </row>
+    <row r="187" customHeight="1" spans="1:8">
+      <c r="A187" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="B187" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="C187" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D187" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E187" s="19"/>
+      <c r="F187" s="19"/>
+      <c r="G187" s="19"/>
+      <c r="H187" s="19"/>
+    </row>
+    <row r="188" customHeight="1" spans="1:8">
+      <c r="A188" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="B188" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="C188" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D188" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E177" s="20"/>
-      <c r="F177" s="20"/>
-      <c r="G177" s="20"/>
-      <c r="H177" s="20"/>
-    </row>
-    <row r="178" spans="1:8">
-      <c r="A178" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="B178" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="C178" s="20" t="s">
+      <c r="E188" s="19"/>
+      <c r="F188" s="19"/>
+      <c r="G188" s="19"/>
+      <c r="H188" s="19"/>
+    </row>
+    <row r="189" customHeight="1" spans="1:8">
+      <c r="A189" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="B189" s="19" t="s">
+        <v>391</v>
+      </c>
+      <c r="C189" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D178" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E178" s="20"/>
-      <c r="F178" s="20"/>
-      <c r="G178" s="20"/>
-      <c r="H178" s="20"/>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="B179" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="C179" s="20" t="s">
+      <c r="D189" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" s="19"/>
+      <c r="F189" s="19"/>
+      <c r="G189" s="19"/>
+      <c r="H189" s="19"/>
+    </row>
+    <row r="190" customHeight="1" spans="1:8">
+      <c r="A190" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="B190" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="C190" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D179" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E179" s="20"/>
-      <c r="F179" s="20"/>
-      <c r="G179" s="20"/>
-      <c r="H179" s="20"/>
-    </row>
-    <row r="180" customHeight="1" spans="1:8">
-      <c r="A180" s="19" t="s">
-        <v>375</v>
-      </c>
-      <c r="B180" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="C180" s="20" t="s">
+      <c r="D190" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E190" s="19"/>
+      <c r="F190" s="19"/>
+      <c r="G190" s="19"/>
+      <c r="H190" s="19"/>
+    </row>
+    <row r="191" customHeight="1" spans="1:8">
+      <c r="A191" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="B191" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="C191" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="D180" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E180" s="20"/>
-      <c r="F180" s="20"/>
-      <c r="G180" s="20"/>
-      <c r="H180" s="20"/>
-    </row>
-    <row r="181" customHeight="1" spans="1:8">
-      <c r="A181" s="19" t="s">
-        <v>377</v>
-      </c>
-      <c r="B181" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="C181" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="D181" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E181" s="20"/>
-      <c r="F181" s="20"/>
-      <c r="G181" s="20"/>
-      <c r="H181" s="20"/>
-    </row>
-    <row r="182" customHeight="1" spans="1:8">
-      <c r="A182" s="19" t="s">
-        <v>378</v>
-      </c>
-      <c r="B182" s="20" t="s">
-        <v>379</v>
-      </c>
-      <c r="C182" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="D182" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E182" s="20"/>
-      <c r="F182" s="20"/>
-      <c r="G182" s="20"/>
-      <c r="H182" s="20"/>
-    </row>
-    <row r="183" customHeight="1" spans="1:8">
-      <c r="A183" s="19" t="s">
-        <v>380</v>
-      </c>
-      <c r="B183" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="C183" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="D183" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E183" s="20"/>
-      <c r="F183" s="20"/>
-      <c r="G183" s="20"/>
-      <c r="H183" s="20"/>
-    </row>
-    <row r="184" customHeight="1" spans="1:8">
-      <c r="A184" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="B184" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="C184" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="D184" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E184" s="20"/>
-      <c r="F184" s="20"/>
-      <c r="G184" s="20"/>
-      <c r="H184" s="20"/>
-    </row>
-    <row r="185" customHeight="1" spans="1:8">
-      <c r="A185" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="B185" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="C185" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="D185" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E185" s="20"/>
-      <c r="F185" s="20"/>
-      <c r="G185" s="20"/>
-      <c r="H185" s="20"/>
-    </row>
-    <row r="186" customHeight="1" spans="1:8">
-      <c r="A186" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="B186" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="C186" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="D186" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E186" s="20"/>
-      <c r="F186" s="20"/>
-      <c r="G186" s="20"/>
-      <c r="H186" s="20"/>
-    </row>
-    <row r="187" customHeight="1" spans="1:8">
-      <c r="A187" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="B187" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="C187" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="D187" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E187" s="20"/>
-      <c r="F187" s="20"/>
-      <c r="G187" s="20"/>
-      <c r="H187" s="20"/>
-    </row>
-    <row r="188" customHeight="1" spans="1:8">
-      <c r="A188" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="B188" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="C188" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="D188" s="20" t="s">
+      <c r="D191" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E191" s="19"/>
+      <c r="F191" s="19"/>
+      <c r="G191" s="19"/>
+      <c r="H191" s="19"/>
+    </row>
+    <row r="192" customHeight="1" spans="1:8">
+      <c r="A192" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="B192" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C192" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="D192" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E192" s="19"/>
+      <c r="F192" s="19"/>
+      <c r="G192" s="19"/>
+      <c r="H192" s="19"/>
+    </row>
+    <row r="193" customHeight="1" spans="1:8">
+      <c r="A193" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="B193" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="C193" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="D193" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E193" s="19"/>
+      <c r="F193" s="19"/>
+      <c r="G193" s="19"/>
+      <c r="H193" s="19"/>
+    </row>
+    <row r="194" customHeight="1" spans="1:8">
+      <c r="A194" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="B194" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="C194" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="D194" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E194" s="19"/>
+      <c r="F194" s="19"/>
+      <c r="G194" s="19"/>
+      <c r="H194" s="19"/>
+    </row>
+    <row r="195" customHeight="1" spans="1:8">
+      <c r="A195" s="18" t="s">
+        <v>402</v>
+      </c>
+      <c r="B195" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="C195" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="D195" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E195" s="19"/>
+      <c r="F195" s="19"/>
+      <c r="G195" s="19"/>
+      <c r="H195" s="19"/>
+    </row>
+    <row r="196" customHeight="1" spans="1:8">
+      <c r="A196" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="B196" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="C196" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="D196" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E196" s="19"/>
+      <c r="F196" s="19"/>
+      <c r="G196" s="19"/>
+      <c r="H196" s="19"/>
+    </row>
+    <row r="197" customHeight="1" spans="1:8">
+      <c r="A197" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="B197" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="C197" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="D197" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E197" s="19"/>
+      <c r="F197" s="19"/>
+      <c r="G197" s="19"/>
+      <c r="H197" s="19"/>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="B198" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="C198" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="D198" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E198" s="19"/>
+      <c r="F198" s="19"/>
+      <c r="G198" s="19"/>
+      <c r="H198" s="19"/>
+    </row>
+    <row r="199" customHeight="1" spans="1:8">
+      <c r="A199" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="B199" s="19" t="s">
+        <v>411</v>
+      </c>
+      <c r="C199" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="D199" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E199" s="19"/>
+      <c r="F199" s="19"/>
+      <c r="G199" s="19"/>
+      <c r="H199" s="19"/>
+    </row>
+    <row r="200" customHeight="1" spans="1:8">
+      <c r="A200" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="B200" s="19" t="s">
+        <v>414</v>
+      </c>
+      <c r="C200" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="D200" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E200" s="19"/>
+      <c r="F200" s="19"/>
+      <c r="G200" s="19"/>
+      <c r="H200" s="19"/>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="B201" s="19" t="s">
+        <v>416</v>
+      </c>
+      <c r="C201" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="D201" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E201" s="19"/>
+      <c r="F201" s="19"/>
+      <c r="G201" s="19"/>
+      <c r="H201" s="19"/>
+    </row>
+    <row r="202" customHeight="1" spans="1:8">
+      <c r="A202" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="B202" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="C202" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="D202" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E202" s="19"/>
+      <c r="F202" s="19"/>
+      <c r="G202" s="19"/>
+      <c r="H202" s="19"/>
+    </row>
+    <row r="203" customHeight="1" spans="1:8">
+      <c r="A203" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="B203" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="C203" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="D203" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E203" s="19"/>
+      <c r="F203" s="19"/>
+      <c r="G203" s="19"/>
+      <c r="H203" s="19"/>
+    </row>
+    <row r="204" ht="18.75" customHeight="1" spans="1:8">
+      <c r="A204" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="B204" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="C204" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="D204" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E204" s="19"/>
+      <c r="F204" s="19"/>
+      <c r="G204" s="19"/>
+      <c r="H204" s="19"/>
+    </row>
+    <row r="205" ht="21" customHeight="1" spans="1:8">
+      <c r="A205" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="B205" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="C205" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="D205" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E205" s="19"/>
+      <c r="F205" s="19"/>
+      <c r="G205" s="19"/>
+      <c r="H205" s="19"/>
+    </row>
+    <row r="206" ht="21" customHeight="1" spans="1:8">
+      <c r="A206" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="B206" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="C206" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="D206" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E206" s="19"/>
+      <c r="F206" s="19"/>
+      <c r="G206" s="19"/>
+      <c r="H206" s="19"/>
+    </row>
+    <row r="207" ht="21" customHeight="1" spans="1:8">
+      <c r="A207" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="B207" s="19" t="s">
+        <v>429</v>
+      </c>
+      <c r="C207" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="D207" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E207" s="19"/>
+      <c r="F207" s="19"/>
+      <c r="G207" s="19"/>
+      <c r="H207" s="19"/>
+    </row>
+    <row r="208" ht="21" customHeight="1" spans="1:8">
+      <c r="A208" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="B208" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="C208" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="D208" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E208" s="19"/>
+      <c r="F208" s="19"/>
+      <c r="G208" s="19"/>
+      <c r="H208" s="19"/>
+    </row>
+    <row r="209" ht="21" customHeight="1" spans="1:8">
+      <c r="A209" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="B209" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="C209" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="D209" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E209" s="19"/>
+      <c r="F209" s="19"/>
+      <c r="G209" s="19"/>
+      <c r="H209" s="19"/>
+    </row>
+    <row r="210" ht="21" customHeight="1" spans="1:8">
+      <c r="A210" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="B210" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="C210" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="D210" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E210" s="19"/>
+      <c r="F210" s="19"/>
+      <c r="G210" s="19"/>
+      <c r="H210" s="19"/>
+    </row>
+    <row r="211" ht="21" customHeight="1" spans="1:8">
+      <c r="A211" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="B211" s="19" t="s">
+        <v>437</v>
+      </c>
+      <c r="C211" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="D211" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E211" s="19"/>
+      <c r="F211" s="19"/>
+      <c r="G211" s="19"/>
+      <c r="H211" s="19"/>
+    </row>
+    <row r="212" ht="21" customHeight="1" spans="1:8">
+      <c r="A212" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="B212" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="C212" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="D212" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E212" s="19"/>
+      <c r="F212" s="19"/>
+      <c r="G212" s="19"/>
+      <c r="H212" s="19"/>
+    </row>
+    <row r="213" ht="21" customHeight="1" spans="1:8">
+      <c r="A213" s="18" t="s">
+        <v>440</v>
+      </c>
+      <c r="B213" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="C213" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="D213" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E213" s="19"/>
+      <c r="F213" s="19"/>
+      <c r="G213" s="19"/>
+      <c r="H213" s="19"/>
+    </row>
+    <row r="214" customHeight="1" spans="1:8">
+      <c r="A214" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="B214" s="22" t="s">
+        <v>443</v>
+      </c>
+      <c r="C214" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="D214" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E214" s="19"/>
+      <c r="F214" s="19"/>
+      <c r="G214" s="19"/>
+      <c r="H214" s="19"/>
+    </row>
+    <row r="215" customHeight="1" spans="1:8">
+      <c r="A215" s="18" t="s">
+        <v>444</v>
+      </c>
+      <c r="B215" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="C215" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="D215" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E215" s="19"/>
+      <c r="F215" s="19"/>
+      <c r="G215" s="19"/>
+      <c r="H215" s="19"/>
+    </row>
+    <row r="216" customHeight="1" spans="1:8">
+      <c r="A216" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="B216" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="C216" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="D216" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E216" s="19"/>
+      <c r="F216" s="19"/>
+      <c r="G216" s="19"/>
+      <c r="H216" s="19"/>
+    </row>
+    <row r="217" customHeight="1" spans="1:8">
+      <c r="A217" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="B217" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="C217" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="D217" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E217" s="19"/>
+      <c r="F217" s="19"/>
+      <c r="G217" s="19"/>
+      <c r="H217" s="19"/>
+    </row>
+    <row r="218" customHeight="1" spans="1:8">
+      <c r="A218" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="B218" s="19" t="s">
+        <v>452</v>
+      </c>
+      <c r="C218" s="19" t="s">
+        <v>446</v>
+      </c>
+      <c r="D218" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E218" s="19"/>
+      <c r="F218" s="19"/>
+      <c r="G218" s="19"/>
+      <c r="H218" s="19"/>
+    </row>
+    <row r="219" customHeight="1" spans="1:8">
+      <c r="A219" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="B219" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="C219" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D219" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E219" s="19"/>
+      <c r="F219" s="19"/>
+      <c r="G219" s="19"/>
+      <c r="H219" s="19"/>
+    </row>
+    <row r="220" customHeight="1" spans="1:8">
+      <c r="A220" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="B220" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="C220" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D220" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E220" s="19"/>
+      <c r="F220" s="19"/>
+      <c r="G220" s="19"/>
+      <c r="H220" s="19"/>
+    </row>
+    <row r="221" customHeight="1" spans="1:8">
+      <c r="A221" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="B221" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="C221" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D221" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E221" s="19"/>
+      <c r="F221" s="19"/>
+      <c r="G221" s="19"/>
+      <c r="H221" s="19"/>
+    </row>
+    <row r="222" customHeight="1" spans="1:8">
+      <c r="A222" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="B222" s="19" t="s">
+        <v>461</v>
+      </c>
+      <c r="C222" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D222" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E222" s="19"/>
+      <c r="F222" s="19"/>
+      <c r="G222" s="19"/>
+      <c r="H222" s="19"/>
+    </row>
+    <row r="223" customHeight="1" spans="1:8">
+      <c r="A223" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="B223" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="C223" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D223" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E223" s="19"/>
+      <c r="F223" s="19"/>
+      <c r="G223" s="19"/>
+      <c r="H223" s="19"/>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="B224" s="19" t="s">
+        <v>465</v>
+      </c>
+      <c r="C224" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D224" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E224" s="19"/>
+      <c r="F224" s="19"/>
+      <c r="G224" s="19"/>
+      <c r="H224" s="19"/>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="B225" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="C225" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D225" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E225" s="19"/>
+      <c r="F225" s="19"/>
+      <c r="G225" s="19"/>
+      <c r="H225" s="19"/>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="B226" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="C226" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D226" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E226" s="19"/>
+      <c r="F226" s="19"/>
+      <c r="G226" s="19"/>
+      <c r="H226" s="19"/>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="B227" s="19" t="s">
+        <v>471</v>
+      </c>
+      <c r="C227" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D227" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E227" s="19"/>
+      <c r="F227" s="19"/>
+      <c r="G227" s="19"/>
+      <c r="H227" s="19"/>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="B228" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="C228" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D228" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E228" s="19"/>
+      <c r="F228" s="19"/>
+      <c r="G228" s="19"/>
+      <c r="H228" s="19"/>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="B229" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="C229" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D229" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E229" s="19"/>
+      <c r="F229" s="19"/>
+      <c r="G229" s="19"/>
+      <c r="H229" s="19"/>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="B230" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="C230" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D230" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E230" s="19"/>
+      <c r="F230" s="19"/>
+      <c r="G230" s="19"/>
+      <c r="H230" s="19"/>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="B231" s="19" t="s">
+        <v>479</v>
+      </c>
+      <c r="C231" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D231" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E231" s="19"/>
+      <c r="F231" s="19"/>
+      <c r="G231" s="19"/>
+      <c r="H231" s="19"/>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="B232" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="C232" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D232" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E232" s="19"/>
+      <c r="F232" s="19"/>
+      <c r="G232" s="19"/>
+      <c r="H232" s="19"/>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="B233" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="C233" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="D233" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E233" s="19"/>
+      <c r="F233" s="19"/>
+      <c r="G233" s="19"/>
+      <c r="H233" s="19"/>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="B234" s="19" t="s">
+        <v>485</v>
+      </c>
+      <c r="C234" s="19" t="s">
+        <v>486</v>
+      </c>
+      <c r="D234" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E234" s="19"/>
+      <c r="F234" s="19"/>
+      <c r="G234" s="19"/>
+      <c r="H234" s="19"/>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="B235" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="C235" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="D235" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E235" s="19"/>
+      <c r="F235" s="19"/>
+      <c r="G235" s="19"/>
+      <c r="H235" s="19"/>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="B236" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="C236" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="D236" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E236" s="19"/>
+      <c r="F236" s="19"/>
+      <c r="G236" s="19"/>
+      <c r="H236" s="19"/>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="B237" s="19" t="s">
+        <v>492</v>
+      </c>
+      <c r="C237" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="D237" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E237" s="19"/>
+      <c r="F237" s="19"/>
+      <c r="G237" s="19"/>
+      <c r="H237" s="19"/>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="B238" s="19" t="s">
+        <v>494</v>
+      </c>
+      <c r="C238" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="D238" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E238" s="19"/>
+      <c r="F238" s="19"/>
+      <c r="G238" s="19"/>
+      <c r="H238" s="19"/>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="B239" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="C239" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="D239" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E239" s="19"/>
+      <c r="F239" s="19"/>
+      <c r="G239" s="19"/>
+      <c r="H239" s="19"/>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="B240" s="19" t="s">
+        <v>498</v>
+      </c>
+      <c r="C240" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="D240" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E240" s="19"/>
+      <c r="F240" s="19"/>
+      <c r="G240" s="19"/>
+      <c r="H240" s="19"/>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="B241" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="C241" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="D241" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E241" s="19"/>
+      <c r="F241" s="19"/>
+      <c r="G241" s="19"/>
+      <c r="H241" s="19"/>
+    </row>
+    <row r="242" spans="1:8">
+      <c r="A242" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="B242" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="C242" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="D242" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E242" s="19"/>
+      <c r="F242" s="19"/>
+      <c r="G242" s="19"/>
+      <c r="H242" s="19"/>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="B243" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="C243" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="D243" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E243" s="19"/>
+      <c r="F243" s="19"/>
+      <c r="G243" s="19"/>
+      <c r="H243" s="19"/>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" s="18" t="s">
+        <v>506</v>
+      </c>
+      <c r="B244" s="19" t="s">
+        <v>507</v>
+      </c>
+      <c r="C244" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="D244" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E244" s="19"/>
+      <c r="F244" s="19"/>
+      <c r="G244" s="19"/>
+      <c r="H244" s="19"/>
+    </row>
+    <row r="245" spans="1:8">
+      <c r="A245" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="B245" s="19" t="s">
+        <v>441</v>
+      </c>
+      <c r="C245" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="D245" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E245" s="19"/>
+      <c r="F245" s="19"/>
+      <c r="G245" s="19"/>
+      <c r="H245" s="19"/>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="B246" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="C246" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="D246" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E188" s="20"/>
-      <c r="F188" s="20"/>
-      <c r="G188" s="20"/>
-      <c r="H188" s="20"/>
-    </row>
-    <row r="189" customHeight="1" spans="1:8">
-      <c r="A189" s="19" t="s">
-        <v>391</v>
-      </c>
-      <c r="B189" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="C189" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="D189" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E189" s="20"/>
-      <c r="F189" s="20"/>
-      <c r="G189" s="20"/>
-      <c r="H189" s="20"/>
-    </row>
-    <row r="190" customHeight="1" spans="1:8">
-      <c r="A190" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="B190" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="C190" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="D190" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E190" s="20"/>
-      <c r="F190" s="20"/>
-      <c r="G190" s="20"/>
-      <c r="H190" s="20"/>
-    </row>
-    <row r="191" customHeight="1" spans="1:8">
-      <c r="A191" s="19" t="s">
-        <v>395</v>
-      </c>
-      <c r="B191" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="C191" s="20" t="s">
-        <v>340</v>
-      </c>
-      <c r="D191" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E191" s="20"/>
-      <c r="F191" s="20"/>
-      <c r="G191" s="20"/>
-      <c r="H191" s="20"/>
-    </row>
-    <row r="192" customHeight="1" spans="1:8">
-      <c r="A192" s="19" t="s">
-        <v>397</v>
-      </c>
-      <c r="B192" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C192" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="D192" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E192" s="20"/>
-      <c r="F192" s="20"/>
-      <c r="G192" s="20"/>
-      <c r="H192" s="20"/>
-    </row>
-    <row r="193" customHeight="1" spans="1:8">
-      <c r="A193" s="19" t="s">
-        <v>399</v>
-      </c>
-      <c r="B193" s="20" t="s">
-        <v>400</v>
-      </c>
-      <c r="C193" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="D193" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E193" s="20"/>
-      <c r="F193" s="20"/>
-      <c r="G193" s="20"/>
-      <c r="H193" s="20"/>
-    </row>
-    <row r="194" customHeight="1" spans="1:8">
-      <c r="A194" s="19" t="s">
-        <v>401</v>
-      </c>
-      <c r="B194" s="20" t="s">
-        <v>402</v>
-      </c>
-      <c r="C194" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="D194" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E194" s="20"/>
-      <c r="F194" s="20"/>
-      <c r="G194" s="20"/>
-      <c r="H194" s="20"/>
-    </row>
-    <row r="195" customHeight="1" spans="1:8">
-      <c r="A195" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="B195" s="20" t="s">
-        <v>404</v>
-      </c>
-      <c r="C195" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="D195" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E195" s="20"/>
-      <c r="F195" s="20"/>
-      <c r="G195" s="20"/>
-      <c r="H195" s="20"/>
-    </row>
-    <row r="196" customHeight="1" spans="1:8">
-      <c r="A196" s="19" t="s">
-        <v>405</v>
-      </c>
-      <c r="B196" s="20" t="s">
-        <v>406</v>
-      </c>
-      <c r="C196" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="D196" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E196" s="20"/>
-      <c r="F196" s="20"/>
-      <c r="G196" s="20"/>
-      <c r="H196" s="20"/>
-    </row>
-    <row r="197" customHeight="1" spans="1:8">
-      <c r="A197" s="19" t="s">
-        <v>407</v>
-      </c>
-      <c r="B197" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="C197" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="D197" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E197" s="20"/>
-      <c r="F197" s="20"/>
-      <c r="G197" s="20"/>
-      <c r="H197" s="20"/>
-    </row>
-    <row r="198" spans="1:8">
-      <c r="A198" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="B198" s="20" t="s">
-        <v>410</v>
-      </c>
-      <c r="C198" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="D198" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E198" s="20"/>
-      <c r="F198" s="20"/>
-      <c r="G198" s="20"/>
-      <c r="H198" s="20"/>
-    </row>
-    <row r="199" customHeight="1" spans="1:8">
-      <c r="A199" s="19" t="s">
-        <v>411</v>
-      </c>
-      <c r="B199" s="20" t="s">
-        <v>412</v>
-      </c>
-      <c r="C199" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="D199" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E199" s="20"/>
-      <c r="F199" s="20"/>
-      <c r="G199" s="20"/>
-      <c r="H199" s="20"/>
-    </row>
-    <row r="200" customHeight="1" spans="1:8">
-      <c r="A200" s="19" t="s">
-        <v>414</v>
-      </c>
-      <c r="B200" s="20" t="s">
-        <v>415</v>
-      </c>
-      <c r="C200" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="D200" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E200" s="20"/>
-      <c r="F200" s="20"/>
-      <c r="G200" s="20"/>
-      <c r="H200" s="20"/>
-    </row>
-    <row r="201" spans="1:8">
-      <c r="A201" s="19" t="s">
-        <v>416</v>
-      </c>
-      <c r="B201" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="C201" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="D201" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E201" s="20"/>
-      <c r="F201" s="20"/>
-      <c r="G201" s="20"/>
-      <c r="H201" s="20"/>
-    </row>
-    <row r="202" customHeight="1" spans="1:8">
-      <c r="A202" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="B202" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="C202" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="D202" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E202" s="20"/>
-      <c r="F202" s="20"/>
-      <c r="G202" s="20"/>
-      <c r="H202" s="20"/>
-    </row>
-    <row r="203" customHeight="1" spans="1:8">
-      <c r="A203" s="19" t="s">
-        <v>420</v>
-      </c>
-      <c r="B203" s="20" t="s">
-        <v>421</v>
-      </c>
-      <c r="C203" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="D203" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E203" s="20"/>
-      <c r="F203" s="20"/>
-      <c r="G203" s="20"/>
-      <c r="H203" s="20"/>
-    </row>
-    <row r="204" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A204" s="19" t="s">
-        <v>422</v>
-      </c>
-      <c r="B204" s="20" t="s">
-        <v>423</v>
-      </c>
-      <c r="C204" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="D204" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E204" s="20"/>
-      <c r="F204" s="20"/>
-      <c r="G204" s="20"/>
-      <c r="H204" s="20"/>
-    </row>
-    <row r="205" ht="21" customHeight="1" spans="1:8">
-      <c r="A205" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="B205" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="C205" s="19" t="s">
-        <v>413</v>
-      </c>
-      <c r="D205" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E205" s="20"/>
-      <c r="F205" s="20"/>
-      <c r="G205" s="20"/>
-      <c r="H205" s="20"/>
-    </row>
-    <row r="206" ht="21" customHeight="1" spans="1:8">
-      <c r="A206" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="B206" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="C206" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="D206" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E206" s="20"/>
-      <c r="F206" s="20"/>
-      <c r="G206" s="20"/>
-      <c r="H206" s="20"/>
-    </row>
-    <row r="207" ht="21" customHeight="1" spans="1:8">
-      <c r="A207" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="B207" s="20" t="s">
-        <v>430</v>
-      </c>
-      <c r="C207" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="D207" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E207" s="20"/>
-      <c r="F207" s="20"/>
-      <c r="G207" s="20"/>
-      <c r="H207" s="20"/>
-    </row>
-    <row r="208" ht="21" customHeight="1" spans="1:8">
-      <c r="A208" s="19" t="s">
-        <v>431</v>
-      </c>
-      <c r="B208" s="20" t="s">
-        <v>432</v>
-      </c>
-      <c r="C208" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="D208" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E208" s="20"/>
-      <c r="F208" s="20"/>
-      <c r="G208" s="20"/>
-      <c r="H208" s="20"/>
-    </row>
-    <row r="209" ht="21" customHeight="1" spans="1:8">
-      <c r="A209" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="B209" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="C209" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="D209" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E209" s="20"/>
-      <c r="F209" s="20"/>
-      <c r="G209" s="20"/>
-      <c r="H209" s="20"/>
-    </row>
-    <row r="210" ht="21" customHeight="1" spans="1:8">
-      <c r="A210" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="B210" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="C210" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="D210" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E210" s="20"/>
-      <c r="F210" s="20"/>
-      <c r="G210" s="20"/>
-      <c r="H210" s="20"/>
-    </row>
-    <row r="211" ht="21" customHeight="1" spans="1:8">
-      <c r="A211" s="19" t="s">
-        <v>437</v>
-      </c>
-      <c r="B211" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="C211" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="D211" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E211" s="20"/>
-      <c r="F211" s="20"/>
-      <c r="G211" s="20"/>
-      <c r="H211" s="20"/>
-    </row>
-    <row r="212" ht="21" customHeight="1" spans="1:8">
-      <c r="A212" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="B212" s="22" t="s">
-        <v>440</v>
-      </c>
-      <c r="C212" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="D212" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E212" s="20"/>
-      <c r="F212" s="20"/>
-      <c r="G212" s="20"/>
-      <c r="H212" s="20"/>
-    </row>
-    <row r="213" ht="21" customHeight="1" spans="1:8">
-      <c r="A213" s="19" t="s">
-        <v>441</v>
-      </c>
-      <c r="B213" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="C213" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="D213" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E213" s="20"/>
-      <c r="F213" s="20"/>
-      <c r="G213" s="20"/>
-      <c r="H213" s="20"/>
-    </row>
-    <row r="214" customHeight="1" spans="1:8">
-      <c r="A214" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="B214" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="C214" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="D214" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E214" s="20"/>
-      <c r="F214" s="20"/>
-      <c r="G214" s="20"/>
-      <c r="H214" s="20"/>
-    </row>
-    <row r="215" customHeight="1" spans="1:8">
-      <c r="A215" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="B215" s="20" t="s">
-        <v>446</v>
-      </c>
-      <c r="C215" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="D215" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E215" s="20"/>
-      <c r="F215" s="20"/>
-      <c r="G215" s="20"/>
-      <c r="H215" s="20"/>
-    </row>
-    <row r="216" customHeight="1" spans="1:8">
-      <c r="A216" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="B216" s="20" t="s">
-        <v>449</v>
-      </c>
-      <c r="C216" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="D216" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E216" s="20"/>
-      <c r="F216" s="20"/>
-      <c r="G216" s="20"/>
-      <c r="H216" s="20"/>
-    </row>
-    <row r="217" customHeight="1" spans="1:8">
-      <c r="A217" s="19" t="s">
-        <v>450</v>
-      </c>
-      <c r="B217" s="20" t="s">
-        <v>451</v>
-      </c>
-      <c r="C217" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="D217" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E217" s="20"/>
-      <c r="F217" s="20"/>
-      <c r="G217" s="20"/>
-      <c r="H217" s="20"/>
-    </row>
-    <row r="218" customHeight="1" spans="1:8">
-      <c r="A218" s="19" t="s">
-        <v>452</v>
-      </c>
-      <c r="B218" s="20" t="s">
-        <v>453</v>
-      </c>
-      <c r="C218" s="20" t="s">
-        <v>447</v>
-      </c>
-      <c r="D218" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E218" s="20"/>
-      <c r="F218" s="20"/>
-      <c r="G218" s="20"/>
-      <c r="H218" s="20"/>
-    </row>
-    <row r="219" customHeight="1" spans="1:8">
-      <c r="A219" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="B219" s="20" t="s">
-        <v>455</v>
-      </c>
-      <c r="C219" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="D219" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E219" s="20"/>
-      <c r="F219" s="20"/>
-      <c r="G219" s="20"/>
-      <c r="H219" s="20"/>
-    </row>
-    <row r="220" customHeight="1" spans="1:8">
-      <c r="A220" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="B220" s="20" t="s">
-        <v>458</v>
-      </c>
-      <c r="C220" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="D220" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E220" s="20"/>
-      <c r="F220" s="20"/>
-      <c r="G220" s="20"/>
-      <c r="H220" s="20"/>
-    </row>
-    <row r="221" customHeight="1" spans="1:8">
-      <c r="A221" s="19" t="s">
-        <v>459</v>
-      </c>
-      <c r="B221" s="20" t="s">
-        <v>460</v>
-      </c>
-      <c r="C221" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="D221" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E221" s="20"/>
-      <c r="F221" s="20"/>
-      <c r="G221" s="20"/>
-      <c r="H221" s="20"/>
-    </row>
-    <row r="222" customHeight="1" spans="1:8">
-      <c r="A222" s="19" t="s">
-        <v>461</v>
-      </c>
-      <c r="B222" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="C222" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="D222" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E222" s="20"/>
-      <c r="F222" s="20"/>
-      <c r="G222" s="20"/>
-      <c r="H222" s="20"/>
-    </row>
-    <row r="223" customHeight="1" spans="1:8">
-      <c r="A223" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="B223" s="20" t="s">
-        <v>464</v>
-      </c>
-      <c r="C223" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="D223" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E223" s="20"/>
-      <c r="F223" s="20"/>
-      <c r="G223" s="20"/>
-      <c r="H223" s="20"/>
-    </row>
-    <row r="224" spans="1:8">
-      <c r="A224" s="19" t="s">
-        <v>465</v>
-      </c>
-      <c r="B224" s="20" t="s">
-        <v>466</v>
-      </c>
-      <c r="C224" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="D224" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E224" s="20"/>
-      <c r="F224" s="20"/>
-      <c r="G224" s="20"/>
-      <c r="H224" s="20"/>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="A225" s="19" t="s">
-        <v>467</v>
-      </c>
-      <c r="B225" s="20" t="s">
-        <v>468</v>
-      </c>
-      <c r="C225" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="D225" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E225" s="20"/>
-      <c r="F225" s="20"/>
-      <c r="G225" s="20"/>
-      <c r="H225" s="20"/>
-    </row>
-    <row r="226" spans="1:8">
-      <c r="A226" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="B226" s="20" t="s">
-        <v>470</v>
-      </c>
-      <c r="C226" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="D226" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E226" s="20"/>
-      <c r="F226" s="20"/>
-      <c r="G226" s="20"/>
-      <c r="H226" s="20"/>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="A227" s="19" t="s">
-        <v>471</v>
-      </c>
-      <c r="B227" s="20" t="s">
-        <v>472</v>
-      </c>
-      <c r="C227" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="D227" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E227" s="20"/>
-      <c r="F227" s="20"/>
-      <c r="G227" s="20"/>
-      <c r="H227" s="20"/>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="A228" s="19" t="s">
-        <v>473</v>
-      </c>
-      <c r="B228" s="20" t="s">
-        <v>474</v>
-      </c>
-      <c r="C228" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="D228" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E228" s="20"/>
-      <c r="F228" s="20"/>
-      <c r="G228" s="20"/>
-      <c r="H228" s="20"/>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="A229" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="B229" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="C229" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="D229" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E229" s="20"/>
-      <c r="F229" s="20"/>
-      <c r="G229" s="20"/>
-      <c r="H229" s="20"/>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="A230" s="19" t="s">
-        <v>477</v>
-      </c>
-      <c r="B230" s="20" t="s">
-        <v>478</v>
-      </c>
-      <c r="C230" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="D230" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E230" s="20"/>
-      <c r="F230" s="20"/>
-      <c r="G230" s="20"/>
-      <c r="H230" s="20"/>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="A231" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="B231" s="20" t="s">
-        <v>480</v>
-      </c>
-      <c r="C231" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="D231" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E231" s="20"/>
-      <c r="F231" s="20"/>
-      <c r="G231" s="20"/>
-      <c r="H231" s="20"/>
-    </row>
-    <row r="232" spans="1:8">
-      <c r="A232" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="B232" s="20" t="s">
-        <v>482</v>
-      </c>
-      <c r="C232" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="D232" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E232" s="20"/>
-      <c r="F232" s="20"/>
-      <c r="G232" s="20"/>
-      <c r="H232" s="20"/>
-    </row>
-    <row r="233" spans="1:8">
-      <c r="A233" s="19" t="s">
-        <v>483</v>
-      </c>
-      <c r="B233" s="20" t="s">
-        <v>484</v>
-      </c>
-      <c r="C233" s="20" t="s">
-        <v>456</v>
-      </c>
-      <c r="D233" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E233" s="20"/>
-      <c r="F233" s="20"/>
-      <c r="G233" s="20"/>
-      <c r="H233" s="20"/>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="A234" s="19" t="s">
-        <v>485</v>
-      </c>
-      <c r="B234" s="20" t="s">
-        <v>486</v>
-      </c>
-      <c r="C234" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="D234" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E234" s="20"/>
-      <c r="F234" s="20"/>
-      <c r="G234" s="20"/>
-      <c r="H234" s="20"/>
-    </row>
-    <row r="235" spans="1:8">
-      <c r="A235" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="B235" s="20" t="s">
-        <v>455</v>
-      </c>
-      <c r="C235" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="D235" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E235" s="20"/>
-      <c r="F235" s="20"/>
-      <c r="G235" s="20"/>
-      <c r="H235" s="20"/>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="A236" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="B236" s="20" t="s">
-        <v>491</v>
-      </c>
-      <c r="C236" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="D236" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E236" s="20"/>
-      <c r="F236" s="20"/>
-      <c r="G236" s="20"/>
-      <c r="H236" s="20"/>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="A237" s="19" t="s">
-        <v>492</v>
-      </c>
-      <c r="B237" s="20" t="s">
-        <v>493</v>
-      </c>
-      <c r="C237" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="D237" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E237" s="20"/>
-      <c r="F237" s="20"/>
-      <c r="G237" s="20"/>
-      <c r="H237" s="20"/>
-    </row>
-    <row r="238" spans="1:8">
-      <c r="A238" s="19" t="s">
-        <v>494</v>
-      </c>
-      <c r="B238" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="C238" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="D238" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E238" s="20"/>
-      <c r="F238" s="20"/>
-      <c r="G238" s="20"/>
-      <c r="H238" s="20"/>
-    </row>
-    <row r="239" spans="1:8">
-      <c r="A239" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="B239" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="C239" s="20" t="s">
-        <v>489</v>
-      </c>
-      <c r="D239" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E239" s="20"/>
-      <c r="F239" s="20"/>
-      <c r="G239" s="20"/>
-      <c r="H239" s="20"/>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="A240" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="B240" s="20" t="s">
+      <c r="E246" s="19"/>
+      <c r="F246" s="19"/>
+      <c r="G246" s="19"/>
+      <c r="H246" s="19"/>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="A247" s="18" t="s">
+        <v>510</v>
+      </c>
+      <c r="B247" s="18" t="s">
+        <v>511</v>
+      </c>
+      <c r="C247" s="19" t="s">
         <v>499</v>
       </c>
-      <c r="C240" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="D240" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E240" s="20"/>
-      <c r="F240" s="20"/>
-      <c r="G240" s="20"/>
-      <c r="H240" s="20"/>
-    </row>
-    <row r="241" spans="1:8">
-      <c r="A241" s="19" t="s">
-        <v>501</v>
-      </c>
-      <c r="B241" s="19" t="s">
-        <v>502</v>
-      </c>
-      <c r="C241" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="D241" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E241" s="20"/>
-      <c r="F241" s="20"/>
-      <c r="G241" s="20"/>
-      <c r="H241" s="20"/>
-    </row>
-    <row r="242" spans="1:8">
-      <c r="A242" s="19" t="s">
-        <v>503</v>
-      </c>
-      <c r="B242" s="20" t="s">
-        <v>504</v>
-      </c>
-      <c r="C242" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="D242" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E242" s="20"/>
-      <c r="F242" s="20"/>
-      <c r="G242" s="20"/>
-      <c r="H242" s="20"/>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="A243" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="B243" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="C243" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="D243" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E243" s="20"/>
-      <c r="F243" s="20"/>
-      <c r="G243" s="20"/>
-      <c r="H243" s="20"/>
-    </row>
-    <row r="244" spans="1:8">
-      <c r="A244" s="19" t="s">
-        <v>507</v>
-      </c>
-      <c r="B244" s="20" t="s">
-        <v>508</v>
-      </c>
-      <c r="C244" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="D244" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E244" s="20"/>
-      <c r="F244" s="20"/>
-      <c r="G244" s="20"/>
-      <c r="H244" s="20"/>
-    </row>
-    <row r="245" spans="1:8">
-      <c r="A245" s="19" t="s">
-        <v>509</v>
-      </c>
-      <c r="B245" s="20" t="s">
-        <v>442</v>
-      </c>
-      <c r="C245" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="D245" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E245" s="20"/>
-      <c r="F245" s="20"/>
-      <c r="G245" s="20"/>
-      <c r="H245" s="20"/>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="A246" s="19" t="s">
-        <v>510</v>
-      </c>
-      <c r="B246" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="C246" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="D246" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E246" s="20"/>
-      <c r="F246" s="20"/>
-      <c r="G246" s="20"/>
-      <c r="H246" s="20"/>
-    </row>
-    <row r="247" spans="1:8">
-      <c r="A247" s="19" t="s">
-        <v>511</v>
-      </c>
-      <c r="B247" s="19" t="s">
+      <c r="D247" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E247" s="19"/>
+      <c r="F247" s="19"/>
+      <c r="G247" s="19"/>
+      <c r="H247" s="19"/>
+    </row>
+    <row r="248" spans="1:8">
+      <c r="A248" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="C247" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="D247" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E247" s="20"/>
-      <c r="F247" s="20"/>
-      <c r="G247" s="20"/>
-      <c r="H247" s="20"/>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="A248" s="19" t="s">
+      <c r="B248" s="19" t="s">
         <v>513</v>
       </c>
-      <c r="B248" s="20" t="s">
+      <c r="C248" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="C248" s="20" t="s">
+      <c r="D248" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E248" s="19"/>
+      <c r="F248" s="19"/>
+      <c r="G248" s="19"/>
+      <c r="H248" s="19"/>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="D248" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E248" s="20"/>
-      <c r="F248" s="20"/>
-      <c r="G248" s="20"/>
-      <c r="H248" s="20"/>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="A249" s="19" t="s">
+      <c r="B249" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="B249" s="20" t="s">
+      <c r="C249" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="D249" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E249" s="19"/>
+      <c r="F249" s="19"/>
+      <c r="G249" s="19"/>
+      <c r="H249" s="19"/>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="A250" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="C249" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="D249" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E249" s="20"/>
-      <c r="F249" s="20"/>
-      <c r="G249" s="20"/>
-      <c r="H249" s="20"/>
-    </row>
-    <row r="250" spans="1:8">
-      <c r="A250" s="19" t="s">
+      <c r="B250" s="19" t="s">
         <v>518</v>
       </c>
-      <c r="B250" s="20" t="s">
+      <c r="C250" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="D250" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E250" s="19"/>
+      <c r="F250" s="19"/>
+      <c r="G250" s="19"/>
+      <c r="H250" s="19"/>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="A251" s="18" t="s">
         <v>519</v>
       </c>
-      <c r="C250" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="D250" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E250" s="20"/>
-      <c r="F250" s="20"/>
-      <c r="G250" s="20"/>
-      <c r="H250" s="20"/>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="A251" s="19" t="s">
+      <c r="B251" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="B251" s="20" t="s">
-        <v>521</v>
-      </c>
-      <c r="C251" s="20" t="s">
-        <v>515</v>
-      </c>
-      <c r="D251" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E251" s="20"/>
-      <c r="F251" s="20"/>
-      <c r="G251" s="20"/>
-      <c r="H251" s="20"/>
+      <c r="C251" s="19" t="s">
+        <v>514</v>
+      </c>
+      <c r="D251" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E251" s="19"/>
+      <c r="F251" s="19"/>
+      <c r="G251" s="19"/>
+      <c r="H251" s="19"/>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="23" t="s">
+        <v>521</v>
+      </c>
+      <c r="B252" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="B252" s="20" t="s">
+      <c r="C252" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="C252" s="20" t="s">
-        <v>524</v>
-      </c>
-      <c r="D252" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E252" s="20"/>
-      <c r="F252" s="20"/>
-      <c r="G252" s="20"/>
-      <c r="H252" s="20"/>
+      <c r="D252" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E252" s="19"/>
+      <c r="F252" s="19"/>
+      <c r="G252" s="19"/>
+      <c r="H252" s="19"/>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="23" t="s">
+        <v>524</v>
+      </c>
+      <c r="B253" s="24" t="s">
         <v>525</v>
       </c>
-      <c r="B253" s="24" t="s">
-        <v>526</v>
-      </c>
-      <c r="C253" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D253" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E253" s="20"/>
-      <c r="F253" s="20"/>
-      <c r="G253" s="20"/>
-      <c r="H253" s="20"/>
+      <c r="C253" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D253" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E253" s="19"/>
+      <c r="F253" s="19"/>
+      <c r="G253" s="19"/>
+      <c r="H253" s="19"/>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="23" t="s">
+        <v>526</v>
+      </c>
+      <c r="B254" s="24" t="s">
         <v>527</v>
       </c>
-      <c r="B254" s="24" t="s">
-        <v>528</v>
-      </c>
-      <c r="C254" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D254" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E254" s="20"/>
-      <c r="F254" s="20"/>
-      <c r="G254" s="20"/>
-      <c r="H254" s="20"/>
+      <c r="C254" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D254" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E254" s="19"/>
+      <c r="F254" s="19"/>
+      <c r="G254" s="19"/>
+      <c r="H254" s="19"/>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="B255" s="24" t="s">
         <v>529</v>
       </c>
-      <c r="B255" s="24" t="s">
-        <v>530</v>
-      </c>
-      <c r="C255" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D255" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E255" s="20"/>
-      <c r="F255" s="20"/>
-      <c r="G255" s="20"/>
-      <c r="H255" s="20"/>
+      <c r="C255" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D255" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E255" s="19"/>
+      <c r="F255" s="19"/>
+      <c r="G255" s="19"/>
+      <c r="H255" s="19"/>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="23" t="s">
+        <v>530</v>
+      </c>
+      <c r="B256" s="24" t="s">
         <v>531</v>
       </c>
-      <c r="B256" s="24" t="s">
-        <v>532</v>
-      </c>
-      <c r="C256" s="20"/>
-      <c r="D256" s="20"/>
-      <c r="E256" s="20"/>
-      <c r="F256" s="20"/>
-      <c r="G256" s="20"/>
-      <c r="H256" s="20"/>
+      <c r="C256" s="19"/>
+      <c r="D256" s="19"/>
+      <c r="E256" s="19"/>
+      <c r="F256" s="19"/>
+      <c r="G256" s="19"/>
+      <c r="H256" s="19"/>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="B257" s="24" t="s">
         <v>533</v>
       </c>
-      <c r="B257" s="24" t="s">
-        <v>534</v>
-      </c>
-      <c r="C257" s="20"/>
-      <c r="D257" s="20"/>
-      <c r="E257" s="20"/>
-      <c r="F257" s="20"/>
-      <c r="G257" s="20"/>
-      <c r="H257" s="20"/>
+      <c r="C257" s="19"/>
+      <c r="D257" s="19"/>
+      <c r="E257" s="19"/>
+      <c r="F257" s="19"/>
+      <c r="G257" s="19"/>
+      <c r="H257" s="19"/>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="23"/>
       <c r="B258" s="24"/>
-      <c r="C258" s="20"/>
-      <c r="D258" s="20"/>
-      <c r="E258" s="20"/>
-      <c r="F258" s="20"/>
-      <c r="G258" s="20"/>
-      <c r="H258" s="20"/>
+      <c r="C258" s="19"/>
+      <c r="D258" s="19"/>
+      <c r="E258" s="19"/>
+      <c r="F258" s="19"/>
+      <c r="G258" s="19"/>
+      <c r="H258" s="19"/>
     </row>
     <row r="259" spans="2:2">
       <c r="B259" s="5"/>

--- a/QA/testcases/ORSheet.xlsx
+++ b/QA/testcases/ORSheet.xlsx
@@ -1058,6 +1058,18 @@
     <t>//button[text()='Ok']</t>
   </si>
   <si>
+    <t>DOB_FIELD</t>
+  </si>
+  <si>
+    <t>//label[text()='Date of Birth']/following-sibling::div/div/input</t>
+  </si>
+  <si>
+    <t>DOB_DATEPICKER</t>
+  </si>
+  <si>
+    <t>//div[@class='rdtPicker']//table//tr//td[text()='1']</t>
+  </si>
+  <si>
     <t>Create Patient - Provider</t>
   </si>
   <si>
@@ -1085,22 +1097,10 @@
     <t>Last Name</t>
   </si>
   <si>
-    <t>DOB_FIELD</t>
-  </si>
-  <si>
-    <t>//label[text()='Date of Birth']/following-sibling::div/div/input</t>
-  </si>
-  <si>
     <t>CREATE_APP_LINK</t>
   </si>
   <si>
     <t>SEARCH_BUTTON_LINK</t>
-  </si>
-  <si>
-    <t>DOB_DATEPICKER</t>
-  </si>
-  <si>
-    <t>//div[@class='rdtPicker']//table//tr//td[text()='1']</t>
   </si>
   <si>
     <t>CONTACT_ADDRESS_LINE1</t>
@@ -1636,10 +1636,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="41">
     <font>
@@ -1764,6 +1764,43 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1776,9 +1813,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1792,62 +1844,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1860,15 +1859,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1877,6 +1870,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1969,7 +1969,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1981,7 +2017,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1993,31 +2053,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2029,7 +2077,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2047,18 +2095,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2066,6 +2102,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2095,61 +2143,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2160,6 +2160,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2202,11 +2220,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2228,30 +2252,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2263,148 +2263,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2801,7 +2801,7 @@
   <dimension ref="A1:XFC6412"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="A165" sqref="$A165:$XFD169"/>
+      <selection activeCell="B166" sqref="B166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.1428571428571" defaultRowHeight="15" customHeight="1"/>
@@ -13844,7 +13844,6 @@
       <c r="B164" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="C164" s="1"/>
       <c r="D164" s="1" t="s">
         <v>17</v>
       </c>
@@ -22042,10 +22041,16 @@
       <c r="XFC164"/>
     </row>
     <row r="165" customHeight="1" spans="1:16383">
-      <c r="A165" s="20"/>
-      <c r="B165"/>
+      <c r="A165" s="18" t="s">
+        <v>347</v>
+      </c>
+      <c r="B165" s="18" t="s">
+        <v>348</v>
+      </c>
       <c r="C165"/>
-      <c r="D165"/>
+      <c r="D165" t="s">
+        <v>17</v>
+      </c>
       <c r="E165" s="19"/>
       <c r="F165" s="19"/>
       <c r="G165" s="19"/>
@@ -30240,10 +30245,18 @@
       <c r="XFC165"/>
     </row>
     <row r="166" customHeight="1" spans="1:16383">
-      <c r="A166" s="20"/>
-      <c r="B166"/>
-      <c r="C166"/>
-      <c r="D166"/>
+      <c r="A166" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="B166" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="C166" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D166" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="E166" s="19"/>
       <c r="F166" s="19"/>
       <c r="G166" s="19"/>
@@ -63033,7 +63046,7 @@
     </row>
     <row r="170" customHeight="1" spans="1:8">
       <c r="A170" s="21" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B170" s="18"/>
       <c r="C170" s="19"/>
@@ -63045,10 +63058,10 @@
     </row>
     <row r="171" customHeight="1" spans="1:8">
       <c r="A171" s="18" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B171" s="18" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C171" s="19" t="s">
         <v>340</v>
@@ -63063,10 +63076,10 @@
     </row>
     <row r="172" customHeight="1" spans="1:8">
       <c r="A172" s="18" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C172" s="19" t="s">
         <v>340</v>
@@ -63081,10 +63094,10 @@
     </row>
     <row r="173" customHeight="1" spans="1:8">
       <c r="A173" s="18" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C173" s="19" t="s">
         <v>340</v>
@@ -63099,10 +63112,10 @@
     </row>
     <row r="174" customHeight="1" spans="1:8">
       <c r="A174" s="18" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C174" s="19" t="s">
         <v>340</v>
@@ -63117,10 +63130,10 @@
     </row>
     <row r="175" customHeight="1" spans="1:8">
       <c r="A175" s="18" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B175" s="18" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C175" s="19" t="s">
         <v>340</v>
@@ -63135,7 +63148,7 @@
     </row>
     <row r="176" customHeight="1" spans="1:8">
       <c r="A176" s="18" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B176" s="18" t="s">
         <v>247</v>
@@ -63153,7 +63166,7 @@
     </row>
     <row r="177" customHeight="1" spans="1:8">
       <c r="A177" s="18" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B177" s="18" t="s">
         <v>342</v>
@@ -63169,19 +63182,7 @@
       <c r="G177" s="19"/>
       <c r="H177" s="19"/>
     </row>
-    <row r="178" ht="17.25" customHeight="1" spans="1:8">
-      <c r="A178" s="18" t="s">
-        <v>360</v>
-      </c>
-      <c r="B178" s="18" t="s">
-        <v>361</v>
-      </c>
-      <c r="C178" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="D178" s="19" t="s">
-        <v>17</v>
-      </c>
+    <row r="178" ht="17.25" customHeight="1" spans="5:8">
       <c r="E178" s="19"/>
       <c r="F178" s="19"/>
       <c r="G178" s="19"/>
@@ -64524,7 +64525,7 @@
         <v>513</v>
       </c>
       <c r="B253" s="18" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C253" s="19" t="s">
         <v>503</v>
